--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -85,12 +85,12 @@
     <t>EGIE3</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
     <t>BBDC4</t>
   </si>
   <si>
@@ -109,13 +109,13 @@
     <t>VBBR3</t>
   </si>
   <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>BRAP4</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
   </si>
 </sst>
 </file>
@@ -546,22 +546,22 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6027011465228267</v>
+        <v>0.5987908684732841</v>
       </c>
       <c r="E2">
-        <v>0.7975358288435211</v>
+        <v>0.7817956988253075</v>
       </c>
       <c r="F2">
-        <v>2.4708841861645E-05</v>
+        <v>2.645199871849819E-05</v>
       </c>
       <c r="G2">
-        <v>68.15176636437958</v>
+        <v>68.08068740157883</v>
       </c>
       <c r="H2">
-        <v>-0.759270764522135</v>
+        <v>-0.7565901140921838</v>
       </c>
       <c r="I2">
-        <v>3.887554992946161E-67</v>
+        <v>7.766167894007371E-67</v>
       </c>
       <c r="J2">
         <v>46.02999877929688</v>
@@ -570,19 +570,19 @@
         <v>27.3799991607666</v>
       </c>
       <c r="L2">
-        <v>2.739184611691527</v>
+        <v>2.718183236313806</v>
       </c>
       <c r="M2">
-        <v>-2.914878706219113</v>
+        <v>-2.93904324992225</v>
       </c>
       <c r="N2">
-        <v>1.21778854061199</v>
+        <v>1.210090754271995</v>
       </c>
       <c r="O2">
-        <v>-1.332934689672033</v>
+        <v>-1.335251933393653</v>
       </c>
       <c r="P2">
-        <v>0.009733661857372783</v>
+        <v>0.009868659357410114</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -602,22 +602,22 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.5763875257786766</v>
+        <v>0.6128892131064924</v>
       </c>
       <c r="E3">
-        <v>0.7975358288435211</v>
+        <v>0.7817956988253075</v>
       </c>
       <c r="F3">
-        <v>0.0003980482401442489</v>
+        <v>0.00101151571157227</v>
       </c>
       <c r="G3">
-        <v>14.21219621424431</v>
+        <v>14.19516018695683</v>
       </c>
       <c r="H3">
-        <v>-0.1494887813699487</v>
+        <v>-0.1488462898074192</v>
       </c>
       <c r="I3">
-        <v>4.264794863091878E-68</v>
+        <v>4.936341316499177E-68</v>
       </c>
       <c r="J3">
         <v>9.75</v>
@@ -626,19 +626,19 @@
         <v>27.3799991607666</v>
       </c>
       <c r="L3">
-        <v>0.5795463663637541</v>
+        <v>0.5705357851180697</v>
       </c>
       <c r="M3">
-        <v>-0.5447694234520313</v>
+        <v>-0.5517047572448561</v>
       </c>
       <c r="N3">
-        <v>0.2353443702333399</v>
+        <v>0.2325709854676147</v>
       </c>
       <c r="O3">
-        <v>-0.3691935057910918</v>
+        <v>-0.3697488969464695</v>
       </c>
       <c r="P3">
-        <v>0.01127987663135431</v>
+        <v>0.0117626153519773</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -658,22 +658,22 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.5458766119473499</v>
+        <v>0.5497523845022378</v>
       </c>
       <c r="E4">
-        <v>0.6341404311008352</v>
+        <v>0.6880347613826853</v>
       </c>
       <c r="F4">
-        <v>0.0009268475323419568</v>
+        <v>0.001552377765421319</v>
       </c>
       <c r="G4">
-        <v>-4.839261566836647</v>
+        <v>-4.937762126312154</v>
       </c>
       <c r="H4">
-        <v>0.4942464866716401</v>
+        <v>0.4968758618496594</v>
       </c>
       <c r="I4">
-        <v>6.728975976141585E-53</v>
+        <v>3.835642122135074E-53</v>
       </c>
       <c r="J4">
         <v>12.35999965667725</v>
@@ -682,19 +682,19 @@
         <v>33.63999938964844</v>
       </c>
       <c r="L4">
-        <v>0.9579834944767072</v>
+        <v>0.9679529965228362</v>
       </c>
       <c r="M4">
-        <v>-0.7228651863212754</v>
+        <v>-0.7122909291878372</v>
       </c>
       <c r="N4">
-        <v>0.3668629796839556</v>
+        <v>0.3641502707220364</v>
       </c>
       <c r="O4">
-        <v>0.5728097135440358</v>
+        <v>0.5828580936358172</v>
       </c>
       <c r="P4">
-        <v>0.01213137550491779</v>
+        <v>0.01235196739837968</v>
       </c>
       <c r="Q4" t="s">
         <v>27</v>
@@ -714,22 +714,22 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.5840873320101978</v>
+        <v>0.5942105758944931</v>
       </c>
       <c r="E5">
-        <v>0.428648945419203</v>
+        <v>0.4968495121365162</v>
       </c>
       <c r="F5">
-        <v>0.004791889199353182</v>
+        <v>0.003765130690021372</v>
       </c>
       <c r="G5">
-        <v>-14.64296638008751</v>
+        <v>-14.5576795754771</v>
       </c>
       <c r="H5">
-        <v>1.387972202585481</v>
+        <v>1.384856138838338</v>
       </c>
       <c r="I5">
-        <v>2.507757052898043E-64</v>
+        <v>1.831467972184586E-63</v>
       </c>
       <c r="J5">
         <v>23.13999938964844</v>
@@ -738,19 +738,19 @@
         <v>26.11000061035156</v>
       </c>
       <c r="L5">
-        <v>1.902846743470505</v>
+        <v>1.898359472774423</v>
       </c>
       <c r="M5">
-        <v>-1.838499720536497</v>
+        <v>-1.844176486048269</v>
       </c>
       <c r="N5">
-        <v>0.7651757397036031</v>
+        <v>0.7669511564193487</v>
       </c>
       <c r="O5">
-        <v>1.543010713078054</v>
+        <v>1.539084334807406</v>
       </c>
       <c r="P5">
-        <v>0.01386110438526216</v>
+        <v>0.01364280747010431</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -770,22 +770,22 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.5157092726095411</v>
+        <v>0.5185829820058814</v>
       </c>
       <c r="E6">
-        <v>0.4560603262026822</v>
+        <v>0.456867932934849</v>
       </c>
       <c r="F6">
-        <v>0.004631634983552018</v>
+        <v>0.004811148835538532</v>
       </c>
       <c r="G6">
-        <v>14.29395015331443</v>
+        <v>14.29129273007417</v>
       </c>
       <c r="H6">
-        <v>1.017647048406554</v>
+        <v>1.017788346794281</v>
       </c>
       <c r="I6">
-        <v>9.503947126581906E-39</v>
+        <v>1.783577833602887E-38</v>
       </c>
       <c r="J6">
         <v>40.40000152587891</v>
@@ -794,19 +794,19 @@
         <v>27.06999969482422</v>
       </c>
       <c r="L6">
-        <v>1.606640408030714</v>
+        <v>1.605779501470479</v>
       </c>
       <c r="M6">
-        <v>-2.120515235617503</v>
+        <v>-2.121790623251748</v>
       </c>
       <c r="N6">
-        <v>0.8008235515626272</v>
+        <v>0.8037130357267565</v>
       </c>
       <c r="O6">
-        <v>-1.441653917239709</v>
+        <v>-1.442821441312084</v>
       </c>
       <c r="P6">
-        <v>0.01391822393339089</v>
+        <v>0.01390581459659282</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -817,282 +817,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>231</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3963965787035019</v>
+        <v>0.6707777623098895</v>
       </c>
       <c r="E7">
-        <v>0.7975358288435211</v>
+        <v>0.7904969926749634</v>
       </c>
       <c r="F7">
-        <v>0.003842703670519343</v>
+        <v>0.006330362763989607</v>
       </c>
       <c r="G7">
-        <v>18.85277531380438</v>
+        <v>14.49846446522677</v>
       </c>
       <c r="H7">
-        <v>-0.1835733662398728</v>
+        <v>1.737039178254953</v>
       </c>
       <c r="I7">
-        <v>1.061205653061781E-32</v>
+        <v>3.622918690237395E-69</v>
       </c>
       <c r="J7">
-        <v>14.46000003814697</v>
+        <v>56.02999877929688</v>
       </c>
       <c r="K7">
-        <v>27.3799991607666</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="L7">
-        <v>1.211464542595664</v>
+        <v>2.849255918387556</v>
       </c>
       <c r="M7">
-        <v>-1.701756000299266</v>
+        <v>-3.367485220397754</v>
       </c>
       <c r="N7">
-        <v>0.6254189915812882</v>
+        <v>1.326422465541889</v>
       </c>
       <c r="O7">
-        <v>0.6334633379294106</v>
+        <v>-2.346075726226722</v>
       </c>
       <c r="P7">
-        <v>0.01437460819946236</v>
+        <v>0.0144693542148483</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>474</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>0.7045744979580204</v>
+        <v>0.4318805528310274</v>
       </c>
       <c r="E8">
-        <v>0.7651159232012639</v>
+        <v>0.7817956988253075</v>
       </c>
       <c r="F8">
-        <v>0.005787619611034581</v>
+        <v>0.005308794324026483</v>
       </c>
       <c r="G8">
-        <v>14.56685748121807</v>
+        <v>18.83085994188182</v>
       </c>
       <c r="H8">
-        <v>1.73407891292</v>
+        <v>-0.182746856554701</v>
       </c>
       <c r="I8">
-        <v>4.334605585406934E-70</v>
+        <v>2.499932350904805E-32</v>
       </c>
       <c r="J8">
-        <v>56.02999877929688</v>
+        <v>14.46000003814697</v>
       </c>
       <c r="K8">
-        <v>25.26000022888184</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="L8">
-        <v>2.851761259426887</v>
+        <v>1.200989001091383</v>
       </c>
       <c r="M8">
-        <v>-3.35725359067365</v>
+        <v>-1.703437479257779</v>
       </c>
       <c r="N8">
-        <v>1.322379479008824</v>
+        <v>0.6255023605009263</v>
       </c>
       <c r="O8">
-        <v>-2.339692439179558</v>
+        <v>0.6327488753656052</v>
       </c>
       <c r="P8">
-        <v>0.01442796892696427</v>
+        <v>0.01469768243949924</v>
       </c>
       <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>558</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4545293154312287</v>
+        <v>0.4318805528310274</v>
       </c>
       <c r="E9">
-        <v>0.7158344480709269</v>
+        <v>0.7172695486017407</v>
       </c>
       <c r="F9">
-        <v>0.005474784838118784</v>
+        <v>0.005673435809921685</v>
       </c>
       <c r="G9">
-        <v>2.696558460471753</v>
+        <v>7.476056977447708</v>
       </c>
       <c r="H9">
-        <v>0.5390458901949626</v>
+        <v>0.2267120512591765</v>
       </c>
       <c r="I9">
-        <v>2.329450918252425E-41</v>
+        <v>2.414833160951434E-40</v>
       </c>
       <c r="J9">
-        <v>14.19999980926514</v>
+        <v>14.46000003814697</v>
       </c>
       <c r="K9">
-        <v>20.14999961853027</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="L9">
-        <v>1.838331410701766</v>
+        <v>1.265630582930889</v>
       </c>
       <c r="M9">
-        <v>-1.368436878797098</v>
+        <v>-1.361380048578008</v>
       </c>
       <c r="N9">
-        <v>0.5395430573169628</v>
+        <v>0.5435502335082812</v>
       </c>
       <c r="O9">
-        <v>0.6416668669945746</v>
+        <v>0.547588063825299</v>
       </c>
       <c r="P9">
-        <v>0.01487424654406917</v>
+        <v>0.01489747353836005</v>
       </c>
       <c r="Q9" t="s">
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>237</v>
+        <v>2120</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3963965787035019</v>
+        <v>0.5987908684732841</v>
       </c>
       <c r="E10">
-        <v>0.6951522306562334</v>
+        <v>0.6278379014695012</v>
       </c>
       <c r="F10">
-        <v>0.005672544075246753</v>
+        <v>0.001281930111411404</v>
       </c>
       <c r="G10">
-        <v>7.481607046863475</v>
+        <v>2.243007689765744</v>
       </c>
       <c r="H10">
-        <v>0.2265053233000904</v>
+        <v>2.490125178846135</v>
       </c>
       <c r="I10">
-        <v>5.574514553473528E-41</v>
+        <v>2.659551518737063E-66</v>
       </c>
       <c r="J10">
-        <v>14.46000003814697</v>
+        <v>46.02999877929688</v>
       </c>
       <c r="K10">
-        <v>28.38999938964844</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="L10">
-        <v>1.26381757024933</v>
+        <v>3.555060931559971</v>
       </c>
       <c r="M10">
-        <v>-1.361645638088358</v>
+        <v>-3.502673259739488</v>
       </c>
       <c r="N10">
-        <v>0.5415546896775604</v>
+        <v>1.221505321979481</v>
       </c>
       <c r="O10">
-        <v>0.5479070010418088</v>
+        <v>-2.529338186914359</v>
       </c>
       <c r="P10">
-        <v>0.01493185900449888</v>
+        <v>0.01499801106640141</v>
       </c>
       <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
         <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2120</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.6027011465228267</v>
+        <v>0.4594534725515135</v>
       </c>
       <c r="E11">
-        <v>0.6097146010359821</v>
+        <v>0.7833675634052581</v>
       </c>
       <c r="F11">
-        <v>0.001312712123219219</v>
+        <v>0.007124205189696831</v>
       </c>
       <c r="G11">
-        <v>2.498225020603776</v>
+        <v>2.664113570002272</v>
       </c>
       <c r="H11">
-        <v>2.475520676130575</v>
+        <v>0.5403679929590868</v>
       </c>
       <c r="I11">
-        <v>7.754293666654618E-67</v>
+        <v>3.894870614085336E-41</v>
       </c>
       <c r="J11">
-        <v>46.02999877929688</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="K11">
-        <v>18.60000038146973</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="L11">
-        <v>3.548412243626174</v>
+        <v>1.841240525218977</v>
       </c>
       <c r="M11">
-        <v>-3.508455490579152</v>
+        <v>-1.369276301543476</v>
       </c>
       <c r="N11">
-        <v>1.224169765093902</v>
+        <v>0.5405807694251855</v>
       </c>
       <c r="O11">
-        <v>-2.512911761671802</v>
+        <v>0.6474713872712972</v>
       </c>
       <c r="P11">
-        <v>0.0151215444494029</v>
+        <v>0.01524161267196878</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>JBSS3</t>
   </si>
   <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
     <t>BBAS3</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>BBDC4</t>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2116</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -546,158 +549,158 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5987908684732841</v>
+        <v>0.5554330775094667</v>
       </c>
       <c r="E2">
-        <v>0.7817956988253075</v>
+        <v>0.6974104049338983</v>
       </c>
       <c r="F2">
-        <v>2.645199871849819E-05</v>
+        <v>0.00167765608831746</v>
       </c>
       <c r="G2">
-        <v>68.08068740157883</v>
+        <v>-4.877218876911135</v>
       </c>
       <c r="H2">
-        <v>-0.7565901140921838</v>
+        <v>0.49520378153196</v>
       </c>
       <c r="I2">
-        <v>7.766167894007371E-67</v>
+        <v>4.865717589195309E-53</v>
       </c>
       <c r="J2">
-        <v>46.02999877929688</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="K2">
-        <v>27.3799991607666</v>
+        <v>33.75</v>
       </c>
       <c r="L2">
-        <v>2.718183236313806</v>
+        <v>0.963708688357082</v>
       </c>
       <c r="M2">
-        <v>-2.93904324992225</v>
+        <v>-0.7169198150612441</v>
       </c>
       <c r="N2">
-        <v>1.210090754271995</v>
+        <v>0.3651855503724498</v>
       </c>
       <c r="O2">
-        <v>-1.335251933393653</v>
+        <v>0.4740916698241833</v>
       </c>
       <c r="P2">
-        <v>0.009868659357410114</v>
+        <v>0.01251409186809627</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1621</v>
+        <v>2313</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.6128892131064924</v>
+        <v>0.2942979850100767</v>
       </c>
       <c r="E3">
-        <v>0.7817956988253075</v>
+        <v>0.6273493232238139</v>
       </c>
       <c r="F3">
-        <v>0.00101151571157227</v>
+        <v>0.001561056250333374</v>
       </c>
       <c r="G3">
-        <v>14.19516018695683</v>
+        <v>5.579323037501016</v>
       </c>
       <c r="H3">
-        <v>-0.1488462898074192</v>
+        <v>0.7965850201363307</v>
       </c>
       <c r="I3">
-        <v>4.936341316499177E-68</v>
+        <v>7.072702822913985E-57</v>
       </c>
       <c r="J3">
-        <v>9.75</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="K3">
-        <v>27.3799991607666</v>
+        <v>35.70999908447266</v>
       </c>
       <c r="L3">
-        <v>0.5705357851180697</v>
+        <v>1.190958527042554</v>
       </c>
       <c r="M3">
-        <v>-0.5517047572448561</v>
+        <v>-1.382288960290605</v>
       </c>
       <c r="N3">
-        <v>0.2325709854676147</v>
+        <v>0.5205048169404896</v>
       </c>
       <c r="O3">
-        <v>-0.3697488969464695</v>
+        <v>-0.615373529861909</v>
       </c>
       <c r="P3">
-        <v>0.0117626153519773</v>
+        <v>0.01252332122522885</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>339</v>
+        <v>2780</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5497523845022378</v>
+        <v>0.6003882131151496</v>
       </c>
       <c r="E4">
-        <v>0.6880347613826853</v>
+        <v>0.5075367483762897</v>
       </c>
       <c r="F4">
-        <v>0.001552377765421319</v>
+        <v>0.003661410268468782</v>
       </c>
       <c r="G4">
-        <v>-4.937762126312154</v>
+        <v>-14.39060225060991</v>
       </c>
       <c r="H4">
-        <v>0.4968758618496594</v>
+        <v>1.379206620208516</v>
       </c>
       <c r="I4">
-        <v>3.835642122135074E-53</v>
+        <v>1.13897729996376E-62</v>
       </c>
       <c r="J4">
-        <v>12.35999965667725</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="K4">
-        <v>33.63999938964844</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="L4">
-        <v>0.9679529965228362</v>
+        <v>1.877774167702643</v>
       </c>
       <c r="M4">
-        <v>-0.7122909291878372</v>
+        <v>-1.866913581786076</v>
       </c>
       <c r="N4">
-        <v>0.3641502707220364</v>
+        <v>0.7726320186018001</v>
       </c>
       <c r="O4">
-        <v>0.5828580936358172</v>
+        <v>1.472973046708141</v>
       </c>
       <c r="P4">
-        <v>0.01235196739837968</v>
+        <v>0.01378309840098567</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -705,223 +708,223 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2780</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5942105758944931</v>
+        <v>0.6705960051826524</v>
       </c>
       <c r="E5">
-        <v>0.4968495121365162</v>
+        <v>0.760712001072281</v>
       </c>
       <c r="F5">
-        <v>0.003765130690021372</v>
+        <v>0.006319603227082743</v>
       </c>
       <c r="G5">
-        <v>-14.5576795754771</v>
+        <v>14.67220154306927</v>
       </c>
       <c r="H5">
-        <v>1.384856138838338</v>
+        <v>1.728287887743815</v>
       </c>
       <c r="I5">
-        <v>1.831467972184586E-63</v>
+        <v>2.171723996307158E-68</v>
       </c>
       <c r="J5">
-        <v>23.13999938964844</v>
+        <v>55.83000183105469</v>
       </c>
       <c r="K5">
-        <v>26.11000061035156</v>
+        <v>25</v>
       </c>
       <c r="L5">
-        <v>1.898359472774423</v>
+        <v>2.885112254963509</v>
       </c>
       <c r="M5">
-        <v>-1.844176486048269</v>
+        <v>-3.308788026938132</v>
       </c>
       <c r="N5">
-        <v>0.7669511564193487</v>
+        <v>1.338514279023261</v>
       </c>
       <c r="O5">
-        <v>1.539084334807406</v>
+        <v>-2.049396905609967</v>
       </c>
       <c r="P5">
-        <v>0.01364280747010431</v>
+        <v>0.01468010037316118</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2004</v>
+        <v>2069</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.5185829820058814</v>
+        <v>0.56374680438331</v>
       </c>
       <c r="E6">
-        <v>0.456867932934849</v>
+        <v>0.5408592102871715</v>
       </c>
       <c r="F6">
-        <v>0.004811148835538532</v>
+        <v>0.001453319782243187</v>
       </c>
       <c r="G6">
-        <v>14.29129273007417</v>
+        <v>3.75386816795236</v>
       </c>
       <c r="H6">
-        <v>1.017788346794281</v>
+        <v>2.147787959571663</v>
       </c>
       <c r="I6">
-        <v>1.783577833602887E-38</v>
+        <v>2.719605201506896E-62</v>
       </c>
       <c r="J6">
-        <v>40.40000152587891</v>
+        <v>41.90999984741211</v>
       </c>
       <c r="K6">
-        <v>27.06999969482422</v>
+        <v>18.29999923706055</v>
       </c>
       <c r="L6">
-        <v>1.605779501470479</v>
+        <v>2.900778861431291</v>
       </c>
       <c r="M6">
-        <v>-2.121790623251748</v>
+        <v>-3.086645883141301</v>
       </c>
       <c r="N6">
-        <v>0.8037130357267565</v>
+        <v>1.131943646653681</v>
       </c>
       <c r="O6">
-        <v>-1.442821441312084</v>
+        <v>-1.148386342069507</v>
       </c>
       <c r="P6">
-        <v>0.01390581459659282</v>
+        <v>0.01482062726781597</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>474</v>
+        <v>772</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.6707777623098895</v>
+        <v>0.1139505471382301</v>
       </c>
       <c r="E7">
-        <v>0.7904969926749634</v>
+        <v>0.760712001072281</v>
       </c>
       <c r="F7">
-        <v>0.006330362763989607</v>
+        <v>0.0002421210192639636</v>
       </c>
       <c r="G7">
-        <v>14.49846446522677</v>
+        <v>12.31737315661165</v>
       </c>
       <c r="H7">
-        <v>1.737039178254953</v>
+        <v>-0.2277353701859936</v>
       </c>
       <c r="I7">
-        <v>3.622918690237395E-69</v>
+        <v>1.949806003403043E-39</v>
       </c>
       <c r="J7">
-        <v>56.02999877929688</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="K7">
-        <v>25.26000022888184</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>2.849255918387556</v>
+        <v>0.7849486966067882</v>
       </c>
       <c r="M7">
-        <v>-3.367485220397754</v>
+        <v>-0.7000395474676218</v>
       </c>
       <c r="N7">
-        <v>1.326422465541889</v>
+        <v>0.3253758389947222</v>
       </c>
       <c r="O7">
-        <v>-2.346075726226722</v>
+        <v>0.4360110408177302</v>
       </c>
       <c r="P7">
-        <v>0.0144693542148483</v>
+        <v>0.01491079332538625</v>
       </c>
       <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.4318805528310274</v>
+        <v>0.532230292067201</v>
       </c>
       <c r="E8">
-        <v>0.7817956988253075</v>
+        <v>0.6608027279485403</v>
       </c>
       <c r="F8">
-        <v>0.005308794324026483</v>
+        <v>0.005868310727650622</v>
       </c>
       <c r="G8">
-        <v>18.83085994188182</v>
+        <v>7.424543400674288</v>
       </c>
       <c r="H8">
-        <v>-0.182746856554701</v>
+        <v>0.2290008515248013</v>
       </c>
       <c r="I8">
-        <v>2.499932350904805E-32</v>
+        <v>2.936130970263064E-40</v>
       </c>
       <c r="J8">
-        <v>14.46000003814697</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="K8">
-        <v>27.3799991607666</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="L8">
-        <v>1.200989001091383</v>
+        <v>1.275769125172339</v>
       </c>
       <c r="M8">
-        <v>-1.703437479257779</v>
+        <v>-1.368373889304761</v>
       </c>
       <c r="N8">
-        <v>0.6255023605009263</v>
+        <v>0.5475682372432749</v>
       </c>
       <c r="O8">
-        <v>0.6327488753656052</v>
+        <v>0.8041221065439599</v>
       </c>
       <c r="P8">
-        <v>0.01469768243949924</v>
+        <v>0.01502413531484645</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
@@ -929,55 +932,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.4318805528310274</v>
+        <v>0.532230292067201</v>
       </c>
       <c r="E9">
-        <v>0.7172695486017407</v>
+        <v>0.6414799635431149</v>
       </c>
       <c r="F9">
-        <v>0.005673435809921685</v>
+        <v>0.008478331622750978</v>
       </c>
       <c r="G9">
-        <v>7.476056977447708</v>
+        <v>18.87366729158691</v>
       </c>
       <c r="H9">
-        <v>0.2267120512591765</v>
+        <v>-0.183798434139151</v>
       </c>
       <c r="I9">
-        <v>2.414833160951434E-40</v>
+        <v>4.428493311151607E-32</v>
       </c>
       <c r="J9">
-        <v>14.46000003814697</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="K9">
-        <v>28.38999938964844</v>
+        <v>28.21999931335449</v>
       </c>
       <c r="L9">
-        <v>1.265630582930889</v>
+        <v>1.199392975476758</v>
       </c>
       <c r="M9">
-        <v>-1.361380048578008</v>
+        <v>-1.716222289729119</v>
       </c>
       <c r="N9">
-        <v>0.5435502335082812</v>
+        <v>0.6319307112436473</v>
       </c>
       <c r="O9">
-        <v>0.547588063825299</v>
+        <v>1.043123935851887</v>
       </c>
       <c r="P9">
-        <v>0.01489747353836005</v>
+        <v>0.01530535107451002</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
         <v>24</v>
@@ -985,114 +988,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2120</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.5987908684732841</v>
+        <v>0.6705960051826524</v>
       </c>
       <c r="E10">
-        <v>0.6278379014695012</v>
+        <v>0.9486867925595727</v>
       </c>
       <c r="F10">
-        <v>0.001281930111411404</v>
+        <v>0.004919667063501914</v>
       </c>
       <c r="G10">
-        <v>2.243007689765744</v>
+        <v>28.60462966278234</v>
       </c>
       <c r="H10">
-        <v>2.490125178846135</v>
+        <v>5.687058989826177</v>
       </c>
       <c r="I10">
-        <v>2.659551518737063E-66</v>
+        <v>1.638020882460553E-76</v>
       </c>
       <c r="J10">
-        <v>46.02999877929688</v>
+        <v>55.83000183105469</v>
       </c>
       <c r="K10">
-        <v>18.60000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="L10">
-        <v>3.555060931559971</v>
+        <v>2.912206935751364</v>
       </c>
       <c r="M10">
-        <v>-3.502673259739488</v>
+        <v>-2.918168164169728</v>
       </c>
       <c r="N10">
-        <v>1.221505321979481</v>
+        <v>1.160544904786647</v>
       </c>
       <c r="O10">
-        <v>-2.529338186914359</v>
+        <v>-2.347333494103356</v>
       </c>
       <c r="P10">
-        <v>0.01499801106640141</v>
+        <v>0.01558616649886617</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>558</v>
+        <v>1768</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.4594534725515135</v>
+        <v>0.6915602004529239</v>
       </c>
       <c r="E11">
-        <v>0.7833675634052581</v>
+        <v>0.7553530685226241</v>
       </c>
       <c r="F11">
-        <v>0.007124205189696831</v>
+        <v>0.001287130383981474</v>
       </c>
       <c r="G11">
-        <v>2.664113570002272</v>
+        <v>-22.86135415642787</v>
       </c>
       <c r="H11">
-        <v>0.5403679929590868</v>
+        <v>1.7062337314862</v>
       </c>
       <c r="I11">
-        <v>3.894870614085336E-41</v>
+        <v>1.069080366200362E-65</v>
       </c>
       <c r="J11">
-        <v>14.19999980926514</v>
+        <v>15.98999977111816</v>
       </c>
       <c r="K11">
-        <v>20.14999961853027</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="L11">
-        <v>1.841240525218977</v>
+        <v>2.752161079493369</v>
       </c>
       <c r="M11">
-        <v>-1.369276301543476</v>
+        <v>-2.59887957585395</v>
       </c>
       <c r="N11">
-        <v>0.5405807694251855</v>
+        <v>0.9889353804250669</v>
       </c>
       <c r="O11">
-        <v>0.6474713872712972</v>
+        <v>-1.381637330723258</v>
       </c>
       <c r="P11">
-        <v>0.01524161267196878</v>
+        <v>0.01568459027650915</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,55 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>CPFE3</t>
   </si>
   <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>MULT3</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>TIMS3</t>
+    <t>CIEL3</t>
   </si>
   <si>
     <t>UGPA3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
   </si>
 </sst>
 </file>
@@ -540,167 +531,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0.5554330775094667</v>
+        <v>0.3840129062143617</v>
       </c>
       <c r="E2">
-        <v>0.6974104049338983</v>
+        <v>0.5202524088742385</v>
       </c>
       <c r="F2">
-        <v>0.00167765608831746</v>
+        <v>7.664789281756242E-07</v>
       </c>
       <c r="G2">
-        <v>-4.877218876911135</v>
+        <v>6.050937417535994</v>
       </c>
       <c r="H2">
-        <v>0.49520378153196</v>
+        <v>0.5391412223744626</v>
       </c>
       <c r="I2">
-        <v>4.865717589195309E-53</v>
+        <v>1.523348254369938E-58</v>
       </c>
       <c r="J2">
-        <v>12.3100004196167</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="K2">
-        <v>33.75</v>
+        <v>12.75</v>
       </c>
       <c r="L2">
-        <v>0.963708688357082</v>
+        <v>0.6166658553916147</v>
       </c>
       <c r="M2">
-        <v>-0.7169198150612441</v>
+        <v>-0.4686391982319975</v>
       </c>
       <c r="N2">
-        <v>0.3651855503724498</v>
+        <v>0.1933115243113506</v>
       </c>
       <c r="O2">
-        <v>0.4740916698241833</v>
+        <v>-0.3849880409573645</v>
       </c>
       <c r="P2">
-        <v>0.01251409186809627</v>
+        <v>0.00674894811244153</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2313</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.2942979850100767</v>
+        <v>0.8610055828156304</v>
       </c>
       <c r="E3">
-        <v>0.6273493232238139</v>
+        <v>0.6155354332765035</v>
       </c>
       <c r="F3">
-        <v>0.001561056250333374</v>
+        <v>0.0003563819487116206</v>
       </c>
       <c r="G3">
-        <v>5.579323037501016</v>
+        <v>-1.234784552213434</v>
       </c>
       <c r="H3">
-        <v>0.7965850201363307</v>
+        <v>3.759063922381011</v>
       </c>
       <c r="I3">
-        <v>7.072702822913985E-57</v>
+        <v>2.165963720413791E-75</v>
       </c>
       <c r="J3">
-        <v>33.40999984741211</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="K3">
-        <v>35.70999908447266</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="L3">
-        <v>1.190958527042554</v>
+        <v>2.270625734160333</v>
       </c>
       <c r="M3">
-        <v>-1.382288960290605</v>
+        <v>-1.867208743748954</v>
       </c>
       <c r="N3">
-        <v>0.5205048169404896</v>
+        <v>0.8015124417139189</v>
       </c>
       <c r="O3">
-        <v>-0.615373529861909</v>
+        <v>1.094506978962201</v>
       </c>
       <c r="P3">
-        <v>0.01252332122522885</v>
+        <v>0.01092737363125637</v>
       </c>
       <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2780</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.6003882131151496</v>
+        <v>0.5202524088742385</v>
       </c>
       <c r="E4">
-        <v>0.5075367483762897</v>
+        <v>0.6492767682647018</v>
       </c>
       <c r="F4">
-        <v>0.003661410268468782</v>
+        <v>0.002827803512539734</v>
       </c>
       <c r="G4">
-        <v>-14.39060225060991</v>
+        <v>-4.776114960271532</v>
       </c>
       <c r="H4">
-        <v>1.379206620208516</v>
+        <v>0.4925114661866915</v>
       </c>
       <c r="I4">
-        <v>1.13897729996376E-62</v>
+        <v>1.089056596332027E-52</v>
       </c>
       <c r="J4">
-        <v>23.19000053405762</v>
+        <v>12.75</v>
       </c>
       <c r="K4">
-        <v>26.18000030517578</v>
+        <v>34.20999908447266</v>
       </c>
       <c r="L4">
-        <v>1.877774167702643</v>
+        <v>0.9532550244628943</v>
       </c>
       <c r="M4">
-        <v>-1.866913581786076</v>
+        <v>-0.7279927102524013</v>
       </c>
       <c r="N4">
-        <v>0.7726320186018001</v>
+        <v>0.3685568625286183</v>
       </c>
       <c r="O4">
-        <v>1.472973046708141</v>
+        <v>0.6772981529325293</v>
       </c>
       <c r="P4">
-        <v>0.01378309840098567</v>
+        <v>0.01305458122484899</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -708,119 +699,119 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>474</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6705960051826524</v>
+        <v>0.5753507450543592</v>
       </c>
       <c r="E5">
-        <v>0.760712001072281</v>
+        <v>0.9327157804774087</v>
       </c>
       <c r="F5">
-        <v>0.006319603227082743</v>
+        <v>0.003473205883190166</v>
       </c>
       <c r="G5">
-        <v>14.67220154306927</v>
+        <v>7.79307275229181</v>
       </c>
       <c r="H5">
-        <v>1.728287887743815</v>
+        <v>0.6346953823743731</v>
       </c>
       <c r="I5">
-        <v>2.171723996307158E-68</v>
+        <v>3.494206858255746E-43</v>
       </c>
       <c r="J5">
-        <v>55.83000183105469</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="L5">
-        <v>2.885112254963509</v>
+        <v>1.486628515707888</v>
       </c>
       <c r="M5">
-        <v>-3.308788026938132</v>
+        <v>-1.27798365506187</v>
       </c>
       <c r="N5">
-        <v>1.338514279023261</v>
+        <v>0.5273907759053024</v>
       </c>
       <c r="O5">
-        <v>-2.049396905609967</v>
+        <v>0.5487894112028568</v>
       </c>
       <c r="P5">
-        <v>0.01468010037316118</v>
+        <v>0.01390496942077148</v>
       </c>
       <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2069</v>
+        <v>2650</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.56374680438331</v>
+        <v>0.7714244660384489</v>
       </c>
       <c r="E6">
-        <v>0.5408592102871715</v>
+        <v>0.6382840559550016</v>
       </c>
       <c r="F6">
-        <v>0.001453319782243187</v>
+        <v>0.0008998964030866703</v>
       </c>
       <c r="G6">
-        <v>3.75386816795236</v>
+        <v>32.5713948130891</v>
       </c>
       <c r="H6">
-        <v>2.147787959571663</v>
+        <v>-0.3209204057650732</v>
       </c>
       <c r="I6">
-        <v>2.719605201506896E-62</v>
+        <v>1.067620240375786E-49</v>
       </c>
       <c r="J6">
-        <v>41.90999984741211</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="K6">
-        <v>18.29999923706055</v>
+        <v>28.34000015258789</v>
       </c>
       <c r="L6">
-        <v>2.900778861431291</v>
+        <v>1.414378959261036</v>
       </c>
       <c r="M6">
-        <v>-3.086645883141301</v>
+        <v>-1.72905832167158</v>
       </c>
       <c r="N6">
-        <v>1.131943646653681</v>
+        <v>0.7314510371635835</v>
       </c>
       <c r="O6">
-        <v>-1.148386342069507</v>
+        <v>0.8134904507889882</v>
       </c>
       <c r="P6">
-        <v>0.01482062726781597</v>
+        <v>0.01447505328783113</v>
       </c>
       <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>772</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -829,273 +820,273 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1139505471382301</v>
+        <v>0.6860637445728909</v>
       </c>
       <c r="E7">
-        <v>0.760712001072281</v>
+        <v>0.7642604647764639</v>
       </c>
       <c r="F7">
-        <v>0.0002421210192639636</v>
+        <v>0.004892302116862821</v>
       </c>
       <c r="G7">
-        <v>12.31737315661165</v>
+        <v>14.79646939477949</v>
       </c>
       <c r="H7">
-        <v>-0.2277353701859936</v>
+        <v>1.722077861609083</v>
       </c>
       <c r="I7">
-        <v>1.949806003403043E-39</v>
+        <v>7.424509474487156E-69</v>
       </c>
       <c r="J7">
-        <v>7.059999942779541</v>
+        <v>56.43000030517578</v>
       </c>
       <c r="K7">
         <v>25</v>
       </c>
       <c r="L7">
-        <v>0.7849486966067882</v>
+        <v>2.90957453391799</v>
       </c>
       <c r="M7">
-        <v>-0.7000395474676218</v>
+        <v>-3.268117587826382</v>
       </c>
       <c r="N7">
-        <v>0.3253758389947222</v>
+        <v>1.339250675667066</v>
       </c>
       <c r="O7">
-        <v>0.4360110408177302</v>
+        <v>-1.41841562983079</v>
       </c>
       <c r="P7">
-        <v>0.01491079332538625</v>
+        <v>0.01457884206131578</v>
       </c>
       <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
         <v>29</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.532230292067201</v>
+        <v>0.5753507450543592</v>
       </c>
       <c r="E8">
-        <v>0.6608027279485403</v>
+        <v>0.9436979677685788</v>
       </c>
       <c r="F8">
-        <v>0.005868310727650622</v>
+        <v>0.005197294583874761</v>
       </c>
       <c r="G8">
-        <v>7.424543400674288</v>
+        <v>7.656169574161894</v>
       </c>
       <c r="H8">
-        <v>0.2290008515248013</v>
+        <v>1.285888436553281</v>
       </c>
       <c r="I8">
-        <v>2.936130970263064E-40</v>
+        <v>5.648984213876902E-42</v>
       </c>
       <c r="J8">
-        <v>14.72999954223633</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="K8">
-        <v>28.38999938964844</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="L8">
-        <v>1.275769125172339</v>
+        <v>1.283896925658839</v>
       </c>
       <c r="M8">
-        <v>-1.368373889304761</v>
+        <v>-1.195990550797193</v>
       </c>
       <c r="N8">
-        <v>0.5475682372432749</v>
+        <v>0.5386010197654164</v>
       </c>
       <c r="O8">
-        <v>0.8041221065439599</v>
+        <v>0.6129288504052708</v>
       </c>
       <c r="P8">
-        <v>0.01502413531484645</v>
+        <v>0.01465736388869822</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.532230292067201</v>
+        <v>0.6860637445728909</v>
       </c>
       <c r="E9">
-        <v>0.6414799635431149</v>
+        <v>0.9436979677685788</v>
       </c>
       <c r="F9">
-        <v>0.008478331622750978</v>
+        <v>0.002879157508206542</v>
       </c>
       <c r="G9">
-        <v>18.87366729158691</v>
+        <v>28.68878646897575</v>
       </c>
       <c r="H9">
-        <v>-0.183798434139151</v>
+        <v>5.66390388804985</v>
       </c>
       <c r="I9">
-        <v>4.428493311151607E-32</v>
+        <v>7.156603755851322E-77</v>
       </c>
       <c r="J9">
-        <v>14.72999954223633</v>
+        <v>56.43000030517578</v>
       </c>
       <c r="K9">
-        <v>28.21999931335449</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="L9">
-        <v>1.199392975476758</v>
+        <v>2.910743089526719</v>
       </c>
       <c r="M9">
-        <v>-1.716222289729119</v>
+        <v>-2.919454820967488</v>
       </c>
       <c r="N9">
-        <v>0.6319307112436473</v>
+        <v>1.164599362171835</v>
       </c>
       <c r="O9">
-        <v>1.043123935851887</v>
+        <v>-1.597807331624654</v>
       </c>
       <c r="P9">
-        <v>0.01530535107451002</v>
+        <v>0.01525382681324159</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>412</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.6705960051826524</v>
+        <v>0.1039927848949532</v>
       </c>
       <c r="E10">
-        <v>0.9486867925595727</v>
+        <v>0.6756349196477847</v>
       </c>
       <c r="F10">
-        <v>0.004919667063501914</v>
+        <v>0.003141030775628525</v>
       </c>
       <c r="G10">
-        <v>28.60462966278234</v>
+        <v>10.73504909102253</v>
       </c>
       <c r="H10">
-        <v>5.687058989826177</v>
+        <v>-0.1383142155702478</v>
       </c>
       <c r="I10">
-        <v>1.638020882460553E-76</v>
+        <v>3.731092325849582E-47</v>
       </c>
       <c r="J10">
-        <v>55.83000183105469</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="K10">
-        <v>5.199999809265137</v>
+        <v>28.6200008392334</v>
       </c>
       <c r="L10">
-        <v>2.912206935751364</v>
+        <v>0.755280451736537</v>
       </c>
       <c r="M10">
-        <v>-2.918168164169728</v>
+        <v>-0.7176821194135368</v>
       </c>
       <c r="N10">
-        <v>1.160544904786647</v>
+        <v>0.2849278118315661</v>
       </c>
       <c r="O10">
-        <v>-2.347333494103356</v>
+        <v>0.4135039318963307</v>
       </c>
       <c r="P10">
-        <v>0.01558616649886617</v>
+        <v>0.01538519236641979</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1768</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.6915602004529239</v>
+        <v>0.5753507450543592</v>
       </c>
       <c r="E11">
-        <v>0.7553530685226241</v>
+        <v>0.6756349196477847</v>
       </c>
       <c r="F11">
-        <v>0.001287130383981474</v>
+        <v>0.007549030750864836</v>
       </c>
       <c r="G11">
-        <v>-22.86135415642787</v>
+        <v>7.386532618561566</v>
       </c>
       <c r="H11">
-        <v>1.7062337314862</v>
+        <v>0.2308538313339213</v>
       </c>
       <c r="I11">
-        <v>1.069080366200362E-65</v>
+        <v>1.32018440388103E-40</v>
       </c>
       <c r="J11">
-        <v>15.98999977111816</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="K11">
-        <v>23.57999992370605</v>
+        <v>28.6200008392334</v>
       </c>
       <c r="L11">
-        <v>2.752161079493369</v>
+        <v>1.280283273812564</v>
       </c>
       <c r="M11">
-        <v>-2.59887957585395</v>
+        <v>-1.377729871754164</v>
       </c>
       <c r="N11">
-        <v>0.9889353804250669</v>
+        <v>0.5515817750758701</v>
       </c>
       <c r="O11">
-        <v>-1.381637330723258</v>
+        <v>0.9364308400971417</v>
       </c>
       <c r="P11">
-        <v>0.01568459027650915</v>
+        <v>0.01549182015092641</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>B3SA3</t>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
   </si>
   <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>EQTL3</t>
   </si>
 </sst>
 </file>
@@ -531,111 +534,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.3840129062143617</v>
+        <v>0.6325244260649143</v>
       </c>
       <c r="E2">
-        <v>0.5202524088742385</v>
+        <v>0.8048990439826424</v>
       </c>
       <c r="F2">
-        <v>7.664789281756242E-07</v>
+        <v>0.000653384435395978</v>
       </c>
       <c r="G2">
-        <v>6.050937417535994</v>
+        <v>15.9477818389047</v>
       </c>
       <c r="H2">
-        <v>0.5391412223744626</v>
+        <v>0.5215223698757627</v>
       </c>
       <c r="I2">
-        <v>1.523348254369938E-58</v>
+        <v>1.349583850941746E-83</v>
       </c>
       <c r="J2">
-        <v>12.53999996185303</v>
+        <v>55.63999938964844</v>
       </c>
       <c r="K2">
-        <v>12.75</v>
+        <v>78.73999786376953</v>
       </c>
       <c r="L2">
-        <v>0.6166658553916147</v>
+        <v>2.959850483924711</v>
       </c>
       <c r="M2">
-        <v>-0.4686391982319975</v>
+        <v>-2.409002562200023</v>
       </c>
       <c r="N2">
-        <v>0.1933115243113506</v>
+        <v>1.045442391569451</v>
       </c>
       <c r="O2">
-        <v>-0.3849880409573645</v>
+        <v>-1.372452739181838</v>
       </c>
       <c r="P2">
-        <v>0.00674894811244153</v>
+        <v>0.0114064651973711</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>858</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.8610055828156304</v>
+        <v>0.4543911321651237</v>
       </c>
       <c r="E3">
-        <v>0.6155354332765035</v>
+        <v>0.6146506370511302</v>
       </c>
       <c r="F3">
-        <v>0.0003563819487116206</v>
+        <v>0.0002088201598809283</v>
       </c>
       <c r="G3">
-        <v>-1.234784552213434</v>
+        <v>6.792879484963095</v>
       </c>
       <c r="H3">
-        <v>3.759063922381011</v>
+        <v>2.801085205747816</v>
       </c>
       <c r="I3">
-        <v>2.165963720413791E-75</v>
+        <v>4.464442416039947E-50</v>
       </c>
       <c r="J3">
-        <v>37.29999923706055</v>
+        <v>14.14000034332275</v>
       </c>
       <c r="K3">
-        <v>9.960000038146973</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="L3">
-        <v>2.270625734160333</v>
+        <v>2.669539339671234</v>
       </c>
       <c r="M3">
-        <v>-1.867208743748954</v>
+        <v>-1.051554459542871</v>
       </c>
       <c r="N3">
-        <v>0.8015124417139189</v>
+        <v>0.4659658773916593</v>
       </c>
       <c r="O3">
-        <v>1.094506978962201</v>
+        <v>0.7085492412960983</v>
       </c>
       <c r="P3">
-        <v>0.01092737363125637</v>
+        <v>0.01218139013573795</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -643,55 +646,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>339</v>
+        <v>2780</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.5202524088742385</v>
+        <v>0.5922688396058213</v>
       </c>
       <c r="E4">
-        <v>0.6492767682647018</v>
+        <v>0.4989972343596979</v>
       </c>
       <c r="F4">
-        <v>0.002827803512539734</v>
+        <v>0.001808280684000259</v>
       </c>
       <c r="G4">
-        <v>-4.776114960271532</v>
+        <v>-14.43447419840203</v>
       </c>
       <c r="H4">
-        <v>0.4925114661866915</v>
+        <v>1.381322810001394</v>
       </c>
       <c r="I4">
-        <v>1.089056596332027E-52</v>
+        <v>2.583885517890975E-63</v>
       </c>
       <c r="J4">
-        <v>12.75</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="K4">
-        <v>34.20999908447266</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="L4">
-        <v>0.9532550244628943</v>
+        <v>1.866773313519623</v>
       </c>
       <c r="M4">
-        <v>-0.7279927102524013</v>
+        <v>-1.877105786183598</v>
       </c>
       <c r="N4">
-        <v>0.3685568625286183</v>
+        <v>0.7728944313054635</v>
       </c>
       <c r="O4">
-        <v>0.6772981529325293</v>
+        <v>0.8812874594897409</v>
       </c>
       <c r="P4">
-        <v>0.01305458122484899</v>
+        <v>0.01331278723745037</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -699,55 +702,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>238</v>
+        <v>906</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.5753507450543592</v>
+        <v>0.8550743134628903</v>
       </c>
       <c r="E5">
-        <v>0.9327157804774087</v>
+        <v>0.6220592795812369</v>
       </c>
       <c r="F5">
-        <v>0.003473205883190166</v>
+        <v>4.560262624629346E-05</v>
       </c>
       <c r="G5">
-        <v>7.79307275229181</v>
+        <v>52.2322756464468</v>
       </c>
       <c r="H5">
-        <v>0.6346953823743731</v>
+        <v>-0.5624894768347342</v>
       </c>
       <c r="I5">
-        <v>3.494206858255746E-43</v>
+        <v>1.657788943617919E-55</v>
       </c>
       <c r="J5">
-        <v>14.93000030517578</v>
+        <v>37.27000045776367</v>
       </c>
       <c r="K5">
-        <v>10.38000011444092</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="L5">
-        <v>1.486628515707888</v>
+        <v>3.150104541949901</v>
       </c>
       <c r="M5">
-        <v>-1.27798365506187</v>
+        <v>-3.066063485678029</v>
       </c>
       <c r="N5">
-        <v>0.5273907759053024</v>
+        <v>1.141871745466698</v>
       </c>
       <c r="O5">
-        <v>0.5487894112028568</v>
+        <v>1.288045453756009</v>
       </c>
       <c r="P5">
-        <v>0.01390496942077148</v>
+        <v>0.01343020610743032</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -755,55 +758,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2650</v>
+        <v>3331</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7714244660384489</v>
+        <v>0.6220592795812369</v>
       </c>
       <c r="E6">
-        <v>0.6382840559550016</v>
+        <v>0.69390778792459</v>
       </c>
       <c r="F6">
-        <v>0.0008998964030866703</v>
+        <v>0.001010849991133635</v>
       </c>
       <c r="G6">
-        <v>32.5713948130891</v>
+        <v>59.30921784330603</v>
       </c>
       <c r="H6">
-        <v>-0.3209204057650732</v>
+        <v>-1.122502616831781</v>
       </c>
       <c r="I6">
-        <v>1.067620240375786E-49</v>
+        <v>8.719972603869517E-77</v>
       </c>
       <c r="J6">
-        <v>24.29000091552734</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="K6">
-        <v>28.34000015258789</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="L6">
-        <v>1.414378959261036</v>
+        <v>3.0391690397419</v>
       </c>
       <c r="M6">
-        <v>-1.72905832167158</v>
+        <v>-2.568979953732395</v>
       </c>
       <c r="N6">
-        <v>0.7314510371635835</v>
+        <v>1.290706097993772</v>
       </c>
       <c r="O6">
-        <v>0.8134904507889882</v>
+        <v>1.30270575492899</v>
       </c>
       <c r="P6">
-        <v>0.01447505328783113</v>
+        <v>0.01458660676911354</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -811,282 +814,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>474</v>
+        <v>2650</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>0.6860637445728909</v>
+        <v>0.7697478074619444</v>
       </c>
       <c r="E7">
-        <v>0.7642604647764639</v>
+        <v>0.6220592795812369</v>
       </c>
       <c r="F7">
-        <v>0.004892302116862821</v>
+        <v>0.0009141856825744579</v>
       </c>
       <c r="G7">
-        <v>14.79646939477949</v>
+        <v>32.61087609044473</v>
       </c>
       <c r="H7">
-        <v>1.722077861609083</v>
+        <v>-0.3219266300217435</v>
       </c>
       <c r="I7">
-        <v>7.424509474487156E-69</v>
+        <v>5.741403601321708E-50</v>
       </c>
       <c r="J7">
-        <v>56.43000030517578</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="L7">
-        <v>2.90957453391799</v>
+        <v>1.405064284659765</v>
       </c>
       <c r="M7">
-        <v>-3.268117587826382</v>
+        <v>-1.732788452416024</v>
       </c>
       <c r="N7">
-        <v>1.339250675667066</v>
+        <v>0.73364916770039</v>
       </c>
       <c r="O7">
-        <v>-1.41841562983079</v>
+        <v>0.9795849699223584</v>
       </c>
       <c r="P7">
-        <v>0.01457884206131578</v>
+        <v>0.01473393885648288</v>
       </c>
       <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>178</v>
+        <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5753507450543592</v>
+        <v>0.1027123058185134</v>
       </c>
       <c r="E8">
-        <v>0.9436979677685788</v>
+        <v>0.69390778792459</v>
       </c>
       <c r="F8">
-        <v>0.005197294583874761</v>
+        <v>0.002611987928761193</v>
       </c>
       <c r="G8">
-        <v>7.656169574161894</v>
+        <v>10.72322058637977</v>
       </c>
       <c r="H8">
-        <v>1.285888436553281</v>
+        <v>-0.1377275119014775</v>
       </c>
       <c r="I8">
-        <v>5.648984213876902E-42</v>
+        <v>3.118767588829685E-47</v>
       </c>
       <c r="J8">
-        <v>14.93000030517578</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="K8">
-        <v>5.179999828338623</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="L8">
-        <v>1.283896925658839</v>
+        <v>0.7565030136415292</v>
       </c>
       <c r="M8">
-        <v>-1.195990550797193</v>
+        <v>-0.7194162614170345</v>
       </c>
       <c r="N8">
-        <v>0.5386010197654164</v>
+        <v>0.2852992447338422</v>
       </c>
       <c r="O8">
-        <v>0.6129288504052708</v>
+        <v>0.3289587788914194</v>
       </c>
       <c r="P8">
-        <v>0.01465736388869822</v>
+        <v>0.01536744181224459</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6860637445728909</v>
+        <v>0.6325244260649143</v>
       </c>
       <c r="E9">
-        <v>0.9436979677685788</v>
+        <v>0.7831176986485653</v>
       </c>
       <c r="F9">
-        <v>0.002879157508206542</v>
+        <v>0.009366211591561705</v>
       </c>
       <c r="G9">
-        <v>28.68878646897575</v>
+        <v>15.0405873529617</v>
       </c>
       <c r="H9">
-        <v>5.66390388804985</v>
+        <v>1.709959541697384</v>
       </c>
       <c r="I9">
-        <v>7.156603755851322E-77</v>
+        <v>1.141200563740835E-68</v>
       </c>
       <c r="J9">
-        <v>56.43000030517578</v>
+        <v>55.63999938964844</v>
       </c>
       <c r="K9">
-        <v>5.179999828338623</v>
+        <v>25.27000045776367</v>
       </c>
       <c r="L9">
-        <v>2.910743089526719</v>
+        <v>2.95569034686654</v>
       </c>
       <c r="M9">
-        <v>-2.919454820967488</v>
+        <v>-3.190372975625728</v>
       </c>
       <c r="N9">
-        <v>1.164599362171835</v>
+        <v>1.353520277943355</v>
       </c>
       <c r="O9">
-        <v>-1.597807331624654</v>
+        <v>-2.611266364763502</v>
       </c>
       <c r="P9">
-        <v>0.01525382681324159</v>
+        <v>0.01539718712023513</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>769</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.1039927848949532</v>
+        <v>0.5519545482590986</v>
       </c>
       <c r="E10">
-        <v>0.6756349196477847</v>
+        <v>0.69390778792459</v>
       </c>
       <c r="F10">
-        <v>0.003141030775628525</v>
+        <v>0.007724662487448321</v>
       </c>
       <c r="G10">
-        <v>10.73504909102253</v>
+        <v>7.354293684362645</v>
       </c>
       <c r="H10">
-        <v>-0.1383142155702478</v>
+        <v>0.2324529092852784</v>
       </c>
       <c r="I10">
-        <v>3.731092325849582E-47</v>
+        <v>6.393134486409964E-41</v>
       </c>
       <c r="J10">
-        <v>7.190000057220459</v>
+        <v>14.81999969482422</v>
       </c>
       <c r="K10">
-        <v>28.6200008392334</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="L10">
-        <v>0.755280451736537</v>
+        <v>1.283615401921681</v>
       </c>
       <c r="M10">
-        <v>-0.7176821194135368</v>
+        <v>-1.386367340236816</v>
       </c>
       <c r="N10">
-        <v>0.2849278118315661</v>
+        <v>0.5550039599640927</v>
       </c>
       <c r="O10">
-        <v>0.4135039318963307</v>
+        <v>0.8965867408553576</v>
       </c>
       <c r="P10">
-        <v>0.01538519236641979</v>
+        <v>0.01574445535690043</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>237</v>
+        <v>2228</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.5753507450543592</v>
+        <v>0.4350542066526215</v>
       </c>
       <c r="E11">
-        <v>0.6756349196477847</v>
+        <v>0.2880708184040451</v>
       </c>
       <c r="F11">
-        <v>0.007549030750864836</v>
+        <v>0.001630066144858907</v>
       </c>
       <c r="G11">
-        <v>7.386532618561566</v>
+        <v>-16.14855795017071</v>
       </c>
       <c r="H11">
-        <v>0.2308538313339213</v>
+        <v>1.945622125518758</v>
       </c>
       <c r="I11">
-        <v>1.32018440388103E-40</v>
+        <v>2.2140212429324E-57</v>
       </c>
       <c r="J11">
-        <v>14.93000030517578</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="K11">
-        <v>28.6200008392334</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="L11">
-        <v>1.280283273812564</v>
+        <v>2.499061653019325</v>
       </c>
       <c r="M11">
-        <v>-1.377729871754164</v>
+        <v>-2.670813403516163</v>
       </c>
       <c r="N11">
-        <v>0.5515817750758701</v>
+        <v>1.094725485218477</v>
       </c>
       <c r="O11">
-        <v>0.9364308400971417</v>
+        <v>-1.513680221382117</v>
       </c>
       <c r="P11">
-        <v>0.01549182015092641</v>
+        <v>0.01589973231288346</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
     <t>JBSS3</t>
   </si>
   <si>
-    <t>BPAC11</t>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
   </si>
 </sst>
 </file>
@@ -534,223 +531,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.6325244260649143</v>
+        <v>0.4332596834888837</v>
       </c>
       <c r="E2">
-        <v>0.8048990439826424</v>
+        <v>0.5641067716981472</v>
       </c>
       <c r="F2">
-        <v>0.000653384435395978</v>
+        <v>0.0001370034505908381</v>
       </c>
       <c r="G2">
-        <v>15.9477818389047</v>
+        <v>2.990784437856265</v>
       </c>
       <c r="H2">
-        <v>0.5215223698757627</v>
+        <v>0.2787344446364943</v>
       </c>
       <c r="I2">
-        <v>1.349583850941746E-83</v>
+        <v>1.344674963543071E-45</v>
       </c>
       <c r="J2">
-        <v>55.63999938964844</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K2">
-        <v>78.73999786376953</v>
+        <v>34.66999816894531</v>
       </c>
       <c r="L2">
-        <v>2.959850483924711</v>
+        <v>0.6338261979724482</v>
       </c>
       <c r="M2">
-        <v>-2.409002562200023</v>
+        <v>-0.6405136624916388</v>
       </c>
       <c r="N2">
-        <v>1.045442391569451</v>
+        <v>0.2418961800790323</v>
       </c>
       <c r="O2">
-        <v>-1.372452739181838</v>
+        <v>-0.244507275613401</v>
       </c>
       <c r="P2">
-        <v>0.0114064651973711</v>
+        <v>0.01040465790816181</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>566</v>
+        <v>2313</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.4543911321651237</v>
+        <v>0.1596725807196686</v>
       </c>
       <c r="E3">
-        <v>0.6146506370511302</v>
+        <v>0.6801588900123509</v>
       </c>
       <c r="F3">
-        <v>0.0002088201598809283</v>
+        <v>0.0008725427384231167</v>
       </c>
       <c r="G3">
-        <v>6.792879484963095</v>
+        <v>6.195950192182076</v>
       </c>
       <c r="H3">
-        <v>2.801085205747816</v>
+        <v>0.7792049150690337</v>
       </c>
       <c r="I3">
-        <v>4.464442416039947E-50</v>
+        <v>1.125065207881823E-55</v>
       </c>
       <c r="J3">
-        <v>14.14000034332275</v>
+        <v>33.41999816894531</v>
       </c>
       <c r="K3">
-        <v>2.369999885559082</v>
+        <v>36.0099983215332</v>
       </c>
       <c r="L3">
-        <v>2.669539339671234</v>
+        <v>1.167563902852244</v>
       </c>
       <c r="M3">
-        <v>-1.051554459542871</v>
+        <v>-1.43441580216659</v>
       </c>
       <c r="N3">
-        <v>0.4659658773916593</v>
+        <v>0.5142091534889784</v>
       </c>
       <c r="O3">
-        <v>0.7085492412960983</v>
+        <v>-0.8351197070030878</v>
       </c>
       <c r="P3">
-        <v>0.01218139013573795</v>
+        <v>0.01188190533622752</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2780</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.5922688396058213</v>
+        <v>0.6091063555217424</v>
       </c>
       <c r="E4">
-        <v>0.4989972343596979</v>
+        <v>0.7789839215806149</v>
       </c>
       <c r="F4">
-        <v>0.001808280684000259</v>
+        <v>0.001772548831974632</v>
       </c>
       <c r="G4">
-        <v>-14.43447419840203</v>
+        <v>16.32296964512368</v>
       </c>
       <c r="H4">
-        <v>1.381322810001394</v>
+        <v>0.5160939031174452</v>
       </c>
       <c r="I4">
-        <v>2.583885517890975E-63</v>
+        <v>4.107718074832423E-80</v>
       </c>
       <c r="J4">
-        <v>23.19000053405762</v>
+        <v>55.40999984741211</v>
       </c>
       <c r="K4">
-        <v>26.60000038146973</v>
+        <v>80.30000305175781</v>
       </c>
       <c r="L4">
-        <v>1.866773313519623</v>
+        <v>2.915419158946648</v>
       </c>
       <c r="M4">
-        <v>-1.877105786183598</v>
+        <v>-2.451153941079411</v>
       </c>
       <c r="N4">
-        <v>0.7728944313054635</v>
+        <v>1.069335778701499</v>
       </c>
       <c r="O4">
-        <v>0.8812874594897409</v>
+        <v>-2.355311793036023</v>
       </c>
       <c r="P4">
-        <v>0.01331278723745037</v>
+        <v>0.01198701078427142</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>906</v>
+        <v>2780</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.8550743134628903</v>
+        <v>0.5188802533451295</v>
       </c>
       <c r="E5">
-        <v>0.6220592795812369</v>
+        <v>0.4272872066926362</v>
       </c>
       <c r="F5">
-        <v>4.560262624629346E-05</v>
+        <v>0.004533148740305078</v>
       </c>
       <c r="G5">
-        <v>52.2322756464468</v>
+        <v>-14.00774815916984</v>
       </c>
       <c r="H5">
-        <v>-0.5624894768347342</v>
+        <v>1.366234686412115</v>
       </c>
       <c r="I5">
-        <v>1.657788943617919E-55</v>
+        <v>2.932086807305767E-61</v>
       </c>
       <c r="J5">
-        <v>37.27000045776367</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="K5">
-        <v>28.88999938964844</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="L5">
-        <v>3.150104541949901</v>
+        <v>1.831282323561958</v>
       </c>
       <c r="M5">
-        <v>-3.066063485678029</v>
+        <v>-1.918346180687003</v>
       </c>
       <c r="N5">
-        <v>1.141871745466698</v>
+        <v>0.7760852402602612</v>
       </c>
       <c r="O5">
-        <v>1.288045453756009</v>
+        <v>1.399021559697005</v>
       </c>
       <c r="P5">
-        <v>0.01343020610743032</v>
+        <v>0.01404136147984652</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -758,170 +755,170 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>3331</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.6220592795812369</v>
+        <v>0.6091063555217424</v>
       </c>
       <c r="E6">
-        <v>0.69390778792459</v>
+        <v>0.9084681740030869</v>
       </c>
       <c r="F6">
-        <v>0.001010849991133635</v>
+        <v>0.002570115247045266</v>
       </c>
       <c r="G6">
-        <v>59.30921784330603</v>
+        <v>29.29517426336532</v>
       </c>
       <c r="H6">
-        <v>-1.122502616831781</v>
+        <v>5.526352755192988</v>
       </c>
       <c r="I6">
-        <v>8.719972603869517E-77</v>
+        <v>1.403465509393853E-77</v>
       </c>
       <c r="J6">
-        <v>28.88999938964844</v>
+        <v>55.40999984741211</v>
       </c>
       <c r="K6">
-        <v>28.26000022888184</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="L6">
-        <v>3.0391690397419</v>
+        <v>2.795586576816078</v>
       </c>
       <c r="M6">
-        <v>-2.568979953732395</v>
+        <v>-2.920353429389252</v>
       </c>
       <c r="N6">
-        <v>1.290706097993772</v>
+        <v>1.118006085759947</v>
       </c>
       <c r="O6">
-        <v>1.30270575492899</v>
+        <v>-2.235364682534122</v>
       </c>
       <c r="P6">
-        <v>0.01458660676911354</v>
+        <v>0.01436001700064474</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2650</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.7697478074619444</v>
+        <v>0.4332596834888837</v>
       </c>
       <c r="E7">
-        <v>0.6220592795812369</v>
+        <v>0.4272872066926362</v>
       </c>
       <c r="F7">
-        <v>0.0009141856825744579</v>
+        <v>0.003456800558035324</v>
       </c>
       <c r="G7">
-        <v>32.61087609044473</v>
+        <v>5.337275193273544</v>
       </c>
       <c r="H7">
-        <v>-0.3219266300217435</v>
+        <v>0.2886836599060795</v>
       </c>
       <c r="I7">
-        <v>5.741403601321708E-50</v>
+        <v>7.756016071835484E-36</v>
       </c>
       <c r="J7">
-        <v>24.29000091552734</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K7">
-        <v>28.88999938964844</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="L7">
-        <v>1.405064284659765</v>
+        <v>0.752685318613775</v>
       </c>
       <c r="M7">
-        <v>-1.732788452416024</v>
+        <v>-0.8019994784523234</v>
       </c>
       <c r="N7">
-        <v>0.73364916770039</v>
+        <v>0.2870439861187539</v>
       </c>
       <c r="O7">
-        <v>0.9795849699223584</v>
+        <v>-0.4619189795341869</v>
       </c>
       <c r="P7">
-        <v>0.01473393885648288</v>
+        <v>0.0149076261895927</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>769</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1027123058185134</v>
+        <v>0.4759254283137827</v>
       </c>
       <c r="E8">
-        <v>0.69390778792459</v>
+        <v>0.6320027996137267</v>
       </c>
       <c r="F8">
-        <v>0.002611987928761193</v>
+        <v>0.006827336274096208</v>
       </c>
       <c r="G8">
-        <v>10.72322058637977</v>
+        <v>19.13730247082092</v>
       </c>
       <c r="H8">
-        <v>-0.1377275119014775</v>
+        <v>-0.1917901558481866</v>
       </c>
       <c r="I8">
-        <v>3.118767588829685E-47</v>
+        <v>1.942286924472642E-32</v>
       </c>
       <c r="J8">
-        <v>7.159999847412109</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="K8">
-        <v>28.26000022888184</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="L8">
-        <v>0.7565030136415292</v>
+        <v>1.248953359044901</v>
       </c>
       <c r="M8">
-        <v>-0.7194162614170345</v>
+        <v>-1.751693820267356</v>
       </c>
       <c r="N8">
-        <v>0.2852992447338422</v>
+        <v>0.6437344288526951</v>
       </c>
       <c r="O8">
-        <v>0.3289587788914194</v>
+        <v>0.6795377676645264</v>
       </c>
       <c r="P8">
-        <v>0.01536744181224459</v>
+        <v>0.0153956410983107</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -929,52 +926,52 @@
         <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6325244260649143</v>
+        <v>0.6091063555217424</v>
       </c>
       <c r="E9">
-        <v>0.7831176986485653</v>
+        <v>0.7664442627569008</v>
       </c>
       <c r="F9">
-        <v>0.009366211591561705</v>
+        <v>0.008583102389062442</v>
       </c>
       <c r="G9">
-        <v>15.0405873529617</v>
+        <v>15.24114229490704</v>
       </c>
       <c r="H9">
-        <v>1.709959541697384</v>
+        <v>1.700172377033999</v>
       </c>
       <c r="I9">
-        <v>1.141200563740835E-68</v>
+        <v>8.69384759367239E-66</v>
       </c>
       <c r="J9">
-        <v>55.63999938964844</v>
+        <v>55.40999984741211</v>
       </c>
       <c r="K9">
-        <v>25.27000045776367</v>
+        <v>24.82999992370605</v>
       </c>
       <c r="L9">
-        <v>2.95569034686654</v>
+        <v>2.989538006076273</v>
       </c>
       <c r="M9">
-        <v>-3.190372975625728</v>
+        <v>-3.130980829338483</v>
       </c>
       <c r="N9">
-        <v>1.353520277943355</v>
+        <v>1.375293668497401</v>
       </c>
       <c r="O9">
-        <v>-2.611266364763502</v>
+        <v>-2.046422439536265</v>
       </c>
       <c r="P9">
-        <v>0.01539718712023513</v>
+        <v>0.01544974895502812</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
         <v>31</v>
@@ -982,114 +979,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>237</v>
+        <v>2180</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.5519545482590986</v>
+        <v>0.3665411093381566</v>
       </c>
       <c r="E10">
-        <v>0.69390778792459</v>
+        <v>0.1596725807196686</v>
       </c>
       <c r="F10">
-        <v>0.007724662487448321</v>
+        <v>0.001590731470276809</v>
       </c>
       <c r="G10">
-        <v>7.354293684362645</v>
+        <v>-3.65530663537065</v>
       </c>
       <c r="H10">
-        <v>0.2324529092852784</v>
+        <v>0.4763758667317498</v>
       </c>
       <c r="I10">
-        <v>6.393134486409964E-41</v>
+        <v>7.474833663900219E-41</v>
       </c>
       <c r="J10">
-        <v>14.81999969482422</v>
+        <v>12.75</v>
       </c>
       <c r="K10">
-        <v>28.26000022888184</v>
+        <v>33.41999816894531</v>
       </c>
       <c r="L10">
-        <v>1.283615401921681</v>
+        <v>0.6587212723786884</v>
       </c>
       <c r="M10">
-        <v>-1.386367340236816</v>
+        <v>-0.9025776061978235</v>
       </c>
       <c r="N10">
-        <v>0.5550039599640927</v>
+        <v>0.3677343118272409</v>
       </c>
       <c r="O10">
-        <v>0.8965867408553576</v>
+        <v>0.484826041465837</v>
       </c>
       <c r="P10">
-        <v>0.01574445535690043</v>
+        <v>0.01596436136267412</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2228</v>
+        <v>772</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4350542066526215</v>
+        <v>0.1481482827807787</v>
       </c>
       <c r="E11">
-        <v>0.2880708184040451</v>
+        <v>0.7664442627569008</v>
       </c>
       <c r="F11">
-        <v>0.001630066144858907</v>
+        <v>0.001330607274269333</v>
       </c>
       <c r="G11">
-        <v>-16.14855795017071</v>
+        <v>11.93046984631432</v>
       </c>
       <c r="H11">
-        <v>1.945622125518758</v>
+        <v>-0.2102128590098819</v>
       </c>
       <c r="I11">
-        <v>2.2140212429324E-57</v>
+        <v>4.517023389624163E-37</v>
       </c>
       <c r="J11">
-        <v>48.45000076293945</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="K11">
-        <v>33.97999954223633</v>
+        <v>24.82999992370605</v>
       </c>
       <c r="L11">
-        <v>2.499061653019325</v>
+        <v>0.6485103697843257</v>
       </c>
       <c r="M11">
-        <v>-2.670813403516163</v>
+        <v>-0.6822546956037367</v>
       </c>
       <c r="N11">
-        <v>1.094725485218477</v>
+        <v>0.3157611578492912</v>
       </c>
       <c r="O11">
-        <v>-1.513680221382117</v>
+        <v>0.3891153314956481</v>
       </c>
       <c r="P11">
-        <v>0.01589973231288346</v>
+        <v>0.01610110692721857</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -73,22 +73,28 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
     <t>JBSS3</t>
   </si>
   <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>CPFE3</t>
@@ -103,13 +109,10 @@
     <t>MULT3</t>
   </si>
   <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -531,63 +534,63 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.4332596834888837</v>
+        <v>0.4859758912794642</v>
       </c>
       <c r="E2">
-        <v>0.5641067716981472</v>
+        <v>0.5665257804746698</v>
       </c>
       <c r="F2">
-        <v>0.0001370034505908381</v>
+        <v>1.400957715117285E-08</v>
       </c>
       <c r="G2">
-        <v>2.990784437856265</v>
+        <v>5.946645805614651</v>
       </c>
       <c r="H2">
-        <v>0.2787344446364943</v>
+        <v>0.5462387924262302</v>
       </c>
       <c r="I2">
-        <v>1.344674963543071E-45</v>
+        <v>6.81161445725912E-63</v>
       </c>
       <c r="J2">
-        <v>12.40999984741211</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="K2">
-        <v>34.66999816894531</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="L2">
-        <v>0.6338261979724482</v>
+        <v>0.6316700366032215</v>
       </c>
       <c r="M2">
-        <v>-0.6405136624916388</v>
+        <v>-0.4572506504214324</v>
       </c>
       <c r="N2">
-        <v>0.2418961800790323</v>
+        <v>0.1805468102109836</v>
       </c>
       <c r="O2">
-        <v>-0.244507275613401</v>
+        <v>-0.216887684876899</v>
       </c>
       <c r="P2">
-        <v>0.01040465790816181</v>
+        <v>0.005804629302684891</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2313</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,102 +599,102 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.1596725807196686</v>
+        <v>0.8300983780650977</v>
       </c>
       <c r="E3">
-        <v>0.6801588900123509</v>
+        <v>0.4176501058323999</v>
       </c>
       <c r="F3">
-        <v>0.0008725427384231167</v>
+        <v>0.0001969478790356293</v>
       </c>
       <c r="G3">
-        <v>6.195950192182076</v>
+        <v>-1.939394744627013</v>
       </c>
       <c r="H3">
-        <v>0.7792049150690337</v>
+        <v>3.83207448154122</v>
       </c>
       <c r="I3">
-        <v>1.125065207881823E-55</v>
+        <v>3.67143124616931E-76</v>
       </c>
       <c r="J3">
-        <v>33.41999816894531</v>
+        <v>36.91999816894531</v>
       </c>
       <c r="K3">
-        <v>36.0099983215332</v>
+        <v>9.880000114440918</v>
       </c>
       <c r="L3">
-        <v>1.167563902852244</v>
+        <v>2.349695184160925</v>
       </c>
       <c r="M3">
-        <v>-1.43441580216659</v>
+        <v>-1.790489387964488</v>
       </c>
       <c r="N3">
-        <v>0.5142091534889784</v>
+        <v>0.7870827663118797</v>
       </c>
       <c r="O3">
-        <v>-0.8351197070030878</v>
+        <v>0.9984965973989546</v>
       </c>
       <c r="P3">
-        <v>0.01188190533622752</v>
+        <v>0.01025309240612717</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.6091063555217424</v>
+        <v>0.4859758912794642</v>
       </c>
       <c r="E4">
-        <v>0.7789839215806149</v>
+        <v>0.5433768573258608</v>
       </c>
       <c r="F4">
-        <v>0.001772548831974632</v>
+        <v>0.0003239685858375984</v>
       </c>
       <c r="G4">
-        <v>16.32296964512368</v>
+        <v>2.954061483970221</v>
       </c>
       <c r="H4">
-        <v>0.5160939031174452</v>
+        <v>0.2796570378135617</v>
       </c>
       <c r="I4">
-        <v>4.107718074832423E-80</v>
+        <v>2.296846614769999E-45</v>
       </c>
       <c r="J4">
-        <v>55.40999984741211</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="K4">
-        <v>80.30000305175781</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="L4">
-        <v>2.915419158946648</v>
+        <v>0.6380277423668659</v>
       </c>
       <c r="M4">
-        <v>-2.451153941079411</v>
+        <v>-0.6346699033682519</v>
       </c>
       <c r="N4">
-        <v>1.069335778701499</v>
+        <v>0.2450089875777625</v>
       </c>
       <c r="O4">
-        <v>-2.355311793036023</v>
+        <v>-0.5092621642254684</v>
       </c>
       <c r="P4">
-        <v>0.01198701078427142</v>
+        <v>0.01080533204476808</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
         <v>27</v>
@@ -699,279 +702,279 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2780</v>
+        <v>2313</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.5188802533451295</v>
+        <v>0.1598488750929993</v>
       </c>
       <c r="E5">
-        <v>0.4272872066926362</v>
+        <v>0.6649332118917464</v>
       </c>
       <c r="F5">
-        <v>0.004533148740305078</v>
+        <v>0.001033326121726655</v>
       </c>
       <c r="G5">
-        <v>-14.00774815916984</v>
+        <v>6.244471296022315</v>
       </c>
       <c r="H5">
-        <v>1.366234686412115</v>
+        <v>0.7776440658047082</v>
       </c>
       <c r="I5">
-        <v>2.932086807305767E-61</v>
+        <v>1.661876086117962E-55</v>
       </c>
       <c r="J5">
-        <v>23.04999923706055</v>
+        <v>33.2400016784668</v>
       </c>
       <c r="K5">
-        <v>26.10000038146973</v>
+        <v>35.81999969482422</v>
       </c>
       <c r="L5">
-        <v>1.831282323561958</v>
+        <v>1.172319033833659</v>
       </c>
       <c r="M5">
-        <v>-1.918346180687003</v>
+        <v>-1.432240742920232</v>
       </c>
       <c r="N5">
-        <v>0.7760852402602612</v>
+        <v>0.5176876778902999</v>
       </c>
       <c r="O5">
-        <v>1.399021559697005</v>
+        <v>-0.8596798173620321</v>
       </c>
       <c r="P5">
-        <v>0.01404136147984652</v>
+        <v>0.0121579954410877</v>
       </c>
       <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
         <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6091063555217424</v>
+        <v>0.5665257804746698</v>
       </c>
       <c r="E6">
-        <v>0.9084681740030869</v>
+        <v>0.5433768573258608</v>
       </c>
       <c r="F6">
-        <v>0.002570115247045266</v>
+        <v>0.00143337757174072</v>
       </c>
       <c r="G6">
-        <v>29.29517426336532</v>
+        <v>-4.882259002981396</v>
       </c>
       <c r="H6">
-        <v>5.526352755192988</v>
+        <v>0.4952422799822045</v>
       </c>
       <c r="I6">
-        <v>1.403465509393853E-77</v>
+        <v>1.525077580941986E-52</v>
       </c>
       <c r="J6">
-        <v>55.40999984741211</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="K6">
-        <v>5.130000114440918</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="L6">
-        <v>2.795586576816078</v>
+        <v>0.9674525716781019</v>
       </c>
       <c r="M6">
-        <v>-2.920353429389252</v>
+        <v>-0.7131670771142886</v>
       </c>
       <c r="N6">
-        <v>1.118006085759947</v>
+        <v>0.3715593746035663</v>
       </c>
       <c r="O6">
-        <v>-2.235364682534122</v>
+        <v>-0.5462695863133895</v>
       </c>
       <c r="P6">
-        <v>0.01436001700064474</v>
+        <v>0.01231081396093892</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>54</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4332596834888837</v>
+        <v>0.6079042605374403</v>
       </c>
       <c r="E7">
-        <v>0.4272872066926362</v>
+        <v>0.8004655162039731</v>
       </c>
       <c r="F7">
-        <v>0.003456800558035324</v>
+        <v>0.002504879602268446</v>
       </c>
       <c r="G7">
-        <v>5.337275193273544</v>
+        <v>16.5269302169102</v>
       </c>
       <c r="H7">
-        <v>0.2886836599060795</v>
+        <v>0.512919997573669</v>
       </c>
       <c r="I7">
-        <v>7.756016071835484E-36</v>
+        <v>1.008168014374385E-79</v>
       </c>
       <c r="J7">
-        <v>12.40999984741211</v>
+        <v>55.63000106811523</v>
       </c>
       <c r="K7">
-        <v>26.10000038146973</v>
+        <v>80.95999908447266</v>
       </c>
       <c r="L7">
-        <v>0.752685318613775</v>
+        <v>2.904848467608275</v>
       </c>
       <c r="M7">
-        <v>-0.8019994784523234</v>
+        <v>-2.46039541259826</v>
       </c>
       <c r="N7">
-        <v>0.2870439861187539</v>
+        <v>1.086146660301661</v>
       </c>
       <c r="O7">
-        <v>-0.4619189795341869</v>
+        <v>-2.422931682766929</v>
       </c>
       <c r="P7">
-        <v>0.0149076261895927</v>
+        <v>0.01255526224977566</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>231</v>
+        <v>2780</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4759254283137827</v>
+        <v>0.4982271488716217</v>
       </c>
       <c r="E8">
-        <v>0.6320027996137267</v>
+        <v>0.6954500295747685</v>
       </c>
       <c r="F8">
-        <v>0.006827336274096208</v>
+        <v>0.004647505795244242</v>
       </c>
       <c r="G8">
-        <v>19.13730247082092</v>
+        <v>-13.95712590192198</v>
       </c>
       <c r="H8">
-        <v>-0.1917901558481866</v>
+        <v>1.364686251774333</v>
       </c>
       <c r="I8">
-        <v>1.942286924472642E-32</v>
+        <v>3.986832382862636E-61</v>
       </c>
       <c r="J8">
-        <v>14.36999988555908</v>
+        <v>22.76000022888184</v>
       </c>
       <c r="K8">
-        <v>28.39999961853027</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="L8">
-        <v>1.248953359044901</v>
+        <v>1.82081097694434</v>
       </c>
       <c r="M8">
-        <v>-1.751693820267356</v>
+        <v>-1.929407295640448</v>
       </c>
       <c r="N8">
-        <v>0.6437344288526951</v>
+        <v>0.7815775266910158</v>
       </c>
       <c r="O8">
-        <v>0.6795377676645264</v>
+        <v>1.31716403095654</v>
       </c>
       <c r="P8">
-        <v>0.0153956410983107</v>
+        <v>0.01430384099134047</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>474</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6091063555217424</v>
+        <v>0.4859758912794642</v>
       </c>
       <c r="E9">
-        <v>0.7664442627569008</v>
+        <v>0.5837826872121552</v>
       </c>
       <c r="F9">
-        <v>0.008583102389062442</v>
+        <v>0.003699811226511787</v>
       </c>
       <c r="G9">
-        <v>15.24114229490704</v>
+        <v>6.958977012274421</v>
       </c>
       <c r="H9">
-        <v>1.700172377033999</v>
+        <v>0.4545456322873644</v>
       </c>
       <c r="I9">
-        <v>8.69384759367239E-66</v>
+        <v>2.618514394121041E-41</v>
       </c>
       <c r="J9">
-        <v>55.40999984741211</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="K9">
-        <v>24.82999992370605</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="L9">
-        <v>2.989538006076273</v>
+        <v>0.8307237967172298</v>
       </c>
       <c r="M9">
-        <v>-3.130980829338483</v>
+        <v>-0.7574243357455899</v>
       </c>
       <c r="N9">
-        <v>1.375293668497401</v>
+        <v>0.2629336509220913</v>
       </c>
       <c r="O9">
-        <v>-2.046422439536265</v>
+        <v>-0.3971616260383053</v>
       </c>
       <c r="P9">
-        <v>0.01544974895502812</v>
+        <v>0.0145255455071426</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
         <v>31</v>
@@ -979,114 +982,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2180</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3665411093381566</v>
+        <v>0.1387659359634238</v>
       </c>
       <c r="E10">
-        <v>0.1596725807196686</v>
+        <v>0.5454879631545441</v>
       </c>
       <c r="F10">
-        <v>0.001590731470276809</v>
+        <v>0.003158799946603717</v>
       </c>
       <c r="G10">
-        <v>-3.65530663537065</v>
+        <v>10.54353069406222</v>
       </c>
       <c r="H10">
-        <v>0.4763758667317498</v>
+        <v>-0.130850337933309</v>
       </c>
       <c r="I10">
-        <v>7.474833663900219E-41</v>
+        <v>2.253511179766465E-46</v>
       </c>
       <c r="J10">
-        <v>12.75</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="K10">
-        <v>33.41999816894531</v>
+        <v>27.80999946594238</v>
       </c>
       <c r="L10">
-        <v>0.6587212723786884</v>
+        <v>0.5802712731494974</v>
       </c>
       <c r="M10">
-        <v>-0.9025776061978235</v>
+        <v>-0.6987038656108098</v>
       </c>
       <c r="N10">
-        <v>0.3677343118272409</v>
+        <v>0.2688678795816169</v>
       </c>
       <c r="O10">
-        <v>0.484826041465837</v>
+        <v>0.3154169241731348</v>
       </c>
       <c r="P10">
-        <v>0.01596436136267412</v>
+        <v>0.0147559433828668</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>772</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.1481482827807787</v>
+        <v>0.501742036032976</v>
       </c>
       <c r="E11">
-        <v>0.7664442627569008</v>
+        <v>0.5454879631545441</v>
       </c>
       <c r="F11">
-        <v>0.001330607274269333</v>
+        <v>0.00455392386487438</v>
       </c>
       <c r="G11">
-        <v>11.93046984631432</v>
+        <v>7.079953478959511</v>
       </c>
       <c r="H11">
-        <v>-0.2102128590098819</v>
+        <v>0.2431398339786628</v>
       </c>
       <c r="I11">
-        <v>4.517023389624163E-37</v>
+        <v>8.748599052511682E-43</v>
       </c>
       <c r="J11">
-        <v>7.099999904632568</v>
+        <v>14.52999973297119</v>
       </c>
       <c r="K11">
-        <v>24.82999992370605</v>
+        <v>27.80999946594238</v>
       </c>
       <c r="L11">
-        <v>0.6485103697843257</v>
+        <v>1.364766238697827</v>
       </c>
       <c r="M11">
-        <v>-0.6822546956037367</v>
+        <v>-1.3852114638551</v>
       </c>
       <c r="N11">
-        <v>0.3157611578492912</v>
+        <v>0.5415538829759545</v>
       </c>
       <c r="O11">
-        <v>0.3891153314956481</v>
+        <v>0.6883276009157484</v>
       </c>
       <c r="P11">
-        <v>0.01610110692721857</v>
+        <v>0.01483165575897086</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -76,43 +76,43 @@
     <t>BPAC11</t>
   </si>
   <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
+    <t>CPFE3</t>
   </si>
   <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>CPFE3</t>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>TAEE11</t>
   </si>
   <si>
-    <t>SBSP3</t>
+    <t>BBDC3</t>
   </si>
   <si>
     <t>MULT3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -534,58 +534,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4859758912794642</v>
+        <v>0.4152234573020164</v>
       </c>
       <c r="E2">
-        <v>0.5665257804746698</v>
+        <v>0.5513138413207692</v>
       </c>
       <c r="F2">
-        <v>1.400957715117285E-08</v>
+        <v>6.822550497723165E-05</v>
       </c>
       <c r="G2">
-        <v>5.946645805614651</v>
+        <v>2.851172162703599</v>
       </c>
       <c r="H2">
-        <v>0.5462387924262302</v>
+        <v>0.2823553535370849</v>
       </c>
       <c r="I2">
-        <v>6.81161445725912E-63</v>
+        <v>4.582224373944596E-46</v>
       </c>
       <c r="J2">
-        <v>12.22999954223633</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K2">
-        <v>11.89999961853027</v>
+        <v>35.15000152587891</v>
       </c>
       <c r="L2">
-        <v>0.6316700366032215</v>
+        <v>0.6458014343792975</v>
       </c>
       <c r="M2">
-        <v>-0.4572506504214324</v>
+        <v>-0.6220932126617953</v>
       </c>
       <c r="N2">
-        <v>0.1805468102109836</v>
+        <v>0.2428691169714211</v>
       </c>
       <c r="O2">
-        <v>-0.216887684876899</v>
+        <v>-0.3659634229600996</v>
       </c>
       <c r="P2">
-        <v>0.005804629302684891</v>
+        <v>0.01003613177743822</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -599,43 +599,43 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.8300983780650977</v>
+        <v>0.8136418093700357</v>
       </c>
       <c r="E3">
-        <v>0.4176501058323999</v>
+        <v>0.4801644490573647</v>
       </c>
       <c r="F3">
-        <v>0.0001969478790356293</v>
+        <v>0.0001884197909787369</v>
       </c>
       <c r="G3">
-        <v>-1.939394744627013</v>
+        <v>-2.175108433602794</v>
       </c>
       <c r="H3">
-        <v>3.83207448154122</v>
+        <v>3.857638505742409</v>
       </c>
       <c r="I3">
-        <v>3.67143124616931E-76</v>
+        <v>4.318304607573438E-75</v>
       </c>
       <c r="J3">
-        <v>36.91999816894531</v>
+        <v>37.29000091552734</v>
       </c>
       <c r="K3">
-        <v>9.880000114440918</v>
+        <v>9.75</v>
       </c>
       <c r="L3">
-        <v>2.349695184160925</v>
+        <v>2.366381120688125</v>
       </c>
       <c r="M3">
-        <v>-1.790489387964488</v>
+        <v>-1.774624409522197</v>
       </c>
       <c r="N3">
-        <v>0.7870827663118797</v>
+        <v>0.7989615490996551</v>
       </c>
       <c r="O3">
-        <v>0.9984965973989546</v>
+        <v>1.853133918141651</v>
       </c>
       <c r="P3">
-        <v>0.01025309240612717</v>
+        <v>0.01076052787557662</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
@@ -646,223 +646,223 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>21</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4859758912794642</v>
+        <v>0.4432148015963192</v>
       </c>
       <c r="E4">
-        <v>0.5433768573258608</v>
+        <v>0.7122605286389221</v>
       </c>
       <c r="F4">
-        <v>0.0003239685858375984</v>
+        <v>0.0001131833170397376</v>
       </c>
       <c r="G4">
-        <v>2.954061483970221</v>
+        <v>6.886060520132574</v>
       </c>
       <c r="H4">
-        <v>0.2796570378135617</v>
+        <v>2.780726689852299</v>
       </c>
       <c r="I4">
-        <v>2.296846614769999E-45</v>
+        <v>2.498628217021553E-52</v>
       </c>
       <c r="J4">
-        <v>12.22999954223633</v>
+        <v>14.14000034332275</v>
       </c>
       <c r="K4">
-        <v>34.9900016784668</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="L4">
-        <v>0.6380277423668659</v>
+        <v>2.628068934099751</v>
       </c>
       <c r="M4">
-        <v>-0.6346699033682519</v>
+        <v>-0.8253751332216641</v>
       </c>
       <c r="N4">
-        <v>0.2450089875777625</v>
+        <v>0.4460591729467996</v>
       </c>
       <c r="O4">
-        <v>-0.5092621642254684</v>
+        <v>0.5801955023538987</v>
       </c>
       <c r="P4">
-        <v>0.01080533204476808</v>
+        <v>0.01076456174114144</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2313</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.1598488750929993</v>
+        <v>0.5968965760301037</v>
       </c>
       <c r="E5">
-        <v>0.6649332118917464</v>
+        <v>0.5513138413207692</v>
       </c>
       <c r="F5">
-        <v>0.001033326121726655</v>
+        <v>0.001232987261425036</v>
       </c>
       <c r="G5">
-        <v>6.244471296022315</v>
+        <v>-4.937392829388544</v>
       </c>
       <c r="H5">
-        <v>0.7776440658047082</v>
+        <v>0.4950278085625522</v>
       </c>
       <c r="I5">
-        <v>1.661876086117962E-55</v>
+        <v>3.383966837716669E-52</v>
       </c>
       <c r="J5">
-        <v>33.2400016784668</v>
+        <v>11.84767818450928</v>
       </c>
       <c r="K5">
-        <v>35.81999969482422</v>
+        <v>35.15000152587891</v>
       </c>
       <c r="L5">
-        <v>1.172319033833659</v>
+        <v>0.9737048977066856</v>
       </c>
       <c r="M5">
-        <v>-1.432240742920232</v>
+        <v>-0.6990743317944208</v>
       </c>
       <c r="N5">
-        <v>0.5176876778902999</v>
+        <v>0.3730562297141788</v>
       </c>
       <c r="O5">
-        <v>-0.8596798173620321</v>
+        <v>-0.6151572124283824</v>
       </c>
       <c r="P5">
-        <v>0.0121579954410877</v>
+        <v>0.01231765221654085</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>339</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5665257804746698</v>
+        <v>0.6324032796786838</v>
       </c>
       <c r="E6">
-        <v>0.5433768573258608</v>
+        <v>0.4733439912369786</v>
       </c>
       <c r="F6">
-        <v>0.00143337757174072</v>
+        <v>0.0003420890218350587</v>
       </c>
       <c r="G6">
-        <v>-4.882259002981396</v>
+        <v>79.70360749147153</v>
       </c>
       <c r="H6">
-        <v>0.4952422799822045</v>
+        <v>-0.856816782658491</v>
       </c>
       <c r="I6">
-        <v>1.525077580941986E-52</v>
+        <v>7.398276583688549E-67</v>
       </c>
       <c r="J6">
-        <v>11.89999961853027</v>
+        <v>55.93000030517578</v>
       </c>
       <c r="K6">
-        <v>34.9900016784668</v>
+        <v>29.5</v>
       </c>
       <c r="L6">
-        <v>0.9674525716781019</v>
+        <v>3.395842663630845</v>
       </c>
       <c r="M6">
-        <v>-0.7131670771142886</v>
+        <v>-3.159992735979088</v>
       </c>
       <c r="N6">
-        <v>0.3715593746035663</v>
+        <v>1.348216212465805</v>
       </c>
       <c r="O6">
-        <v>-0.5462695863133895</v>
+        <v>1.502487902129737</v>
       </c>
       <c r="P6">
-        <v>0.01231081396093892</v>
+        <v>0.01247928911148048</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>463</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.6079042605374403</v>
+        <v>0.2613684524715019</v>
       </c>
       <c r="E7">
-        <v>0.8004655162039731</v>
+        <v>0.5328851860504605</v>
       </c>
       <c r="F7">
-        <v>0.002504879602268446</v>
+        <v>0.001589146774607731</v>
       </c>
       <c r="G7">
-        <v>16.5269302169102</v>
+        <v>10.50812254504619</v>
       </c>
       <c r="H7">
-        <v>0.512919997573669</v>
+        <v>-0.1296842496180987</v>
       </c>
       <c r="I7">
-        <v>1.008168014374385E-79</v>
+        <v>5.813691007477452E-46</v>
       </c>
       <c r="J7">
-        <v>55.63000106811523</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="K7">
-        <v>80.95999908447266</v>
+        <v>27.40999984741211</v>
       </c>
       <c r="L7">
-        <v>2.904848467608275</v>
+        <v>0.5936338389557392</v>
       </c>
       <c r="M7">
-        <v>-2.46039541259826</v>
+        <v>-0.6902518183193145</v>
       </c>
       <c r="N7">
-        <v>1.086146660301661</v>
+        <v>0.2667319081424</v>
       </c>
       <c r="O7">
-        <v>-2.422931682766929</v>
+        <v>-0.3634771302144628</v>
       </c>
       <c r="P7">
-        <v>0.01255526224977566</v>
+        <v>0.01313952274400509</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -870,226 +870,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2780</v>
+        <v>2313</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4982271488716217</v>
+        <v>0.2477223755840696</v>
       </c>
       <c r="E8">
-        <v>0.6954500295747685</v>
+        <v>0.6833050765937758</v>
       </c>
       <c r="F8">
-        <v>0.004647505795244242</v>
+        <v>0.004093771828984918</v>
       </c>
       <c r="G8">
-        <v>-13.95712590192198</v>
+        <v>6.534053355596832</v>
       </c>
       <c r="H8">
-        <v>1.364686251774333</v>
+        <v>0.769328770232615</v>
       </c>
       <c r="I8">
-        <v>3.986832382862636E-61</v>
+        <v>5.154376366954056E-54</v>
       </c>
       <c r="J8">
-        <v>22.76000022888184</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="K8">
-        <v>25.94000053405762</v>
+        <v>35.91999816894531</v>
       </c>
       <c r="L8">
-        <v>1.82081097694434</v>
+        <v>1.166561716106827</v>
       </c>
       <c r="M8">
-        <v>-1.929407295640448</v>
+        <v>-1.451740245015653</v>
       </c>
       <c r="N8">
-        <v>0.7815775266910158</v>
+        <v>0.5248787601663784</v>
       </c>
       <c r="O8">
-        <v>1.31716403095654</v>
+        <v>-1.308340763317752</v>
       </c>
       <c r="P8">
-        <v>0.01430384099134047</v>
+        <v>0.01323156908390385</v>
       </c>
       <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
         <v>30</v>
-      </c>
-      <c r="R8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>6</v>
+        <v>906</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.4859758912794642</v>
+        <v>0.8136418093700357</v>
       </c>
       <c r="E9">
-        <v>0.5837826872121552</v>
+        <v>0.4733439912369786</v>
       </c>
       <c r="F9">
-        <v>0.003699811226511787</v>
+        <v>6.305424396963865E-05</v>
       </c>
       <c r="G9">
-        <v>6.958977012274421</v>
+        <v>52.3755254582608</v>
       </c>
       <c r="H9">
-        <v>0.4545456322873644</v>
+        <v>-0.5665413355407503</v>
       </c>
       <c r="I9">
-        <v>2.618514394121041E-41</v>
+        <v>6.120344041745032E-54</v>
       </c>
       <c r="J9">
-        <v>12.22999954223633</v>
+        <v>37.29000091552734</v>
       </c>
       <c r="K9">
-        <v>12.47000026702881</v>
+        <v>29.5</v>
       </c>
       <c r="L9">
-        <v>0.8307237967172298</v>
+        <v>3.166335891277757</v>
       </c>
       <c r="M9">
-        <v>-0.7574243357455899</v>
+        <v>-3.065674903272431</v>
       </c>
       <c r="N9">
-        <v>0.2629336509220913</v>
+        <v>1.155070212179735</v>
       </c>
       <c r="O9">
-        <v>-0.3971616260383053</v>
+        <v>1.627444855718679</v>
       </c>
       <c r="P9">
-        <v>0.0145255455071426</v>
+        <v>0.01345400102251634</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>769</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.1387659359634238</v>
+        <v>0.4152234573020164</v>
       </c>
       <c r="E10">
-        <v>0.5454879631545441</v>
+        <v>0.5888648861601041</v>
       </c>
       <c r="F10">
-        <v>0.003158799946603717</v>
+        <v>0.001654899482699457</v>
       </c>
       <c r="G10">
-        <v>10.54353069406222</v>
+        <v>6.903678093762655</v>
       </c>
       <c r="H10">
-        <v>-0.130850337933309</v>
+        <v>0.4583359640188214</v>
       </c>
       <c r="I10">
-        <v>2.253511179766465E-46</v>
+        <v>6.617447777493944E-42</v>
       </c>
       <c r="J10">
-        <v>7.21999979019165</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K10">
-        <v>27.80999946594238</v>
+        <v>12.63000011444092</v>
       </c>
       <c r="L10">
-        <v>0.5802712731494974</v>
+        <v>0.8388230296829953</v>
       </c>
       <c r="M10">
-        <v>-0.6987038656108098</v>
+        <v>-0.7478050673312051</v>
       </c>
       <c r="N10">
-        <v>0.2688678795816169</v>
+        <v>0.2611047094817054</v>
       </c>
       <c r="O10">
-        <v>0.3154169241731348</v>
+        <v>-0.2824615243606479</v>
       </c>
       <c r="P10">
-        <v>0.0147559433828668</v>
+        <v>0.01370873858661955</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.501742036032976</v>
+        <v>0.4152234573020164</v>
       </c>
       <c r="E11">
-        <v>0.5454879631545441</v>
+        <v>0.4493763161833021</v>
       </c>
       <c r="F11">
-        <v>0.00455392386487438</v>
+        <v>0.001830868994622177</v>
       </c>
       <c r="G11">
-        <v>7.079953478959511</v>
+        <v>5.187029105467692</v>
       </c>
       <c r="H11">
-        <v>0.2431398339786628</v>
+        <v>0.2939004355411312</v>
       </c>
       <c r="I11">
-        <v>8.748599052511682E-43</v>
+        <v>2.519719612291043E-36</v>
       </c>
       <c r="J11">
-        <v>14.52999973297119</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K11">
-        <v>27.80999946594238</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="L11">
-        <v>1.364766238697827</v>
+        <v>0.7747893598783122</v>
       </c>
       <c r="M11">
-        <v>-1.3852114638551</v>
+        <v>-0.7808562394035459</v>
       </c>
       <c r="N11">
-        <v>0.5415538829759545</v>
+        <v>0.2877232610110197</v>
       </c>
       <c r="O11">
-        <v>0.6883276009157484</v>
+        <v>-0.4772208934614568</v>
       </c>
       <c r="P11">
-        <v>0.01483165575897086</v>
+        <v>0.01433650094730697</v>
       </c>
       <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
         <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,6 +70,9 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
@@ -85,10 +88,13 @@
     <t>BBAS3</t>
   </si>
   <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>CPFE3</t>
@@ -100,19 +106,13 @@
     <t>COGN3</t>
   </si>
   <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>MULT3</t>
+    <t>CVCB3</t>
   </si>
 </sst>
 </file>
@@ -534,167 +534,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>21</v>
+        <v>2116</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4152234573020164</v>
+        <v>0.4933474646852656</v>
       </c>
       <c r="E2">
-        <v>0.5513138413207692</v>
+        <v>0.4607860137718142</v>
       </c>
       <c r="F2">
-        <v>6.822550497723165E-05</v>
+        <v>2.27809420017685E-05</v>
       </c>
       <c r="G2">
-        <v>2.851172162703599</v>
+        <v>67.8974220536315</v>
       </c>
       <c r="H2">
-        <v>0.2823553535370849</v>
+        <v>-0.7484587763448832</v>
       </c>
       <c r="I2">
-        <v>4.582224373944596E-46</v>
+        <v>2.061532078271719E-66</v>
       </c>
       <c r="J2">
-        <v>12.40999984741211</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="K2">
-        <v>35.15000152587891</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="L2">
-        <v>0.6458014343792975</v>
+        <v>2.622137145048796</v>
       </c>
       <c r="M2">
-        <v>-0.6220932126617953</v>
+        <v>-3.044684322210564</v>
       </c>
       <c r="N2">
-        <v>0.2428691169714211</v>
+        <v>1.195499813119823</v>
       </c>
       <c r="O2">
-        <v>-0.3659634229600996</v>
+        <v>1.291496446857156</v>
       </c>
       <c r="P2">
-        <v>0.01003613177743822</v>
+        <v>0.009518305317327317</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>858</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.8136418093700357</v>
+        <v>0.4032184932513015</v>
       </c>
       <c r="E3">
-        <v>0.4801644490573647</v>
+        <v>0.5501039768938255</v>
       </c>
       <c r="F3">
-        <v>0.0001884197909787369</v>
+        <v>6.129048610570513E-05</v>
       </c>
       <c r="G3">
-        <v>-2.175108433602794</v>
+        <v>2.832310211742076</v>
       </c>
       <c r="H3">
-        <v>3.857638505742409</v>
+        <v>0.2828184398182077</v>
       </c>
       <c r="I3">
-        <v>4.318304607573438E-75</v>
+        <v>3.294655234854194E-46</v>
       </c>
       <c r="J3">
-        <v>37.29000091552734</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="K3">
-        <v>9.75</v>
+        <v>35.11999893188477</v>
       </c>
       <c r="L3">
-        <v>2.366381120688125</v>
+        <v>0.6483395939312384</v>
       </c>
       <c r="M3">
-        <v>-1.774624409522197</v>
+        <v>-0.6187307600947438</v>
       </c>
       <c r="N3">
-        <v>0.7989615490996551</v>
+        <v>0.2434934164949869</v>
       </c>
       <c r="O3">
-        <v>1.853133918141651</v>
+        <v>-0.3148937068097091</v>
       </c>
       <c r="P3">
-        <v>0.01076052787557662</v>
+        <v>0.01010339983204844</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>566</v>
+        <v>858</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4432148015963192</v>
+        <v>0.7995508178008409</v>
       </c>
       <c r="E4">
-        <v>0.7122605286389221</v>
+        <v>0.483487683782502</v>
       </c>
       <c r="F4">
-        <v>0.0001131833170397376</v>
+        <v>0.0001398086392309456</v>
       </c>
       <c r="G4">
-        <v>6.886060520132574</v>
+        <v>-2.227658539897581</v>
       </c>
       <c r="H4">
-        <v>2.780726689852299</v>
+        <v>3.864323940209677</v>
       </c>
       <c r="I4">
-        <v>2.498628217021553E-52</v>
+        <v>4.052076160401192E-75</v>
       </c>
       <c r="J4">
-        <v>14.14000034332275</v>
+        <v>37.09999847412109</v>
       </c>
       <c r="K4">
-        <v>2.400000095367432</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="L4">
-        <v>2.628068934099751</v>
+        <v>2.361651681556729</v>
       </c>
       <c r="M4">
-        <v>-0.8253751332216641</v>
+        <v>-1.779570949544841</v>
       </c>
       <c r="N4">
-        <v>0.4460591729467996</v>
+        <v>0.8059043568522618</v>
       </c>
       <c r="O4">
-        <v>0.5801955023538987</v>
+        <v>1.457281662902545</v>
       </c>
       <c r="P4">
-        <v>0.01076456174114144</v>
+        <v>0.01082449021784773</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -702,175 +702,175 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>339</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5968965760301037</v>
+        <v>0.4238746139422348</v>
       </c>
       <c r="E5">
-        <v>0.5513138413207692</v>
+        <v>0.7214457899590432</v>
       </c>
       <c r="F5">
-        <v>0.001232987261425036</v>
+        <v>0.000197273012333127</v>
       </c>
       <c r="G5">
-        <v>-4.937392829388544</v>
+        <v>6.957380716160952</v>
       </c>
       <c r="H5">
-        <v>0.4950278085625522</v>
+        <v>2.757774852042226</v>
       </c>
       <c r="I5">
-        <v>3.383966837716669E-52</v>
+        <v>5.644236572526579E-52</v>
       </c>
       <c r="J5">
-        <v>11.84767818450928</v>
+        <v>14.35999965667725</v>
       </c>
       <c r="K5">
-        <v>35.15000152587891</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="L5">
-        <v>0.9737048977066856</v>
+        <v>2.615046405233414</v>
       </c>
       <c r="M5">
-        <v>-0.6990743317944208</v>
+        <v>-0.8301349974119709</v>
       </c>
       <c r="N5">
-        <v>0.3730562297141788</v>
+        <v>0.4503491875002923</v>
       </c>
       <c r="O5">
-        <v>-0.6151572124283824</v>
+        <v>0.8391144770535108</v>
       </c>
       <c r="P5">
-        <v>0.01231765221654085</v>
+        <v>0.0112013046724051</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>465</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6324032796786838</v>
+        <v>0.5676563813509782</v>
       </c>
       <c r="E6">
-        <v>0.4733439912369786</v>
+        <v>0.5501039768938255</v>
       </c>
       <c r="F6">
-        <v>0.0003420890218350587</v>
+        <v>0.0008636057092913451</v>
       </c>
       <c r="G6">
-        <v>79.70360749147153</v>
+        <v>-4.962820860187518</v>
       </c>
       <c r="H6">
-        <v>-0.856816782658491</v>
+        <v>0.4956521076278969</v>
       </c>
       <c r="I6">
-        <v>7.398276583688549E-67</v>
+        <v>1.991637053406627E-52</v>
       </c>
       <c r="J6">
-        <v>55.93000030517578</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="K6">
-        <v>29.5</v>
+        <v>35.11999893188477</v>
       </c>
       <c r="L6">
-        <v>3.395842663630845</v>
+        <v>0.978112780118634</v>
       </c>
       <c r="M6">
-        <v>-3.159992735979088</v>
+        <v>-0.6945228608832235</v>
       </c>
       <c r="N6">
-        <v>1.348216212465805</v>
+        <v>0.3734779113812821</v>
       </c>
       <c r="O6">
-        <v>1.502487902129737</v>
+        <v>-0.4244801725269802</v>
       </c>
       <c r="P6">
-        <v>0.01247928911148048</v>
+        <v>0.01220162928589166</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>769</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.2613684524715019</v>
+        <v>0.6227811186523379</v>
       </c>
       <c r="E7">
-        <v>0.5328851860504605</v>
+        <v>0.4607860137718142</v>
       </c>
       <c r="F7">
-        <v>0.001589146774607731</v>
+        <v>0.0003638311282577313</v>
       </c>
       <c r="G7">
-        <v>10.50812254504619</v>
+        <v>79.75444475153454</v>
       </c>
       <c r="H7">
-        <v>-0.1296842496180987</v>
+        <v>-0.8579808706625097</v>
       </c>
       <c r="I7">
-        <v>5.813691007477452E-46</v>
+        <v>4.44796071912536E-67</v>
       </c>
       <c r="J7">
-        <v>6.590000152587891</v>
+        <v>55.97000122070312</v>
       </c>
       <c r="K7">
-        <v>27.40999984741211</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="L7">
-        <v>0.5936338389557392</v>
+        <v>3.378030581218788</v>
       </c>
       <c r="M7">
-        <v>-0.6902518183193145</v>
+        <v>-3.177385748219507</v>
       </c>
       <c r="N7">
-        <v>0.2667319081424</v>
+        <v>1.352895020617049</v>
       </c>
       <c r="O7">
-        <v>-0.3634771302144628</v>
+        <v>1.869184174683902</v>
       </c>
       <c r="P7">
-        <v>0.01313952274400509</v>
+        <v>0.012714997911186</v>
       </c>
       <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2313</v>
+        <v>1228</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -879,49 +879,49 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2477223755840696</v>
+        <v>0.4724379363879171</v>
       </c>
       <c r="E8">
-        <v>0.6833050765937758</v>
+        <v>0.665401647374579</v>
       </c>
       <c r="F8">
-        <v>0.004093771828984918</v>
+        <v>0.001908178602063359</v>
       </c>
       <c r="G8">
-        <v>6.534053355596832</v>
+        <v>8.253222847892388</v>
       </c>
       <c r="H8">
-        <v>0.769328770232615</v>
+        <v>0.5779486508715102</v>
       </c>
       <c r="I8">
-        <v>5.154376366954056E-54</v>
+        <v>6.322705165564709E-56</v>
       </c>
       <c r="J8">
-        <v>32.86000061035156</v>
+        <v>13.9399995803833</v>
       </c>
       <c r="K8">
-        <v>35.91999816894531</v>
+        <v>9.140000343322754</v>
       </c>
       <c r="L8">
-        <v>1.166561716106827</v>
+        <v>0.9538697885052034</v>
       </c>
       <c r="M8">
-        <v>-1.451740245015653</v>
+        <v>-0.8838884820452613</v>
       </c>
       <c r="N8">
-        <v>0.5248787601663784</v>
+        <v>0.3017117298750322</v>
       </c>
       <c r="O8">
-        <v>-1.308340763317752</v>
+        <v>0.4043258651023871</v>
       </c>
       <c r="P8">
-        <v>0.01323156908390385</v>
+        <v>0.01299432987742098</v>
       </c>
       <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -929,55 +929,55 @@
         <v>906</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.8136418093700357</v>
+        <v>0.7995508178008409</v>
       </c>
       <c r="E9">
-        <v>0.4733439912369786</v>
+        <v>0.4607860137718142</v>
       </c>
       <c r="F9">
-        <v>6.305424396963865E-05</v>
+        <v>5.837280114235582E-05</v>
       </c>
       <c r="G9">
-        <v>52.3755254582608</v>
+        <v>52.42039883033856</v>
       </c>
       <c r="H9">
-        <v>-0.5665413355407503</v>
+        <v>-0.5675688568078129</v>
       </c>
       <c r="I9">
-        <v>6.120344041745032E-54</v>
+        <v>4.414848171364813E-54</v>
       </c>
       <c r="J9">
-        <v>37.29000091552734</v>
+        <v>37.09999847412109</v>
       </c>
       <c r="K9">
-        <v>29.5</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="L9">
-        <v>3.166335891277757</v>
+        <v>3.161905756898733</v>
       </c>
       <c r="M9">
-        <v>-3.065674903272431</v>
+        <v>-3.074124552997517</v>
       </c>
       <c r="N9">
-        <v>1.155070212179735</v>
+        <v>1.159586851041284</v>
       </c>
       <c r="O9">
-        <v>1.627444855718679</v>
+        <v>1.649908245825806</v>
       </c>
       <c r="P9">
-        <v>0.01345400102251634</v>
+        <v>0.0136569660863832</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -985,52 +985,52 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.4152234573020164</v>
+        <v>0.4032184932513015</v>
       </c>
       <c r="E10">
-        <v>0.5888648861601041</v>
+        <v>0.5724908178559466</v>
       </c>
       <c r="F10">
-        <v>0.001654899482699457</v>
+        <v>0.001834773962342811</v>
       </c>
       <c r="G10">
-        <v>6.903678093762655</v>
+        <v>6.891247960732688</v>
       </c>
       <c r="H10">
-        <v>0.4583359640188214</v>
+        <v>0.4590998074040308</v>
       </c>
       <c r="I10">
-        <v>6.617447777493944E-42</v>
+        <v>4.732415927745154E-42</v>
       </c>
       <c r="J10">
-        <v>12.40999984741211</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="K10">
-        <v>12.63000011444092</v>
+        <v>12.8100004196167</v>
       </c>
       <c r="L10">
-        <v>0.8388230296829953</v>
+        <v>0.8417412861431472</v>
       </c>
       <c r="M10">
-        <v>-0.7478050673312051</v>
+        <v>-0.7445799618272773</v>
       </c>
       <c r="N10">
-        <v>0.2611047094817054</v>
+        <v>0.2616228238543733</v>
       </c>
       <c r="O10">
-        <v>-0.2824615243606479</v>
+        <v>-0.3223168769591318</v>
       </c>
       <c r="P10">
-        <v>0.01370873858661955</v>
+        <v>0.01389797024697227</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
         <v>31</v>
@@ -1038,58 +1038,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>54</v>
+        <v>1136</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4152234573020164</v>
+        <v>0.203770471424039</v>
       </c>
       <c r="E11">
-        <v>0.4493763161833021</v>
+        <v>0.1895264815084479</v>
       </c>
       <c r="F11">
-        <v>0.001830868994622177</v>
+        <v>0.003236456755400616</v>
       </c>
       <c r="G11">
-        <v>5.187029105467692</v>
+        <v>2.993349973569539</v>
       </c>
       <c r="H11">
-        <v>0.2939004355411312</v>
+        <v>1.394919042416</v>
       </c>
       <c r="I11">
-        <v>2.519719612291043E-36</v>
+        <v>1.798654117474216E-42</v>
       </c>
       <c r="J11">
-        <v>12.40999984741211</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="K11">
-        <v>26.20000076293945</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="L11">
-        <v>0.7747893598783122</v>
+        <v>0.9018231601058107</v>
       </c>
       <c r="M11">
-        <v>-0.7808562394035459</v>
+        <v>-0.7165137792155685</v>
       </c>
       <c r="N11">
-        <v>0.2877232610110197</v>
+        <v>0.3237337785887862</v>
       </c>
       <c r="O11">
-        <v>-0.4772208934614568</v>
+        <v>0.3800452724515022</v>
       </c>
       <c r="P11">
-        <v>0.01433650094730697</v>
+        <v>0.01389805603560267</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>CASH3</t>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>COGN3</t>
   </si>
   <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -534,7 +531,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2116</v>
+        <v>858</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -543,43 +540,43 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4933474646852656</v>
+        <v>0.7380400656553145</v>
       </c>
       <c r="E2">
-        <v>0.4607860137718142</v>
+        <v>0.5693989064114942</v>
       </c>
       <c r="F2">
-        <v>2.27809420017685E-05</v>
+        <v>0.0001479018829982323</v>
       </c>
       <c r="G2">
-        <v>67.8974220536315</v>
+        <v>-2.77712006794558</v>
       </c>
       <c r="H2">
-        <v>-0.7484587763448832</v>
+        <v>3.920610730230152</v>
       </c>
       <c r="I2">
-        <v>2.061532078271719E-66</v>
+        <v>3.754173780795233E-74</v>
       </c>
       <c r="J2">
-        <v>46.81000137329102</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="K2">
-        <v>29.89999961853027</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="L2">
-        <v>2.622137145048796</v>
+        <v>2.428858576542815</v>
       </c>
       <c r="M2">
-        <v>-3.044684322210564</v>
+        <v>-1.739931844139356</v>
       </c>
       <c r="N2">
-        <v>1.195499813119823</v>
+        <v>0.8008146835842812</v>
       </c>
       <c r="O2">
-        <v>1.291496446857156</v>
+        <v>1.490845596985594</v>
       </c>
       <c r="P2">
-        <v>0.009518305317327317</v>
+        <v>0.009510294505996299</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -590,7 +587,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>21</v>
+        <v>2116</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -599,54 +596,54 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4032184932513015</v>
+        <v>0.5435160083143225</v>
       </c>
       <c r="E3">
-        <v>0.5501039768938255</v>
+        <v>0.2349714241541522</v>
       </c>
       <c r="F3">
-        <v>6.129048610570513E-05</v>
+        <v>3.762125055511116E-05</v>
       </c>
       <c r="G3">
-        <v>2.832310211742076</v>
+        <v>67.90921149257422</v>
       </c>
       <c r="H3">
-        <v>0.2828184398182077</v>
+        <v>-0.748303323012056</v>
       </c>
       <c r="I3">
-        <v>3.294655234854194E-46</v>
+        <v>1.257408316208203E-63</v>
       </c>
       <c r="J3">
-        <v>12.44999980926514</v>
+        <v>46.63000106811523</v>
       </c>
       <c r="K3">
-        <v>35.11999893188477</v>
+        <v>31.03000068664551</v>
       </c>
       <c r="L3">
-        <v>0.6483395939312384</v>
+        <v>2.605007884360674</v>
       </c>
       <c r="M3">
-        <v>-0.6187307600947438</v>
+        <v>-3.061997017878866</v>
       </c>
       <c r="N3">
-        <v>0.2434934164949869</v>
+        <v>1.212697694469001</v>
       </c>
       <c r="O3">
-        <v>-0.3148937068097091</v>
+        <v>1.940642202424232</v>
       </c>
       <c r="P3">
-        <v>0.01010339983204844</v>
+        <v>0.0098836347281753</v>
       </c>
       <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>858</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -655,43 +652,43 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.7995508178008409</v>
+        <v>0.4556675937797027</v>
       </c>
       <c r="E4">
-        <v>0.483487683782502</v>
+        <v>0.7369739834459281</v>
       </c>
       <c r="F4">
-        <v>0.0001398086392309456</v>
+        <v>0.0003189441046699443</v>
       </c>
       <c r="G4">
-        <v>-2.227658539897581</v>
+        <v>7.018231664374223</v>
       </c>
       <c r="H4">
-        <v>3.864323940209677</v>
+        <v>2.743685526270847</v>
       </c>
       <c r="I4">
-        <v>4.052076160401192E-75</v>
+        <v>5.649733624840207E-52</v>
       </c>
       <c r="J4">
-        <v>37.09999847412109</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="K4">
-        <v>9.800000190734863</v>
+        <v>2.359999895095825</v>
       </c>
       <c r="L4">
-        <v>2.361651681556729</v>
+        <v>2.589982343941983</v>
       </c>
       <c r="M4">
-        <v>-1.779570949544841</v>
+        <v>-0.7610561072995896</v>
       </c>
       <c r="N4">
-        <v>0.8059043568522618</v>
+        <v>0.4469474463607322</v>
       </c>
       <c r="O4">
-        <v>1.457281662902545</v>
+        <v>0.7666710103324803</v>
       </c>
       <c r="P4">
-        <v>0.01082449021784773</v>
+        <v>0.01130499751839065</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>566</v>
+        <v>1228</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -711,385 +708,385 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.4238746139422348</v>
+        <v>0.4029224712414542</v>
       </c>
       <c r="E5">
-        <v>0.7214457899590432</v>
+        <v>0.6984231696019384</v>
       </c>
       <c r="F5">
-        <v>0.000197273012333127</v>
+        <v>0.0008620778011631757</v>
       </c>
       <c r="G5">
-        <v>6.957380716160952</v>
+        <v>8.325943626999678</v>
       </c>
       <c r="H5">
-        <v>2.757774852042226</v>
+        <v>0.5699412434572774</v>
       </c>
       <c r="I5">
-        <v>5.644236572526579E-52</v>
+        <v>1.609624302515429E-54</v>
       </c>
       <c r="J5">
-        <v>14.35999965667725</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="K5">
-        <v>2.380000114440918</v>
+        <v>10.3100004196167</v>
       </c>
       <c r="L5">
-        <v>2.615046405233414</v>
+        <v>0.9548972319884559</v>
       </c>
       <c r="M5">
-        <v>-0.8301349974119709</v>
+        <v>-0.8733322270991142</v>
       </c>
       <c r="N5">
-        <v>0.4503491875002923</v>
+        <v>0.3027306955905572</v>
       </c>
       <c r="O5">
-        <v>0.8391144770535108</v>
+        <v>-0.3820383913768515</v>
       </c>
       <c r="P5">
-        <v>0.0112013046724051</v>
+        <v>0.01164777863846869</v>
       </c>
       <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
         <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>339</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.5676563813509782</v>
+        <v>0.7380400656553145</v>
       </c>
       <c r="E6">
-        <v>0.5501039768938255</v>
+        <v>0.2349714241541522</v>
       </c>
       <c r="F6">
-        <v>0.0008636057092913451</v>
+        <v>6.978152709349741E-06</v>
       </c>
       <c r="G6">
-        <v>-4.962820860187518</v>
+        <v>52.71919116573174</v>
       </c>
       <c r="H6">
-        <v>0.4956521076278969</v>
+        <v>-0.5774862942938893</v>
       </c>
       <c r="I6">
-        <v>1.991637053406627E-52</v>
+        <v>2.773940572419419E-53</v>
       </c>
       <c r="J6">
-        <v>12.02000045776367</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="K6">
-        <v>35.11999893188477</v>
+        <v>31.03000068664551</v>
       </c>
       <c r="L6">
-        <v>0.978112780118634</v>
+        <v>3.253463767010636</v>
       </c>
       <c r="M6">
-        <v>-0.6945228608832235</v>
+        <v>-3.021341814594258</v>
       </c>
       <c r="N6">
-        <v>0.3734779113812821</v>
+        <v>1.155250414052203</v>
       </c>
       <c r="O6">
-        <v>-0.4244801725269802</v>
+        <v>1.630209247911793</v>
       </c>
       <c r="P6">
-        <v>0.01220162928589166</v>
+        <v>0.01198474569261277</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>465</v>
+        <v>2065</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.6227811186523379</v>
+        <v>0.5942103595522725</v>
       </c>
       <c r="E7">
-        <v>0.4607860137718142</v>
+        <v>0.2349714241541522</v>
       </c>
       <c r="F7">
-        <v>0.0003638311282577313</v>
+        <v>0.001055606432065875</v>
       </c>
       <c r="G7">
-        <v>79.75444475153454</v>
+        <v>60.07747140322022</v>
       </c>
       <c r="H7">
-        <v>-0.8579808706625097</v>
+        <v>-0.6356208393226724</v>
       </c>
       <c r="I7">
-        <v>4.44796071912536E-67</v>
+        <v>6.639451463186523E-54</v>
       </c>
       <c r="J7">
-        <v>55.97000122070312</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="K7">
-        <v>29.89999961853027</v>
+        <v>31.03000068664551</v>
       </c>
       <c r="L7">
-        <v>3.378030581218788</v>
+        <v>2.536102236930027</v>
       </c>
       <c r="M7">
-        <v>-3.177385748219507</v>
+        <v>-3.143865283868919</v>
       </c>
       <c r="N7">
-        <v>1.352895020617049</v>
+        <v>1.255113716428688</v>
       </c>
       <c r="O7">
-        <v>1.869184174683902</v>
+        <v>1.345844440347957</v>
       </c>
       <c r="P7">
-        <v>0.012714997911186</v>
+        <v>0.0121874685091435</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4724379363879171</v>
+        <v>0.4029224712414542</v>
       </c>
       <c r="E8">
-        <v>0.665401647374579</v>
+        <v>0.7079884331405283</v>
       </c>
       <c r="F8">
-        <v>0.001908178602063359</v>
+        <v>7.205078960820529E-05</v>
       </c>
       <c r="G8">
-        <v>8.253222847892388</v>
+        <v>6.862377170008484</v>
       </c>
       <c r="H8">
-        <v>0.5779486508715102</v>
+        <v>0.4290491323752088</v>
       </c>
       <c r="I8">
-        <v>6.322705165564709E-56</v>
+        <v>4.414193606669845E-53</v>
       </c>
       <c r="J8">
-        <v>13.9399995803833</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="K8">
-        <v>9.140000343322754</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="L8">
-        <v>0.9538697885052034</v>
+        <v>0.6638145413862482</v>
       </c>
       <c r="M8">
-        <v>-0.8838884820452613</v>
+        <v>-1.207464628127319</v>
       </c>
       <c r="N8">
-        <v>0.3017117298750322</v>
+        <v>0.3104693641357774</v>
       </c>
       <c r="O8">
-        <v>0.4043258651023871</v>
+        <v>-0.3276315465122037</v>
       </c>
       <c r="P8">
-        <v>0.01299432987742098</v>
+        <v>0.01228317314117156</v>
       </c>
       <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
         <v>30</v>
-      </c>
-      <c r="R8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>906</v>
+        <v>2194</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.7995508178008409</v>
+        <v>0.4021761001975803</v>
       </c>
       <c r="E9">
-        <v>0.4607860137718142</v>
+        <v>0.7079884331405283</v>
       </c>
       <c r="F9">
-        <v>5.837280114235582E-05</v>
+        <v>0.0008000466986352276</v>
       </c>
       <c r="G9">
-        <v>52.42039883033856</v>
+        <v>6.53177533731994</v>
       </c>
       <c r="H9">
-        <v>-0.5675688568078129</v>
+        <v>0.3932746371916012</v>
       </c>
       <c r="I9">
-        <v>4.414848171364813E-54</v>
+        <v>1.08075693293174E-43</v>
       </c>
       <c r="J9">
-        <v>37.09999847412109</v>
+        <v>12.75</v>
       </c>
       <c r="K9">
-        <v>29.89999961853027</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="L9">
-        <v>3.161905756898733</v>
+        <v>1.042908092392643</v>
       </c>
       <c r="M9">
-        <v>-3.074124552997517</v>
+        <v>-0.7460141258169131</v>
       </c>
       <c r="N9">
-        <v>1.159586851041284</v>
+        <v>0.3492902578605735</v>
       </c>
       <c r="O9">
-        <v>1.649908245825806</v>
+        <v>-0.4595784968064862</v>
       </c>
       <c r="P9">
-        <v>0.0136569660863832</v>
+        <v>0.01329467443953669</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.4032184932513015</v>
+        <v>0.5754538818395922</v>
       </c>
       <c r="E10">
-        <v>0.5724908178559466</v>
+        <v>0.6101603518030367</v>
       </c>
       <c r="F10">
-        <v>0.001834773962342811</v>
+        <v>0.001357183690110484</v>
       </c>
       <c r="G10">
-        <v>6.891247960732688</v>
+        <v>6.66059230221749</v>
       </c>
       <c r="H10">
-        <v>0.4590998074040308</v>
+        <v>0.2595655646316482</v>
       </c>
       <c r="I10">
-        <v>4.732415927745154E-42</v>
+        <v>1.096740691685007E-45</v>
       </c>
       <c r="J10">
-        <v>12.44999980926514</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="K10">
-        <v>12.8100004196167</v>
+        <v>28.46999931335449</v>
       </c>
       <c r="L10">
-        <v>0.8417412861431472</v>
+        <v>1.159682408408312</v>
       </c>
       <c r="M10">
-        <v>-0.7445799618272773</v>
+        <v>-1.385732744963665</v>
       </c>
       <c r="N10">
-        <v>0.2616228238543733</v>
+        <v>0.5234507540802676</v>
       </c>
       <c r="O10">
-        <v>-0.3223168769591318</v>
+        <v>0.6595762890959858</v>
       </c>
       <c r="P10">
-        <v>0.01389797024697227</v>
+        <v>0.01331203887634453</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1136</v>
+        <v>2632</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.203770471424039</v>
+        <v>0.6624839569400151</v>
       </c>
       <c r="E11">
-        <v>0.1895264815084479</v>
+        <v>0.6984231696019384</v>
       </c>
       <c r="F11">
-        <v>0.003236456755400616</v>
+        <v>0.005641102495732977</v>
       </c>
       <c r="G11">
-        <v>2.993349973569539</v>
+        <v>11.56543410210491</v>
       </c>
       <c r="H11">
-        <v>1.394919042416</v>
+        <v>1.258257083973503</v>
       </c>
       <c r="I11">
-        <v>1.798654117474216E-42</v>
+        <v>4.586820998250731E-57</v>
       </c>
       <c r="J11">
-        <v>7.599999904632568</v>
+        <v>23.30999946594238</v>
       </c>
       <c r="K11">
-        <v>3.029999971389771</v>
+        <v>10.3100004196167</v>
       </c>
       <c r="L11">
-        <v>0.9018231601058107</v>
+        <v>1.442294542977752</v>
       </c>
       <c r="M11">
-        <v>-0.7165137792155685</v>
+        <v>-2.173146437288061</v>
       </c>
       <c r="N11">
-        <v>0.3237337785887862</v>
+        <v>0.6341079302970545</v>
       </c>
       <c r="O11">
-        <v>0.3800452724515022</v>
+        <v>-1.228065699915028</v>
       </c>
       <c r="P11">
-        <v>0.01389805603560267</v>
+        <v>0.01414323354925626</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -73,43 +73,55 @@
     <t>BPAC11</t>
   </si>
   <si>
-    <t>ELET6</t>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>BBDC4</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>CCRO3</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>CPLE6</t>
   </si>
   <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
   </si>
 </sst>
 </file>
@@ -537,49 +549,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.7380400656553145</v>
+        <v>0.6592536393543332</v>
       </c>
       <c r="E2">
-        <v>0.5693989064114942</v>
+        <v>0.633908283234629</v>
       </c>
       <c r="F2">
-        <v>0.0001479018829982323</v>
+        <v>3.126173647902443E-05</v>
       </c>
       <c r="G2">
-        <v>-2.77712006794558</v>
+        <v>-3.137308183320711</v>
       </c>
       <c r="H2">
-        <v>3.920610730230152</v>
+        <v>3.957188995970411</v>
       </c>
       <c r="I2">
-        <v>3.754173780795233E-74</v>
+        <v>5.90082796393938E-76</v>
       </c>
       <c r="J2">
-        <v>36.43000030517578</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="K2">
-        <v>9.619999885559082</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="L2">
-        <v>2.428858576542815</v>
+        <v>1.844716388136554</v>
       </c>
       <c r="M2">
-        <v>-1.739931844139356</v>
+        <v>-1.754305161572375</v>
       </c>
       <c r="N2">
-        <v>0.8008146835842812</v>
+        <v>0.7755867684681476</v>
       </c>
       <c r="O2">
-        <v>1.490845596985594</v>
+        <v>0.8561508385625913</v>
       </c>
       <c r="P2">
-        <v>0.009510294505996299</v>
+        <v>0.01007308076253369</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -587,58 +599,58 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2116</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.5435160083143225</v>
+        <v>0.4588620825779573</v>
       </c>
       <c r="E3">
-        <v>0.2349714241541522</v>
+        <v>0.6438043498023517</v>
       </c>
       <c r="F3">
-        <v>3.762125055511116E-05</v>
+        <v>0.0003392120804556667</v>
       </c>
       <c r="G3">
-        <v>67.90921149257422</v>
+        <v>2.623255007940933</v>
       </c>
       <c r="H3">
-        <v>-0.748303323012056</v>
+        <v>0.2882900085268295</v>
       </c>
       <c r="I3">
-        <v>1.257408316208203E-63</v>
+        <v>5.953321593609211E-48</v>
       </c>
       <c r="J3">
-        <v>46.63000106811523</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="K3">
-        <v>31.03000068664551</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="L3">
-        <v>2.605007884360674</v>
+        <v>0.6645220007534647</v>
       </c>
       <c r="M3">
-        <v>-3.061997017878866</v>
+        <v>-0.5928089676503348</v>
       </c>
       <c r="N3">
-        <v>1.212697694469001</v>
+        <v>0.2364726904632616</v>
       </c>
       <c r="O3">
-        <v>1.940642202424232</v>
+        <v>-0.2738548715067672</v>
       </c>
       <c r="P3">
-        <v>0.0098836347281753</v>
+        <v>0.01059194340941115</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,49 +661,49 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.4556675937797027</v>
+        <v>0.4643047642518602</v>
       </c>
       <c r="E4">
-        <v>0.7369739834459281</v>
+        <v>0.7392086975240568</v>
       </c>
       <c r="F4">
-        <v>0.0003189441046699443</v>
+        <v>0.0002468503989593065</v>
       </c>
       <c r="G4">
-        <v>7.018231664374223</v>
+        <v>7.062347808322211</v>
       </c>
       <c r="H4">
-        <v>2.743685526270847</v>
+        <v>2.723925925730155</v>
       </c>
       <c r="I4">
-        <v>5.649733624840207E-52</v>
+        <v>7.965447512750429E-52</v>
       </c>
       <c r="J4">
-        <v>14.26000022888184</v>
+        <v>14.11102485656738</v>
       </c>
       <c r="K4">
         <v>2.359999895095825</v>
       </c>
       <c r="L4">
-        <v>2.589982343941983</v>
+        <v>2.573794918720028</v>
       </c>
       <c r="M4">
-        <v>-0.7610561072995896</v>
+        <v>-0.7698501713302228</v>
       </c>
       <c r="N4">
-        <v>0.4469474463607322</v>
+        <v>0.4479274541577785</v>
       </c>
       <c r="O4">
-        <v>0.7666710103324803</v>
+        <v>0.6202121492732076</v>
       </c>
       <c r="P4">
-        <v>0.01130499751839065</v>
+        <v>0.01150598593343677</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -699,394 +711,394 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1228</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.4029224712414542</v>
+        <v>0.6125159585150981</v>
       </c>
       <c r="E5">
-        <v>0.6984231696019384</v>
+        <v>0.6438043498023517</v>
       </c>
       <c r="F5">
-        <v>0.0008620778011631757</v>
+        <v>0.0009633920151017978</v>
       </c>
       <c r="G5">
-        <v>8.325943626999678</v>
+        <v>-5.252467288936312</v>
       </c>
       <c r="H5">
-        <v>0.5699412434572774</v>
+        <v>0.5031521647221965</v>
       </c>
       <c r="I5">
-        <v>1.609624302515429E-54</v>
+        <v>1.344990922687156E-53</v>
       </c>
       <c r="J5">
-        <v>13.81999969482422</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="K5">
-        <v>10.3100004196167</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="L5">
-        <v>0.9548972319884559</v>
+        <v>1.015091156436547</v>
       </c>
       <c r="M5">
-        <v>-0.8733322270991142</v>
+        <v>-0.655799447706233</v>
       </c>
       <c r="N5">
-        <v>0.3027306955905572</v>
+        <v>0.3657727446849522</v>
       </c>
       <c r="O5">
-        <v>-0.3820383913768515</v>
+        <v>-0.3966596585579651</v>
       </c>
       <c r="P5">
-        <v>0.01164777863846869</v>
+        <v>0.01183835478303791</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>906</v>
+        <v>1228</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7380400656553145</v>
+        <v>0.3624799926116083</v>
       </c>
       <c r="E6">
-        <v>0.2349714241541522</v>
+        <v>0.692227028484331</v>
       </c>
       <c r="F6">
-        <v>6.978152709349741E-06</v>
+        <v>0.001815947727191089</v>
       </c>
       <c r="G6">
-        <v>52.71919116573174</v>
+        <v>8.373891848654079</v>
       </c>
       <c r="H6">
-        <v>-0.5774862942938893</v>
+        <v>0.5641217363194493</v>
       </c>
       <c r="I6">
-        <v>2.773940572419419E-53</v>
+        <v>1.154350990342568E-53</v>
       </c>
       <c r="J6">
-        <v>36.43000030517578</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="K6">
-        <v>31.03000068664551</v>
+        <v>10.3100004196167</v>
       </c>
       <c r="L6">
-        <v>3.253463767010636</v>
+        <v>0.9605466712954485</v>
       </c>
       <c r="M6">
-        <v>-3.021341814594258</v>
+        <v>-0.8607575767400704</v>
       </c>
       <c r="N6">
-        <v>1.155250414052203</v>
+        <v>0.3058363412500793</v>
       </c>
       <c r="O6">
-        <v>1.630209247911793</v>
+        <v>-0.5399875682922284</v>
       </c>
       <c r="P6">
-        <v>0.01198474569261277</v>
+        <v>0.01228082936041229</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2065</v>
+        <v>1225</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.5942103595522725</v>
+        <v>0.3624799926116083</v>
       </c>
       <c r="E7">
-        <v>0.2349714241541522</v>
+        <v>0.7074180139530529</v>
       </c>
       <c r="F7">
-        <v>0.001055606432065875</v>
+        <v>0.0005715284171546529</v>
       </c>
       <c r="G7">
-        <v>60.07747140322022</v>
+        <v>6.872379550777001</v>
       </c>
       <c r="H7">
-        <v>-0.6356208393226724</v>
+        <v>0.4287666649878735</v>
       </c>
       <c r="I7">
-        <v>6.639451463186523E-54</v>
+        <v>8.806672524781843E-56</v>
       </c>
       <c r="J7">
-        <v>41.70000076293945</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="K7">
-        <v>31.03000068664551</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="L7">
-        <v>2.536102236930027</v>
+        <v>0.6578964793059114</v>
       </c>
       <c r="M7">
-        <v>-3.143865283868919</v>
+        <v>-0.8857353839044109</v>
       </c>
       <c r="N7">
-        <v>1.255113716428688</v>
+        <v>0.2946776015389135</v>
       </c>
       <c r="O7">
-        <v>1.345844440347957</v>
+        <v>-0.4428106360671178</v>
       </c>
       <c r="P7">
-        <v>0.0121874685091435</v>
+        <v>0.01292311229777043</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1225</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.4029224712414542</v>
+        <v>0.4667542965535108</v>
       </c>
       <c r="E8">
-        <v>0.7079884331405283</v>
+        <v>0.2315593207390376</v>
       </c>
       <c r="F8">
-        <v>7.205078960820529E-05</v>
+        <v>0.0005405816172524337</v>
       </c>
       <c r="G8">
-        <v>6.862377170008484</v>
+        <v>79.87600292275259</v>
       </c>
       <c r="H8">
-        <v>0.4290491323752088</v>
+        <v>-0.8605113757615596</v>
       </c>
       <c r="I8">
-        <v>4.414193606669845E-53</v>
+        <v>1.525203740925513E-62</v>
       </c>
       <c r="J8">
-        <v>13.81999969482422</v>
+        <v>56.08000183105469</v>
       </c>
       <c r="K8">
-        <v>16.97999954223633</v>
+        <v>30.3700008392334</v>
       </c>
       <c r="L8">
-        <v>0.6638145413862482</v>
+        <v>3.445664589879641</v>
       </c>
       <c r="M8">
-        <v>-1.207464628127319</v>
+        <v>-3.226242509100238</v>
       </c>
       <c r="N8">
-        <v>0.3104693641357774</v>
+        <v>1.408801528559597</v>
       </c>
       <c r="O8">
-        <v>-0.3276315465122037</v>
+        <v>2.337730112350545</v>
       </c>
       <c r="P8">
-        <v>0.01228317314117156</v>
+        <v>0.01321334351107872</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2194</v>
+        <v>3291</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.4021761001975803</v>
+        <v>0.4094091324847176</v>
       </c>
       <c r="E9">
-        <v>0.7079884331405283</v>
+        <v>0.6358109493812596</v>
       </c>
       <c r="F9">
-        <v>0.0008000466986352276</v>
+        <v>0.0004942964100405297</v>
       </c>
       <c r="G9">
-        <v>6.53177533731994</v>
+        <v>9.397739280577751</v>
       </c>
       <c r="H9">
-        <v>0.3932746371916012</v>
+        <v>0.6348758748697978</v>
       </c>
       <c r="I9">
-        <v>1.08075693293174E-43</v>
+        <v>8.062538201774954E-56</v>
       </c>
       <c r="J9">
-        <v>12.75</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K9">
-        <v>16.97999954223633</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="L9">
-        <v>1.042908092392643</v>
+        <v>1.810010154254904</v>
       </c>
       <c r="M9">
-        <v>-0.7460141258169131</v>
+        <v>-2.403981166929782</v>
       </c>
       <c r="N9">
-        <v>0.3492902578605735</v>
+        <v>0.7220714649674778</v>
       </c>
       <c r="O9">
-        <v>-0.4595784968064862</v>
+        <v>0.893202510674147</v>
       </c>
       <c r="P9">
-        <v>0.01329467443953669</v>
+        <v>0.01364514898174458</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>237</v>
+        <v>2069</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.5754538818395922</v>
+        <v>0.4966308177417592</v>
       </c>
       <c r="E10">
-        <v>0.6101603518030367</v>
+        <v>0.3938908088800943</v>
       </c>
       <c r="F10">
-        <v>0.001357183690110484</v>
+        <v>0.001322349154880107</v>
       </c>
       <c r="G10">
-        <v>6.66059230221749</v>
+        <v>2.493888573001713</v>
       </c>
       <c r="H10">
-        <v>0.2595655646316482</v>
+        <v>2.22682704623448</v>
       </c>
       <c r="I10">
-        <v>1.096740691685007E-45</v>
+        <v>6.568668482742135E-61</v>
       </c>
       <c r="J10">
-        <v>14.71000003814697</v>
+        <v>40.90999984741211</v>
       </c>
       <c r="K10">
-        <v>28.46999931335449</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="L10">
-        <v>1.159682408408312</v>
+        <v>2.987126756971847</v>
       </c>
       <c r="M10">
-        <v>-1.385732744963665</v>
+        <v>-3.004388350487417</v>
       </c>
       <c r="N10">
-        <v>0.5234507540802676</v>
+        <v>1.10495212529386</v>
       </c>
       <c r="O10">
-        <v>0.6595762890959858</v>
+        <v>-1.243677229771741</v>
       </c>
       <c r="P10">
-        <v>0.01331203887634453</v>
+        <v>0.01371607682327363</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2632</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.6624839569400151</v>
+        <v>0.4722235289208808</v>
       </c>
       <c r="E11">
-        <v>0.6984231696019384</v>
+        <v>0.9226942376200599</v>
       </c>
       <c r="F11">
-        <v>0.005641102495732977</v>
+        <v>0.002681217561472006</v>
       </c>
       <c r="G11">
-        <v>11.56543410210491</v>
+        <v>4.105387380052304</v>
       </c>
       <c r="H11">
-        <v>1.258257083973503</v>
+        <v>0.1271290896062146</v>
       </c>
       <c r="I11">
-        <v>4.586820998250731E-57</v>
+        <v>8.931413301582933E-49</v>
       </c>
       <c r="J11">
-        <v>23.30999946594238</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="K11">
-        <v>10.3100004196167</v>
+        <v>83.90000152587891</v>
       </c>
       <c r="L11">
-        <v>1.442294542977752</v>
+        <v>1.005546375561408</v>
       </c>
       <c r="M11">
-        <v>-2.173146437288061</v>
+        <v>-0.9873140490580461</v>
       </c>
       <c r="N11">
-        <v>0.6341079302970545</v>
+        <v>0.4971485299994423</v>
       </c>
       <c r="O11">
-        <v>-1.228065699915028</v>
+        <v>-0.591517886821519</v>
       </c>
       <c r="P11">
-        <v>0.01414323354925626</v>
+        <v>0.01373441080976397</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,15 +70,18 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>BBDC4</t>
   </si>
   <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
@@ -88,37 +91,25 @@
     <t>BBAS3</t>
   </si>
   <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>CPFE3</t>
   </si>
   <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
   </si>
   <si>
     <t>SMTO3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
   </si>
   <si>
     <t>SBSP3</t>
@@ -543,114 +534,114 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>858</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6592536393543332</v>
+        <v>0.4785689438204078</v>
       </c>
       <c r="E2">
-        <v>0.633908283234629</v>
+        <v>0.6224399844286113</v>
       </c>
       <c r="F2">
-        <v>3.126173647902443E-05</v>
+        <v>0.0005604382795169172</v>
       </c>
       <c r="G2">
-        <v>-3.137308183320711</v>
+        <v>2.592678650538097</v>
       </c>
       <c r="H2">
-        <v>3.957188995970411</v>
+        <v>0.2890832102113121</v>
       </c>
       <c r="I2">
-        <v>5.90082796393938E-76</v>
+        <v>1.415815332170319E-47</v>
       </c>
       <c r="J2">
-        <v>35.5099983215332</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="K2">
-        <v>9.550000190734863</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="L2">
-        <v>1.844716388136554</v>
+        <v>0.6671379987782888</v>
       </c>
       <c r="M2">
-        <v>-1.754305161572375</v>
+        <v>-0.5887810715953918</v>
       </c>
       <c r="N2">
-        <v>0.7755867684681476</v>
+        <v>0.2392334477861899</v>
       </c>
       <c r="O2">
-        <v>0.8561508385625913</v>
+        <v>-0.4377002032848036</v>
       </c>
       <c r="P2">
-        <v>0.01007308076253369</v>
+        <v>0.01086834619021537</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>21</v>
+        <v>2845</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4588620825779573</v>
+        <v>0.7755279726022193</v>
       </c>
       <c r="E3">
-        <v>0.6438043498023517</v>
+        <v>0.7010293137476848</v>
       </c>
       <c r="F3">
-        <v>0.0003392120804556667</v>
+        <v>0.0001629557213186877</v>
       </c>
       <c r="G3">
-        <v>2.623255007940933</v>
+        <v>4.234549661088399</v>
       </c>
       <c r="H3">
-        <v>0.2882900085268295</v>
+        <v>1.230225100480828</v>
       </c>
       <c r="I3">
-        <v>5.953321593609211E-48</v>
+        <v>2.460412201463195E-55</v>
       </c>
       <c r="J3">
-        <v>12.32999992370605</v>
+        <v>17.47999954223633</v>
       </c>
       <c r="K3">
-        <v>34.61999893188477</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="L3">
-        <v>0.6645220007534647</v>
+        <v>1.915612330694229</v>
       </c>
       <c r="M3">
-        <v>-0.5928089676503348</v>
+        <v>-1.321976171521285</v>
       </c>
       <c r="N3">
-        <v>0.2364726904632616</v>
+        <v>0.6443578203701373</v>
       </c>
       <c r="O3">
-        <v>-0.2738548715067672</v>
+        <v>0.7340605153991788</v>
       </c>
       <c r="P3">
-        <v>0.01059194340941115</v>
+        <v>0.01139129894446425</v>
       </c>
       <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -661,49 +652,49 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4643047642518602</v>
+        <v>0.4582358521887762</v>
       </c>
       <c r="E4">
-        <v>0.7392086975240568</v>
+        <v>0.7481017610027877</v>
       </c>
       <c r="F4">
-        <v>0.0002468503989593065</v>
+        <v>0.0003886303252955526</v>
       </c>
       <c r="G4">
-        <v>7.062347808322211</v>
+        <v>7.126541614894482</v>
       </c>
       <c r="H4">
-        <v>2.723925925730155</v>
+        <v>2.703667368839375</v>
       </c>
       <c r="I4">
-        <v>7.965447512750429E-52</v>
+        <v>2.321685210908391E-51</v>
       </c>
       <c r="J4">
-        <v>14.11102485656738</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="K4">
-        <v>2.359999895095825</v>
+        <v>2.349999904632568</v>
       </c>
       <c r="L4">
-        <v>2.573794918720028</v>
+        <v>2.561057845877535</v>
       </c>
       <c r="M4">
-        <v>-0.7698501713302228</v>
+        <v>-0.7789407025799697</v>
       </c>
       <c r="N4">
-        <v>0.4479274541577785</v>
+        <v>0.4518367756488665</v>
       </c>
       <c r="O4">
-        <v>0.6202121492732076</v>
+        <v>0.7098399065581011</v>
       </c>
       <c r="P4">
-        <v>0.01150598593343677</v>
+        <v>0.01175036675606913</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -711,279 +702,279 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>339</v>
+        <v>839</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6125159585150981</v>
+        <v>0.6958624509711986</v>
       </c>
       <c r="E5">
-        <v>0.6438043498023517</v>
+        <v>0.4721174553101625</v>
       </c>
       <c r="F5">
-        <v>0.0009633920151017978</v>
+        <v>1.848373219175537E-07</v>
       </c>
       <c r="G5">
-        <v>-5.252467288936312</v>
+        <v>45.37288161518595</v>
       </c>
       <c r="H5">
-        <v>0.5031521647221965</v>
+        <v>-2.013217593462674</v>
       </c>
       <c r="I5">
-        <v>1.344990922687156E-53</v>
+        <v>7.816962156553901E-23</v>
       </c>
       <c r="J5">
-        <v>11.77000045776367</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="K5">
-        <v>34.61999893188477</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="L5">
-        <v>1.015091156436547</v>
+        <v>13.74841989536439</v>
       </c>
       <c r="M5">
-        <v>-0.655799447706233</v>
+        <v>-4.592227927511697</v>
       </c>
       <c r="N5">
-        <v>0.3657727446849522</v>
+        <v>2.486960087677388</v>
       </c>
       <c r="O5">
-        <v>-0.3966596585579651</v>
+        <v>-2.577609949366519</v>
       </c>
       <c r="P5">
-        <v>0.01183835478303791</v>
+        <v>0.01225687998496841</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1228</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.3624799926116083</v>
+        <v>0.6236567949761693</v>
       </c>
       <c r="E6">
-        <v>0.692227028484331</v>
+        <v>0.6224399844286113</v>
       </c>
       <c r="F6">
-        <v>0.001815947727191089</v>
+        <v>0.001713602146899617</v>
       </c>
       <c r="G6">
-        <v>8.373891848654079</v>
+        <v>-5.300688226431612</v>
       </c>
       <c r="H6">
-        <v>0.5641217363194493</v>
+        <v>0.50432905928539</v>
       </c>
       <c r="I6">
-        <v>1.154350990342568E-53</v>
+        <v>2.737145225153948E-53</v>
       </c>
       <c r="J6">
-        <v>13.64999961853027</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="K6">
-        <v>10.3100004196167</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="L6">
-        <v>0.9605466712954485</v>
+        <v>1.023686056144081</v>
       </c>
       <c r="M6">
-        <v>-0.8607575767400704</v>
+        <v>-0.6469329091135858</v>
       </c>
       <c r="N6">
-        <v>0.3058363412500793</v>
+        <v>0.3692367622984949</v>
       </c>
       <c r="O6">
-        <v>-0.5399875682922284</v>
+        <v>-0.6157868622274378</v>
       </c>
       <c r="P6">
-        <v>0.01228082936041229</v>
+        <v>0.01226409638770856</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.3624799926116083</v>
+        <v>0.297290600737323</v>
       </c>
       <c r="E7">
-        <v>0.7074180139530529</v>
+        <v>0.7010293137476848</v>
       </c>
       <c r="F7">
-        <v>0.0005715284171546529</v>
+        <v>0.001694930183901889</v>
       </c>
       <c r="G7">
-        <v>6.872379550777001</v>
+        <v>8.400725948007173</v>
       </c>
       <c r="H7">
-        <v>0.4287666649878735</v>
+        <v>0.5606529888404105</v>
       </c>
       <c r="I7">
-        <v>8.806672524781843E-56</v>
+        <v>5.449403020044833E-53</v>
       </c>
       <c r="J7">
         <v>13.64999961853027</v>
       </c>
       <c r="K7">
-        <v>16.84000015258789</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="L7">
-        <v>0.6578964793059114</v>
+        <v>0.9656597363566242</v>
       </c>
       <c r="M7">
-        <v>-0.8857353839044109</v>
+        <v>-0.8515167036343811</v>
       </c>
       <c r="N7">
-        <v>0.2946776015389135</v>
+        <v>0.3083864163408924</v>
       </c>
       <c r="O7">
-        <v>-0.4428106360671178</v>
+        <v>-0.452567268758302</v>
       </c>
       <c r="P7">
-        <v>0.01292311229777043</v>
+        <v>0.01243785255806566</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>465</v>
+        <v>823</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4667542965535108</v>
+        <v>0.6958624509711986</v>
       </c>
       <c r="E8">
-        <v>0.2315593207390376</v>
+        <v>0.5214146495448595</v>
       </c>
       <c r="F8">
-        <v>0.0005405816172524337</v>
+        <v>4.352981510601426E-08</v>
       </c>
       <c r="G8">
-        <v>79.87600292275259</v>
+        <v>41.79323951761219</v>
       </c>
       <c r="H8">
-        <v>-0.8605113757615596</v>
+        <v>-0.8299693455801002</v>
       </c>
       <c r="I8">
-        <v>1.525203740925513E-62</v>
+        <v>1.404462905889044E-19</v>
       </c>
       <c r="J8">
-        <v>56.08000183105469</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="K8">
-        <v>30.3700008392334</v>
+        <v>38.61999893188477</v>
       </c>
       <c r="L8">
-        <v>3.445664589879641</v>
+        <v>14.79168487383151</v>
       </c>
       <c r="M8">
-        <v>-3.226242509100238</v>
+        <v>-5.698552439953751</v>
       </c>
       <c r="N8">
-        <v>1.408801528559597</v>
+        <v>2.632240783740476</v>
       </c>
       <c r="O8">
-        <v>2.337730112350545</v>
+        <v>-2.779824239664656</v>
       </c>
       <c r="P8">
-        <v>0.01321334351107872</v>
+        <v>0.01257736488294225</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3291</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4094091324847176</v>
+        <v>0.4285826822129304</v>
       </c>
       <c r="E9">
-        <v>0.6358109493812596</v>
+        <v>0.1859493311343826</v>
       </c>
       <c r="F9">
-        <v>0.0004942964100405297</v>
+        <v>0.002744692096379721</v>
       </c>
       <c r="G9">
-        <v>9.397739280577751</v>
+        <v>80.09640830930758</v>
       </c>
       <c r="H9">
-        <v>0.6348758748697978</v>
+        <v>-0.8673570248853841</v>
       </c>
       <c r="I9">
-        <v>8.062538201774954E-56</v>
+        <v>7.180472921512494E-62</v>
       </c>
       <c r="J9">
-        <v>28.14999961853027</v>
+        <v>56.16999816894531</v>
       </c>
       <c r="K9">
-        <v>28.1299991607666</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="L9">
-        <v>1.810010154254904</v>
+        <v>3.437679700337462</v>
       </c>
       <c r="M9">
-        <v>-2.403981166929782</v>
+        <v>-3.249972399461434</v>
       </c>
       <c r="N9">
-        <v>0.7220714649674778</v>
+        <v>1.416671904854133</v>
       </c>
       <c r="O9">
-        <v>0.893202510674147</v>
+        <v>2.397875895779592</v>
       </c>
       <c r="P9">
-        <v>0.01364514898174458</v>
+        <v>0.0132874140943225</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
         <v>24</v>
@@ -991,114 +982,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2069</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.4966308177417592</v>
+        <v>0.4366074717044044</v>
       </c>
       <c r="E10">
-        <v>0.3938908088800943</v>
+        <v>0.8754110123670031</v>
       </c>
       <c r="F10">
-        <v>0.001322349154880107</v>
+        <v>0.003213855177719662</v>
       </c>
       <c r="G10">
-        <v>2.493888573001713</v>
+        <v>4.080702783837909</v>
       </c>
       <c r="H10">
-        <v>2.22682704623448</v>
+        <v>0.1273495923211131</v>
       </c>
       <c r="I10">
-        <v>6.568668482742135E-61</v>
+        <v>5.162663966655631E-49</v>
       </c>
       <c r="J10">
-        <v>40.90999984741211</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="K10">
-        <v>17.80999946594238</v>
+        <v>82.04000091552734</v>
       </c>
       <c r="L10">
-        <v>2.987126756971847</v>
+        <v>1.015957830300204</v>
       </c>
       <c r="M10">
-        <v>-3.004388350487417</v>
+        <v>-0.9800469618224472</v>
       </c>
       <c r="N10">
-        <v>1.10495212529386</v>
+        <v>0.4955257540670572</v>
       </c>
       <c r="O10">
-        <v>-1.243677229771741</v>
+        <v>-0.508462996690394</v>
       </c>
       <c r="P10">
-        <v>0.01371607682327363</v>
+        <v>0.01389973830448808</v>
       </c>
       <c r="Q10" t="s">
         <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>229</v>
+        <v>1225</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.4722235289208808</v>
+        <v>0.297290600737323</v>
       </c>
       <c r="E11">
-        <v>0.9226942376200599</v>
+        <v>0.7755279726022193</v>
       </c>
       <c r="F11">
-        <v>0.002681217561472006</v>
+        <v>0.003416267745178731</v>
       </c>
       <c r="G11">
-        <v>4.105387380052304</v>
+        <v>6.944147493764729</v>
       </c>
       <c r="H11">
-        <v>0.1271290896062146</v>
+        <v>0.4240462977690875</v>
       </c>
       <c r="I11">
-        <v>8.931413301582933E-49</v>
+        <v>2.822650773872872E-56</v>
       </c>
       <c r="J11">
-        <v>14.18000030517578</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="K11">
-        <v>83.90000152587891</v>
+        <v>17.47999954223633</v>
       </c>
       <c r="L11">
-        <v>1.005546375561408</v>
+        <v>0.65438237697796</v>
       </c>
       <c r="M11">
-        <v>-0.9873140490580461</v>
+        <v>-0.7064769661251162</v>
       </c>
       <c r="N11">
-        <v>0.4971485299994423</v>
+        <v>0.2911041942562221</v>
       </c>
       <c r="O11">
-        <v>-0.591517886821519</v>
+        <v>-0.7064769661251153</v>
       </c>
       <c r="P11">
-        <v>0.01373441080976397</v>
+        <v>0.01401648835707173</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,46 +73,52 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>LREN3</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>BHIA3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
     <t>SMTO3</t>
   </si>
   <si>
     <t>SBSP3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
   </si>
 </sst>
 </file>
@@ -540,388 +546,388 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4785689438204078</v>
+        <v>0.4230421790680828</v>
       </c>
       <c r="E2">
-        <v>0.6224399844286113</v>
+        <v>0.5959012321541861</v>
       </c>
       <c r="F2">
-        <v>0.0005604382795169172</v>
+        <v>0.000856686711817055</v>
       </c>
       <c r="G2">
-        <v>2.592678650538097</v>
+        <v>2.59619499873687</v>
       </c>
       <c r="H2">
-        <v>0.2890832102113121</v>
+        <v>0.2888810728506251</v>
       </c>
       <c r="I2">
-        <v>1.415815332170319E-47</v>
+        <v>3.547647618501892E-47</v>
       </c>
       <c r="J2">
-        <v>12.27000045776367</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="K2">
-        <v>34.9900016784668</v>
+        <v>35.81000137329102</v>
       </c>
       <c r="L2">
-        <v>0.6671379987782888</v>
+        <v>0.6707469925437302</v>
       </c>
       <c r="M2">
-        <v>-0.5887810715953918</v>
+        <v>-0.585531882085224</v>
       </c>
       <c r="N2">
-        <v>0.2392334477861899</v>
+        <v>0.2421125382296463</v>
       </c>
       <c r="O2">
-        <v>-0.4377002032848036</v>
+        <v>-0.4910268049704012</v>
       </c>
       <c r="P2">
-        <v>0.01086834619021537</v>
+        <v>0.01130048776194239</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2845</v>
+        <v>1228</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.7755279726022193</v>
+        <v>0.2876914606341892</v>
       </c>
       <c r="E3">
-        <v>0.7010293137476848</v>
+        <v>0.6584849408807767</v>
       </c>
       <c r="F3">
-        <v>0.0001629557213186877</v>
+        <v>0.001776057975274322</v>
       </c>
       <c r="G3">
-        <v>4.234549661088399</v>
+        <v>8.423994178188572</v>
       </c>
       <c r="H3">
-        <v>1.230225100480828</v>
+        <v>0.5576078905143429</v>
       </c>
       <c r="I3">
-        <v>2.460412201463195E-55</v>
+        <v>5.162598704283157E-53</v>
       </c>
       <c r="J3">
-        <v>17.47999954223633</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="K3">
-        <v>10.17000007629395</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="L3">
-        <v>1.915612330694229</v>
+        <v>0.9704368618744681</v>
       </c>
       <c r="M3">
-        <v>-1.321976171521285</v>
+        <v>-0.8431159123862901</v>
       </c>
       <c r="N3">
-        <v>0.6443578203701373</v>
+        <v>0.3094910447998008</v>
       </c>
       <c r="O3">
-        <v>0.7340605153991788</v>
+        <v>-0.4281387609132121</v>
       </c>
       <c r="P3">
-        <v>0.01139129894446425</v>
+        <v>0.01264319428397009</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>566</v>
+        <v>823</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4582358521887762</v>
+        <v>0.6582398610354772</v>
       </c>
       <c r="E4">
-        <v>0.7481017610027877</v>
+        <v>0.5101903365415795</v>
       </c>
       <c r="F4">
-        <v>0.0003886303252955526</v>
+        <v>4.568323968923313E-08</v>
       </c>
       <c r="G4">
-        <v>7.126541614894482</v>
+        <v>41.92333361027444</v>
       </c>
       <c r="H4">
-        <v>2.703667368839375</v>
+        <v>-0.8340858683797455</v>
       </c>
       <c r="I4">
-        <v>2.321685210908391E-51</v>
+        <v>9.045942953999455E-20</v>
       </c>
       <c r="J4">
-        <v>14.1899995803833</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="K4">
-        <v>2.349999904632568</v>
+        <v>38.41999816894531</v>
       </c>
       <c r="L4">
-        <v>2.561057845877535</v>
+        <v>14.7971678842071</v>
       </c>
       <c r="M4">
-        <v>-0.7789407025799697</v>
+        <v>-5.679381422810305</v>
       </c>
       <c r="N4">
-        <v>0.4518367756488665</v>
+        <v>2.633546202296828</v>
       </c>
       <c r="O4">
-        <v>0.7098399065581011</v>
+        <v>-2.787755921793568</v>
       </c>
       <c r="P4">
-        <v>0.01175036675606913</v>
+        <v>0.01266944377977426</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>839</v>
+        <v>583</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6958624509711986</v>
+        <v>0.4370015346340174</v>
       </c>
       <c r="E5">
-        <v>0.4721174553101625</v>
+        <v>0.6011016454241789</v>
       </c>
       <c r="F5">
-        <v>1.848373219175537E-07</v>
+        <v>0.001091432236958721</v>
       </c>
       <c r="G5">
-        <v>45.37288161518595</v>
+        <v>0.2199766943815473</v>
       </c>
       <c r="H5">
-        <v>-2.013217593462674</v>
+        <v>0.9077109433128776</v>
       </c>
       <c r="I5">
-        <v>7.816962156553901E-23</v>
+        <v>1.256803443170222E-45</v>
       </c>
       <c r="J5">
-        <v>6.960000038146973</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="K5">
-        <v>17.79999923706055</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="L5">
-        <v>13.74841989536439</v>
+        <v>1.459472545828461</v>
       </c>
       <c r="M5">
-        <v>-4.592227927511697</v>
+        <v>-1.267532239413871</v>
       </c>
       <c r="N5">
-        <v>2.486960087677388</v>
+        <v>0.5008313306997363</v>
       </c>
       <c r="O5">
-        <v>-2.577609949366519</v>
+        <v>0.8068241212928751</v>
       </c>
       <c r="P5">
-        <v>0.01225687998496841</v>
+        <v>0.01293880796817863</v>
       </c>
       <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>339</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.6236567949761693</v>
+        <v>0.4370015346340174</v>
       </c>
       <c r="E6">
-        <v>0.6224399844286113</v>
+        <v>0.8088792386915387</v>
       </c>
       <c r="F6">
-        <v>0.001713602146899617</v>
+        <v>0.001950191728613626</v>
       </c>
       <c r="G6">
-        <v>-5.300688226431612</v>
+        <v>7.262615039034258</v>
       </c>
       <c r="H6">
-        <v>0.50432905928539</v>
+        <v>2.658884581659767</v>
       </c>
       <c r="I6">
-        <v>2.737145225153948E-53</v>
+        <v>5.820554928638284E-50</v>
       </c>
       <c r="J6">
-        <v>11.72999954223633</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="K6">
-        <v>34.9900016784668</v>
+        <v>2.220000028610229</v>
       </c>
       <c r="L6">
-        <v>1.023686056144081</v>
+        <v>2.538732699465635</v>
       </c>
       <c r="M6">
-        <v>-0.6469329091135858</v>
+        <v>-0.7932049443099665</v>
       </c>
       <c r="N6">
-        <v>0.3692367622984949</v>
+        <v>0.4644268930637792</v>
       </c>
       <c r="O6">
-        <v>-0.6157868622274378</v>
+        <v>1.304661380638569</v>
       </c>
       <c r="P6">
-        <v>0.01226409638770856</v>
+        <v>0.01295562229496587</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1228</v>
+        <v>2120</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.297290600737323</v>
+        <v>0.4211912904676736</v>
       </c>
       <c r="E7">
-        <v>0.7010293137476848</v>
+        <v>0.5017145374453191</v>
       </c>
       <c r="F7">
-        <v>0.001694930183901889</v>
+        <v>0.0005463100193204932</v>
       </c>
       <c r="G7">
-        <v>8.400725948007173</v>
+        <v>1.209464751124606</v>
       </c>
       <c r="H7">
-        <v>0.5606529888404105</v>
+        <v>2.55630446659229</v>
       </c>
       <c r="I7">
-        <v>5.449403020044833E-53</v>
+        <v>4.660933586671389E-63</v>
       </c>
       <c r="J7">
-        <v>13.64999961853027</v>
+        <v>45.72999954223633</v>
       </c>
       <c r="K7">
-        <v>10.17000007629395</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="L7">
-        <v>0.9656597363566242</v>
+        <v>3.65923759999427</v>
       </c>
       <c r="M7">
-        <v>-0.8515167036343811</v>
+        <v>-3.401730522867773</v>
       </c>
       <c r="N7">
-        <v>0.3083864163408924</v>
+        <v>1.210888121052223</v>
       </c>
       <c r="O7">
-        <v>-0.452567268758302</v>
+        <v>-1.569636496822255</v>
       </c>
       <c r="P7">
-        <v>0.01243785255806566</v>
+        <v>0.01376929095939313</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>823</v>
+        <v>1225</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6958624509711986</v>
+        <v>0.2876914606341892</v>
       </c>
       <c r="E8">
-        <v>0.5214146495448595</v>
+        <v>0.7203253663415454</v>
       </c>
       <c r="F8">
-        <v>4.352981510601426E-08</v>
+        <v>0.00195330527032739</v>
       </c>
       <c r="G8">
-        <v>41.79323951761219</v>
+        <v>6.984049010895025</v>
       </c>
       <c r="H8">
-        <v>-0.8299693455801002</v>
+        <v>0.4211201122523559</v>
       </c>
       <c r="I8">
-        <v>1.404462905889044E-19</v>
+        <v>4.348554382095052E-56</v>
       </c>
       <c r="J8">
-        <v>6.960000038146973</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="K8">
-        <v>38.61999893188477</v>
+        <v>17.03000068664551</v>
       </c>
       <c r="L8">
-        <v>14.79168487383151</v>
+        <v>0.6567918476888401</v>
       </c>
       <c r="M8">
-        <v>-5.698552439953751</v>
+        <v>-0.6952287617624435</v>
       </c>
       <c r="N8">
-        <v>2.632240783740476</v>
+        <v>0.2933519651795141</v>
       </c>
       <c r="O8">
-        <v>-2.779824239664656</v>
+        <v>-0.5057251931826059</v>
       </c>
       <c r="P8">
-        <v>0.01257736488294225</v>
+        <v>0.01385081535076366</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -929,55 +935,55 @@
         <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.4285826822129304</v>
+        <v>0.4359043056464803</v>
       </c>
       <c r="E9">
-        <v>0.1859493311343826</v>
+        <v>0.1796186635388754</v>
       </c>
       <c r="F9">
-        <v>0.002744692096379721</v>
+        <v>0.004312579467502717</v>
       </c>
       <c r="G9">
-        <v>80.09640830930758</v>
+        <v>80.14165533742705</v>
       </c>
       <c r="H9">
-        <v>-0.8673570248853841</v>
+        <v>-0.8681046905272326</v>
       </c>
       <c r="I9">
-        <v>7.180472921512494E-62</v>
+        <v>1.364436170678788E-61</v>
       </c>
       <c r="J9">
-        <v>56.16999816894531</v>
+        <v>56.38999938964844</v>
       </c>
       <c r="K9">
-        <v>30.35000038146973</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="L9">
-        <v>3.437679700337462</v>
+        <v>3.415632737597925</v>
       </c>
       <c r="M9">
-        <v>-3.249972399461434</v>
+        <v>-3.273738994032854</v>
       </c>
       <c r="N9">
-        <v>1.416671904854133</v>
+        <v>1.433593072735502</v>
       </c>
       <c r="O9">
-        <v>2.397875895779592</v>
+        <v>2.899158713718744</v>
       </c>
       <c r="P9">
-        <v>0.0132874140943225</v>
+        <v>0.01388827159975239</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -985,111 +991,111 @@
         <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.4366074717044044</v>
+        <v>0.4317780840700645</v>
       </c>
       <c r="E10">
-        <v>0.8754110123670031</v>
+        <v>0.9088169387914512</v>
       </c>
       <c r="F10">
-        <v>0.003213855177719662</v>
+        <v>0.004109320805642863</v>
       </c>
       <c r="G10">
-        <v>4.080702783837909</v>
+        <v>4.147098777698812</v>
       </c>
       <c r="H10">
-        <v>0.1273495923211131</v>
+        <v>0.1263416410474376</v>
       </c>
       <c r="I10">
-        <v>5.162663966655631E-49</v>
+        <v>4.533657945297853E-49</v>
       </c>
       <c r="J10">
-        <v>14.02000045776367</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>82.04000091552734</v>
+        <v>83.48000335693359</v>
       </c>
       <c r="L10">
-        <v>1.015957830300204</v>
+        <v>1.014806525767943</v>
       </c>
       <c r="M10">
-        <v>-0.9800469618224472</v>
+        <v>-0.9668248867289364</v>
       </c>
       <c r="N10">
-        <v>0.4955257540670572</v>
+        <v>0.4973938084998258</v>
       </c>
       <c r="O10">
-        <v>-0.508462996690394</v>
+        <v>-0.6940993964594036</v>
       </c>
       <c r="P10">
-        <v>0.01389973830448808</v>
+        <v>0.014227350856101</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1225</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.297290600737323</v>
+        <v>0.4317780840700645</v>
       </c>
       <c r="E11">
-        <v>0.7755279726022193</v>
+        <v>0.923632109472398</v>
       </c>
       <c r="F11">
-        <v>0.003416267745178731</v>
+        <v>0.004483201502187326</v>
       </c>
       <c r="G11">
-        <v>6.944147493764729</v>
+        <v>7.502840297584863</v>
       </c>
       <c r="H11">
-        <v>0.4240462977690875</v>
+        <v>1.314085957437521</v>
       </c>
       <c r="I11">
-        <v>2.822650773872872E-56</v>
+        <v>3.621567780153355E-45</v>
       </c>
       <c r="J11">
-        <v>13.64999961853027</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>17.47999954223633</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="L11">
-        <v>0.65438237697796</v>
+        <v>1.336795418540753</v>
       </c>
       <c r="M11">
-        <v>-0.7064769661251162</v>
+        <v>-1.141993466949945</v>
       </c>
       <c r="N11">
-        <v>0.2911041942562221</v>
+        <v>0.5323623940370834</v>
       </c>
       <c r="O11">
-        <v>-0.7064769661251153</v>
+        <v>-0.6908902090618962</v>
       </c>
       <c r="P11">
-        <v>0.01401648835707173</v>
+        <v>0.0143956984926796</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,9 +70,18 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>CCRO3</t>
   </si>
   <si>
@@ -82,18 +91,18 @@
     <t>BBDC4</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>CPFE3</t>
   </si>
   <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
     <t>MRFG3</t>
   </si>
   <si>
@@ -106,19 +115,10 @@
     <t>COGN3</t>
   </si>
   <si>
-    <t>TIMS3</t>
+    <t>MULT3</t>
   </si>
   <si>
     <t>LREN3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
   </si>
 </sst>
 </file>
@@ -540,335 +540,335 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>21</v>
+        <v>1621</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4230421790680828</v>
+        <v>0.5640346267196679</v>
       </c>
       <c r="E2">
-        <v>0.5959012321541861</v>
+        <v>0.1756040766901429</v>
       </c>
       <c r="F2">
-        <v>0.000856686711817055</v>
+        <v>0.0001334120074982223</v>
       </c>
       <c r="G2">
-        <v>2.59619499873687</v>
+        <v>14.19396303998267</v>
       </c>
       <c r="H2">
-        <v>0.2888810728506251</v>
+        <v>-0.1487028184376824</v>
       </c>
       <c r="I2">
-        <v>3.547647618501892E-47</v>
+        <v>3.957475775656858E-67</v>
       </c>
       <c r="J2">
-        <v>12.44999980926514</v>
+        <v>9.859999656677246</v>
       </c>
       <c r="K2">
-        <v>35.81000137329102</v>
+        <v>30.82999992370605</v>
       </c>
       <c r="L2">
-        <v>0.6707469925437302</v>
+        <v>0.524516145687171</v>
       </c>
       <c r="M2">
-        <v>-0.585531882085224</v>
+        <v>-0.5558605272726069</v>
       </c>
       <c r="N2">
-        <v>0.2421125382296463</v>
+        <v>0.2215528067125327</v>
       </c>
       <c r="O2">
-        <v>-0.4910268049704012</v>
+        <v>0.2505444977831965</v>
       </c>
       <c r="P2">
-        <v>0.01130048776194239</v>
+        <v>0.01029786734178994</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1228</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2876914606341892</v>
+        <v>0.4170725861906411</v>
       </c>
       <c r="E3">
-        <v>0.6584849408807767</v>
+        <v>0.5920132659511029</v>
       </c>
       <c r="F3">
-        <v>0.001776057975274322</v>
+        <v>0.0006463916935008266</v>
       </c>
       <c r="G3">
-        <v>8.423994178188572</v>
+        <v>2.58737646527745</v>
       </c>
       <c r="H3">
-        <v>0.5576078905143429</v>
+        <v>0.2890491258945219</v>
       </c>
       <c r="I3">
-        <v>5.162598704283157E-53</v>
+        <v>3.931966546258216E-47</v>
       </c>
       <c r="J3">
-        <v>13.64999961853027</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="K3">
-        <v>10.14000034332275</v>
+        <v>35.5</v>
       </c>
       <c r="L3">
-        <v>0.9704368618744681</v>
+        <v>0.6736416562057919</v>
       </c>
       <c r="M3">
-        <v>-0.8431159123862901</v>
+        <v>-0.5823380842101713</v>
       </c>
       <c r="N3">
-        <v>0.3094910447998008</v>
+        <v>0.2434217461712906</v>
       </c>
       <c r="O3">
-        <v>-0.4281387609132121</v>
+        <v>-0.3786201675041685</v>
       </c>
       <c r="P3">
-        <v>0.01264319428397009</v>
+        <v>0.01132227509437508</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>823</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.6582398610354772</v>
+        <v>0.4114014657053334</v>
       </c>
       <c r="E4">
-        <v>0.5101903365415795</v>
+        <v>0.5830554789909332</v>
       </c>
       <c r="F4">
-        <v>4.568323968923313E-08</v>
+        <v>0.0006168753966362947</v>
       </c>
       <c r="G4">
-        <v>41.92333361027444</v>
+        <v>3.457048047664436</v>
       </c>
       <c r="H4">
-        <v>-0.8340858683797455</v>
+        <v>0.4353308618326362</v>
       </c>
       <c r="I4">
-        <v>9.045942953999455E-20</v>
+        <v>1.735380993094623E-46</v>
       </c>
       <c r="J4">
-        <v>7.090000152587891</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="K4">
-        <v>38.41999816894531</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="L4">
-        <v>14.7971678842071</v>
+        <v>1.354253451826349</v>
       </c>
       <c r="M4">
-        <v>-5.679381422810305</v>
+        <v>-1.096361976452844</v>
       </c>
       <c r="N4">
-        <v>2.633546202296828</v>
+        <v>0.522099623506913</v>
       </c>
       <c r="O4">
-        <v>-2.787755921793568</v>
+        <v>-0.5246733069137761</v>
       </c>
       <c r="P4">
-        <v>0.01266944377977426</v>
+        <v>0.01175313908992796</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.4370015346340174</v>
+        <v>0.5814236122435656</v>
       </c>
       <c r="E5">
-        <v>0.6011016454241789</v>
+        <v>0.5920132659511029</v>
       </c>
       <c r="F5">
-        <v>0.001091432236958721</v>
+        <v>0.002077749228100474</v>
       </c>
       <c r="G5">
-        <v>0.2199766943815473</v>
+        <v>-5.30784267978388</v>
       </c>
       <c r="H5">
-        <v>0.9077109433128776</v>
+        <v>0.504176076230144</v>
       </c>
       <c r="I5">
-        <v>1.256803443170222E-45</v>
+        <v>3.85910154187359E-52</v>
       </c>
       <c r="J5">
-        <v>14.47000026702881</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="K5">
-        <v>14.8100004196167</v>
+        <v>35.5</v>
       </c>
       <c r="L5">
-        <v>1.459472545828461</v>
+        <v>1.035991448686358</v>
       </c>
       <c r="M5">
-        <v>-1.267532239413871</v>
+        <v>-1.046703493132918</v>
       </c>
       <c r="N5">
-        <v>0.5008313306997363</v>
+        <v>0.3814865723970273</v>
       </c>
       <c r="O5">
-        <v>0.8068241212928751</v>
+        <v>-0.6304079882392593</v>
       </c>
       <c r="P5">
-        <v>0.01293880796817863</v>
+        <v>0.01273668600637437</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>566</v>
+        <v>1228</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.4370015346340174</v>
+        <v>0.3060207510936002</v>
       </c>
       <c r="E6">
-        <v>0.8088792386915387</v>
+        <v>0.7007802262472058</v>
       </c>
       <c r="F6">
-        <v>0.001950191728613626</v>
+        <v>0.001678389507469076</v>
       </c>
       <c r="G6">
-        <v>7.262615039034258</v>
+        <v>8.445150047765113</v>
       </c>
       <c r="H6">
-        <v>2.658884581659767</v>
+        <v>0.5548642816328556</v>
       </c>
       <c r="I6">
-        <v>5.820554928638284E-50</v>
+        <v>3.506840241807921E-53</v>
       </c>
       <c r="J6">
-        <v>14.47000026702881</v>
+        <v>13.76000022888184</v>
       </c>
       <c r="K6">
-        <v>2.220000028610229</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="L6">
-        <v>2.538732699465635</v>
+        <v>0.9745496302010856</v>
       </c>
       <c r="M6">
-        <v>-0.7932049443099665</v>
+        <v>-0.8357382506419668</v>
       </c>
       <c r="N6">
-        <v>0.4644268930637792</v>
+        <v>0.3099863381279203</v>
       </c>
       <c r="O6">
-        <v>1.304661380638569</v>
+        <v>-0.3669599358053626</v>
       </c>
       <c r="P6">
-        <v>0.01295562229496587</v>
+        <v>0.0127513187597127</v>
       </c>
       <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
         <v>29</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2120</v>
+        <v>823</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.4211912904676736</v>
+        <v>0.6770534996635096</v>
       </c>
       <c r="E7">
-        <v>0.5017145374453191</v>
+        <v>0.4969112291236417</v>
       </c>
       <c r="F7">
-        <v>0.0005463100193204932</v>
+        <v>7.63227282515314E-08</v>
       </c>
       <c r="G7">
-        <v>1.209464751124606</v>
+        <v>42.02632901538558</v>
       </c>
       <c r="H7">
-        <v>2.55630446659229</v>
+        <v>-0.8376068694551374</v>
       </c>
       <c r="I7">
-        <v>4.660933586671389E-63</v>
+        <v>7.398219275914997E-20</v>
       </c>
       <c r="J7">
-        <v>45.72999954223633</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="K7">
-        <v>18.03000068664551</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="L7">
-        <v>3.65923759999427</v>
+        <v>14.81013615738188</v>
       </c>
       <c r="M7">
-        <v>-3.401730522867773</v>
+        <v>-5.654705334837615</v>
       </c>
       <c r="N7">
-        <v>1.210888121052223</v>
+        <v>2.641334447959702</v>
       </c>
       <c r="O7">
-        <v>-1.569636496822255</v>
+        <v>-3.517779695955966</v>
       </c>
       <c r="P7">
-        <v>0.01376929095939313</v>
+        <v>0.01289172874283613</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
@@ -876,223 +876,223 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1225</v>
+        <v>583</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.2876914606341892</v>
+        <v>0.4308073686937681</v>
       </c>
       <c r="E8">
-        <v>0.7203253663415454</v>
+        <v>0.5952819045472817</v>
       </c>
       <c r="F8">
-        <v>0.00195330527032739</v>
+        <v>0.00139395731911768</v>
       </c>
       <c r="G8">
-        <v>6.984049010895025</v>
+        <v>0.3304671720692189</v>
       </c>
       <c r="H8">
-        <v>0.4211201122523559</v>
+        <v>0.9011978276629464</v>
       </c>
       <c r="I8">
-        <v>4.348554382095052E-56</v>
+        <v>2.328530093808111E-45</v>
       </c>
       <c r="J8">
-        <v>13.64999961853027</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="K8">
-        <v>17.03000068664551</v>
+        <v>14.85999965667725</v>
       </c>
       <c r="L8">
-        <v>0.6567918476888401</v>
+        <v>1.455718277647943</v>
       </c>
       <c r="M8">
-        <v>-0.6952287617624435</v>
+        <v>-1.274188693133457</v>
       </c>
       <c r="N8">
-        <v>0.2933519651795141</v>
+        <v>0.5042396095077374</v>
       </c>
       <c r="O8">
-        <v>-0.5057251931826059</v>
+        <v>0.8377338378778152</v>
       </c>
       <c r="P8">
-        <v>0.01385081535076366</v>
+        <v>0.01332076314187113</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.4359043056464803</v>
+        <v>0.4308073686937681</v>
       </c>
       <c r="E9">
-        <v>0.1796186635388754</v>
+        <v>0.792525426946759</v>
       </c>
       <c r="F9">
-        <v>0.004312579467502717</v>
+        <v>0.002568858284984306</v>
       </c>
       <c r="G9">
-        <v>80.14165533742705</v>
+        <v>7.386629734421351</v>
       </c>
       <c r="H9">
-        <v>-0.8681046905272326</v>
+        <v>2.618229231222807</v>
       </c>
       <c r="I9">
-        <v>1.364436170678788E-61</v>
+        <v>1.078235925638769E-48</v>
       </c>
       <c r="J9">
-        <v>56.38999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="K9">
-        <v>30.70000076293945</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>3.415632737597925</v>
+        <v>2.517982592637543</v>
       </c>
       <c r="M9">
-        <v>-3.273738994032854</v>
+        <v>-0.8066370853453684</v>
       </c>
       <c r="N9">
-        <v>1.433593072735502</v>
+        <v>0.476009262635942</v>
       </c>
       <c r="O9">
-        <v>2.899158713718744</v>
+        <v>1.282354914944032</v>
       </c>
       <c r="P9">
-        <v>0.01388827159975239</v>
+        <v>0.01383051977505432</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>229</v>
+        <v>2780</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.4317780840700645</v>
+        <v>0.4694206280861229</v>
       </c>
       <c r="E10">
-        <v>0.9088169387914512</v>
+        <v>0.5081938538830049</v>
       </c>
       <c r="F10">
-        <v>0.004109320805642863</v>
+        <v>0.003823307956863267</v>
       </c>
       <c r="G10">
-        <v>4.147098777698812</v>
+        <v>-12.72980453873519</v>
       </c>
       <c r="H10">
-        <v>0.1263416410474376</v>
+        <v>1.32937252986528</v>
       </c>
       <c r="I10">
-        <v>4.533657945297853E-49</v>
+        <v>3.116114201500889E-61</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>21.43000030517578</v>
       </c>
       <c r="K10">
-        <v>83.48000335693359</v>
+        <v>24.82516860961914</v>
       </c>
       <c r="L10">
-        <v>1.014806525767943</v>
+        <v>1.722829748051247</v>
       </c>
       <c r="M10">
-        <v>-0.9668248867289364</v>
+        <v>-1.565261201792516</v>
       </c>
       <c r="N10">
-        <v>0.4973938084998258</v>
+        <v>0.7491291000570954</v>
       </c>
       <c r="O10">
-        <v>-0.6940993964594036</v>
+        <v>1.157907645009452</v>
       </c>
       <c r="P10">
-        <v>0.014227350856101</v>
+        <v>0.01419606110511688</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>178</v>
+        <v>1225</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.4317780840700645</v>
+        <v>0.3060207510936002</v>
       </c>
       <c r="E11">
-        <v>0.923632109472398</v>
+        <v>0.7593726779216046</v>
       </c>
       <c r="F11">
-        <v>0.004483201502187326</v>
+        <v>0.002664080176800864</v>
       </c>
       <c r="G11">
-        <v>7.502840297584863</v>
+        <v>7.033868112758716</v>
       </c>
       <c r="H11">
-        <v>1.314085957437521</v>
+        <v>0.4175190905137638</v>
       </c>
       <c r="I11">
-        <v>3.621567780153355E-45</v>
+        <v>7.503671739424916E-56</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>13.76000022888184</v>
       </c>
       <c r="K11">
-        <v>5.46999979019165</v>
+        <v>17.39999961853027</v>
       </c>
       <c r="L11">
-        <v>1.336795418540753</v>
+        <v>0.6590414838208041</v>
       </c>
       <c r="M11">
-        <v>-1.141993466949945</v>
+        <v>-0.6888786077173918</v>
       </c>
       <c r="N11">
-        <v>0.5323623940370834</v>
+        <v>0.2960046807477533</v>
       </c>
       <c r="O11">
-        <v>-0.6908902090618962</v>
+        <v>-0.5386998995454775</v>
       </c>
       <c r="P11">
-        <v>0.0143956984926796</v>
+        <v>0.01439116185730728</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
         <v>34</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,31 +70,37 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
     <t>ASAI3</t>
   </si>
   <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BHIA3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>CPFE3</t>
@@ -106,19 +112,13 @@
     <t>MRFG3</t>
   </si>
   <si>
-    <t>PETR4</t>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
   </si>
   <si>
     <t>FLRY3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -540,226 +540,226 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1621</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5640346267196679</v>
+        <v>0.4740148120385934</v>
       </c>
       <c r="E2">
-        <v>0.1756040766901429</v>
+        <v>0.585159157803585</v>
       </c>
       <c r="F2">
-        <v>0.0001334120074982223</v>
+        <v>1.043352627139852E-08</v>
       </c>
       <c r="G2">
-        <v>14.19396303998267</v>
+        <v>5.857313258221117</v>
       </c>
       <c r="H2">
-        <v>-0.1487028184376824</v>
+        <v>0.5555140181521796</v>
       </c>
       <c r="I2">
-        <v>3.957475775656858E-67</v>
+        <v>4.15808882269985E-66</v>
       </c>
       <c r="J2">
-        <v>9.859999656677246</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="K2">
-        <v>30.82999992370605</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>0.524516145687171</v>
+        <v>0.6351237415008661</v>
       </c>
       <c r="M2">
-        <v>-0.5558605272726069</v>
+        <v>-0.457274816155909</v>
       </c>
       <c r="N2">
-        <v>0.2215528067125327</v>
+        <v>0.1745416122324288</v>
       </c>
       <c r="O2">
-        <v>0.2505444977831965</v>
+        <v>-0.293481933810944</v>
       </c>
       <c r="P2">
-        <v>0.01029786734178994</v>
+        <v>0.005473527916217131</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>21</v>
+        <v>769</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.4170725861906411</v>
+        <v>0.1756704278686632</v>
       </c>
       <c r="E3">
-        <v>0.5920132659511029</v>
+        <v>0.3143965709761607</v>
       </c>
       <c r="F3">
-        <v>0.0006463916935008266</v>
+        <v>0.0001799880226804691</v>
       </c>
       <c r="G3">
-        <v>2.58737646527745</v>
+        <v>10.11903870575244</v>
       </c>
       <c r="H3">
-        <v>0.2890491258945219</v>
+        <v>-0.1157088496510172</v>
       </c>
       <c r="I3">
-        <v>3.931966546258216E-47</v>
+        <v>4.508655386446727E-45</v>
       </c>
       <c r="J3">
-        <v>12.47000026702881</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="K3">
-        <v>35.5</v>
+        <v>27.90999984741211</v>
       </c>
       <c r="L3">
-        <v>0.6736416562057919</v>
+        <v>0.4540250312579932</v>
       </c>
       <c r="M3">
-        <v>-0.5823380842101713</v>
+        <v>-0.6242329632465129</v>
       </c>
       <c r="N3">
-        <v>0.2434217461712906</v>
+        <v>0.2273351394818562</v>
       </c>
       <c r="O3">
-        <v>-0.3786201675041685</v>
+        <v>-0.2696048440892373</v>
       </c>
       <c r="P3">
-        <v>0.01132227509437508</v>
+        <v>0.0101487697226488</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.4114014657053334</v>
+        <v>0.4740148120385934</v>
       </c>
       <c r="E4">
-        <v>0.5830554789909332</v>
+        <v>0.6096005972937013</v>
       </c>
       <c r="F4">
-        <v>0.0006168753966362947</v>
+        <v>0.0008828927897407662</v>
       </c>
       <c r="G4">
-        <v>3.457048047664436</v>
+        <v>2.553957233746988</v>
       </c>
       <c r="H4">
-        <v>0.4353308618326362</v>
+        <v>0.289971156542081</v>
       </c>
       <c r="I4">
-        <v>1.735380993094623E-46</v>
+        <v>3.5019766280659E-46</v>
       </c>
       <c r="J4">
-        <v>13.81999969482422</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="K4">
-        <v>25.01000022888184</v>
+        <v>34.95999908447266</v>
       </c>
       <c r="L4">
-        <v>1.354253451826349</v>
+        <v>0.6745593074097922</v>
       </c>
       <c r="M4">
-        <v>-1.096361976452844</v>
+        <v>-0.5797792195790397</v>
       </c>
       <c r="N4">
-        <v>0.522099623506913</v>
+        <v>0.2476262248796984</v>
       </c>
       <c r="O4">
-        <v>-0.5246733069137761</v>
+        <v>-0.4613490587452898</v>
       </c>
       <c r="P4">
-        <v>0.01175313908992796</v>
+        <v>0.01157018916321722</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.5814236122435656</v>
+        <v>0.3414478435103747</v>
       </c>
       <c r="E5">
-        <v>0.5920132659511029</v>
+        <v>0.6447703031234775</v>
       </c>
       <c r="F5">
-        <v>0.002077749228100474</v>
+        <v>0.001300835975641043</v>
       </c>
       <c r="G5">
-        <v>-5.30784267978388</v>
+        <v>3.275794485796538</v>
       </c>
       <c r="H5">
-        <v>0.504176076230144</v>
+        <v>0.4425343507275948</v>
       </c>
       <c r="I5">
-        <v>3.85910154187359E-52</v>
+        <v>6.529661512876607E-46</v>
       </c>
       <c r="J5">
-        <v>11.96000003814697</v>
+        <v>13.72999954223633</v>
       </c>
       <c r="K5">
-        <v>35.5</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="L5">
-        <v>1.035991448686358</v>
+        <v>1.375517531932207</v>
       </c>
       <c r="M5">
-        <v>-1.046703493132918</v>
+        <v>-1.07428072199717</v>
       </c>
       <c r="N5">
-        <v>0.3814865723970273</v>
+        <v>0.5209892786274325</v>
       </c>
       <c r="O5">
-        <v>-0.6304079882392593</v>
+        <v>-0.7861672832276607</v>
       </c>
       <c r="P5">
-        <v>0.01273668600637437</v>
+        <v>0.01200176195302006</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -767,220 +767,220 @@
         <v>1228</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.3060207510936002</v>
+        <v>0.1796116972533291</v>
       </c>
       <c r="E6">
-        <v>0.7007802262472058</v>
+        <v>0.6775572112361571</v>
       </c>
       <c r="F6">
-        <v>0.001678389507469076</v>
+        <v>0.002552688847779142</v>
       </c>
       <c r="G6">
-        <v>8.445150047765113</v>
+        <v>8.438976571771088</v>
       </c>
       <c r="H6">
-        <v>0.5548642816328556</v>
+        <v>0.5548073957202597</v>
       </c>
       <c r="I6">
-        <v>3.506840241807921E-53</v>
+        <v>1.091075851356956E-51</v>
       </c>
       <c r="J6">
-        <v>13.76000022888184</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="K6">
-        <v>10.23999977111816</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="L6">
-        <v>0.9745496302010856</v>
+        <v>0.9812470254522889</v>
       </c>
       <c r="M6">
-        <v>-0.8357382506419668</v>
+        <v>-0.8289731611786451</v>
       </c>
       <c r="N6">
-        <v>0.3099863381279203</v>
+        <v>0.3138618723330908</v>
       </c>
       <c r="O6">
-        <v>-0.3669599358053626</v>
+        <v>-0.441300998462987</v>
       </c>
       <c r="P6">
-        <v>0.0127513187597127</v>
+        <v>0.01305139723162615</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>823</v>
+        <v>2209</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.6770534996635096</v>
+        <v>0.3979491123781859</v>
       </c>
       <c r="E7">
-        <v>0.4969112291236417</v>
+        <v>0.3756838462541855</v>
       </c>
       <c r="F7">
-        <v>7.63227282515314E-08</v>
+        <v>0.00243733386890883</v>
       </c>
       <c r="G7">
-        <v>42.02632901538558</v>
+        <v>2.477092786179846</v>
       </c>
       <c r="H7">
-        <v>-0.8376068694551374</v>
+        <v>0.3870420601616768</v>
       </c>
       <c r="I7">
-        <v>7.398219275914997E-20</v>
+        <v>3.535332864335464E-45</v>
       </c>
       <c r="J7">
-        <v>6.78000020980835</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="K7">
-        <v>37.88000106811523</v>
+        <v>25.25</v>
       </c>
       <c r="L7">
-        <v>14.81013615738188</v>
+        <v>0.9044073938354522</v>
       </c>
       <c r="M7">
-        <v>-5.654705334837615</v>
+        <v>-0.7940915809255387</v>
       </c>
       <c r="N7">
-        <v>2.641334447959702</v>
+        <v>0.3400351109766805</v>
       </c>
       <c r="O7">
-        <v>-3.517779695955966</v>
+        <v>0.5500953854726784</v>
       </c>
       <c r="P7">
-        <v>0.01289172874283613</v>
+        <v>0.01372656699285567</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>583</v>
+        <v>2294</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.4308073686937681</v>
+        <v>0.5116705749095497</v>
       </c>
       <c r="E8">
-        <v>0.5952819045472817</v>
+        <v>0.4372864506530361</v>
       </c>
       <c r="F8">
-        <v>0.00139395731911768</v>
+        <v>0.001579165702806684</v>
       </c>
       <c r="G8">
-        <v>0.3304671720692189</v>
+        <v>12.22689421249137</v>
       </c>
       <c r="H8">
-        <v>0.9011978276629464</v>
+        <v>0.8169989018026266</v>
       </c>
       <c r="I8">
-        <v>2.328530093808111E-45</v>
+        <v>1.539889332640292E-48</v>
       </c>
       <c r="J8">
-        <v>14.5600004196167</v>
+        <v>31.88999938964844</v>
       </c>
       <c r="K8">
-        <v>14.85999965667725</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="L8">
-        <v>1.455718277647943</v>
+        <v>1.359512545331327</v>
       </c>
       <c r="M8">
-        <v>-1.274188693133457</v>
+        <v>-1.646274451479016</v>
       </c>
       <c r="N8">
-        <v>0.5042396095077374</v>
+        <v>0.5848534237870613</v>
       </c>
       <c r="O8">
-        <v>0.8377338378778152</v>
+        <v>-0.6719969900537492</v>
       </c>
       <c r="P8">
-        <v>0.01332076314187113</v>
+        <v>0.0138045776415395</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>566</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.4308073686937681</v>
+        <v>0.2097006520236542</v>
       </c>
       <c r="E9">
-        <v>0.792525426946759</v>
+        <v>0.3143965709761607</v>
       </c>
       <c r="F9">
-        <v>0.002568858284984306</v>
+        <v>0.00359477381948371</v>
       </c>
       <c r="G9">
-        <v>7.386629734421351</v>
+        <v>26.93791787492911</v>
       </c>
       <c r="H9">
-        <v>2.618229231222807</v>
+        <v>1.039790377142609</v>
       </c>
       <c r="I9">
-        <v>1.078235925638769E-48</v>
+        <v>2.13347127961419E-80</v>
       </c>
       <c r="J9">
-        <v>14.5600004196167</v>
+        <v>57.0099983215332</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>27.90999984741211</v>
       </c>
       <c r="L9">
-        <v>2.517982592637543</v>
+        <v>2.940429077769025</v>
       </c>
       <c r="M9">
-        <v>-0.8066370853453684</v>
+        <v>-2.904954427890615</v>
       </c>
       <c r="N9">
-        <v>0.476009262635942</v>
+        <v>1.003428348128024</v>
       </c>
       <c r="O9">
-        <v>1.282354914944032</v>
+        <v>1.051531179213285</v>
       </c>
       <c r="P9">
-        <v>0.01383051977505432</v>
+        <v>0.01391335004528289</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
         <v>24</v>
@@ -997,43 +997,43 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.4694206280861229</v>
+        <v>0.368377571938564</v>
       </c>
       <c r="E10">
-        <v>0.5081938538830049</v>
+        <v>0.4372864506530361</v>
       </c>
       <c r="F10">
-        <v>0.003823307956863267</v>
+        <v>0.003120997809971849</v>
       </c>
       <c r="G10">
-        <v>-12.72980453873519</v>
+        <v>-12.08979159581227</v>
       </c>
       <c r="H10">
-        <v>1.32937252986528</v>
+        <v>1.306044277499697</v>
       </c>
       <c r="I10">
-        <v>3.116114201500889E-61</v>
+        <v>1.430696760769374E-59</v>
       </c>
       <c r="J10">
-        <v>21.43000030517578</v>
+        <v>21.25</v>
       </c>
       <c r="K10">
-        <v>24.82516860961914</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="L10">
-        <v>1.722829748051247</v>
+        <v>1.683969104611649</v>
       </c>
       <c r="M10">
-        <v>-1.565261201792516</v>
+        <v>-1.624684371178851</v>
       </c>
       <c r="N10">
-        <v>0.7491291000570954</v>
+        <v>0.7422690331029065</v>
       </c>
       <c r="O10">
-        <v>1.157907645009452</v>
+        <v>0.8323503259909799</v>
       </c>
       <c r="P10">
-        <v>0.01419606110511688</v>
+        <v>0.01391601251941708</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
@@ -1044,58 +1044,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1225</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.3060207510936002</v>
+        <v>0.3857330060523852</v>
       </c>
       <c r="E11">
-        <v>0.7593726779216046</v>
+        <v>0.6494732540336609</v>
       </c>
       <c r="F11">
-        <v>0.002664080176800864</v>
+        <v>0.005531384694796586</v>
       </c>
       <c r="G11">
-        <v>7.033868112758716</v>
+        <v>-0.1163410685576126</v>
       </c>
       <c r="H11">
-        <v>0.4175190905137638</v>
+        <v>0.9281083224054345</v>
       </c>
       <c r="I11">
-        <v>7.503671739424916E-56</v>
+        <v>1.356710462598331E-46</v>
       </c>
       <c r="J11">
-        <v>13.76000022888184</v>
+        <v>14.52000045776367</v>
       </c>
       <c r="K11">
-        <v>17.39999961853027</v>
+        <v>14.69999980926514</v>
       </c>
       <c r="L11">
-        <v>0.6590414838208041</v>
+        <v>1.461520345629015</v>
       </c>
       <c r="M11">
-        <v>-0.6888786077173918</v>
+        <v>-1.256395551618846</v>
       </c>
       <c r="N11">
-        <v>0.2960046807477533</v>
+        <v>0.4904203076200098</v>
       </c>
       <c r="O11">
-        <v>-0.5386998995454775</v>
+        <v>0.9931493639840117</v>
       </c>
       <c r="P11">
-        <v>0.01439116185730728</v>
+        <v>0.01404783516849304</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,10 +73,19 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
   </si>
   <si>
     <t>CCRO3</t>
@@ -85,40 +94,22 @@
     <t>ENEV3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>CPFE3</t>
   </si>
   <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
     <t>MRFG3</t>
   </si>
   <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>RDOR3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
+    <t>CMIN3</t>
   </si>
 </sst>
 </file>
@@ -546,497 +537,497 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.4740148120385934</v>
+        <v>0.4790900255189303</v>
       </c>
       <c r="E2">
-        <v>0.585159157803585</v>
+        <v>0.5566807709933015</v>
       </c>
       <c r="F2">
-        <v>1.043352627139852E-08</v>
+        <v>3.81838490306471E-08</v>
       </c>
       <c r="G2">
-        <v>5.857313258221117</v>
+        <v>5.83343793740964</v>
       </c>
       <c r="H2">
-        <v>0.5555140181521796</v>
+        <v>0.5572035374393984</v>
       </c>
       <c r="I2">
-        <v>4.15808882269985E-66</v>
+        <v>3.052765414792898E-65</v>
       </c>
       <c r="J2">
-        <v>12.22999954223633</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="L2">
-        <v>0.6351237415008661</v>
+        <v>0.6378385943949709</v>
       </c>
       <c r="M2">
-        <v>-0.457274816155909</v>
+        <v>-0.4554163113458713</v>
       </c>
       <c r="N2">
-        <v>0.1745416122324288</v>
+        <v>0.1781840220534799</v>
       </c>
       <c r="O2">
-        <v>-0.293481933810944</v>
+        <v>-0.4223168340224817</v>
       </c>
       <c r="P2">
-        <v>0.005473527916217131</v>
+        <v>0.005670704057694168</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>769</v>
+        <v>1621</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.1756704278686632</v>
+        <v>0.5811479478209421</v>
       </c>
       <c r="E3">
-        <v>0.3143965709761607</v>
+        <v>0.3709817955851374</v>
       </c>
       <c r="F3">
-        <v>0.0001799880226804691</v>
+        <v>4.738463863398134E-05</v>
       </c>
       <c r="G3">
-        <v>10.11903870575244</v>
+        <v>14.3769435469866</v>
       </c>
       <c r="H3">
-        <v>-0.1157088496510172</v>
+        <v>-0.154907825859571</v>
       </c>
       <c r="I3">
-        <v>4.508655386446727E-45</v>
+        <v>7.12690682738498E-68</v>
       </c>
       <c r="J3">
-        <v>6.619999885559082</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="K3">
-        <v>27.90999984741211</v>
+        <v>31</v>
       </c>
       <c r="L3">
-        <v>0.4540250312579932</v>
+        <v>0.5234044029049638</v>
       </c>
       <c r="M3">
-        <v>-0.6242329632465129</v>
+        <v>-0.507332198844594</v>
       </c>
       <c r="N3">
-        <v>0.2273351394818562</v>
+        <v>0.2111247812457291</v>
       </c>
       <c r="O3">
-        <v>-0.2696048440892373</v>
+        <v>0.2251992453949612</v>
       </c>
       <c r="P3">
-        <v>0.0101487697226488</v>
+        <v>0.009070898365351236</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>21</v>
+        <v>2116</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4740148120385934</v>
+        <v>0.3226410114530548</v>
       </c>
       <c r="E4">
-        <v>0.6096005972937013</v>
+        <v>0.3709817955851374</v>
       </c>
       <c r="F4">
-        <v>0.0008828927897407662</v>
+        <v>0.0001347102769087639</v>
       </c>
       <c r="G4">
-        <v>2.553957233746988</v>
+        <v>68.43162491892696</v>
       </c>
       <c r="H4">
-        <v>0.289971156542081</v>
+        <v>-0.7647086445977042</v>
       </c>
       <c r="I4">
-        <v>3.5019766280659E-46</v>
+        <v>2.77373599753903E-60</v>
       </c>
       <c r="J4">
-        <v>12.22999954223633</v>
+        <v>46.2400016784668</v>
       </c>
       <c r="K4">
-        <v>34.95999908447266</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>0.6745593074097922</v>
+        <v>2.64611722944241</v>
       </c>
       <c r="M4">
-        <v>-0.5797792195790397</v>
+        <v>-3.001529388319554</v>
       </c>
       <c r="N4">
-        <v>0.2476262248796984</v>
+        <v>1.211140615362705</v>
       </c>
       <c r="O4">
-        <v>-0.4613490587452898</v>
+        <v>1.514344742068669</v>
       </c>
       <c r="P4">
-        <v>0.01157018916321722</v>
+        <v>0.009720898143025895</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>240</v>
+        <v>906</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.3414478435103747</v>
+        <v>0.4575720591767565</v>
       </c>
       <c r="E5">
-        <v>0.6447703031234775</v>
+        <v>0.3709817955851374</v>
       </c>
       <c r="F5">
-        <v>0.001300835975641043</v>
+        <v>7.478531050463709E-06</v>
       </c>
       <c r="G5">
-        <v>3.275794485796538</v>
+        <v>54.15681464806761</v>
       </c>
       <c r="H5">
-        <v>0.4425343507275948</v>
+        <v>-0.6257447528952144</v>
       </c>
       <c r="I5">
-        <v>6.529661512876607E-46</v>
+        <v>5.224353927114326E-58</v>
       </c>
       <c r="J5">
-        <v>13.72999954223633</v>
+        <v>36.31999969482422</v>
       </c>
       <c r="K5">
-        <v>25.39999961853027</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>1.375517531932207</v>
+        <v>1.975565584830747</v>
       </c>
       <c r="M5">
-        <v>-1.07428072199717</v>
+        <v>-2.748204810043504</v>
       </c>
       <c r="N5">
-        <v>0.5209892786274325</v>
+        <v>1.037801280093771</v>
       </c>
       <c r="O5">
-        <v>-0.7861672832276607</v>
+        <v>1.561272386508254</v>
       </c>
       <c r="P5">
-        <v>0.01200176195302006</v>
+        <v>0.0102017758713498</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1228</v>
+        <v>2650</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0.4961598522640285</v>
+      </c>
+      <c r="E6">
+        <v>0.3709817955851374</v>
+      </c>
+      <c r="F6">
+        <v>0.0001706145053108441</v>
+      </c>
+      <c r="G6">
+        <v>33.75988905366109</v>
+      </c>
+      <c r="H6">
+        <v>-0.3603963111337478</v>
+      </c>
+      <c r="I6">
+        <v>2.121352445236391E-52</v>
+      </c>
+      <c r="J6">
+        <v>23.28000068664551</v>
+      </c>
+      <c r="K6">
         <v>31</v>
       </c>
-      <c r="D6">
-        <v>0.1796116972533291</v>
-      </c>
-      <c r="E6">
-        <v>0.6775572112361571</v>
-      </c>
-      <c r="F6">
-        <v>0.002552688847779142</v>
-      </c>
-      <c r="G6">
-        <v>8.438976571771088</v>
-      </c>
-      <c r="H6">
-        <v>0.5548073957202597</v>
-      </c>
-      <c r="I6">
-        <v>1.091075851356956E-51</v>
-      </c>
-      <c r="J6">
-        <v>13.6899995803833</v>
-      </c>
-      <c r="K6">
-        <v>10.26000022888184</v>
-      </c>
       <c r="L6">
-        <v>0.9812470254522889</v>
+        <v>1.503891038202653</v>
       </c>
       <c r="M6">
-        <v>-0.8289731611786451</v>
+        <v>-1.514973692682929</v>
       </c>
       <c r="N6">
-        <v>0.3138618723330908</v>
+        <v>0.6714460546488364</v>
       </c>
       <c r="O6">
-        <v>-0.441300998462987</v>
+        <v>0.6923972781305991</v>
       </c>
       <c r="P6">
-        <v>0.01305139723162615</v>
+        <v>0.01203609272829796</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2209</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.3979491123781859</v>
+        <v>0.5566807709933015</v>
       </c>
       <c r="E7">
-        <v>0.3756838462541855</v>
+        <v>0.5732355285523627</v>
       </c>
       <c r="F7">
-        <v>0.00243733386890883</v>
+        <v>0.001172040052056983</v>
       </c>
       <c r="G7">
-        <v>2.477092786179846</v>
+        <v>-5.342357531996637</v>
       </c>
       <c r="H7">
-        <v>0.3870420601616768</v>
+        <v>0.5050355439486294</v>
       </c>
       <c r="I7">
-        <v>3.535332864335464E-45</v>
+        <v>2.42068447250227E-51</v>
       </c>
       <c r="J7">
-        <v>12.80000019073486</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="K7">
-        <v>25.25</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="L7">
-        <v>0.9044073938354522</v>
+        <v>1.041568024391445</v>
       </c>
       <c r="M7">
-        <v>-0.7940915809255387</v>
+        <v>-1.04296618109942</v>
       </c>
       <c r="N7">
-        <v>0.3400351109766805</v>
+        <v>0.3855455211949124</v>
       </c>
       <c r="O7">
-        <v>0.5500953854726784</v>
+        <v>-0.4614536714928832</v>
       </c>
       <c r="P7">
-        <v>0.01372656699285567</v>
+        <v>0.01241680875100775</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2294</v>
+        <v>1228</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.5116705749095497</v>
+        <v>0.5087917600208801</v>
       </c>
       <c r="E8">
-        <v>0.4372864506530361</v>
+        <v>0.7156709922505189</v>
       </c>
       <c r="F8">
-        <v>0.001579165702806684</v>
+        <v>0.003079645821297194</v>
       </c>
       <c r="G8">
-        <v>12.22689421249137</v>
+        <v>8.470526640890712</v>
       </c>
       <c r="H8">
-        <v>0.8169989018026266</v>
+        <v>0.5507926315344094</v>
       </c>
       <c r="I8">
-        <v>1.539889332640292E-48</v>
+        <v>4.79703479205924E-51</v>
       </c>
       <c r="J8">
-        <v>31.88999938964844</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="K8">
-        <v>24.88999938964844</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="L8">
-        <v>1.359512545331327</v>
+        <v>0.9866729346374967</v>
       </c>
       <c r="M8">
-        <v>-1.646274451479016</v>
+        <v>-0.8187696842969387</v>
       </c>
       <c r="N8">
-        <v>0.5848534237870613</v>
+        <v>0.3164386589393187</v>
       </c>
       <c r="O8">
-        <v>-0.6719969900537492</v>
+        <v>-0.4599446680756794</v>
       </c>
       <c r="P8">
-        <v>0.0138045776415395</v>
+        <v>0.01335268738515305</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2097006520236542</v>
+        <v>0.4790900255189303</v>
       </c>
       <c r="E9">
-        <v>0.3143965709761607</v>
+        <v>0.4342174280078336</v>
       </c>
       <c r="F9">
-        <v>0.00359477381948371</v>
+        <v>0.003068898917243529</v>
       </c>
       <c r="G9">
-        <v>26.93791787492911</v>
+        <v>4.366826578794853</v>
       </c>
       <c r="H9">
-        <v>1.039790377142609</v>
+        <v>0.3253812629106811</v>
       </c>
       <c r="I9">
-        <v>2.13347127961419E-80</v>
+        <v>7.295577950495155E-42</v>
       </c>
       <c r="J9">
-        <v>57.0099983215332</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="K9">
-        <v>27.90999984741211</v>
+        <v>25.27000045776367</v>
       </c>
       <c r="L9">
-        <v>2.940429077769025</v>
+        <v>0.653061110205563</v>
       </c>
       <c r="M9">
-        <v>-2.904954427890615</v>
+        <v>-0.6898191547051127</v>
       </c>
       <c r="N9">
-        <v>1.003428348128024</v>
+        <v>0.2685704642393927</v>
       </c>
       <c r="O9">
-        <v>1.051531179213285</v>
+        <v>-0.4192111652015411</v>
       </c>
       <c r="P9">
-        <v>0.01391335004528289</v>
+        <v>0.01343838480420478</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2780</v>
+        <v>2209</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.368377571938564</v>
+        <v>0.3831588836814333</v>
       </c>
       <c r="E10">
-        <v>0.4372864506530361</v>
+        <v>0.3725675274256361</v>
       </c>
       <c r="F10">
-        <v>0.003120997809971849</v>
+        <v>0.002409310510065059</v>
       </c>
       <c r="G10">
-        <v>-12.08979159581227</v>
+        <v>2.503633973920071</v>
       </c>
       <c r="H10">
-        <v>1.306044277499697</v>
+        <v>0.3864191130496833</v>
       </c>
       <c r="I10">
-        <v>1.430696760769374E-59</v>
+        <v>5.936339484931285E-45</v>
       </c>
       <c r="J10">
-        <v>21.25</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="K10">
-        <v>24.88999938964844</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="L10">
-        <v>1.683969104611649</v>
+        <v>0.8939427716295203</v>
       </c>
       <c r="M10">
-        <v>-1.624684371178851</v>
+        <v>-0.8044942384959342</v>
       </c>
       <c r="N10">
-        <v>0.7422690331029065</v>
+        <v>0.3413204995037385</v>
       </c>
       <c r="O10">
-        <v>0.8323503259909799</v>
+        <v>0.7372457215089856</v>
       </c>
       <c r="P10">
-        <v>0.01391601251941708</v>
+        <v>0.01365539081546683</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1044,58 +1035,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>583</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.3857330060523852</v>
+        <v>0.4790900255189303</v>
       </c>
       <c r="E11">
-        <v>0.6494732540336609</v>
+        <v>0.4306618397141224</v>
       </c>
       <c r="F11">
-        <v>0.005531384694796586</v>
+        <v>0.003147727480354155</v>
       </c>
       <c r="G11">
-        <v>-0.1163410685576126</v>
+        <v>9.990711027465599</v>
       </c>
       <c r="H11">
-        <v>0.9281083224054345</v>
+        <v>0.4773550348371355</v>
       </c>
       <c r="I11">
-        <v>1.356710462598331E-46</v>
+        <v>2.293608274743382E-44</v>
       </c>
       <c r="J11">
-        <v>14.52000045776367</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="K11">
-        <v>14.69999980926514</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="L11">
-        <v>1.461520345629015</v>
+        <v>0.5331023636189478</v>
       </c>
       <c r="M11">
-        <v>-1.256395551618846</v>
+        <v>-0.6589912559511202</v>
       </c>
       <c r="N11">
-        <v>0.4904203076200098</v>
+        <v>0.2570387241682887</v>
       </c>
       <c r="O11">
-        <v>0.9931493639840117</v>
+        <v>-0.3697869100405553</v>
       </c>
       <c r="P11">
-        <v>0.01404783516849304</v>
+        <v>0.01382968245474676</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -79,37 +79,37 @@
     <t>ELET6</t>
   </si>
   <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
     <t>SMTO3</t>
   </si>
   <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
     <t>CPFE3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
   </si>
 </sst>
 </file>
@@ -537,52 +537,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4790900255189303</v>
+        <v>0.4356283022905979</v>
       </c>
       <c r="E2">
-        <v>0.5566807709933015</v>
+        <v>0.532923717513648</v>
       </c>
       <c r="F2">
-        <v>3.81838490306471E-08</v>
+        <v>7.112726286509109E-08</v>
       </c>
       <c r="G2">
-        <v>5.83343793740964</v>
+        <v>5.827224682530641</v>
       </c>
       <c r="H2">
-        <v>0.5572035374393984</v>
+        <v>0.5575427761407813</v>
       </c>
       <c r="I2">
-        <v>3.052765414792898E-65</v>
+        <v>1.788649108313657E-64</v>
       </c>
       <c r="J2">
-        <v>12.17000007629395</v>
+        <v>12.35999965667725</v>
       </c>
       <c r="K2">
-        <v>12.13000011444092</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="L2">
-        <v>0.6378385943949709</v>
+        <v>0.6398030373715269</v>
       </c>
       <c r="M2">
-        <v>-0.4554163113458713</v>
+        <v>-0.4536244526524946</v>
       </c>
       <c r="N2">
-        <v>0.1781840220534799</v>
+        <v>0.1808398498191493</v>
       </c>
       <c r="O2">
-        <v>-0.4223168340224817</v>
+        <v>-0.3751802136547964</v>
       </c>
       <c r="P2">
-        <v>0.005670704057694168</v>
+        <v>0.005872996552932435</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -593,49 +593,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.5811479478209421</v>
+        <v>0.6237101842480413</v>
       </c>
       <c r="E3">
-        <v>0.3709817955851374</v>
+        <v>0.3187512635732253</v>
       </c>
       <c r="F3">
-        <v>4.738463863398134E-05</v>
+        <v>3.60856579846487E-05</v>
       </c>
       <c r="G3">
-        <v>14.3769435469866</v>
+        <v>14.40112521926312</v>
       </c>
       <c r="H3">
-        <v>-0.154907825859571</v>
+        <v>-0.1556633013431178</v>
       </c>
       <c r="I3">
-        <v>7.12690682738498E-68</v>
+        <v>3.058593938775982E-67</v>
       </c>
       <c r="J3">
-        <v>9.800000190734863</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="K3">
-        <v>31</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L3">
-        <v>0.5234044029049638</v>
+        <v>0.5213657166477397</v>
       </c>
       <c r="M3">
-        <v>-0.507332198844594</v>
+        <v>-0.5033270797924878</v>
       </c>
       <c r="N3">
-        <v>0.2111247812457291</v>
+        <v>0.2121553743519767</v>
       </c>
       <c r="O3">
-        <v>0.2251992453949612</v>
+        <v>0.3518445782576771</v>
       </c>
       <c r="P3">
-        <v>0.009070898365351236</v>
+        <v>0.008952991161207126</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,49 +649,49 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.3226410114530548</v>
+        <v>0.3886096855673061</v>
       </c>
       <c r="E4">
-        <v>0.3709817955851374</v>
+        <v>0.3187512635732253</v>
       </c>
       <c r="F4">
-        <v>0.0001347102769087639</v>
+        <v>0.0003019673843256107</v>
       </c>
       <c r="G4">
-        <v>68.43162491892696</v>
+        <v>68.34458295939908</v>
       </c>
       <c r="H4">
-        <v>-0.7647086445977042</v>
+        <v>-0.7611608688974018</v>
       </c>
       <c r="I4">
-        <v>2.77373599753903E-60</v>
+        <v>6.21167151789454E-59</v>
       </c>
       <c r="J4">
-        <v>46.2400016784668</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="K4">
-        <v>31</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L4">
-        <v>2.64611722944241</v>
+        <v>2.611293099078374</v>
       </c>
       <c r="M4">
-        <v>-3.001529388319554</v>
+        <v>-3.040539895092635</v>
       </c>
       <c r="N4">
-        <v>1.211140615362705</v>
+        <v>1.223687915054472</v>
       </c>
       <c r="O4">
-        <v>1.514344742068669</v>
+        <v>2.186605229875454</v>
       </c>
       <c r="P4">
-        <v>0.009720898143025895</v>
+        <v>0.01016256328694731</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -699,111 +699,111 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>906</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.4575720591767565</v>
+        <v>0.2025995416301771</v>
       </c>
       <c r="E5">
-        <v>0.3709817955851374</v>
+        <v>0.1942436470795102</v>
       </c>
       <c r="F5">
-        <v>7.478531050463709E-06</v>
+        <v>0.0002204569306678897</v>
       </c>
       <c r="G5">
-        <v>54.15681464806761</v>
+        <v>10.08006783736829</v>
       </c>
       <c r="H5">
-        <v>-0.6257447528952144</v>
+        <v>-0.114466240881569</v>
       </c>
       <c r="I5">
-        <v>5.224353927114326E-58</v>
+        <v>7.290770584600869E-44</v>
       </c>
       <c r="J5">
-        <v>36.31999969482422</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="K5">
-        <v>31</v>
+        <v>28.59000015258789</v>
       </c>
       <c r="L5">
-        <v>1.975565584830747</v>
+        <v>0.4640748233011429</v>
       </c>
       <c r="M5">
-        <v>-2.748204810043504</v>
+        <v>-0.6139870961818339</v>
       </c>
       <c r="N5">
-        <v>1.037801280093771</v>
+        <v>0.2265708893311935</v>
       </c>
       <c r="O5">
-        <v>1.561272386508254</v>
+        <v>-0.247478050318525</v>
       </c>
       <c r="P5">
-        <v>0.0102017758713498</v>
+        <v>0.01023479374202679</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2650</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.4961598522640285</v>
+        <v>0.3574935412535556</v>
       </c>
       <c r="E6">
-        <v>0.3709817955851374</v>
+        <v>0.3187512635732253</v>
       </c>
       <c r="F6">
-        <v>0.0001706145053108441</v>
+        <v>1.28374281589351E-05</v>
       </c>
       <c r="G6">
-        <v>33.75988905366109</v>
+        <v>54.21554494515917</v>
       </c>
       <c r="H6">
-        <v>-0.3603963111337478</v>
+        <v>-0.627306261118825</v>
       </c>
       <c r="I6">
-        <v>2.121352445236391E-52</v>
+        <v>6.365048947390275E-57</v>
       </c>
       <c r="J6">
-        <v>23.28000068664551</v>
+        <v>36.33000183105469</v>
       </c>
       <c r="K6">
-        <v>31</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L6">
-        <v>1.503891038202653</v>
+        <v>1.99379263576877</v>
       </c>
       <c r="M6">
-        <v>-1.514973692682929</v>
+        <v>-2.7515777320681</v>
       </c>
       <c r="N6">
-        <v>0.6714460546488364</v>
+        <v>1.050714103867301</v>
       </c>
       <c r="O6">
-        <v>0.6923972781305991</v>
+        <v>1.993792635768767</v>
       </c>
       <c r="P6">
-        <v>0.01203609272829796</v>
+        <v>0.01050943014572714</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -811,223 +811,223 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5566807709933015</v>
+        <v>0.345839456444228</v>
       </c>
       <c r="E7">
-        <v>0.5732355285523627</v>
+        <v>0.601635827450439</v>
       </c>
       <c r="F7">
-        <v>0.001172040052056983</v>
+        <v>0.0006918077927995652</v>
       </c>
       <c r="G7">
-        <v>-5.342357531996637</v>
+        <v>2.63104560437741</v>
       </c>
       <c r="H7">
-        <v>0.5050355439486294</v>
+        <v>0.3450250702016276</v>
       </c>
       <c r="I7">
-        <v>2.42068447250227E-51</v>
+        <v>1.548138975229812E-55</v>
       </c>
       <c r="J7">
-        <v>12.13000011444092</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="K7">
-        <v>35.5099983215332</v>
+        <v>33.56999969482422</v>
       </c>
       <c r="L7">
-        <v>1.041568024391445</v>
+        <v>1.017987050489722</v>
       </c>
       <c r="M7">
-        <v>-1.04296618109942</v>
+        <v>-1.251148485572106</v>
       </c>
       <c r="N7">
-        <v>0.3855455211949124</v>
+        <v>0.4375523760908001</v>
       </c>
       <c r="O7">
-        <v>-0.4614536714928832</v>
+        <v>0.4464627416593583</v>
       </c>
       <c r="P7">
-        <v>0.01241680875100775</v>
+        <v>0.01139189449495356</v>
       </c>
       <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1228</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5087917600208801</v>
+        <v>0.345839456444228</v>
       </c>
       <c r="E8">
-        <v>0.7156709922505189</v>
+        <v>0.7052466215128308</v>
       </c>
       <c r="F8">
-        <v>0.003079645821297194</v>
+        <v>0.0007124843240692941</v>
       </c>
       <c r="G8">
-        <v>8.470526640890712</v>
+        <v>1.932011010064566</v>
       </c>
       <c r="H8">
-        <v>0.5507926315344094</v>
+        <v>1.198905478016665</v>
       </c>
       <c r="I8">
-        <v>4.79703479205924E-51</v>
+        <v>6.467459128017177E-57</v>
       </c>
       <c r="J8">
-        <v>13.85999965667725</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="K8">
-        <v>10.61999988555908</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="L8">
-        <v>0.9866729346374967</v>
+        <v>1.058474895030376</v>
       </c>
       <c r="M8">
-        <v>-0.8187696842969387</v>
+        <v>-1.251495737869998</v>
       </c>
       <c r="N8">
-        <v>0.3164386589393187</v>
+        <v>0.4270870762409255</v>
       </c>
       <c r="O8">
-        <v>-0.4599446680756794</v>
+        <v>0.4871638610627755</v>
       </c>
       <c r="P8">
-        <v>0.01335268738515305</v>
+        <v>0.01149194842864879</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>54</v>
+        <v>2065</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.4790900255189303</v>
+        <v>0.4575200910089368</v>
       </c>
       <c r="E9">
-        <v>0.4342174280078336</v>
+        <v>0.3187512635732253</v>
       </c>
       <c r="F9">
-        <v>0.003068898917243529</v>
+        <v>0.001152480583367662</v>
       </c>
       <c r="G9">
-        <v>4.366826578794853</v>
+        <v>60.82238353949851</v>
       </c>
       <c r="H9">
-        <v>0.3253812629106811</v>
+        <v>-0.6601148432860504</v>
       </c>
       <c r="I9">
-        <v>7.295577950495155E-42</v>
+        <v>1.239908594272277E-51</v>
       </c>
       <c r="J9">
-        <v>12.17000007629395</v>
+        <v>41.59000015258789</v>
       </c>
       <c r="K9">
-        <v>25.27000045776367</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L9">
-        <v>0.653061110205563</v>
+        <v>2.632559099418884</v>
       </c>
       <c r="M9">
-        <v>-0.6898191547051127</v>
+        <v>-3.018505489228296</v>
       </c>
       <c r="N9">
-        <v>0.2685704642393927</v>
+        <v>1.23466216123808</v>
       </c>
       <c r="O9">
-        <v>-0.4192111652015411</v>
+        <v>1.686656349363677</v>
       </c>
       <c r="P9">
-        <v>0.01343838480420478</v>
+        <v>0.01193889085364085</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2209</v>
+        <v>2650</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.3831588836814333</v>
+        <v>0.5051063043220773</v>
       </c>
       <c r="E10">
-        <v>0.3725675274256361</v>
+        <v>0.3187512635732253</v>
       </c>
       <c r="F10">
-        <v>0.002409310510065059</v>
+        <v>0.000318541952774679</v>
       </c>
       <c r="G10">
-        <v>2.503633973920071</v>
+        <v>33.79067065232779</v>
       </c>
       <c r="H10">
-        <v>0.3864191130496833</v>
+        <v>-0.3611715700858574</v>
       </c>
       <c r="I10">
-        <v>5.936339484931285E-45</v>
+        <v>2.234454933575546E-51</v>
       </c>
       <c r="J10">
-        <v>12.9399995803833</v>
+        <v>23.56999969482422</v>
       </c>
       <c r="K10">
-        <v>25.10000038146973</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L10">
-        <v>0.8939427716295203</v>
+        <v>1.498840283091816</v>
       </c>
       <c r="M10">
-        <v>-0.8044942384959342</v>
+        <v>-1.518210341727531</v>
       </c>
       <c r="N10">
-        <v>0.3413204995037385</v>
+        <v>0.6792094759999668</v>
       </c>
       <c r="O10">
-        <v>0.7372457215089856</v>
+        <v>1.224856291403679</v>
       </c>
       <c r="P10">
-        <v>0.01365539081546683</v>
+        <v>0.01239593418733879</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1035,55 +1035,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4790900255189303</v>
+        <v>0.532923717513648</v>
       </c>
       <c r="E11">
-        <v>0.4306618397141224</v>
+        <v>0.5686087529671811</v>
       </c>
       <c r="F11">
-        <v>0.003147727480354155</v>
+        <v>0.0017947763972407</v>
       </c>
       <c r="G11">
-        <v>9.990711027465599</v>
+        <v>-5.297595088661344</v>
       </c>
       <c r="H11">
-        <v>0.4773550348371355</v>
+        <v>0.5037601169088632</v>
       </c>
       <c r="I11">
-        <v>2.293608274743382E-44</v>
+        <v>4.005198633457274E-51</v>
       </c>
       <c r="J11">
-        <v>12.17000007629395</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="K11">
-        <v>5.340000152587891</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="L11">
-        <v>0.5331023636189478</v>
+        <v>1.039749207149702</v>
       </c>
       <c r="M11">
-        <v>-0.6589912559511202</v>
+        <v>-1.042055580389155</v>
       </c>
       <c r="N11">
-        <v>0.2570387241682887</v>
+        <v>0.3866603600038661</v>
       </c>
       <c r="O11">
-        <v>-0.3697869100405553</v>
+        <v>-0.649273592175458</v>
       </c>
       <c r="P11">
-        <v>0.01382968245474676</v>
+        <v>0.01269463776547158</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -73,43 +73,46 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>LREN3</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>SMTO3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>CPFE3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
   </si>
 </sst>
 </file>
@@ -537,113 +540,113 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.4356283022905979</v>
+        <v>0.5117407896988801</v>
       </c>
       <c r="E2">
-        <v>0.532923717513648</v>
+        <v>0.7492899835694654</v>
       </c>
       <c r="F2">
-        <v>7.112726286509109E-08</v>
+        <v>1.330444099785996E-07</v>
       </c>
       <c r="G2">
-        <v>5.827224682530641</v>
+        <v>5.793212593612157</v>
       </c>
       <c r="H2">
-        <v>0.5575427761407813</v>
+        <v>0.5599961364328079</v>
       </c>
       <c r="I2">
-        <v>1.788649108313657E-64</v>
+        <v>2.122877863463455E-64</v>
       </c>
       <c r="J2">
-        <v>12.35999965667725</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K2">
-        <v>12.39000034332275</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="L2">
-        <v>0.6398030373715269</v>
+        <v>0.6430878939098221</v>
       </c>
       <c r="M2">
-        <v>-0.4536244526524946</v>
+        <v>-0.4515833414800738</v>
       </c>
       <c r="N2">
-        <v>0.1808398498191493</v>
+        <v>0.1833361621661656</v>
       </c>
       <c r="O2">
-        <v>-0.3751802136547964</v>
+        <v>-0.3907660252409704</v>
       </c>
       <c r="P2">
-        <v>0.005872996552932435</v>
+        <v>0.00607251003035425</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1621</v>
+        <v>769</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6237101842480413</v>
+        <v>0.2320347584338052</v>
       </c>
       <c r="E3">
-        <v>0.3187512635732253</v>
+        <v>0.1462363114827107</v>
       </c>
       <c r="F3">
-        <v>3.60856579846487E-05</v>
+        <v>0.0004360146448859395</v>
       </c>
       <c r="G3">
-        <v>14.40112521926312</v>
+        <v>10.09183034179062</v>
       </c>
       <c r="H3">
-        <v>-0.1556633013431178</v>
+        <v>-0.11506243719099</v>
       </c>
       <c r="I3">
-        <v>3.058593938775982E-67</v>
+        <v>7.570694602814069E-44</v>
       </c>
       <c r="J3">
-        <v>9.819999694824219</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="K3">
-        <v>31.69000053405762</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="L3">
-        <v>0.5213657166477397</v>
+        <v>0.4661884795843605</v>
       </c>
       <c r="M3">
-        <v>-0.5033270797924878</v>
+        <v>-0.6119675155297246</v>
       </c>
       <c r="N3">
-        <v>0.2121553743519767</v>
+        <v>0.2290025992031687</v>
       </c>
       <c r="O3">
-        <v>0.3518445782576771</v>
+        <v>-0.4446007056675514</v>
       </c>
       <c r="P3">
-        <v>0.008952991161207126</v>
+        <v>0.01060216007088982</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2116</v>
+        <v>2845</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -652,54 +655,54 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.3886096855673061</v>
+        <v>0.5667238372702794</v>
       </c>
       <c r="E4">
-        <v>0.3187512635732253</v>
+        <v>0.6449094629154188</v>
       </c>
       <c r="F4">
-        <v>0.0003019673843256107</v>
+        <v>0.001009423837960478</v>
       </c>
       <c r="G4">
-        <v>68.34458295939908</v>
+        <v>3.89879841273276</v>
       </c>
       <c r="H4">
-        <v>-0.7611608688974018</v>
+        <v>1.264201721750967</v>
       </c>
       <c r="I4">
-        <v>6.21167151789454E-59</v>
+        <v>5.226669765855328E-60</v>
       </c>
       <c r="J4">
-        <v>46.40999984741211</v>
+        <v>16.3700008392334</v>
       </c>
       <c r="K4">
-        <v>31.69000053405762</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="L4">
-        <v>2.611293099078374</v>
+        <v>1.482772486713461</v>
       </c>
       <c r="M4">
-        <v>-3.040539895092635</v>
+        <v>-1.327010425432402</v>
       </c>
       <c r="N4">
-        <v>1.223687915054472</v>
+        <v>0.6116110222456353</v>
       </c>
       <c r="O4">
-        <v>2.186605229875454</v>
+        <v>-0.727063018099301</v>
       </c>
       <c r="P4">
-        <v>0.01016256328694731</v>
+        <v>0.01207396213794642</v>
       </c>
       <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
         <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>769</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -708,43 +711,43 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.2025995416301771</v>
+        <v>0.7492899835694654</v>
       </c>
       <c r="E5">
-        <v>0.1942436470795102</v>
+        <v>0.563255603003733</v>
       </c>
       <c r="F5">
-        <v>0.0002204569306678897</v>
+        <v>0.002472125948336889</v>
       </c>
       <c r="G5">
-        <v>10.08006783736829</v>
+        <v>-5.299418016364722</v>
       </c>
       <c r="H5">
-        <v>-0.114466240881569</v>
+        <v>0.5036581145133046</v>
       </c>
       <c r="I5">
-        <v>7.290770584600869E-44</v>
+        <v>7.176371154995191E-51</v>
       </c>
       <c r="J5">
-        <v>6.559999942779541</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="K5">
-        <v>28.59000015258789</v>
+        <v>35.70999908447266</v>
       </c>
       <c r="L5">
-        <v>0.4640748233011429</v>
+        <v>1.045006555324772</v>
       </c>
       <c r="M5">
-        <v>-0.6139870961818339</v>
+        <v>-1.036579946760742</v>
       </c>
       <c r="N5">
-        <v>0.2265708893311935</v>
+        <v>0.3903278377850334</v>
       </c>
       <c r="O5">
-        <v>-0.247478050318525</v>
+        <v>-0.7262127536456333</v>
       </c>
       <c r="P5">
-        <v>0.01023479374202679</v>
+        <v>0.01313868666560768</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -755,338 +758,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>906</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.3574935412535556</v>
+        <v>0.5117407896988801</v>
       </c>
       <c r="E6">
-        <v>0.3187512635732253</v>
+        <v>0.5954097456117178</v>
       </c>
       <c r="F6">
-        <v>1.28374281589351E-05</v>
+        <v>0.001500311085801528</v>
       </c>
       <c r="G6">
-        <v>54.21554494515917</v>
+        <v>9.937668650746946</v>
       </c>
       <c r="H6">
-        <v>-0.627306261118825</v>
+        <v>0.4849935321436016</v>
       </c>
       <c r="I6">
-        <v>6.365048947390275E-57</v>
+        <v>3.87557292829521E-45</v>
       </c>
       <c r="J6">
-        <v>36.33000183105469</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K6">
-        <v>31.69000053405762</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="L6">
-        <v>1.99379263576877</v>
+        <v>0.5393207509748077</v>
       </c>
       <c r="M6">
-        <v>-2.7515777320681</v>
+        <v>-0.6588765143821611</v>
       </c>
       <c r="N6">
-        <v>1.050714103867301</v>
+        <v>0.2564238418814163</v>
       </c>
       <c r="O6">
-        <v>1.993792635768767</v>
+        <v>-0.3111352369570008</v>
       </c>
       <c r="P6">
-        <v>0.01050943014572714</v>
+        <v>0.0132406233868644</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.345839456444228</v>
+        <v>0.5117407896988801</v>
       </c>
       <c r="E7">
-        <v>0.601635827450439</v>
+        <v>0.3884026639239346</v>
       </c>
       <c r="F7">
-        <v>0.0006918077927995652</v>
+        <v>0.001917729997523529</v>
       </c>
       <c r="G7">
-        <v>2.63104560437741</v>
+        <v>4.252069589721466</v>
       </c>
       <c r="H7">
-        <v>0.3450250702016276</v>
+        <v>0.3294719730342602</v>
       </c>
       <c r="I7">
-        <v>1.548138975229812E-55</v>
+        <v>5.365967941720914E-42</v>
       </c>
       <c r="J7">
-        <v>14.65999984741211</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K7">
-        <v>33.56999969482422</v>
+        <v>24.97999954223633</v>
       </c>
       <c r="L7">
-        <v>1.017987050489722</v>
+        <v>0.6618342922066311</v>
       </c>
       <c r="M7">
-        <v>-1.251148485572106</v>
+        <v>-0.6756700807553706</v>
       </c>
       <c r="N7">
-        <v>0.4375523760908001</v>
+        <v>0.2708335957657083</v>
       </c>
       <c r="O7">
-        <v>0.4464627416593583</v>
+        <v>-0.3822789438272585</v>
       </c>
       <c r="P7">
-        <v>0.01139189449495356</v>
+        <v>0.01327334570822427</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>206</v>
+        <v>1228</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.345839456444228</v>
+        <v>0.4958603852498701</v>
       </c>
       <c r="E8">
-        <v>0.7052466215128308</v>
+        <v>0.6449094629154188</v>
       </c>
       <c r="F8">
-        <v>0.0007124843240692941</v>
+        <v>0.00330393254013244</v>
       </c>
       <c r="G8">
-        <v>1.932011010064566</v>
+        <v>8.518715509424068</v>
       </c>
       <c r="H8">
-        <v>1.198905478016665</v>
+        <v>0.5445801951791998</v>
       </c>
       <c r="I8">
-        <v>6.467459128017177E-57</v>
+        <v>1.025602465977046E-50</v>
       </c>
       <c r="J8">
-        <v>14.65999984741211</v>
+        <v>13.72000026702881</v>
       </c>
       <c r="K8">
-        <v>10.21000003814697</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="L8">
-        <v>1.058474895030376</v>
+        <v>0.9957006051726083</v>
       </c>
       <c r="M8">
-        <v>-1.251495737869998</v>
+        <v>-0.8023492171059701</v>
       </c>
       <c r="N8">
-        <v>0.4270870762409255</v>
+        <v>0.3191327808760694</v>
       </c>
       <c r="O8">
-        <v>0.4871638610627755</v>
+        <v>-0.4841322515511601</v>
       </c>
       <c r="P8">
-        <v>0.01149194842864879</v>
+        <v>0.01362986330401935</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2065</v>
+        <v>2294</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4575200910089368</v>
+        <v>0.4606436210484494</v>
       </c>
       <c r="E9">
-        <v>0.3187512635732253</v>
+        <v>0.3884026639239346</v>
       </c>
       <c r="F9">
-        <v>0.001152480583367662</v>
+        <v>0.001854556441459552</v>
       </c>
       <c r="G9">
-        <v>60.82238353949851</v>
+        <v>11.57427774827419</v>
       </c>
       <c r="H9">
-        <v>-0.6601148432860504</v>
+        <v>0.8407234380731642</v>
       </c>
       <c r="I9">
-        <v>1.239908594272277E-51</v>
+        <v>1.364955857562547E-50</v>
       </c>
       <c r="J9">
-        <v>41.59000015258789</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>31.69000053405762</v>
+        <v>24.97999954223633</v>
       </c>
       <c r="L9">
-        <v>2.632559099418884</v>
+        <v>1.279255845958261</v>
       </c>
       <c r="M9">
-        <v>-3.018505489228296</v>
+        <v>-1.579930127362559</v>
       </c>
       <c r="N9">
-        <v>1.23466216123808</v>
+        <v>0.5714088630854434</v>
       </c>
       <c r="O9">
-        <v>1.686656349363677</v>
+        <v>-0.5755488464891805</v>
       </c>
       <c r="P9">
-        <v>0.01193889085364085</v>
+        <v>0.01373992183575276</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2650</v>
+        <v>2021</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.5051063043220773</v>
+        <v>0.1563273357002598</v>
       </c>
       <c r="E10">
-        <v>0.3187512635732253</v>
+        <v>0.6645068416817447</v>
       </c>
       <c r="F10">
-        <v>0.000318541952774679</v>
+        <v>0.002246706791410732</v>
       </c>
       <c r="G10">
-        <v>33.79067065232779</v>
+        <v>19.57734858402448</v>
       </c>
       <c r="H10">
-        <v>-0.3611715700858574</v>
+        <v>0.3372056950459723</v>
       </c>
       <c r="I10">
-        <v>2.234454933575546E-51</v>
+        <v>1.935649764910721E-40</v>
       </c>
       <c r="J10">
-        <v>23.56999969482422</v>
+        <v>41.5</v>
       </c>
       <c r="K10">
-        <v>31.69000053405762</v>
+        <v>61.59999847412109</v>
       </c>
       <c r="L10">
-        <v>1.498840283091816</v>
+        <v>2.150435142941703</v>
       </c>
       <c r="M10">
-        <v>-1.518210341727531</v>
+        <v>-2.485986482875205</v>
       </c>
       <c r="N10">
-        <v>0.6792094759999668</v>
+        <v>0.8050937303482253</v>
       </c>
       <c r="O10">
-        <v>1.224856291403679</v>
+        <v>1.150781115678686</v>
       </c>
       <c r="P10">
-        <v>0.01239593418733879</v>
+        <v>0.01382802779410498</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>339</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.532923717513648</v>
+        <v>0.3548019967688276</v>
       </c>
       <c r="E11">
-        <v>0.5686087529671811</v>
+        <v>0.7451564351840407</v>
       </c>
       <c r="F11">
-        <v>0.0017947763972407</v>
+        <v>0.004410884982432723</v>
       </c>
       <c r="G11">
-        <v>-5.297595088661344</v>
+        <v>7.807976543621801</v>
       </c>
       <c r="H11">
-        <v>0.5037601169088632</v>
+        <v>2.486154708439543</v>
       </c>
       <c r="I11">
-        <v>4.005198633457274E-51</v>
+        <v>1.027691030752487E-44</v>
       </c>
       <c r="J11">
-        <v>12.39000034332275</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="K11">
-        <v>36.40000152587891</v>
+        <v>2.329999923706055</v>
       </c>
       <c r="L11">
-        <v>1.039749207149702</v>
+        <v>2.43210506626834</v>
       </c>
       <c r="M11">
-        <v>-1.042055580389155</v>
+        <v>-0.8687411887966583</v>
       </c>
       <c r="N11">
-        <v>0.3866603600038661</v>
+        <v>0.5042266441323462</v>
       </c>
       <c r="O11">
-        <v>-0.649273592175458</v>
+        <v>0.799282793922889</v>
       </c>
       <c r="P11">
-        <v>0.01269463776547158</v>
+        <v>0.01456923193293353</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -73,10 +73,19 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>LREN3</t>
+    <t>ELET3</t>
   </si>
   <si>
     <t>B3SA3</t>
@@ -85,34 +94,19 @@
     <t>CCRO3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>MRFG3</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
   </si>
 </sst>
 </file>
@@ -540,57 +534,57 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5117407896988801</v>
+        <v>0.4763061516407279</v>
       </c>
       <c r="E2">
-        <v>0.7492899835694654</v>
+        <v>0.7484392072910465</v>
       </c>
       <c r="F2">
-        <v>1.330444099785996E-07</v>
+        <v>1.141354017138681E-07</v>
       </c>
       <c r="G2">
-        <v>5.793212593612157</v>
+        <v>5.768207138966716</v>
       </c>
       <c r="H2">
-        <v>0.5599961364328079</v>
+        <v>0.5617952397553432</v>
       </c>
       <c r="I2">
-        <v>2.122877863463455E-64</v>
+        <v>1.232696224217148E-64</v>
       </c>
       <c r="J2">
-        <v>12.10000038146973</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="K2">
-        <v>11.96000003814697</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="L2">
-        <v>0.6430878939098221</v>
+        <v>0.6455603899648867</v>
       </c>
       <c r="M2">
-        <v>-0.4515833414800738</v>
+        <v>-0.4500238370766336</v>
       </c>
       <c r="N2">
-        <v>0.1833361621661656</v>
+        <v>0.1844746350779265</v>
       </c>
       <c r="O2">
-        <v>-0.3907660252409704</v>
+        <v>-0.2985140448011387</v>
       </c>
       <c r="P2">
-        <v>0.00607251003035425</v>
+        <v>0.006161486489598334</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>769</v>
+        <v>1621</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -599,43 +593,43 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.2320347584338052</v>
+        <v>0.6181113807420241</v>
       </c>
       <c r="E3">
-        <v>0.1462363114827107</v>
+        <v>0.3097950958760012</v>
       </c>
       <c r="F3">
-        <v>0.0004360146448859395</v>
+        <v>4.549048431660566E-06</v>
       </c>
       <c r="G3">
-        <v>10.09183034179062</v>
+        <v>14.39652570128846</v>
       </c>
       <c r="H3">
-        <v>-0.11506243719099</v>
+        <v>-0.1555985294494831</v>
       </c>
       <c r="I3">
-        <v>7.570694602814069E-44</v>
+        <v>1.5779730835414E-67</v>
       </c>
       <c r="J3">
-        <v>6.460000038146973</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="K3">
-        <v>27.70000076293945</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="L3">
-        <v>0.4661884795843605</v>
+        <v>0.5240667704545565</v>
       </c>
       <c r="M3">
-        <v>-0.6119675155297246</v>
+        <v>-0.5011442012582918</v>
       </c>
       <c r="N3">
-        <v>0.2290025992031687</v>
+        <v>0.2134128686576235</v>
       </c>
       <c r="O3">
-        <v>-0.4446007056675514</v>
+        <v>-0.3980947373207346</v>
       </c>
       <c r="P3">
-        <v>0.01060216007088982</v>
+        <v>0.008542128540745432</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -646,450 +640,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2845</v>
+        <v>2116</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.5667238372702794</v>
+        <v>0.3558997117325177</v>
       </c>
       <c r="E4">
-        <v>0.6449094629154188</v>
+        <v>0.3097950958760012</v>
       </c>
       <c r="F4">
-        <v>0.001009423837960478</v>
+        <v>9.606584039311404E-05</v>
       </c>
       <c r="G4">
-        <v>3.89879841273276</v>
+        <v>68.33285196342162</v>
       </c>
       <c r="H4">
-        <v>1.264201721750967</v>
+        <v>-0.7608304992020133</v>
       </c>
       <c r="I4">
-        <v>5.226669765855328E-60</v>
+        <v>2.076312903503138E-59</v>
       </c>
       <c r="J4">
-        <v>16.3700008392334</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="K4">
-        <v>10.4399995803833</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="L4">
-        <v>1.482772486713461</v>
+        <v>2.611675896523344</v>
       </c>
       <c r="M4">
-        <v>-1.327010425432402</v>
+        <v>-3.040546933989049</v>
       </c>
       <c r="N4">
-        <v>0.6116110222456353</v>
+        <v>1.223833520408006</v>
       </c>
       <c r="O4">
-        <v>-0.727063018099301</v>
+        <v>-1.327748639840479</v>
       </c>
       <c r="P4">
-        <v>0.01207396213794642</v>
+        <v>0.009554828335777459</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>339</v>
+        <v>858</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0.7492899835694654</v>
+        <v>0.3254741544875823</v>
       </c>
       <c r="E5">
-        <v>0.563255603003733</v>
+        <v>0.6181113807420241</v>
       </c>
       <c r="F5">
-        <v>0.002472125948336889</v>
+        <v>0.0002043871561538937</v>
       </c>
       <c r="G5">
-        <v>-5.299418016364722</v>
+        <v>-3.16735730775982</v>
       </c>
       <c r="H5">
-        <v>0.5036581145133046</v>
+        <v>3.962974541665258</v>
       </c>
       <c r="I5">
-        <v>7.176371154995191E-51</v>
+        <v>1.888767799030874E-75</v>
       </c>
       <c r="J5">
-        <v>11.96000003814697</v>
+        <v>34.72000122070312</v>
       </c>
       <c r="K5">
-        <v>35.70999908447266</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="L5">
-        <v>1.045006555324772</v>
+        <v>1.818356442050899</v>
       </c>
       <c r="M5">
-        <v>-1.036579946760742</v>
+        <v>-1.783500023724301</v>
       </c>
       <c r="N5">
-        <v>0.3903278377850334</v>
+        <v>0.7680993622949115</v>
       </c>
       <c r="O5">
-        <v>-0.7262127536456333</v>
+        <v>1.348732196080896</v>
       </c>
       <c r="P5">
-        <v>0.01313868666560768</v>
+        <v>0.01018542055217291</v>
       </c>
       <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>19</v>
+        <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.5117407896988801</v>
+        <v>0.2182681853377313</v>
       </c>
       <c r="E6">
-        <v>0.5954097456117178</v>
+        <v>0.1407428596701225</v>
       </c>
       <c r="F6">
-        <v>0.001500311085801528</v>
+        <v>0.0004150032550890004</v>
       </c>
       <c r="G6">
-        <v>9.937668650746946</v>
+        <v>10.10251863436173</v>
       </c>
       <c r="H6">
-        <v>0.4849935321436016</v>
+        <v>-0.1155991404505559</v>
       </c>
       <c r="I6">
-        <v>3.87557292829521E-45</v>
+        <v>5.794530862863847E-44</v>
       </c>
       <c r="J6">
-        <v>12.10000038146973</v>
+        <v>6.5</v>
       </c>
       <c r="K6">
-        <v>5.099999904632568</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="L6">
-        <v>0.5393207509748077</v>
+        <v>0.4679916777575688</v>
       </c>
       <c r="M6">
-        <v>-0.6588765143821611</v>
+        <v>-0.6102490053981287</v>
       </c>
       <c r="N6">
-        <v>0.2564238418814163</v>
+        <v>0.2306500031008266</v>
       </c>
       <c r="O6">
-        <v>-0.3111352369570008</v>
+        <v>-0.391174433269657</v>
       </c>
       <c r="P6">
-        <v>0.0132406233868644</v>
+        <v>0.01075420271799119</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>54</v>
+        <v>2065</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.5117407896988801</v>
+        <v>0.4422524530636043</v>
       </c>
       <c r="E7">
-        <v>0.3884026639239346</v>
+        <v>0.3097950958760012</v>
       </c>
       <c r="F7">
-        <v>0.001917729997523529</v>
+        <v>0.0006427086440532773</v>
       </c>
       <c r="G7">
-        <v>4.252069589721466</v>
+        <v>60.80400506869738</v>
       </c>
       <c r="H7">
-        <v>0.3294719730342602</v>
+        <v>-0.6597973760147775</v>
       </c>
       <c r="I7">
-        <v>5.365967941720914E-42</v>
+        <v>5.345523949921436E-52</v>
       </c>
       <c r="J7">
-        <v>12.10000038146973</v>
+        <v>38.84000015258789</v>
       </c>
       <c r="K7">
-        <v>24.97999954223633</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="L7">
-        <v>0.6618342922066311</v>
+        <v>2.64003256993621</v>
       </c>
       <c r="M7">
-        <v>-0.6756700807553706</v>
+        <v>-3.011406630187963</v>
       </c>
       <c r="N7">
-        <v>0.2708335957657083</v>
+        <v>1.235198640298156</v>
       </c>
       <c r="O7">
-        <v>-0.3822789438272585</v>
+        <v>-1.70162810275821</v>
       </c>
       <c r="P7">
-        <v>0.01327334570822427</v>
+        <v>0.01135054621432423</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1228</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.4958603852498701</v>
+        <v>0.7484392072910465</v>
       </c>
       <c r="E8">
-        <v>0.6449094629154188</v>
+        <v>0.5688565209109536</v>
       </c>
       <c r="F8">
-        <v>0.00330393254013244</v>
+        <v>0.001604951624361765</v>
       </c>
       <c r="G8">
-        <v>8.518715509424068</v>
+        <v>-5.320799317542095</v>
       </c>
       <c r="H8">
-        <v>0.5445801951791998</v>
+        <v>0.5041549948506205</v>
       </c>
       <c r="I8">
-        <v>1.025602465977046E-50</v>
+        <v>5.097056977760294E-51</v>
       </c>
       <c r="J8">
-        <v>13.72000026702881</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="K8">
-        <v>10.4399995803833</v>
+        <v>35.29000091552734</v>
       </c>
       <c r="L8">
-        <v>0.9957006051726083</v>
+        <v>1.049657896454528</v>
       </c>
       <c r="M8">
-        <v>-0.8023492171059701</v>
+        <v>-1.032991931145014</v>
       </c>
       <c r="N8">
-        <v>0.3191327808760694</v>
+        <v>0.3911851321967158</v>
       </c>
       <c r="O8">
-        <v>-0.4841322515511601</v>
+        <v>-0.4908313700676565</v>
       </c>
       <c r="P8">
-        <v>0.01362986330401935</v>
+        <v>0.01295207547395263</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2294</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.4606436210484494</v>
+        <v>0.4763061516407279</v>
       </c>
       <c r="E9">
-        <v>0.3884026639239346</v>
+        <v>0.3573147725552281</v>
       </c>
       <c r="F9">
-        <v>0.001854556441459552</v>
+        <v>0.002005527915773923</v>
       </c>
       <c r="G9">
-        <v>11.57427774827419</v>
+        <v>4.216753871198853</v>
       </c>
       <c r="H9">
-        <v>0.8407234380731642</v>
+        <v>0.3307098256716856</v>
       </c>
       <c r="I9">
-        <v>1.364955857562547E-50</v>
+        <v>3.404369442173111E-42</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="K9">
-        <v>24.97999954223633</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="L9">
-        <v>1.279255845958261</v>
+        <v>0.6650792134481911</v>
       </c>
       <c r="M9">
-        <v>-1.579930127362559</v>
+        <v>-0.6707984096767063</v>
       </c>
       <c r="N9">
-        <v>0.5714088630854434</v>
+        <v>0.2718978804930351</v>
       </c>
       <c r="O9">
-        <v>-0.5755488464891805</v>
+        <v>-0.3870195730659765</v>
       </c>
       <c r="P9">
-        <v>0.01373992183575276</v>
+        <v>0.01344433290429762</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2021</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.1563273357002598</v>
+        <v>0.4763061516407279</v>
       </c>
       <c r="E10">
-        <v>0.6645068416817447</v>
+        <v>0.5688565209109536</v>
       </c>
       <c r="F10">
-        <v>0.002246706791410732</v>
+        <v>0.004739723372739906</v>
       </c>
       <c r="G10">
-        <v>19.57734858402448</v>
+        <v>2.562782453208471</v>
       </c>
       <c r="H10">
-        <v>0.3372056950459723</v>
+        <v>0.2892959962004745</v>
       </c>
       <c r="I10">
-        <v>1.935649764910721E-40</v>
+        <v>1.394685821943894E-42</v>
       </c>
       <c r="J10">
-        <v>41.5</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="K10">
-        <v>61.59999847412109</v>
+        <v>35.29000091552734</v>
       </c>
       <c r="L10">
-        <v>2.150435142941703</v>
+        <v>0.6895334899899392</v>
       </c>
       <c r="M10">
-        <v>-2.485986482875205</v>
+        <v>-0.7935418311992937</v>
       </c>
       <c r="N10">
-        <v>0.8050937303482253</v>
+        <v>0.2700839702579252</v>
       </c>
       <c r="O10">
-        <v>1.150781115678686</v>
+        <v>-0.5720386147164742</v>
       </c>
       <c r="P10">
-        <v>0.01382802779410498</v>
+        <v>0.01406081633729994</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>566</v>
+        <v>1228</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.3548019967688276</v>
+        <v>0.4753378862509857</v>
       </c>
       <c r="E11">
-        <v>0.7451564351840407</v>
+        <v>0.6267162134459863</v>
       </c>
       <c r="F11">
-        <v>0.004410884982432723</v>
+        <v>0.004863290989805621</v>
       </c>
       <c r="G11">
-        <v>7.807976543621801</v>
+        <v>8.552725112652753</v>
       </c>
       <c r="H11">
-        <v>2.486154708439543</v>
+        <v>0.540234769225532</v>
       </c>
       <c r="I11">
-        <v>1.027691030752487E-44</v>
+        <v>2.220537207408954E-50</v>
       </c>
       <c r="J11">
-        <v>14.39999961853027</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="K11">
-        <v>2.329999923706055</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="L11">
-        <v>2.43210506626834</v>
+        <v>1.001712375142967</v>
       </c>
       <c r="M11">
-        <v>-0.8687411887966583</v>
+        <v>-0.7911663920741603</v>
       </c>
       <c r="N11">
-        <v>0.5042266441323462</v>
+        <v>0.321984257872406</v>
       </c>
       <c r="O11">
-        <v>0.799282793922889</v>
+        <v>-0.5849599128723391</v>
       </c>
       <c r="P11">
-        <v>0.01456923193293353</v>
+        <v>0.01420397166453993</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,40 +73,43 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
     <t>SMTO3</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
 </sst>
 </file>
@@ -534,57 +537,57 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4763061516407279</v>
+        <v>0.4643743571816927</v>
       </c>
       <c r="E2">
-        <v>0.7484392072910465</v>
+        <v>0.7214436582927919</v>
       </c>
       <c r="F2">
-        <v>1.141354017138681E-07</v>
+        <v>1.031057525517539E-07</v>
       </c>
       <c r="G2">
-        <v>5.768207138966716</v>
+        <v>5.757137532388669</v>
       </c>
       <c r="H2">
-        <v>0.5617952397553432</v>
+        <v>0.562628371381115</v>
       </c>
       <c r="I2">
-        <v>1.232696224217148E-64</v>
+        <v>2.175677446767454E-63</v>
       </c>
       <c r="J2">
-        <v>12.19999980926514</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="K2">
-        <v>11.97999954223633</v>
+        <v>11.71000003814697</v>
       </c>
       <c r="L2">
-        <v>0.6455603899648867</v>
+        <v>0.6461953982690574</v>
       </c>
       <c r="M2">
-        <v>-0.4500238370766336</v>
+        <v>-0.4498108345226708</v>
       </c>
       <c r="N2">
-        <v>0.1844746350779265</v>
+        <v>0.1866788477904469</v>
       </c>
       <c r="O2">
-        <v>-0.2985140448011387</v>
+        <v>-0.2255158971650131</v>
       </c>
       <c r="P2">
-        <v>0.006161486489598334</v>
+        <v>0.006163857685929173</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1621</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -593,49 +596,49 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6181113807420241</v>
+        <v>0.3846034169938346</v>
       </c>
       <c r="E3">
-        <v>0.3097950958760012</v>
+        <v>0.527308859639677</v>
       </c>
       <c r="F3">
-        <v>4.549048431660566E-06</v>
+        <v>0.0001983593521503406</v>
       </c>
       <c r="G3">
-        <v>14.39652570128846</v>
+        <v>-2.645820791767424</v>
       </c>
       <c r="H3">
-        <v>-0.1555985294494831</v>
+        <v>3.911456223222783</v>
       </c>
       <c r="I3">
-        <v>1.5779730835414E-67</v>
+        <v>4.062579527295666E-73</v>
       </c>
       <c r="J3">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="K3">
         <v>9.220000267028809</v>
       </c>
-      <c r="K3">
-        <v>30.70999908447266</v>
-      </c>
       <c r="L3">
-        <v>0.5240667704545565</v>
+        <v>1.799123530872635</v>
       </c>
       <c r="M3">
-        <v>-0.5011442012582918</v>
+        <v>-1.777488970657359</v>
       </c>
       <c r="N3">
-        <v>0.2134128686576235</v>
+        <v>0.7633423450718445</v>
       </c>
       <c r="O3">
-        <v>-0.3980947373207346</v>
+        <v>0.8821926062424197</v>
       </c>
       <c r="P3">
-        <v>0.008542128540745432</v>
+        <v>0.01010661818892725</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -646,108 +649,108 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.3558997117325177</v>
+        <v>0.4302441503483243</v>
       </c>
       <c r="E4">
-        <v>0.3097950958760012</v>
+        <v>0.2919661329848796</v>
       </c>
       <c r="F4">
-        <v>9.606584039311404E-05</v>
+        <v>1.723115029253022E-05</v>
       </c>
       <c r="G4">
-        <v>68.33285196342162</v>
+        <v>68.18007333383341</v>
       </c>
       <c r="H4">
-        <v>-0.7608304992020133</v>
+        <v>-0.7563272207893396</v>
       </c>
       <c r="I4">
-        <v>2.076312903503138E-59</v>
+        <v>9.060638385087952E-56</v>
       </c>
       <c r="J4">
-        <v>43.63999938964844</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="K4">
-        <v>30.70999908447266</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="L4">
-        <v>2.611675896523344</v>
+        <v>2.60976691950767</v>
       </c>
       <c r="M4">
-        <v>-3.040546933989049</v>
+        <v>-3.047769780905966</v>
       </c>
       <c r="N4">
-        <v>1.223833520408006</v>
+        <v>1.249812172966811</v>
       </c>
       <c r="O4">
-        <v>-1.327748639840479</v>
+        <v>-2.459021706328226</v>
       </c>
       <c r="P4">
-        <v>0.009554828335777459</v>
+        <v>0.01015417039825633</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>858</v>
+        <v>906</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.3254741544875823</v>
+        <v>0.3846034169938346</v>
       </c>
       <c r="E5">
-        <v>0.6181113807420241</v>
+        <v>0.2919661329848796</v>
       </c>
       <c r="F5">
-        <v>0.0002043871561538937</v>
+        <v>5.408492374923905E-06</v>
       </c>
       <c r="G5">
-        <v>-3.16735730775982</v>
+        <v>54.10739489405935</v>
       </c>
       <c r="H5">
-        <v>3.962974541665258</v>
+        <v>-0.6240445287885926</v>
       </c>
       <c r="I5">
-        <v>1.888767799030874E-75</v>
+        <v>1.469716058306281E-54</v>
       </c>
       <c r="J5">
-        <v>34.72000122070312</v>
+        <v>34.29999923706055</v>
       </c>
       <c r="K5">
-        <v>9.220000267028809</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="L5">
-        <v>1.818356442050899</v>
+        <v>1.998578387581567</v>
       </c>
       <c r="M5">
-        <v>-1.783500023724301</v>
+        <v>-2.759056094563523</v>
       </c>
       <c r="N5">
-        <v>0.7680993622949115</v>
+        <v>1.057420704093729</v>
       </c>
       <c r="O5">
-        <v>1.348732196080896</v>
+        <v>-1.703863734009278</v>
       </c>
       <c r="P5">
-        <v>0.01018542055217291</v>
+        <v>0.01036209722312358</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -755,55 +758,55 @@
         <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.2182681853377313</v>
+        <v>0.2004784433073415</v>
       </c>
       <c r="E6">
-        <v>0.1407428596701225</v>
+        <v>0.1413298670617706</v>
       </c>
       <c r="F6">
-        <v>0.0004150032550890004</v>
+        <v>0.001277229959592756</v>
       </c>
       <c r="G6">
-        <v>10.10251863436173</v>
+        <v>10.05883592700448</v>
       </c>
       <c r="H6">
-        <v>-0.1155991404505559</v>
+        <v>-0.1141826291719949</v>
       </c>
       <c r="I6">
-        <v>5.794530862863847E-44</v>
+        <v>5.636983479415242E-40</v>
       </c>
       <c r="J6">
-        <v>6.5</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="K6">
-        <v>27.78000068664551</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="L6">
-        <v>0.4679916777575688</v>
+        <v>0.4787058178292813</v>
       </c>
       <c r="M6">
-        <v>-0.6102490053981287</v>
+        <v>-0.5993113496984321</v>
       </c>
       <c r="N6">
-        <v>0.2306500031008266</v>
+        <v>0.2366322505717023</v>
       </c>
       <c r="O6">
-        <v>-0.391174433269657</v>
+        <v>-0.5750396935708211</v>
       </c>
       <c r="P6">
-        <v>0.01075420271799119</v>
+        <v>0.01140821495294511</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -811,164 +814,164 @@
         <v>2065</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.4422524530636043</v>
+        <v>0.4634489824996296</v>
       </c>
       <c r="E7">
-        <v>0.3097950958760012</v>
+        <v>0.2919661329848796</v>
       </c>
       <c r="F7">
-        <v>0.0006427086440532773</v>
+        <v>0.001631196147694666</v>
       </c>
       <c r="G7">
-        <v>60.80400506869738</v>
+        <v>60.80593449240069</v>
       </c>
       <c r="H7">
-        <v>-0.6597973760147775</v>
+        <v>-0.6607173342515817</v>
       </c>
       <c r="I7">
-        <v>5.345523949921436E-52</v>
+        <v>6.925949131361897E-49</v>
       </c>
       <c r="J7">
-        <v>38.84000015258789</v>
+        <v>39.02000045776367</v>
       </c>
       <c r="K7">
-        <v>30.70999908447266</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="L7">
-        <v>2.64003256993621</v>
+        <v>2.669703710263377</v>
       </c>
       <c r="M7">
-        <v>-3.011406630187963</v>
+        <v>-2.980649938860608</v>
       </c>
       <c r="N7">
-        <v>1.235198640298156</v>
+        <v>1.262899966966824</v>
       </c>
       <c r="O7">
-        <v>-1.70162810275821</v>
+        <v>-2.618524016772433</v>
       </c>
       <c r="P7">
-        <v>0.01135054621432423</v>
+        <v>0.0120418586387782</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>339</v>
+        <v>2650</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.7484392072910465</v>
+        <v>0.334873301528389</v>
       </c>
       <c r="E8">
-        <v>0.5688565209109536</v>
+        <v>0.2919661329848796</v>
       </c>
       <c r="F8">
-        <v>0.001604951624361765</v>
+        <v>0.001558002679617106</v>
       </c>
       <c r="G8">
-        <v>-5.320799317542095</v>
+        <v>33.6954403669627</v>
       </c>
       <c r="H8">
-        <v>0.5041549948506205</v>
+        <v>-0.3580831771164524</v>
       </c>
       <c r="I8">
-        <v>5.097056977760294E-51</v>
+        <v>4.474619633754698E-49</v>
       </c>
       <c r="J8">
-        <v>11.97999954223633</v>
+        <v>22.26000022888184</v>
       </c>
       <c r="K8">
-        <v>35.29000091552734</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="L8">
-        <v>1.049657896454528</v>
+        <v>1.491566810043615</v>
       </c>
       <c r="M8">
-        <v>-1.032991931145014</v>
+        <v>-1.532710654795395</v>
       </c>
       <c r="N8">
-        <v>0.3911851321967158</v>
+        <v>0.6816334005758831</v>
       </c>
       <c r="O8">
-        <v>-0.4908313700676565</v>
+        <v>-1.047447087973845</v>
       </c>
       <c r="P8">
-        <v>0.01295207547395263</v>
+        <v>0.01220789146932842</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>54</v>
+        <v>772</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9">
-        <v>0.4763061516407279</v>
+        <v>0.2004784433073415</v>
       </c>
       <c r="E9">
-        <v>0.3573147725552281</v>
+        <v>0.4551709417615181</v>
       </c>
       <c r="F9">
-        <v>0.002005527915773923</v>
+        <v>8.397156814183799E-05</v>
       </c>
       <c r="G9">
-        <v>4.216753871198853</v>
+        <v>10.98560026875818</v>
       </c>
       <c r="H9">
-        <v>0.3307098256716856</v>
+        <v>-0.169933168048476</v>
       </c>
       <c r="I9">
-        <v>3.404369442173111E-42</v>
+        <v>6.979041076778491E-32</v>
       </c>
       <c r="J9">
-        <v>12.19999980926514</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="K9">
-        <v>25.30999946594238</v>
+        <v>24.80999946594238</v>
       </c>
       <c r="L9">
-        <v>0.6650792134481911</v>
+        <v>0.6758158573089901</v>
       </c>
       <c r="M9">
-        <v>-0.6707984096767063</v>
+        <v>-0.5858923487988097</v>
       </c>
       <c r="N9">
-        <v>0.2718978804930351</v>
+        <v>0.2726782217686207</v>
       </c>
       <c r="O9">
-        <v>-0.3870195730659765</v>
+        <v>-0.359558612817481</v>
       </c>
       <c r="P9">
-        <v>0.01344433290429762</v>
+        <v>0.01229375455167733</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
         <v>29</v>
@@ -976,114 +979,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>21</v>
+        <v>1936</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.4763061516407279</v>
+        <v>0.210939984615279</v>
       </c>
       <c r="E10">
-        <v>0.5688565209109536</v>
+        <v>0.4735332733270877</v>
       </c>
       <c r="F10">
-        <v>0.004739723372739906</v>
+        <v>0.001115661331199908</v>
       </c>
       <c r="G10">
-        <v>2.562782453208471</v>
+        <v>2.74759410290467</v>
       </c>
       <c r="H10">
-        <v>0.2892959962004745</v>
+        <v>0.1523907705595718</v>
       </c>
       <c r="I10">
-        <v>1.394685821943894E-42</v>
+        <v>4.612918675651485E-34</v>
       </c>
       <c r="J10">
-        <v>12.19999980926514</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="K10">
-        <v>35.29000091552734</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="L10">
-        <v>0.6895334899899392</v>
+        <v>0.7504421285913416</v>
       </c>
       <c r="M10">
-        <v>-0.7935418311992937</v>
+        <v>-0.7468507885250517</v>
       </c>
       <c r="N10">
-        <v>0.2700839702579252</v>
+        <v>0.3050686027088846</v>
       </c>
       <c r="O10">
-        <v>-0.5720386147164742</v>
+        <v>-0.4141981659421043</v>
       </c>
       <c r="P10">
-        <v>0.01406081633729994</v>
+        <v>0.01321026612779103</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1228</v>
+        <v>1935</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4753378862509857</v>
+        <v>0.210939984615279</v>
       </c>
       <c r="E11">
-        <v>0.6267162134459863</v>
+        <v>0.5585246914609926</v>
       </c>
       <c r="F11">
-        <v>0.004863290989805621</v>
+        <v>0.001322614047881458</v>
       </c>
       <c r="G11">
-        <v>8.552725112652753</v>
+        <v>2.403753603731964</v>
       </c>
       <c r="H11">
-        <v>0.540234769225532</v>
+        <v>0.5335133469872672</v>
       </c>
       <c r="I11">
-        <v>2.220537207408954E-50</v>
+        <v>1.123187880680302E-36</v>
       </c>
       <c r="J11">
-        <v>13.56999969482422</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="K11">
-        <v>10.36999988555908</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="L11">
-        <v>1.001712375142967</v>
+        <v>0.6895601225852701</v>
       </c>
       <c r="M11">
-        <v>-0.7911663920741603</v>
+        <v>-0.6840269354919553</v>
       </c>
       <c r="N11">
-        <v>0.321984257872406</v>
+        <v>0.2914156811736126</v>
       </c>
       <c r="O11">
-        <v>-0.5849599128723391</v>
+        <v>-0.4055353255783682</v>
       </c>
       <c r="P11">
-        <v>0.01420397166453993</v>
+        <v>0.0133683509350795</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
   </si>
   <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>VALE3</t>
   </si>
 </sst>
 </file>
@@ -531,114 +540,114 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.4643743571816927</v>
+        <v>0.1189124883747726</v>
       </c>
       <c r="E2">
-        <v>0.7214436582927919</v>
+        <v>0.1085320508931661</v>
       </c>
       <c r="F2">
-        <v>1.031057525517539E-07</v>
+        <v>0.0001667935940554492</v>
       </c>
       <c r="G2">
-        <v>5.757137532388669</v>
+        <v>8.734028737622152</v>
       </c>
       <c r="H2">
-        <v>0.562628371381115</v>
+        <v>1.556560595827314</v>
       </c>
       <c r="I2">
-        <v>2.175677446767454E-63</v>
+        <v>7.093864812342352E-29</v>
       </c>
       <c r="J2">
-        <v>12.11999988555908</v>
+        <v>50.95999908447266</v>
       </c>
       <c r="K2">
-        <v>11.71000003814697</v>
+        <v>29.3799991607666</v>
       </c>
       <c r="L2">
-        <v>0.6461953982690574</v>
+        <v>5.512774317285356</v>
       </c>
       <c r="M2">
-        <v>-0.4498108345226708</v>
+        <v>-4.151483433185092</v>
       </c>
       <c r="N2">
-        <v>0.1866788477904469</v>
+        <v>1.943042577638015</v>
       </c>
       <c r="O2">
-        <v>-0.2255158971650131</v>
+        <v>-3.505778652238341</v>
       </c>
       <c r="P2">
-        <v>0.006163857685929173</v>
+        <v>0.009749603967661415</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>858</v>
+        <v>1621</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.3846034169938346</v>
+        <v>0.5362320009720135</v>
       </c>
       <c r="E3">
-        <v>0.527308859639677</v>
+        <v>0.2825599306038084</v>
       </c>
       <c r="F3">
-        <v>0.0001983593521503406</v>
+        <v>5.451538522262237E-05</v>
       </c>
       <c r="G3">
-        <v>-2.645820791767424</v>
+        <v>14.41985080451492</v>
       </c>
       <c r="H3">
-        <v>3.911456223222783</v>
+        <v>-0.1568903088040491</v>
       </c>
       <c r="I3">
-        <v>4.062579527295666E-73</v>
+        <v>2.174540854075927E-61</v>
       </c>
       <c r="J3">
-        <v>34.29999923706055</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="K3">
-        <v>9.220000267028809</v>
+        <v>28.19000053405762</v>
       </c>
       <c r="L3">
-        <v>1.799123530872635</v>
+        <v>0.5386037194205393</v>
       </c>
       <c r="M3">
-        <v>-1.777488970657359</v>
+        <v>-0.7771126485115047</v>
       </c>
       <c r="N3">
-        <v>0.7633423450718445</v>
+        <v>0.2280704291413832</v>
       </c>
       <c r="O3">
-        <v>0.8821926062424197</v>
+        <v>-0.7771126485115039</v>
       </c>
       <c r="P3">
-        <v>0.01010661818892725</v>
+        <v>0.0106571662739775</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,444 +658,444 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4302441503483243</v>
+        <v>0.4973636220441764</v>
       </c>
       <c r="E4">
-        <v>0.2919661329848796</v>
+        <v>0.2825599306038084</v>
       </c>
       <c r="F4">
-        <v>1.723115029253022E-05</v>
+        <v>8.801844073259156E-05</v>
       </c>
       <c r="G4">
-        <v>68.18007333383341</v>
+        <v>68.11292075902263</v>
       </c>
       <c r="H4">
-        <v>-0.7563272207893396</v>
+        <v>-0.7552426221879084</v>
       </c>
       <c r="I4">
-        <v>9.060638385087952E-56</v>
+        <v>1.112087708934901E-53</v>
       </c>
       <c r="J4">
-        <v>43.77999877929688</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="K4">
-        <v>29.01000022888184</v>
+        <v>28.19000053405762</v>
       </c>
       <c r="L4">
-        <v>2.60976691950767</v>
+        <v>2.639663534014254</v>
       </c>
       <c r="M4">
-        <v>-3.047769780905966</v>
+        <v>-3.562632514669218</v>
       </c>
       <c r="N4">
-        <v>1.249812172966811</v>
+        <v>1.285410711757102</v>
       </c>
       <c r="O4">
-        <v>-2.459021706328226</v>
+        <v>-3.562632514669215</v>
       </c>
       <c r="P4">
-        <v>0.01015417039825633</v>
+        <v>0.01079787483490808</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>906</v>
+        <v>1910</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.3846034169938346</v>
+        <v>0.5245140425883923</v>
       </c>
       <c r="E5">
-        <v>0.2919661329848796</v>
+        <v>0.2606458460625434</v>
       </c>
       <c r="F5">
-        <v>5.408492374923905E-06</v>
+        <v>0.001359528002800867</v>
       </c>
       <c r="G5">
-        <v>54.10739489405935</v>
+        <v>-5.517053893079012</v>
       </c>
       <c r="H5">
-        <v>-0.6240445287885926</v>
+        <v>1.655538052677711</v>
       </c>
       <c r="I5">
-        <v>1.469716058306281E-54</v>
+        <v>1.525878676269296E-54</v>
       </c>
       <c r="J5">
-        <v>34.29999923706055</v>
+        <v>21.35000038146973</v>
       </c>
       <c r="K5">
-        <v>29.01000022888184</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="L5">
-        <v>1.998578387581567</v>
+        <v>2.013650728986775</v>
       </c>
       <c r="M5">
-        <v>-2.759056094563523</v>
+        <v>-1.927471609395425</v>
       </c>
       <c r="N5">
-        <v>1.057420704093729</v>
+        <v>0.832502327059688</v>
       </c>
       <c r="O5">
-        <v>-1.703863734009278</v>
+        <v>-1.889643089845926</v>
       </c>
       <c r="P5">
-        <v>0.01036209722312358</v>
+        <v>0.01265467599251869</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>769</v>
+        <v>2845</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.2004784433073415</v>
+        <v>0.4802673910871296</v>
       </c>
       <c r="E6">
-        <v>0.1413298670617706</v>
+        <v>0.6196035862235819</v>
       </c>
       <c r="F6">
-        <v>0.001277229959592756</v>
+        <v>0.002728033531419409</v>
       </c>
       <c r="G6">
-        <v>10.05883592700448</v>
+        <v>3.938638570308431</v>
       </c>
       <c r="H6">
-        <v>-0.1141826291719949</v>
+        <v>1.257463223298202</v>
       </c>
       <c r="I6">
-        <v>5.636983479415242E-40</v>
+        <v>8.884835357229238E-58</v>
       </c>
       <c r="J6">
-        <v>6.409999847412109</v>
+        <v>15.85999965667725</v>
       </c>
       <c r="K6">
-        <v>26.92000007629395</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="L6">
-        <v>0.4787058178292813</v>
+        <v>1.504656973936902</v>
       </c>
       <c r="M6">
-        <v>-0.5993113496984321</v>
+        <v>-1.299263445326215</v>
       </c>
       <c r="N6">
-        <v>0.2366322505717023</v>
+        <v>0.6211960249383497</v>
       </c>
       <c r="O6">
-        <v>-0.5750396935708211</v>
+        <v>-1.193980716378755</v>
       </c>
       <c r="P6">
-        <v>0.01140821495294511</v>
+        <v>0.01281353315601477</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2065</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.4634489824996296</v>
+        <v>0.5180027049078363</v>
       </c>
       <c r="E7">
-        <v>0.2919661329848796</v>
+        <v>0.4593826203711419</v>
       </c>
       <c r="F7">
-        <v>0.001631196147694666</v>
+        <v>0.001867739437407516</v>
       </c>
       <c r="G7">
-        <v>60.80593449240069</v>
+        <v>9.771683932950745</v>
       </c>
       <c r="H7">
-        <v>-0.6607173342515817</v>
+        <v>0.5095971632964301</v>
       </c>
       <c r="I7">
-        <v>6.925949131361897E-49</v>
+        <v>1.577698938541635E-46</v>
       </c>
       <c r="J7">
-        <v>39.02000045776367</v>
+        <v>12.06999969482422</v>
       </c>
       <c r="K7">
-        <v>29.01000022888184</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="L7">
-        <v>2.669703710263377</v>
+        <v>0.5544852069885078</v>
       </c>
       <c r="M7">
-        <v>-2.980649938860608</v>
+        <v>-0.6633719264816946</v>
       </c>
       <c r="N7">
-        <v>1.262899966966824</v>
+        <v>0.2520876641591653</v>
       </c>
       <c r="O7">
-        <v>-2.618524016772433</v>
+        <v>-0.2802458552470797</v>
       </c>
       <c r="P7">
-        <v>0.0120418586387782</v>
+        <v>0.01309310312477119</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2650</v>
+        <v>1933</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.334873301528389</v>
+        <v>0.2042782535437112</v>
       </c>
       <c r="E8">
-        <v>0.2919661329848796</v>
+        <v>0.5539442488345573</v>
       </c>
       <c r="F8">
-        <v>0.001558002679617106</v>
+        <v>0.001840062092136063</v>
       </c>
       <c r="G8">
-        <v>33.6954403669627</v>
+        <v>1.010597849008298</v>
       </c>
       <c r="H8">
-        <v>-0.3580831771164524</v>
+        <v>0.2839548826935722</v>
       </c>
       <c r="I8">
-        <v>4.474619633754698E-49</v>
+        <v>4.319047957858255E-33</v>
       </c>
       <c r="J8">
-        <v>22.26000022888184</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="K8">
-        <v>29.01000022888184</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="L8">
-        <v>1.491566810043615</v>
+        <v>0.7184425882607215</v>
       </c>
       <c r="M8">
-        <v>-1.532710654795395</v>
+        <v>-0.6638866156786758</v>
       </c>
       <c r="N8">
-        <v>0.6816334005758831</v>
+        <v>0.3103078356448503</v>
       </c>
       <c r="O8">
-        <v>-1.047447087973845</v>
+        <v>0.3444954370209894</v>
       </c>
       <c r="P8">
-        <v>0.01220789146932842</v>
+        <v>0.01410653848962556</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>772</v>
+        <v>1967</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.2004784433073415</v>
+        <v>0.2042782535437112</v>
       </c>
       <c r="E9">
-        <v>0.4551709417615181</v>
+        <v>0.7310101705126745</v>
       </c>
       <c r="F9">
-        <v>8.397156814183799E-05</v>
+        <v>0.002746586985757147</v>
       </c>
       <c r="G9">
-        <v>10.98560026875818</v>
+        <v>4.910529553480929</v>
       </c>
       <c r="H9">
-        <v>-0.169933168048476</v>
+        <v>0.2925145948453842</v>
       </c>
       <c r="I9">
-        <v>6.979041076778491E-32</v>
+        <v>4.258514188488114E-33</v>
       </c>
       <c r="J9">
-        <v>6.409999847412109</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="K9">
-        <v>24.80999946594238</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="L9">
-        <v>0.6758158573089901</v>
+        <v>0.6280225579180625</v>
       </c>
       <c r="M9">
-        <v>-0.5858923487988097</v>
+        <v>-0.6213904366003282</v>
       </c>
       <c r="N9">
-        <v>0.2726782217686207</v>
+        <v>0.3102745271425456</v>
       </c>
       <c r="O9">
-        <v>-0.359558612817481</v>
+        <v>-0.4200287718370932</v>
       </c>
       <c r="P9">
-        <v>0.01229375455167733</v>
+        <v>0.01413338293389597</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1936</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.210939984615279</v>
+        <v>0.3392965862258521</v>
       </c>
       <c r="E10">
-        <v>0.4735332733270877</v>
+        <v>0.7310101705126745</v>
       </c>
       <c r="F10">
-        <v>0.001115661331199908</v>
+        <v>0.004132098735275558</v>
       </c>
       <c r="G10">
-        <v>2.74759410290467</v>
+        <v>7.734142938227589</v>
       </c>
       <c r="H10">
-        <v>0.1523907705595718</v>
+        <v>0.6402306383981016</v>
       </c>
       <c r="I10">
-        <v>4.612918675651485E-34</v>
+        <v>1.063985958033666E-43</v>
       </c>
       <c r="J10">
-        <v>7.28000020980835</v>
+        <v>13.72999954223633</v>
       </c>
       <c r="K10">
-        <v>32.45999908447266</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="L10">
-        <v>0.7504421285913416</v>
+        <v>1.49828724354062</v>
       </c>
       <c r="M10">
-        <v>-0.7468507885250517</v>
+        <v>-1.266103517199344</v>
       </c>
       <c r="N10">
-        <v>0.3050686027088846</v>
+        <v>0.5247838708557782</v>
       </c>
       <c r="O10">
-        <v>-0.4141981659421043</v>
+        <v>-0.5473006913798839</v>
       </c>
       <c r="P10">
-        <v>0.01321026612779103</v>
+        <v>0.01417205099199616</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1935</v>
+        <v>2021</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.210939984615279</v>
+        <v>0.227934913147324</v>
       </c>
       <c r="E11">
-        <v>0.5585246914609926</v>
+        <v>0.6789242273642296</v>
       </c>
       <c r="F11">
-        <v>0.001322614047881458</v>
+        <v>0.004715026213820302</v>
       </c>
       <c r="G11">
-        <v>2.403753603731964</v>
+        <v>19.46792054223436</v>
       </c>
       <c r="H11">
-        <v>0.5335133469872672</v>
+        <v>0.3386907767421146</v>
       </c>
       <c r="I11">
-        <v>1.123187880680302E-36</v>
+        <v>4.225281078300054E-41</v>
       </c>
       <c r="J11">
-        <v>7.28000020980835</v>
+        <v>41.40000152587891</v>
       </c>
       <c r="K11">
-        <v>9.899999618530273</v>
+        <v>61.9900016784668</v>
       </c>
       <c r="L11">
-        <v>0.6895601225852701</v>
+        <v>2.166971325771144</v>
       </c>
       <c r="M11">
-        <v>-0.6840269354919553</v>
+        <v>-2.473677461049988</v>
       </c>
       <c r="N11">
-        <v>0.2914156811736126</v>
+        <v>0.7950310689650583</v>
       </c>
       <c r="O11">
-        <v>-0.4055353255783682</v>
+        <v>0.9366391649196366</v>
       </c>
       <c r="P11">
-        <v>0.0133683509350795</v>
+        <v>0.01433144048038745</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -70,55 +70,40 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
     <t>ARZZ3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>VALE3</t>
+    <t>RADL3</t>
   </si>
 </sst>
 </file>
@@ -540,559 +525,559 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.1189124883747726</v>
+        <v>0.5692039480967245</v>
       </c>
       <c r="E2">
-        <v>0.1085320508931661</v>
+        <v>0.7704939682069762</v>
       </c>
       <c r="F2">
-        <v>0.0001667935940554492</v>
+        <v>1.423225645671688E-07</v>
       </c>
       <c r="G2">
-        <v>8.734028737622152</v>
+        <v>5.728746531595331</v>
       </c>
       <c r="H2">
-        <v>1.556560595827314</v>
+        <v>0.5648360695849018</v>
       </c>
       <c r="I2">
-        <v>7.093864812342352E-29</v>
+        <v>4.925649483063643E-64</v>
       </c>
       <c r="J2">
-        <v>50.95999908447266</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="K2">
-        <v>29.3799991607666</v>
+        <v>11.32999992370605</v>
       </c>
       <c r="L2">
-        <v>5.512774317285356</v>
+        <v>0.6469359736627709</v>
       </c>
       <c r="M2">
-        <v>-4.151483433185092</v>
+        <v>-0.450190481802494</v>
       </c>
       <c r="N2">
-        <v>1.943042577638015</v>
+        <v>0.1869978148535294</v>
       </c>
       <c r="O2">
-        <v>-3.505778652238341</v>
+        <v>-0.1883395765153963</v>
       </c>
       <c r="P2">
-        <v>0.009749603967661415</v>
+        <v>0.006240071367681675</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1621</v>
+        <v>2701</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.5362320009720135</v>
+        <v>0.4141135800156744</v>
       </c>
       <c r="E3">
-        <v>0.2825599306038084</v>
+        <v>0.3285646676894518</v>
       </c>
       <c r="F3">
-        <v>5.451538522262237E-05</v>
+        <v>9.639053568177235E-06</v>
       </c>
       <c r="G3">
-        <v>14.41985080451492</v>
+        <v>0.4477450846840924</v>
       </c>
       <c r="H3">
-        <v>-0.1568903088040491</v>
+        <v>0.2919097737642717</v>
       </c>
       <c r="I3">
-        <v>2.174540854075927E-61</v>
+        <v>1.438262305605844E-148</v>
       </c>
       <c r="J3">
-        <v>9.220000267028809</v>
+        <v>9.590000152587891</v>
       </c>
       <c r="K3">
-        <v>28.19000053405762</v>
+        <v>31.67000007629395</v>
       </c>
       <c r="L3">
-        <v>0.5386037194205393</v>
+        <v>0.1350512955222225</v>
       </c>
       <c r="M3">
-        <v>-0.7771126485115047</v>
+        <v>-0.1787046357469091</v>
       </c>
       <c r="N3">
-        <v>0.2280704291413832</v>
+        <v>0.0631934268814321</v>
       </c>
       <c r="O3">
-        <v>-0.7771126485115039</v>
+        <v>-0.1025274894816341</v>
       </c>
       <c r="P3">
-        <v>0.0106571662739775</v>
+        <v>0.008075640851763008</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0.4973636220441764</v>
+        <v>0.1302328199523405</v>
       </c>
       <c r="E4">
-        <v>0.2825599306038084</v>
+        <v>0.1750891501858645</v>
       </c>
       <c r="F4">
-        <v>8.801844073259156E-05</v>
+        <v>0.0001499329369621664</v>
       </c>
       <c r="G4">
-        <v>68.11292075902263</v>
+        <v>6.883171022770459</v>
       </c>
       <c r="H4">
-        <v>-0.7552426221879084</v>
+        <v>1.612011852529779</v>
       </c>
       <c r="I4">
-        <v>1.112087708934901E-53</v>
+        <v>3.999472739030401E-30</v>
       </c>
       <c r="J4">
-        <v>43.2599983215332</v>
+        <v>51.40000152587891</v>
       </c>
       <c r="K4">
-        <v>28.19000053405762</v>
+        <v>29.42000007629395</v>
       </c>
       <c r="L4">
-        <v>2.639663534014254</v>
+        <v>5.633962302324349</v>
       </c>
       <c r="M4">
-        <v>-3.562632514669218</v>
+        <v>-4.161900590429539</v>
       </c>
       <c r="N4">
-        <v>1.285410711757102</v>
+        <v>1.952608041008389</v>
       </c>
       <c r="O4">
-        <v>-3.562632514669215</v>
+        <v>-2.908558321304405</v>
       </c>
       <c r="P4">
-        <v>0.01079787483490808</v>
+        <v>0.00974033374753264</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1910</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.5245140425883923</v>
+        <v>0.2936958062270089</v>
       </c>
       <c r="E5">
-        <v>0.2606458460625434</v>
+        <v>0.3285646676894518</v>
       </c>
       <c r="F5">
-        <v>0.001359528002800867</v>
+        <v>0.0003428091274265263</v>
       </c>
       <c r="G5">
-        <v>-5.517053893079012</v>
+        <v>2.401423045672411</v>
       </c>
       <c r="H5">
-        <v>1.655538052677711</v>
+        <v>0.3521735688632596</v>
       </c>
       <c r="I5">
-        <v>1.525878676269296E-54</v>
+        <v>2.393827761671807E-54</v>
       </c>
       <c r="J5">
-        <v>21.35000038146973</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>17.3700008392334</v>
+        <v>31.67000007629395</v>
       </c>
       <c r="L5">
-        <v>2.013650728986775</v>
+        <v>1.02361955008058</v>
       </c>
       <c r="M5">
-        <v>-1.927471609395425</v>
+        <v>-1.241145106030986</v>
       </c>
       <c r="N5">
-        <v>0.832502327059688</v>
+        <v>0.433737835121117</v>
       </c>
       <c r="O5">
-        <v>-1.889643089845926</v>
+        <v>-0.5547599984405522</v>
       </c>
       <c r="P5">
-        <v>0.01265467599251869</v>
+        <v>0.01078346245530829</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2845</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>0.4802673910871296</v>
+        <v>0.2936958062270089</v>
       </c>
       <c r="E6">
-        <v>0.6196035862235819</v>
+        <v>0.4141135800156744</v>
       </c>
       <c r="F6">
-        <v>0.002728033531419409</v>
+        <v>0.0005218722933218424</v>
       </c>
       <c r="G6">
-        <v>3.938638570308431</v>
+        <v>1.850463207096833</v>
       </c>
       <c r="H6">
-        <v>1.257463223298202</v>
+        <v>1.207584761677339</v>
       </c>
       <c r="I6">
-        <v>8.884835357229238E-58</v>
+        <v>1.534673303404364E-55</v>
       </c>
       <c r="J6">
-        <v>15.85999965667725</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>10.43000030517578</v>
+        <v>9.590000152587891</v>
       </c>
       <c r="L6">
-        <v>1.504656973936902</v>
+        <v>1.05699099246654</v>
       </c>
       <c r="M6">
-        <v>-1.299263445326215</v>
+        <v>-1.251748736547821</v>
       </c>
       <c r="N6">
-        <v>0.6211960249383497</v>
+        <v>0.4247489646081743</v>
       </c>
       <c r="O6">
-        <v>-1.193980716378755</v>
+        <v>-0.4312012558453233</v>
       </c>
       <c r="P6">
-        <v>0.01281353315601477</v>
+        <v>0.01124281894484023</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.5180027049078363</v>
+        <v>0.2936958062270089</v>
       </c>
       <c r="E7">
-        <v>0.4593826203711419</v>
+        <v>0.5834267397059701</v>
       </c>
       <c r="F7">
-        <v>0.001867739437407516</v>
+        <v>0.00112806399036157</v>
       </c>
       <c r="G7">
-        <v>9.771683932950745</v>
+        <v>3.192166605805984</v>
       </c>
       <c r="H7">
-        <v>0.5095971632964301</v>
+        <v>0.4445618902246086</v>
       </c>
       <c r="I7">
-        <v>1.577698938541635E-46</v>
+        <v>1.635145992702749E-43</v>
       </c>
       <c r="J7">
-        <v>12.06999969482422</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>5.059999942779541</v>
+        <v>24.19000053405762</v>
       </c>
       <c r="L7">
-        <v>0.5544852069885078</v>
+        <v>1.414113761550354</v>
       </c>
       <c r="M7">
-        <v>-0.6633719264816946</v>
+        <v>-1.035454485323504</v>
       </c>
       <c r="N7">
-        <v>0.2520876641591653</v>
+        <v>0.52454830884216</v>
       </c>
       <c r="O7">
-        <v>-0.2802458552470797</v>
+        <v>-0.9461189677609294</v>
       </c>
       <c r="P7">
-        <v>0.01309310312477119</v>
+        <v>0.01185261993450988</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1933</v>
+        <v>906</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.2042782535437112</v>
+        <v>0.4392005709073547</v>
       </c>
       <c r="E8">
-        <v>0.5539442488345573</v>
+        <v>0.2669681033296735</v>
       </c>
       <c r="F8">
-        <v>0.001840062092136063</v>
+        <v>4.016227357207652E-05</v>
       </c>
       <c r="G8">
-        <v>1.010597849008298</v>
+        <v>54.04092642814935</v>
       </c>
       <c r="H8">
-        <v>0.2839548826935722</v>
+        <v>-0.6237309315843687</v>
       </c>
       <c r="I8">
-        <v>4.319047957858255E-33</v>
+        <v>1.126466515871726E-50</v>
       </c>
       <c r="J8">
-        <v>7.480000019073486</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="K8">
-        <v>21.56999969482422</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="L8">
-        <v>0.7184425882607215</v>
+        <v>2.055108957922236</v>
       </c>
       <c r="M8">
-        <v>-0.6638866156786758</v>
+        <v>-3.014494067874153</v>
       </c>
       <c r="N8">
-        <v>0.3103078356448503</v>
+        <v>1.11205386323257</v>
       </c>
       <c r="O8">
-        <v>0.3444954370209894</v>
+        <v>-3.01449406787415</v>
       </c>
       <c r="P8">
-        <v>0.01410653848962556</v>
+        <v>0.01193504108165673</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1967</v>
+        <v>2602</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2042782535437112</v>
+        <v>0.1750891501858645</v>
       </c>
       <c r="E9">
-        <v>0.7310101705126745</v>
+        <v>0.4500841206618471</v>
       </c>
       <c r="F9">
-        <v>0.002746586985757147</v>
+        <v>0.0009041209651960226</v>
       </c>
       <c r="G9">
-        <v>4.910529553480929</v>
+        <v>7.810376709569055</v>
       </c>
       <c r="H9">
-        <v>0.2925145948453842</v>
+        <v>0.9396696032813998</v>
       </c>
       <c r="I9">
-        <v>4.258514188488114E-33</v>
+        <v>1.184265646661155E-27</v>
       </c>
       <c r="J9">
-        <v>7.480000019073486</v>
+        <v>29.42000007629395</v>
       </c>
       <c r="K9">
-        <v>10.22000026702881</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="L9">
-        <v>0.6280225579180625</v>
+        <v>2.234000176695744</v>
       </c>
       <c r="M9">
-        <v>-0.6213904366003282</v>
+        <v>-3.049721871686138</v>
       </c>
       <c r="N9">
-        <v>0.3102745271425456</v>
+        <v>1.004489310118651</v>
       </c>
       <c r="O9">
-        <v>-0.4200287718370932</v>
+        <v>-2.088843382812101</v>
       </c>
       <c r="P9">
-        <v>0.01413338293389597</v>
+        <v>0.01204662501083756</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>238</v>
+        <v>1960</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.3392965862258521</v>
+        <v>0.2030232003565571</v>
       </c>
       <c r="E10">
-        <v>0.7310101705126745</v>
+        <v>0.2669681033296735</v>
       </c>
       <c r="F10">
-        <v>0.004132098735275558</v>
+        <v>0.0009525934633597783</v>
       </c>
       <c r="G10">
-        <v>7.734142938227589</v>
+        <v>10.73930643445283</v>
       </c>
       <c r="H10">
-        <v>0.6402306383981016</v>
+        <v>-0.1073913789873861</v>
       </c>
       <c r="I10">
-        <v>1.063985958033666E-43</v>
+        <v>2.79761688384869E-26</v>
       </c>
       <c r="J10">
-        <v>13.72999954223633</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="K10">
-        <v>10.22000026702881</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="L10">
-        <v>1.49828724354062</v>
+        <v>0.6532304007992842</v>
       </c>
       <c r="M10">
-        <v>-1.266103517199344</v>
+        <v>-0.8102012432859524</v>
       </c>
       <c r="N10">
-        <v>0.5247838708557782</v>
+        <v>0.3499030492836101</v>
       </c>
       <c r="O10">
-        <v>-0.5473006913798839</v>
+        <v>-0.5072436070993835</v>
       </c>
       <c r="P10">
-        <v>0.01417205099199616</v>
+        <v>0.01222329993604291</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2021</v>
+        <v>1936</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
       <c r="D11">
-        <v>0.227934913147324</v>
+        <v>0.2030232003565571</v>
       </c>
       <c r="E11">
-        <v>0.6789242273642296</v>
+        <v>0.3285646676894518</v>
       </c>
       <c r="F11">
-        <v>0.004715026213820302</v>
+        <v>0.0008331107491552507</v>
       </c>
       <c r="G11">
-        <v>19.46792054223436</v>
+        <v>2.528253630151742</v>
       </c>
       <c r="H11">
-        <v>0.3386907767421146</v>
+        <v>0.1589952972196053</v>
       </c>
       <c r="I11">
-        <v>4.225281078300054E-41</v>
+        <v>1.409351417416148E-36</v>
       </c>
       <c r="J11">
-        <v>41.40000152587891</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="K11">
-        <v>61.9900016784668</v>
+        <v>31.67000007629395</v>
       </c>
       <c r="L11">
-        <v>2.166971325771144</v>
+        <v>0.6787252857214146</v>
       </c>
       <c r="M11">
-        <v>-2.473677461049988</v>
+        <v>-0.7112460778032865</v>
       </c>
       <c r="N11">
-        <v>0.7950310689650583</v>
+        <v>0.2921881804571679</v>
       </c>
       <c r="O11">
-        <v>0.9366391649196366</v>
+        <v>-0.3836348768883955</v>
       </c>
       <c r="P11">
-        <v>0.01433144048038745</v>
+        <v>0.01232528877915887</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
         <v>26</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,40 +70,40 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
     <t>SMTO3</t>
   </si>
   <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
     <t>RADL3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>2701</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -534,43 +534,43 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.5692039480967245</v>
+        <v>0.4085501496262708</v>
       </c>
       <c r="E2">
-        <v>0.7704939682069762</v>
+        <v>0.3246095876521456</v>
       </c>
       <c r="F2">
-        <v>1.423225645671688E-07</v>
+        <v>2.630954063843792E-05</v>
       </c>
       <c r="G2">
-        <v>5.728746531595331</v>
+        <v>0.4499290862119382</v>
       </c>
       <c r="H2">
-        <v>0.5648360695849018</v>
+        <v>0.2918033232530298</v>
       </c>
       <c r="I2">
-        <v>4.925649483063643E-64</v>
+        <v>1.546568786661623E-148</v>
       </c>
       <c r="J2">
-        <v>11.9399995803833</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="K2">
-        <v>11.32999992370605</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L2">
-        <v>0.6469359736627709</v>
+        <v>0.1365164202323381</v>
       </c>
       <c r="M2">
-        <v>-0.450190481802494</v>
+        <v>-0.1772604158536826</v>
       </c>
       <c r="N2">
-        <v>0.1869978148535294</v>
+        <v>0.0642382476047355</v>
       </c>
       <c r="O2">
-        <v>-0.1883395765153963</v>
+        <v>-0.147176365205377</v>
       </c>
       <c r="P2">
-        <v>0.006240071367681675</v>
+        <v>0.008459919545449919</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -581,338 +581,338 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2701</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.4141135800156744</v>
+        <v>0.2965939811775724</v>
       </c>
       <c r="E3">
-        <v>0.3285646676894518</v>
+        <v>0.3246095876521456</v>
       </c>
       <c r="F3">
-        <v>9.639053568177235E-06</v>
+        <v>0.0004903533599213495</v>
       </c>
       <c r="G3">
-        <v>0.4477450846840924</v>
+        <v>2.412051730697821</v>
       </c>
       <c r="H3">
-        <v>0.2919097737642717</v>
+        <v>0.3516555680825769</v>
       </c>
       <c r="I3">
-        <v>1.438262305605844E-148</v>
+        <v>3.369099327843474E-54</v>
       </c>
       <c r="J3">
-        <v>9.590000152587891</v>
+        <v>12.84000015258789</v>
       </c>
       <c r="K3">
-        <v>31.67000007629395</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L3">
-        <v>0.1350512955222225</v>
+        <v>1.029221829202793</v>
       </c>
       <c r="M3">
-        <v>-0.1787046357469091</v>
+        <v>-1.235860751845616</v>
       </c>
       <c r="N3">
-        <v>0.0631934268814321</v>
+        <v>0.436556361467857</v>
       </c>
       <c r="O3">
-        <v>-0.1025274894816341</v>
+        <v>-0.7160167184511277</v>
       </c>
       <c r="P3">
-        <v>0.008075640851763008</v>
+        <v>0.01107491082562896</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.1302328199523405</v>
+        <v>0.2965939811775724</v>
       </c>
       <c r="E4">
-        <v>0.1750891501858645</v>
+        <v>0.4085501496262708</v>
       </c>
       <c r="F4">
-        <v>0.0001499329369621664</v>
+        <v>0.000617306940742569</v>
       </c>
       <c r="G4">
-        <v>6.883171022770459</v>
+        <v>1.850774313235851</v>
       </c>
       <c r="H4">
-        <v>1.612011852529779</v>
+        <v>1.207124165831929</v>
       </c>
       <c r="I4">
-        <v>3.999472739030401E-30</v>
+        <v>1.219769892359289E-55</v>
       </c>
       <c r="J4">
-        <v>51.40000152587891</v>
+        <v>12.84000015258789</v>
       </c>
       <c r="K4">
-        <v>29.42000007629395</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="L4">
-        <v>5.633962302324349</v>
+        <v>1.061086247508969</v>
       </c>
       <c r="M4">
-        <v>-4.161900590429539</v>
+        <v>-1.247717652422908</v>
       </c>
       <c r="N4">
-        <v>1.952608041008389</v>
+        <v>0.4257326744599921</v>
       </c>
       <c r="O4">
-        <v>-2.908558321304405</v>
+        <v>-0.5388101745835421</v>
       </c>
       <c r="P4">
-        <v>0.00974033374753264</v>
+        <v>0.01142024689360634</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>207</v>
+        <v>1936</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.2936958062270089</v>
+        <v>0.202302620805943</v>
       </c>
       <c r="E5">
-        <v>0.3285646676894518</v>
+        <v>0.3246095876521456</v>
       </c>
       <c r="F5">
-        <v>0.0003428091274265263</v>
+        <v>0.0009258277268643149</v>
       </c>
       <c r="G5">
-        <v>2.401423045672411</v>
+        <v>2.534243826644662</v>
       </c>
       <c r="H5">
-        <v>0.3521735688632596</v>
+        <v>0.1587033554830244</v>
       </c>
       <c r="I5">
-        <v>2.393827761671807E-54</v>
+        <v>1.719685913040643E-36</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="K5">
-        <v>31.67000007629395</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="L5">
-        <v>1.02361955008058</v>
+        <v>0.6819203185960667</v>
       </c>
       <c r="M5">
-        <v>-1.241145106030986</v>
+        <v>-0.7091145382419866</v>
       </c>
       <c r="N5">
-        <v>0.433737835121117</v>
+        <v>0.2931926863932116</v>
       </c>
       <c r="O5">
-        <v>-0.5547599984405522</v>
+        <v>-0.4035533992463316</v>
       </c>
       <c r="P5">
-        <v>0.01078346245530829</v>
+        <v>0.01252133595203592</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>206</v>
+        <v>1960</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.2936958062270089</v>
+        <v>0.202302620805943</v>
       </c>
       <c r="E6">
-        <v>0.4141135800156744</v>
+        <v>0.2759904295162463</v>
       </c>
       <c r="F6">
-        <v>0.0005218722933218424</v>
+        <v>0.001190916299769154</v>
       </c>
       <c r="G6">
-        <v>1.850463207096833</v>
+        <v>10.71236154185521</v>
       </c>
       <c r="H6">
-        <v>1.207584761677339</v>
+        <v>-0.1066493294929423</v>
       </c>
       <c r="I6">
-        <v>1.534673303404364E-55</v>
+        <v>5.540164627686604E-26</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="K6">
-        <v>9.590000152587891</v>
+        <v>28.11000061035156</v>
       </c>
       <c r="L6">
-        <v>1.05699099246654</v>
+        <v>0.658737483955333</v>
       </c>
       <c r="M6">
-        <v>-1.251748736547821</v>
+        <v>-0.8087457496901997</v>
       </c>
       <c r="N6">
-        <v>0.4247489646081743</v>
+        <v>0.3519059436754817</v>
       </c>
       <c r="O6">
-        <v>-0.4312012558453233</v>
+        <v>-0.55444897730291</v>
       </c>
       <c r="P6">
-        <v>0.01124281894484023</v>
+        <v>0.01253479639482594</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>240</v>
+        <v>1935</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>0.2936958062270089</v>
+        <v>0.202302620805943</v>
       </c>
       <c r="E7">
-        <v>0.5834267397059701</v>
+        <v>0.4085501496262708</v>
       </c>
       <c r="F7">
-        <v>0.00112806399036157</v>
+        <v>0.0009536884286097157</v>
       </c>
       <c r="G7">
-        <v>3.192166605805984</v>
+        <v>2.213205537093687</v>
       </c>
       <c r="H7">
-        <v>0.4445618902246086</v>
+        <v>0.5519301517462136</v>
       </c>
       <c r="I7">
-        <v>1.635145992702749E-43</v>
+        <v>4.846010226914096E-39</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="K7">
-        <v>24.19000053405762</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="L7">
-        <v>1.414113761550354</v>
+        <v>0.6500122568188207</v>
       </c>
       <c r="M7">
-        <v>-1.035454485323504</v>
+        <v>-0.649525887378287</v>
       </c>
       <c r="N7">
-        <v>0.52454830884216</v>
+        <v>0.2804733175644274</v>
       </c>
       <c r="O7">
-        <v>-0.9461189677609294</v>
+        <v>-0.3241387441302397</v>
       </c>
       <c r="P7">
-        <v>0.01185261993450988</v>
+        <v>0.01261858888270629</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>906</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.4392005709073547</v>
+        <v>0.3324097567496261</v>
       </c>
       <c r="E8">
-        <v>0.2669681033296735</v>
+        <v>0.7098588342495875</v>
       </c>
       <c r="F8">
-        <v>4.016227357207652E-05</v>
+        <v>0.00113239093394007</v>
       </c>
       <c r="G8">
-        <v>54.04092642814935</v>
+        <v>9.412702939337345</v>
       </c>
       <c r="H8">
-        <v>-0.6237309315843687</v>
+        <v>0.2358456647554423</v>
       </c>
       <c r="I8">
-        <v>1.126466515871726E-50</v>
+        <v>1.939261154605162E-76</v>
       </c>
       <c r="J8">
-        <v>33.29999923706055</v>
+        <v>27.96999931335449</v>
       </c>
       <c r="K8">
-        <v>28.42000007629395</v>
+        <v>81.44000244140625</v>
       </c>
       <c r="L8">
-        <v>2.055108957922236</v>
+        <v>1.210670986995652</v>
       </c>
       <c r="M8">
-        <v>-3.014494067874153</v>
+        <v>-1.248592785085684</v>
       </c>
       <c r="N8">
-        <v>1.11205386323257</v>
+        <v>0.5342641138123488</v>
       </c>
       <c r="O8">
-        <v>-3.01449406787415</v>
+        <v>-0.6499751394611515</v>
       </c>
       <c r="P8">
-        <v>0.01193504108165673</v>
+        <v>0.0128528856434524</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -920,167 +920,167 @@
         <v>2602</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.1750891501858645</v>
+        <v>0.3323948539063314</v>
       </c>
       <c r="E9">
-        <v>0.4500841206618471</v>
+        <v>0.5004218750274777</v>
       </c>
       <c r="F9">
-        <v>0.0009041209651960226</v>
+        <v>0.002695767582338564</v>
       </c>
       <c r="G9">
-        <v>7.810376709569055</v>
+        <v>7.063396434534976</v>
       </c>
       <c r="H9">
-        <v>0.9396696032813998</v>
+        <v>0.9684204998878205</v>
       </c>
       <c r="I9">
-        <v>1.184265646661155E-27</v>
+        <v>3.846393143839695E-28</v>
       </c>
       <c r="J9">
-        <v>29.42000007629395</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="K9">
-        <v>25.21999931335449</v>
+        <v>24.85084915161133</v>
       </c>
       <c r="L9">
-        <v>2.234000176695744</v>
+        <v>2.25126507406604</v>
       </c>
       <c r="M9">
-        <v>-3.049721871686138</v>
+        <v>-3.005930572446971</v>
       </c>
       <c r="N9">
-        <v>1.004489310118651</v>
+        <v>1.03095870688957</v>
       </c>
       <c r="O9">
-        <v>-2.088843382812101</v>
+        <v>-2.829468955514692</v>
       </c>
       <c r="P9">
-        <v>0.01204662501083756</v>
+        <v>0.01303242991684568</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1960</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.2030232003565571</v>
+        <v>0.7855198505523546</v>
       </c>
       <c r="E10">
-        <v>0.2669681033296735</v>
+        <v>0.3728658599446749</v>
       </c>
       <c r="F10">
-        <v>0.0009525934633597783</v>
+        <v>0.002194943057054801</v>
       </c>
       <c r="G10">
-        <v>10.73930643445283</v>
+        <v>7.179842671839244</v>
       </c>
       <c r="H10">
-        <v>-0.1073913789873861</v>
+        <v>0.8963763012671814</v>
       </c>
       <c r="I10">
-        <v>2.79761688384869E-26</v>
+        <v>1.619513582648026E-56</v>
       </c>
       <c r="J10">
-        <v>7.179999828338623</v>
+        <v>11.23999977111816</v>
       </c>
       <c r="K10">
-        <v>28.42000007629395</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="L10">
-        <v>0.6532304007992842</v>
+        <v>1.061709165522153</v>
       </c>
       <c r="M10">
-        <v>-0.8102012432859524</v>
+        <v>-0.8067797392496274</v>
       </c>
       <c r="N10">
-        <v>0.3499030492836101</v>
+        <v>0.36024640819306</v>
       </c>
       <c r="O10">
-        <v>-0.5072436070993835</v>
+        <v>-0.6009994963402114</v>
       </c>
       <c r="P10">
-        <v>0.01222329993604291</v>
+        <v>0.01318095582136823</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1936</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.2030232003565571</v>
+        <v>0.5852457944627119</v>
       </c>
       <c r="E11">
-        <v>0.3285646676894518</v>
+        <v>0.3728658599446749</v>
       </c>
       <c r="F11">
-        <v>0.0008331107491552507</v>
+        <v>0.003262526766299826</v>
       </c>
       <c r="G11">
-        <v>2.528253630151742</v>
+        <v>9.697206641245689</v>
       </c>
       <c r="H11">
-        <v>0.1589952972196053</v>
+        <v>0.5203678011273609</v>
       </c>
       <c r="I11">
-        <v>1.409351417416148E-36</v>
+        <v>3.621184932883277E-47</v>
       </c>
       <c r="J11">
-        <v>7.179999828338623</v>
+        <v>11.90999984741211</v>
       </c>
       <c r="K11">
-        <v>31.67000007629395</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="L11">
-        <v>0.6787252857214146</v>
+        <v>0.5629384875573571</v>
       </c>
       <c r="M11">
-        <v>-0.7112460778032865</v>
+        <v>-0.6635250714415069</v>
       </c>
       <c r="N11">
-        <v>0.2921881804571679</v>
+        <v>0.254816410492451</v>
       </c>
       <c r="O11">
-        <v>-0.3836348768883955</v>
+        <v>-0.4931192604435748</v>
       </c>
       <c r="P11">
-        <v>0.01232528877915887</v>
+        <v>0.01361900404943264</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,37 +73,49 @@
     <t>ITSA4</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>ASAI3</t>
   </si>
   <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>DXCO3</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
     <t>SMTO3</t>
   </si>
   <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
     <t>SBSP3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
   </si>
 </sst>
 </file>
@@ -531,273 +543,273 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4085501496262708</v>
+        <v>0.4045273283368474</v>
       </c>
       <c r="E2">
-        <v>0.3246095876521456</v>
+        <v>0.3212969367698637</v>
       </c>
       <c r="F2">
-        <v>2.630954063843792E-05</v>
+        <v>6.407514838109852E-05</v>
       </c>
       <c r="G2">
-        <v>0.4499290862119382</v>
+        <v>0.4525893982165434</v>
       </c>
       <c r="H2">
-        <v>0.2918033232530298</v>
+        <v>0.2916768506093099</v>
       </c>
       <c r="I2">
-        <v>1.546568786661623E-148</v>
+        <v>3.28111972598731E-148</v>
       </c>
       <c r="J2">
-        <v>9.550000190734863</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="K2">
-        <v>31.69000053405762</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="L2">
-        <v>0.1365164202323381</v>
+        <v>0.1381915936772486</v>
       </c>
       <c r="M2">
-        <v>-0.1772604158536826</v>
+        <v>-0.1756100791843558</v>
       </c>
       <c r="N2">
-        <v>0.0642382476047355</v>
+        <v>0.0656162312385721</v>
       </c>
       <c r="O2">
-        <v>-0.147176365205377</v>
+        <v>-0.1674957726778548</v>
       </c>
       <c r="P2">
-        <v>0.008459919545449919</v>
+        <v>0.008962833209675196</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>207</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2965939811775724</v>
+        <v>0.50100442168457</v>
       </c>
       <c r="E3">
-        <v>0.3246095876521456</v>
+        <v>0.5257893653467934</v>
       </c>
       <c r="F3">
-        <v>0.0004903533599213495</v>
+        <v>0.0001449192718590473</v>
       </c>
       <c r="G3">
-        <v>2.412051730697821</v>
+        <v>-2.57290722730278</v>
       </c>
       <c r="H3">
-        <v>0.3516555680825769</v>
+        <v>3.903540892958306</v>
       </c>
       <c r="I3">
-        <v>3.369099327843474E-54</v>
+        <v>3.715770056752528E-73</v>
       </c>
       <c r="J3">
-        <v>12.84000015258789</v>
+        <v>32.52999877929688</v>
       </c>
       <c r="K3">
-        <v>31.69000053405762</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="L3">
-        <v>1.029221829202793</v>
+        <v>1.803384436486638</v>
       </c>
       <c r="M3">
-        <v>-1.235860751845616</v>
+        <v>-1.771586163389301</v>
       </c>
       <c r="N3">
-        <v>0.436556361467857</v>
+        <v>0.7621453311915828</v>
       </c>
       <c r="O3">
-        <v>-0.7160167184511277</v>
+        <v>-0.9658109508854906</v>
       </c>
       <c r="P3">
-        <v>0.01107491082562896</v>
+        <v>0.009991725229280725</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.2965939811775724</v>
+        <v>0.281211848052616</v>
       </c>
       <c r="E4">
-        <v>0.4085501496262708</v>
+        <v>0.3136960558370248</v>
       </c>
       <c r="F4">
-        <v>0.000617306940742569</v>
+        <v>0.001069736468028892</v>
       </c>
       <c r="G4">
-        <v>1.850774313235851</v>
+        <v>3.285343755100446</v>
       </c>
       <c r="H4">
-        <v>1.207124165831929</v>
+        <v>0.4511726475906288</v>
       </c>
       <c r="I4">
-        <v>1.219769892359289E-55</v>
+        <v>9.807514427267512E-43</v>
       </c>
       <c r="J4">
-        <v>12.84000015258789</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="K4">
-        <v>9.550000190734863</v>
+        <v>23.53355598449707</v>
       </c>
       <c r="L4">
-        <v>1.061086247508969</v>
+        <v>1.425847357327651</v>
       </c>
       <c r="M4">
-        <v>-1.247717652422908</v>
+        <v>-1.151008565331203</v>
       </c>
       <c r="N4">
-        <v>0.4257326744599921</v>
+        <v>0.533908328217499</v>
       </c>
       <c r="O4">
-        <v>-0.5388101745835421</v>
+        <v>-0.7230402106724938</v>
       </c>
       <c r="P4">
-        <v>0.01142024689360634</v>
+        <v>0.01220686270057456</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1936</v>
+        <v>3291</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.202302620805943</v>
+        <v>0.308575123268502</v>
       </c>
       <c r="E5">
-        <v>0.3246095876521456</v>
+        <v>0.5269225325885933</v>
       </c>
       <c r="F5">
-        <v>0.0009258277268643149</v>
+        <v>0.0005168737885430507</v>
       </c>
       <c r="G5">
-        <v>2.534243826644662</v>
+        <v>11.42755311229065</v>
       </c>
       <c r="H5">
-        <v>0.1587033554830244</v>
+        <v>0.5729821186166776</v>
       </c>
       <c r="I5">
-        <v>1.719685913040643E-36</v>
+        <v>1.488972288646897E-56</v>
       </c>
       <c r="J5">
-        <v>7.159999847412109</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="K5">
-        <v>31.69000053405762</v>
+        <v>27.76000022888184</v>
       </c>
       <c r="L5">
-        <v>0.6819203185960667</v>
+        <v>1.778126698838822</v>
       </c>
       <c r="M5">
-        <v>-0.7091145382419866</v>
+        <v>-1.721582874448146</v>
       </c>
       <c r="N5">
-        <v>0.2931926863932116</v>
+        <v>0.6346249958888066</v>
       </c>
       <c r="O5">
-        <v>-0.4035533992463316</v>
+        <v>-0.8035361695893144</v>
       </c>
       <c r="P5">
-        <v>0.01252133595203592</v>
+        <v>0.01263090202310339</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1960</v>
+        <v>1936</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6">
-        <v>0.202302620805943</v>
+        <v>0.1977129427160579</v>
       </c>
       <c r="E6">
-        <v>0.2759904295162463</v>
+        <v>0.3212969367698637</v>
       </c>
       <c r="F6">
-        <v>0.001190916299769154</v>
+        <v>0.0009119103902698661</v>
       </c>
       <c r="G6">
-        <v>10.71236154185521</v>
+        <v>2.540227110254189</v>
       </c>
       <c r="H6">
-        <v>-0.1066493294929423</v>
+        <v>0.1584188705975306</v>
       </c>
       <c r="I6">
-        <v>5.540164627686604E-26</v>
+        <v>1.914766153224472E-36</v>
       </c>
       <c r="J6">
-        <v>7.159999847412109</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="K6">
-        <v>28.11000061035156</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="L6">
-        <v>0.658737483955333</v>
+        <v>0.6848873573444756</v>
       </c>
       <c r="M6">
-        <v>-0.8087457496901997</v>
+        <v>-0.7071832311130457</v>
       </c>
       <c r="N6">
-        <v>0.3519059436754817</v>
+        <v>0.2939145022763985</v>
       </c>
       <c r="O6">
-        <v>-0.55444897730291</v>
+        <v>-0.3768577445749735</v>
       </c>
       <c r="P6">
-        <v>0.01253479639482594</v>
+        <v>0.01264108749040507</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
         <v>26</v>
@@ -808,52 +820,52 @@
         <v>1935</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0.202302620805943</v>
+        <v>0.1977129427160579</v>
       </c>
       <c r="E7">
-        <v>0.4085501496262708</v>
+        <v>0.4045273283368474</v>
       </c>
       <c r="F7">
-        <v>0.0009536884286097157</v>
+        <v>0.0008875345598653951</v>
       </c>
       <c r="G7">
-        <v>2.213205537093687</v>
+        <v>2.213074888579798</v>
       </c>
       <c r="H7">
-        <v>0.5519301517462136</v>
+        <v>0.5517182458344456</v>
       </c>
       <c r="I7">
-        <v>4.846010226914096E-39</v>
+        <v>3.81239822219963E-39</v>
       </c>
       <c r="J7">
-        <v>7.159999847412109</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="K7">
-        <v>9.550000190734863</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="L7">
-        <v>0.6500122568188207</v>
+        <v>0.6518431810917864</v>
       </c>
       <c r="M7">
-        <v>-0.649525887378287</v>
+        <v>-0.6475992232942733</v>
       </c>
       <c r="N7">
-        <v>0.2804733175644274</v>
+        <v>0.2805263423360552</v>
       </c>
       <c r="O7">
-        <v>-0.3241387441302397</v>
+        <v>-0.2864668755735691</v>
       </c>
       <c r="P7">
-        <v>0.01261858888270629</v>
+        <v>0.01267090475445574</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
         <v>18</v>
@@ -861,226 +873,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>463</v>
+        <v>1960</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3324097567496261</v>
+        <v>0.1977129427160579</v>
       </c>
       <c r="E8">
-        <v>0.7098588342495875</v>
+        <v>0.2846425706083178</v>
       </c>
       <c r="F8">
-        <v>0.00113239093394007</v>
+        <v>0.001353992208826816</v>
       </c>
       <c r="G8">
-        <v>9.412702939337345</v>
+        <v>10.68273938032189</v>
       </c>
       <c r="H8">
-        <v>0.2358456647554423</v>
+        <v>-0.1058184492244039</v>
       </c>
       <c r="I8">
-        <v>1.939261154605162E-76</v>
+        <v>1.122686867790442E-25</v>
       </c>
       <c r="J8">
-        <v>27.96999931335449</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="K8">
-        <v>81.44000244140625</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="L8">
-        <v>1.210670986995652</v>
+        <v>0.6643555150377152</v>
       </c>
       <c r="M8">
-        <v>-1.248592785085684</v>
+        <v>-0.807664324113345</v>
       </c>
       <c r="N8">
-        <v>0.5342641138123488</v>
+        <v>0.3538673911735023</v>
       </c>
       <c r="O8">
-        <v>-0.6499751394611515</v>
+        <v>-0.5541609396998881</v>
       </c>
       <c r="P8">
-        <v>0.0128528856434524</v>
+        <v>0.01280776912944433</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2602</v>
+        <v>2883</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3323948539063314</v>
+        <v>0.1330227437528765</v>
       </c>
       <c r="E9">
-        <v>0.5004218750274777</v>
+        <v>0.291206968510312</v>
       </c>
       <c r="F9">
-        <v>0.002695767582338564</v>
+        <v>0.0005231903738626397</v>
       </c>
       <c r="G9">
-        <v>7.063396434534976</v>
+        <v>9.289910537121388</v>
       </c>
       <c r="H9">
-        <v>0.9684204998878205</v>
+        <v>-0.09324164087592157</v>
       </c>
       <c r="I9">
-        <v>3.846393143839695E-28</v>
+        <v>6.37206210368385E-20</v>
       </c>
       <c r="J9">
-        <v>28.29999923706055</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="K9">
-        <v>24.85084915161133</v>
+        <v>39.84999847412109</v>
       </c>
       <c r="L9">
-        <v>2.25126507406604</v>
+        <v>0.6647237562813757</v>
       </c>
       <c r="M9">
-        <v>-3.005930572446971</v>
+        <v>-0.7577980777956785</v>
       </c>
       <c r="N9">
-        <v>1.03095870688957</v>
+        <v>0.2789021301460334</v>
       </c>
       <c r="O9">
-        <v>-2.829468955514692</v>
+        <v>-0.7042314049322846</v>
       </c>
       <c r="P9">
-        <v>0.01303242991684568</v>
+        <v>0.01284584273330717</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>337</v>
+        <v>2845</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.7855198505523546</v>
+        <v>0.3632641453233783</v>
       </c>
       <c r="E10">
-        <v>0.3728658599446749</v>
+        <v>0.4903167566350174</v>
       </c>
       <c r="F10">
-        <v>0.002194943057054801</v>
+        <v>0.001873243939470783</v>
       </c>
       <c r="G10">
-        <v>7.179842671839244</v>
+        <v>4.004342428787971</v>
       </c>
       <c r="H10">
-        <v>0.8963763012671814</v>
+        <v>1.248131172251025</v>
       </c>
       <c r="I10">
-        <v>1.619513582648026E-56</v>
+        <v>1.546236939062737E-57</v>
       </c>
       <c r="J10">
-        <v>11.23999977111816</v>
+        <v>15.40999984741211</v>
       </c>
       <c r="K10">
-        <v>5.199999809265137</v>
+        <v>9.720000267028809</v>
       </c>
       <c r="L10">
-        <v>1.061709165522153</v>
+        <v>1.524434701625545</v>
       </c>
       <c r="M10">
-        <v>-0.8067797392496274</v>
+        <v>-1.271366834294497</v>
       </c>
       <c r="N10">
-        <v>0.36024640819306</v>
+        <v>0.6258407217225302</v>
       </c>
       <c r="O10">
-        <v>-0.6009994963402114</v>
+        <v>-0.7261779089428053</v>
       </c>
       <c r="P10">
-        <v>0.01318095582136823</v>
+        <v>0.01294241299197659</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.5852457944627119</v>
+        <v>0.3234274054035082</v>
       </c>
       <c r="E11">
-        <v>0.3728658599446749</v>
+        <v>0.7584709578833029</v>
       </c>
       <c r="F11">
-        <v>0.003262526766299826</v>
+        <v>0.001966846686488675</v>
       </c>
       <c r="G11">
-        <v>9.697206641245689</v>
+        <v>9.488643102223797</v>
       </c>
       <c r="H11">
-        <v>0.5203678011273609</v>
+        <v>0.2347015202242715</v>
       </c>
       <c r="I11">
-        <v>3.621184932883277E-47</v>
+        <v>2.277522349745867E-76</v>
       </c>
       <c r="J11">
-        <v>11.90999984741211</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="K11">
-        <v>5.199999809265137</v>
+        <v>82.76999664306641</v>
       </c>
       <c r="L11">
-        <v>0.5629384875573571</v>
+        <v>1.222910042777361</v>
       </c>
       <c r="M11">
-        <v>-0.6635250714415069</v>
+        <v>-1.254921287172493</v>
       </c>
       <c r="N11">
-        <v>0.254816410492451</v>
+        <v>0.5391157576910046</v>
       </c>
       <c r="O11">
-        <v>-0.4931192604435748</v>
+        <v>-0.9848868381335549</v>
       </c>
       <c r="P11">
-        <v>0.01361900404943264</v>
+        <v>0.01337568419358608</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -76,22 +76,22 @@
     <t>BPAC11</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
   </si>
   <si>
     <t>ITUB4</t>
@@ -100,22 +100,25 @@
     <t>CPLE6</t>
   </si>
   <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
+    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -546,43 +549,43 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4045273283368474</v>
+        <v>0.3651935329313962</v>
       </c>
       <c r="E2">
-        <v>0.3212969367698637</v>
+        <v>0.3975998911617965</v>
       </c>
       <c r="F2">
-        <v>6.407514838109852E-05</v>
+        <v>9.593466664705655E-05</v>
       </c>
       <c r="G2">
-        <v>0.4525893982165434</v>
+        <v>0.4056650954132741</v>
       </c>
       <c r="H2">
-        <v>0.2916768506093099</v>
+        <v>0.2930940741063732</v>
       </c>
       <c r="I2">
-        <v>3.28111972598731E-148</v>
+        <v>1.075337877899816E-144</v>
       </c>
       <c r="J2">
-        <v>9.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="K2">
-        <v>31.72999954223633</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="L2">
-        <v>0.1381915936772486</v>
+        <v>0.1365334388872466</v>
       </c>
       <c r="M2">
-        <v>-0.1756100791843558</v>
+        <v>-0.1769899187520814</v>
       </c>
       <c r="N2">
-        <v>0.0656162312385721</v>
+        <v>0.06518052079078819</v>
       </c>
       <c r="O2">
-        <v>-0.1674957726778548</v>
+        <v>-0.1227831768851253</v>
       </c>
       <c r="P2">
-        <v>0.008962833209675196</v>
+        <v>0.009232173161797643</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -602,43 +605,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.50100442168457</v>
+        <v>0.4255691322245774</v>
       </c>
       <c r="E3">
-        <v>0.5257893653467934</v>
+        <v>0.2937987774307863</v>
       </c>
       <c r="F3">
-        <v>0.0001449192718590473</v>
+        <v>0.0003359220448854628</v>
       </c>
       <c r="G3">
-        <v>-2.57290722730278</v>
+        <v>-2.399065534003716</v>
       </c>
       <c r="H3">
-        <v>3.903540892958306</v>
+        <v>3.885538989512265</v>
       </c>
       <c r="I3">
-        <v>3.715770056752528E-73</v>
+        <v>4.225140258243895E-70</v>
       </c>
       <c r="J3">
-        <v>32.52999877929688</v>
+        <v>32.61999893188477</v>
       </c>
       <c r="K3">
-        <v>9.239999771118164</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="L3">
-        <v>1.803384436486638</v>
+        <v>1.805061301786473</v>
       </c>
       <c r="M3">
-        <v>-1.771586163389301</v>
+        <v>-1.79061338753386</v>
       </c>
       <c r="N3">
-        <v>0.7621453311915828</v>
+        <v>0.7680143372429793</v>
       </c>
       <c r="O3">
-        <v>-0.9658109508854906</v>
+        <v>-1.155305156907751</v>
       </c>
       <c r="P3">
-        <v>0.009991725229280725</v>
+        <v>0.0104431917330399</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -649,450 +652,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>240</v>
+        <v>1936</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.281211848052616</v>
+        <v>0.2032118072368512</v>
       </c>
       <c r="E4">
-        <v>0.3136960558370248</v>
+        <v>0.3975998911617965</v>
       </c>
       <c r="F4">
-        <v>0.001069736468028892</v>
+        <v>0.0004649373810962067</v>
       </c>
       <c r="G4">
-        <v>3.285343755100446</v>
+        <v>2.213889884350647</v>
       </c>
       <c r="H4">
-        <v>0.4511726475906288</v>
+        <v>0.1684031973144906</v>
       </c>
       <c r="I4">
-        <v>9.807514427267512E-43</v>
+        <v>7.895049870751708E-39</v>
       </c>
       <c r="J4">
-        <v>13.18000030517578</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K4">
-        <v>23.53355598449707</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="L4">
-        <v>1.425847357327651</v>
+        <v>0.6971036120901868</v>
       </c>
       <c r="M4">
-        <v>-1.151008565331203</v>
+        <v>-0.6586074360931757</v>
       </c>
       <c r="N4">
-        <v>0.533908328217499</v>
+        <v>0.2809645906446631</v>
       </c>
       <c r="O4">
-        <v>-0.7230402106724938</v>
+        <v>-0.3170105929944098</v>
       </c>
       <c r="P4">
-        <v>0.01220686270057456</v>
+        <v>0.0115654363374175</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>3291</v>
+        <v>1960</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.308575123268502</v>
+        <v>0.2032118072368512</v>
       </c>
       <c r="E5">
-        <v>0.5269225325885933</v>
+        <v>0.3844385392293324</v>
       </c>
       <c r="F5">
-        <v>0.0005168737885430507</v>
+        <v>0.001129042008714211</v>
       </c>
       <c r="G5">
-        <v>11.42755311229065</v>
+        <v>10.88350889315115</v>
       </c>
       <c r="H5">
-        <v>0.5729821186166776</v>
+        <v>-0.1129707560519444</v>
       </c>
       <c r="I5">
-        <v>1.488972288646897E-56</v>
+        <v>8.536382801485542E-27</v>
       </c>
       <c r="J5">
-        <v>26.53000068664551</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K5">
-        <v>27.76000022888184</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="L5">
-        <v>1.778126698838822</v>
+        <v>0.6702161420906769</v>
       </c>
       <c r="M5">
-        <v>-1.721582874448146</v>
+        <v>-0.762752108330143</v>
       </c>
       <c r="N5">
-        <v>0.6346249958888066</v>
+        <v>0.3468646643398478</v>
       </c>
       <c r="O5">
-        <v>-0.8035361695893144</v>
+        <v>-0.5125871523846772</v>
       </c>
       <c r="P5">
-        <v>0.01263090202310339</v>
+        <v>0.01217030021614018</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1936</v>
+        <v>3007</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.1977129427160579</v>
+        <v>0.4006062578329707</v>
       </c>
       <c r="E6">
-        <v>0.3212969367698637</v>
+        <v>0.2564624340815372</v>
       </c>
       <c r="F6">
-        <v>0.0009119103902698661</v>
+        <v>0.009782082343264123</v>
       </c>
       <c r="G6">
-        <v>2.540227110254189</v>
+        <v>7.781782745051752</v>
       </c>
       <c r="H6">
-        <v>0.1584188705975306</v>
+        <v>0.7204981992012613</v>
       </c>
       <c r="I6">
-        <v>1.914766153224472E-36</v>
+        <v>2.693086966408814E-47</v>
       </c>
       <c r="J6">
-        <v>7.190000057220459</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="K6">
-        <v>31.72999954223633</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="L6">
-        <v>0.6848873573444756</v>
+        <v>1.098445252214418</v>
       </c>
       <c r="M6">
-        <v>-0.7071832311130457</v>
+        <v>-1.747207115631859</v>
       </c>
       <c r="N6">
-        <v>0.2939145022763985</v>
+        <v>0.6133067921993395</v>
       </c>
       <c r="O6">
-        <v>-0.3768577445749735</v>
+        <v>-1.317964341513036</v>
       </c>
       <c r="P6">
-        <v>0.01264108749040507</v>
+        <v>0.01350975874095407</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1935</v>
+        <v>1964</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.1977129427160579</v>
+        <v>0.2032118072368512</v>
       </c>
       <c r="E7">
-        <v>0.4045273283368474</v>
+        <v>0.2438734789174478</v>
       </c>
       <c r="F7">
-        <v>0.0008875345598653951</v>
+        <v>0.002112901599570275</v>
       </c>
       <c r="G7">
-        <v>2.213074888579798</v>
+        <v>0.9586035273898775</v>
       </c>
       <c r="H7">
-        <v>0.5517182458344456</v>
+        <v>0.3872989341884991</v>
       </c>
       <c r="I7">
-        <v>3.81239822219963E-39</v>
+        <v>2.170861998221858E-28</v>
       </c>
       <c r="J7">
-        <v>7.190000057220459</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K7">
-        <v>9.539999961853027</v>
+        <v>17.29000091552734</v>
       </c>
       <c r="L7">
-        <v>0.6518431810917864</v>
+        <v>0.6635865163668591</v>
       </c>
       <c r="M7">
-        <v>-0.6475992232942733</v>
+        <v>-1.072791458674173</v>
       </c>
       <c r="N7">
-        <v>0.2805263423360552</v>
+        <v>0.3373247844219265</v>
       </c>
       <c r="O7">
-        <v>-0.2864668755735691</v>
+        <v>-0.4450024159448196</v>
       </c>
       <c r="P7">
-        <v>0.01267090475445574</v>
+        <v>0.01364695706286429</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1960</v>
+        <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.1977129427160579</v>
+        <v>0.4732060033983942</v>
       </c>
       <c r="E8">
-        <v>0.2846425706083178</v>
+        <v>0.5949712406358471</v>
       </c>
       <c r="F8">
-        <v>0.001353992208826816</v>
+        <v>0.003881644162921469</v>
       </c>
       <c r="G8">
-        <v>10.68273938032189</v>
+        <v>19.36460022294624</v>
       </c>
       <c r="H8">
-        <v>-0.1058184492244039</v>
+        <v>0.3401304238622281</v>
       </c>
       <c r="I8">
-        <v>1.122686867790442E-25</v>
+        <v>2.822753663653434E-41</v>
       </c>
       <c r="J8">
-        <v>7.190000057220459</v>
+        <v>39.90000152587891</v>
       </c>
       <c r="K8">
-        <v>27.77000045776367</v>
+        <v>63.36000061035156</v>
       </c>
       <c r="L8">
-        <v>0.6643555150377152</v>
+        <v>2.18024171879452</v>
       </c>
       <c r="M8">
-        <v>-0.807664324113345</v>
+        <v>-2.464504903305169</v>
       </c>
       <c r="N8">
-        <v>0.3538673911735023</v>
+        <v>0.7993072086827502</v>
       </c>
       <c r="O8">
-        <v>-0.5541609396998881</v>
+        <v>-1.015262560577249</v>
       </c>
       <c r="P8">
-        <v>0.01280776912944433</v>
+        <v>0.01388372837266988</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2883</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.1330227437528765</v>
+        <v>0.549790412273516</v>
       </c>
       <c r="E9">
-        <v>0.291206968510312</v>
+        <v>0.4155826445824057</v>
       </c>
       <c r="F9">
-        <v>0.0005231903738626397</v>
+        <v>0.004234300975158897</v>
       </c>
       <c r="G9">
-        <v>9.289910537121388</v>
+        <v>9.53334945563131</v>
       </c>
       <c r="H9">
-        <v>-0.09324164087592157</v>
+        <v>0.5444118349356752</v>
       </c>
       <c r="I9">
-        <v>6.37206210368385E-20</v>
+        <v>3.575388293306365E-48</v>
       </c>
       <c r="J9">
-        <v>4.869999885559082</v>
+        <v>11.94999980926514</v>
       </c>
       <c r="K9">
-        <v>39.84999847412109</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="L9">
-        <v>0.6647237562813757</v>
+        <v>0.5985910427695238</v>
       </c>
       <c r="M9">
-        <v>-0.7577980777956785</v>
+        <v>-0.6662705300220928</v>
       </c>
       <c r="N9">
-        <v>0.2789021301460334</v>
+        <v>0.2532039734393677</v>
       </c>
       <c r="O9">
-        <v>-0.7042314049322846</v>
+        <v>-0.4687324753635687</v>
       </c>
       <c r="P9">
-        <v>0.01284584273330717</v>
+        <v>0.0139108049422824</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2845</v>
+        <v>3390</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.3632641453233783</v>
+        <v>0.6421663610092193</v>
       </c>
       <c r="E10">
-        <v>0.4903167566350174</v>
+        <v>0.2682144847645093</v>
       </c>
       <c r="F10">
-        <v>0.001873243939470783</v>
+        <v>0.0005683609050682006</v>
       </c>
       <c r="G10">
-        <v>4.004342428787971</v>
+        <v>-6.581855668621245</v>
       </c>
       <c r="H10">
-        <v>1.248131172251025</v>
+        <v>0.6895917845195686</v>
       </c>
       <c r="I10">
-        <v>1.546236939062737E-57</v>
+        <v>4.234908171878665E-64</v>
       </c>
       <c r="J10">
-        <v>15.40999984741211</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="K10">
-        <v>9.720000267028809</v>
+        <v>23.29999923706055</v>
       </c>
       <c r="L10">
-        <v>1.524434701625545</v>
+        <v>1.354451121441759</v>
       </c>
       <c r="M10">
-        <v>-1.271366834294497</v>
+        <v>-1.142335335097693</v>
       </c>
       <c r="N10">
-        <v>0.6258407217225302</v>
+        <v>0.4929322572849558</v>
       </c>
       <c r="O10">
-        <v>-0.7261779089428053</v>
+        <v>0.8443675391381298</v>
       </c>
       <c r="P10">
-        <v>0.01294241299197659</v>
+        <v>0.01405160347175344</v>
       </c>
       <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
         <v>24</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>463</v>
+        <v>2936</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.3234274054035082</v>
+        <v>0.2750103915076014</v>
       </c>
       <c r="E11">
-        <v>0.7584709578833029</v>
+        <v>0.1458343551096158</v>
       </c>
       <c r="F11">
-        <v>0.001966846686488675</v>
+        <v>0.004007243351001961</v>
       </c>
       <c r="G11">
-        <v>9.488643102223797</v>
+        <v>-1.528934757338867</v>
       </c>
       <c r="H11">
-        <v>0.2347015202242715</v>
+        <v>0.06832100949776267</v>
       </c>
       <c r="I11">
-        <v>2.277522349745867E-76</v>
+        <v>1.162593918042789E-29</v>
       </c>
       <c r="J11">
-        <v>27.93000030517578</v>
+        <v>1.539999961853027</v>
       </c>
       <c r="K11">
-        <v>82.76999664306641</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="L11">
-        <v>1.222910042777361</v>
+        <v>0.3442721366497459</v>
       </c>
       <c r="M11">
-        <v>-1.254921287172493</v>
+        <v>-0.3752131857433203</v>
       </c>
       <c r="N11">
-        <v>0.5391157576910046</v>
+        <v>0.144994444290411</v>
       </c>
       <c r="O11">
-        <v>-0.9848868381335549</v>
+        <v>-0.2589815908943729</v>
       </c>
       <c r="P11">
-        <v>0.01337568419358608</v>
+        <v>0.01443156230076269</v>
       </c>
       <c r="Q11" t="s">
         <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -79,46 +79,31 @@
     <t>DXCO3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>RDOR3</t>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
   </si>
   <si>
     <t>TIMS3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -546,52 +531,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.3651935329313962</v>
+        <v>0.3901253061809543</v>
       </c>
       <c r="E2">
-        <v>0.3975998911617965</v>
+        <v>0.4315680740911158</v>
       </c>
       <c r="F2">
-        <v>9.593466664705655E-05</v>
+        <v>0.0001208700831741812</v>
       </c>
       <c r="G2">
-        <v>0.4056650954132741</v>
+        <v>0.4154159841198889</v>
       </c>
       <c r="H2">
-        <v>0.2930940741063732</v>
+        <v>0.2927630062628971</v>
       </c>
       <c r="I2">
-        <v>1.075337877899816E-144</v>
+        <v>2.463785886440919E-143</v>
       </c>
       <c r="J2">
-        <v>9.529999732971191</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="K2">
-        <v>31.54999923706055</v>
+        <v>31.53000068664551</v>
       </c>
       <c r="L2">
-        <v>0.1365334388872466</v>
+        <v>0.1381315642913226</v>
       </c>
       <c r="M2">
-        <v>-0.1769899187520814</v>
+        <v>-0.1754568086547916</v>
       </c>
       <c r="N2">
-        <v>0.06518052079078819</v>
+        <v>0.06592315925920615</v>
       </c>
       <c r="O2">
-        <v>-0.1227831768851253</v>
+        <v>-0.1262333148497667</v>
       </c>
       <c r="P2">
-        <v>0.009232173161797643</v>
+        <v>0.009428735502898036</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -602,500 +587,500 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.4255691322245774</v>
+        <v>0.3113522413180039</v>
       </c>
       <c r="E3">
-        <v>0.2937987774307863</v>
+        <v>0.2485276323746358</v>
       </c>
       <c r="F3">
-        <v>0.0003359220448854628</v>
+        <v>0.0003273776969776054</v>
       </c>
       <c r="G3">
-        <v>-2.399065534003716</v>
+        <v>-2.546858025691477</v>
       </c>
       <c r="H3">
-        <v>3.885538989512265</v>
+        <v>3.918574569208808</v>
       </c>
       <c r="I3">
-        <v>4.225140258243895E-70</v>
+        <v>3.749774321862293E-69</v>
       </c>
       <c r="J3">
-        <v>32.61999893188477</v>
+        <v>33.31999969482422</v>
       </c>
       <c r="K3">
-        <v>9.310000419616699</v>
+        <v>9.434304237365723</v>
       </c>
       <c r="L3">
-        <v>1.805061301786473</v>
+        <v>1.814918415986824</v>
       </c>
       <c r="M3">
-        <v>-1.79061338753386</v>
+        <v>-1.764486898263677</v>
       </c>
       <c r="N3">
-        <v>0.7680143372429793</v>
+        <v>0.7730186927305657</v>
       </c>
       <c r="O3">
-        <v>-1.155305156907751</v>
+        <v>-1.102166942204519</v>
       </c>
       <c r="P3">
-        <v>0.0104431917330399</v>
+        <v>0.01049941224348937</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.2032118072368512</v>
+        <v>0.1847074293140768</v>
       </c>
       <c r="E4">
-        <v>0.3975998911617965</v>
+        <v>0.3901253061809543</v>
       </c>
       <c r="F4">
-        <v>0.0004649373810962067</v>
+        <v>0.0008237308505868122</v>
       </c>
       <c r="G4">
-        <v>2.213889884350647</v>
+        <v>1.804301692575352</v>
       </c>
       <c r="H4">
-        <v>0.1684031973144906</v>
+        <v>0.5924379103428052</v>
       </c>
       <c r="I4">
-        <v>7.895049870751708E-39</v>
+        <v>2.396534543731553E-42</v>
       </c>
       <c r="J4">
-        <v>7.210000038146973</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="K4">
-        <v>31.54999923706055</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="L4">
-        <v>0.6971036120901868</v>
+        <v>0.640230470073158</v>
       </c>
       <c r="M4">
-        <v>-0.6586074360931757</v>
+        <v>-0.5838451816105295</v>
       </c>
       <c r="N4">
-        <v>0.2809645906446631</v>
+        <v>0.2641907174013462</v>
       </c>
       <c r="O4">
-        <v>-0.3170105929944098</v>
+        <v>-0.2743107939414662</v>
       </c>
       <c r="P4">
-        <v>0.0115654363374175</v>
+        <v>0.01191304427092403</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1960</v>
+        <v>1936</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.2032118072368512</v>
+        <v>0.1847074293140768</v>
       </c>
       <c r="E5">
-        <v>0.3844385392293324</v>
+        <v>0.4315680740911158</v>
       </c>
       <c r="F5">
-        <v>0.001129042008714211</v>
+        <v>0.001103951782071201</v>
       </c>
       <c r="G5">
-        <v>10.88350889315115</v>
+        <v>2.127545729891737</v>
       </c>
       <c r="H5">
-        <v>-0.1129707560519444</v>
+        <v>0.1709626989692682</v>
       </c>
       <c r="I5">
-        <v>8.536382801485542E-27</v>
+        <v>2.389535612518236E-39</v>
       </c>
       <c r="J5">
-        <v>7.210000038146973</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="K5">
-        <v>27.97999954223633</v>
+        <v>31.53000068664551</v>
       </c>
       <c r="L5">
-        <v>0.6702161420906769</v>
+        <v>0.7029207053476876</v>
       </c>
       <c r="M5">
-        <v>-0.762752108330143</v>
+        <v>-0.6434682155771165</v>
       </c>
       <c r="N5">
-        <v>0.3468646643398478</v>
+        <v>0.2784521108880677</v>
       </c>
       <c r="O5">
-        <v>-0.5125871523846772</v>
+        <v>-0.3479996694895879</v>
       </c>
       <c r="P5">
-        <v>0.01217030021614018</v>
+        <v>0.01209874382703006</v>
       </c>
       <c r="Q5" t="s">
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>3007</v>
+        <v>1960</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.4006062578329707</v>
+        <v>0.1847074293140768</v>
       </c>
       <c r="E6">
-        <v>0.2564624340815372</v>
+        <v>0.2471513260039672</v>
       </c>
       <c r="F6">
-        <v>0.009782082343264123</v>
+        <v>0.001584587175038365</v>
       </c>
       <c r="G6">
-        <v>7.781782745051752</v>
+        <v>10.91580861644643</v>
       </c>
       <c r="H6">
-        <v>0.7204981992012613</v>
+        <v>-0.1142737295485184</v>
       </c>
       <c r="I6">
-        <v>2.693086966408814E-47</v>
+        <v>8.377613323295227E-27</v>
       </c>
       <c r="J6">
-        <v>24.07999992370605</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="K6">
-        <v>24.45000076293945</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="L6">
-        <v>1.098445252214418</v>
+        <v>0.6755593223161487</v>
       </c>
       <c r="M6">
-        <v>-1.747207115631859</v>
+        <v>-0.7502946940062856</v>
       </c>
       <c r="N6">
-        <v>0.6133067921993395</v>
+        <v>0.3468552735638887</v>
       </c>
       <c r="O6">
-        <v>-1.317964341513036</v>
+        <v>-0.4855789576677076</v>
       </c>
       <c r="P6">
-        <v>0.01350975874095407</v>
+        <v>0.01244425113266162</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1964</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.2032118072368512</v>
+        <v>0.6243640635350678</v>
       </c>
       <c r="E7">
-        <v>0.2438734789174478</v>
+        <v>0.4544857356688146</v>
       </c>
       <c r="F7">
-        <v>0.002112901599570275</v>
+        <v>0.001273420684014962</v>
       </c>
       <c r="G7">
-        <v>0.9586035273898775</v>
+        <v>9.482566431541258</v>
       </c>
       <c r="H7">
-        <v>0.3872989341884991</v>
+        <v>0.5518413806395256</v>
       </c>
       <c r="I7">
-        <v>2.170861998221858E-28</v>
+        <v>3.287090320764175E-48</v>
       </c>
       <c r="J7">
-        <v>7.210000038146973</v>
+        <v>11.94999980926514</v>
       </c>
       <c r="K7">
-        <v>17.29000091552734</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="L7">
-        <v>0.6635865163668591</v>
+        <v>0.6158041829338305</v>
       </c>
       <c r="M7">
-        <v>-1.072791458674173</v>
+        <v>-0.6669673020967259</v>
       </c>
       <c r="N7">
-        <v>0.3373247844219265</v>
+        <v>0.254370826155272</v>
       </c>
       <c r="O7">
-        <v>-0.4450024159448196</v>
+        <v>-0.4021416963462641</v>
       </c>
       <c r="P7">
-        <v>0.01364695706286429</v>
+        <v>0.01311882885037856</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2021</v>
+        <v>3291</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.4732060033983942</v>
+        <v>0.4278733713018164</v>
       </c>
       <c r="E8">
-        <v>0.5949712406358471</v>
+        <v>0.3703931958276133</v>
       </c>
       <c r="F8">
-        <v>0.003881644162921469</v>
+        <v>0.002763013579155771</v>
       </c>
       <c r="G8">
-        <v>19.36460022294624</v>
+        <v>11.91581198877655</v>
       </c>
       <c r="H8">
-        <v>0.3401304238622281</v>
+        <v>0.544002571892827</v>
       </c>
       <c r="I8">
-        <v>2.822753663653434E-41</v>
+        <v>7.108599774435542E-56</v>
       </c>
       <c r="J8">
-        <v>39.90000152587891</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="K8">
-        <v>63.36000061035156</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="L8">
-        <v>2.18024171879452</v>
+        <v>1.757365290208753</v>
       </c>
       <c r="M8">
-        <v>-2.464504903305169</v>
+        <v>-1.203491001976314</v>
       </c>
       <c r="N8">
-        <v>0.7993072086827502</v>
+        <v>0.5875114940680971</v>
       </c>
       <c r="O8">
-        <v>-1.015262560577249</v>
+        <v>-0.8320467216669538</v>
       </c>
       <c r="P8">
-        <v>0.01388372837266988</v>
+        <v>0.01320665241318796</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>19</v>
+        <v>1621</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.549790412273516</v>
+        <v>0.2485276323746358</v>
       </c>
       <c r="E9">
-        <v>0.4155826445824057</v>
+        <v>0.2471513260039672</v>
       </c>
       <c r="F9">
-        <v>0.004234300975158897</v>
+        <v>0.001267445055007623</v>
       </c>
       <c r="G9">
-        <v>9.53334945563131</v>
+        <v>14.24988407251246</v>
       </c>
       <c r="H9">
-        <v>0.5444118349356752</v>
+        <v>-0.1538094936064657</v>
       </c>
       <c r="I9">
-        <v>3.575388293306365E-48</v>
+        <v>1.857687772430767E-50</v>
       </c>
       <c r="J9">
-        <v>11.94999980926514</v>
+        <v>9.434304237365723</v>
       </c>
       <c r="K9">
-        <v>5.300000190734863</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="L9">
-        <v>0.5985910427695238</v>
+        <v>0.5683345113971807</v>
       </c>
       <c r="M9">
-        <v>-0.6662705300220928</v>
+        <v>-0.7831330914591526</v>
       </c>
       <c r="N9">
-        <v>0.2532039734393677</v>
+        <v>0.2607319506646103</v>
       </c>
       <c r="O9">
-        <v>-0.4687324753635687</v>
+        <v>-0.4273948769416753</v>
       </c>
       <c r="P9">
-        <v>0.0139108049422824</v>
+        <v>0.01392921280625038</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3390</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.6421663610092193</v>
+        <v>0.6632570958004318</v>
       </c>
       <c r="E10">
-        <v>0.2682144847645093</v>
+        <v>0.4544857356688146</v>
       </c>
       <c r="F10">
-        <v>0.0005683609050682006</v>
+        <v>0.003111960942922538</v>
       </c>
       <c r="G10">
-        <v>-6.581855668621245</v>
+        <v>6.935477239943507</v>
       </c>
       <c r="H10">
-        <v>0.6895917845195686</v>
+        <v>0.9319732401875486</v>
       </c>
       <c r="I10">
-        <v>4.234908171878665E-64</v>
+        <v>1.381260298365454E-55</v>
       </c>
       <c r="J10">
-        <v>10.32999992370605</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="K10">
-        <v>23.29999923706055</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="L10">
-        <v>1.354451121441759</v>
+        <v>1.05413570535892</v>
       </c>
       <c r="M10">
-        <v>-1.142335335097693</v>
+        <v>-0.8108295785449009</v>
       </c>
       <c r="N10">
-        <v>0.4929322572849558</v>
+        <v>0.3673594372530033</v>
       </c>
       <c r="O10">
-        <v>0.8443675391381298</v>
+        <v>-0.5117374533952992</v>
       </c>
       <c r="P10">
-        <v>0.01405160347175344</v>
+        <v>0.01399053670969852</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2936</v>
+        <v>1964</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.2750103915076014</v>
+        <v>0.1847074293140768</v>
       </c>
       <c r="E11">
-        <v>0.1458343551096158</v>
+        <v>0.2157597849391768</v>
       </c>
       <c r="F11">
-        <v>0.004007243351001961</v>
+        <v>0.003755509740896516</v>
       </c>
       <c r="G11">
-        <v>-1.528934757338867</v>
+        <v>0.8212096674098012</v>
       </c>
       <c r="H11">
-        <v>0.06832100949776267</v>
+        <v>0.3949863368661474</v>
       </c>
       <c r="I11">
-        <v>1.162593918042789E-29</v>
+        <v>1.057573335227557E-28</v>
       </c>
       <c r="J11">
-        <v>1.539999961853027</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="K11">
-        <v>48.70999908447266</v>
+        <v>17.34000015258789</v>
       </c>
       <c r="L11">
-        <v>0.3442721366497459</v>
+        <v>0.6678747250596651</v>
       </c>
       <c r="M11">
-        <v>-0.3752131857433203</v>
+        <v>-1.061524532670576</v>
       </c>
       <c r="N11">
-        <v>0.144994444290411</v>
+        <v>0.3355255414855801</v>
       </c>
       <c r="O11">
-        <v>-0.2589815908943729</v>
+        <v>-0.5002727326449836</v>
       </c>
       <c r="P11">
-        <v>0.01443156230076269</v>
+        <v>0.01410030750617159</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,27 +70,30 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
@@ -100,10 +103,16 @@
     <t>CMIN3</t>
   </si>
   <si>
-    <t>TOTS3</t>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>RADL3</t>
   </si>
 </sst>
 </file>
@@ -525,562 +534,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2701</v>
+        <v>858</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.3901253061809543</v>
+        <v>0.3578490380820435</v>
       </c>
       <c r="E2">
-        <v>0.4315680740911158</v>
+        <v>0.312507326333866</v>
       </c>
       <c r="F2">
-        <v>0.0001208700831741812</v>
+        <v>0.0003391943856813315</v>
       </c>
       <c r="G2">
-        <v>0.4154159841198889</v>
+        <v>-2.775789193958309</v>
       </c>
       <c r="H2">
-        <v>0.2927630062628971</v>
+        <v>3.941323655930164</v>
       </c>
       <c r="I2">
-        <v>2.463785886440919E-143</v>
+        <v>1.410747887558191E-68</v>
       </c>
       <c r="J2">
-        <v>9.520000457763672</v>
+        <v>32.75</v>
       </c>
       <c r="K2">
-        <v>31.53000068664551</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="L2">
-        <v>0.1381315642913226</v>
+        <v>1.823115129148626</v>
       </c>
       <c r="M2">
-        <v>-0.1754568086547916</v>
+        <v>-1.758825769453047</v>
       </c>
       <c r="N2">
-        <v>0.06592315925920615</v>
+        <v>0.7742902085576351</v>
       </c>
       <c r="O2">
-        <v>-0.1262333148497667</v>
+        <v>-0.813215966164762</v>
       </c>
       <c r="P2">
-        <v>0.009428735502898036</v>
+        <v>0.01058147826157628</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>858</v>
+        <v>1935</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.3113522413180039</v>
+        <v>0.1772947250910163</v>
       </c>
       <c r="E3">
-        <v>0.2485276323746358</v>
+        <v>0.3085742964922699</v>
       </c>
       <c r="F3">
-        <v>0.0003273776969776054</v>
+        <v>0.0006854160759059856</v>
       </c>
       <c r="G3">
-        <v>-2.546858025691477</v>
+        <v>1.745185248202524</v>
       </c>
       <c r="H3">
-        <v>3.918574569208808</v>
+        <v>0.598154773654795</v>
       </c>
       <c r="I3">
-        <v>3.749774321862293E-69</v>
+        <v>2.357553566296112E-42</v>
       </c>
       <c r="J3">
-        <v>33.31999969482422</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K3">
-        <v>9.434304237365723</v>
+        <v>9.590000152587891</v>
       </c>
       <c r="L3">
-        <v>1.814918415986824</v>
+        <v>0.6437199213584188</v>
       </c>
       <c r="M3">
-        <v>-1.764486898263677</v>
+        <v>-0.5731691365806828</v>
       </c>
       <c r="N3">
-        <v>0.7730186927305657</v>
+        <v>0.2635269134104192</v>
       </c>
       <c r="O3">
-        <v>-1.102166942204519</v>
+        <v>-0.2714895806762101</v>
       </c>
       <c r="P3">
-        <v>0.01049941224348937</v>
+        <v>0.01177622999799245</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.1847074293140768</v>
+        <v>0.1772947250910163</v>
       </c>
       <c r="E4">
-        <v>0.3901253061809543</v>
+        <v>0.375413671964284</v>
       </c>
       <c r="F4">
-        <v>0.0008237308505868122</v>
+        <v>0.001174243833724584</v>
       </c>
       <c r="G4">
-        <v>1.804301692575352</v>
+        <v>2.08932294623085</v>
       </c>
       <c r="H4">
-        <v>0.5924379103428052</v>
+        <v>0.1720261712839814</v>
       </c>
       <c r="I4">
-        <v>2.396534543731553E-42</v>
+        <v>4.813345093765096E-39</v>
       </c>
       <c r="J4">
-        <v>7.170000076293945</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K4">
-        <v>9.520000457763672</v>
+        <v>32</v>
       </c>
       <c r="L4">
-        <v>0.640230470073158</v>
+        <v>0.7076850485154882</v>
       </c>
       <c r="M4">
-        <v>-0.5838451816105295</v>
+        <v>-0.63483093118196</v>
       </c>
       <c r="N4">
-        <v>0.2641907174013462</v>
+        <v>0.2792720292658067</v>
       </c>
       <c r="O4">
-        <v>-0.2743107939414662</v>
+        <v>-0.3841603891712824</v>
       </c>
       <c r="P4">
-        <v>0.01191304427092403</v>
+        <v>0.01216437238412725</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1936</v>
+        <v>1960</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.1847074293140768</v>
+        <v>0.1772947250910163</v>
       </c>
       <c r="E5">
-        <v>0.4315680740911158</v>
+        <v>0.1417003126324695</v>
       </c>
       <c r="F5">
-        <v>0.001103951782071201</v>
+        <v>0.001486364750180275</v>
       </c>
       <c r="G5">
-        <v>2.127545729891737</v>
+        <v>10.92652333435699</v>
       </c>
       <c r="H5">
-        <v>0.1709626989692682</v>
+        <v>-0.1148145272487013</v>
       </c>
       <c r="I5">
-        <v>2.389535612518236E-39</v>
+        <v>2.069153899125817E-26</v>
       </c>
       <c r="J5">
-        <v>7.170000076293945</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K5">
-        <v>31.53000068664551</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="L5">
-        <v>0.7029207053476876</v>
+        <v>0.680468249633793</v>
       </c>
       <c r="M5">
-        <v>-0.6434682155771165</v>
+        <v>-0.7424330117407578</v>
       </c>
       <c r="N5">
-        <v>0.2784521108880677</v>
+        <v>0.3484107528277509</v>
       </c>
       <c r="O5">
-        <v>-0.3479996694895879</v>
+        <v>-0.4718647298827578</v>
       </c>
       <c r="P5">
-        <v>0.01209874382703006</v>
+        <v>0.01245208607067683</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1960</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.1847074293140768</v>
+        <v>0.66064971295803</v>
       </c>
       <c r="E6">
-        <v>0.2471513260039672</v>
+        <v>0.5723075914981173</v>
       </c>
       <c r="F6">
-        <v>0.001584587175038365</v>
+        <v>0.000894774026694766</v>
       </c>
       <c r="G6">
-        <v>10.91580861644643</v>
+        <v>9.397751688656506</v>
       </c>
       <c r="H6">
-        <v>-0.1142737295485184</v>
+        <v>0.5644459171569463</v>
       </c>
       <c r="I6">
-        <v>8.377613323295227E-27</v>
+        <v>1.691520169366265E-49</v>
       </c>
       <c r="J6">
-        <v>7.170000076293945</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="K6">
-        <v>28.53000068664551</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="L6">
-        <v>0.6755593223161487</v>
+        <v>0.6436662069452961</v>
       </c>
       <c r="M6">
-        <v>-0.7502946940062856</v>
+        <v>-0.6694901968727596</v>
       </c>
       <c r="N6">
-        <v>0.3468552735638887</v>
+        <v>0.2512027965410601</v>
       </c>
       <c r="O6">
-        <v>-0.4855789576677076</v>
+        <v>-0.3882040212813527</v>
       </c>
       <c r="P6">
-        <v>0.01244425113266162</v>
+        <v>0.01267470723565035</v>
       </c>
       <c r="Q6" t="s">
         <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.6243640635350678</v>
+        <v>0.66064971295803</v>
       </c>
       <c r="E7">
-        <v>0.4544857356688146</v>
+        <v>0.5256022712132438</v>
       </c>
       <c r="F7">
-        <v>0.001273420684014962</v>
+        <v>0.003754611175861161</v>
       </c>
       <c r="G7">
-        <v>9.482566431541258</v>
+        <v>5.169660949154069</v>
       </c>
       <c r="H7">
-        <v>0.5518413806395256</v>
+        <v>0.4813071308229105</v>
       </c>
       <c r="I7">
-        <v>3.287090320764175E-48</v>
+        <v>1.393097476671492E-51</v>
       </c>
       <c r="J7">
-        <v>11.94999980926514</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="K7">
-        <v>5.199999809265137</v>
+        <v>14.72000026702881</v>
       </c>
       <c r="L7">
-        <v>0.6158041829338305</v>
+        <v>0.6977507239749716</v>
       </c>
       <c r="M7">
-        <v>-0.6669673020967259</v>
+        <v>-0.6236323361067022</v>
       </c>
       <c r="N7">
-        <v>0.254370826155272</v>
+        <v>0.2421809894697607</v>
       </c>
       <c r="O7">
-        <v>-0.4021416963462641</v>
+        <v>-0.3945023867129356</v>
       </c>
       <c r="P7">
-        <v>0.01311882885037856</v>
+        <v>0.01356747355049008</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>3291</v>
+        <v>1964</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4278733713018164</v>
+        <v>0.1772947250910163</v>
       </c>
       <c r="E8">
-        <v>0.3703931958276133</v>
+        <v>0.202958250511585</v>
       </c>
       <c r="F8">
-        <v>0.002763013579155771</v>
+        <v>0.003046587470131319</v>
       </c>
       <c r="G8">
-        <v>11.91581198877655</v>
+        <v>0.7143345583738665</v>
       </c>
       <c r="H8">
-        <v>0.544002571892827</v>
+        <v>0.4009828172301029</v>
       </c>
       <c r="I8">
-        <v>7.108599774435542E-56</v>
+        <v>1.185041634300419E-28</v>
       </c>
       <c r="J8">
-        <v>26.79999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="K8">
-        <v>28.88999938964844</v>
+        <v>17.17000007629395</v>
       </c>
       <c r="L8">
-        <v>1.757365290208753</v>
+        <v>0.6709221230019224</v>
       </c>
       <c r="M8">
-        <v>-1.203491001976314</v>
+        <v>-1.053033457185392</v>
       </c>
       <c r="N8">
-        <v>0.5875114940680971</v>
+        <v>0.3350138366497565</v>
       </c>
       <c r="O8">
-        <v>-0.8320467216669538</v>
+        <v>-0.3892095226603214</v>
       </c>
       <c r="P8">
-        <v>0.01320665241318796</v>
+        <v>0.01388359329047554</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1621</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.2485276323746358</v>
+        <v>0.6985122828325665</v>
       </c>
       <c r="E9">
-        <v>0.2471513260039672</v>
+        <v>0.5723075914981173</v>
       </c>
       <c r="F9">
-        <v>0.001267445055007623</v>
+        <v>0.003264904254486034</v>
       </c>
       <c r="G9">
-        <v>14.24988407251246</v>
+        <v>6.844747243487757</v>
       </c>
       <c r="H9">
-        <v>-0.1538094936064657</v>
+        <v>0.9454108166795854</v>
       </c>
       <c r="I9">
-        <v>1.857687772430767E-50</v>
+        <v>5.492727842750117E-56</v>
       </c>
       <c r="J9">
-        <v>9.434304237365723</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="K9">
-        <v>28.53000068664551</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="L9">
-        <v>0.5683345113971807</v>
+        <v>1.049760666493096</v>
       </c>
       <c r="M9">
-        <v>-0.7831330914591526</v>
+        <v>-0.8138744770565758</v>
       </c>
       <c r="N9">
-        <v>0.2607319506646103</v>
+        <v>0.3669525049178201</v>
       </c>
       <c r="O9">
-        <v>-0.4273948769416753</v>
+        <v>-0.5290718954545754</v>
       </c>
       <c r="P9">
-        <v>0.01392921280625038</v>
+        <v>0.01398305092880175</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>337</v>
+        <v>2936</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.6632570958004318</v>
+        <v>0.3718732732554721</v>
       </c>
       <c r="E10">
-        <v>0.4544857356688146</v>
+        <v>0.1931563690404397</v>
       </c>
       <c r="F10">
-        <v>0.003111960942922538</v>
+        <v>0.004234413922410822</v>
       </c>
       <c r="G10">
-        <v>6.935477239943507</v>
+        <v>-1.756568275727337</v>
       </c>
       <c r="H10">
-        <v>0.9319732401875486</v>
+        <v>0.07272309090878369</v>
       </c>
       <c r="I10">
-        <v>1.381260298365454E-55</v>
+        <v>3.449970349912994E-30</v>
       </c>
       <c r="J10">
-        <v>11.27000045776367</v>
+        <v>1.440000057220459</v>
       </c>
       <c r="K10">
-        <v>5.199999809265137</v>
+        <v>48.2400016784668</v>
       </c>
       <c r="L10">
-        <v>1.05413570535892</v>
+        <v>0.3756473812680441</v>
       </c>
       <c r="M10">
-        <v>-0.8108295785449009</v>
+        <v>-0.3504205923754062</v>
       </c>
       <c r="N10">
-        <v>0.3673594372530033</v>
+        <v>0.1458280804252565</v>
       </c>
       <c r="O10">
-        <v>-0.5117374533952992</v>
+        <v>-0.3115936945552229</v>
       </c>
       <c r="P10">
-        <v>0.01399053670969852</v>
+        <v>0.01438907366787985</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1964</v>
+        <v>2602</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.1847074293140768</v>
+        <v>0.5856223876133012</v>
       </c>
       <c r="E11">
-        <v>0.2157597849391768</v>
+        <v>0.4605004887631132</v>
       </c>
       <c r="F11">
-        <v>0.003755509740896516</v>
+        <v>0.005961312007450065</v>
       </c>
       <c r="G11">
-        <v>0.8212096674098012</v>
+        <v>5.136591457707973</v>
       </c>
       <c r="H11">
-        <v>0.3949863368661474</v>
+        <v>1.030731865334896</v>
       </c>
       <c r="I11">
-        <v>1.057573335227557E-28</v>
+        <v>3.841125822255559E-29</v>
       </c>
       <c r="J11">
-        <v>7.170000076293945</v>
+        <v>28.99275970458984</v>
       </c>
       <c r="K11">
-        <v>17.34000015258789</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="L11">
-        <v>0.6678747250596651</v>
+        <v>1.958052085631408</v>
       </c>
       <c r="M11">
-        <v>-1.061524532670576</v>
+        <v>-3.113484452218639</v>
       </c>
       <c r="N11">
-        <v>0.3355255414855801</v>
+        <v>1.088285135400253</v>
       </c>
       <c r="O11">
-        <v>-0.5002727326449836</v>
+        <v>-2.015201966217017</v>
       </c>
       <c r="P11">
-        <v>0.01410030750617159</v>
+        <v>0.01459531487619645</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,45 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +526,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0.598089008229389</v>
+      </c>
+      <c r="E2">
+        <v>0.7667625002822629</v>
+      </c>
+      <c r="F2">
+        <v>4.62568038380636E-08</v>
+      </c>
+      <c r="G2">
+        <v>5.60197695998915</v>
+      </c>
+      <c r="H2">
+        <v>0.5742417861002811</v>
+      </c>
+      <c r="I2">
+        <v>1.048915166902757E-68</v>
+      </c>
+      <c r="J2">
+        <v>12.02000045776367</v>
+      </c>
+      <c r="K2">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="L2">
+        <v>0.6559031833372302</v>
+      </c>
+      <c r="M2">
+        <v>-0.4459936026525213</v>
+      </c>
+      <c r="N2">
+        <v>0.1838513660140543</v>
+      </c>
+      <c r="O2">
+        <v>0.1989849981196494</v>
+      </c>
+      <c r="P2">
+        <v>0.006074109000307194</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>0.598089008229389</v>
+      </c>
+      <c r="E3">
+        <v>0.7789483513745689</v>
+      </c>
+      <c r="F3">
+        <v>9.032991773591124E-05</v>
+      </c>
+      <c r="G3">
+        <v>2.767961425422184</v>
+      </c>
+      <c r="H3">
+        <v>0.3843736796518573</v>
+      </c>
+      <c r="I3">
+        <v>1.10600698507248E-53</v>
+      </c>
+      <c r="J3">
+        <v>12.02000045776367</v>
+      </c>
+      <c r="K3">
+        <v>23.06999969482422</v>
+      </c>
+      <c r="L3">
+        <v>0.7235263707115926</v>
+      </c>
+      <c r="M3">
+        <v>-0.5418277804899443</v>
+      </c>
+      <c r="N3">
+        <v>0.2383950536244482</v>
+      </c>
+      <c r="O3">
+        <v>0.3845383600746768</v>
+      </c>
+      <c r="P3">
+        <v>0.009619590015865548</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2701</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0.3010348086857819</v>
+      </c>
+      <c r="E4">
+        <v>0.3855233581740832</v>
+      </c>
+      <c r="F4">
+        <v>0.0005955927061194528</v>
+      </c>
+      <c r="G4">
+        <v>0.4343994179685592</v>
+      </c>
+      <c r="H4">
+        <v>0.2920411583961852</v>
+      </c>
+      <c r="I4">
+        <v>1.25557052637445E-140</v>
+      </c>
+      <c r="J4">
+        <v>9.520000457763672</v>
+      </c>
+      <c r="K4">
+        <v>31.68000030517578</v>
+      </c>
+      <c r="L4">
+        <v>0.1438930937077956</v>
+      </c>
+      <c r="M4">
+        <v>-0.189716334058593</v>
+      </c>
+      <c r="N4">
+        <v>0.07034368666057483</v>
+      </c>
+      <c r="O4">
+        <v>-0.1662629473199218</v>
+      </c>
+      <c r="P4">
+        <v>0.01087197255300119</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0.7667625002822629</v>
+      </c>
+      <c r="E5">
+        <v>0.7789483513745689</v>
+      </c>
+      <c r="F5">
+        <v>0.0004495134156629043</v>
+      </c>
+      <c r="G5">
+        <v>-4.815288993722483</v>
+      </c>
+      <c r="H5">
+        <v>0.6647837038156827</v>
+      </c>
+      <c r="I5">
+        <v>2.785422252443076E-72</v>
+      </c>
+      <c r="J5">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="K5">
+        <v>23.06999969482422</v>
+      </c>
+      <c r="L5">
+        <v>0.5597801498083079</v>
+      </c>
+      <c r="M5">
+        <v>-0.7292143095764736</v>
+      </c>
+      <c r="N5">
+        <v>0.2857000915249914</v>
+      </c>
+      <c r="O5">
+        <v>0.3087290732766235</v>
+      </c>
+      <c r="P5">
+        <v>0.01107398089800552</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1863</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0.8202386268694004</v>
+      </c>
+      <c r="E6">
+        <v>0.7943820954090164</v>
+      </c>
+      <c r="F6">
+        <v>0.0003169838256144363</v>
+      </c>
+      <c r="G6">
+        <v>-0.7102394527913996</v>
+      </c>
+      <c r="H6">
+        <v>0.197113134720088</v>
+      </c>
+      <c r="I6">
+        <v>5.644999413445616E-51</v>
+      </c>
+      <c r="J6">
+        <v>2.009999990463257</v>
+      </c>
+      <c r="K6">
+        <v>15.11999988555908</v>
+      </c>
+      <c r="L6">
+        <v>0.4759560363218869</v>
+      </c>
+      <c r="M6">
+        <v>-0.4910623165088728</v>
+      </c>
+      <c r="N6">
+        <v>0.192295482987829</v>
+      </c>
+      <c r="O6">
+        <v>-0.2601111311552655</v>
+      </c>
+      <c r="P6">
+        <v>0.01201921639441872</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1935</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0.1845182622563866</v>
+      </c>
+      <c r="E7">
+        <v>0.3010348086857819</v>
+      </c>
+      <c r="F7">
+        <v>0.0009149643231901403</v>
+      </c>
+      <c r="G7">
+        <v>1.741238843768003</v>
+      </c>
+      <c r="H7">
+        <v>0.5980176532653264</v>
+      </c>
+      <c r="I7">
+        <v>2.19280367483927E-42</v>
+      </c>
+      <c r="J7">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="K7">
+        <v>9.520000457763672</v>
+      </c>
+      <c r="L7">
+        <v>0.6489999963051512</v>
+      </c>
+      <c r="M7">
+        <v>-0.5680603338999886</v>
+      </c>
+      <c r="N7">
+        <v>0.2650582693607818</v>
+      </c>
+      <c r="O7">
+        <v>-0.3643670049432908</v>
+      </c>
+      <c r="P7">
+        <v>0.01216315053651626</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>3390</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0.3923462957090484</v>
+      </c>
+      <c r="E8">
+        <v>0.2925714649797502</v>
+      </c>
+      <c r="F8">
+        <v>0.0002053048007824829</v>
+      </c>
+      <c r="G8">
+        <v>-6.530351862710056</v>
+      </c>
+      <c r="H8">
+        <v>0.6739603688227797</v>
+      </c>
+      <c r="I8">
+        <v>7.353800784168471E-63</v>
+      </c>
+      <c r="J8">
+        <v>8.206941604614258</v>
+      </c>
+      <c r="K8">
+        <v>22.78000068664551</v>
+      </c>
+      <c r="L8">
+        <v>1.305536843082301</v>
+      </c>
+      <c r="M8">
+        <v>-1.106477971602509</v>
+      </c>
+      <c r="N8">
+        <v>0.4837046862390675</v>
+      </c>
+      <c r="O8">
+        <v>-0.6155241972304673</v>
+      </c>
+      <c r="P8">
+        <v>0.01265490249861629</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1936</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0.1845182622563866</v>
+      </c>
+      <c r="E9">
+        <v>0.3855233581740832</v>
+      </c>
+      <c r="F9">
+        <v>0.001722644404822205</v>
+      </c>
+      <c r="G9">
+        <v>2.101361680657106</v>
+      </c>
+      <c r="H9">
+        <v>0.171423273745955</v>
+      </c>
+      <c r="I9">
+        <v>1.119651359449456E-38</v>
+      </c>
+      <c r="J9">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="K9">
+        <v>31.68000030517578</v>
+      </c>
+      <c r="L9">
+        <v>0.7146153594246929</v>
+      </c>
+      <c r="M9">
+        <v>-0.6300968995108605</v>
+      </c>
+      <c r="N9">
+        <v>0.2825848678843543</v>
+      </c>
+      <c r="O9">
+        <v>-0.4620508735818136</v>
+      </c>
+      <c r="P9">
+        <v>0.01273412660463068</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1960</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.1845182622563866</v>
+      </c>
+      <c r="E10">
+        <v>0.1621651208355373</v>
+      </c>
+      <c r="F10">
+        <v>0.003138592584724606</v>
+      </c>
+      <c r="G10">
+        <v>10.86259110992814</v>
+      </c>
+      <c r="H10">
+        <v>-0.1130088164140037</v>
+      </c>
+      <c r="I10">
+        <v>1.31919678830346E-25</v>
+      </c>
+      <c r="J10">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="K10">
+        <v>27.39999961853027</v>
+      </c>
+      <c r="L10">
+        <v>0.6922334891503521</v>
+      </c>
+      <c r="M10">
+        <v>-0.7405269517284703</v>
+      </c>
+      <c r="N10">
+        <v>0.3540229984394777</v>
+      </c>
+      <c r="O10">
+        <v>-0.6961494116324989</v>
+      </c>
+      <c r="P10">
+        <v>0.01336761399504575</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>2300</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.5333088228202092</v>
+      </c>
+      <c r="E11">
+        <v>0.1573135398498122</v>
+      </c>
+      <c r="F11">
+        <v>0.002989052788332639</v>
+      </c>
+      <c r="G11">
+        <v>55.78536142576949</v>
+      </c>
+      <c r="H11">
+        <v>-0.4783983627888136</v>
+      </c>
+      <c r="I11">
+        <v>6.250818837741809E-24</v>
+      </c>
+      <c r="J11">
+        <v>30.8700008392334</v>
+      </c>
+      <c r="K11">
+        <v>49.38999938964844</v>
+      </c>
+      <c r="L11">
+        <v>2.372848754352816</v>
+      </c>
+      <c r="M11">
+        <v>-2.382379157677867</v>
+      </c>
+      <c r="N11">
+        <v>0.9539925460837985</v>
+      </c>
+      <c r="O11">
+        <v>-1.28726574038777</v>
+      </c>
+      <c r="P11">
+        <v>0.01394582370308177</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,43 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
   </si>
   <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>B3SA3</t>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
   </si>
   <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
     <t>VBBR3</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>PRIO3</t>
+    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -528,55 +537,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>858</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.598089008229389</v>
+        <v>0.3031876878704441</v>
       </c>
       <c r="E2">
-        <v>0.7667625002822629</v>
+        <v>0.270714004705447</v>
       </c>
       <c r="F2">
-        <v>4.62568038380636E-08</v>
+        <v>3.944676436683919E-05</v>
       </c>
       <c r="G2">
-        <v>5.60197695998915</v>
+        <v>-2.943824913106736</v>
       </c>
       <c r="H2">
-        <v>0.5742417861002811</v>
+        <v>3.958515121195569</v>
       </c>
       <c r="I2">
-        <v>1.048915166902757E-68</v>
+        <v>5.421441025780231E-67</v>
       </c>
       <c r="J2">
-        <v>12.02000045776367</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="K2">
-        <v>10.82999992370605</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="L2">
-        <v>0.6559031833372302</v>
+        <v>1.824342010461201</v>
       </c>
       <c r="M2">
-        <v>-0.4459936026525213</v>
+        <v>-1.765982108019905</v>
       </c>
       <c r="N2">
-        <v>0.1838513660140543</v>
+        <v>0.7768031765973915</v>
       </c>
       <c r="O2">
-        <v>0.1989849981196494</v>
+        <v>1.021334274294468</v>
       </c>
       <c r="P2">
-        <v>0.006074109000307194</v>
+        <v>0.01035849949338912</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -584,338 +593,338 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>54</v>
+        <v>2623</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.598089008229389</v>
+        <v>0.8186948903300215</v>
       </c>
       <c r="E3">
-        <v>0.7789483513745689</v>
+        <v>0.7668195683362289</v>
       </c>
       <c r="F3">
-        <v>9.032991773591124E-05</v>
+        <v>0.0006058391703646722</v>
       </c>
       <c r="G3">
-        <v>2.767961425422184</v>
+        <v>18.45889642150605</v>
       </c>
       <c r="H3">
-        <v>0.3843736796518573</v>
+        <v>0.7493358614378353</v>
       </c>
       <c r="I3">
-        <v>1.10600698507248E-53</v>
+        <v>3.391887745847933E-35</v>
       </c>
       <c r="J3">
-        <v>12.02000045776367</v>
+        <v>28.54999923706055</v>
       </c>
       <c r="K3">
-        <v>23.06999969482422</v>
+        <v>15.29549980163574</v>
       </c>
       <c r="L3">
-        <v>0.7235263707115926</v>
+        <v>2.604120271823803</v>
       </c>
       <c r="M3">
-        <v>-0.5418277804899443</v>
+        <v>-2.439107271692077</v>
       </c>
       <c r="N3">
-        <v>0.2383950536244482</v>
+        <v>1.03457704941169</v>
       </c>
       <c r="O3">
-        <v>0.3845383600746768</v>
+        <v>-1.370363704426465</v>
       </c>
       <c r="P3">
-        <v>0.009619590015865548</v>
+        <v>0.01115027771627897</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2701</v>
+        <v>907</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.3010348086857819</v>
+        <v>0.3031876878704441</v>
       </c>
       <c r="E4">
-        <v>0.3855233581740832</v>
+        <v>0.1950282100759086</v>
       </c>
       <c r="F4">
-        <v>0.0005955927061194528</v>
+        <v>4.346517084100812E-05</v>
       </c>
       <c r="G4">
-        <v>0.4343994179685592</v>
+        <v>13.39552748993805</v>
       </c>
       <c r="H4">
-        <v>0.2920411583961852</v>
+        <v>3.201476944924166</v>
       </c>
       <c r="I4">
-        <v>1.25557052637445E-140</v>
+        <v>1.297645438461082E-46</v>
       </c>
       <c r="J4">
-        <v>9.520000457763672</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="K4">
-        <v>31.68000030517578</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="L4">
-        <v>0.1438930937077956</v>
+        <v>2.653830045414793</v>
       </c>
       <c r="M4">
-        <v>-0.189716334058593</v>
+        <v>-2.731224680227079</v>
       </c>
       <c r="N4">
-        <v>0.07034368666057483</v>
+        <v>1.110892640677287</v>
       </c>
       <c r="O4">
-        <v>-0.1662629473199218</v>
+        <v>1.143446423253106</v>
       </c>
       <c r="P4">
-        <v>0.01087197255300119</v>
+        <v>0.01118629593062113</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>372</v>
+        <v>3194</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.7667625002822629</v>
+        <v>0.1059237533432159</v>
       </c>
       <c r="E5">
-        <v>0.7789483513745689</v>
+        <v>0.6534795519854062</v>
       </c>
       <c r="F5">
-        <v>0.0004495134156629043</v>
+        <v>0.0008489776341118325</v>
       </c>
       <c r="G5">
-        <v>-4.815288993722483</v>
+        <v>16.36254614653676</v>
       </c>
       <c r="H5">
-        <v>0.6647837038156827</v>
+        <v>1.711366367025893</v>
       </c>
       <c r="I5">
-        <v>2.785422252443076E-72</v>
+        <v>3.104786505721065E-21</v>
       </c>
       <c r="J5">
-        <v>10.82999992370605</v>
+        <v>20.84000015258789</v>
       </c>
       <c r="K5">
-        <v>23.06999969482422</v>
+        <v>3.069999933242798</v>
       </c>
       <c r="L5">
-        <v>0.5597801498083079</v>
+        <v>1.117968202210278</v>
       </c>
       <c r="M5">
-        <v>-0.7292143095764736</v>
+        <v>-1.062726262036783</v>
       </c>
       <c r="N5">
-        <v>0.2857000915249914</v>
+        <v>0.4628726569272325</v>
       </c>
       <c r="O5">
-        <v>0.3087290732766235</v>
+        <v>-0.7764406264723318</v>
       </c>
       <c r="P5">
-        <v>0.01107398089800552</v>
+        <v>0.01139225093353246</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1863</v>
+        <v>2701</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.8202386268694004</v>
+        <v>0.2846018034707213</v>
       </c>
       <c r="E6">
-        <v>0.7943820954090164</v>
+        <v>0.2011562098048833</v>
       </c>
       <c r="F6">
-        <v>0.0003169838256144363</v>
+        <v>0.0018050210100796</v>
       </c>
       <c r="G6">
-        <v>-0.7102394527913996</v>
+        <v>0.4395945767640696</v>
       </c>
       <c r="H6">
-        <v>0.197113134720088</v>
+        <v>0.2918393912003107</v>
       </c>
       <c r="I6">
-        <v>5.644999413445616E-51</v>
+        <v>6.097388024105418E-136</v>
       </c>
       <c r="J6">
-        <v>2.009999990463257</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="K6">
-        <v>15.11999988555908</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="L6">
-        <v>0.4759560363218869</v>
+        <v>0.145614519528328</v>
       </c>
       <c r="M6">
-        <v>-0.4910623165088728</v>
+        <v>-0.1884549425861213</v>
       </c>
       <c r="N6">
-        <v>0.192295482987829</v>
+        <v>0.07143564083321419</v>
       </c>
       <c r="O6">
-        <v>-0.2601111311552655</v>
+        <v>-0.1497415197558336</v>
       </c>
       <c r="P6">
-        <v>0.01201921639441872</v>
+        <v>0.01212354351595918</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1935</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.1845182622563866</v>
+        <v>0.1743549129088217</v>
       </c>
       <c r="E7">
-        <v>0.3010348086857819</v>
+        <v>0.3708695920975668</v>
       </c>
       <c r="F7">
-        <v>0.0009149643231901403</v>
+        <v>0.001257371101562157</v>
       </c>
       <c r="G7">
-        <v>1.741238843768003</v>
+        <v>3.03905254238103</v>
       </c>
       <c r="H7">
-        <v>0.5980176532653264</v>
+        <v>0.4613318359381724</v>
       </c>
       <c r="I7">
-        <v>2.19280367483927E-42</v>
+        <v>2.265139457141967E-38</v>
       </c>
       <c r="J7">
-        <v>7.070000171661377</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="K7">
-        <v>9.520000457763672</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="L7">
-        <v>0.6489999963051512</v>
+        <v>1.452151174511316</v>
       </c>
       <c r="M7">
-        <v>-0.5680603338999886</v>
+        <v>-1.145801984463983</v>
       </c>
       <c r="N7">
-        <v>0.2650582693607818</v>
+        <v>0.538721620338053</v>
       </c>
       <c r="O7">
-        <v>-0.3643670049432908</v>
+        <v>-0.6018709277319498</v>
       </c>
       <c r="P7">
-        <v>0.01216315053651626</v>
+        <v>0.01215252808824639</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>3390</v>
+        <v>1960</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.3923462957090484</v>
+        <v>0.1437443057374099</v>
       </c>
       <c r="E8">
-        <v>0.2925714649797502</v>
+        <v>0.1257268582848498</v>
       </c>
       <c r="F8">
-        <v>0.0002053048007824829</v>
+        <v>0.001243807378618657</v>
       </c>
       <c r="G8">
-        <v>-6.530351862710056</v>
+        <v>11.07021353072631</v>
       </c>
       <c r="H8">
-        <v>0.6739603688227797</v>
+        <v>-0.1203572244957014</v>
       </c>
       <c r="I8">
-        <v>7.353800784168471E-63</v>
+        <v>5.459370258945496E-26</v>
       </c>
       <c r="J8">
-        <v>8.206941604614258</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="K8">
-        <v>22.78000068664551</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="L8">
-        <v>1.305536843082301</v>
+        <v>0.696906573347313</v>
       </c>
       <c r="M8">
-        <v>-1.106477971602509</v>
+        <v>-0.7024254537953496</v>
       </c>
       <c r="N8">
-        <v>0.4837046862390675</v>
+        <v>0.3495175504374277</v>
       </c>
       <c r="O8">
-        <v>-0.6155241972304673</v>
+        <v>-0.3745649638904891</v>
       </c>
       <c r="P8">
-        <v>0.01265490249861629</v>
+        <v>0.01228724054949127</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -923,167 +932,167 @@
         <v>1936</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.1845182622563866</v>
+        <v>0.1437443057374099</v>
       </c>
       <c r="E9">
-        <v>0.3855233581740832</v>
+        <v>0.2011562098048833</v>
       </c>
       <c r="F9">
-        <v>0.001722644404822205</v>
+        <v>0.001452990090476228</v>
       </c>
       <c r="G9">
-        <v>2.101361680657106</v>
+        <v>1.901347371943517</v>
       </c>
       <c r="H9">
-        <v>0.171423273745955</v>
+        <v>0.1774702596547906</v>
       </c>
       <c r="I9">
-        <v>1.119651359449456E-38</v>
+        <v>8.510225556981441E-39</v>
       </c>
       <c r="J9">
-        <v>7.070000171661377</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="K9">
-        <v>31.68000030517578</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="L9">
-        <v>0.7146153594246929</v>
+        <v>0.7243824199524829</v>
       </c>
       <c r="M9">
-        <v>-0.6300968995108605</v>
+        <v>-0.5983080184128502</v>
       </c>
       <c r="N9">
-        <v>0.2825848678843543</v>
+        <v>0.2793122485563369</v>
       </c>
       <c r="O9">
-        <v>-0.4620508735818136</v>
+        <v>-0.3076643301659061</v>
       </c>
       <c r="P9">
-        <v>0.01273412660463068</v>
+        <v>0.01243120982727193</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1960</v>
+        <v>1863</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.1845182622563866</v>
+        <v>0.8881568367998538</v>
       </c>
       <c r="E10">
-        <v>0.1621651208355373</v>
+        <v>0.7668195683362289</v>
       </c>
       <c r="F10">
-        <v>0.003138592584724606</v>
+        <v>0.0001606269821850733</v>
       </c>
       <c r="G10">
-        <v>10.86259110992814</v>
+        <v>-0.7765839076642905</v>
       </c>
       <c r="H10">
-        <v>-0.1130088164140037</v>
+        <v>0.2044194101858947</v>
       </c>
       <c r="I10">
-        <v>1.31919678830346E-25</v>
+        <v>5.510426264250346E-53</v>
       </c>
       <c r="J10">
-        <v>7.070000171661377</v>
+        <v>2.009999990463257</v>
       </c>
       <c r="K10">
-        <v>27.39999961853027</v>
+        <v>15.29549980163574</v>
       </c>
       <c r="L10">
-        <v>0.6922334891503521</v>
+        <v>0.4708450372093087</v>
       </c>
       <c r="M10">
-        <v>-0.7405269517284703</v>
+        <v>-0.4086249283008239</v>
       </c>
       <c r="N10">
-        <v>0.3540229984394777</v>
+        <v>0.1879885250843622</v>
       </c>
       <c r="O10">
-        <v>-0.6961494116324989</v>
+        <v>-0.3401131498213013</v>
       </c>
       <c r="P10">
-        <v>0.01336761399504575</v>
+        <v>0.01247888666522175</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2300</v>
+        <v>2936</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.5333088228202092</v>
+        <v>0.4129099913958273</v>
       </c>
       <c r="E11">
-        <v>0.1573135398498122</v>
+        <v>0.1473192964649286</v>
       </c>
       <c r="F11">
-        <v>0.002989052788332639</v>
+        <v>0.002851647738884922</v>
       </c>
       <c r="G11">
-        <v>55.78536142576949</v>
+        <v>-2.187687090037616</v>
       </c>
       <c r="H11">
-        <v>-0.4783983627888136</v>
+        <v>0.08107883328092594</v>
       </c>
       <c r="I11">
-        <v>6.250818837741809E-24</v>
+        <v>2.313727226060747E-33</v>
       </c>
       <c r="J11">
-        <v>30.8700008392334</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="K11">
-        <v>49.38999938964844</v>
+        <v>48</v>
       </c>
       <c r="L11">
-        <v>2.372848754352816</v>
+        <v>0.3633610906491049</v>
       </c>
       <c r="M11">
-        <v>-2.382379157677867</v>
+        <v>-0.3043222387300109</v>
       </c>
       <c r="N11">
-        <v>0.9539925460837985</v>
+        <v>0.1430501603251692</v>
       </c>
       <c r="O11">
-        <v>-1.28726574038777</v>
+        <v>-0.2740969598989165</v>
       </c>
       <c r="P11">
-        <v>0.01394582370308177</v>
+        <v>0.01367406172055878</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,61 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>BPAC11</t>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
   </si>
   <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
   </si>
   <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
+    <t>TOTS3</t>
   </si>
   <si>
     <t>VIVT3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
   </si>
 </sst>
 </file>
@@ -537,562 +546,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>858</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.3031876878704441</v>
+        <v>0.2472268937301472</v>
       </c>
       <c r="E2">
-        <v>0.270714004705447</v>
+        <v>0.6622485290086546</v>
       </c>
       <c r="F2">
-        <v>3.944676436683919E-05</v>
+        <v>0.000112823992165227</v>
       </c>
       <c r="G2">
-        <v>-2.943824913106736</v>
+        <v>4.045478089781177</v>
       </c>
       <c r="H2">
-        <v>3.958515121195569</v>
+        <v>1.701240087791425</v>
       </c>
       <c r="I2">
-        <v>5.421441025780231E-67</v>
+        <v>1.031512134938803E-38</v>
       </c>
       <c r="J2">
-        <v>34.09999847412109</v>
+        <v>51.88999938964844</v>
       </c>
       <c r="K2">
-        <v>9.100000381469727</v>
+        <v>30.07999992370605</v>
       </c>
       <c r="L2">
-        <v>1.824342010461201</v>
+        <v>5.865779850102783</v>
       </c>
       <c r="M2">
-        <v>-1.765982108019905</v>
+        <v>-4.128357353181151</v>
       </c>
       <c r="N2">
-        <v>0.7768031765973915</v>
+        <v>1.961693356592041</v>
       </c>
       <c r="O2">
-        <v>1.021334274294468</v>
+        <v>-3.328780411104482</v>
       </c>
       <c r="P2">
-        <v>0.01035849949338912</v>
+        <v>0.009507163785427195</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2623</v>
+        <v>3194</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.8186948903300215</v>
+        <v>0.1195691346505899</v>
       </c>
       <c r="E3">
-        <v>0.7668195683362289</v>
+        <v>0.6572775460175468</v>
       </c>
       <c r="F3">
-        <v>0.0006058391703646722</v>
+        <v>0.0009091649239129264</v>
       </c>
       <c r="G3">
-        <v>18.45889642150605</v>
+        <v>16.20497310763771</v>
       </c>
       <c r="H3">
-        <v>0.7493358614378353</v>
+        <v>1.753522112911186</v>
       </c>
       <c r="I3">
-        <v>3.391887745847933E-35</v>
+        <v>3.269347835075461E-22</v>
       </c>
       <c r="J3">
-        <v>28.54999923706055</v>
+        <v>20.82999992370605</v>
       </c>
       <c r="K3">
-        <v>15.29549980163574</v>
+        <v>3.069999933242798</v>
       </c>
       <c r="L3">
-        <v>2.604120271823803</v>
+        <v>1.112731097502628</v>
       </c>
       <c r="M3">
-        <v>-2.439107271692077</v>
+        <v>-1.076355621672192</v>
       </c>
       <c r="N3">
-        <v>1.03457704941169</v>
+        <v>0.4659426566833739</v>
       </c>
       <c r="O3">
-        <v>-1.370363704426465</v>
+        <v>-0.7582859535087678</v>
       </c>
       <c r="P3">
-        <v>0.01115027771627897</v>
+        <v>0.01159000626485358</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>907</v>
+        <v>2701</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.3031876878704441</v>
+        <v>0.2792968070453842</v>
       </c>
       <c r="E4">
-        <v>0.1950282100759086</v>
+        <v>0.3105426036034065</v>
       </c>
       <c r="F4">
-        <v>4.346517084100812E-05</v>
+        <v>0.001159598614117627</v>
       </c>
       <c r="G4">
-        <v>13.39552748993805</v>
+        <v>0.4414553572362719</v>
       </c>
       <c r="H4">
-        <v>3.201476944924166</v>
+        <v>0.2917543734583192</v>
       </c>
       <c r="I4">
-        <v>1.297645438461082E-46</v>
+        <v>1.699083002694232E-136</v>
       </c>
       <c r="J4">
-        <v>34.09999847412109</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="K4">
-        <v>6.110000133514404</v>
+        <v>31.95999908447266</v>
       </c>
       <c r="L4">
-        <v>2.653830045414793</v>
+        <v>0.14666814941803</v>
       </c>
       <c r="M4">
-        <v>-2.731224680227079</v>
+        <v>-0.1875951553145967</v>
       </c>
       <c r="N4">
-        <v>1.110892640677287</v>
+        <v>0.07175916612431589</v>
       </c>
       <c r="O4">
-        <v>1.143446423253106</v>
+        <v>-0.1059250184429388</v>
       </c>
       <c r="P4">
-        <v>0.01118629593062113</v>
+        <v>0.01201178550413102</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>3194</v>
+        <v>1863</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.1059237533432159</v>
+        <v>0.8606701795069918</v>
       </c>
       <c r="E5">
-        <v>0.6534795519854062</v>
+        <v>0.7610589094876002</v>
       </c>
       <c r="F5">
-        <v>0.0008489776341118325</v>
+        <v>0.0001175844455040618</v>
       </c>
       <c r="G5">
-        <v>16.36254614653676</v>
+        <v>-0.8122152635668828</v>
       </c>
       <c r="H5">
-        <v>1.711366367025893</v>
+        <v>0.2061851860109225</v>
       </c>
       <c r="I5">
-        <v>3.104786505721065E-21</v>
+        <v>5.8318453969729E-54</v>
       </c>
       <c r="J5">
-        <v>20.84000015258789</v>
+        <v>2.079999923706055</v>
       </c>
       <c r="K5">
-        <v>3.069999933242798</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="L5">
-        <v>1.117968202210278</v>
+        <v>0.472997743127205</v>
       </c>
       <c r="M5">
-        <v>-1.062726262036783</v>
+        <v>-0.4053447034144844</v>
       </c>
       <c r="N5">
-        <v>0.4628726569272325</v>
+        <v>0.1888078058542396</v>
       </c>
       <c r="O5">
-        <v>-0.7764406264723318</v>
+        <v>-0.2727274966481295</v>
       </c>
       <c r="P5">
-        <v>0.01139225093353246</v>
+        <v>0.01242913922544635</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2701</v>
+        <v>3291</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.2846018034707213</v>
+        <v>0.3337260021756869</v>
       </c>
       <c r="E6">
-        <v>0.2011562098048833</v>
+        <v>0.422295514265229</v>
       </c>
       <c r="F6">
-        <v>0.0018050210100796</v>
+        <v>0.001877040193934584</v>
       </c>
       <c r="G6">
-        <v>0.4395945767640696</v>
+        <v>12.0566540567697</v>
       </c>
       <c r="H6">
-        <v>0.2918393912003107</v>
+        <v>0.5396664625103883</v>
       </c>
       <c r="I6">
-        <v>6.097388024105418E-136</v>
+        <v>1.315742577330492E-54</v>
       </c>
       <c r="J6">
-        <v>9.689999580383301</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="K6">
-        <v>32.20999908447266</v>
+        <v>27.95000076293945</v>
       </c>
       <c r="L6">
-        <v>0.145614519528328</v>
+        <v>1.756492827787625</v>
       </c>
       <c r="M6">
-        <v>-0.1884549425861213</v>
+        <v>-1.209046453929183</v>
       </c>
       <c r="N6">
-        <v>0.07143564083321419</v>
+        <v>0.5935017283554372</v>
       </c>
       <c r="O6">
-        <v>-0.1497415197558336</v>
+        <v>0.9896670650987183</v>
       </c>
       <c r="P6">
-        <v>0.01212354351595918</v>
+        <v>0.01248704754503821</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>240</v>
+        <v>2936</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.1743549129088217</v>
+        <v>0.4004262383017838</v>
       </c>
       <c r="E7">
-        <v>0.3708695920975668</v>
+        <v>0.1493791346544912</v>
       </c>
       <c r="F7">
-        <v>0.001257371101562157</v>
+        <v>0.002552965101625739</v>
       </c>
       <c r="G7">
-        <v>3.03905254238103</v>
+        <v>-2.218370726238752</v>
       </c>
       <c r="H7">
-        <v>0.4613318359381724</v>
+        <v>0.08205025373409187</v>
       </c>
       <c r="I7">
-        <v>2.265139457141967E-38</v>
+        <v>1.534556813215331E-33</v>
       </c>
       <c r="J7">
-        <v>13.31999969482422</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="K7">
-        <v>23.59000015258789</v>
+        <v>47.70005798339844</v>
       </c>
       <c r="L7">
-        <v>1.452151174511316</v>
+        <v>0.3658470063375874</v>
       </c>
       <c r="M7">
-        <v>-1.145801984463983</v>
+        <v>-0.3002616981155604</v>
       </c>
       <c r="N7">
-        <v>0.538721620338053</v>
+        <v>0.1441028657111232</v>
       </c>
       <c r="O7">
-        <v>-0.6018709277319498</v>
+        <v>-0.2454310867462683</v>
       </c>
       <c r="P7">
-        <v>0.01215252808824639</v>
+        <v>0.0137919020575192</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1960</v>
+        <v>2300</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.1437443057374099</v>
+        <v>0.4247597758046822</v>
       </c>
       <c r="E8">
-        <v>0.1257268582848498</v>
+        <v>0.1360339924844314</v>
       </c>
       <c r="F8">
-        <v>0.001243807378618657</v>
+        <v>0.003068514005818393</v>
       </c>
       <c r="G8">
-        <v>11.07021353072631</v>
+        <v>55.92360737385192</v>
       </c>
       <c r="H8">
-        <v>-0.1203572244957014</v>
+        <v>-0.4812532553978436</v>
       </c>
       <c r="I8">
-        <v>5.459370258945496E-26</v>
+        <v>2.728189921772229E-24</v>
       </c>
       <c r="J8">
-        <v>7.309999942779541</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>28.1299991607666</v>
+        <v>49.56000137329102</v>
       </c>
       <c r="L8">
-        <v>0.696906573347313</v>
+        <v>2.368982600506172</v>
       </c>
       <c r="M8">
-        <v>-0.7024254537953496</v>
+        <v>-2.388484528612196</v>
       </c>
       <c r="N8">
-        <v>0.3495175504374277</v>
+        <v>0.9543444574673373</v>
       </c>
       <c r="O8">
-        <v>-0.3745649638904891</v>
+        <v>-1.072695375434023</v>
       </c>
       <c r="P8">
-        <v>0.01228724054949127</v>
+        <v>0.01399061180042497</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1936</v>
+        <v>1964</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>0.1437443057374099</v>
+        <v>0.1402274467783574</v>
       </c>
       <c r="E9">
-        <v>0.2011562098048833</v>
+        <v>0.1629529466855067</v>
       </c>
       <c r="F9">
-        <v>0.001452990090476228</v>
+        <v>0.003621529236975053</v>
       </c>
       <c r="G9">
-        <v>1.901347371943517</v>
+        <v>0.4065945798868782</v>
       </c>
       <c r="H9">
-        <v>0.1774702596547906</v>
+        <v>0.4177475993135066</v>
       </c>
       <c r="I9">
-        <v>8.510225556981441E-39</v>
+        <v>2.887750903032019E-28</v>
       </c>
       <c r="J9">
-        <v>7.309999942779541</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="K9">
-        <v>32.20999908447266</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="L9">
-        <v>0.7243824199524829</v>
+        <v>0.6883836639629495</v>
       </c>
       <c r="M9">
-        <v>-0.5983080184128502</v>
+        <v>-1.020352643884531</v>
       </c>
       <c r="N9">
-        <v>0.2793122485563369</v>
+        <v>0.3358493868840197</v>
       </c>
       <c r="O9">
-        <v>-0.3076643301659061</v>
+        <v>-0.4089525825300884</v>
       </c>
       <c r="P9">
-        <v>0.01243120982727193</v>
+        <v>0.01408920660262412</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1863</v>
+        <v>2883</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0.8881568367998538</v>
+        <v>0.2129449140892877</v>
       </c>
       <c r="E10">
-        <v>0.7668195683362289</v>
+        <v>0.8605580597695552</v>
       </c>
       <c r="F10">
-        <v>0.0001606269821850733</v>
+        <v>0.001450121612313637</v>
       </c>
       <c r="G10">
-        <v>-0.7765839076642905</v>
+        <v>9.884599158830259</v>
       </c>
       <c r="H10">
-        <v>0.2044194101858947</v>
+        <v>-0.1128838711903208</v>
       </c>
       <c r="I10">
-        <v>5.510426264250346E-53</v>
+        <v>1.178900164790249E-21</v>
       </c>
       <c r="J10">
-        <v>2.009999990463257</v>
+        <v>4.75</v>
       </c>
       <c r="K10">
-        <v>15.29549980163574</v>
+        <v>42.15000152587891</v>
       </c>
       <c r="L10">
-        <v>0.4708450372093087</v>
+        <v>0.6315955050266737</v>
       </c>
       <c r="M10">
-        <v>-0.4086249283008239</v>
+        <v>-0.7674568631257328</v>
       </c>
       <c r="N10">
-        <v>0.1879885250843622</v>
+        <v>0.3028700195601242</v>
       </c>
       <c r="O10">
-        <v>-0.3401131498213013</v>
+        <v>-0.376543815911119</v>
       </c>
       <c r="P10">
-        <v>0.01247888666522175</v>
+        <v>0.01430730643291492</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2936</v>
+        <v>3212</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>0.4129099913958273</v>
+        <v>0.1195691346505899</v>
       </c>
       <c r="E11">
-        <v>0.1473192964649286</v>
+        <v>0.7917084405090069</v>
       </c>
       <c r="F11">
-        <v>0.002851647738884922</v>
+        <v>0.006618297374467328</v>
       </c>
       <c r="G11">
-        <v>-2.187687090037616</v>
+        <v>27.58234421664657</v>
       </c>
       <c r="H11">
-        <v>0.08107883328092594</v>
+        <v>-0.1435877244884584</v>
       </c>
       <c r="I11">
-        <v>2.313727226060747E-33</v>
+        <v>1.453136911684447E-09</v>
       </c>
       <c r="J11">
-        <v>1.429999947547913</v>
+        <v>20.82999992370605</v>
       </c>
       <c r="K11">
-        <v>48</v>
+        <v>39.36000061035156</v>
       </c>
       <c r="L11">
-        <v>0.3633610906491049</v>
+        <v>1.258859841720547</v>
       </c>
       <c r="M11">
-        <v>-0.3043222387300109</v>
+        <v>-1.442985956651775</v>
       </c>
       <c r="N11">
-        <v>0.1430501603251692</v>
+        <v>0.5793986757648704</v>
       </c>
       <c r="O11">
-        <v>-0.2740969598989165</v>
+        <v>-1.100731369435801</v>
       </c>
       <c r="P11">
-        <v>0.01367406172055878</v>
+        <v>0.01456138274015185</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,61 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>ARZZ3</t>
   </si>
   <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
   </si>
   <si>
     <t>MGLU3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
   </si>
 </sst>
 </file>
@@ -546,562 +534,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.2472268937301472</v>
+        <v>0.5999663722989867</v>
       </c>
       <c r="E2">
-        <v>0.6622485290086546</v>
+        <v>0.7757954722606379</v>
       </c>
       <c r="F2">
-        <v>0.000112823992165227</v>
+        <v>5.757103717914636E-08</v>
       </c>
       <c r="G2">
-        <v>4.045478089781177</v>
+        <v>5.592372943210624</v>
       </c>
       <c r="H2">
-        <v>1.701240087791425</v>
+        <v>0.5747417812283709</v>
       </c>
       <c r="I2">
-        <v>1.031512134938803E-38</v>
+        <v>2.549011328157602E-69</v>
       </c>
       <c r="J2">
-        <v>51.88999938964844</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="K2">
-        <v>30.07999992370605</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="L2">
-        <v>5.865779850102783</v>
+        <v>0.6592449863921086</v>
       </c>
       <c r="M2">
-        <v>-4.128357353181151</v>
+        <v>-0.4429053838958446</v>
       </c>
       <c r="N2">
-        <v>1.961693356592041</v>
+        <v>0.1834065436486344</v>
       </c>
       <c r="O2">
-        <v>-3.328780411104482</v>
+        <v>0.3561628777901857</v>
       </c>
       <c r="P2">
-        <v>0.009507163785427195</v>
+        <v>0.005900305546980146</v>
       </c>
       <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>3194</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.1195691346505899</v>
+        <v>0.2576961087566564</v>
       </c>
       <c r="E3">
-        <v>0.6572775460175468</v>
+        <v>0.6771363009224207</v>
       </c>
       <c r="F3">
-        <v>0.0009091649239129264</v>
+        <v>0.0001016752038954797</v>
       </c>
       <c r="G3">
-        <v>16.20497310763771</v>
+        <v>3.602334806015502</v>
       </c>
       <c r="H3">
-        <v>1.753522112911186</v>
+        <v>1.713878161368807</v>
       </c>
       <c r="I3">
-        <v>3.269347835075461E-22</v>
+        <v>2.418488828288049E-39</v>
       </c>
       <c r="J3">
-        <v>20.82999992370605</v>
+        <v>51.91999816894531</v>
       </c>
       <c r="K3">
-        <v>3.069999933242798</v>
+        <v>29.52000045776367</v>
       </c>
       <c r="L3">
-        <v>1.112731097502628</v>
+        <v>5.916026323638334</v>
       </c>
       <c r="M3">
-        <v>-1.076355621672192</v>
+        <v>-4.108005175699773</v>
       </c>
       <c r="N3">
-        <v>0.4659426566833739</v>
+        <v>1.966121854613021</v>
       </c>
       <c r="O3">
-        <v>-0.7582859535087678</v>
+        <v>-2.276020745228543</v>
       </c>
       <c r="P3">
-        <v>0.01159000626485358</v>
+        <v>0.009527129317043038</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2701</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.2792968070453842</v>
+        <v>0.5999663722989867</v>
       </c>
       <c r="E4">
-        <v>0.3105426036034065</v>
+        <v>0.8139768978471323</v>
       </c>
       <c r="F4">
-        <v>0.001159598614117627</v>
+        <v>0.000212180578126488</v>
       </c>
       <c r="G4">
-        <v>0.4414553572362719</v>
+        <v>2.852548156364877</v>
       </c>
       <c r="H4">
-        <v>0.2917543734583192</v>
+        <v>0.3810873647365234</v>
       </c>
       <c r="I4">
-        <v>1.699083002694232E-136</v>
+        <v>9.774771008172643E-54</v>
       </c>
       <c r="J4">
-        <v>9.659999847412109</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="K4">
-        <v>31.95999908447266</v>
+        <v>22.88999938964844</v>
       </c>
       <c r="L4">
-        <v>0.14666814941803</v>
+        <v>0.724082843624398</v>
       </c>
       <c r="M4">
-        <v>-0.1875951553145967</v>
+        <v>-0.5455900868013916</v>
       </c>
       <c r="N4">
-        <v>0.07175916612431589</v>
+        <v>0.2406279273925668</v>
       </c>
       <c r="O4">
-        <v>-0.1059250184429388</v>
+        <v>0.5743619159436442</v>
       </c>
       <c r="P4">
-        <v>0.01201178550413102</v>
+        <v>0.009613386178929916</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1863</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.8606701795069918</v>
+        <v>0.4531265819871511</v>
       </c>
       <c r="E5">
-        <v>0.7610589094876002</v>
+        <v>0.7036746226281074</v>
       </c>
       <c r="F5">
-        <v>0.0001175844455040618</v>
+        <v>0.0001718943640541833</v>
       </c>
       <c r="G5">
-        <v>-0.8122152635668828</v>
+        <v>2.44252123261693</v>
       </c>
       <c r="H5">
-        <v>0.2061851860109225</v>
+        <v>0.2229358292894839</v>
       </c>
       <c r="I5">
-        <v>5.8318453969729E-54</v>
+        <v>8.17415458061433E-52</v>
       </c>
       <c r="J5">
-        <v>2.079999923706055</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>15.35000038146973</v>
+        <v>49.02999877929688</v>
       </c>
       <c r="L5">
-        <v>0.472997743127205</v>
+        <v>2.45147609130899</v>
       </c>
       <c r="M5">
-        <v>-0.4053447034144844</v>
+        <v>-0.9070175852740228</v>
       </c>
       <c r="N5">
-        <v>0.1888078058542396</v>
+        <v>0.4408790234068178</v>
       </c>
       <c r="O5">
-        <v>-0.2727274966481295</v>
+        <v>0.6269353294581403</v>
       </c>
       <c r="P5">
-        <v>0.01242913922544635</v>
+        <v>0.009874461246826763</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>3291</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.3337260021756869</v>
+        <v>0.7757954722606379</v>
       </c>
       <c r="E6">
-        <v>0.422295514265229</v>
+        <v>0.8139768978471323</v>
       </c>
       <c r="F6">
-        <v>0.001877040193934584</v>
+        <v>0.0006084472410317057</v>
       </c>
       <c r="G6">
-        <v>12.0566540567697</v>
+        <v>-4.676974793863024</v>
       </c>
       <c r="H6">
-        <v>0.5396664625103883</v>
+        <v>0.6596206047514467</v>
       </c>
       <c r="I6">
-        <v>1.315742577330492E-54</v>
+        <v>2.038542517896549E-72</v>
       </c>
       <c r="J6">
-        <v>28.1299991607666</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="K6">
-        <v>27.95000076293945</v>
+        <v>22.88999938964844</v>
       </c>
       <c r="L6">
-        <v>1.756492827787625</v>
+        <v>0.5647423035032766</v>
       </c>
       <c r="M6">
-        <v>-1.209046453929183</v>
+        <v>-0.724473525250751</v>
       </c>
       <c r="N6">
-        <v>0.5935017283554372</v>
+        <v>0.2876137533490935</v>
       </c>
       <c r="O6">
-        <v>0.9896670650987183</v>
+        <v>0.3682595155559039</v>
       </c>
       <c r="P6">
-        <v>0.01248704754503821</v>
+        <v>0.01121712578488736</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2936</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.4004262383017838</v>
+        <v>0.5888185520524708</v>
       </c>
       <c r="E7">
-        <v>0.1493791346544912</v>
+        <v>0.7036746226281074</v>
       </c>
       <c r="F7">
-        <v>0.002552965101625739</v>
+        <v>0.001229266718203751</v>
       </c>
       <c r="G7">
-        <v>-2.218370726238752</v>
+        <v>1.780098529777501</v>
       </c>
       <c r="H7">
-        <v>0.08205025373409187</v>
+        <v>0.2054528691031856</v>
       </c>
       <c r="I7">
-        <v>1.534556813215331E-33</v>
+        <v>3.18013943283321E-54</v>
       </c>
       <c r="J7">
-        <v>1.450000047683716</v>
+        <v>12.35999965667725</v>
       </c>
       <c r="K7">
-        <v>47.70005798339844</v>
+        <v>49.02999877929688</v>
       </c>
       <c r="L7">
-        <v>0.3658470063375874</v>
+        <v>1.953354053100121</v>
       </c>
       <c r="M7">
-        <v>-0.3002616981155604</v>
+        <v>-0.861732425267526</v>
       </c>
       <c r="N7">
-        <v>0.1441028657111232</v>
+        <v>0.3863183182493943</v>
       </c>
       <c r="O7">
-        <v>-0.2454310867462683</v>
+        <v>0.5065472055675144</v>
       </c>
       <c r="P7">
-        <v>0.0137919020575192</v>
+        <v>0.01215884068414902</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2300</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4247597758046822</v>
+        <v>0.1815919551967696</v>
       </c>
       <c r="E8">
-        <v>0.1360339924844314</v>
+        <v>0.3396449824179659</v>
       </c>
       <c r="F8">
-        <v>0.003068514005818393</v>
+        <v>0.001540310375646729</v>
       </c>
       <c r="G8">
-        <v>55.92360737385192</v>
+        <v>3.123923861046858</v>
       </c>
       <c r="H8">
-        <v>-0.4812532553978436</v>
+        <v>0.4572496938818912</v>
       </c>
       <c r="I8">
-        <v>2.728189921772229E-24</v>
+        <v>1.493615881207828E-37</v>
       </c>
       <c r="J8">
-        <v>31</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="K8">
-        <v>49.56000137329102</v>
+        <v>23.45999908447266</v>
       </c>
       <c r="L8">
-        <v>2.368982600506172</v>
+        <v>1.455666739979161</v>
       </c>
       <c r="M8">
-        <v>-2.388484528612196</v>
+        <v>-1.133809866837559</v>
       </c>
       <c r="N8">
-        <v>0.9543444574673373</v>
+        <v>0.5411226618397741</v>
       </c>
       <c r="O8">
-        <v>-1.072695375434023</v>
+        <v>-0.7310013753323474</v>
       </c>
       <c r="P8">
-        <v>0.01399061180042497</v>
+        <v>0.01238542950075523</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1964</v>
+        <v>2882</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.1402274467783574</v>
+        <v>0.4461501145711112</v>
       </c>
       <c r="E9">
-        <v>0.1629529466855067</v>
+        <v>0.7889686747681611</v>
       </c>
       <c r="F9">
-        <v>0.003621529236975053</v>
+        <v>0.002719933589528597</v>
       </c>
       <c r="G9">
-        <v>0.4065945798868782</v>
+        <v>10.49509528874882</v>
       </c>
       <c r="H9">
-        <v>0.4177475993135066</v>
+        <v>-0.1239578378207783</v>
       </c>
       <c r="I9">
-        <v>2.887750903032019E-28</v>
+        <v>9.341379586583657E-22</v>
       </c>
       <c r="J9">
-        <v>7.349999904632568</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="K9">
-        <v>17.60000038146973</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="L9">
-        <v>0.6883836639629495</v>
+        <v>0.7246467404550092</v>
       </c>
       <c r="M9">
-        <v>-1.020352643884531</v>
+        <v>-0.6826353476955989</v>
       </c>
       <c r="N9">
-        <v>0.3358493868840197</v>
+        <v>0.3093084979066636</v>
       </c>
       <c r="O9">
-        <v>-0.4089525825300884</v>
+        <v>-0.4087216902277158</v>
       </c>
       <c r="P9">
-        <v>0.01408920660262412</v>
+        <v>0.0135010170334012</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2883</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.2129449140892877</v>
+        <v>0.7757954722606379</v>
       </c>
       <c r="E10">
-        <v>0.8605580597695552</v>
+        <v>0.4094705229388068</v>
       </c>
       <c r="F10">
-        <v>0.001450121612313637</v>
+        <v>0.004002048850301614</v>
       </c>
       <c r="G10">
-        <v>9.884599158830259</v>
+        <v>6.439369873812961</v>
       </c>
       <c r="H10">
-        <v>-0.1128838711903208</v>
+        <v>1.005456011596647</v>
       </c>
       <c r="I10">
-        <v>1.178900164790249E-21</v>
+        <v>8.666251594471843E-59</v>
       </c>
       <c r="J10">
-        <v>4.75</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="K10">
-        <v>42.15000152587891</v>
+        <v>4.940000057220459</v>
       </c>
       <c r="L10">
-        <v>0.6315955050266737</v>
+        <v>1.030164589361203</v>
       </c>
       <c r="M10">
-        <v>-0.7674568631257328</v>
+        <v>-0.8275249756072185</v>
       </c>
       <c r="N10">
-        <v>0.3028700195601242</v>
+        <v>0.3647216115874634</v>
       </c>
       <c r="O10">
-        <v>-0.376543815911119</v>
+        <v>-0.6163226667800235</v>
       </c>
       <c r="P10">
-        <v>0.01430730643291492</v>
+        <v>0.01399700859156708</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3212</v>
+        <v>2046</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.1195691346505899</v>
+        <v>0.3473057094900707</v>
       </c>
       <c r="E11">
-        <v>0.7917084405090069</v>
+        <v>0.4773625870771286</v>
       </c>
       <c r="F11">
-        <v>0.006618297374467328</v>
+        <v>0.00191519289128311</v>
       </c>
       <c r="G11">
-        <v>27.58234421664657</v>
+        <v>23.40985150202713</v>
       </c>
       <c r="H11">
-        <v>-0.1435877244884584</v>
+        <v>9.021276774073343</v>
       </c>
       <c r="I11">
-        <v>1.453136911684447E-09</v>
+        <v>2.50853369506954E-42</v>
       </c>
       <c r="J11">
-        <v>20.82999992370605</v>
+        <v>37.86000061035156</v>
       </c>
       <c r="K11">
-        <v>39.36000061035156</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="L11">
-        <v>1.258859841720547</v>
+        <v>2.507812444658668</v>
       </c>
       <c r="M11">
-        <v>-1.442985956651775</v>
+        <v>-4.59896966862371</v>
       </c>
       <c r="N11">
-        <v>0.5793986757648704</v>
+        <v>1.299519398819999</v>
       </c>
       <c r="O11">
-        <v>-1.100731369435801</v>
+        <v>2.181212566534287</v>
       </c>
       <c r="P11">
-        <v>0.01456138274015185</v>
+        <v>0.01411305225929095</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -79,40 +79,46 @@
     <t>BBDC4</t>
   </si>
   <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
     <t>HYPE3</t>
   </si>
   <si>
+    <t>RENT3</t>
+  </si>
+  <si>
     <t>MULT3</t>
   </si>
   <si>
-    <t>RENT3</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
   </si>
 </sst>
 </file>
@@ -540,49 +546,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5999663722989867</v>
+        <v>0.5357982105667619</v>
       </c>
       <c r="E2">
-        <v>0.7757954722606379</v>
+        <v>0.7095459147308051</v>
       </c>
       <c r="F2">
-        <v>5.757103717914636E-08</v>
+        <v>1.203046686180259E-07</v>
       </c>
       <c r="G2">
-        <v>5.592372943210624</v>
+        <v>5.650882194150143</v>
       </c>
       <c r="H2">
-        <v>0.5747417812283709</v>
+        <v>0.5703204979827073</v>
       </c>
       <c r="I2">
-        <v>2.549011328157602E-69</v>
+        <v>4.278923330253675E-69</v>
       </c>
       <c r="J2">
-        <v>12.14999961853027</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="K2">
-        <v>10.78999996185303</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="L2">
-        <v>0.6592449863921086</v>
+        <v>0.6561103162468029</v>
       </c>
       <c r="M2">
-        <v>-0.4429053838958446</v>
+        <v>-0.4437976961740269</v>
       </c>
       <c r="N2">
-        <v>0.1834065436486344</v>
+        <v>0.185571652019279</v>
       </c>
       <c r="O2">
-        <v>0.3561628777901857</v>
+        <v>0.3713727825511635</v>
       </c>
       <c r="P2">
-        <v>0.005900305546980146</v>
+        <v>0.0061289777603926</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -596,497 +602,497 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2576961087566564</v>
+        <v>0.2353497038014862</v>
       </c>
       <c r="E3">
-        <v>0.6771363009224207</v>
+        <v>0.6277023017697683</v>
       </c>
       <c r="F3">
-        <v>0.0001016752038954797</v>
+        <v>9.356524508132127E-05</v>
       </c>
       <c r="G3">
-        <v>3.602334806015502</v>
+        <v>3.182224883979149</v>
       </c>
       <c r="H3">
-        <v>1.713878161368807</v>
+        <v>1.72627087359843</v>
       </c>
       <c r="I3">
-        <v>2.418488828288049E-39</v>
+        <v>4.057478049591604E-40</v>
       </c>
       <c r="J3">
-        <v>51.91999816894531</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="K3">
-        <v>29.52000045776367</v>
+        <v>29.79000091552734</v>
       </c>
       <c r="L3">
-        <v>5.916026323638334</v>
+        <v>5.950867314036827</v>
       </c>
       <c r="M3">
-        <v>-4.108005175699773</v>
+        <v>-4.102478099802426</v>
       </c>
       <c r="N3">
-        <v>1.966121854613021</v>
+        <v>1.967014657090996</v>
       </c>
       <c r="O3">
-        <v>-2.276020745228543</v>
+        <v>-2.057836551864028</v>
       </c>
       <c r="P3">
-        <v>0.009527129317043038</v>
+        <v>0.009552701310395255</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>54</v>
+        <v>611</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5999663722989867</v>
+        <v>0.4702973264471566</v>
       </c>
       <c r="E4">
-        <v>0.8139768978471323</v>
+        <v>0.729524128595004</v>
       </c>
       <c r="F4">
-        <v>0.000212180578126488</v>
+        <v>0.000178773454020623</v>
       </c>
       <c r="G4">
-        <v>2.852548156364877</v>
+        <v>2.530106714005559</v>
       </c>
       <c r="H4">
-        <v>0.3810873647365234</v>
+        <v>0.2210634077615202</v>
       </c>
       <c r="I4">
-        <v>9.774771008172643E-54</v>
+        <v>5.34437076807317E-52</v>
       </c>
       <c r="J4">
-        <v>12.14999961853027</v>
+        <v>13.82102489471436</v>
       </c>
       <c r="K4">
-        <v>22.88999938964844</v>
+        <v>48.5099983215332</v>
       </c>
       <c r="L4">
-        <v>0.724082843624398</v>
+        <v>2.439132341168722</v>
       </c>
       <c r="M4">
-        <v>-0.5455900868013916</v>
+        <v>-0.9028066011753282</v>
       </c>
       <c r="N4">
-        <v>0.2406279273925668</v>
+        <v>0.4414192581596096</v>
       </c>
       <c r="O4">
-        <v>0.5743619159436442</v>
+        <v>0.5671326412450437</v>
       </c>
       <c r="P4">
-        <v>0.009613386178929916</v>
+        <v>0.01002458681939102</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>611</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.4531265819871511</v>
+        <v>0.5357982105667619</v>
       </c>
       <c r="E5">
-        <v>0.7036746226281074</v>
+        <v>0.7183747476435751</v>
       </c>
       <c r="F5">
-        <v>0.0001718943640541833</v>
+        <v>0.0002875241542847995</v>
       </c>
       <c r="G5">
-        <v>2.44252123261693</v>
+        <v>2.997395888185558</v>
       </c>
       <c r="H5">
-        <v>0.2229358292894839</v>
+        <v>0.3757102125113675</v>
       </c>
       <c r="I5">
-        <v>8.17415458061433E-52</v>
+        <v>3.184424883310306E-53</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="K5">
-        <v>49.02999877929688</v>
+        <v>23.43000030517578</v>
       </c>
       <c r="L5">
-        <v>2.45147609130899</v>
+        <v>0.7185485920585339</v>
       </c>
       <c r="M5">
-        <v>-0.9070175852740228</v>
+        <v>-0.5581901183994695</v>
       </c>
       <c r="N5">
-        <v>0.4408790234068178</v>
+        <v>0.244183086740244</v>
       </c>
       <c r="O5">
-        <v>0.6269353294581403</v>
+        <v>0.5297136417214983</v>
       </c>
       <c r="P5">
-        <v>0.009874461246826763</v>
+        <v>0.01006486618170389</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>372</v>
+        <v>1864</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7757954722606379</v>
+        <v>0.3174770817093964</v>
       </c>
       <c r="E6">
-        <v>0.8139768978471323</v>
+        <v>0.1308243944511986</v>
       </c>
       <c r="F6">
-        <v>0.0006084472410317057</v>
+        <v>0.000513483251511563</v>
       </c>
       <c r="G6">
-        <v>-4.676974793863024</v>
+        <v>-2.50135322061781</v>
       </c>
       <c r="H6">
-        <v>0.6596206047514467</v>
+        <v>3.227541110870873</v>
       </c>
       <c r="I6">
-        <v>2.038542517896549E-72</v>
+        <v>3.565000072168046E-50</v>
       </c>
       <c r="J6">
-        <v>10.78999996185303</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="K6">
-        <v>22.88999938964844</v>
+        <v>7.510000228881836</v>
       </c>
       <c r="L6">
-        <v>0.5647423035032766</v>
+        <v>1.952480765460294</v>
       </c>
       <c r="M6">
-        <v>-0.724473525250751</v>
+        <v>-2.075278049910075</v>
       </c>
       <c r="N6">
-        <v>0.2876137533490935</v>
+        <v>0.8191689566557672</v>
       </c>
       <c r="O6">
-        <v>0.3682595155559039</v>
+        <v>-1.147481108160093</v>
       </c>
       <c r="P6">
-        <v>0.01121712578488736</v>
+        <v>0.0113358696924313</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>536</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.5888185520524708</v>
+        <v>0.1791871288934084</v>
       </c>
       <c r="E7">
-        <v>0.7036746226281074</v>
+        <v>0.3139163399253406</v>
       </c>
       <c r="F7">
-        <v>0.001229266718203751</v>
+        <v>0.0006007856644830706</v>
       </c>
       <c r="G7">
-        <v>1.780098529777501</v>
+        <v>1.549261618569978</v>
       </c>
       <c r="H7">
-        <v>0.2054528691031856</v>
+        <v>1.237241091064423</v>
       </c>
       <c r="I7">
-        <v>3.18013943283321E-54</v>
+        <v>9.999220778215864E-52</v>
       </c>
       <c r="J7">
-        <v>12.35999965667725</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="K7">
-        <v>49.02999877929688</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="L7">
-        <v>1.953354053100121</v>
+        <v>1.074480732748025</v>
       </c>
       <c r="M7">
-        <v>-0.861732425267526</v>
+        <v>-1.230053108716788</v>
       </c>
       <c r="N7">
-        <v>0.3863183182493943</v>
+        <v>0.4241360145288943</v>
       </c>
       <c r="O7">
-        <v>0.5065472055675144</v>
+        <v>-0.4428727744434457</v>
       </c>
       <c r="P7">
-        <v>0.01215884068414902</v>
+        <v>0.01137646436123567</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>240</v>
+        <v>907</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.1815919551967696</v>
+        <v>0.2663439373650849</v>
       </c>
       <c r="E8">
-        <v>0.3396449824179659</v>
+        <v>0.1854895534956165</v>
       </c>
       <c r="F8">
-        <v>0.001540310375646729</v>
+        <v>5.371451200907867E-05</v>
       </c>
       <c r="G8">
-        <v>3.123923861046858</v>
+        <v>13.72618379906472</v>
       </c>
       <c r="H8">
-        <v>0.4572496938818912</v>
+        <v>3.156493078115093</v>
       </c>
       <c r="I8">
-        <v>1.493615881207828E-37</v>
+        <v>2.247141933845647E-46</v>
       </c>
       <c r="J8">
-        <v>13.11999988555908</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="K8">
-        <v>23.45999908447266</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="L8">
-        <v>1.455666739979161</v>
+        <v>2.59172741170029</v>
       </c>
       <c r="M8">
-        <v>-1.133809866837559</v>
+        <v>-2.705608760793901</v>
       </c>
       <c r="N8">
-        <v>0.5411226618397741</v>
+        <v>1.109898499740331</v>
       </c>
       <c r="O8">
-        <v>-0.7310013753323474</v>
+        <v>1.157641241160075</v>
       </c>
       <c r="P8">
-        <v>0.01238542950075523</v>
+        <v>0.01142158109968093</v>
       </c>
       <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
         <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2882</v>
+        <v>3194</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.4461501145711112</v>
+        <v>0.1794735242663157</v>
       </c>
       <c r="E9">
-        <v>0.7889686747681611</v>
+        <v>0.6072932528551527</v>
       </c>
       <c r="F9">
-        <v>0.002719933589528597</v>
+        <v>0.001863878828870748</v>
       </c>
       <c r="G9">
-        <v>10.49509528874882</v>
+        <v>15.66100202152754</v>
       </c>
       <c r="H9">
-        <v>-0.1239578378207783</v>
+        <v>1.870472792593677</v>
       </c>
       <c r="I9">
-        <v>9.341379586583657E-22</v>
+        <v>9.680080237934678E-24</v>
       </c>
       <c r="J9">
-        <v>4.599999904632568</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="K9">
-        <v>44.2599983215332</v>
+        <v>3.140000104904175</v>
       </c>
       <c r="L9">
-        <v>0.7246467404550092</v>
+        <v>1.124015673309053</v>
       </c>
       <c r="M9">
-        <v>-0.6826353476955989</v>
+        <v>-1.317061761031169</v>
       </c>
       <c r="N9">
-        <v>0.3093084979066636</v>
+        <v>0.484250086665535</v>
       </c>
       <c r="O9">
-        <v>-0.4087216902277158</v>
+        <v>-1.004286099846583</v>
       </c>
       <c r="P9">
-        <v>0.0135010170334012</v>
+        <v>0.01236606574190068</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.7757954722606379</v>
+        <v>0.1791871288934084</v>
       </c>
       <c r="E10">
-        <v>0.4094705229388068</v>
+        <v>0.327802805960883</v>
       </c>
       <c r="F10">
-        <v>0.004002048850301614</v>
+        <v>0.001487710065611823</v>
       </c>
       <c r="G10">
-        <v>6.439369873812961</v>
+        <v>3.145803141729125</v>
       </c>
       <c r="H10">
-        <v>1.005456011596647</v>
+        <v>0.4560576893965707</v>
       </c>
       <c r="I10">
-        <v>8.666251594471843E-59</v>
+        <v>1.603617103484456E-37</v>
       </c>
       <c r="J10">
-        <v>10.78999996185303</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="K10">
-        <v>4.940000057220459</v>
+        <v>23.30999946594238</v>
       </c>
       <c r="L10">
-        <v>1.030164589361203</v>
+        <v>1.459596840959334</v>
       </c>
       <c r="M10">
-        <v>-0.8275249756072185</v>
+        <v>-1.12740457316351</v>
       </c>
       <c r="N10">
-        <v>0.3647216115874634</v>
+        <v>0.5420941595135096</v>
       </c>
       <c r="O10">
-        <v>-0.6163226667800235</v>
+        <v>-0.656507752443023</v>
       </c>
       <c r="P10">
-        <v>0.01399700859156708</v>
+        <v>0.01249226438253857</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2046</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>0.3473057094900707</v>
+        <v>0.5835891999063294</v>
       </c>
       <c r="E11">
-        <v>0.4773625870771286</v>
+        <v>0.729524128595004</v>
       </c>
       <c r="F11">
-        <v>0.00191519289128311</v>
+        <v>0.001753083152238889</v>
       </c>
       <c r="G11">
-        <v>23.40985150202713</v>
+        <v>1.877991946489502</v>
       </c>
       <c r="H11">
-        <v>9.021276774073343</v>
+        <v>0.2034374562674147</v>
       </c>
       <c r="I11">
-        <v>2.50853369506954E-42</v>
+        <v>3.537063228189934E-54</v>
       </c>
       <c r="J11">
-        <v>37.86000061035156</v>
+        <v>12.3727502822876</v>
       </c>
       <c r="K11">
-        <v>1.360000014305115</v>
+        <v>48.5099983215332</v>
       </c>
       <c r="L11">
-        <v>2.507812444658668</v>
+        <v>1.94071942121337</v>
       </c>
       <c r="M11">
-        <v>-4.59896966862371</v>
+        <v>-0.8571206081257774</v>
       </c>
       <c r="N11">
-        <v>1.299519398819999</v>
+        <v>0.3882053177709707</v>
       </c>
       <c r="O11">
-        <v>2.181212566534287</v>
+        <v>0.6260076737288234</v>
       </c>
       <c r="P11">
-        <v>0.01411305225929095</v>
+        <v>0.01258531997615053</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
         <v>25</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -76,49 +76,40 @@
     <t>ARZZ3</t>
   </si>
   <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
     <t>HYPE3</t>
   </si>
   <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
     <t>RENT3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
   </si>
 </sst>
 </file>
@@ -546,49 +537,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5357982105667619</v>
+        <v>0.4418185463339067</v>
       </c>
       <c r="E2">
-        <v>0.7095459147308051</v>
+        <v>0.4328300245903251</v>
       </c>
       <c r="F2">
-        <v>1.203046686180259E-07</v>
+        <v>1.082439779471525E-07</v>
       </c>
       <c r="G2">
-        <v>5.650882194150143</v>
+        <v>5.632317807725778</v>
       </c>
       <c r="H2">
-        <v>0.5703204979827073</v>
+        <v>0.5717264003431262</v>
       </c>
       <c r="I2">
-        <v>4.278923330253675E-69</v>
+        <v>2.690040434651378E-67</v>
       </c>
       <c r="J2">
-        <v>12.32999992370605</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="K2">
-        <v>11.0600004196167</v>
+        <v>11.39000034332275</v>
       </c>
       <c r="L2">
-        <v>0.6561103162468029</v>
+        <v>0.657066408988074</v>
       </c>
       <c r="M2">
-        <v>-0.4437976961740269</v>
+        <v>-0.4435546399072656</v>
       </c>
       <c r="N2">
-        <v>0.185571652019279</v>
+        <v>0.186886417268356</v>
       </c>
       <c r="O2">
-        <v>0.3713727825511635</v>
+        <v>0.2257181816384142</v>
       </c>
       <c r="P2">
-        <v>0.0061289777603926</v>
+        <v>0.006140559634562713</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -602,500 +593,500 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.2353497038014862</v>
+        <v>0.2775674150462599</v>
       </c>
       <c r="E3">
-        <v>0.6277023017697683</v>
+        <v>0.3539552964923563</v>
       </c>
       <c r="F3">
-        <v>9.356524508132127E-05</v>
+        <v>9.788193970575369E-05</v>
       </c>
       <c r="G3">
-        <v>3.182224883979149</v>
+        <v>2.721028728854765</v>
       </c>
       <c r="H3">
-        <v>1.72627087359843</v>
+        <v>1.739965109871351</v>
       </c>
       <c r="I3">
-        <v>4.057478049591604E-40</v>
+        <v>6.357954798505151E-40</v>
       </c>
       <c r="J3">
-        <v>52.54999923706055</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="K3">
-        <v>29.79000091552734</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="L3">
-        <v>5.950867314036827</v>
+        <v>5.986332307111567</v>
       </c>
       <c r="M3">
-        <v>-4.102478099802426</v>
+        <v>-4.101178450268065</v>
       </c>
       <c r="N3">
-        <v>1.967014657090996</v>
+        <v>1.984804183690859</v>
       </c>
       <c r="O3">
-        <v>-2.057836551864028</v>
+        <v>-2.742372283693015</v>
       </c>
       <c r="P3">
-        <v>0.009552701310395255</v>
+        <v>0.009625099862629313</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>611</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4702973264471566</v>
+        <v>0.2775674150462599</v>
       </c>
       <c r="E4">
-        <v>0.729524128595004</v>
+        <v>0.6509900963119403</v>
       </c>
       <c r="F4">
-        <v>0.000178773454020623</v>
+        <v>0.000963303255697768</v>
       </c>
       <c r="G4">
-        <v>2.530106714005559</v>
+        <v>38.49514640880157</v>
       </c>
       <c r="H4">
-        <v>0.2210634077615202</v>
+        <v>6.777120750725551</v>
       </c>
       <c r="I4">
-        <v>5.34437076807317E-52</v>
+        <v>2.154578936362653E-38</v>
       </c>
       <c r="J4">
-        <v>13.82102489471436</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="K4">
-        <v>48.5099983215332</v>
+        <v>2.390000104904175</v>
       </c>
       <c r="L4">
-        <v>2.439132341168722</v>
+        <v>6.121199410844142</v>
       </c>
       <c r="M4">
-        <v>-0.9028066011753282</v>
+        <v>-4.450609796213286</v>
       </c>
       <c r="N4">
-        <v>0.4414192581596096</v>
+        <v>2.038756316821276</v>
       </c>
       <c r="O4">
-        <v>0.5671326412450437</v>
+        <v>-2.062464645868658</v>
       </c>
       <c r="P4">
-        <v>0.01002458681939102</v>
+        <v>0.01194848927004039</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>54</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5357982105667619</v>
+        <v>0.533383292647156</v>
       </c>
       <c r="E5">
-        <v>0.7183747476435751</v>
+        <v>0.5974606971696934</v>
       </c>
       <c r="F5">
-        <v>0.0002875241542847995</v>
+        <v>0.00187689787531495</v>
       </c>
       <c r="G5">
-        <v>2.997395888185558</v>
+        <v>1.985504771474666</v>
       </c>
       <c r="H5">
-        <v>0.3757102125113675</v>
+        <v>0.2016425171055171</v>
       </c>
       <c r="I5">
-        <v>3.184424883310306E-53</v>
+        <v>8.201678228651009E-53</v>
       </c>
       <c r="J5">
-        <v>12.32999992370605</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="K5">
-        <v>23.43000030517578</v>
+        <v>49.88000106811523</v>
       </c>
       <c r="L5">
-        <v>0.7185485920585339</v>
+        <v>1.927092971172485</v>
       </c>
       <c r="M5">
-        <v>-0.5581901183994695</v>
+        <v>-0.8569161148230737</v>
       </c>
       <c r="N5">
-        <v>0.244183086740244</v>
+        <v>0.3914395902806684</v>
       </c>
       <c r="O5">
-        <v>0.5297136417214983</v>
+        <v>0.4465660310428614</v>
       </c>
       <c r="P5">
-        <v>0.01006486618170389</v>
+        <v>0.01270464824562391</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1864</v>
+        <v>2004</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3174770817093964</v>
+        <v>0.3917288451277716</v>
       </c>
       <c r="E6">
-        <v>0.1308243944511986</v>
+        <v>0.3914497746365908</v>
       </c>
       <c r="F6">
-        <v>0.000513483251511563</v>
+        <v>0.003526453630034177</v>
       </c>
       <c r="G6">
-        <v>-2.50135322061781</v>
+        <v>14.37819742872116</v>
       </c>
       <c r="H6">
-        <v>3.227541110870873</v>
+        <v>1.019231320150038</v>
       </c>
       <c r="I6">
-        <v>3.565000072168046E-50</v>
+        <v>9.485408765383358E-40</v>
       </c>
       <c r="J6">
-        <v>20.59000015258789</v>
+        <v>42.63999938964844</v>
       </c>
       <c r="K6">
-        <v>7.510000228881836</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="L6">
-        <v>1.952480765460294</v>
+        <v>1.574500778499605</v>
       </c>
       <c r="M6">
-        <v>-2.075278049910075</v>
+        <v>-2.296829570256293</v>
       </c>
       <c r="N6">
-        <v>0.8191689566557672</v>
+        <v>0.8347667450188608</v>
       </c>
       <c r="O6">
-        <v>-1.147481108160093</v>
+        <v>1.517172353473821</v>
       </c>
       <c r="P6">
-        <v>0.0113358696924313</v>
+        <v>0.01343635832746475</v>
       </c>
       <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
         <v>21</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>206</v>
+        <v>1703</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1791871288934084</v>
+        <v>0.8023278566552274</v>
       </c>
       <c r="E7">
-        <v>0.3139163399253406</v>
+        <v>0.2097320638916421</v>
       </c>
       <c r="F7">
-        <v>0.0006007856644830706</v>
+        <v>0.001989471611091676</v>
       </c>
       <c r="G7">
-        <v>1.549261618569978</v>
+        <v>-13.75310853296732</v>
       </c>
       <c r="H7">
-        <v>1.237241091064423</v>
+        <v>0.9373536814769722</v>
       </c>
       <c r="I7">
-        <v>9.999220778215864E-52</v>
+        <v>2.355171554738743E-49</v>
       </c>
       <c r="J7">
-        <v>13.11999988555908</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="K7">
-        <v>9.710000038146973</v>
+        <v>31.61000061035156</v>
       </c>
       <c r="L7">
-        <v>1.074480732748025</v>
+        <v>1.401263602923983</v>
       </c>
       <c r="M7">
-        <v>-1.230053108716788</v>
+        <v>-1.21489080923029</v>
       </c>
       <c r="N7">
-        <v>0.4241360145288943</v>
+        <v>0.6436528954154918</v>
       </c>
       <c r="O7">
-        <v>-0.4428727744434457</v>
+        <v>-1.136642139516894</v>
       </c>
       <c r="P7">
-        <v>0.01137646436123567</v>
+        <v>0.01390918310348128</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>907</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2663439373650849</v>
+        <v>0.533383292647156</v>
       </c>
       <c r="E8">
-        <v>0.1854895534956165</v>
+        <v>0.1873019657434423</v>
       </c>
       <c r="F8">
-        <v>5.371451200907867E-05</v>
+        <v>0.003865451983458193</v>
       </c>
       <c r="G8">
-        <v>13.72618379906472</v>
+        <v>-7.39903263465043</v>
       </c>
       <c r="H8">
-        <v>3.156493078115093</v>
+        <v>0.6153112329772159</v>
       </c>
       <c r="I8">
-        <v>2.247141933845647E-46</v>
+        <v>1.794395940532268E-47</v>
       </c>
       <c r="J8">
-        <v>34.16999816894531</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="K8">
-        <v>6.110000133514404</v>
+        <v>33.08000183105469</v>
       </c>
       <c r="L8">
-        <v>2.59172741170029</v>
+        <v>0.9433229021612615</v>
       </c>
       <c r="M8">
-        <v>-2.705608760793901</v>
+        <v>-1.12346809027356</v>
       </c>
       <c r="N8">
-        <v>1.109898499740331</v>
+        <v>0.429892348937701</v>
       </c>
       <c r="O8">
-        <v>1.157641241160075</v>
+        <v>-0.4654643077862239</v>
       </c>
       <c r="P8">
-        <v>0.01142158109968093</v>
+        <v>0.01455027609396796</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3194</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.1794735242663157</v>
+        <v>0.4586943860725625</v>
       </c>
       <c r="E9">
-        <v>0.6072932528551527</v>
+        <v>0.1873019657434423</v>
       </c>
       <c r="F9">
-        <v>0.001863878828870748</v>
+        <v>0.004622963840213116</v>
       </c>
       <c r="G9">
-        <v>15.66100202152754</v>
+        <v>-6.901357816268924</v>
       </c>
       <c r="H9">
-        <v>1.870472792593677</v>
+        <v>0.6489586898980695</v>
       </c>
       <c r="I9">
-        <v>9.680080237934678E-24</v>
+        <v>2.52320663738361E-39</v>
       </c>
       <c r="J9">
-        <v>20.53000068664551</v>
+        <v>13.77999973297119</v>
       </c>
       <c r="K9">
-        <v>3.140000104904175</v>
+        <v>33.08000183105469</v>
       </c>
       <c r="L9">
-        <v>1.124015673309053</v>
+        <v>1.374388529844985</v>
       </c>
       <c r="M9">
-        <v>-1.317061761031169</v>
+        <v>-1.546771692774271</v>
       </c>
       <c r="N9">
-        <v>0.484250086665535</v>
+        <v>0.5462736901840366</v>
       </c>
       <c r="O9">
-        <v>-1.004286099846583</v>
+        <v>-0.7861971008668753</v>
       </c>
       <c r="P9">
-        <v>0.01236606574190068</v>
+        <v>0.01476118405310081</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>240</v>
+        <v>2021</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.1791871288934084</v>
+        <v>0.3917288451277716</v>
       </c>
       <c r="E10">
-        <v>0.327802805960883</v>
+        <v>0.5244605531071468</v>
       </c>
       <c r="F10">
-        <v>0.001487710065611823</v>
+        <v>0.007817761051117457</v>
       </c>
       <c r="G10">
-        <v>3.145803141729125</v>
+        <v>19.09235481816456</v>
       </c>
       <c r="H10">
-        <v>0.4560576893965707</v>
+        <v>0.3440180418841531</v>
       </c>
       <c r="I10">
-        <v>1.603617103484456E-37</v>
+        <v>2.420494028073251E-40</v>
       </c>
       <c r="J10">
-        <v>13.11999988555908</v>
+        <v>42.63999938964844</v>
       </c>
       <c r="K10">
-        <v>23.30999946594238</v>
+        <v>63.9900016784668</v>
       </c>
       <c r="L10">
-        <v>1.459596840959334</v>
+        <v>2.209316619270822</v>
       </c>
       <c r="M10">
-        <v>-1.12740457316351</v>
+        <v>-2.446495782808725</v>
       </c>
       <c r="N10">
-        <v>0.5420941595135096</v>
+        <v>0.8261315024464173</v>
       </c>
       <c r="O10">
-        <v>-0.656507752443023</v>
+        <v>1.533929493894064</v>
       </c>
       <c r="P10">
-        <v>0.01249226438253857</v>
+        <v>0.01489070965573176</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>0.5835891999063294</v>
+        <v>0.533383292647156</v>
       </c>
       <c r="E11">
-        <v>0.729524128595004</v>
+        <v>0.4586943860725625</v>
       </c>
       <c r="F11">
-        <v>0.001753083152238889</v>
+        <v>0.005204713466407735</v>
       </c>
       <c r="G11">
-        <v>1.877991946489502</v>
+        <v>-0.125791060729387</v>
       </c>
       <c r="H11">
-        <v>0.2034374562674147</v>
+        <v>0.8987225516567833</v>
       </c>
       <c r="I11">
-        <v>3.537063228189934E-54</v>
+        <v>3.370844759113263E-113</v>
       </c>
       <c r="J11">
-        <v>12.3727502822876</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="K11">
-        <v>48.5099983215332</v>
+        <v>13.77999973297119</v>
       </c>
       <c r="L11">
-        <v>1.94071942121337</v>
+        <v>0.4569187754680932</v>
       </c>
       <c r="M11">
-        <v>-0.8571206081257774</v>
+        <v>-0.273301723989464</v>
       </c>
       <c r="N11">
-        <v>0.3882053177709707</v>
+        <v>0.1355083305318971</v>
       </c>
       <c r="O11">
-        <v>0.6260076737288234</v>
+        <v>0.2313943100018907</v>
       </c>
       <c r="P11">
-        <v>0.01258531997615053</v>
+        <v>0.01490625437524919</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -76,40 +76,43 @@
     <t>ARZZ3</t>
   </si>
   <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
+    <t>BRKM5</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>CVCB3</t>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>RENT3</t>
   </si>
   <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
   </si>
 </sst>
 </file>
@@ -540,43 +543,43 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.4418185463339067</v>
+        <v>0.4188662848709525</v>
       </c>
       <c r="E2">
-        <v>0.4328300245903251</v>
+        <v>0.4500809262973907</v>
       </c>
       <c r="F2">
-        <v>1.082439779471525E-07</v>
+        <v>1.584290408324423E-07</v>
       </c>
       <c r="G2">
-        <v>5.632317807725778</v>
+        <v>5.645447110230703</v>
       </c>
       <c r="H2">
-        <v>0.5717264003431262</v>
+        <v>0.5707796455060422</v>
       </c>
       <c r="I2">
-        <v>2.690040434651378E-67</v>
+        <v>1.556811804679277E-66</v>
       </c>
       <c r="J2">
-        <v>12.36999988555908</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="K2">
-        <v>11.39000034332275</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="L2">
-        <v>0.657066408988074</v>
+        <v>0.6557947842896628</v>
       </c>
       <c r="M2">
-        <v>-0.4435546399072656</v>
+        <v>-0.4443460956051357</v>
       </c>
       <c r="N2">
-        <v>0.186886417268356</v>
+        <v>0.187878758115527</v>
       </c>
       <c r="O2">
-        <v>0.2257181816384142</v>
+        <v>0.2348788486187949</v>
       </c>
       <c r="P2">
-        <v>0.006140559634562713</v>
+        <v>0.006242651102681942</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -587,63 +590,63 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.2775674150462599</v>
+        <v>0.4188662848709525</v>
       </c>
       <c r="E3">
-        <v>0.3539552964923563</v>
+        <v>0.3740608390492673</v>
       </c>
       <c r="F3">
-        <v>9.788193970575369E-05</v>
+        <v>0.0001216558143100059</v>
       </c>
       <c r="G3">
-        <v>2.721028728854765</v>
+        <v>2.994321796051068</v>
       </c>
       <c r="H3">
-        <v>1.739965109871351</v>
+        <v>0.3758526478771495</v>
       </c>
       <c r="I3">
-        <v>6.357954798505151E-40</v>
+        <v>5.639595631562664E-51</v>
       </c>
       <c r="J3">
-        <v>52.63000106811523</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="K3">
-        <v>30.26000022888184</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="L3">
-        <v>5.986332307111567</v>
+        <v>0.7179324099200315</v>
       </c>
       <c r="M3">
-        <v>-4.101178450268065</v>
+        <v>-0.5586198327444052</v>
       </c>
       <c r="N3">
-        <v>1.984804183690859</v>
+        <v>0.2468919299036403</v>
       </c>
       <c r="O3">
-        <v>-2.742372283693015</v>
+        <v>0.2811149358834122</v>
       </c>
       <c r="P3">
-        <v>0.009625099862629313</v>
+        <v>0.009609536916464224</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -652,43 +655,43 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.2775674150462599</v>
+        <v>0.3307139807054928</v>
       </c>
       <c r="E4">
-        <v>0.6509900963119403</v>
+        <v>0.3418951610859668</v>
       </c>
       <c r="F4">
-        <v>0.000963303255697768</v>
+        <v>0.0001247013449823754</v>
       </c>
       <c r="G4">
-        <v>38.49514640880157</v>
+        <v>2.052390022975408</v>
       </c>
       <c r="H4">
-        <v>6.777120750725551</v>
+        <v>1.760421545926494</v>
       </c>
       <c r="I4">
-        <v>2.154578936362653E-38</v>
+        <v>1.286694039606585E-40</v>
       </c>
       <c r="J4">
-        <v>52.63000106811523</v>
+        <v>51.75</v>
       </c>
       <c r="K4">
-        <v>2.390000104904175</v>
+        <v>30.03000068664551</v>
       </c>
       <c r="L4">
-        <v>6.121199410844142</v>
+        <v>6.019014241135586</v>
       </c>
       <c r="M4">
-        <v>-4.450609796213286</v>
+        <v>-4.168047428628256</v>
       </c>
       <c r="N4">
-        <v>2.038756316821276</v>
+        <v>1.987862717189905</v>
       </c>
       <c r="O4">
-        <v>-2.062464645868658</v>
+        <v>-3.16785025593358</v>
       </c>
       <c r="P4">
-        <v>0.01194848927004039</v>
+        <v>0.009680463197243578</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>536</v>
+        <v>1863</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -708,278 +711,278 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.533383292647156</v>
+        <v>0.6400333894807635</v>
       </c>
       <c r="E5">
-        <v>0.5974606971696934</v>
+        <v>0.7711531243538521</v>
       </c>
       <c r="F5">
-        <v>0.00187689787531495</v>
+        <v>5.598030537094346E-05</v>
       </c>
       <c r="G5">
-        <v>1.985504771474666</v>
+        <v>-0.8587177597784832</v>
       </c>
       <c r="H5">
-        <v>0.2016425171055171</v>
+        <v>0.2090102174848695</v>
       </c>
       <c r="I5">
-        <v>8.201678228651009E-53</v>
+        <v>4.723748191613335E-58</v>
       </c>
       <c r="J5">
-        <v>12.48999977111816</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="K5">
-        <v>49.88000106811523</v>
+        <v>16.35000038146973</v>
       </c>
       <c r="L5">
-        <v>1.927092971172485</v>
+        <v>0.4659383779906729</v>
       </c>
       <c r="M5">
-        <v>-0.8569161148230737</v>
+        <v>-0.3966834327806508</v>
       </c>
       <c r="N5">
-        <v>0.3914395902806684</v>
+        <v>0.1819334234107916</v>
       </c>
       <c r="O5">
-        <v>0.4465660310428614</v>
+        <v>-0.1885994902711219</v>
       </c>
       <c r="P5">
-        <v>0.01270464824562391</v>
+        <v>0.01072932220569904</v>
       </c>
       <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
         <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2004</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3917288451277716</v>
+        <v>0.4188662848709525</v>
       </c>
       <c r="E6">
-        <v>0.3914497746365908</v>
+        <v>0.4728118203099765</v>
       </c>
       <c r="F6">
-        <v>0.003526453630034177</v>
+        <v>0.0007405270422077643</v>
       </c>
       <c r="G6">
-        <v>14.37819742872116</v>
+        <v>9.10736768675963</v>
       </c>
       <c r="H6">
-        <v>1.019231320150038</v>
+        <v>0.6079812376690552</v>
       </c>
       <c r="I6">
-        <v>9.485408765383358E-40</v>
+        <v>1.143369487879059E-55</v>
       </c>
       <c r="J6">
-        <v>42.63999938964844</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="K6">
-        <v>26.23999977111816</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="L6">
-        <v>1.574500778499605</v>
+        <v>0.6157070660162667</v>
       </c>
       <c r="M6">
-        <v>-2.296829570256293</v>
+        <v>-0.6807652082270028</v>
       </c>
       <c r="N6">
-        <v>0.8347667450188608</v>
+        <v>0.2273707542003517</v>
       </c>
       <c r="O6">
-        <v>1.517172353473821</v>
+        <v>0.2358479168423813</v>
       </c>
       <c r="P6">
-        <v>0.01343635832746475</v>
+        <v>0.0114647542354962</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1703</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0.8023278566552274</v>
+        <v>0.3307139807054928</v>
       </c>
       <c r="E7">
-        <v>0.2097320638916421</v>
+        <v>0.6400333894807635</v>
       </c>
       <c r="F7">
-        <v>0.001989471611091676</v>
+        <v>0.0009713291370450999</v>
       </c>
       <c r="G7">
-        <v>-13.75310853296732</v>
+        <v>38.17339535841923</v>
       </c>
       <c r="H7">
-        <v>0.9373536814769722</v>
+        <v>6.870139101438713</v>
       </c>
       <c r="I7">
-        <v>2.355171554738743E-49</v>
+        <v>5.960186111738349E-39</v>
       </c>
       <c r="J7">
-        <v>14.73999977111816</v>
+        <v>51.75</v>
       </c>
       <c r="K7">
-        <v>31.61000061035156</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="L7">
-        <v>1.401263602923983</v>
+        <v>6.173197235287383</v>
       </c>
       <c r="M7">
-        <v>-1.21489080923029</v>
+        <v>-4.45628333856709</v>
       </c>
       <c r="N7">
-        <v>0.6436528954154918</v>
+        <v>2.046766946000674</v>
       </c>
       <c r="O7">
-        <v>-1.136642139516894</v>
+        <v>-2.705624242603957</v>
       </c>
       <c r="P7">
-        <v>0.01390918310348128</v>
+        <v>0.011959477228744</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>492</v>
+        <v>3194</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.533383292647156</v>
+        <v>0.1234949626495085</v>
       </c>
       <c r="E8">
-        <v>0.1873019657434423</v>
+        <v>0.6153639893034089</v>
       </c>
       <c r="F8">
-        <v>0.003865451983458193</v>
+        <v>0.00121206413295536</v>
       </c>
       <c r="G8">
-        <v>-7.39903263465043</v>
+        <v>15.53214239249853</v>
       </c>
       <c r="H8">
-        <v>0.6153112329772159</v>
+        <v>1.905748771767493</v>
       </c>
       <c r="I8">
-        <v>1.794395940532268E-47</v>
+        <v>2.703622054806201E-24</v>
       </c>
       <c r="J8">
-        <v>12.48999977111816</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="K8">
-        <v>33.08000183105469</v>
+        <v>3.160000085830688</v>
       </c>
       <c r="L8">
-        <v>0.9433229021612615</v>
+        <v>1.132597561768019</v>
       </c>
       <c r="M8">
-        <v>-1.12346809027356</v>
+        <v>-1.296135182163731</v>
       </c>
       <c r="N8">
-        <v>0.429892348937701</v>
+        <v>0.4875003559448446</v>
       </c>
       <c r="O8">
-        <v>-0.4654643077862239</v>
+        <v>-0.7543094377949906</v>
       </c>
       <c r="P8">
-        <v>0.01455027609396796</v>
+        <v>0.01229380511967316</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4586943860725625</v>
+        <v>0.5228331948196481</v>
       </c>
       <c r="E9">
-        <v>0.1873019657434423</v>
+        <v>0.6451704472683683</v>
       </c>
       <c r="F9">
-        <v>0.004622963840213116</v>
+        <v>0.002146134680950408</v>
       </c>
       <c r="G9">
-        <v>-6.901357816268924</v>
+        <v>2.056941340843653</v>
       </c>
       <c r="H9">
-        <v>0.6489586898980695</v>
+        <v>0.2004165006126163</v>
       </c>
       <c r="I9">
-        <v>2.52320663738361E-39</v>
+        <v>2.012635369530175E-52</v>
       </c>
       <c r="J9">
-        <v>13.77999973297119</v>
+        <v>12.31999969482422</v>
       </c>
       <c r="K9">
-        <v>33.08000183105469</v>
+        <v>48.88000106811523</v>
       </c>
       <c r="L9">
-        <v>1.374388529844985</v>
+        <v>1.919784616610876</v>
       </c>
       <c r="M9">
-        <v>-1.546771692774271</v>
+        <v>-0.8547752370806556</v>
       </c>
       <c r="N9">
-        <v>0.5462736901840366</v>
+        <v>0.3935767444326023</v>
       </c>
       <c r="O9">
-        <v>-0.7861971008668753</v>
+        <v>0.4666995899679609</v>
       </c>
       <c r="P9">
-        <v>0.01476118405310081</v>
+        <v>0.01292735960987337</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2021</v>
+        <v>3212</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -988,105 +991,105 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.3917288451277716</v>
+        <v>0.1234949626495085</v>
       </c>
       <c r="E10">
-        <v>0.5244605531071468</v>
+        <v>0.6861413924649881</v>
       </c>
       <c r="F10">
-        <v>0.007817761051117457</v>
+        <v>0.001988261259233063</v>
       </c>
       <c r="G10">
-        <v>19.09235481816456</v>
+        <v>28.6079154262605</v>
       </c>
       <c r="H10">
-        <v>0.3440180418841531</v>
+        <v>-0.1757586853280326</v>
       </c>
       <c r="I10">
-        <v>2.420494028073251E-40</v>
+        <v>5.877970213600138E-13</v>
       </c>
       <c r="J10">
-        <v>42.63999938964844</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="K10">
-        <v>63.9900016784668</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="L10">
-        <v>2.209316619270822</v>
+        <v>1.374864859939361</v>
       </c>
       <c r="M10">
-        <v>-2.446495782808725</v>
+        <v>-1.589061212734535</v>
       </c>
       <c r="N10">
-        <v>0.8261315024464173</v>
+        <v>0.5938814926374297</v>
       </c>
       <c r="O10">
-        <v>1.533929493894064</v>
+        <v>-1.018357987247522</v>
       </c>
       <c r="P10">
-        <v>0.01489070965573176</v>
+        <v>0.01349931481623339</v>
       </c>
       <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
         <v>31</v>
-      </c>
-      <c r="R10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>478</v>
+        <v>1091</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.533383292647156</v>
+        <v>0.4749173949514898</v>
       </c>
       <c r="E11">
-        <v>0.4586943860725625</v>
+        <v>0.4923889093374322</v>
       </c>
       <c r="F11">
-        <v>0.005204713466407735</v>
+        <v>0.00471388110665439</v>
       </c>
       <c r="G11">
-        <v>-0.125791060729387</v>
+        <v>-22.05856235362196</v>
       </c>
       <c r="H11">
-        <v>0.8987225516567833</v>
+        <v>2.110187252394753</v>
       </c>
       <c r="I11">
-        <v>3.370844759113263E-113</v>
+        <v>1.465860174018719E-48</v>
       </c>
       <c r="J11">
-        <v>12.48999977111816</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="K11">
-        <v>13.77999973297119</v>
+        <v>20.81818008422852</v>
       </c>
       <c r="L11">
-        <v>0.4569187754680932</v>
+        <v>3.096156999267251</v>
       </c>
       <c r="M11">
-        <v>-0.273301723989464</v>
+        <v>-3.27249409517318</v>
       </c>
       <c r="N11">
-        <v>0.1355083305318971</v>
+        <v>1.215078596828658</v>
       </c>
       <c r="O11">
-        <v>0.2313943100018907</v>
+        <v>-2.171695115235934</v>
       </c>
       <c r="P11">
-        <v>0.01490625437524919</v>
+        <v>0.01406852388679571</v>
       </c>
       <c r="Q11" t="s">
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,46 +73,49 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
     <t>ARZZ3</t>
   </si>
   <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
     <t>CVCB3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>RAIL3</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>MULT3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
     <t>CMIN3</t>
   </si>
   <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
     <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>KLBN11</t>
   </si>
 </sst>
 </file>
@@ -540,49 +543,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.4188662848709525</v>
+        <v>0.339388547519448</v>
       </c>
       <c r="E2">
-        <v>0.4500809262973907</v>
+        <v>0.481971418901445</v>
       </c>
       <c r="F2">
-        <v>1.584290408324423E-07</v>
+        <v>3.195724481516242E-07</v>
       </c>
       <c r="G2">
-        <v>5.645447110230703</v>
+        <v>5.69109546634802</v>
       </c>
       <c r="H2">
-        <v>0.5707796455060422</v>
+        <v>0.5673910372116245</v>
       </c>
       <c r="I2">
-        <v>1.556811804679277E-66</v>
+        <v>2.832908323198412E-65</v>
       </c>
       <c r="J2">
-        <v>12.44999980926514</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="K2">
-        <v>11.51000022888184</v>
+        <v>11.57999992370605</v>
       </c>
       <c r="L2">
-        <v>0.6557947842896628</v>
+        <v>0.6525872204385301</v>
       </c>
       <c r="M2">
-        <v>-0.4443460956051357</v>
+        <v>-0.4458345058917281</v>
       </c>
       <c r="N2">
-        <v>0.187878758115527</v>
+        <v>0.1901703562043722</v>
       </c>
       <c r="O2">
-        <v>0.2348788486187949</v>
+        <v>0.3385167474995958</v>
       </c>
       <c r="P2">
-        <v>0.006242651102681942</v>
+        <v>0.006406484057275139</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -590,58 +593,58 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>54</v>
+        <v>1115</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.4188662848709525</v>
+        <v>0.4749323511032622</v>
       </c>
       <c r="E3">
-        <v>0.3740608390492673</v>
+        <v>0.6706017262494393</v>
       </c>
       <c r="F3">
-        <v>0.0001216558143100059</v>
+        <v>0.005941323273186416</v>
       </c>
       <c r="G3">
-        <v>2.994321796051068</v>
+        <v>-12.05005882544864</v>
       </c>
       <c r="H3">
-        <v>0.3758526478771495</v>
+        <v>0.5840424630673654</v>
       </c>
       <c r="I3">
-        <v>5.639595631562664E-51</v>
+        <v>2.741203372166772E-51</v>
       </c>
       <c r="J3">
-        <v>12.44999980926514</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="K3">
-        <v>24.40999984741211</v>
+        <v>52.18000030517578</v>
       </c>
       <c r="L3">
-        <v>0.7179324099200315</v>
+        <v>3.051818091694358</v>
       </c>
       <c r="M3">
-        <v>-0.5586198327444052</v>
+        <v>-2.988785847505376</v>
       </c>
       <c r="N3">
-        <v>0.2468919299036403</v>
+        <v>1.155708990293148</v>
       </c>
       <c r="O3">
-        <v>0.2811149358834122</v>
+        <v>1.62472216141845</v>
       </c>
       <c r="P3">
-        <v>0.009609536916464224</v>
+        <v>0.00967508052422442</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,332 +652,332 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.3307139807054928</v>
+        <v>0.3503676905639561</v>
       </c>
       <c r="E4">
-        <v>0.3418951610859668</v>
+        <v>0.3519344152375303</v>
       </c>
       <c r="F4">
-        <v>0.0001247013449823754</v>
+        <v>0.0001857100881777193</v>
       </c>
       <c r="G4">
-        <v>2.052390022975408</v>
+        <v>1.424715343759483</v>
       </c>
       <c r="H4">
-        <v>1.760421545926494</v>
+        <v>1.779529358380457</v>
       </c>
       <c r="I4">
-        <v>1.286694039606585E-40</v>
+        <v>3.82272337586056E-41</v>
       </c>
       <c r="J4">
-        <v>51.75</v>
+        <v>51.79000091552734</v>
       </c>
       <c r="K4">
-        <v>30.03000068664551</v>
+        <v>30.13999938964844</v>
       </c>
       <c r="L4">
-        <v>6.019014241135586</v>
+        <v>6.052658626282593</v>
       </c>
       <c r="M4">
-        <v>-4.168047428628256</v>
+        <v>-4.227384112742826</v>
       </c>
       <c r="N4">
-        <v>1.987862717189905</v>
+        <v>1.995842656349071</v>
       </c>
       <c r="O4">
-        <v>-3.16785025593358</v>
+        <v>-3.269728203680572</v>
       </c>
       <c r="P4">
-        <v>0.009680463197243578</v>
+        <v>0.009870349838157048</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1863</v>
+        <v>2790</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6400333894807635</v>
+        <v>0.1159629470055444</v>
       </c>
       <c r="E5">
-        <v>0.7711531243538521</v>
+        <v>0.1082336139093646</v>
       </c>
       <c r="F5">
-        <v>5.598030537094346E-05</v>
+        <v>0.002908704504418436</v>
       </c>
       <c r="G5">
-        <v>-0.8587177597784832</v>
+        <v>4.407012845049407</v>
       </c>
       <c r="H5">
-        <v>0.2090102174848695</v>
+        <v>0.7101858047886839</v>
       </c>
       <c r="I5">
-        <v>4.723748191613335E-58</v>
+        <v>2.054364064693761E-38</v>
       </c>
       <c r="J5">
-        <v>2.369999885559082</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="K5">
-        <v>16.35000038146973</v>
+        <v>29.75</v>
       </c>
       <c r="L5">
-        <v>0.4659383779906729</v>
+        <v>1.599834588457242</v>
       </c>
       <c r="M5">
-        <v>-0.3966834327806508</v>
+        <v>-1.790678163528998</v>
       </c>
       <c r="N5">
-        <v>0.1819334234107916</v>
+        <v>0.6951401761059757</v>
       </c>
       <c r="O5">
-        <v>-0.1885994902711219</v>
+        <v>-1.22504107157037</v>
       </c>
       <c r="P5">
-        <v>0.01072932220569904</v>
+        <v>0.01106460819408782</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>19</v>
+        <v>1863</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.4188662848709525</v>
+        <v>0.7436465322388868</v>
       </c>
       <c r="E6">
-        <v>0.4728118203099765</v>
+        <v>0.7592086843286481</v>
       </c>
       <c r="F6">
-        <v>0.0007405270422077643</v>
+        <v>0.003411312104289343</v>
       </c>
       <c r="G6">
-        <v>9.10736768675963</v>
+        <v>-0.8641169567238844</v>
       </c>
       <c r="H6">
-        <v>0.6079812376690552</v>
+        <v>0.2093641511919243</v>
       </c>
       <c r="I6">
-        <v>1.143369487879059E-55</v>
+        <v>5.727211483865625E-59</v>
       </c>
       <c r="J6">
-        <v>12.44999980926514</v>
+        <v>2.319999933242798</v>
       </c>
       <c r="K6">
-        <v>5.110000133514404</v>
+        <v>16.29000091552734</v>
       </c>
       <c r="L6">
-        <v>0.6157070660162667</v>
+        <v>0.4646270839845483</v>
       </c>
       <c r="M6">
-        <v>-0.6807652082270028</v>
+        <v>-0.3282123858385715</v>
       </c>
       <c r="N6">
-        <v>0.2273707542003517</v>
+        <v>0.1797181657770741</v>
       </c>
       <c r="O6">
-        <v>0.2358479168423813</v>
+        <v>-0.2264253246283694</v>
       </c>
       <c r="P6">
-        <v>0.0114647542354962</v>
+        <v>0.01128174669829104</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>107</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3307139807054928</v>
+        <v>0.481971418901445</v>
       </c>
       <c r="E7">
-        <v>0.6400333894807635</v>
+        <v>0.5562522745241367</v>
       </c>
       <c r="F7">
-        <v>0.0009713291370450999</v>
+        <v>0.0007175070372096044</v>
       </c>
       <c r="G7">
-        <v>38.17339535841923</v>
+        <v>-4.515537789583774</v>
       </c>
       <c r="H7">
-        <v>6.870139101438713</v>
+        <v>0.653671967703872</v>
       </c>
       <c r="I7">
-        <v>5.960186111738349E-39</v>
+        <v>3.134518208767701E-70</v>
       </c>
       <c r="J7">
-        <v>51.75</v>
+        <v>11.57999992370605</v>
       </c>
       <c r="K7">
-        <v>2.369999885559082</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="L7">
-        <v>6.173197235287383</v>
+        <v>0.5683806788607342</v>
       </c>
       <c r="M7">
-        <v>-4.45628333856709</v>
+        <v>-0.7210904925373391</v>
       </c>
       <c r="N7">
-        <v>2.046766946000674</v>
+        <v>0.2902265342281034</v>
       </c>
       <c r="O7">
-        <v>-2.705624242603957</v>
+        <v>0.3616536501424825</v>
       </c>
       <c r="P7">
-        <v>0.011959477228744</v>
+        <v>0.0115233230889857</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>3194</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.1234949626495085</v>
+        <v>0.339388547519448</v>
       </c>
       <c r="E8">
-        <v>0.6153639893034089</v>
+        <v>0.4396670775094086</v>
       </c>
       <c r="F8">
-        <v>0.00121206413295536</v>
+        <v>0.001198765020155809</v>
       </c>
       <c r="G8">
-        <v>15.53214239249853</v>
+        <v>9.129727974844691</v>
       </c>
       <c r="H8">
-        <v>1.905748771767493</v>
+        <v>0.6047684480487319</v>
       </c>
       <c r="I8">
-        <v>2.703622054806201E-24</v>
+        <v>1.544074574506818E-54</v>
       </c>
       <c r="J8">
-        <v>20.79999923706055</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="K8">
-        <v>3.160000085830688</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="L8">
-        <v>1.132597561768019</v>
+        <v>0.6130411786714625</v>
       </c>
       <c r="M8">
-        <v>-1.296135182163731</v>
+        <v>-0.6808638720665137</v>
       </c>
       <c r="N8">
-        <v>0.4875003559448446</v>
+        <v>0.229618998538298</v>
       </c>
       <c r="O8">
-        <v>-0.7543094377949906</v>
+        <v>0.3678101989247846</v>
       </c>
       <c r="P8">
-        <v>0.01229380511967316</v>
+        <v>0.01181385339065518</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9">
-        <v>0.5228331948196481</v>
+        <v>0.3503676905639561</v>
       </c>
       <c r="E9">
-        <v>0.6451704472683683</v>
+        <v>0.7436465322388868</v>
       </c>
       <c r="F9">
-        <v>0.002146134680950408</v>
+        <v>0.0009158266334743957</v>
       </c>
       <c r="G9">
-        <v>2.056941340843653</v>
+        <v>37.82401098924533</v>
       </c>
       <c r="H9">
-        <v>0.2004165006126163</v>
+        <v>6.971568687615592</v>
       </c>
       <c r="I9">
-        <v>2.012635369530175E-52</v>
+        <v>9.009478766302292E-40</v>
       </c>
       <c r="J9">
-        <v>12.31999969482422</v>
+        <v>51.79000091552734</v>
       </c>
       <c r="K9">
-        <v>48.88000106811523</v>
+        <v>2.319999933242798</v>
       </c>
       <c r="L9">
-        <v>1.919784616610876</v>
+        <v>6.22843579487526</v>
       </c>
       <c r="M9">
-        <v>-0.8547752370806556</v>
+        <v>-4.463931110801184</v>
       </c>
       <c r="N9">
-        <v>0.3935767444326023</v>
+        <v>2.044443056173248</v>
       </c>
       <c r="O9">
-        <v>0.4666995899679609</v>
+        <v>-2.208048963583739</v>
       </c>
       <c r="P9">
-        <v>0.01292735960987337</v>
+        <v>0.01192366720972945</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
         <v>22</v>
@@ -982,114 +985,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3212</v>
+        <v>907</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1234949626495085</v>
+        <v>0.1197771702984139</v>
       </c>
       <c r="E10">
-        <v>0.6861413924649881</v>
+        <v>0.1320083027885922</v>
       </c>
       <c r="F10">
-        <v>0.001988261259233063</v>
+        <v>0.0004048223527430536</v>
       </c>
       <c r="G10">
-        <v>28.6079154262605</v>
+        <v>15.56425164270062</v>
       </c>
       <c r="H10">
-        <v>-0.1757586853280326</v>
+        <v>2.900338956720941</v>
       </c>
       <c r="I10">
-        <v>5.877970213600138E-13</v>
+        <v>9.357719559142147E-39</v>
       </c>
       <c r="J10">
-        <v>20.79999923706055</v>
+        <v>35.31999969482422</v>
       </c>
       <c r="K10">
-        <v>38.63000106811523</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="L10">
-        <v>1.374864859939361</v>
+        <v>2.282899619044215</v>
       </c>
       <c r="M10">
-        <v>-1.589061212734535</v>
+        <v>-2.681433423127672</v>
       </c>
       <c r="N10">
-        <v>0.5938814926374297</v>
+        <v>1.122450926656149</v>
       </c>
       <c r="O10">
-        <v>-1.018357987247522</v>
+        <v>2.121687416538585</v>
       </c>
       <c r="P10">
-        <v>0.01349931481623339</v>
+        <v>0.01268386911514599</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1091</v>
+        <v>3194</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4749173949514898</v>
+        <v>0.218834147513275</v>
       </c>
       <c r="E11">
-        <v>0.4923889093374322</v>
+        <v>0.5917896162432608</v>
       </c>
       <c r="F11">
-        <v>0.00471388110665439</v>
+        <v>0.004232539978198861</v>
       </c>
       <c r="G11">
-        <v>-22.05856235362196</v>
+        <v>15.43628800043372</v>
       </c>
       <c r="H11">
-        <v>2.110187252394753</v>
+        <v>1.932115968810002</v>
       </c>
       <c r="I11">
-        <v>1.465860174018719E-48</v>
+        <v>8.106380520108892E-25</v>
       </c>
       <c r="J11">
-        <v>19.70000076293945</v>
+        <v>20.73999977111816</v>
       </c>
       <c r="K11">
-        <v>20.81818008422852</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="L11">
-        <v>3.096156999267251</v>
+        <v>1.138539809654755</v>
       </c>
       <c r="M11">
-        <v>-3.27249409517318</v>
+        <v>-1.280964411540261</v>
       </c>
       <c r="N11">
-        <v>1.215078596828658</v>
+        <v>0.4894433742035448</v>
       </c>
       <c r="O11">
-        <v>-2.171695115235934</v>
+        <v>-0.8790594216380336</v>
       </c>
       <c r="P11">
-        <v>0.01406852388679571</v>
+        <v>0.01365467263432053</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,51 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +532,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>0.6920392131482922</v>
+      </c>
+      <c r="E2">
+        <v>0.7249138427236268</v>
+      </c>
+      <c r="F2">
+        <v>0.0004921470249329571</v>
+      </c>
+      <c r="G2">
+        <v>3.135527066602373</v>
+      </c>
+      <c r="H2">
+        <v>0.1601667005277783</v>
+      </c>
+      <c r="I2">
+        <v>7.517098855295476E-67</v>
+      </c>
+      <c r="J2">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="K2">
+        <v>46.45999908447266</v>
+      </c>
+      <c r="L2">
+        <v>0.8681411257917695</v>
+      </c>
+      <c r="M2">
+        <v>-0.8584857488274338</v>
+      </c>
+      <c r="N2">
+        <v>0.3326892145210099</v>
+      </c>
+      <c r="O2">
+        <v>0.3931284405428483</v>
+      </c>
+      <c r="P2">
+        <v>0.01222096568066826</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2078</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0.5938204943773399</v>
+      </c>
+      <c r="E3">
+        <v>0.6891158695078591</v>
+      </c>
+      <c r="F3">
+        <v>0.0004491651143035997</v>
+      </c>
+      <c r="G3">
+        <v>15.03866537321615</v>
+      </c>
+      <c r="H3">
+        <v>0.1998089525691207</v>
+      </c>
+      <c r="I3">
+        <v>9.370101710907785E-44</v>
+      </c>
+      <c r="J3">
+        <v>31.53000068664551</v>
+      </c>
+      <c r="K3">
+        <v>87.68000030517578</v>
+      </c>
+      <c r="L3">
+        <v>2.507219763189312</v>
+      </c>
+      <c r="M3">
+        <v>-3.147586190582473</v>
+      </c>
+      <c r="N3">
+        <v>0.903419026283392</v>
+      </c>
+      <c r="O3">
+        <v>-1.027913708807993</v>
+      </c>
+      <c r="P3">
+        <v>0.01225297907147249</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0.6537478068983187</v>
+      </c>
+      <c r="E4">
+        <v>0.6317023918116773</v>
+      </c>
+      <c r="F4">
+        <v>0.00219262248016271</v>
+      </c>
+      <c r="G4">
+        <v>0.7270438079340822</v>
+      </c>
+      <c r="H4">
+        <v>0.602165461346109</v>
+      </c>
+      <c r="I4">
+        <v>1.27823336650758E-63</v>
+      </c>
+      <c r="J4">
+        <v>10.02999973297119</v>
+      </c>
+      <c r="K4">
+        <v>14.67000007629395</v>
+      </c>
+      <c r="L4">
+        <v>0.4949935014498585</v>
+      </c>
+      <c r="M4">
+        <v>-0.5828364492845584</v>
+      </c>
+      <c r="N4">
+        <v>0.1957045191269087</v>
+      </c>
+      <c r="O4">
+        <v>0.4691885611481101</v>
+      </c>
+      <c r="P4">
+        <v>0.0128756957916017</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1747</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0.3427873158690437</v>
+      </c>
+      <c r="E5">
+        <v>0.3653234271870742</v>
+      </c>
+      <c r="F5">
+        <v>0.002948587127639092</v>
+      </c>
+      <c r="G5">
+        <v>-0.6275592092293191</v>
+      </c>
+      <c r="H5">
+        <v>0.4749457401556</v>
+      </c>
+      <c r="I5">
+        <v>3.677077497985628E-38</v>
+      </c>
+      <c r="J5">
+        <v>7.889999866485596</v>
+      </c>
+      <c r="K5">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="L5">
+        <v>0.8472719399976922</v>
+      </c>
+      <c r="M5">
+        <v>-0.695606669089341</v>
+      </c>
+      <c r="N5">
+        <v>0.2993841282763934</v>
+      </c>
+      <c r="O5">
+        <v>0.4197345684167786</v>
+      </c>
+      <c r="P5">
+        <v>0.01427684586679761</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1965</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0.5917528058616087</v>
+      </c>
+      <c r="E6">
+        <v>0.6770261044365989</v>
+      </c>
+      <c r="F6">
+        <v>0.003394732195692474</v>
+      </c>
+      <c r="G6">
+        <v>3.731764530182622</v>
+      </c>
+      <c r="H6">
+        <v>0.9142427578166531</v>
+      </c>
+      <c r="I6">
+        <v>5.594178371303466E-50</v>
+      </c>
+      <c r="J6">
+        <v>13.77000045776367</v>
+      </c>
+      <c r="K6">
+        <v>10.4399995803833</v>
+      </c>
+      <c r="L6">
+        <v>0.6872615448821673</v>
+      </c>
+      <c r="M6">
+        <v>-0.5819220291178926</v>
+      </c>
+      <c r="N6">
+        <v>0.2625957136226985</v>
+      </c>
+      <c r="O6">
+        <v>0.4935419196067201</v>
+      </c>
+      <c r="P6">
+        <v>0.01439278324064146</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1037</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.4778423718572069</v>
+      </c>
+      <c r="E7">
+        <v>0.4984035041119411</v>
+      </c>
+      <c r="F7">
+        <v>0.005163802599125509</v>
+      </c>
+      <c r="G7">
+        <v>0.4953554747510474</v>
+      </c>
+      <c r="H7">
+        <v>0.254942904853962</v>
+      </c>
+      <c r="I7">
+        <v>5.218352289876217E-48</v>
+      </c>
+      <c r="J7">
+        <v>3.339999914169312</v>
+      </c>
+      <c r="K7">
+        <v>12.72999954223633</v>
+      </c>
+      <c r="L7">
+        <v>0.6642717252466306</v>
+      </c>
+      <c r="M7">
+        <v>-0.4750851848390849</v>
+      </c>
+      <c r="N7">
+        <v>0.2219184196329944</v>
+      </c>
+      <c r="O7">
+        <v>-0.4007786226690722</v>
+      </c>
+      <c r="P7">
+        <v>0.01509721654490275</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1925</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0.7249138427236268</v>
+      </c>
+      <c r="E8">
+        <v>0.4984035041119411</v>
+      </c>
+      <c r="F8">
+        <v>0.005564406987973677</v>
+      </c>
+      <c r="G8">
+        <v>2.554430282142992</v>
+      </c>
+      <c r="H8">
+        <v>3.1437059861373</v>
+      </c>
+      <c r="I8">
+        <v>2.712858476111929E-55</v>
+      </c>
+      <c r="J8">
+        <v>46.45999908447266</v>
+      </c>
+      <c r="K8">
+        <v>12.72999954223633</v>
+      </c>
+      <c r="L8">
+        <v>5.700255068783633</v>
+      </c>
+      <c r="M8">
+        <v>-6.391052029944944</v>
+      </c>
+      <c r="N8">
+        <v>2.358665579187687</v>
+      </c>
+      <c r="O8">
+        <v>3.886193037876232</v>
+      </c>
+      <c r="P8">
+        <v>0.01522271166849913</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1563</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>0.1260077685124764</v>
+      </c>
+      <c r="E9">
+        <v>0.5987636777628885</v>
+      </c>
+      <c r="F9">
+        <v>2.447292393548905E-05</v>
+      </c>
+      <c r="G9">
+        <v>17.1275181830793</v>
+      </c>
+      <c r="H9">
+        <v>-0.1536509780311084</v>
+      </c>
+      <c r="I9">
+        <v>7.829914661279685E-33</v>
+      </c>
+      <c r="J9">
+        <v>11.56999969482422</v>
+      </c>
+      <c r="K9">
+        <v>31.68000030517578</v>
+      </c>
+      <c r="L9">
+        <v>1.250646714357305</v>
+      </c>
+      <c r="M9">
+        <v>-1.208573940345119</v>
+      </c>
+      <c r="N9">
+        <v>0.5478146676398622</v>
+      </c>
+      <c r="O9">
+        <v>-0.6898554573390072</v>
+      </c>
+      <c r="P9">
+        <v>0.01532262049202552</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1040</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>0.4778423718572069</v>
+      </c>
+      <c r="E10">
+        <v>0.1472294997094311</v>
+      </c>
+      <c r="F10">
+        <v>0.003876042428410376</v>
+      </c>
+      <c r="G10">
+        <v>8.026033012439177</v>
+      </c>
+      <c r="H10">
+        <v>-0.2915178464107124</v>
+      </c>
+      <c r="I10">
+        <v>7.618864953487696E-30</v>
+      </c>
+      <c r="J10">
+        <v>3.339999914169312</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>1.011311438637776</v>
+      </c>
+      <c r="M10">
+        <v>-0.6253889491678271</v>
+      </c>
+      <c r="N10">
+        <v>0.2989129757707928</v>
+      </c>
+      <c r="O10">
+        <v>-0.3132654021091792</v>
+      </c>
+      <c r="P10">
+        <v>0.01553827752698591</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1972</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.5917528058616087</v>
+      </c>
+      <c r="E11">
+        <v>0.4984035041119411</v>
+      </c>
+      <c r="F11">
+        <v>0.006746384666360377</v>
+      </c>
+      <c r="G11">
+        <v>9.416511128031823</v>
+      </c>
+      <c r="H11">
+        <v>0.3039807312273148</v>
+      </c>
+      <c r="I11">
+        <v>3.565931208451048E-43</v>
+      </c>
+      <c r="J11">
+        <v>13.77000045776367</v>
+      </c>
+      <c r="K11">
+        <v>12.72999954223633</v>
+      </c>
+      <c r="L11">
+        <v>0.6485549519333453</v>
+      </c>
+      <c r="M11">
+        <v>-0.712470587816</v>
+      </c>
+      <c r="N11">
+        <v>0.2936222411931706</v>
+      </c>
+      <c r="O11">
+        <v>0.4838147603594671</v>
+      </c>
+      <c r="P11">
+        <v>0.01583205039699801</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,46 +73,46 @@
     <t>CMIG4</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
     <t>CPLE6</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>TIMS3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
   </si>
 </sst>
 </file>
@@ -534,55 +534,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6920392131482922</v>
+        <v>0.5896393608181211</v>
       </c>
       <c r="E2">
-        <v>0.7249138427236268</v>
+        <v>0.7474077838101074</v>
       </c>
       <c r="F2">
-        <v>0.0004921470249329571</v>
+        <v>3.352715779648548E-06</v>
       </c>
       <c r="G2">
-        <v>3.135527066602373</v>
+        <v>-4.788789008057514</v>
       </c>
       <c r="H2">
-        <v>0.1601667005277783</v>
+        <v>1.469263654369923</v>
       </c>
       <c r="I2">
-        <v>7.517098855295476E-67</v>
+        <v>1.353512827639916E-62</v>
       </c>
       <c r="J2">
-        <v>10.97000026702881</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="K2">
-        <v>46.45999908447266</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="L2">
-        <v>0.8681411257917695</v>
+        <v>0.6027519951336195</v>
       </c>
       <c r="M2">
-        <v>-0.8584857488274338</v>
+        <v>-1.578111650082789</v>
       </c>
       <c r="N2">
-        <v>0.3326892145210099</v>
+        <v>0.3241188278252805</v>
       </c>
       <c r="O2">
-        <v>0.3931284405428483</v>
+        <v>0.4255986122323652</v>
       </c>
       <c r="P2">
-        <v>0.01222096568066826</v>
+        <v>0.01202346441765093</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -590,226 +590,226 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2078</v>
+        <v>1385</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.5938204943773399</v>
+        <v>0.6399205332319609</v>
       </c>
       <c r="E3">
-        <v>0.6891158695078591</v>
+        <v>0.6346724817142633</v>
       </c>
       <c r="F3">
-        <v>0.0004491651143035997</v>
+        <v>0.001406584616214989</v>
       </c>
       <c r="G3">
-        <v>15.03866537321615</v>
+        <v>0.7109354248775921</v>
       </c>
       <c r="H3">
-        <v>0.1998089525691207</v>
+        <v>0.6031703397081545</v>
       </c>
       <c r="I3">
-        <v>9.370101710907785E-44</v>
+        <v>8.689065823180761E-63</v>
       </c>
       <c r="J3">
-        <v>31.53000068664551</v>
+        <v>10.02000045776367</v>
       </c>
       <c r="K3">
-        <v>87.68000030517578</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="L3">
-        <v>2.507219763189312</v>
+        <v>0.4962698796525586</v>
       </c>
       <c r="M3">
-        <v>-3.147586190582473</v>
+        <v>-0.581844904939171</v>
       </c>
       <c r="N3">
-        <v>0.903419026283392</v>
+        <v>0.1960531065350254</v>
       </c>
       <c r="O3">
-        <v>-1.027913708807993</v>
+        <v>0.3761120487079648</v>
       </c>
       <c r="P3">
-        <v>0.01225297907147249</v>
+        <v>0.01240564243786199</v>
       </c>
       <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1385</v>
+        <v>2626</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.6537478068983187</v>
+        <v>0.1957952795440723</v>
       </c>
       <c r="E4">
-        <v>0.6317023918116773</v>
+        <v>0.2870488190534137</v>
       </c>
       <c r="F4">
-        <v>0.00219262248016271</v>
+        <v>0.0001426002816799537</v>
       </c>
       <c r="G4">
-        <v>0.7270438079340822</v>
+        <v>-0.1880833324437428</v>
       </c>
       <c r="H4">
-        <v>0.602165461346109</v>
+        <v>0.1036874193874913</v>
       </c>
       <c r="I4">
-        <v>1.27823336650758E-63</v>
+        <v>1.178587271303709E-23</v>
       </c>
       <c r="J4">
-        <v>10.02999973297119</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="K4">
-        <v>14.67000007629395</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="L4">
-        <v>0.4949935014498585</v>
+        <v>0.9743584900494158</v>
       </c>
       <c r="M4">
-        <v>-0.5828364492845584</v>
+        <v>-0.6545793090085699</v>
       </c>
       <c r="N4">
-        <v>0.1957045191269087</v>
+        <v>0.2669841099361149</v>
       </c>
       <c r="O4">
-        <v>0.4691885611481101</v>
+        <v>-0.3411217328311915</v>
       </c>
       <c r="P4">
-        <v>0.0128756957916017</v>
+        <v>0.01289569802284393</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1747</v>
+        <v>1156</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.3427873158690437</v>
+        <v>0.5896393608181211</v>
       </c>
       <c r="E5">
-        <v>0.3653234271870742</v>
+        <v>0.7590839835667403</v>
       </c>
       <c r="F5">
-        <v>0.002948587127639092</v>
+        <v>1.31909407680377E-05</v>
       </c>
       <c r="G5">
-        <v>-0.6275592092293191</v>
+        <v>-3.282643353317246</v>
       </c>
       <c r="H5">
-        <v>0.4749457401556</v>
+        <v>0.4014400692759676</v>
       </c>
       <c r="I5">
-        <v>3.677077497985628E-38</v>
+        <v>4.912644497662361E-59</v>
       </c>
       <c r="J5">
-        <v>7.889999866485596</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="K5">
-        <v>17.04999923706055</v>
+        <v>34.63000106811523</v>
       </c>
       <c r="L5">
-        <v>0.8472719399976922</v>
+        <v>0.5364710496058045</v>
       </c>
       <c r="M5">
-        <v>-0.695606669089341</v>
+        <v>-1.584991217281262</v>
       </c>
       <c r="N5">
-        <v>0.2993841282763934</v>
+        <v>0.3440794816303141</v>
       </c>
       <c r="O5">
-        <v>0.4197345684167786</v>
+        <v>0.400773783269905</v>
       </c>
       <c r="P5">
-        <v>0.01427684586679761</v>
+        <v>0.01298436776090271</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1965</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.5917528058616087</v>
+        <v>0.7175900866747873</v>
       </c>
       <c r="E6">
-        <v>0.6770261044365989</v>
+        <v>0.8687554238200231</v>
       </c>
       <c r="F6">
-        <v>0.003394732195692474</v>
+        <v>0.002475338843036551</v>
       </c>
       <c r="G6">
-        <v>3.731764530182622</v>
+        <v>8.030623836797494</v>
       </c>
       <c r="H6">
-        <v>0.9142427578166531</v>
+        <v>0.2747018835941362</v>
       </c>
       <c r="I6">
-        <v>5.594178371303466E-50</v>
+        <v>2.818286236058021E-57</v>
       </c>
       <c r="J6">
-        <v>13.77000045776367</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="K6">
-        <v>10.4399995803833</v>
+        <v>18.70999908447266</v>
       </c>
       <c r="L6">
-        <v>0.6872615448821673</v>
+        <v>0.6604536543060249</v>
       </c>
       <c r="M6">
-        <v>-0.5819220291178926</v>
+        <v>-0.4779693128177662</v>
       </c>
       <c r="N6">
-        <v>0.2625957136226985</v>
+        <v>0.2493955253435181</v>
       </c>
       <c r="O6">
-        <v>0.4935419196067201</v>
+        <v>-0.2902957129057775</v>
       </c>
       <c r="P6">
-        <v>0.01439278324064146</v>
+        <v>0.01373482630776515</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -817,279 +817,279 @@
         <v>1037</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.4778423718572069</v>
+        <v>0.48787883376168</v>
       </c>
       <c r="E7">
-        <v>0.4984035041119411</v>
+        <v>0.5826038655143404</v>
       </c>
       <c r="F7">
-        <v>0.005163802599125509</v>
+        <v>0.002791558624982384</v>
       </c>
       <c r="G7">
-        <v>0.4953554747510474</v>
+        <v>0.4148742208974504</v>
       </c>
       <c r="H7">
-        <v>0.254942904853962</v>
+        <v>0.2612741020927685</v>
       </c>
       <c r="I7">
-        <v>5.218352289876217E-48</v>
+        <v>3.069788602081305E-48</v>
       </c>
       <c r="J7">
-        <v>3.339999914169312</v>
+        <v>3.5</v>
       </c>
       <c r="K7">
-        <v>12.72999954223633</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="L7">
-        <v>0.6642717252466306</v>
+        <v>0.6677023082209215</v>
       </c>
       <c r="M7">
-        <v>-0.4750851848390849</v>
+        <v>-0.4606383201183673</v>
       </c>
       <c r="N7">
-        <v>0.2219184196329944</v>
+        <v>0.2182258413250436</v>
       </c>
       <c r="O7">
-        <v>-0.4007786226690722</v>
+        <v>-0.2330552676415296</v>
       </c>
       <c r="P7">
-        <v>0.01509721654490275</v>
+        <v>0.01405582951292189</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1925</v>
+        <v>1965</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.7249138427236268</v>
+        <v>0.6521953184886492</v>
       </c>
       <c r="E8">
-        <v>0.4984035041119411</v>
+        <v>0.7474077838101074</v>
       </c>
       <c r="F8">
-        <v>0.005564406987973677</v>
+        <v>0.004297813308499925</v>
       </c>
       <c r="G8">
-        <v>2.554430282142992</v>
+        <v>3.726998191816216</v>
       </c>
       <c r="H8">
-        <v>3.1437059861373</v>
+        <v>0.9155128198425823</v>
       </c>
       <c r="I8">
-        <v>2.712858476111929E-55</v>
+        <v>1.748136050405485E-49</v>
       </c>
       <c r="J8">
-        <v>46.45999908447266</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="K8">
-        <v>12.72999954223633</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="L8">
-        <v>5.700255068783633</v>
+        <v>0.6785652252892334</v>
       </c>
       <c r="M8">
-        <v>-6.391052029944944</v>
+        <v>-0.5902282408243931</v>
       </c>
       <c r="N8">
-        <v>2.358665579187687</v>
+        <v>0.2627439269330203</v>
       </c>
       <c r="O8">
-        <v>3.886193037876232</v>
+        <v>0.6175826451394304</v>
       </c>
       <c r="P8">
-        <v>0.01522271166849913</v>
+        <v>0.01427737361249306</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1563</v>
+        <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.1260077685124764</v>
+        <v>0.3962415152535987</v>
       </c>
       <c r="E9">
-        <v>0.5987636777628885</v>
+        <v>0.3774574667544843</v>
       </c>
       <c r="F9">
-        <v>2.447292393548905E-05</v>
+        <v>0.006012906836785303</v>
       </c>
       <c r="G9">
-        <v>17.1275181830793</v>
+        <v>-0.6182845375058696</v>
       </c>
       <c r="H9">
-        <v>-0.1536509780311084</v>
+        <v>0.4742425433602845</v>
       </c>
       <c r="I9">
-        <v>7.829914661279685E-33</v>
+        <v>3.058608233639242E-37</v>
       </c>
       <c r="J9">
-        <v>11.56999969482422</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="K9">
-        <v>31.68000030517578</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="L9">
-        <v>1.250646714357305</v>
+        <v>0.8504790113910925</v>
       </c>
       <c r="M9">
-        <v>-1.208573940345119</v>
+        <v>-0.6925730054612718</v>
       </c>
       <c r="N9">
-        <v>0.5478146676398622</v>
+        <v>0.3031053767547783</v>
       </c>
       <c r="O9">
-        <v>-0.6898554573390072</v>
+        <v>0.5956461013104377</v>
       </c>
       <c r="P9">
-        <v>0.01532262049202552</v>
+        <v>0.01490527481465449</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1040</v>
+        <v>2144</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.4778423718572069</v>
+        <v>0.6346724817142633</v>
       </c>
       <c r="E10">
-        <v>0.1472294997094311</v>
+        <v>0.7590839835667403</v>
       </c>
       <c r="F10">
-        <v>0.003876042428410376</v>
+        <v>0.004802496223290788</v>
       </c>
       <c r="G10">
-        <v>8.026033012439177</v>
+        <v>2.223162776491906</v>
       </c>
       <c r="H10">
-        <v>-0.2915178464107124</v>
+        <v>0.3793237201734531</v>
       </c>
       <c r="I10">
-        <v>7.618864953487696E-30</v>
+        <v>2.462612181945333E-61</v>
       </c>
       <c r="J10">
-        <v>3.339999914169312</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>34.63000106811523</v>
       </c>
       <c r="L10">
-        <v>1.011311438637776</v>
+        <v>0.7001885217495918</v>
       </c>
       <c r="M10">
-        <v>-0.6253889491678271</v>
+        <v>-0.697766912941022</v>
       </c>
       <c r="N10">
-        <v>0.2989129757707928</v>
+        <v>0.3108361429189511</v>
       </c>
       <c r="O10">
-        <v>-0.3132654021091792</v>
+        <v>-0.5491431916433296</v>
       </c>
       <c r="P10">
-        <v>0.01553827752698591</v>
+        <v>0.01502335997492274</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1972</v>
+        <v>1925</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.5917528058616087</v>
+        <v>0.6629347637412283</v>
       </c>
       <c r="E11">
-        <v>0.4984035041119411</v>
+        <v>0.5826038655143404</v>
       </c>
       <c r="F11">
-        <v>0.006746384666360377</v>
+        <v>0.005329253264648107</v>
       </c>
       <c r="G11">
-        <v>9.416511128031823</v>
+        <v>2.237546136008901</v>
       </c>
       <c r="H11">
-        <v>0.3039807312273148</v>
+        <v>3.167460304986178</v>
       </c>
       <c r="I11">
-        <v>3.565931208451048E-43</v>
+        <v>1.244756514590817E-53</v>
       </c>
       <c r="J11">
-        <v>13.77000045776367</v>
+        <v>45.36999893188477</v>
       </c>
       <c r="K11">
-        <v>12.72999954223633</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="L11">
-        <v>0.6485549519333453</v>
+        <v>5.748477858769206</v>
       </c>
       <c r="M11">
-        <v>-0.712470587816</v>
+        <v>-6.379410890080486</v>
       </c>
       <c r="N11">
-        <v>0.2936222411931706</v>
+        <v>2.365201259865366</v>
       </c>
       <c r="O11">
-        <v>0.4838147603594671</v>
+        <v>2.905707526696517</v>
       </c>
       <c r="P11">
-        <v>0.01583205039699801</v>
+        <v>0.01529129695904168</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,40 +76,43 @@
     <t>CPLE6</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>CASH3</t>
+    <t>RENT3</t>
   </si>
   <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>DXCO3</t>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>PRIO3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>TIMS3</t>
@@ -540,49 +543,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5896393608181211</v>
+        <v>0.6338917860670696</v>
       </c>
       <c r="E2">
-        <v>0.7474077838101074</v>
+        <v>0.7714868045569381</v>
       </c>
       <c r="F2">
-        <v>3.352715779648548E-06</v>
+        <v>0.0001325130115464183</v>
       </c>
       <c r="G2">
-        <v>-4.788789008057514</v>
+        <v>-4.852420217859455</v>
       </c>
       <c r="H2">
-        <v>1.469263654369923</v>
+        <v>1.476901325904863</v>
       </c>
       <c r="I2">
-        <v>1.353512827639916E-62</v>
+        <v>1.360075952033394E-67</v>
       </c>
       <c r="J2">
-        <v>11.02000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="K2">
-        <v>10.47000026702881</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="L2">
-        <v>0.6027519951336195</v>
+        <v>0.5918674552918457</v>
       </c>
       <c r="M2">
-        <v>-1.578111650082789</v>
+        <v>-1.096465545502896</v>
       </c>
       <c r="N2">
-        <v>0.3241188278252805</v>
+        <v>0.2966064020272663</v>
       </c>
       <c r="O2">
-        <v>0.4255986122323652</v>
+        <v>0.3663412532488852</v>
       </c>
       <c r="P2">
-        <v>0.01202346441765093</v>
+        <v>0.01294929361578564</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -596,49 +599,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.6399205332319609</v>
+        <v>0.6470805442407506</v>
       </c>
       <c r="E3">
-        <v>0.6346724817142633</v>
+        <v>0.6265245955340251</v>
       </c>
       <c r="F3">
-        <v>0.001406584616214989</v>
+        <v>0.003313560176410449</v>
       </c>
       <c r="G3">
-        <v>0.7109354248775921</v>
+        <v>0.7290207884300166</v>
       </c>
       <c r="H3">
-        <v>0.6031703397081545</v>
+        <v>0.6017208411467899</v>
       </c>
       <c r="I3">
-        <v>8.689065823180761E-63</v>
+        <v>1.921613142848965E-61</v>
       </c>
       <c r="J3">
-        <v>10.02000045776367</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="K3">
-        <v>14.8100004196167</v>
+        <v>14.80000019073486</v>
       </c>
       <c r="L3">
-        <v>0.4962698796525586</v>
+        <v>0.4995791151976388</v>
       </c>
       <c r="M3">
-        <v>-0.581844904939171</v>
+        <v>-0.5863655072290133</v>
       </c>
       <c r="N3">
-        <v>0.1960531065350254</v>
+        <v>0.2006900489942439</v>
       </c>
       <c r="O3">
-        <v>0.3761120487079648</v>
+        <v>0.4855105333874317</v>
       </c>
       <c r="P3">
-        <v>0.01240564243786199</v>
+        <v>0.01329332357536597</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -646,7 +649,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2626</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -655,43 +658,43 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.1957952795440723</v>
+        <v>0.7442942736879175</v>
       </c>
       <c r="E4">
-        <v>0.2870488190534137</v>
+        <v>0.8928811729728787</v>
       </c>
       <c r="F4">
-        <v>0.0001426002816799537</v>
+        <v>0.002398617022332384</v>
       </c>
       <c r="G4">
-        <v>-0.1880833324437428</v>
+        <v>8.052445772925275</v>
       </c>
       <c r="H4">
-        <v>0.1036874193874913</v>
+        <v>0.2731753805991882</v>
       </c>
       <c r="I4">
-        <v>1.178587271303709E-23</v>
+        <v>3.097982184575253E-57</v>
       </c>
       <c r="J4">
-        <v>4.059999942779541</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="K4">
-        <v>44.2599983215332</v>
+        <v>18.90999984741211</v>
       </c>
       <c r="L4">
-        <v>0.9743584900494158</v>
+        <v>0.6659103279790557</v>
       </c>
       <c r="M4">
-        <v>-0.6545793090085699</v>
+        <v>-0.4741329180957621</v>
       </c>
       <c r="N4">
-        <v>0.2669841099361149</v>
+        <v>0.2505299703962831</v>
       </c>
       <c r="O4">
-        <v>-0.3411217328311915</v>
+        <v>-0.2981921020787226</v>
       </c>
       <c r="P4">
-        <v>0.01289569802284393</v>
+        <v>0.01382231733697474</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -711,43 +714,43 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5896393608181211</v>
+        <v>0.6338917860670696</v>
       </c>
       <c r="E5">
-        <v>0.7590839835667403</v>
+        <v>0.7795649825048636</v>
       </c>
       <c r="F5">
-        <v>1.31909407680377E-05</v>
+        <v>0.0007016195786412769</v>
       </c>
       <c r="G5">
-        <v>-3.282643353317246</v>
+        <v>-3.341794798445832</v>
       </c>
       <c r="H5">
-        <v>0.4014400692759676</v>
+        <v>0.4036324666811423</v>
       </c>
       <c r="I5">
-        <v>4.912644497662361E-59</v>
+        <v>2.092403090588969E-63</v>
       </c>
       <c r="J5">
-        <v>11.02000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="K5">
-        <v>34.63000106811523</v>
+        <v>34.84999847412109</v>
       </c>
       <c r="L5">
-        <v>0.5364710496058045</v>
+        <v>0.5192393688035732</v>
       </c>
       <c r="M5">
-        <v>-1.584991217281262</v>
+        <v>-1.063893374186936</v>
       </c>
       <c r="N5">
-        <v>0.3440794816303141</v>
+        <v>0.318210026566638</v>
       </c>
       <c r="O5">
-        <v>0.400773783269905</v>
+        <v>0.3852036071795375</v>
       </c>
       <c r="P5">
-        <v>0.01298436776090271</v>
+        <v>0.01472870708937759</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -758,7 +761,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>47</v>
+        <v>2970</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -767,166 +770,166 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7175900866747873</v>
+        <v>0.1155865394829547</v>
       </c>
       <c r="E6">
-        <v>0.8687554238200231</v>
+        <v>0.2400785006094694</v>
       </c>
       <c r="F6">
-        <v>0.002475338843036551</v>
+        <v>0.0007374774421200531</v>
       </c>
       <c r="G6">
-        <v>8.030623836797494</v>
+        <v>7.130635069354082</v>
       </c>
       <c r="H6">
-        <v>0.2747018835941362</v>
+        <v>1.590222762282598</v>
       </c>
       <c r="I6">
-        <v>2.818286236058021E-57</v>
+        <v>1.264278872080752E-42</v>
       </c>
       <c r="J6">
-        <v>12.88000011444092</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="K6">
-        <v>18.70999908447266</v>
+        <v>20.96999931335449</v>
       </c>
       <c r="L6">
-        <v>0.6604536543060249</v>
+        <v>5.520796867523472</v>
       </c>
       <c r="M6">
-        <v>-0.4779693128177662</v>
+        <v>-5.674827807702172</v>
       </c>
       <c r="N6">
-        <v>0.2493955253435181</v>
+        <v>1.804729573566283</v>
       </c>
       <c r="O6">
-        <v>-0.2902957129057775</v>
+        <v>1.982393781971801</v>
       </c>
       <c r="P6">
-        <v>0.01373482630776515</v>
+        <v>0.01489910621459205</v>
       </c>
       <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
         <v>21</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1037</v>
+        <v>1965</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.48787883376168</v>
+        <v>0.6812770543827091</v>
       </c>
       <c r="E7">
-        <v>0.5826038655143404</v>
+        <v>0.7714868045569381</v>
       </c>
       <c r="F7">
-        <v>0.002791558624982384</v>
+        <v>0.008547148968653854</v>
       </c>
       <c r="G7">
-        <v>0.4148742208974504</v>
+        <v>3.668556769150259</v>
       </c>
       <c r="H7">
-        <v>0.2612741020927685</v>
+        <v>0.9219947829431514</v>
       </c>
       <c r="I7">
-        <v>3.069788602081305E-48</v>
+        <v>2.435999933345902E-49</v>
       </c>
       <c r="J7">
-        <v>3.5</v>
+        <v>14.02999973297119</v>
       </c>
       <c r="K7">
-        <v>12.69999980926514</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="L7">
-        <v>0.6677023082209215</v>
+        <v>0.6682978366164853</v>
       </c>
       <c r="M7">
-        <v>-0.4606383201183673</v>
+        <v>-0.5985046519909396</v>
       </c>
       <c r="N7">
-        <v>0.2182258413250436</v>
+        <v>0.265786036406957</v>
       </c>
       <c r="O7">
-        <v>-0.2330552676415296</v>
+        <v>0.6251776690568462</v>
       </c>
       <c r="P7">
-        <v>0.01405582951292189</v>
+        <v>0.01529003895676987</v>
       </c>
       <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1965</v>
+        <v>1521</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6521953184886492</v>
+        <v>0.2608829735458692</v>
       </c>
       <c r="E8">
-        <v>0.7474077838101074</v>
+        <v>0.3220674230981978</v>
       </c>
       <c r="F8">
-        <v>0.004297813308499925</v>
+        <v>0.00332307276674852</v>
       </c>
       <c r="G8">
-        <v>3.726998191816216</v>
+        <v>5.419193619793068</v>
       </c>
       <c r="H8">
-        <v>0.9155128198425823</v>
+        <v>0.1781436178972408</v>
       </c>
       <c r="I8">
-        <v>1.748136050405485E-49</v>
+        <v>2.596343588658443E-23</v>
       </c>
       <c r="J8">
-        <v>13.93000030517578</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="K8">
-        <v>10.47000026702881</v>
+        <v>43.43000030517578</v>
       </c>
       <c r="L8">
-        <v>0.6785652252892334</v>
+        <v>1.165328023723671</v>
       </c>
       <c r="M8">
-        <v>-0.5902282408243931</v>
+        <v>-1.20382946744707</v>
       </c>
       <c r="N8">
-        <v>0.2627439269330203</v>
+        <v>0.4625732807122105</v>
       </c>
       <c r="O8">
-        <v>0.6175826451394304</v>
+        <v>-0.9159712283171881</v>
       </c>
       <c r="P8">
-        <v>0.01427737361249306</v>
+        <v>0.01536926887133829</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1747</v>
+        <v>1700</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -935,43 +938,43 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.3962415152535987</v>
+        <v>0.1089273174701695</v>
       </c>
       <c r="E9">
-        <v>0.3774574667544843</v>
+        <v>0.6341183218996278</v>
       </c>
       <c r="F9">
-        <v>0.006012906836785303</v>
+        <v>0.002776957817172512</v>
       </c>
       <c r="G9">
-        <v>-0.6182845375058696</v>
+        <v>7.845979290813165</v>
       </c>
       <c r="H9">
-        <v>0.4742425433602845</v>
+        <v>0.5616210695240604</v>
       </c>
       <c r="I9">
-        <v>3.058608233639242E-37</v>
+        <v>4.923126332149213E-29</v>
       </c>
       <c r="J9">
-        <v>8.029999732971191</v>
+        <v>21.67000007629395</v>
       </c>
       <c r="K9">
-        <v>16.97999954223633</v>
+        <v>22.89999961853027</v>
       </c>
       <c r="L9">
-        <v>0.8504790113910925</v>
+        <v>2.552183569630031</v>
       </c>
       <c r="M9">
-        <v>-0.6925730054612718</v>
+        <v>-1.57968676560899</v>
       </c>
       <c r="N9">
-        <v>0.3031053767547783</v>
+        <v>0.771733166036928</v>
       </c>
       <c r="O9">
-        <v>0.5956461013104377</v>
+        <v>0.9628985076212313</v>
       </c>
       <c r="P9">
-        <v>0.01490527481465449</v>
+        <v>0.01664047771549691</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
@@ -982,114 +985,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2144</v>
+        <v>1695</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.6346724817142633</v>
+        <v>0.1089273174701695</v>
       </c>
       <c r="E10">
-        <v>0.7590839835667403</v>
+        <v>0.3773695579408289</v>
       </c>
       <c r="F10">
-        <v>0.004802496223290788</v>
+        <v>0.001695461342420814</v>
       </c>
       <c r="G10">
-        <v>2.223162776491906</v>
+        <v>5.555319266125617</v>
       </c>
       <c r="H10">
-        <v>0.3793237201734531</v>
+        <v>0.8903301466346132</v>
       </c>
       <c r="I10">
-        <v>2.462612181945333E-61</v>
+        <v>2.92944761878697E-22</v>
       </c>
       <c r="J10">
-        <v>14.8100004196167</v>
+        <v>21.67000007629395</v>
       </c>
       <c r="K10">
-        <v>34.63000106811523</v>
+        <v>16.89999961853027</v>
       </c>
       <c r="L10">
-        <v>0.7001885217495918</v>
+        <v>3.021855293177634</v>
       </c>
       <c r="M10">
-        <v>-0.697766912941022</v>
+        <v>-1.93084979064751</v>
       </c>
       <c r="N10">
-        <v>0.3108361429189511</v>
+        <v>0.8642305222789598</v>
       </c>
       <c r="O10">
-        <v>-0.5491431916433296</v>
+        <v>1.068101671677361</v>
       </c>
       <c r="P10">
-        <v>0.01502335997492274</v>
+        <v>0.016886511512</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11">
-        <v>0.6629347637412283</v>
+        <v>0.6422393178605058</v>
       </c>
       <c r="E11">
-        <v>0.5826038655143404</v>
+        <v>0.7714868045569381</v>
       </c>
       <c r="F11">
-        <v>0.005329253264648107</v>
+        <v>0.003635486498359529</v>
       </c>
       <c r="G11">
-        <v>2.237546136008901</v>
+        <v>-50.70734561487358</v>
       </c>
       <c r="H11">
-        <v>3.167460304986178</v>
+        <v>8.932445192096717</v>
       </c>
       <c r="I11">
-        <v>1.244756514590817E-53</v>
+        <v>6.599477232986966E-53</v>
       </c>
       <c r="J11">
-        <v>45.36999893188477</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="K11">
-        <v>12.69999980926514</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="L11">
-        <v>5.748477858769206</v>
+        <v>6.037801462076764</v>
       </c>
       <c r="M11">
-        <v>-6.379410890080486</v>
+        <v>-6.507762147252286</v>
       </c>
       <c r="N11">
-        <v>2.365201259865366</v>
+        <v>2.391350884863309</v>
       </c>
       <c r="O11">
-        <v>2.905707526696517</v>
+        <v>2.610720180365419</v>
       </c>
       <c r="P11">
-        <v>0.01529129695904168</v>
+        <v>0.01722664990426771</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,58 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>CMIG4</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>RENT3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>CYRE3</t>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
     <t>LREN3</t>
   </si>
   <si>
-    <t>ITUB4</t>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
     <t>PRIO3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
   </si>
 </sst>
 </file>
@@ -537,58 +543,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1155</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6338917860670696</v>
+        <v>0.6048025022779741</v>
       </c>
       <c r="E2">
-        <v>0.7714868045569381</v>
+        <v>0.7997335805030945</v>
       </c>
       <c r="F2">
-        <v>0.0001325130115464183</v>
+        <v>0.0003776169802802066</v>
       </c>
       <c r="G2">
-        <v>-4.852420217859455</v>
+        <v>3.186506787809323</v>
       </c>
       <c r="H2">
-        <v>1.476901325904863</v>
+        <v>0.8986696429761358</v>
       </c>
       <c r="I2">
-        <v>1.360075952033394E-67</v>
+        <v>1.303685813416137E-75</v>
       </c>
       <c r="J2">
-        <v>11.10999965667725</v>
+        <v>33.93000030517578</v>
       </c>
       <c r="K2">
-        <v>10.5600004196167</v>
+        <v>35.25</v>
       </c>
       <c r="L2">
-        <v>0.5918674552918457</v>
+        <v>1.619882662074161</v>
       </c>
       <c r="M2">
-        <v>-1.096465545502896</v>
+        <v>-1.270423274786495</v>
       </c>
       <c r="N2">
-        <v>0.2966064020272663</v>
+        <v>0.5686059323333098</v>
       </c>
       <c r="O2">
-        <v>0.3663412532488852</v>
+        <v>-0.9346113975423265</v>
       </c>
       <c r="P2">
-        <v>0.01294929361578564</v>
+        <v>0.0117313965499345</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -599,49 +605,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.6470805442407506</v>
+        <v>0.642628050844346</v>
       </c>
       <c r="E3">
-        <v>0.6265245955340251</v>
+        <v>0.6201600352362718</v>
       </c>
       <c r="F3">
-        <v>0.003313560176410449</v>
+        <v>0.001504592030960099</v>
       </c>
       <c r="G3">
-        <v>0.7290207884300166</v>
+        <v>0.7262650015369136</v>
       </c>
       <c r="H3">
-        <v>0.6017208411467899</v>
+        <v>0.6025984712913104</v>
       </c>
       <c r="I3">
-        <v>1.921613142848965E-61</v>
+        <v>1.055154892168155E-61</v>
       </c>
       <c r="J3">
         <v>10.11999988555908</v>
       </c>
       <c r="K3">
-        <v>14.80000019073486</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="L3">
-        <v>0.4995791151976388</v>
+        <v>0.4893810809567452</v>
       </c>
       <c r="M3">
-        <v>-0.5863655072290133</v>
+        <v>-0.588571606914428</v>
       </c>
       <c r="N3">
-        <v>0.2006900489942439</v>
+        <v>0.200961749264098</v>
       </c>
       <c r="O3">
-        <v>0.4855105333874317</v>
+        <v>0.3186016535146514</v>
       </c>
       <c r="P3">
-        <v>0.01329332357536597</v>
+        <v>0.01282293830034187</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,450 +655,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>47</v>
+        <v>1142</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.7442942736879175</v>
+        <v>0.8086259201412411</v>
       </c>
       <c r="E4">
-        <v>0.8928811729728787</v>
+        <v>0.6177217906322574</v>
       </c>
       <c r="F4">
-        <v>0.002398617022332384</v>
+        <v>0.003027695688927707</v>
       </c>
       <c r="G4">
-        <v>8.052445772925275</v>
+        <v>3.191840171357182</v>
       </c>
       <c r="H4">
-        <v>0.2731753805991882</v>
+        <v>0.1593147290818299</v>
       </c>
       <c r="I4">
-        <v>3.097982184575253E-57</v>
+        <v>9.722792721362709E-65</v>
       </c>
       <c r="J4">
-        <v>12.92000007629395</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="K4">
-        <v>18.90999984741211</v>
+        <v>45.68999862670898</v>
       </c>
       <c r="L4">
-        <v>0.6659103279790557</v>
+        <v>0.850320091224912</v>
       </c>
       <c r="M4">
-        <v>-0.4741329180957621</v>
+        <v>-0.8807455538476781</v>
       </c>
       <c r="N4">
-        <v>0.2505299703962831</v>
+        <v>0.335971508502406</v>
       </c>
       <c r="O4">
-        <v>-0.2981921020787226</v>
+        <v>0.6190702282673888</v>
       </c>
       <c r="P4">
-        <v>0.01382231733697474</v>
+        <v>0.01366372805363457</v>
       </c>
       <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1156</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.6338917860670696</v>
+        <v>0.7331049370736604</v>
       </c>
       <c r="E5">
-        <v>0.7795649825048636</v>
+        <v>0.906292189229859</v>
       </c>
       <c r="F5">
-        <v>0.0007016195786412769</v>
+        <v>0.002920059986765264</v>
       </c>
       <c r="G5">
-        <v>-3.341794798445832</v>
+        <v>8.085762848076509</v>
       </c>
       <c r="H5">
-        <v>0.4036324666811423</v>
+        <v>0.2711477015016329</v>
       </c>
       <c r="I5">
-        <v>2.092403090588969E-63</v>
+        <v>1.51582961916282E-57</v>
       </c>
       <c r="J5">
-        <v>11.10999965667725</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="K5">
-        <v>34.84999847412109</v>
+        <v>18.95000076293945</v>
       </c>
       <c r="L5">
-        <v>0.5192393688035732</v>
+        <v>0.66882788000283</v>
       </c>
       <c r="M5">
-        <v>-1.063893374186936</v>
+        <v>-0.4671367066317202</v>
       </c>
       <c r="N5">
-        <v>0.318210026566638</v>
+        <v>0.2510328670034287</v>
       </c>
       <c r="O5">
-        <v>0.3852036071795375</v>
+        <v>-0.3440118839608139</v>
       </c>
       <c r="P5">
-        <v>0.01472870708937759</v>
+        <v>0.01414663256017322</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2970</v>
+        <v>1037</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.1155865394829547</v>
+        <v>0.4795657393672138</v>
       </c>
       <c r="E6">
-        <v>0.2400785006094694</v>
+        <v>0.6238641414104672</v>
       </c>
       <c r="F6">
-        <v>0.0007374774421200531</v>
+        <v>0.003166560491075473</v>
       </c>
       <c r="G6">
-        <v>7.130635069354082</v>
+        <v>0.4228835211194962</v>
       </c>
       <c r="H6">
-        <v>1.590222762282598</v>
+        <v>0.2602503130366624</v>
       </c>
       <c r="I6">
-        <v>1.264278872080752E-42</v>
+        <v>4.123898287989144E-48</v>
       </c>
       <c r="J6">
-        <v>42.45999908447266</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="K6">
-        <v>20.96999931335449</v>
+        <v>13.39000034332275</v>
       </c>
       <c r="L6">
-        <v>5.520796867523472</v>
+        <v>0.6721525208897958</v>
       </c>
       <c r="M6">
-        <v>-5.674827807702172</v>
+        <v>-0.4579695001727906</v>
       </c>
       <c r="N6">
-        <v>1.804729573566283</v>
+        <v>0.2189431799050229</v>
       </c>
       <c r="O6">
-        <v>1.982393781971801</v>
+        <v>-0.287635416471177</v>
       </c>
       <c r="P6">
-        <v>0.01489910621459205</v>
+        <v>0.01425291817381793</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1965</v>
+        <v>872</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7">
-        <v>0.6812770543827091</v>
+        <v>0.4897032701747523</v>
       </c>
       <c r="E7">
-        <v>0.7714868045569381</v>
+        <v>0.4795657393672138</v>
       </c>
       <c r="F7">
-        <v>0.008547148968653854</v>
+        <v>0.001531091218359834</v>
       </c>
       <c r="G7">
-        <v>3.668556769150259</v>
+        <v>1.144426865221236</v>
       </c>
       <c r="H7">
-        <v>0.9219947829431514</v>
+        <v>5.627032908870502</v>
       </c>
       <c r="I7">
-        <v>2.435999933345902E-49</v>
+        <v>2.268523170570354E-49</v>
       </c>
       <c r="J7">
-        <v>14.02999973297119</v>
+        <v>23.29999923706055</v>
       </c>
       <c r="K7">
-        <v>10.5600004196167</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="L7">
-        <v>0.6682978366164853</v>
+        <v>3.541779366308397</v>
       </c>
       <c r="M7">
-        <v>-0.5985046519909396</v>
+        <v>-3.461826954618566</v>
       </c>
       <c r="N7">
-        <v>0.265786036406957</v>
+        <v>1.352854212412809</v>
       </c>
       <c r="O7">
-        <v>0.6251776690568462</v>
+        <v>1.785713885690907</v>
       </c>
       <c r="P7">
-        <v>0.01529003895676987</v>
+        <v>0.01464848347473998</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1521</v>
+        <v>1999</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.2608829735458692</v>
+        <v>0.7628303568210141</v>
       </c>
       <c r="E8">
-        <v>0.3220674230981978</v>
+        <v>0.9627778213497116</v>
       </c>
       <c r="F8">
-        <v>0.00332307276674852</v>
+        <v>0.003893742723771918</v>
       </c>
       <c r="G8">
-        <v>5.419193619793068</v>
+        <v>9.652849074442001</v>
       </c>
       <c r="H8">
-        <v>0.1781436178972408</v>
+        <v>0.07522377456821736</v>
       </c>
       <c r="I8">
-        <v>2.596343588658443E-23</v>
+        <v>4.479121828024329E-42</v>
       </c>
       <c r="J8">
-        <v>12.23999977111816</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="K8">
-        <v>43.43000030517578</v>
+        <v>56.52999877929688</v>
       </c>
       <c r="L8">
-        <v>1.165328023723671</v>
+        <v>0.597411543763787</v>
       </c>
       <c r="M8">
-        <v>-1.20382946744707</v>
+        <v>-1.067758343951306</v>
       </c>
       <c r="N8">
-        <v>0.4625732807122105</v>
+        <v>0.3052213694619469</v>
       </c>
       <c r="O8">
-        <v>-0.9159712283171881</v>
+        <v>0.3747507740137603</v>
       </c>
       <c r="P8">
-        <v>0.01536926887133829</v>
+        <v>0.01470918198341938</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1700</v>
+        <v>2970</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.1089273174701695</v>
+        <v>0.1082429720097829</v>
       </c>
       <c r="E9">
-        <v>0.6341183218996278</v>
+        <v>0.2681749491146713</v>
       </c>
       <c r="F9">
-        <v>0.002776957817172512</v>
+        <v>0.0009175262607338994</v>
       </c>
       <c r="G9">
-        <v>7.845979290813165</v>
+        <v>7.465857397747782</v>
       </c>
       <c r="H9">
-        <v>0.5616210695240604</v>
+        <v>1.576682192587129</v>
       </c>
       <c r="I9">
-        <v>4.923126332149213E-29</v>
+        <v>1.638217991970137E-42</v>
       </c>
       <c r="J9">
-        <v>21.67000007629395</v>
+        <v>42.61999893188477</v>
       </c>
       <c r="K9">
-        <v>22.89999961853027</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="L9">
-        <v>2.552183569630031</v>
+        <v>5.486628427476781</v>
       </c>
       <c r="M9">
-        <v>-1.57968676560899</v>
+        <v>-5.691846748252338</v>
       </c>
       <c r="N9">
-        <v>0.771733166036928</v>
+        <v>1.812052677073031</v>
       </c>
       <c r="O9">
-        <v>0.9628985076212313</v>
+        <v>2.611422041469091</v>
       </c>
       <c r="P9">
-        <v>0.01664047771549691</v>
+        <v>0.01529754933377819</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1695</v>
+        <v>1032</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.1089273174701695</v>
+        <v>0.4795657393672138</v>
       </c>
       <c r="E10">
-        <v>0.3773695579408289</v>
+        <v>0.4098502187175121</v>
       </c>
       <c r="F10">
-        <v>0.001695461342420814</v>
+        <v>0.003393375522846595</v>
       </c>
       <c r="G10">
-        <v>5.555319266125617</v>
+        <v>0.9621888811577406</v>
       </c>
       <c r="H10">
-        <v>0.8903301466346132</v>
+        <v>0.08913391530680492</v>
       </c>
       <c r="I10">
-        <v>2.92944761878697E-22</v>
+        <v>2.733268394271874E-44</v>
       </c>
       <c r="J10">
-        <v>21.67000007629395</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="K10">
-        <v>16.89999961853027</v>
+        <v>33.56999969482422</v>
       </c>
       <c r="L10">
-        <v>3.021855293177634</v>
+        <v>0.5311772242681383</v>
       </c>
       <c r="M10">
-        <v>-1.93084979064751</v>
+        <v>-0.5192838251285448</v>
       </c>
       <c r="N10">
-        <v>0.8642305222789598</v>
+        <v>0.2333267597336257</v>
       </c>
       <c r="O10">
-        <v>1.068101671677361</v>
+        <v>-0.3344145052465879</v>
       </c>
       <c r="P10">
-        <v>0.016886511512</v>
+        <v>0.01576438160383456</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1918</v>
+        <v>1521</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.6422393178605058</v>
+        <v>0.3007351192267586</v>
       </c>
       <c r="E11">
-        <v>0.7714868045569381</v>
+        <v>0.3246013313509152</v>
       </c>
       <c r="F11">
-        <v>0.003635486498359529</v>
+        <v>0.004619068462860439</v>
       </c>
       <c r="G11">
-        <v>-50.70734561487358</v>
+        <v>5.308315256230618</v>
       </c>
       <c r="H11">
-        <v>8.932445192096717</v>
+        <v>0.1804189110352876</v>
       </c>
       <c r="I11">
-        <v>6.599477232986966E-53</v>
+        <v>2.005445663833984E-23</v>
       </c>
       <c r="J11">
-        <v>46.22999954223633</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="K11">
-        <v>10.5600004196167</v>
+        <v>43.29999923706055</v>
       </c>
       <c r="L11">
-        <v>6.037801462076764</v>
+        <v>1.166104953724762</v>
       </c>
       <c r="M11">
-        <v>-6.507762147252286</v>
+        <v>-1.193655574355571</v>
       </c>
       <c r="N11">
-        <v>2.391350884863309</v>
+        <v>0.4687038641366861</v>
       </c>
       <c r="O11">
-        <v>2.610720180365419</v>
+        <v>-1.000454080850785</v>
       </c>
       <c r="P11">
-        <v>0.01722664990426771</v>
+        <v>0.01595783961700885</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,42 +73,33 @@
     <t>BBSE3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>CASH3</t>
   </si>
   <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>BRFS3</t>
   </si>
   <si>
-    <t>ENEV3</t>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>RENT3</t>
   </si>
   <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>CSAN3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
     <t>MRFG3</t>
   </si>
   <si>
@@ -118,10 +109,16 @@
     <t>UGPA3</t>
   </si>
   <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
     <t>JBSS3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
   </si>
 </sst>
 </file>
@@ -552,43 +549,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6048025022779741</v>
+        <v>0.6061616152360545</v>
       </c>
       <c r="E2">
-        <v>0.7997335805030945</v>
+        <v>0.7851338892056791</v>
       </c>
       <c r="F2">
-        <v>0.0003776169802802066</v>
+        <v>0.0002682677072700088</v>
       </c>
       <c r="G2">
-        <v>3.186506787809323</v>
+        <v>3.235575749861398</v>
       </c>
       <c r="H2">
-        <v>0.8986696429761358</v>
+        <v>0.8970714820141317</v>
       </c>
       <c r="I2">
-        <v>1.303685813416137E-75</v>
+        <v>6.52308831635038E-76</v>
       </c>
       <c r="J2">
-        <v>33.93000030517578</v>
+        <v>34.04000091552734</v>
       </c>
       <c r="K2">
-        <v>35.25</v>
+        <v>35.04000091552734</v>
       </c>
       <c r="L2">
-        <v>1.619882662074161</v>
+        <v>1.624138976889924</v>
       </c>
       <c r="M2">
-        <v>-1.270423274786495</v>
+        <v>-1.267358037401941</v>
       </c>
       <c r="N2">
-        <v>0.5686059323333098</v>
+        <v>0.5690836424726921</v>
       </c>
       <c r="O2">
-        <v>-0.9346113975423265</v>
+        <v>-0.6289603854026993</v>
       </c>
       <c r="P2">
-        <v>0.0117313965499345</v>
+        <v>0.01167292138136909</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -599,7 +596,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1385</v>
+        <v>1037</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -608,54 +605,54 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.642628050844346</v>
+        <v>0.4743192447109289</v>
       </c>
       <c r="E3">
-        <v>0.6201600352362718</v>
+        <v>0.6211080418184691</v>
       </c>
       <c r="F3">
-        <v>0.001504592030960099</v>
+        <v>0.003680017666041044</v>
       </c>
       <c r="G3">
-        <v>0.7262650015369136</v>
+        <v>0.4350630418699347</v>
       </c>
       <c r="H3">
-        <v>0.6025984712913104</v>
+        <v>0.2590477176056648</v>
       </c>
       <c r="I3">
-        <v>1.055154892168155E-61</v>
+        <v>5.274150353513463E-48</v>
       </c>
       <c r="J3">
-        <v>10.11999988555908</v>
+        <v>3.589999914169312</v>
       </c>
       <c r="K3">
-        <v>15.0600004196167</v>
+        <v>13.39000034332275</v>
       </c>
       <c r="L3">
-        <v>0.4893810809567452</v>
+        <v>0.6746085866263489</v>
       </c>
       <c r="M3">
-        <v>-0.588571606914428</v>
+        <v>-0.4576059502109211</v>
       </c>
       <c r="N3">
-        <v>0.200961749264098</v>
+        <v>0.2197791013161031</v>
       </c>
       <c r="O3">
-        <v>0.3186016535146514</v>
+        <v>-0.3137121553774498</v>
       </c>
       <c r="P3">
-        <v>0.01282293830034187</v>
+        <v>0.01455915369022594</v>
       </c>
       <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
         <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1142</v>
+        <v>1999</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -664,43 +661,43 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0.8086259201412411</v>
+        <v>0.7803684376700639</v>
       </c>
       <c r="E4">
-        <v>0.6177217906322574</v>
+        <v>0.9703709773467273</v>
       </c>
       <c r="F4">
-        <v>0.003027695688927707</v>
+        <v>0.003712193129528103</v>
       </c>
       <c r="G4">
-        <v>3.191840171357182</v>
+        <v>9.626855086871485</v>
       </c>
       <c r="H4">
-        <v>0.1593147290818299</v>
+        <v>0.07585171623319018</v>
       </c>
       <c r="I4">
-        <v>9.722792721362709E-65</v>
+        <v>5.234237699849198E-43</v>
       </c>
       <c r="J4">
-        <v>11.09000015258789</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="K4">
-        <v>45.68999862670898</v>
+        <v>57.18999862670898</v>
       </c>
       <c r="L4">
-        <v>0.850320091224912</v>
+        <v>0.5991998173801374</v>
       </c>
       <c r="M4">
-        <v>-0.8807455538476781</v>
+        <v>-1.074778839739444</v>
       </c>
       <c r="N4">
-        <v>0.335971508502406</v>
+        <v>0.3055629516293323</v>
       </c>
       <c r="O4">
-        <v>0.6190702282673888</v>
+        <v>0.3451857855355485</v>
       </c>
       <c r="P4">
-        <v>0.01366372805363457</v>
+        <v>0.01477536530562158</v>
       </c>
       <c r="Q4" t="s">
         <v>29</v>
@@ -711,167 +708,167 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>47</v>
+        <v>872</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0.7331049370736604</v>
+        <v>0.4832170326132774</v>
       </c>
       <c r="E5">
-        <v>0.906292189229859</v>
+        <v>0.4743192447109289</v>
       </c>
       <c r="F5">
-        <v>0.002920059986765264</v>
+        <v>0.001706439363181634</v>
       </c>
       <c r="G5">
-        <v>8.085762848076509</v>
+        <v>1.148067177364853</v>
       </c>
       <c r="H5">
-        <v>0.2711477015016329</v>
+        <v>5.629857164622249</v>
       </c>
       <c r="I5">
-        <v>1.51582961916282E-57</v>
+        <v>2.119653643386271E-49</v>
       </c>
       <c r="J5">
-        <v>12.88000011444092</v>
+        <v>23.27000045776367</v>
       </c>
       <c r="K5">
-        <v>18.95000076293945</v>
+        <v>3.589999914169312</v>
       </c>
       <c r="L5">
-        <v>0.66882788000283</v>
+        <v>3.528641040560665</v>
       </c>
       <c r="M5">
-        <v>-0.4671367066317202</v>
+        <v>-3.474660925906768</v>
       </c>
       <c r="N5">
-        <v>0.2510328670034287</v>
+        <v>1.357687108372753</v>
       </c>
       <c r="O5">
-        <v>-0.3440118839608139</v>
+        <v>1.91074654261946</v>
       </c>
       <c r="P5">
-        <v>0.01414663256017322</v>
+        <v>0.01488241092749577</v>
       </c>
       <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1037</v>
+        <v>1925</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.4795657393672138</v>
+        <v>0.7311589111948801</v>
       </c>
       <c r="E6">
-        <v>0.6238641414104672</v>
+        <v>0.6211080418184691</v>
       </c>
       <c r="F6">
-        <v>0.003166560491075473</v>
+        <v>0.004834872735265709</v>
       </c>
       <c r="G6">
-        <v>0.4228835211194962</v>
+        <v>2.067601338911013</v>
       </c>
       <c r="H6">
-        <v>0.2602503130366624</v>
+        <v>3.186952658842673</v>
       </c>
       <c r="I6">
-        <v>4.123898287989144E-48</v>
+        <v>3.06694606416115E-54</v>
       </c>
       <c r="J6">
-        <v>3.619999885559082</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="K6">
         <v>13.39000034332275</v>
       </c>
       <c r="L6">
-        <v>0.6721525208897958</v>
+        <v>5.697964125570813</v>
       </c>
       <c r="M6">
-        <v>-0.4579695001727906</v>
+        <v>-6.459942847474302</v>
       </c>
       <c r="N6">
-        <v>0.2189431799050229</v>
+        <v>2.378400332382676</v>
       </c>
       <c r="O6">
-        <v>-0.287635416471177</v>
+        <v>4.029101922795903</v>
       </c>
       <c r="P6">
-        <v>0.01425291817381793</v>
+        <v>0.01507987914421178</v>
       </c>
       <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>872</v>
+        <v>2970</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.4897032701747523</v>
+        <v>0.1020274796364383</v>
       </c>
       <c r="E7">
-        <v>0.4795657393672138</v>
+        <v>0.2180552934142273</v>
       </c>
       <c r="F7">
-        <v>0.001531091218359834</v>
+        <v>0.0008345239069604372</v>
       </c>
       <c r="G7">
-        <v>1.144426865221236</v>
+        <v>7.706221767409142</v>
       </c>
       <c r="H7">
-        <v>5.627032908870502</v>
+        <v>1.567096454687388</v>
       </c>
       <c r="I7">
-        <v>2.268523170570354E-49</v>
+        <v>1.790710712726752E-42</v>
       </c>
       <c r="J7">
-        <v>23.29999923706055</v>
+        <v>43.15000152587891</v>
       </c>
       <c r="K7">
-        <v>3.619999885559082</v>
+        <v>21.13999938964844</v>
       </c>
       <c r="L7">
-        <v>3.541779366308397</v>
+        <v>5.459388300908209</v>
       </c>
       <c r="M7">
-        <v>-3.461826954618566</v>
+        <v>-5.7069462772698</v>
       </c>
       <c r="N7">
-        <v>1.352854212412809</v>
+        <v>1.816284038256687</v>
       </c>
       <c r="O7">
-        <v>1.785713885690907</v>
+        <v>2.315361662858145</v>
       </c>
       <c r="P7">
-        <v>0.01464848347473998</v>
+        <v>0.0154108174291682</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -879,55 +876,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1999</v>
+        <v>1747</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.7628303568210141</v>
+        <v>0.4473728550822451</v>
       </c>
       <c r="E8">
-        <v>0.9627778213497116</v>
+        <v>0.3752393303944851</v>
       </c>
       <c r="F8">
-        <v>0.003893742723771918</v>
+        <v>0.006280446359934818</v>
       </c>
       <c r="G8">
-        <v>9.652849074442001</v>
+        <v>-0.6392766913461202</v>
       </c>
       <c r="H8">
-        <v>0.07522377456821736</v>
+        <v>0.4761680869118201</v>
       </c>
       <c r="I8">
-        <v>4.479121828024329E-42</v>
+        <v>4.017255734890377E-36</v>
       </c>
       <c r="J8">
-        <v>14.27999973297119</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="K8">
-        <v>56.52999877929688</v>
+        <v>17.64999961853027</v>
       </c>
       <c r="L8">
-        <v>0.597411543763787</v>
+        <v>0.8372927671915864</v>
       </c>
       <c r="M8">
-        <v>-1.067758343951306</v>
+        <v>-0.7052844121664332</v>
       </c>
       <c r="N8">
-        <v>0.3052213694619469</v>
+        <v>0.3147846286493283</v>
       </c>
       <c r="O8">
-        <v>0.3747507740137603</v>
+        <v>0.4049102152901511</v>
       </c>
       <c r="P8">
-        <v>0.01470918198341938</v>
+        <v>0.0157069824198626</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
@@ -935,170 +932,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2970</v>
+        <v>1860</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.1082429720097829</v>
+        <v>0.5481707178957571</v>
       </c>
       <c r="E9">
-        <v>0.2681749491146713</v>
+        <v>0.620110220017837</v>
       </c>
       <c r="F9">
-        <v>0.0009175262607338994</v>
+        <v>0.003973243970963422</v>
       </c>
       <c r="G9">
-        <v>7.465857397747782</v>
+        <v>9.326222624674871</v>
       </c>
       <c r="H9">
-        <v>1.576682192587129</v>
+        <v>1.041927767227276</v>
       </c>
       <c r="I9">
-        <v>1.638217991970137E-42</v>
+        <v>3.499579128459328E-45</v>
       </c>
       <c r="J9">
-        <v>42.61999893188477</v>
+        <v>42.29000091552734</v>
       </c>
       <c r="K9">
-        <v>20.63999938964844</v>
+        <v>32.81999969482422</v>
       </c>
       <c r="L9">
-        <v>5.486628427476781</v>
+        <v>2.086729875435111</v>
       </c>
       <c r="M9">
-        <v>-5.691846748252338</v>
+        <v>-1.989168652607368</v>
       </c>
       <c r="N9">
-        <v>1.812052677073031</v>
+        <v>1.052247731541898</v>
       </c>
       <c r="O9">
-        <v>2.611422041469091</v>
+        <v>-1.232290711575587</v>
       </c>
       <c r="P9">
-        <v>0.01529754933377819</v>
+        <v>0.01577100595797738</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1032</v>
+        <v>1521</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.4795657393672138</v>
+        <v>0.3305449504489645</v>
       </c>
       <c r="E10">
-        <v>0.4098502187175121</v>
+        <v>0.3452341477329148</v>
       </c>
       <c r="F10">
-        <v>0.003393375522846595</v>
+        <v>0.004646184707238198</v>
       </c>
       <c r="G10">
-        <v>0.9621888811577406</v>
+        <v>5.181339514446896</v>
       </c>
       <c r="H10">
-        <v>0.08913391530680492</v>
+        <v>0.1830573288450052</v>
       </c>
       <c r="I10">
-        <v>2.733268394271874E-44</v>
+        <v>1.070313692612814E-23</v>
       </c>
       <c r="J10">
-        <v>3.619999885559082</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="K10">
-        <v>33.56999969482422</v>
+        <v>42.77000045776367</v>
       </c>
       <c r="L10">
-        <v>0.5311772242681383</v>
+        <v>1.165407659306616</v>
       </c>
       <c r="M10">
-        <v>-0.5192838251285448</v>
+        <v>-1.183456200401451</v>
       </c>
       <c r="N10">
-        <v>0.2333267597336257</v>
+        <v>0.473952225115762</v>
       </c>
       <c r="O10">
-        <v>-0.3344145052465879</v>
+        <v>-0.9507011333280628</v>
       </c>
       <c r="P10">
-        <v>0.01576438160383456</v>
+        <v>0.01622267508030516</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1521</v>
+        <v>1032</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.3007351192267586</v>
+        <v>0.4743192447109289</v>
       </c>
       <c r="E11">
-        <v>0.3246013313509152</v>
+        <v>0.4420592387824391</v>
       </c>
       <c r="F11">
-        <v>0.004619068462860439</v>
+        <v>0.004863307249996091</v>
       </c>
       <c r="G11">
-        <v>5.308315256230618</v>
+        <v>0.9793453482831707</v>
       </c>
       <c r="H11">
-        <v>0.1804189110352876</v>
+        <v>0.08844178086499103</v>
       </c>
       <c r="I11">
-        <v>2.005445663833984E-23</v>
+        <v>5.99195466255412E-44</v>
       </c>
       <c r="J11">
-        <v>12.11999988555908</v>
+        <v>3.589999914169312</v>
       </c>
       <c r="K11">
-        <v>43.29999923706055</v>
+        <v>34.09000015258789</v>
       </c>
       <c r="L11">
-        <v>1.166104953724762</v>
+        <v>0.5277019768096607</v>
       </c>
       <c r="M11">
-        <v>-1.193655574355571</v>
+        <v>-0.5138131562461332</v>
       </c>
       <c r="N11">
-        <v>0.4687038641366861</v>
+        <v>0.2350173568433132</v>
       </c>
       <c r="O11">
-        <v>-1.000454080850785</v>
+        <v>-0.4043257572965482</v>
       </c>
       <c r="P11">
-        <v>0.01595783961700885</v>
+        <v>0.01635459434191295</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>N</t>
   </si>
@@ -70,55 +70,61 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>BBSE3</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
     <t>BRFS3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
     <t>DXCO3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>CSAN3</t>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
     <t>TIMS3</t>
   </si>
   <si>
     <t>EQTL3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
   </si>
 </sst>
 </file>
@@ -540,167 +546,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>562</v>
+        <v>2640</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.6061616152360545</v>
+        <v>0.1300472169450344</v>
       </c>
       <c r="E2">
-        <v>0.7851338892056791</v>
+        <v>0.2308645898160522</v>
       </c>
       <c r="F2">
-        <v>0.0002682677072700088</v>
+        <v>0.000347597439270472</v>
       </c>
       <c r="G2">
-        <v>3.235575749861398</v>
+        <v>0.7883562059683304</v>
       </c>
       <c r="H2">
-        <v>0.8970714820141317</v>
+        <v>0.1603131850003526</v>
       </c>
       <c r="I2">
-        <v>6.52308831635038E-76</v>
+        <v>7.107570578104238E-42</v>
       </c>
       <c r="J2">
-        <v>34.04000091552734</v>
+        <v>4.349999904632568</v>
       </c>
       <c r="K2">
-        <v>35.04000091552734</v>
+        <v>20.85000038146973</v>
       </c>
       <c r="L2">
-        <v>1.624138976889924</v>
+        <v>0.5921426811556207</v>
       </c>
       <c r="M2">
-        <v>-1.267358037401941</v>
+        <v>-0.5415125307425832</v>
       </c>
       <c r="N2">
-        <v>0.5690836424726921</v>
+        <v>0.1899417534555349</v>
       </c>
       <c r="O2">
-        <v>-0.6289603854026993</v>
+        <v>0.2191137302522583</v>
       </c>
       <c r="P2">
-        <v>0.01167292138136909</v>
+        <v>0.01142727780937874</v>
       </c>
       <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1037</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.4743192447109289</v>
+        <v>0.6008159963584735</v>
       </c>
       <c r="E3">
-        <v>0.6211080418184691</v>
+        <v>0.7877789088897601</v>
       </c>
       <c r="F3">
-        <v>0.003680017666041044</v>
+        <v>0.0003240552989823157</v>
       </c>
       <c r="G3">
-        <v>0.4350630418699347</v>
+        <v>3.295039800160756</v>
       </c>
       <c r="H3">
-        <v>0.2590477176056648</v>
+        <v>0.8951426100888347</v>
       </c>
       <c r="I3">
-        <v>5.274150353513463E-48</v>
+        <v>4.114211281035868E-76</v>
       </c>
       <c r="J3">
-        <v>3.589999914169312</v>
+        <v>33.9900016784668</v>
       </c>
       <c r="K3">
-        <v>13.39000034332275</v>
+        <v>35.11000061035156</v>
       </c>
       <c r="L3">
-        <v>0.6746085866263489</v>
+        <v>1.629038334996693</v>
       </c>
       <c r="M3">
-        <v>-0.4576059502109211</v>
+        <v>-1.263903781245041</v>
       </c>
       <c r="N3">
-        <v>0.2197791013161031</v>
+        <v>0.5704444379281438</v>
       </c>
       <c r="O3">
-        <v>-0.3137121553774498</v>
+        <v>-0.7334957082646376</v>
       </c>
       <c r="P3">
-        <v>0.01455915369022594</v>
+        <v>0.01188132069177346</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1999</v>
+        <v>1385</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.7803684376700639</v>
+        <v>0.6013930075688518</v>
       </c>
       <c r="E4">
-        <v>0.9703709773467273</v>
+        <v>0.6042426795250251</v>
       </c>
       <c r="F4">
-        <v>0.003712193129528103</v>
+        <v>0.001111090689250877</v>
       </c>
       <c r="G4">
-        <v>9.626855086871485</v>
+        <v>0.7203292694127992</v>
       </c>
       <c r="H4">
-        <v>0.07585171623319018</v>
+        <v>0.6026486207404816</v>
       </c>
       <c r="I4">
-        <v>5.234237699849198E-43</v>
+        <v>5.341590883968592E-62</v>
       </c>
       <c r="J4">
-        <v>14.3100004196167</v>
+        <v>9.930000305175781</v>
       </c>
       <c r="K4">
-        <v>57.18999862670898</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="L4">
-        <v>0.5991998173801374</v>
+        <v>0.4945766071996154</v>
       </c>
       <c r="M4">
-        <v>-1.074778839739444</v>
+        <v>-0.5916309953551693</v>
       </c>
       <c r="N4">
-        <v>0.3055629516293323</v>
+        <v>0.2018569823019609</v>
       </c>
       <c r="O4">
-        <v>0.3451857855355485</v>
+        <v>0.2241801924792828</v>
       </c>
       <c r="P4">
-        <v>0.01477536530562158</v>
+        <v>0.01280774313498501</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -708,55 +714,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>872</v>
+        <v>1155</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>0.4832170326132774</v>
+        <v>0.6189501143190743</v>
       </c>
       <c r="E5">
-        <v>0.4743192447109289</v>
+        <v>0.7707751908031824</v>
       </c>
       <c r="F5">
-        <v>0.001706439363181634</v>
+        <v>0.0001119493376432655</v>
       </c>
       <c r="G5">
-        <v>1.148067177364853</v>
+        <v>-4.932280493988305</v>
       </c>
       <c r="H5">
-        <v>5.629857164622249</v>
+        <v>1.485415099568204</v>
       </c>
       <c r="I5">
-        <v>2.119653643386271E-49</v>
+        <v>5.864730873573064E-69</v>
       </c>
       <c r="J5">
-        <v>23.27000045776367</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="K5">
-        <v>3.589999914169312</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="L5">
-        <v>3.528641040560665</v>
+        <v>0.5886644281719846</v>
       </c>
       <c r="M5">
-        <v>-3.474660925906768</v>
+        <v>-1.102008136405265</v>
       </c>
       <c r="N5">
-        <v>1.357687108372753</v>
+        <v>0.2971881886400365</v>
       </c>
       <c r="O5">
-        <v>1.91074654261946</v>
+        <v>0.3165892353546091</v>
       </c>
       <c r="P5">
-        <v>0.01488241092749577</v>
+        <v>0.01308721096822162</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -764,338 +770,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1925</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0.7311589111948801</v>
+        <v>0.4746355018859021</v>
       </c>
       <c r="E6">
-        <v>0.6211080418184691</v>
+        <v>0.1947957235136527</v>
       </c>
       <c r="F6">
-        <v>0.004834872735265709</v>
+        <v>0.001780957134001776</v>
       </c>
       <c r="G6">
-        <v>2.067601338911013</v>
+        <v>-2.732128801459509</v>
       </c>
       <c r="H6">
-        <v>3.186952658842673</v>
+        <v>0.4177235728918926</v>
       </c>
       <c r="I6">
-        <v>3.06694606416115E-54</v>
+        <v>1.401420838715886E-53</v>
       </c>
       <c r="J6">
-        <v>48.77000045776367</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="K6">
-        <v>13.39000034332275</v>
+        <v>33.18999862670898</v>
       </c>
       <c r="L6">
-        <v>5.697964125570813</v>
+        <v>0.7264710018554474</v>
       </c>
       <c r="M6">
-        <v>-6.459942847474302</v>
+        <v>-0.7822448545221121</v>
       </c>
       <c r="N6">
-        <v>2.378400332382676</v>
+        <v>0.3060547546352763</v>
       </c>
       <c r="O6">
-        <v>4.029101922795903</v>
+        <v>-0.4121157421375674</v>
       </c>
       <c r="P6">
-        <v>0.01507987914421178</v>
+        <v>0.01356997228349346</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2970</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>0.1020274796364383</v>
+        <v>0.7256033085640948</v>
       </c>
       <c r="E7">
-        <v>0.2180552934142273</v>
+        <v>0.8788864483798611</v>
       </c>
       <c r="F7">
-        <v>0.0008345239069604372</v>
+        <v>0.00269687488444351</v>
       </c>
       <c r="G7">
-        <v>7.706221767409142</v>
+        <v>8.118328049202781</v>
       </c>
       <c r="H7">
-        <v>1.567096454687388</v>
+        <v>0.2684502464978507</v>
       </c>
       <c r="I7">
-        <v>1.790710712726752E-42</v>
+        <v>2.517136996515518E-58</v>
       </c>
       <c r="J7">
-        <v>43.15000152587891</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="K7">
-        <v>21.13999938964844</v>
+        <v>18.70999908447266</v>
       </c>
       <c r="L7">
-        <v>5.459388300908209</v>
+        <v>0.6844662020579424</v>
       </c>
       <c r="M7">
-        <v>-5.7069462772698</v>
+        <v>-0.460592452011829</v>
       </c>
       <c r="N7">
-        <v>1.816284038256687</v>
+        <v>0.2514452891932416</v>
       </c>
       <c r="O7">
-        <v>2.315361662858145</v>
+        <v>-0.2810322587267793</v>
       </c>
       <c r="P7">
-        <v>0.0154108174291682</v>
+        <v>0.01433574264394106</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1747</v>
+        <v>1037</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>0.4473728550822451</v>
+        <v>0.4698414722845958</v>
       </c>
       <c r="E8">
-        <v>0.3752393303944851</v>
+        <v>0.6534478243061003</v>
       </c>
       <c r="F8">
-        <v>0.006280446359934818</v>
+        <v>0.006856613885626195</v>
       </c>
       <c r="G8">
-        <v>-0.6392766913461202</v>
+        <v>0.4575627809462158</v>
       </c>
       <c r="H8">
-        <v>0.4761680869118201</v>
+        <v>0.256904076830967</v>
       </c>
       <c r="I8">
-        <v>4.017255734890377E-36</v>
+        <v>2.05861364684945E-47</v>
       </c>
       <c r="J8">
-        <v>8.170000076293945</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="K8">
-        <v>17.64999961853027</v>
+        <v>13.72999954223633</v>
       </c>
       <c r="L8">
-        <v>0.8372927671915864</v>
+        <v>0.6781969559416861</v>
       </c>
       <c r="M8">
-        <v>-0.7052844121664332</v>
+        <v>-0.4577475153529176</v>
       </c>
       <c r="N8">
-        <v>0.3147846286493283</v>
+        <v>0.2223553377920728</v>
       </c>
       <c r="O8">
-        <v>0.4049102152901511</v>
+        <v>-0.4548556668442689</v>
       </c>
       <c r="P8">
-        <v>0.0157069824198626</v>
+        <v>0.01539287145903957</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1860</v>
+        <v>872</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>0.5481707178957571</v>
+        <v>0.5208138459252474</v>
       </c>
       <c r="E9">
-        <v>0.620110220017837</v>
+        <v>0.4698414722845958</v>
       </c>
       <c r="F9">
-        <v>0.003973243970963422</v>
+        <v>0.003464915078398534</v>
       </c>
       <c r="G9">
-        <v>9.326222624674871</v>
+        <v>1.172723810882135</v>
       </c>
       <c r="H9">
-        <v>1.041927767227276</v>
+        <v>5.628599841735043</v>
       </c>
       <c r="I9">
-        <v>3.499579128459328E-45</v>
+        <v>5.475642297903302E-49</v>
       </c>
       <c r="J9">
-        <v>42.29000091552734</v>
+        <v>23.88999938964844</v>
       </c>
       <c r="K9">
-        <v>32.81999969482422</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="L9">
-        <v>2.086729875435111</v>
+        <v>3.508212802393224</v>
       </c>
       <c r="M9">
-        <v>-1.989168652607368</v>
+        <v>-3.495224658824483</v>
       </c>
       <c r="N9">
-        <v>1.052247731541898</v>
+        <v>1.373998532389232</v>
       </c>
       <c r="O9">
-        <v>-1.232290711575587</v>
+        <v>2.848318298477132</v>
       </c>
       <c r="P9">
-        <v>0.01577100595797738</v>
+        <v>0.01568170743834219</v>
       </c>
       <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
         <v>25</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1521</v>
+        <v>1747</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0.3305449504489645</v>
+        <v>0.4233481416672912</v>
       </c>
       <c r="E10">
-        <v>0.3452341477329148</v>
+        <v>0.3634234531730715</v>
       </c>
       <c r="F10">
-        <v>0.004646184707238198</v>
+        <v>0.005962656710375111</v>
       </c>
       <c r="G10">
-        <v>5.181339514446896</v>
+        <v>-0.659555657061236</v>
       </c>
       <c r="H10">
-        <v>0.1830573288450052</v>
+        <v>0.4775089928716856</v>
       </c>
       <c r="I10">
-        <v>1.070313692612814E-23</v>
+        <v>2.55071533358919E-36</v>
       </c>
       <c r="J10">
-        <v>12.0600004196167</v>
+        <v>8.090000152587891</v>
       </c>
       <c r="K10">
-        <v>42.77000045776367</v>
+        <v>17.54999923706055</v>
       </c>
       <c r="L10">
-        <v>1.165407659306616</v>
+        <v>0.8337706521190897</v>
       </c>
       <c r="M10">
-        <v>-1.183456200401451</v>
+        <v>-0.7084758609054544</v>
       </c>
       <c r="N10">
-        <v>0.473952225115762</v>
+        <v>0.3152147123482122</v>
       </c>
       <c r="O10">
-        <v>-0.9507011333280628</v>
+        <v>0.3692733490614959</v>
       </c>
       <c r="P10">
-        <v>0.01622267508030516</v>
+        <v>0.01577459981447741</v>
       </c>
       <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
         <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1032</v>
+        <v>1860</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>0.4743192447109289</v>
+        <v>0.5472203658494226</v>
       </c>
       <c r="E11">
-        <v>0.4420592387824391</v>
+        <v>0.6150477100498249</v>
       </c>
       <c r="F11">
-        <v>0.004863307249996091</v>
+        <v>0.004006465134677941</v>
       </c>
       <c r="G11">
-        <v>0.9793453482831707</v>
+        <v>9.37347665404393</v>
       </c>
       <c r="H11">
-        <v>0.08844178086499103</v>
+        <v>1.040186833596011</v>
       </c>
       <c r="I11">
-        <v>5.99195466255412E-44</v>
+        <v>3.15779974978999E-45</v>
       </c>
       <c r="J11">
-        <v>3.589999914169312</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="K11">
-        <v>34.09000015258789</v>
+        <v>32.68999862670898</v>
       </c>
       <c r="L11">
-        <v>0.5277019768096607</v>
+        <v>2.093974933820533</v>
       </c>
       <c r="M11">
-        <v>-0.5138131562461332</v>
+        <v>-1.980660579892188</v>
       </c>
       <c r="N11">
-        <v>0.2350173568433132</v>
+        <v>1.053376773226126</v>
       </c>
       <c r="O11">
-        <v>-0.4043257572965482</v>
+        <v>-1.197182510642513</v>
       </c>
       <c r="P11">
-        <v>0.01635459434191295</v>
+        <v>0.0159292262333971</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,61 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>LWSA3</t>
+    <t>CMIG4</t>
   </si>
   <si>
     <t>BBSE3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>FLRY3</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
   </si>
   <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
     <t>EQTL3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -546,58 +531,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2640</v>
+        <v>1142</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.1300472169450344</v>
+        <v>0.6390184074185055</v>
       </c>
       <c r="E2">
-        <v>0.2308645898160522</v>
+        <v>0.677820410297965</v>
       </c>
       <c r="F2">
-        <v>0.000347597439270472</v>
+        <v>4.723392488089939E-05</v>
       </c>
       <c r="G2">
-        <v>0.7883562059683304</v>
+        <v>4.200619738306936</v>
       </c>
       <c r="H2">
-        <v>0.1603131850003526</v>
+        <v>0.1486754378334992</v>
       </c>
       <c r="I2">
-        <v>7.107570578104238E-42</v>
+        <v>9.008197504724398E-72</v>
       </c>
       <c r="J2">
-        <v>4.349999904632568</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="K2">
-        <v>20.85000038146973</v>
+        <v>47.97999954223633</v>
       </c>
       <c r="L2">
-        <v>0.5921426811556207</v>
+        <v>0.6122776995438635</v>
       </c>
       <c r="M2">
-        <v>-0.5415125307425832</v>
+        <v>-0.8568192903617984</v>
       </c>
       <c r="N2">
-        <v>0.1899417534555349</v>
+        <v>0.2751346456376543</v>
       </c>
       <c r="O2">
-        <v>0.2191137302522583</v>
+        <v>-0.2940672156469866</v>
       </c>
       <c r="P2">
-        <v>0.01142727780937874</v>
+        <v>0.009314758999101067</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -608,161 +593,161 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6008159963584735</v>
+        <v>0.6763817669057065</v>
       </c>
       <c r="E3">
-        <v>0.7877789088897601</v>
+        <v>0.7747188647114852</v>
       </c>
       <c r="F3">
-        <v>0.0003240552989823157</v>
+        <v>0.0008143672443837421</v>
       </c>
       <c r="G3">
-        <v>3.295039800160756</v>
+        <v>3.579481053017787</v>
       </c>
       <c r="H3">
-        <v>0.8951426100888347</v>
+        <v>0.8872403299307605</v>
       </c>
       <c r="I3">
-        <v>4.114211281035868E-76</v>
+        <v>7.182440842033142E-77</v>
       </c>
       <c r="J3">
-        <v>33.9900016784668</v>
+        <v>33.81999969482422</v>
       </c>
       <c r="K3">
-        <v>35.11000061035156</v>
+        <v>35.27999877929688</v>
       </c>
       <c r="L3">
-        <v>1.629038334996693</v>
+        <v>1.608269665289129</v>
       </c>
       <c r="M3">
-        <v>-1.263903781245041</v>
+        <v>-1.177165092372618</v>
       </c>
       <c r="N3">
-        <v>0.5704444379281438</v>
+        <v>0.5513637030442451</v>
       </c>
       <c r="O3">
-        <v>-0.7334957082646376</v>
+        <v>-1.061319115093756</v>
       </c>
       <c r="P3">
-        <v>0.01188132069177346</v>
+        <v>0.01193559634926454</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1385</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.6013930075688518</v>
+        <v>0.4650661342053787</v>
       </c>
       <c r="E4">
-        <v>0.6042426795250251</v>
+        <v>0.1703235106378805</v>
       </c>
       <c r="F4">
-        <v>0.001111090689250877</v>
+        <v>0.001869165211844643</v>
       </c>
       <c r="G4">
-        <v>0.7203292694127992</v>
+        <v>-2.92509310386708</v>
       </c>
       <c r="H4">
-        <v>0.6026486207404816</v>
+        <v>0.4236525464573081</v>
       </c>
       <c r="I4">
-        <v>5.341590883968592E-62</v>
+        <v>2.753809906155142E-53</v>
       </c>
       <c r="J4">
-        <v>9.930000305175781</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="K4">
-        <v>14.90999984741211</v>
+        <v>33.13000106811523</v>
       </c>
       <c r="L4">
-        <v>0.4945766071996154</v>
+        <v>0.7294117060148988</v>
       </c>
       <c r="M4">
-        <v>-0.5916309953551693</v>
+        <v>-0.7914585416483124</v>
       </c>
       <c r="N4">
-        <v>0.2018569823019609</v>
+        <v>0.3058121147654689</v>
       </c>
       <c r="O4">
-        <v>0.2241801924792828</v>
+        <v>-0.4605165942430016</v>
       </c>
       <c r="P4">
-        <v>0.01280774313498501</v>
+        <v>0.01328629973506654</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1155</v>
+        <v>1999</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6189501143190743</v>
+        <v>0.8181823932192731</v>
       </c>
       <c r="E5">
-        <v>0.7707751908031824</v>
+        <v>0.9436476578999111</v>
       </c>
       <c r="F5">
-        <v>0.0001119493376432655</v>
+        <v>0.005528430421848489</v>
       </c>
       <c r="G5">
-        <v>-4.932280493988305</v>
+        <v>9.544219354486479</v>
       </c>
       <c r="H5">
-        <v>1.485415099568204</v>
+        <v>0.07770904986090732</v>
       </c>
       <c r="I5">
-        <v>5.864730873573064E-69</v>
+        <v>2.308288028711081E-43</v>
       </c>
       <c r="J5">
-        <v>11.10000038146973</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="K5">
-        <v>10.57999992370605</v>
+        <v>55.22000122070312</v>
       </c>
       <c r="L5">
-        <v>0.5886644281719846</v>
+        <v>0.6102387407131253</v>
       </c>
       <c r="M5">
-        <v>-1.102008136405265</v>
+        <v>-1.089792609603457</v>
       </c>
       <c r="N5">
-        <v>0.2971881886400365</v>
+        <v>0.3101955941230206</v>
       </c>
       <c r="O5">
-        <v>0.3165892353546091</v>
+        <v>0.5846868936284837</v>
       </c>
       <c r="P5">
-        <v>0.01308721096822162</v>
+        <v>0.014964027594099</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -770,338 +755,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>238</v>
+        <v>1394</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.4746355018859021</v>
+        <v>0.6445555722590852</v>
       </c>
       <c r="E6">
-        <v>0.1947957235136527</v>
+        <v>0.7747188647114852</v>
       </c>
       <c r="F6">
-        <v>0.001780957134001776</v>
+        <v>0.001457058184957034</v>
       </c>
       <c r="G6">
-        <v>-2.732128801459509</v>
+        <v>1.522507084548903</v>
       </c>
       <c r="H6">
-        <v>0.4177235728918926</v>
+        <v>0.2446881307403055</v>
       </c>
       <c r="I6">
-        <v>1.401420838715886E-53</v>
+        <v>5.104108366989774E-64</v>
       </c>
       <c r="J6">
-        <v>10.72000026702881</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="K6">
-        <v>33.18999862670898</v>
+        <v>35.27999877929688</v>
       </c>
       <c r="L6">
-        <v>0.7264710018554474</v>
+        <v>0.4436458014261717</v>
       </c>
       <c r="M6">
-        <v>-0.7822448545221121</v>
+        <v>-0.4832124713431565</v>
       </c>
       <c r="N6">
-        <v>0.3060547546352763</v>
+        <v>0.1930530534213087</v>
       </c>
       <c r="O6">
-        <v>-0.4121157421375674</v>
+        <v>-0.2551044198450416</v>
       </c>
       <c r="P6">
-        <v>0.01356997228349346</v>
+        <v>0.01571755374413536</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>47</v>
+        <v>1189</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.7256033085640948</v>
+        <v>0.6390184074185055</v>
       </c>
       <c r="E7">
-        <v>0.8788864483798611</v>
+        <v>0.9436476578999111</v>
       </c>
       <c r="F7">
-        <v>0.00269687488444351</v>
+        <v>0.006882255974500318</v>
       </c>
       <c r="G7">
-        <v>8.118328049202781</v>
+        <v>4.750470155020211</v>
       </c>
       <c r="H7">
-        <v>0.2684502464978507</v>
+        <v>0.119962922024625</v>
       </c>
       <c r="I7">
-        <v>2.517136996515518E-58</v>
+        <v>9.190853562339921E-66</v>
       </c>
       <c r="J7">
-        <v>12.85999965667725</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="K7">
-        <v>18.70999908447266</v>
+        <v>55.22000122070312</v>
       </c>
       <c r="L7">
-        <v>0.6844662020579424</v>
+        <v>0.6455558628753018</v>
       </c>
       <c r="M7">
-        <v>-0.460592452011829</v>
+        <v>-0.8050033149053277</v>
       </c>
       <c r="N7">
-        <v>0.2514452891932416</v>
+        <v>0.3041230606732283</v>
       </c>
       <c r="O7">
-        <v>-0.2810322587267793</v>
+        <v>-0.3348228938060878</v>
       </c>
       <c r="P7">
-        <v>0.01433574264394106</v>
+        <v>0.01617514725401297</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1037</v>
+        <v>1918</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4698414722845958</v>
+        <v>0.677820410297965</v>
       </c>
       <c r="E8">
-        <v>0.6534478243061003</v>
+        <v>0.7588536618460895</v>
       </c>
       <c r="F8">
-        <v>0.006856613885626195</v>
+        <v>0.005529683066716751</v>
       </c>
       <c r="G8">
-        <v>0.4575627809462158</v>
+        <v>-51.03770975197274</v>
       </c>
       <c r="H8">
-        <v>0.256904076830967</v>
+        <v>8.987667965108699</v>
       </c>
       <c r="I8">
-        <v>2.05861364684945E-47</v>
+        <v>1.40246848277052E-55</v>
       </c>
       <c r="J8">
-        <v>3.529999971389771</v>
+        <v>47.97999954223633</v>
       </c>
       <c r="K8">
-        <v>13.72999954223633</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="L8">
-        <v>0.6781969559416861</v>
+        <v>5.848177836680179</v>
       </c>
       <c r="M8">
-        <v>-0.4577475153529176</v>
+        <v>-6.483136504504415</v>
       </c>
       <c r="N8">
-        <v>0.2223553377920728</v>
+        <v>2.303297723250707</v>
       </c>
       <c r="O8">
-        <v>-0.4548556668442689</v>
+        <v>3.65855527007669</v>
       </c>
       <c r="P8">
-        <v>0.01539287145903957</v>
+        <v>0.01665216468106126</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>872</v>
+        <v>1811</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.5208138459252474</v>
+        <v>0.3892789108352638</v>
       </c>
       <c r="E9">
-        <v>0.4698414722845958</v>
+        <v>0.6146372899538891</v>
       </c>
       <c r="F9">
-        <v>0.003464915078398534</v>
+        <v>0.005754434935370974</v>
       </c>
       <c r="G9">
-        <v>1.172723810882135</v>
+        <v>7.768370154900952</v>
       </c>
       <c r="H9">
-        <v>5.628599841735043</v>
+        <v>0.958581339209895</v>
       </c>
       <c r="I9">
-        <v>5.475642297903302E-49</v>
+        <v>3.015249643058437E-39</v>
       </c>
       <c r="J9">
-        <v>23.88999938964844</v>
+        <v>37.77000045776367</v>
       </c>
       <c r="K9">
-        <v>3.529999971389771</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="L9">
-        <v>3.508212802393224</v>
+        <v>2.857473077453058</v>
       </c>
       <c r="M9">
-        <v>-3.495224658824483</v>
+        <v>-1.96173095811745</v>
       </c>
       <c r="N9">
-        <v>1.373998532389232</v>
+        <v>1.103103122467963</v>
       </c>
       <c r="O9">
-        <v>2.848318298477132</v>
+        <v>-1.133091155870954</v>
       </c>
       <c r="P9">
-        <v>0.01568170743834219</v>
+        <v>0.01721571528142342</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1747</v>
+        <v>1700</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.4233481416672912</v>
+        <v>0.1050940084424828</v>
       </c>
       <c r="E10">
-        <v>0.3634234531730715</v>
+        <v>0.6458116321518982</v>
       </c>
       <c r="F10">
-        <v>0.005962656710375111</v>
+        <v>0.002621777913598021</v>
       </c>
       <c r="G10">
-        <v>-0.659555657061236</v>
+        <v>8.124860118398267</v>
       </c>
       <c r="H10">
-        <v>0.4775089928716856</v>
+        <v>0.5490130532658959</v>
       </c>
       <c r="I10">
-        <v>2.55071533358919E-36</v>
+        <v>2.656764741644487E-30</v>
       </c>
       <c r="J10">
-        <v>8.090000152587891</v>
+        <v>21.65999984741211</v>
       </c>
       <c r="K10">
-        <v>17.54999923706055</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="L10">
-        <v>0.8337706521190897</v>
+        <v>2.080766967122948</v>
       </c>
       <c r="M10">
-        <v>-0.7084758609054544</v>
+        <v>-1.564607735635292</v>
       </c>
       <c r="N10">
-        <v>0.3152147123482122</v>
+        <v>0.7287764861285815</v>
       </c>
       <c r="O10">
-        <v>0.3692733490614959</v>
+        <v>1.121954259580962</v>
       </c>
       <c r="P10">
-        <v>0.01577459981447741</v>
+        <v>0.01795740317388379</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1860</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.5472203658494226</v>
+        <v>0.4650661342053787</v>
       </c>
       <c r="E11">
-        <v>0.6150477100498249</v>
+        <v>0.6458116321518982</v>
       </c>
       <c r="F11">
-        <v>0.004006465134677941</v>
+        <v>0.006335040607394765</v>
       </c>
       <c r="G11">
-        <v>9.37347665404393</v>
+        <v>2.457114051162659</v>
       </c>
       <c r="H11">
-        <v>1.040186833596011</v>
+        <v>0.3802408421352067</v>
       </c>
       <c r="I11">
-        <v>3.15779974978999E-45</v>
+        <v>5.823284789911135E-47</v>
       </c>
       <c r="J11">
-        <v>42.18000030517578</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="K11">
-        <v>32.68999862670898</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="L11">
-        <v>2.093974933820533</v>
+        <v>0.6952631863159962</v>
       </c>
       <c r="M11">
-        <v>-1.980660579892188</v>
+        <v>-0.7966967960061666</v>
       </c>
       <c r="N11">
-        <v>1.053376773226126</v>
+        <v>0.339788109862372</v>
       </c>
       <c r="O11">
-        <v>-1.197182510642513</v>
+        <v>-0.4043601053900012</v>
       </c>
       <c r="P11">
-        <v>0.0159292262333971</v>
+        <v>0.01884879598412271</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,58 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
     <t>BBSE3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
+    <t>CASH3</t>
   </si>
   <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>BPAC11</t>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>WEGE3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -531,562 +543,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1142</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.6390184074185055</v>
+        <v>0.7309457558497434</v>
       </c>
       <c r="E2">
-        <v>0.677820410297965</v>
+        <v>0.7568111409687673</v>
       </c>
       <c r="F2">
-        <v>4.723392488089939E-05</v>
+        <v>0.0008325953380451325</v>
       </c>
       <c r="G2">
-        <v>4.200619738306936</v>
+        <v>3.697468361551525</v>
       </c>
       <c r="H2">
-        <v>0.1486754378334992</v>
+        <v>0.8837111819375169</v>
       </c>
       <c r="I2">
-        <v>9.008197504724398E-72</v>
+        <v>1.332987665021177E-76</v>
       </c>
       <c r="J2">
-        <v>11.03999996185303</v>
+        <v>33.95000076293945</v>
       </c>
       <c r="K2">
-        <v>47.97999954223633</v>
+        <v>35.09999847412109</v>
       </c>
       <c r="L2">
-        <v>0.6122776995438635</v>
+        <v>1.608038187867571</v>
       </c>
       <c r="M2">
-        <v>-0.8568192903617984</v>
+        <v>-1.179796176104489</v>
       </c>
       <c r="N2">
-        <v>0.2751346456376543</v>
+        <v>0.5520366919950433</v>
       </c>
       <c r="O2">
-        <v>-0.2940672156469866</v>
+        <v>-0.7657287361826626</v>
       </c>
       <c r="P2">
-        <v>0.009314758999101067</v>
+        <v>0.01208020437194656</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>562</v>
+        <v>962</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.6763817669057065</v>
+        <v>0.3087477414419169</v>
       </c>
       <c r="E3">
-        <v>0.7747188647114852</v>
+        <v>0.1451096514773008</v>
       </c>
       <c r="F3">
-        <v>0.0008143672443837421</v>
+        <v>0.001533336135289863</v>
       </c>
       <c r="G3">
-        <v>3.579481053017787</v>
+        <v>8.540028528823257</v>
       </c>
       <c r="H3">
-        <v>0.8872403299307605</v>
+        <v>-0.3265308759712994</v>
       </c>
       <c r="I3">
-        <v>7.182440842033142E-77</v>
+        <v>1.340300017242235E-30</v>
       </c>
       <c r="J3">
-        <v>33.81999969482422</v>
+        <v>3.460000038146973</v>
       </c>
       <c r="K3">
-        <v>35.27999877929688</v>
+        <v>14.64000034332275</v>
       </c>
       <c r="L3">
-        <v>1.608269665289129</v>
+        <v>1.070829317072007</v>
       </c>
       <c r="M3">
-        <v>-1.177165092372618</v>
+        <v>-0.5760248145794984</v>
       </c>
       <c r="N3">
-        <v>0.5513637030442451</v>
+        <v>0.287358482083872</v>
       </c>
       <c r="O3">
-        <v>-1.061319115093756</v>
+        <v>-0.2996163543509818</v>
       </c>
       <c r="P3">
-        <v>0.01193559634926454</v>
+        <v>0.01304218924582285</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>238</v>
+        <v>1307</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.4650661342053787</v>
+        <v>0.6475053518344099</v>
       </c>
       <c r="E4">
-        <v>0.1703235106378805</v>
+        <v>0.5859532527127153</v>
       </c>
       <c r="F4">
-        <v>0.001869165211844643</v>
+        <v>0.001649713005176494</v>
       </c>
       <c r="G4">
-        <v>-2.92509310386708</v>
+        <v>0.7284118241800366</v>
       </c>
       <c r="H4">
-        <v>0.4236525464573081</v>
+        <v>0.6023573465143183</v>
       </c>
       <c r="I4">
-        <v>2.753809906155142E-53</v>
+        <v>8.771254499674405E-61</v>
       </c>
       <c r="J4">
-        <v>10.64999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="K4">
-        <v>33.13000106811523</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="L4">
-        <v>0.7294117060148988</v>
+        <v>0.4907932600772149</v>
       </c>
       <c r="M4">
-        <v>-0.7914585416483124</v>
+        <v>-0.595331780483491</v>
       </c>
       <c r="N4">
-        <v>0.3058121147654689</v>
+        <v>0.2039220977817296</v>
       </c>
       <c r="O4">
-        <v>-0.4605165942430016</v>
+        <v>0.2503220201058181</v>
       </c>
       <c r="P4">
-        <v>0.01328629973506654</v>
+        <v>0.01314964391558361</v>
       </c>
       <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1999</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>0.8181823932192731</v>
+        <v>0.7352031751859768</v>
       </c>
       <c r="E5">
-        <v>0.9436476578999111</v>
+        <v>0.8623173972327431</v>
       </c>
       <c r="F5">
-        <v>0.005528430421848489</v>
+        <v>0.002267003593134904</v>
       </c>
       <c r="G5">
-        <v>9.544219354486479</v>
+        <v>8.121327318331669</v>
       </c>
       <c r="H5">
-        <v>0.07770904986090732</v>
+        <v>0.2688530847812431</v>
       </c>
       <c r="I5">
-        <v>2.308288028711081E-43</v>
+        <v>1.090483645263458E-58</v>
       </c>
       <c r="J5">
-        <v>14.42000007629395</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="K5">
-        <v>55.22000122070312</v>
+        <v>18.45000076293945</v>
       </c>
       <c r="L5">
-        <v>0.6102387407131253</v>
+        <v>0.6742682124667532</v>
       </c>
       <c r="M5">
-        <v>-1.089792609603457</v>
+        <v>-0.4641846832053442</v>
       </c>
       <c r="N5">
-        <v>0.3101955941230206</v>
+        <v>0.2497839255650814</v>
       </c>
       <c r="O5">
-        <v>0.5846868936284837</v>
+        <v>-0.2516670139581763</v>
       </c>
       <c r="P5">
-        <v>0.014964027594099</v>
+        <v>0.01420444921643838</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1394</v>
+        <v>1669</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0.6445555722590852</v>
+        <v>0.4386788478284283</v>
       </c>
       <c r="E6">
-        <v>0.7747188647114852</v>
+        <v>0.3470241828248358</v>
       </c>
       <c r="F6">
-        <v>0.001457058184957034</v>
+        <v>0.004865041608217654</v>
       </c>
       <c r="G6">
-        <v>1.522507084548903</v>
+        <v>-0.728368514448884</v>
       </c>
       <c r="H6">
-        <v>0.2446881307403055</v>
+        <v>0.4819858302898201</v>
       </c>
       <c r="I6">
-        <v>5.104108366989774E-64</v>
+        <v>5.986020218363669E-36</v>
       </c>
       <c r="J6">
-        <v>9.899999618530273</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="K6">
-        <v>35.27999877929688</v>
+        <v>17.40999984741211</v>
       </c>
       <c r="L6">
-        <v>0.4436458014261717</v>
+        <v>0.8231196453348515</v>
       </c>
       <c r="M6">
-        <v>-0.4832124713431565</v>
+        <v>-0.7180228831755455</v>
       </c>
       <c r="N6">
-        <v>0.1930530534213087</v>
+        <v>0.3192865550062721</v>
       </c>
       <c r="O6">
-        <v>-0.2551044198450416</v>
+        <v>0.4469949393255632</v>
       </c>
       <c r="P6">
-        <v>0.01571755374413536</v>
+        <v>0.01556695206700921</v>
       </c>
       <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1189</v>
+        <v>2892</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>0.6390184074185055</v>
+        <v>0.1122503182514225</v>
       </c>
       <c r="E7">
-        <v>0.9436476578999111</v>
+        <v>0.1001074979583327</v>
       </c>
       <c r="F7">
-        <v>0.006882255974500318</v>
+        <v>0.0009943097022527916</v>
       </c>
       <c r="G7">
-        <v>4.750470155020211</v>
+        <v>8.56863829135767</v>
       </c>
       <c r="H7">
-        <v>0.119962922024625</v>
+        <v>1.531654301613276</v>
       </c>
       <c r="I7">
-        <v>9.190853562339921E-66</v>
+        <v>9.936557152279168E-38</v>
       </c>
       <c r="J7">
-        <v>11.03999996185303</v>
+        <v>42.52000045776367</v>
       </c>
       <c r="K7">
-        <v>55.22000122070312</v>
+        <v>20.8799991607666</v>
       </c>
       <c r="L7">
-        <v>0.6455558628753018</v>
+        <v>5.384973924160441</v>
       </c>
       <c r="M7">
-        <v>-0.8050033149053277</v>
+        <v>-5.736472203976682</v>
       </c>
       <c r="N7">
-        <v>0.3041230606732283</v>
+        <v>1.844632457386346</v>
       </c>
       <c r="O7">
-        <v>-0.3348228938060878</v>
+        <v>1.970421634136247</v>
       </c>
       <c r="P7">
-        <v>0.01617514725401297</v>
+        <v>0.01591797049876856</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1918</v>
+        <v>2864</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>0.677820410297965</v>
+        <v>0.1291570159996157</v>
       </c>
       <c r="E8">
-        <v>0.7588536618460895</v>
+        <v>0.6256211465053856</v>
       </c>
       <c r="F8">
-        <v>0.005529683066716751</v>
+        <v>0.0006424903514558639</v>
       </c>
       <c r="G8">
-        <v>-51.03770975197274</v>
+        <v>1.372142052250766</v>
       </c>
       <c r="H8">
-        <v>8.987667965108699</v>
+        <v>0.0723396850805172</v>
       </c>
       <c r="I8">
-        <v>1.40246848277052E-55</v>
+        <v>1.892528844538208E-29</v>
       </c>
       <c r="J8">
-        <v>47.97999954223633</v>
+        <v>2.880000114440918</v>
       </c>
       <c r="K8">
-        <v>10.60999965667725</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="L8">
-        <v>5.848177836680179</v>
+        <v>0.2499353991581517</v>
       </c>
       <c r="M8">
-        <v>-6.483136504504415</v>
+        <v>-0.273710964735026</v>
       </c>
       <c r="N8">
-        <v>2.303297723250707</v>
+        <v>0.09824852830050076</v>
       </c>
       <c r="O8">
-        <v>3.65855527007669</v>
+        <v>-0.133529430920343</v>
       </c>
       <c r="P8">
-        <v>0.01665216468106126</v>
+        <v>0.02066759071292724</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1811</v>
+        <v>2798</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>0.3892789108352638</v>
+        <v>0.2235484503993381</v>
       </c>
       <c r="E9">
-        <v>0.6146372899538891</v>
+        <v>0.1122503182514225</v>
       </c>
       <c r="F9">
-        <v>0.005754434935370974</v>
+        <v>0.004673226798351452</v>
       </c>
       <c r="G9">
-        <v>7.768370154900952</v>
+        <v>21.5628529970453</v>
       </c>
       <c r="H9">
-        <v>0.958581339209895</v>
+        <v>0.5404274166077737</v>
       </c>
       <c r="I9">
-        <v>3.015249643058437E-39</v>
+        <v>9.887546638893697E-21</v>
       </c>
       <c r="J9">
-        <v>37.77000045776367</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="K9">
-        <v>32.47999954223633</v>
+        <v>42.52000045776367</v>
       </c>
       <c r="L9">
-        <v>2.857473077453058</v>
+        <v>6.626271481748716</v>
       </c>
       <c r="M9">
-        <v>-1.96173095811745</v>
+        <v>-4.564210137874312</v>
       </c>
       <c r="N9">
-        <v>1.103103122467963</v>
+        <v>1.929263515603034</v>
       </c>
       <c r="O9">
-        <v>-1.133091155870954</v>
+        <v>-2.621828829650568</v>
       </c>
       <c r="P9">
-        <v>0.01721571528142342</v>
+        <v>0.02191166853865928</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0.1050940084424828</v>
+        <v>0.5132097126394757</v>
       </c>
       <c r="E10">
-        <v>0.6458116321518982</v>
+        <v>0.6475053518344099</v>
       </c>
       <c r="F10">
-        <v>0.002621777913598021</v>
+        <v>0.003085490295808535</v>
       </c>
       <c r="G10">
-        <v>8.124860118398267</v>
+        <v>-22.0878782102234</v>
       </c>
       <c r="H10">
-        <v>0.5490130532658959</v>
+        <v>4.460313554708336</v>
       </c>
       <c r="I10">
-        <v>2.656764741644487E-30</v>
+        <v>2.267723450320645E-38</v>
       </c>
       <c r="J10">
-        <v>21.65999984741211</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="K10">
-        <v>22.61000061035156</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="L10">
-        <v>2.080766967122948</v>
+        <v>4.599300266640395</v>
       </c>
       <c r="M10">
-        <v>-1.564607735635292</v>
+        <v>-4.214015708623439</v>
       </c>
       <c r="N10">
-        <v>0.7287764861285815</v>
+        <v>1.573743478857621</v>
       </c>
       <c r="O10">
-        <v>1.121954259580962</v>
+        <v>1.849346514396103</v>
       </c>
       <c r="P10">
-        <v>0.01795740317388379</v>
+        <v>0.02311905339900575</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>303</v>
+        <v>2882</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.4650661342053787</v>
+        <v>0.2880256324142253</v>
       </c>
       <c r="E11">
-        <v>0.6458116321518982</v>
+        <v>0.9373103908662439</v>
       </c>
       <c r="F11">
-        <v>0.006335040607394765</v>
+        <v>0.005208142436278819</v>
       </c>
       <c r="G11">
-        <v>2.457114051162659</v>
+        <v>14.52256366964891</v>
       </c>
       <c r="H11">
-        <v>0.3802408421352067</v>
+        <v>0.31278415229321</v>
       </c>
       <c r="I11">
-        <v>5.823284789911135E-47</v>
+        <v>1.649380124679786E-28</v>
       </c>
       <c r="J11">
-        <v>10.64999961853027</v>
+        <v>29.60000038146973</v>
       </c>
       <c r="K11">
-        <v>22.61000061035156</v>
+        <v>55.04000091552734</v>
       </c>
       <c r="L11">
-        <v>0.6952631863159962</v>
+        <v>4.100025249282517</v>
       </c>
       <c r="M11">
-        <v>-0.7966967960061666</v>
+        <v>-3.446098231142905</v>
       </c>
       <c r="N11">
-        <v>0.339788109862372</v>
+        <v>1.80490031875893</v>
       </c>
       <c r="O11">
-        <v>-0.4043601053900012</v>
+        <v>-2.13820331675991</v>
       </c>
       <c r="P11">
-        <v>0.01884879598412271</v>
+        <v>0.05547572883502538</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,58 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>BBSE3</t>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>ELET3</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
     <t>WEGE3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
   </si>
 </sst>
 </file>
@@ -543,167 +534,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>484</v>
+        <v>1142</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.7309457558497434</v>
+        <v>0.6485272265564646</v>
       </c>
       <c r="E2">
-        <v>0.7568111409687673</v>
+        <v>0.7227294714815949</v>
       </c>
       <c r="F2">
-        <v>0.0008325953380451325</v>
+        <v>0.0001408624439547408</v>
       </c>
       <c r="G2">
-        <v>3.697468361551525</v>
+        <v>4.2794776210919</v>
       </c>
       <c r="H2">
-        <v>0.8837111819375169</v>
+        <v>0.1465684368461778</v>
       </c>
       <c r="I2">
-        <v>1.332987665021177E-76</v>
+        <v>6.268900658461623E-70</v>
       </c>
       <c r="J2">
-        <v>33.95000076293945</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="K2">
-        <v>35.09999847412109</v>
+        <v>49.63000106811523</v>
       </c>
       <c r="L2">
-        <v>1.608038187867571</v>
+        <v>0.6023608916360796</v>
       </c>
       <c r="M2">
-        <v>-1.179796176104489</v>
+        <v>-0.8514612947858176</v>
       </c>
       <c r="N2">
-        <v>0.5520366919950433</v>
+        <v>0.2815962813772182</v>
       </c>
       <c r="O2">
-        <v>-0.7657287361826626</v>
+        <v>-0.4936688787029828</v>
       </c>
       <c r="P2">
-        <v>0.01208020437194656</v>
+        <v>0.009961432094808617</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>962</v>
+        <v>2398</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.3087477414419169</v>
+        <v>0.1017272167606321</v>
       </c>
       <c r="E3">
-        <v>0.1451096514773008</v>
+        <v>0.1154054346360534</v>
       </c>
       <c r="F3">
-        <v>0.001533336135289863</v>
+        <v>0.003855907113241424</v>
       </c>
       <c r="G3">
-        <v>8.540028528823257</v>
+        <v>5.578803293516883</v>
       </c>
       <c r="H3">
-        <v>-0.3265308759712994</v>
+        <v>5.222049989516698</v>
       </c>
       <c r="I3">
-        <v>1.340300017242235E-30</v>
+        <v>2.008934591328499E-43</v>
       </c>
       <c r="J3">
-        <v>3.460000038146973</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="K3">
-        <v>14.64000034332275</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="L3">
-        <v>1.070829317072007</v>
+        <v>1.053394749503134</v>
       </c>
       <c r="M3">
-        <v>-0.5760248145794984</v>
+        <v>-1.174032409004951</v>
       </c>
       <c r="N3">
-        <v>0.287358482083872</v>
+        <v>0.465613492042092</v>
       </c>
       <c r="O3">
-        <v>-0.2996163543509818</v>
+        <v>0.6083544291982399</v>
       </c>
       <c r="P3">
-        <v>0.01304218924582285</v>
+        <v>0.009995459528241945</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1307</v>
+        <v>1853</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.6475053518344099</v>
+        <v>0.3406877410910579</v>
       </c>
       <c r="E4">
-        <v>0.5859532527127153</v>
+        <v>0.6185982461737525</v>
       </c>
       <c r="F4">
-        <v>0.001649713005176494</v>
+        <v>0.0001524253025812575</v>
       </c>
       <c r="G4">
-        <v>0.7284118241800366</v>
+        <v>12.57657756168353</v>
       </c>
       <c r="H4">
-        <v>0.6023573465143183</v>
+        <v>1.127276594470219</v>
       </c>
       <c r="I4">
-        <v>8.771254499674405E-61</v>
+        <v>1.117515671222783E-58</v>
       </c>
       <c r="J4">
-        <v>9.989999771118164</v>
+        <v>38.5</v>
       </c>
       <c r="K4">
-        <v>14.96000003814697</v>
+        <v>22.22999954223633</v>
       </c>
       <c r="L4">
-        <v>0.4907932600772149</v>
+        <v>1.945023007503316</v>
       </c>
       <c r="M4">
-        <v>-0.595331780483491</v>
+        <v>-1.65645340451244</v>
       </c>
       <c r="N4">
-        <v>0.2039220977817296</v>
+        <v>0.7921589683875001</v>
       </c>
       <c r="O4">
-        <v>0.2503220201058181</v>
+        <v>0.8640642592697674</v>
       </c>
       <c r="P4">
-        <v>0.01314964391558361</v>
+        <v>0.01055857714720796</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -711,394 +702,394 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>46</v>
+        <v>1040</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.7352031751859768</v>
+        <v>0.3013179876189214</v>
       </c>
       <c r="E5">
-        <v>0.8623173972327431</v>
+        <v>0.135556566641592</v>
       </c>
       <c r="F5">
-        <v>0.002267003593134904</v>
+        <v>0.002168337096511384</v>
       </c>
       <c r="G5">
-        <v>8.121327318331669</v>
+        <v>8.499144461429424</v>
       </c>
       <c r="H5">
-        <v>0.2688530847812431</v>
+        <v>-0.3240492556238402</v>
       </c>
       <c r="I5">
-        <v>1.090483645263458E-58</v>
+        <v>1.277814926655206E-29</v>
       </c>
       <c r="J5">
-        <v>12.82999992370605</v>
+        <v>3.519999980926514</v>
       </c>
       <c r="K5">
-        <v>18.45000076293945</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="L5">
-        <v>0.6742682124667532</v>
+        <v>1.071064445257116</v>
       </c>
       <c r="M5">
-        <v>-0.4641846832053442</v>
+        <v>-0.5750700189549489</v>
       </c>
       <c r="N5">
-        <v>0.2497839255650814</v>
+        <v>0.2894343163563548</v>
       </c>
       <c r="O5">
-        <v>-0.2516670139581763</v>
+        <v>-0.4068095949040078</v>
       </c>
       <c r="P5">
-        <v>0.01420444921643838</v>
+        <v>0.01342026476455181</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1669</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0.4386788478284283</v>
+        <v>0.3334216481918802</v>
       </c>
       <c r="E6">
-        <v>0.3470241828248358</v>
+        <v>0.3406877410910579</v>
       </c>
       <c r="F6">
-        <v>0.004865041608217654</v>
+        <v>0.005379866221075167</v>
       </c>
       <c r="G6">
-        <v>-0.728368514448884</v>
+        <v>12.47675110720849</v>
       </c>
       <c r="H6">
-        <v>0.4819858302898201</v>
+        <v>0.3713821340561195</v>
       </c>
       <c r="I6">
-        <v>5.986020218363669E-36</v>
+        <v>4.778548091528728E-41</v>
       </c>
       <c r="J6">
-        <v>8.109999656677246</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="K6">
-        <v>17.40999984741211</v>
+        <v>38.5</v>
       </c>
       <c r="L6">
-        <v>0.8231196453348515</v>
+        <v>0.9624261000156054</v>
       </c>
       <c r="M6">
-        <v>-0.7180228831755455</v>
+        <v>-1.619738575351995</v>
       </c>
       <c r="N6">
-        <v>0.3192865550062721</v>
+        <v>0.4618944885236748</v>
       </c>
       <c r="O6">
-        <v>0.4469949393255632</v>
+        <v>-0.4749640313085433</v>
       </c>
       <c r="P6">
-        <v>0.01556695206700921</v>
+        <v>0.0158046139621579</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2892</v>
+        <v>1394</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1122503182514225</v>
+        <v>0.6408396738091553</v>
       </c>
       <c r="E7">
-        <v>0.1001074979583327</v>
+        <v>0.7841800848766765</v>
       </c>
       <c r="F7">
-        <v>0.0009943097022527916</v>
+        <v>0.006399537265096389</v>
       </c>
       <c r="G7">
-        <v>8.56863829135767</v>
+        <v>1.502713535553276</v>
       </c>
       <c r="H7">
-        <v>1.531654301613276</v>
+        <v>0.2448859311341288</v>
       </c>
       <c r="I7">
-        <v>9.936557152279168E-38</v>
+        <v>2.489714394358687E-64</v>
       </c>
       <c r="J7">
-        <v>42.52000045776367</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="K7">
-        <v>20.8799991607666</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="L7">
-        <v>5.384973924160441</v>
+        <v>0.4480560593413543</v>
       </c>
       <c r="M7">
-        <v>-5.736472203976682</v>
+        <v>-0.4796672616060622</v>
       </c>
       <c r="N7">
-        <v>1.844632457386346</v>
+        <v>0.1921729836514265</v>
       </c>
       <c r="O7">
-        <v>1.970421634136247</v>
+        <v>-0.2229024935398627</v>
       </c>
       <c r="P7">
-        <v>0.01591797049876856</v>
+        <v>0.01582306580616389</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2864</v>
+        <v>1091</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0.1291570159996157</v>
+        <v>0.1567942880364608</v>
       </c>
       <c r="E8">
-        <v>0.6256211465053856</v>
+        <v>0.1017272167606321</v>
       </c>
       <c r="F8">
-        <v>0.0006424903514558639</v>
+        <v>0.004421824522888664</v>
       </c>
       <c r="G8">
-        <v>1.372142052250766</v>
+        <v>1.090540502339513</v>
       </c>
       <c r="H8">
-        <v>0.0723396850805172</v>
+        <v>0.5368332748863093</v>
       </c>
       <c r="I8">
-        <v>1.892528844538208E-29</v>
+        <v>1.453924539718102E-41</v>
       </c>
       <c r="J8">
-        <v>2.880000114440918</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K8">
-        <v>22.69000053405762</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="L8">
-        <v>0.2499353991581517</v>
+        <v>0.5969133203949344</v>
       </c>
       <c r="M8">
-        <v>-0.273710964735026</v>
+        <v>-0.8144626531980723</v>
       </c>
       <c r="N8">
-        <v>0.09824852830050076</v>
+        <v>0.3008320884225481</v>
       </c>
       <c r="O8">
-        <v>-0.133529430920343</v>
+        <v>-0.3016170588958094</v>
       </c>
       <c r="P8">
-        <v>0.02066759071292724</v>
+        <v>0.01588194951407036</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2798</v>
+        <v>1189</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.2235484503993381</v>
+        <v>0.6485272265564646</v>
       </c>
       <c r="E9">
-        <v>0.1122503182514225</v>
+        <v>0.9394443825500433</v>
       </c>
       <c r="F9">
-        <v>0.004673226798351452</v>
+        <v>0.008312741940819303</v>
       </c>
       <c r="G9">
-        <v>21.5628529970453</v>
+        <v>4.821413710334994</v>
       </c>
       <c r="H9">
-        <v>0.5404274166077737</v>
+        <v>0.1184042088969183</v>
       </c>
       <c r="I9">
-        <v>9.887546638893697E-21</v>
+        <v>3.482292686292196E-65</v>
       </c>
       <c r="J9">
-        <v>41.91999816894531</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="K9">
-        <v>42.52000045776367</v>
+        <v>55.95000076293945</v>
       </c>
       <c r="L9">
-        <v>6.626271481748716</v>
+        <v>0.6562645883443423</v>
       </c>
       <c r="M9">
-        <v>-4.564210137874312</v>
+        <v>-0.7939971279584768</v>
       </c>
       <c r="N9">
-        <v>1.929263515603034</v>
+        <v>0.3047738975659054</v>
       </c>
       <c r="O9">
-        <v>-2.621828829650568</v>
+        <v>-0.3861288688361144</v>
       </c>
       <c r="P9">
-        <v>0.02191166853865928</v>
+        <v>0.01644158855537414</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>800</v>
+        <v>1918</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.5132097126394757</v>
+        <v>0.7227294714815949</v>
       </c>
       <c r="E10">
-        <v>0.6475053518344099</v>
+        <v>0.7692786855862233</v>
       </c>
       <c r="F10">
-        <v>0.003085490295808535</v>
+        <v>0.006131016600797723</v>
       </c>
       <c r="G10">
-        <v>-22.0878782102234</v>
+        <v>-51.08585944508764</v>
       </c>
       <c r="H10">
-        <v>4.460313554708336</v>
+        <v>9.00669964440058</v>
       </c>
       <c r="I10">
-        <v>2.267723450320645E-38</v>
+        <v>1.639502683840496E-55</v>
       </c>
       <c r="J10">
-        <v>24.31999969482422</v>
+        <v>49.63000106811523</v>
       </c>
       <c r="K10">
-        <v>9.989999771118164</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="L10">
-        <v>4.599300266640395</v>
+        <v>5.717121745808555</v>
       </c>
       <c r="M10">
-        <v>-4.214015708623439</v>
+        <v>-6.6257147567961</v>
       </c>
       <c r="N10">
-        <v>1.573743478857621</v>
+        <v>2.313641553021972</v>
       </c>
       <c r="O10">
-        <v>1.849346514396103</v>
+        <v>4.974642262489724</v>
       </c>
       <c r="P10">
-        <v>0.02311905339900575</v>
+        <v>0.01661754537803912</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2882</v>
+        <v>2402</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.2880256324142253</v>
+        <v>0.1017272167606321</v>
       </c>
       <c r="E11">
-        <v>0.9373103908662439</v>
+        <v>0.752987238098437</v>
       </c>
       <c r="F11">
-        <v>0.005208142436278819</v>
+        <v>0.002915621218746192</v>
       </c>
       <c r="G11">
-        <v>14.52256366964891</v>
+        <v>13.51799643800159</v>
       </c>
       <c r="H11">
-        <v>0.31278415229321</v>
+        <v>0.09220218316481568</v>
       </c>
       <c r="I11">
-        <v>1.649380124679786E-28</v>
+        <v>2.625999777649207E-30</v>
       </c>
       <c r="J11">
-        <v>29.60000038146973</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="K11">
-        <v>55.04000091552734</v>
+        <v>91.06999969482422</v>
       </c>
       <c r="L11">
-        <v>4.100025249282517</v>
+        <v>1.791351610772534</v>
       </c>
       <c r="M11">
-        <v>-3.446098231142905</v>
+        <v>-1.060463196730439</v>
       </c>
       <c r="N11">
-        <v>1.80490031875893</v>
+        <v>0.5791112431936705</v>
       </c>
       <c r="O11">
-        <v>-2.13820331675991</v>
+        <v>-0.8448495358592645</v>
       </c>
       <c r="P11">
-        <v>0.05547572883502538</v>
+        <v>0.01724852034480092</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,46 +73,49 @@
     <t>CMIG4</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>BBSE3</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>BBAS3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
   </si>
   <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>WEGE3</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
+    <t>TIMS3</t>
   </si>
 </sst>
 </file>
@@ -540,169 +543,169 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.6485272265564646</v>
+        <v>0.6450655823261946</v>
       </c>
       <c r="E2">
-        <v>0.7227294714815949</v>
+        <v>0.6958462023695765</v>
       </c>
       <c r="F2">
-        <v>0.0001408624439547408</v>
+        <v>0.0001362808494326463</v>
       </c>
       <c r="G2">
-        <v>4.2794776210919</v>
+        <v>4.30782378085616</v>
       </c>
       <c r="H2">
-        <v>0.1465684368461778</v>
+        <v>0.1458018421486175</v>
       </c>
       <c r="I2">
-        <v>6.268900658461623E-70</v>
+        <v>3.977946084345641E-70</v>
       </c>
       <c r="J2">
         <v>11.0600004196167</v>
       </c>
       <c r="K2">
-        <v>49.63000106811523</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="L2">
-        <v>0.6023608916360796</v>
+        <v>0.5990977113117744</v>
       </c>
       <c r="M2">
-        <v>-0.8514612947858176</v>
+        <v>-0.8491666635528112</v>
       </c>
       <c r="N2">
-        <v>0.2815962813772182</v>
+        <v>0.2828020010212986</v>
       </c>
       <c r="O2">
-        <v>-0.4936688787029828</v>
+        <v>-0.4139841253199679</v>
       </c>
       <c r="P2">
-        <v>0.009961432094808617</v>
+        <v>0.01011407140363318</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2398</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.1017272167606321</v>
+        <v>0.7593118271303954</v>
       </c>
       <c r="E3">
-        <v>0.1154054346360534</v>
+        <v>0.7958678559028414</v>
       </c>
       <c r="F3">
-        <v>0.003855907113241424</v>
+        <v>0.0006193279062155372</v>
       </c>
       <c r="G3">
-        <v>5.578803293516883</v>
+        <v>3.820687094471603</v>
       </c>
       <c r="H3">
-        <v>5.222049989516698</v>
+        <v>0.8798958162053353</v>
       </c>
       <c r="I3">
-        <v>2.008934591328499E-43</v>
+        <v>9.138082446818158E-77</v>
       </c>
       <c r="J3">
-        <v>21.06999969482422</v>
+        <v>34.31999969482422</v>
       </c>
       <c r="K3">
-        <v>2.849999904632568</v>
+        <v>35.38000106811523</v>
       </c>
       <c r="L3">
-        <v>1.053394749503134</v>
+        <v>1.612125411980209</v>
       </c>
       <c r="M3">
-        <v>-1.174032409004951</v>
+        <v>-1.178303168982652</v>
       </c>
       <c r="N3">
-        <v>0.465613492042092</v>
+        <v>0.5530076195086103</v>
       </c>
       <c r="O3">
-        <v>0.6083544291982399</v>
+        <v>-0.6314023168222711</v>
       </c>
       <c r="P3">
-        <v>0.009995459528241945</v>
+        <v>0.01200876915702977</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1853</v>
+        <v>1040</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.3406877410910579</v>
+        <v>0.2994199091620123</v>
       </c>
       <c r="E4">
-        <v>0.6185982461737525</v>
+        <v>0.1374980084495437</v>
       </c>
       <c r="F4">
-        <v>0.0001524253025812575</v>
+        <v>0.002759725430285685</v>
       </c>
       <c r="G4">
-        <v>12.57657756168353</v>
+        <v>8.449177419068432</v>
       </c>
       <c r="H4">
-        <v>1.127276594470219</v>
+        <v>-0.3209790771587526</v>
       </c>
       <c r="I4">
-        <v>1.117515671222783E-58</v>
+        <v>2.607509773217812E-29</v>
       </c>
       <c r="J4">
-        <v>38.5</v>
+        <v>3.490000009536743</v>
       </c>
       <c r="K4">
-        <v>22.22999954223633</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="L4">
-        <v>1.945023007503316</v>
+        <v>1.070741966936569</v>
       </c>
       <c r="M4">
-        <v>-1.65645340451244</v>
+        <v>-0.5745021485656894</v>
       </c>
       <c r="N4">
-        <v>0.7921589683875001</v>
+        <v>0.2908809111673001</v>
       </c>
       <c r="O4">
-        <v>0.8640642592697674</v>
+        <v>-0.4462114499914467</v>
       </c>
       <c r="P4">
-        <v>0.01055857714720796</v>
+        <v>0.01383580333524674</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1040</v>
+        <v>1125</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -711,43 +714,43 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.3013179876189214</v>
+        <v>0.1908844039120513</v>
       </c>
       <c r="E5">
-        <v>0.135556566641592</v>
+        <v>0.6179938583012191</v>
       </c>
       <c r="F5">
-        <v>0.002168337096511384</v>
+        <v>0.001614457908351058</v>
       </c>
       <c r="G5">
-        <v>8.499144461429424</v>
+        <v>5.67057329879595</v>
       </c>
       <c r="H5">
-        <v>-0.3240492556238402</v>
+        <v>0.3005592853787299</v>
       </c>
       <c r="I5">
-        <v>1.277814926655206E-29</v>
+        <v>3.056518662457433E-45</v>
       </c>
       <c r="J5">
-        <v>3.519999980926514</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="K5">
-        <v>14.10999965667725</v>
+        <v>22.19000053405762</v>
       </c>
       <c r="L5">
-        <v>1.071064445257116</v>
+        <v>0.8371037706416367</v>
       </c>
       <c r="M5">
-        <v>-0.5750700189549489</v>
+        <v>-0.6741077765060783</v>
       </c>
       <c r="N5">
-        <v>0.2894343163563548</v>
+        <v>0.2795570985962739</v>
       </c>
       <c r="O5">
-        <v>-0.4068095949040078</v>
+        <v>-0.2899838111310782</v>
       </c>
       <c r="P5">
-        <v>0.01342026476455181</v>
+        <v>0.01495613294248176</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -758,338 +761,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>330</v>
+        <v>2781</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.3334216481918802</v>
+        <v>0.1374980084495437</v>
       </c>
       <c r="E6">
-        <v>0.3406877410910579</v>
+        <v>0.1017372511326197</v>
       </c>
       <c r="F6">
-        <v>0.005379866221075167</v>
+        <v>0.005078910027366325</v>
       </c>
       <c r="G6">
-        <v>12.47675110720849</v>
+        <v>9.461732839545432</v>
       </c>
       <c r="H6">
-        <v>0.3713821340561195</v>
+        <v>0.4953730707490778</v>
       </c>
       <c r="I6">
-        <v>4.778548091528728E-41</v>
+        <v>2.076321024917121E-42</v>
       </c>
       <c r="J6">
-        <v>26.29999923706055</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="K6">
-        <v>38.5</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="L6">
-        <v>0.9624261000156054</v>
+        <v>1.951064064056069</v>
       </c>
       <c r="M6">
-        <v>-1.619738575351995</v>
+        <v>-1.141990814805734</v>
       </c>
       <c r="N6">
-        <v>0.4618944885236748</v>
+        <v>0.5646203480992789</v>
       </c>
       <c r="O6">
-        <v>-0.4749640313085433</v>
+        <v>-0.746807834414299</v>
       </c>
       <c r="P6">
-        <v>0.0158046139621579</v>
+        <v>0.01518898776529324</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1394</v>
+        <v>2430</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6408396738091553</v>
+        <v>0.7198989686623287</v>
       </c>
       <c r="E7">
-        <v>0.7841800848766765</v>
+        <v>0.346380309322452</v>
       </c>
       <c r="F7">
-        <v>0.006399537265096389</v>
+        <v>0.005599876070836442</v>
       </c>
       <c r="G7">
-        <v>1.502713535553276</v>
+        <v>-2.498259326889552</v>
       </c>
       <c r="H7">
-        <v>0.2448859311341288</v>
+        <v>9.576981184115931</v>
       </c>
       <c r="I7">
-        <v>2.489714394358687E-64</v>
+        <v>6.880451580684792E-37</v>
       </c>
       <c r="J7">
-        <v>9.890000343322754</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="K7">
-        <v>35.15999984741211</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="L7">
-        <v>0.4480560593413543</v>
+        <v>11.94767546349033</v>
       </c>
       <c r="M7">
-        <v>-0.4796672616060622</v>
+        <v>-7.842681240610013</v>
       </c>
       <c r="N7">
-        <v>0.1921729836514265</v>
+        <v>3.875841872800721</v>
       </c>
       <c r="O7">
-        <v>-0.2229024935398627</v>
+        <v>5.292216109859233</v>
       </c>
       <c r="P7">
-        <v>0.01582306580616389</v>
+        <v>0.01603972324243244</v>
       </c>
       <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1091</v>
+        <v>1918</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.1567942880364608</v>
+        <v>0.6958462023695765</v>
       </c>
       <c r="E8">
-        <v>0.1017272167606321</v>
+        <v>0.776408131360532</v>
       </c>
       <c r="F8">
-        <v>0.004421824522888664</v>
+        <v>0.004484225993825214</v>
       </c>
       <c r="G8">
-        <v>1.090540502339513</v>
+        <v>-51.47645908272351</v>
       </c>
       <c r="H8">
-        <v>0.5368332748863093</v>
+        <v>9.047832024791878</v>
       </c>
       <c r="I8">
-        <v>1.453924539718102E-41</v>
+        <v>1.095232680054047E-55</v>
       </c>
       <c r="J8">
-        <v>12.10000038146973</v>
+        <v>49.15000152587891</v>
       </c>
       <c r="K8">
-        <v>21.06999969482422</v>
+        <v>10.67000007629395</v>
       </c>
       <c r="L8">
-        <v>0.5969133203949344</v>
+        <v>5.720411343053044</v>
       </c>
       <c r="M8">
-        <v>-0.8144626531980723</v>
+        <v>-6.64732752992002</v>
       </c>
       <c r="N8">
-        <v>0.3008320884225481</v>
+        <v>2.331262957146368</v>
       </c>
       <c r="O8">
-        <v>-0.3016170588958094</v>
+        <v>4.086092213778272</v>
       </c>
       <c r="P8">
-        <v>0.01588194951407036</v>
+        <v>0.01650481246337121</v>
       </c>
       <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1189</v>
+        <v>1394</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.6485272265564646</v>
+        <v>0.6342577730994947</v>
       </c>
       <c r="E9">
-        <v>0.9394443825500433</v>
+        <v>0.7958678559028414</v>
       </c>
       <c r="F9">
-        <v>0.008312741940819303</v>
+        <v>0.009605963152341737</v>
       </c>
       <c r="G9">
-        <v>4.821413710334994</v>
+        <v>1.54401413434202</v>
       </c>
       <c r="H9">
-        <v>0.1184042088969183</v>
+        <v>0.2438178984388973</v>
       </c>
       <c r="I9">
-        <v>3.482292686292196E-65</v>
+        <v>4.845606742900825E-64</v>
       </c>
       <c r="J9">
-        <v>11.0600004196167</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="K9">
-        <v>55.95000076293945</v>
+        <v>35.38000106811523</v>
       </c>
       <c r="L9">
-        <v>0.6562645883443423</v>
+        <v>0.4505714502286899</v>
       </c>
       <c r="M9">
-        <v>-0.7939971279584768</v>
+        <v>-0.4727454188559594</v>
       </c>
       <c r="N9">
-        <v>0.3047738975659054</v>
+        <v>0.1938535242943754</v>
       </c>
       <c r="O9">
-        <v>-0.3861288688361144</v>
+        <v>-0.3202912600660905</v>
       </c>
       <c r="P9">
-        <v>0.01644158855537414</v>
+        <v>0.01651346773578814</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1918</v>
+        <v>1189</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.7227294714815949</v>
+        <v>0.6450655823261946</v>
       </c>
       <c r="E10">
-        <v>0.7692786855862233</v>
+        <v>0.9403162055446918</v>
       </c>
       <c r="F10">
-        <v>0.006131016600797723</v>
+        <v>0.009099764647460091</v>
       </c>
       <c r="G10">
-        <v>-51.08585944508764</v>
+        <v>4.84685032563238</v>
       </c>
       <c r="H10">
-        <v>9.00669964440058</v>
+        <v>0.1177877138934664</v>
       </c>
       <c r="I10">
-        <v>1.639502683840496E-55</v>
+        <v>1.97532057272811E-65</v>
       </c>
       <c r="J10">
-        <v>49.63000106811523</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="K10">
-        <v>10.63000011444092</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="L10">
-        <v>5.717121745808555</v>
+        <v>0.6631227053032624</v>
       </c>
       <c r="M10">
-        <v>-6.6257147567961</v>
+        <v>-0.7870213604123304</v>
       </c>
       <c r="N10">
-        <v>2.313641553021972</v>
+        <v>0.3056582488708809</v>
       </c>
       <c r="O10">
-        <v>4.974642262489724</v>
+        <v>-0.406519516693387</v>
       </c>
       <c r="P10">
-        <v>0.01661754537803912</v>
+        <v>0.01674068808915286</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2402</v>
+        <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1017272167606321</v>
+        <v>0.4153399823621899</v>
       </c>
       <c r="E11">
-        <v>0.752987238098437</v>
+        <v>0.3075368663862058</v>
       </c>
       <c r="F11">
-        <v>0.002915621218746192</v>
+        <v>0.009485275273397886</v>
       </c>
       <c r="G11">
-        <v>13.51799643800159</v>
+        <v>-0.774961503497293</v>
       </c>
       <c r="H11">
-        <v>0.09220218316481568</v>
+        <v>0.4852800374206969</v>
       </c>
       <c r="I11">
-        <v>2.625999777649207E-30</v>
+        <v>3.644540548251655E-36</v>
       </c>
       <c r="J11">
-        <v>21.06999969482422</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="K11">
-        <v>91.06999969482422</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="L11">
-        <v>1.791351610772534</v>
+        <v>0.8112404578101966</v>
       </c>
       <c r="M11">
-        <v>-1.060463196730439</v>
+        <v>-0.729089721865698</v>
       </c>
       <c r="N11">
-        <v>0.5791112431936705</v>
+        <v>0.3201207354055245</v>
       </c>
       <c r="O11">
-        <v>-0.8448495358592645</v>
+        <v>0.3835864710739081</v>
       </c>
       <c r="P11">
-        <v>0.01724852034480092</v>
+        <v>0.0168349806347697</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,54 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +535,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>2743</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0.549219665250862</v>
+      </c>
+      <c r="E2">
+        <v>0.714855470484562</v>
+      </c>
+      <c r="F2">
+        <v>0.002087598330636569</v>
+      </c>
+      <c r="G2">
+        <v>9.13873670409664</v>
+      </c>
+      <c r="H2">
+        <v>0.1803832846717882</v>
+      </c>
+      <c r="I2">
+        <v>6.639668912019698E-69</v>
+      </c>
+      <c r="J2">
+        <v>25.10000038146973</v>
+      </c>
+      <c r="K2">
+        <v>91.30000305175781</v>
+      </c>
+      <c r="L2">
+        <v>1.329632073837335</v>
+      </c>
+      <c r="M2">
+        <v>-1.125215887170619</v>
+      </c>
+      <c r="N2">
+        <v>0.4955907946398641</v>
+      </c>
+      <c r="O2">
+        <v>-0.5077307636472739</v>
+      </c>
+      <c r="P2">
+        <v>0.009572534316883643</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>1142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0.6270757555803019</v>
+      </c>
+      <c r="E3">
+        <v>0.6907566479049867</v>
+      </c>
+      <c r="F3">
+        <v>0.0001723832645643226</v>
+      </c>
+      <c r="G3">
+        <v>4.321102207785163</v>
+      </c>
+      <c r="H3">
+        <v>0.1452894767557206</v>
+      </c>
+      <c r="I3">
+        <v>1.150791493815366E-68</v>
+      </c>
+      <c r="J3">
+        <v>11.14999961853027</v>
+      </c>
+      <c r="K3">
+        <v>49.56000137329102</v>
+      </c>
+      <c r="L3">
+        <v>0.6057533220580495</v>
+      </c>
+      <c r="M3">
+        <v>-0.8419658451022798</v>
+      </c>
+      <c r="N3">
+        <v>0.2858068076878024</v>
+      </c>
+      <c r="O3">
+        <v>-0.3716492567931367</v>
+      </c>
+      <c r="P3">
+        <v>0.01032895992092571</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0.2062348716853533</v>
+      </c>
+      <c r="E4">
+        <v>0.4119174703871215</v>
+      </c>
+      <c r="F4">
+        <v>0.0001918696679587047</v>
+      </c>
+      <c r="G4">
+        <v>5.53850973898343</v>
+      </c>
+      <c r="H4">
+        <v>5.241725109052137</v>
+      </c>
+      <c r="I4">
+        <v>1.45045273840825E-41</v>
+      </c>
+      <c r="J4">
+        <v>21.05999946594238</v>
+      </c>
+      <c r="K4">
+        <v>2.829999923706055</v>
+      </c>
+      <c r="L4">
+        <v>1.040157563158431</v>
+      </c>
+      <c r="M4">
+        <v>-1.193740345381084</v>
+      </c>
+      <c r="N4">
+        <v>0.470092287111653</v>
+      </c>
+      <c r="O4">
+        <v>0.6874080682532941</v>
+      </c>
+      <c r="P4">
+        <v>0.0104166016630997</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>562</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0.7702930601823059</v>
+      </c>
+      <c r="E5">
+        <v>0.7709398531293643</v>
+      </c>
+      <c r="F5">
+        <v>0.000983102097405316</v>
+      </c>
+      <c r="G5">
+        <v>4.057710733826916</v>
+      </c>
+      <c r="H5">
+        <v>0.8728826765780582</v>
+      </c>
+      <c r="I5">
+        <v>8.108780457737073E-76</v>
+      </c>
+      <c r="J5">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="K5">
+        <v>35.29999923706055</v>
+      </c>
+      <c r="L5">
+        <v>1.609106718605283</v>
+      </c>
+      <c r="M5">
+        <v>-1.186087041613135</v>
+      </c>
+      <c r="N5">
+        <v>0.556241294836741</v>
+      </c>
+      <c r="O5">
+        <v>-0.5704693140151917</v>
+      </c>
+      <c r="P5">
+        <v>0.01239290921880102</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>0.4822358493617823</v>
+      </c>
+      <c r="E6">
+        <v>0.9001675109223608</v>
+      </c>
+      <c r="F6">
+        <v>0.00287379619371396</v>
+      </c>
+      <c r="G6">
+        <v>9.440234458349135</v>
+      </c>
+      <c r="H6">
+        <v>0.07960244790521855</v>
+      </c>
+      <c r="I6">
+        <v>1.017883240785471E-45</v>
+      </c>
+      <c r="J6">
+        <v>13.38000011444092</v>
+      </c>
+      <c r="K6">
+        <v>55.47000122070312</v>
+      </c>
+      <c r="L6">
+        <v>0.584118347447685</v>
+      </c>
+      <c r="M6">
+        <v>-1.085353904673166</v>
+      </c>
+      <c r="N6">
+        <v>0.3052924538454246</v>
+      </c>
+      <c r="O6">
+        <v>-0.4757822263816465</v>
+      </c>
+      <c r="P6">
+        <v>0.01392743126730841</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>0.7295587813096226</v>
+      </c>
+      <c r="E7">
+        <v>0.9201033081066841</v>
+      </c>
+      <c r="F7">
+        <v>0.002523583349673929</v>
+      </c>
+      <c r="G7">
+        <v>8.147387362158247</v>
+      </c>
+      <c r="H7">
+        <v>0.26703408853633</v>
+      </c>
+      <c r="I7">
+        <v>3.932835342783451E-60</v>
+      </c>
+      <c r="J7">
+        <v>12.75</v>
+      </c>
+      <c r="K7">
+        <v>18.46999931335449</v>
+      </c>
+      <c r="L7">
+        <v>0.6807136330633377</v>
+      </c>
+      <c r="M7">
+        <v>-0.4361341149518729</v>
+      </c>
+      <c r="N7">
+        <v>0.2463429852426177</v>
+      </c>
+      <c r="O7">
+        <v>-0.3295067940665053</v>
+      </c>
+      <c r="P7">
+        <v>0.0141136505964035</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1040</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.2498944050366389</v>
+      </c>
+      <c r="E8">
+        <v>0.1590560854662778</v>
+      </c>
+      <c r="F8">
+        <v>0.003496637738285608</v>
+      </c>
+      <c r="G8">
+        <v>8.402847364895804</v>
+      </c>
+      <c r="H8">
+        <v>-0.3183755153811354</v>
+      </c>
+      <c r="I8">
+        <v>1.266686025977244E-26</v>
+      </c>
+      <c r="J8">
+        <v>3.509999990463257</v>
+      </c>
+      <c r="K8">
+        <v>14.0600004196167</v>
+      </c>
+      <c r="L8">
+        <v>1.074425681376824</v>
+      </c>
+      <c r="M8">
+        <v>-0.5700634037921937</v>
+      </c>
+      <c r="N8">
+        <v>0.295604693045845</v>
+      </c>
+      <c r="O8">
+        <v>-0.4164874945781003</v>
+      </c>
+      <c r="P8">
+        <v>0.01429230297859148</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>0.6270757555803019</v>
+      </c>
+      <c r="E9">
+        <v>0.4822358493617823</v>
+      </c>
+      <c r="F9">
+        <v>0.003293995197302533</v>
+      </c>
+      <c r="G9">
+        <v>-5.779951281327383</v>
+      </c>
+      <c r="H9">
+        <v>1.225150898821247</v>
+      </c>
+      <c r="I9">
+        <v>1.168323351111772E-49</v>
+      </c>
+      <c r="J9">
+        <v>11.14999961853027</v>
+      </c>
+      <c r="K9">
+        <v>13.38000011444092</v>
+      </c>
+      <c r="L9">
+        <v>1.157085394406595</v>
+      </c>
+      <c r="M9">
+        <v>-1.142071372775856</v>
+      </c>
+      <c r="N9">
+        <v>0.3923077188330467</v>
+      </c>
+      <c r="O9">
+        <v>0.537431733421986</v>
+      </c>
+      <c r="P9">
+        <v>0.0148521610676578</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2781</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>0.1590560854662778</v>
+      </c>
+      <c r="E10">
+        <v>0.2069693373826261</v>
+      </c>
+      <c r="F10">
+        <v>0.005597328752107453</v>
+      </c>
+      <c r="G10">
+        <v>9.465006508378311</v>
+      </c>
+      <c r="H10">
+        <v>0.4940556447925902</v>
+      </c>
+      <c r="I10">
+        <v>1.619461737039995E-38</v>
+      </c>
+      <c r="J10">
+        <v>14.0600004196167</v>
+      </c>
+      <c r="K10">
+        <v>10.68000030517578</v>
+      </c>
+      <c r="L10">
+        <v>1.961399405253195</v>
+      </c>
+      <c r="M10">
+        <v>-1.132524974538866</v>
+      </c>
+      <c r="N10">
+        <v>0.5720524406693314</v>
+      </c>
+      <c r="O10">
+        <v>-0.6815205259202921</v>
+      </c>
+      <c r="P10">
+        <v>0.01542528124971757</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1091</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.2133306079539554</v>
+      </c>
+      <c r="E11">
+        <v>0.2062348716853533</v>
+      </c>
+      <c r="F11">
+        <v>0.00363892359185128</v>
+      </c>
+      <c r="G11">
+        <v>1.431465658685497</v>
+      </c>
+      <c r="H11">
+        <v>0.5199611790037452</v>
+      </c>
+      <c r="I11">
+        <v>2.09946283338717E-40</v>
+      </c>
+      <c r="J11">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="K11">
+        <v>21.05999946594238</v>
+      </c>
+      <c r="L11">
+        <v>0.603788981951153</v>
+      </c>
+      <c r="M11">
+        <v>-0.8054605448013934</v>
+      </c>
+      <c r="N11">
+        <v>0.2928671356191132</v>
+      </c>
+      <c r="O11">
+        <v>-0.3218473911984425</v>
+      </c>
+      <c r="P11">
+        <v>0.01548445041020437</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,46 +73,46 @@
     <t>MULT3</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>CMIG4</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
     <t>NTCO3</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
     <t>SBSP3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
     <t>RAIZ4</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
     <t>WEGE3</t>
   </si>
   <si>
-    <t>LREN3</t>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>YDUQ3</t>
@@ -546,43 +546,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.549219665250862</v>
+        <v>0.562455146153135</v>
       </c>
       <c r="E2">
-        <v>0.714855470484562</v>
+        <v>0.7184860332625841</v>
       </c>
       <c r="F2">
-        <v>0.002087598330636569</v>
+        <v>0.002665949055128557</v>
       </c>
       <c r="G2">
-        <v>9.13873670409664</v>
+        <v>9.100178807890622</v>
       </c>
       <c r="H2">
-        <v>0.1803832846717882</v>
+        <v>0.1806713814989132</v>
       </c>
       <c r="I2">
-        <v>6.639668912019698E-69</v>
+        <v>4.032411263757499E-70</v>
       </c>
       <c r="J2">
-        <v>25.10000038146973</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="K2">
-        <v>91.30000305175781</v>
+        <v>91.73000335693359</v>
       </c>
       <c r="L2">
-        <v>1.329632073837335</v>
+        <v>1.340956177326909</v>
       </c>
       <c r="M2">
-        <v>-1.125215887170619</v>
+        <v>-1.111823248374364</v>
       </c>
       <c r="N2">
-        <v>0.4955907946398641</v>
+        <v>0.4856453924640326</v>
       </c>
       <c r="O2">
-        <v>-0.5077307636472739</v>
+        <v>-0.6131657733453721</v>
       </c>
       <c r="P2">
-        <v>0.009572534316883643</v>
+        <v>0.009701165423180102</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1142</v>
+        <v>2398</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -602,54 +602,54 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.6270757555803019</v>
+        <v>0.237030879485777</v>
       </c>
       <c r="E3">
-        <v>0.6907566479049867</v>
+        <v>0.2745013958327753</v>
       </c>
       <c r="F3">
-        <v>0.0001723832645643226</v>
+        <v>0.000302862437880426</v>
       </c>
       <c r="G3">
-        <v>4.321102207785163</v>
+        <v>5.67571231617384</v>
       </c>
       <c r="H3">
-        <v>0.1452894767557206</v>
+        <v>5.197188821178016</v>
       </c>
       <c r="I3">
-        <v>1.150791493815366E-68</v>
+        <v>5.440245936637304E-41</v>
       </c>
       <c r="J3">
-        <v>11.14999961853027</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="K3">
-        <v>49.56000137329102</v>
+        <v>2.869999885559082</v>
       </c>
       <c r="L3">
-        <v>0.6057533220580495</v>
+        <v>1.02412632022957</v>
       </c>
       <c r="M3">
-        <v>-0.8419658451022798</v>
+        <v>-1.195124501381599</v>
       </c>
       <c r="N3">
-        <v>0.2858068076878024</v>
+        <v>0.4731325847281132</v>
       </c>
       <c r="O3">
-        <v>-0.3716492567931367</v>
+        <v>0.7083555988768602</v>
       </c>
       <c r="P3">
-        <v>0.01032895992092571</v>
+        <v>0.0107829493297259</v>
       </c>
       <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2398</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -658,54 +658,54 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0.2062348716853533</v>
+        <v>0.7396003082925999</v>
       </c>
       <c r="E4">
-        <v>0.4119174703871215</v>
+        <v>0.7767097739291252</v>
       </c>
       <c r="F4">
-        <v>0.0001918696679587047</v>
+        <v>0.001487482607759538</v>
       </c>
       <c r="G4">
-        <v>5.53850973898343</v>
+        <v>4.150414996288124</v>
       </c>
       <c r="H4">
-        <v>5.241725109052137</v>
+        <v>0.8699535339620792</v>
       </c>
       <c r="I4">
-        <v>1.45045273840825E-41</v>
+        <v>2.937638217801499E-75</v>
       </c>
       <c r="J4">
-        <v>21.05999946594238</v>
+        <v>34.38000106811523</v>
       </c>
       <c r="K4">
-        <v>2.829999923706055</v>
+        <v>35.72999954223633</v>
       </c>
       <c r="L4">
-        <v>1.040157563158431</v>
+        <v>1.614138120347178</v>
       </c>
       <c r="M4">
-        <v>-1.193740345381084</v>
+        <v>-1.183050608746498</v>
       </c>
       <c r="N4">
-        <v>0.470092287111653</v>
+        <v>0.5609634984434754</v>
       </c>
       <c r="O4">
-        <v>0.6874080682532941</v>
+        <v>-0.8538532984048537</v>
       </c>
       <c r="P4">
-        <v>0.0104166016630997</v>
+        <v>0.01274702231071986</v>
       </c>
       <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>562</v>
+        <v>1651</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -714,43 +714,43 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.7702930601823059</v>
+        <v>0.1119485454997491</v>
       </c>
       <c r="E5">
-        <v>0.7709398531293643</v>
+        <v>0.6259121263903834</v>
       </c>
       <c r="F5">
-        <v>0.000983102097405316</v>
+        <v>0.008327419563861497</v>
       </c>
       <c r="G5">
-        <v>4.057710733826916</v>
+        <v>9.586070917787897</v>
       </c>
       <c r="H5">
-        <v>0.8728826765780582</v>
+        <v>1.470991590842019</v>
       </c>
       <c r="I5">
-        <v>8.108780457737073E-76</v>
+        <v>1.314064839036254E-32</v>
       </c>
       <c r="J5">
-        <v>34.29999923706055</v>
+        <v>21.20999908447266</v>
       </c>
       <c r="K5">
-        <v>35.29999923706055</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="L5">
-        <v>1.609106718605283</v>
+        <v>1.778832831611354</v>
       </c>
       <c r="M5">
-        <v>-1.186087041613135</v>
+        <v>-1.803117372375876</v>
       </c>
       <c r="N5">
-        <v>0.556241294836741</v>
+        <v>0.640823985295745</v>
       </c>
       <c r="O5">
-        <v>-0.5704693140151917</v>
+        <v>-0.9971795705120154</v>
       </c>
       <c r="P5">
-        <v>0.01239290921880102</v>
+        <v>0.01382861535085735</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -761,338 +761,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1999</v>
+        <v>1906</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>0.4822358493617823</v>
+        <v>0.5983914723356379</v>
       </c>
       <c r="E6">
-        <v>0.9001675109223608</v>
+        <v>0.4083688038531422</v>
       </c>
       <c r="F6">
-        <v>0.00287379619371396</v>
+        <v>0.009122243021812986</v>
       </c>
       <c r="G6">
-        <v>9.440234458349135</v>
+        <v>-61.38795482763631</v>
       </c>
       <c r="H6">
-        <v>0.07960244790521855</v>
+        <v>7.818622798082515</v>
       </c>
       <c r="I6">
-        <v>1.017883240785471E-45</v>
+        <v>8.603999565754162E-46</v>
       </c>
       <c r="J6">
-        <v>13.38000011444092</v>
+        <v>48.93999862670898</v>
       </c>
       <c r="K6">
-        <v>55.47000122070312</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="L6">
-        <v>0.584118347447685</v>
+        <v>6.448749366374784</v>
       </c>
       <c r="M6">
-        <v>-1.085353904673166</v>
+        <v>-5.724974312309328</v>
       </c>
       <c r="N6">
-        <v>0.3052924538454246</v>
+        <v>2.715720878298087</v>
       </c>
       <c r="O6">
-        <v>-0.4757822263816465</v>
+        <v>5.323846890042788</v>
       </c>
       <c r="P6">
-        <v>0.01392743126730841</v>
+        <v>0.01417114273094972</v>
       </c>
       <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>47</v>
+        <v>1040</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.7295587813096226</v>
+        <v>0.2054440961753931</v>
       </c>
       <c r="E7">
-        <v>0.9201033081066841</v>
+        <v>0.195472715545369</v>
       </c>
       <c r="F7">
-        <v>0.002523583349673929</v>
+        <v>0.002952498726199883</v>
       </c>
       <c r="G7">
-        <v>8.147387362158247</v>
+        <v>8.343412209166225</v>
       </c>
       <c r="H7">
-        <v>0.26703408853633</v>
+        <v>-0.3145639441510517</v>
       </c>
       <c r="I7">
-        <v>3.932835342783451E-60</v>
+        <v>1.081725755360922E-25</v>
       </c>
       <c r="J7">
-        <v>12.75</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="K7">
-        <v>18.46999931335449</v>
+        <v>14.14000034332275</v>
       </c>
       <c r="L7">
-        <v>0.6807136330633377</v>
+        <v>1.071427303556431</v>
       </c>
       <c r="M7">
-        <v>-0.4361341149518729</v>
+        <v>-0.57195642973626</v>
       </c>
       <c r="N7">
-        <v>0.2463429852426177</v>
+        <v>0.2969172595331847</v>
       </c>
       <c r="O7">
-        <v>-0.3295067940665053</v>
+        <v>-0.3454779785571098</v>
       </c>
       <c r="P7">
-        <v>0.0141136505964035</v>
+        <v>0.01433834801798781</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1040</v>
+        <v>1999</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.2498944050366389</v>
+        <v>0.4083688038531422</v>
       </c>
       <c r="E8">
-        <v>0.1590560854662778</v>
+        <v>0.932929609475165</v>
       </c>
       <c r="F8">
-        <v>0.003496637738285608</v>
+        <v>0.003832562622696612</v>
       </c>
       <c r="G8">
-        <v>8.402847364895804</v>
+        <v>9.453859860031137</v>
       </c>
       <c r="H8">
-        <v>-0.3183755153811354</v>
+        <v>0.07919802117010449</v>
       </c>
       <c r="I8">
-        <v>1.266686025977244E-26</v>
+        <v>2.938279210195439E-45</v>
       </c>
       <c r="J8">
-        <v>3.509999990463257</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="K8">
-        <v>14.0600004196167</v>
+        <v>56.2599983215332</v>
       </c>
       <c r="L8">
-        <v>1.074425681376824</v>
+        <v>0.5928253905723651</v>
       </c>
       <c r="M8">
-        <v>-0.5700634037921937</v>
+        <v>-1.07771616342346</v>
       </c>
       <c r="N8">
-        <v>0.295604693045845</v>
+        <v>0.3073729902520065</v>
       </c>
       <c r="O8">
-        <v>-0.4164874945781003</v>
+        <v>-0.4795400929541858</v>
       </c>
       <c r="P8">
-        <v>0.01429230297859148</v>
+        <v>0.01434221899422615</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1143</v>
+        <v>1918</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0.5983914723356379</v>
+      </c>
+      <c r="E9">
+        <v>0.7581600869113756</v>
+      </c>
+      <c r="F9">
+        <v>0.002158851573367274</v>
+      </c>
+      <c r="G9">
+        <v>-50.91946653193543</v>
+      </c>
+      <c r="H9">
+        <v>9.016458654993327</v>
+      </c>
+      <c r="I9">
+        <v>2.870649904048202E-58</v>
+      </c>
+      <c r="J9">
+        <v>48.93999862670898</v>
+      </c>
+      <c r="K9">
+        <v>10.77000045776367</v>
+      </c>
+      <c r="L9">
+        <v>5.458836198412982</v>
+      </c>
+      <c r="M9">
+        <v>-4.936377039893003</v>
+      </c>
+      <c r="N9">
+        <v>2.20609512078801</v>
+      </c>
+      <c r="O9">
+        <v>2.752201316959059</v>
+      </c>
+      <c r="P9">
+        <v>0.01487777173572962</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>22</v>
-      </c>
-      <c r="D9">
-        <v>0.6270757555803019</v>
-      </c>
-      <c r="E9">
-        <v>0.4822358493617823</v>
-      </c>
-      <c r="F9">
-        <v>0.003293995197302533</v>
-      </c>
-      <c r="G9">
-        <v>-5.779951281327383</v>
-      </c>
-      <c r="H9">
-        <v>1.225150898821247</v>
-      </c>
-      <c r="I9">
-        <v>1.168323351111772E-49</v>
-      </c>
-      <c r="J9">
-        <v>11.14999961853027</v>
-      </c>
-      <c r="K9">
-        <v>13.38000011444092</v>
-      </c>
-      <c r="L9">
-        <v>1.157085394406595</v>
-      </c>
-      <c r="M9">
-        <v>-1.142071372775856</v>
-      </c>
-      <c r="N9">
-        <v>0.3923077188330467</v>
-      </c>
-      <c r="O9">
-        <v>0.537431733421986</v>
-      </c>
-      <c r="P9">
-        <v>0.0148521610676578</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2781</v>
+        <v>1143</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0.1590560854662778</v>
+        <v>0.6716303463511775</v>
       </c>
       <c r="E10">
-        <v>0.2069693373826261</v>
+        <v>0.4083688038531422</v>
       </c>
       <c r="F10">
-        <v>0.005597328752107453</v>
+        <v>0.003874446985012112</v>
       </c>
       <c r="G10">
-        <v>9.465006508378311</v>
+        <v>-5.750652939518352</v>
       </c>
       <c r="H10">
-        <v>0.4940556447925902</v>
+        <v>1.223592308916995</v>
       </c>
       <c r="I10">
-        <v>1.619461737039995E-38</v>
+        <v>1.423885568319116E-49</v>
       </c>
       <c r="J10">
-        <v>14.0600004196167</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="K10">
-        <v>10.68000030517578</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="L10">
-        <v>1.961399405253195</v>
+        <v>1.148251338218751</v>
       </c>
       <c r="M10">
-        <v>-1.132524974538866</v>
+        <v>-1.151374913580886</v>
       </c>
       <c r="N10">
-        <v>0.5720524406693314</v>
+        <v>0.3921700580339659</v>
       </c>
       <c r="O10">
-        <v>-0.6815205259202921</v>
+        <v>0.6078078192053979</v>
       </c>
       <c r="P10">
-        <v>0.01542528124971757</v>
+        <v>0.01499724301760665</v>
       </c>
       <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
         <v>25</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1091</v>
+        <v>2781</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2133306079539554</v>
+        <v>0.195472715545369</v>
       </c>
       <c r="E11">
-        <v>0.2062348716853533</v>
+        <v>0.3337584297745049</v>
       </c>
       <c r="F11">
-        <v>0.00363892359185128</v>
+        <v>0.005800557263292731</v>
       </c>
       <c r="G11">
-        <v>1.431465658685497</v>
+        <v>9.464871192550987</v>
       </c>
       <c r="H11">
-        <v>0.5199611790037452</v>
+        <v>0.4935418922678981</v>
       </c>
       <c r="I11">
-        <v>2.09946283338717E-40</v>
+        <v>1.45663951988925E-37</v>
       </c>
       <c r="J11">
-        <v>12.0600004196167</v>
+        <v>14.14000034332275</v>
       </c>
       <c r="K11">
-        <v>21.05999946594238</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="L11">
-        <v>0.603788981951153</v>
+        <v>1.966841784621391</v>
       </c>
       <c r="M11">
-        <v>-0.8054605448013934</v>
+        <v>-1.127421671758574</v>
       </c>
       <c r="N11">
-        <v>0.2928671356191132</v>
+        <v>0.5746829705020353</v>
       </c>
       <c r="O11">
-        <v>-0.3218473911984425</v>
+        <v>-0.669929504835312</v>
       </c>
       <c r="P11">
-        <v>0.01548445041020437</v>
+        <v>0.01554562281961563</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -76,46 +76,52 @@
     <t>IGTI11</t>
   </si>
   <si>
-    <t>BBSE3</t>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
   </si>
   <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
     <t>SBSP3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>ITUB4</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
   </si>
   <si>
     <t>DXCO3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
   </si>
 </sst>
 </file>
@@ -543,52 +549,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.562455146153135</v>
+        <v>0.551693898113976</v>
       </c>
       <c r="E2">
-        <v>0.7184860332625841</v>
+        <v>0.7075133190301166</v>
       </c>
       <c r="F2">
-        <v>0.002665949055128557</v>
+        <v>0.005868931038001761</v>
       </c>
       <c r="G2">
-        <v>9.100178807890622</v>
+        <v>9.072862633915889</v>
       </c>
       <c r="H2">
-        <v>0.1806713814989132</v>
+        <v>0.180853733092378</v>
       </c>
       <c r="I2">
-        <v>4.032411263757499E-70</v>
+        <v>1.635432258542009E-70</v>
       </c>
       <c r="J2">
-        <v>25.05999946594238</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="K2">
-        <v>91.73000335693359</v>
+        <v>92.08000183105469</v>
       </c>
       <c r="L2">
-        <v>1.340956177326909</v>
+        <v>1.351034655394013</v>
       </c>
       <c r="M2">
-        <v>-1.111823248374364</v>
+        <v>-1.100435485810536</v>
       </c>
       <c r="N2">
-        <v>0.4856453924640326</v>
+        <v>0.4826031629672379</v>
       </c>
       <c r="O2">
-        <v>-0.6131657733453721</v>
+        <v>-0.6858737926877829</v>
       </c>
       <c r="P2">
-        <v>0.009701165423180102</v>
+        <v>0.009990760772257088</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -599,49 +605,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.237030879485777</v>
+        <v>0.2566142651229337</v>
       </c>
       <c r="E3">
-        <v>0.2745013958327753</v>
+        <v>0.3066552986993325</v>
       </c>
       <c r="F3">
-        <v>0.000302862437880426</v>
+        <v>0.0003392424084349021</v>
       </c>
       <c r="G3">
-        <v>5.67571231617384</v>
+        <v>5.798608016261306</v>
       </c>
       <c r="H3">
-        <v>5.197188821178016</v>
+        <v>5.158030552271301</v>
       </c>
       <c r="I3">
-        <v>5.440245936637304E-41</v>
+        <v>1.450219328549309E-40</v>
       </c>
       <c r="J3">
-        <v>21.29999923706055</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="K3">
-        <v>2.869999885559082</v>
+        <v>2.829999923706055</v>
       </c>
       <c r="L3">
-        <v>1.02412632022957</v>
+        <v>1.00776980239749</v>
       </c>
       <c r="M3">
-        <v>-1.195124501381599</v>
+        <v>-1.198602654266399</v>
       </c>
       <c r="N3">
-        <v>0.4731325847281132</v>
+        <v>0.4764108591398588</v>
       </c>
       <c r="O3">
-        <v>0.7083555988768602</v>
+        <v>0.6541651513979616</v>
       </c>
       <c r="P3">
-        <v>0.0107829493297259</v>
+        <v>0.01097307438663651</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,450 +655,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>562</v>
+        <v>1385</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.7396003082925999</v>
+        <v>0.4826496458585446</v>
       </c>
       <c r="E4">
-        <v>0.7767097739291252</v>
+        <v>0.5063417892365415</v>
       </c>
       <c r="F4">
-        <v>0.001487482607759538</v>
+        <v>0.00137367922460704</v>
       </c>
       <c r="G4">
-        <v>4.150414996288124</v>
+        <v>0.7784083785232674</v>
       </c>
       <c r="H4">
-        <v>0.8699535339620792</v>
+        <v>0.5993075223798384</v>
       </c>
       <c r="I4">
-        <v>2.937638217801499E-75</v>
+        <v>1.377944998213251E-61</v>
       </c>
       <c r="J4">
-        <v>34.38000106811523</v>
+        <v>9.880000114440918</v>
       </c>
       <c r="K4">
-        <v>35.72999954223633</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="L4">
-        <v>1.614138120347178</v>
+        <v>0.4858121106569584</v>
       </c>
       <c r="M4">
-        <v>-1.183050608746498</v>
+        <v>-0.5994484539580398</v>
       </c>
       <c r="N4">
-        <v>0.5609634984434754</v>
+        <v>0.1983099900354758</v>
       </c>
       <c r="O4">
-        <v>-0.8538532984048537</v>
+        <v>0.2378335027816085</v>
       </c>
       <c r="P4">
-        <v>0.01274702231071986</v>
+        <v>0.01292686511653365</v>
       </c>
       <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1651</v>
+        <v>1040</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.1119485454997491</v>
+        <v>0.1696426558894765</v>
       </c>
       <c r="E5">
-        <v>0.6259121263903834</v>
+        <v>0.1992524029338776</v>
       </c>
       <c r="F5">
-        <v>0.008327419563861497</v>
+        <v>0.003908394937233216</v>
       </c>
       <c r="G5">
-        <v>9.586070917787897</v>
+        <v>8.240665318532002</v>
       </c>
       <c r="H5">
-        <v>1.470991590842019</v>
+        <v>-0.3078564663891035</v>
       </c>
       <c r="I5">
-        <v>1.314064839036254E-32</v>
+        <v>1.395135039551598E-24</v>
       </c>
       <c r="J5">
-        <v>21.20999908447266</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="K5">
-        <v>8.579999923706055</v>
+        <v>14.07999992370605</v>
       </c>
       <c r="L5">
-        <v>1.778832831611354</v>
+        <v>1.064305714079081</v>
       </c>
       <c r="M5">
-        <v>-1.803117372375876</v>
+        <v>-0.5771328573152648</v>
       </c>
       <c r="N5">
-        <v>0.640823985295745</v>
+        <v>0.2985494318186404</v>
       </c>
       <c r="O5">
-        <v>-0.9971795705120154</v>
+        <v>-0.4660462380405503</v>
       </c>
       <c r="P5">
-        <v>0.01382861535085735</v>
+        <v>0.01476860671829426</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1906</v>
+        <v>2781</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.5983914723356379</v>
+        <v>0.1992524029338776</v>
       </c>
       <c r="E6">
-        <v>0.4083688038531422</v>
+        <v>0.4537146045556995</v>
       </c>
       <c r="F6">
-        <v>0.009122243021812986</v>
+        <v>0.005056631424680278</v>
       </c>
       <c r="G6">
-        <v>-61.38795482763631</v>
+        <v>9.463810459446995</v>
       </c>
       <c r="H6">
-        <v>7.818622798082515</v>
+        <v>0.4931097628334514</v>
       </c>
       <c r="I6">
-        <v>8.603999565754162E-46</v>
+        <v>6.204875975219633E-37</v>
       </c>
       <c r="J6">
-        <v>48.93999862670898</v>
+        <v>14.07999992370605</v>
       </c>
       <c r="K6">
-        <v>13.43000030517578</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="L6">
-        <v>6.448749366374784</v>
+        <v>1.972366414750249</v>
       </c>
       <c r="M6">
-        <v>-5.724974312309328</v>
+        <v>-1.122182246990512</v>
       </c>
       <c r="N6">
-        <v>2.715720878298087</v>
+        <v>0.5766920493412814</v>
       </c>
       <c r="O6">
-        <v>5.323846890042788</v>
+        <v>-0.6107742098819715</v>
       </c>
       <c r="P6">
-        <v>0.01417114273094972</v>
+        <v>0.01548840647504308</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1040</v>
+        <v>1999</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.2054440961753931</v>
+        <v>0.3402610901276192</v>
       </c>
       <c r="E7">
-        <v>0.195472715545369</v>
+        <v>0.9250314339988623</v>
       </c>
       <c r="F7">
-        <v>0.002952498726199883</v>
+        <v>0.009818884592253326</v>
       </c>
       <c r="G7">
-        <v>8.343412209166225</v>
+        <v>9.495736022925918</v>
       </c>
       <c r="H7">
-        <v>-0.3145639441510517</v>
+        <v>0.07816933543893809</v>
       </c>
       <c r="I7">
-        <v>1.081725755360922E-25</v>
+        <v>8.211832202142055E-44</v>
       </c>
       <c r="J7">
-        <v>3.549999952316284</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="K7">
-        <v>14.14000034332275</v>
+        <v>56.93999862670898</v>
       </c>
       <c r="L7">
-        <v>1.071427303556431</v>
+        <v>0.6077532550083138</v>
       </c>
       <c r="M7">
-        <v>-0.57195642973626</v>
+        <v>-1.065509208493342</v>
       </c>
       <c r="N7">
-        <v>0.2969172595331847</v>
+        <v>0.3138418806552409</v>
       </c>
       <c r="O7">
-        <v>-0.3454779785571098</v>
+        <v>-0.7466980662046696</v>
       </c>
       <c r="P7">
-        <v>0.01433834801798781</v>
+        <v>0.01556805317333233</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1999</v>
+        <v>1918</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.4083688038531422</v>
+        <v>0.6208171467862326</v>
       </c>
       <c r="E8">
-        <v>0.932929609475165</v>
+        <v>0.6767643605202024</v>
       </c>
       <c r="F8">
-        <v>0.003832562622696612</v>
+        <v>0.006469768901019978</v>
       </c>
       <c r="G8">
-        <v>9.453859860031137</v>
+        <v>-50.75425402632857</v>
       </c>
       <c r="H8">
-        <v>0.07919802117010449</v>
+        <v>9.006947441586224</v>
       </c>
       <c r="I8">
-        <v>2.938279210195439E-45</v>
+        <v>2.400211852808984E-58</v>
       </c>
       <c r="J8">
-        <v>13.43000030517578</v>
+        <v>50.11999893188477</v>
       </c>
       <c r="K8">
-        <v>56.2599983215332</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="L8">
-        <v>0.5928253905723651</v>
+        <v>5.38318302328571</v>
       </c>
       <c r="M8">
-        <v>-1.07771616342346</v>
+        <v>-4.868922104691848</v>
       </c>
       <c r="N8">
-        <v>0.3073729902520065</v>
+        <v>2.199297494455489</v>
       </c>
       <c r="O8">
-        <v>-0.4795400929541858</v>
+        <v>4.499917051179622</v>
       </c>
       <c r="P8">
-        <v>0.01434221899422615</v>
+        <v>0.01582097099331401</v>
       </c>
       <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1918</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.5983914723356379</v>
+        <v>0.7733637744054467</v>
       </c>
       <c r="E9">
-        <v>0.7581600869113756</v>
+        <v>0.1932675535086509</v>
       </c>
       <c r="F9">
-        <v>0.002158851573367274</v>
+        <v>0.002623146989372196</v>
       </c>
       <c r="G9">
-        <v>-50.91946653193543</v>
+        <v>1.612155638154619</v>
       </c>
       <c r="H9">
-        <v>9.016458654993327</v>
+        <v>0.5151723522002022</v>
       </c>
       <c r="I9">
-        <v>2.870649904048202E-58</v>
+        <v>7.067723689512909E-38</v>
       </c>
       <c r="J9">
-        <v>48.93999862670898</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="K9">
-        <v>10.77000045776367</v>
+        <v>21.22999954223633</v>
       </c>
       <c r="L9">
-        <v>5.458836198412982</v>
+        <v>1.370142250032691</v>
       </c>
       <c r="M9">
-        <v>-4.936377039893003</v>
+        <v>-0.9883546405662393</v>
       </c>
       <c r="N9">
-        <v>2.20609512078801</v>
+        <v>0.3596455408065435</v>
       </c>
       <c r="O9">
-        <v>2.752201316959059</v>
+        <v>0.4307351026986055</v>
       </c>
       <c r="P9">
-        <v>0.01487777173572962</v>
+        <v>0.01642490408486788</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1143</v>
+        <v>1529</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.6716303463511775</v>
+        <v>0.6717541817955718</v>
       </c>
       <c r="E10">
-        <v>0.4083688038531422</v>
+        <v>0.1730633063421978</v>
       </c>
       <c r="F10">
-        <v>0.003874446985012112</v>
+        <v>0.004312878948996945</v>
       </c>
       <c r="G10">
-        <v>-5.750652939518352</v>
+        <v>-1.210964946066337</v>
       </c>
       <c r="H10">
-        <v>1.223592308916995</v>
+        <v>0.8098146877357751</v>
       </c>
       <c r="I10">
-        <v>1.423885568319116E-49</v>
+        <v>4.287273825539905E-25</v>
       </c>
       <c r="J10">
-        <v>11.28999996185303</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="K10">
-        <v>13.43000030517578</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="L10">
-        <v>1.148251338218751</v>
+        <v>1.10102631815486</v>
       </c>
       <c r="M10">
-        <v>-1.151374913580886</v>
+        <v>-1.149320614685848</v>
       </c>
       <c r="N10">
-        <v>0.3921700580339659</v>
+        <v>0.4556951769605517</v>
       </c>
       <c r="O10">
-        <v>0.6078078192053979</v>
+        <v>-0.6197498160114492</v>
       </c>
       <c r="P10">
-        <v>0.01499724301760665</v>
+        <v>0.01671993099913725</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2781</v>
+        <v>1651</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.195472715545369</v>
+        <v>0.1932675535086509</v>
       </c>
       <c r="E11">
-        <v>0.3337584297745049</v>
+        <v>0.6083210590990181</v>
       </c>
       <c r="F11">
-        <v>0.005800557263292731</v>
+        <v>0.003693417606366862</v>
       </c>
       <c r="G11">
-        <v>9.464871192550987</v>
+        <v>9.621358765225049</v>
       </c>
       <c r="H11">
-        <v>0.4935418922678981</v>
+        <v>1.463823152456683</v>
       </c>
       <c r="I11">
-        <v>1.45663951988925E-37</v>
+        <v>1.246919451969171E-33</v>
       </c>
       <c r="J11">
-        <v>14.14000034332275</v>
+        <v>21.22999954223633</v>
       </c>
       <c r="K11">
-        <v>10.82999992370605</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="L11">
-        <v>1.966841784621391</v>
+        <v>1.257964242176094</v>
       </c>
       <c r="M11">
-        <v>-1.127421671758574</v>
+        <v>-1.775896435178716</v>
       </c>
       <c r="N11">
-        <v>0.5746829705020353</v>
+        <v>0.6267234181113333</v>
       </c>
       <c r="O11">
-        <v>-0.669929504835312</v>
+        <v>-0.8192174523034286</v>
       </c>
       <c r="P11">
-        <v>0.01554562281961563</v>
+        <v>0.017520516006572</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,58 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CPLE6</t>
+    <t>ENEV3</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
     <t>NTCO3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>FLRY3</t>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
+    <t>VIVT3</t>
   </si>
   <si>
     <t>SLCE3</t>
   </si>
   <si>
-    <t>DXCO3</t>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
   </si>
 </sst>
 </file>
@@ -543,226 +537,226 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2743</v>
+        <v>2398</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.551693898113976</v>
+        <v>0.2488518484882589</v>
       </c>
       <c r="E2">
-        <v>0.7075133190301166</v>
+        <v>0.2972686594080951</v>
       </c>
       <c r="F2">
-        <v>0.005868931038001761</v>
+        <v>0.0004498900143151063</v>
       </c>
       <c r="G2">
-        <v>9.072862633915889</v>
+        <v>5.928378257320476</v>
       </c>
       <c r="H2">
-        <v>0.180853733092378</v>
+        <v>5.116756402499628</v>
       </c>
       <c r="I2">
-        <v>1.635432258542009E-70</v>
+        <v>2.504777268394583E-40</v>
       </c>
       <c r="J2">
-        <v>25.04000091552734</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="K2">
-        <v>92.08000183105469</v>
+        <v>2.839999914169312</v>
       </c>
       <c r="L2">
-        <v>1.351034655394013</v>
+        <v>0.9902954898288243</v>
       </c>
       <c r="M2">
-        <v>-1.100435485810536</v>
+        <v>-1.202502731341802</v>
       </c>
       <c r="N2">
-        <v>0.4826031629672379</v>
+        <v>0.4788606680161243</v>
       </c>
       <c r="O2">
-        <v>-0.6858737926877829</v>
+        <v>0.7400347616947585</v>
       </c>
       <c r="P2">
-        <v>0.009990760772257088</v>
+        <v>0.01127550962611933</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2398</v>
+        <v>1999</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2566142651229337</v>
+        <v>0.3355334003137352</v>
       </c>
       <c r="E3">
-        <v>0.3066552986993325</v>
+        <v>0.8479082844259149</v>
       </c>
       <c r="F3">
-        <v>0.0003392424084349021</v>
+        <v>0.005116597536067359</v>
       </c>
       <c r="G3">
-        <v>5.798608016261306</v>
+        <v>9.517066293612562</v>
       </c>
       <c r="H3">
-        <v>5.158030552271301</v>
+        <v>0.07763527032022084</v>
       </c>
       <c r="I3">
-        <v>1.450219328549309E-40</v>
+        <v>1.433399871774973E-43</v>
       </c>
       <c r="J3">
-        <v>21.04999923706055</v>
+        <v>13.21000003814697</v>
       </c>
       <c r="K3">
-        <v>2.829999923706055</v>
+        <v>54</v>
       </c>
       <c r="L3">
-        <v>1.00776980239749</v>
+        <v>0.6159140608291729</v>
       </c>
       <c r="M3">
-        <v>-1.198602654266399</v>
+        <v>-1.058760866619787</v>
       </c>
       <c r="N3">
-        <v>0.4764108591398588</v>
+        <v>0.3155841367689891</v>
       </c>
       <c r="O3">
-        <v>0.6541651513979616</v>
+        <v>-0.4993708527575142</v>
       </c>
       <c r="P3">
-        <v>0.01097307438663651</v>
+        <v>0.01506992268916917</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1385</v>
+        <v>1040</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.4826496458585446</v>
+        <v>0.1693839867936039</v>
       </c>
       <c r="E4">
-        <v>0.5063417892365415</v>
+        <v>0.2030663209634794</v>
       </c>
       <c r="F4">
-        <v>0.00137367922460704</v>
+        <v>0.00494440623016012</v>
       </c>
       <c r="G4">
-        <v>0.7784083785232674</v>
+        <v>8.182232194410382</v>
       </c>
       <c r="H4">
-        <v>0.5993075223798384</v>
+        <v>-0.3042261241490705</v>
       </c>
       <c r="I4">
-        <v>1.377944998213251E-61</v>
+        <v>3.553573803707229E-24</v>
       </c>
       <c r="J4">
-        <v>9.880000114440918</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="K4">
-        <v>14.78999996185303</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="L4">
-        <v>0.4858121106569584</v>
+        <v>1.063273835355665</v>
       </c>
       <c r="M4">
-        <v>-0.5994484539580398</v>
+        <v>-0.5771119403897211</v>
       </c>
       <c r="N4">
-        <v>0.1983099900354758</v>
+        <v>0.300462796684394</v>
       </c>
       <c r="O4">
-        <v>0.2378335027816085</v>
+        <v>-0.4969817182828002</v>
       </c>
       <c r="P4">
-        <v>0.01292686511653365</v>
+        <v>0.01528632574724384</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1040</v>
+        <v>1918</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.1696426558894765</v>
+        <v>0.5591213587242821</v>
       </c>
       <c r="E5">
-        <v>0.1992524029338776</v>
+        <v>0.6648329534225919</v>
       </c>
       <c r="F5">
-        <v>0.003908394937233216</v>
+        <v>0.00498949274371758</v>
       </c>
       <c r="G5">
-        <v>8.240665318532002</v>
+        <v>-51.07930329695934</v>
       </c>
       <c r="H5">
-        <v>-0.3078564663891035</v>
+        <v>9.041276899677507</v>
       </c>
       <c r="I5">
-        <v>1.395135039551598E-24</v>
+        <v>1.539135539083836E-58</v>
       </c>
       <c r="J5">
-        <v>3.440000057220459</v>
+        <v>49.08000183105469</v>
       </c>
       <c r="K5">
-        <v>14.07999992370605</v>
+        <v>10.67000007629395</v>
       </c>
       <c r="L5">
-        <v>1.064305714079081</v>
+        <v>5.384979818045608</v>
       </c>
       <c r="M5">
-        <v>-0.5771328573152648</v>
+        <v>-4.883865576254664</v>
       </c>
       <c r="N5">
-        <v>0.2985494318186404</v>
+        <v>2.213638355748178</v>
       </c>
       <c r="O5">
-        <v>-0.4660462380405503</v>
+        <v>3.688879918660334</v>
       </c>
       <c r="P5">
-        <v>0.01476860671829426</v>
+        <v>0.01575663633726145</v>
       </c>
       <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -773,332 +767,332 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.1992524029338776</v>
+        <v>0.2030663209634794</v>
       </c>
       <c r="E6">
-        <v>0.4537146045556995</v>
+        <v>0.4370915828221422</v>
       </c>
       <c r="F6">
-        <v>0.005056631424680278</v>
+        <v>0.006122583574926839</v>
       </c>
       <c r="G6">
-        <v>9.463810459446995</v>
+        <v>9.445137776629322</v>
       </c>
       <c r="H6">
-        <v>0.4931097628334514</v>
+        <v>0.4942475446935933</v>
       </c>
       <c r="I6">
-        <v>6.204875975219633E-37</v>
+        <v>5.018845135090136E-37</v>
       </c>
       <c r="J6">
-        <v>14.07999992370605</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="K6">
-        <v>10.60000038146973</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="L6">
-        <v>1.972366414750249</v>
+        <v>1.979285811039462</v>
       </c>
       <c r="M6">
-        <v>-1.122182246990512</v>
+        <v>-1.114511914847217</v>
       </c>
       <c r="N6">
-        <v>0.5766920493412814</v>
+        <v>0.5784904137300169</v>
       </c>
       <c r="O6">
-        <v>-0.6107742098819715</v>
+        <v>-0.7877233673316129</v>
       </c>
       <c r="P6">
-        <v>0.01548840647504308</v>
+        <v>0.01581154431196822</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1999</v>
+        <v>1906</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>0.3402610901276192</v>
+        <v>0.5591213587242821</v>
       </c>
       <c r="E7">
-        <v>0.9250314339988623</v>
+        <v>0.3355334003137352</v>
       </c>
       <c r="F7">
-        <v>0.009818884592253326</v>
+        <v>0.005669907595433517</v>
       </c>
       <c r="G7">
-        <v>9.495736022925918</v>
+        <v>-60.78706387124083</v>
       </c>
       <c r="H7">
-        <v>0.07816933543893809</v>
+        <v>7.783853528679205</v>
       </c>
       <c r="I7">
-        <v>8.211832202142055E-44</v>
+        <v>9.480503539221779E-44</v>
       </c>
       <c r="J7">
-        <v>13.19999980926514</v>
+        <v>49.08000183105469</v>
       </c>
       <c r="K7">
-        <v>56.93999862670898</v>
+        <v>13.21000003814697</v>
       </c>
       <c r="L7">
-        <v>0.6077532550083138</v>
+        <v>8.160197709212326</v>
       </c>
       <c r="M7">
-        <v>-1.065509208493342</v>
+        <v>-5.879775544913016</v>
       </c>
       <c r="N7">
-        <v>0.3138418806552409</v>
+        <v>2.826967145485371</v>
       </c>
       <c r="O7">
-        <v>-0.7466980662046696</v>
+        <v>7.042360291512779</v>
       </c>
       <c r="P7">
-        <v>0.01556805317333233</v>
+        <v>0.01648517098852011</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1918</v>
+        <v>1998</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6208171467862326</v>
+        <v>0.3355334003137352</v>
       </c>
       <c r="E8">
-        <v>0.6767643605202024</v>
+        <v>0.7892213332379041</v>
       </c>
       <c r="F8">
-        <v>0.006469768901019978</v>
+        <v>0.004400651081237292</v>
       </c>
       <c r="G8">
-        <v>-50.75425402632857</v>
+        <v>6.347828333863179</v>
       </c>
       <c r="H8">
-        <v>9.006947441586224</v>
+        <v>0.1374501270621059</v>
       </c>
       <c r="I8">
-        <v>2.400211852808984E-58</v>
+        <v>1.282088175631339E-46</v>
       </c>
       <c r="J8">
-        <v>50.11999893188477</v>
+        <v>13.21000003814697</v>
       </c>
       <c r="K8">
-        <v>10.69999980926514</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="L8">
-        <v>5.38318302328571</v>
+        <v>0.6266969360248318</v>
       </c>
       <c r="M8">
-        <v>-4.868922104691848</v>
+        <v>-0.8878408860146081</v>
       </c>
       <c r="N8">
-        <v>2.199297494455489</v>
+        <v>0.3000767402953286</v>
       </c>
       <c r="O8">
-        <v>4.499917051179622</v>
+        <v>-0.3787010312943968</v>
       </c>
       <c r="P8">
-        <v>0.01582097099331401</v>
+        <v>0.01664691773363943</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>25</v>
+        <v>1529</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.7733637744054467</v>
+        <v>0.6897565168267011</v>
       </c>
       <c r="E9">
-        <v>0.1932675535086509</v>
+        <v>0.153143582102832</v>
       </c>
       <c r="F9">
-        <v>0.002623146989372196</v>
+        <v>0.005853800836754495</v>
       </c>
       <c r="G9">
-        <v>1.612155638154619</v>
+        <v>-1.374782693557515</v>
       </c>
       <c r="H9">
-        <v>0.5151723522002022</v>
+        <v>0.81863459758235</v>
       </c>
       <c r="I9">
-        <v>7.067723689512909E-38</v>
+        <v>2.307467232579413E-25</v>
       </c>
       <c r="J9">
-        <v>12.97999954223633</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="K9">
-        <v>21.22999954223633</v>
+        <v>17.35000038146973</v>
       </c>
       <c r="L9">
-        <v>1.370142250032691</v>
+        <v>1.112144279166385</v>
       </c>
       <c r="M9">
-        <v>-0.9883546405662393</v>
+        <v>-1.138528306397273</v>
       </c>
       <c r="N9">
-        <v>0.3596455408065435</v>
+        <v>0.4590956140246802</v>
       </c>
       <c r="O9">
-        <v>0.4307351026986055</v>
+        <v>-0.7985281538093822</v>
       </c>
       <c r="P9">
-        <v>0.01642490408486788</v>
+        <v>0.01717124274226069</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1529</v>
+        <v>876</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.6717541817955718</v>
+        <v>0.7469881537573708</v>
       </c>
       <c r="E10">
-        <v>0.1730633063421978</v>
+        <v>0.6342049929194156</v>
       </c>
       <c r="F10">
-        <v>0.004312878948996945</v>
+        <v>0.0001154639984139936</v>
       </c>
       <c r="G10">
-        <v>-1.210964946066337</v>
+        <v>35.03605493581923</v>
       </c>
       <c r="H10">
-        <v>0.8098146877357751</v>
+        <v>-8.053142932272626</v>
       </c>
       <c r="I10">
-        <v>4.287273825539905E-25</v>
+        <v>3.080657345263055E-38</v>
       </c>
       <c r="J10">
-        <v>12.09000015258789</v>
+        <v>25.5</v>
       </c>
       <c r="K10">
-        <v>17.19000053405762</v>
+        <v>1.460000038146973</v>
       </c>
       <c r="L10">
-        <v>1.10102631815486</v>
+        <v>3.006510501062785</v>
       </c>
       <c r="M10">
-        <v>-1.149320614685848</v>
+        <v>-3.799962813079581</v>
       </c>
       <c r="N10">
-        <v>0.4556951769605517</v>
+        <v>1.539738369185269</v>
       </c>
       <c r="O10">
-        <v>-0.6197498160114492</v>
+        <v>2.221534052501827</v>
       </c>
       <c r="P10">
-        <v>0.01671993099913725</v>
+        <v>0.02993440573707792</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1651</v>
+        <v>3037</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1932675535086509</v>
+        <v>0.3166188573898083</v>
       </c>
       <c r="E11">
-        <v>0.6083210590990181</v>
+        <v>0.4724593259611373</v>
       </c>
       <c r="F11">
-        <v>0.003693417606366862</v>
+        <v>0.0001196706633711291</v>
       </c>
       <c r="G11">
-        <v>9.621358765225049</v>
+        <v>24.98439175943069</v>
       </c>
       <c r="H11">
-        <v>1.463823152456683</v>
+        <v>0.5392584757873017</v>
       </c>
       <c r="I11">
-        <v>1.246919451969171E-33</v>
+        <v>6.737322186612224E-18</v>
       </c>
       <c r="J11">
-        <v>21.22999954223633</v>
+        <v>34.77999877929688</v>
       </c>
       <c r="K11">
-        <v>8.489999771118164</v>
+        <v>16.6299991607666</v>
       </c>
       <c r="L11">
-        <v>1.257964242176094</v>
+        <v>1.471769501966513</v>
       </c>
       <c r="M11">
-        <v>-1.775896435178716</v>
+        <v>-1.300597355526989</v>
       </c>
       <c r="N11">
-        <v>0.6267234181113333</v>
+        <v>0.6132100095501414</v>
       </c>
       <c r="O11">
-        <v>-0.8192174523034286</v>
+        <v>0.827739020087078</v>
       </c>
       <c r="P11">
-        <v>0.017520516006572</v>
+        <v>0.03276189142306533</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -73,30 +73,30 @@
     <t>IGTI11</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
     <t>NTCO3</t>
   </si>
   <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
+    <t>CYRE3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
     <t>WEGE3</t>
   </si>
   <si>
@@ -106,13 +106,10 @@
     <t>YDUQ3</t>
   </si>
   <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
     <t>VIVT3</t>
-  </si>
-  <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
   </si>
   <si>
     <t>TIMS3</t>
@@ -543,49 +540,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.2488518484882589</v>
+        <v>0.2471637299624589</v>
       </c>
       <c r="E2">
-        <v>0.2972686594080951</v>
+        <v>0.3401582253645744</v>
       </c>
       <c r="F2">
-        <v>0.0004498900143151063</v>
+        <v>0.0006906580455798681</v>
       </c>
       <c r="G2">
-        <v>5.928378257320476</v>
+        <v>6.1104778512594</v>
       </c>
       <c r="H2">
-        <v>5.116756402499628</v>
+        <v>5.058391549567701</v>
       </c>
       <c r="I2">
-        <v>2.504777268394583E-40</v>
+        <v>6.64043153770365E-40</v>
       </c>
       <c r="J2">
-        <v>21.20000076293945</v>
+        <v>21.13999938964844</v>
       </c>
       <c r="K2">
-        <v>2.839999914169312</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L2">
-        <v>0.9902954898288243</v>
+        <v>0.97975029929108</v>
       </c>
       <c r="M2">
-        <v>-1.202502731341802</v>
+        <v>-1.206612138927525</v>
       </c>
       <c r="N2">
-        <v>0.4788606680161243</v>
+        <v>0.4827921923870438</v>
       </c>
       <c r="O2">
-        <v>0.7400347616947585</v>
+        <v>0.86602544080238</v>
       </c>
       <c r="P2">
-        <v>0.01127550962611933</v>
+        <v>0.01171737993039787</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,335 +590,335 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1999</v>
+        <v>1142</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.3355334003137352</v>
+        <v>0.830830575679421</v>
       </c>
       <c r="E3">
-        <v>0.8479082844259149</v>
+        <v>0.5246707073400042</v>
       </c>
       <c r="F3">
-        <v>0.005116597536067359</v>
+        <v>0.0008933660276840897</v>
       </c>
       <c r="G3">
-        <v>9.517066293612562</v>
+        <v>3.002143866315816</v>
       </c>
       <c r="H3">
-        <v>0.07763527032022084</v>
+        <v>0.1641202893532135</v>
       </c>
       <c r="I3">
-        <v>1.433399871774973E-43</v>
+        <v>1.786140525513483E-67</v>
       </c>
       <c r="J3">
-        <v>13.21000003814697</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="L3">
-        <v>0.6159140608291729</v>
+        <v>0.8229011817386258</v>
       </c>
       <c r="M3">
-        <v>-1.058760866619787</v>
+        <v>-0.8831265450453607</v>
       </c>
       <c r="N3">
-        <v>0.3155841367689891</v>
+        <v>0.3364203755568808</v>
       </c>
       <c r="O3">
-        <v>-0.4993708527575142</v>
+        <v>0.4113044665277839</v>
       </c>
       <c r="P3">
-        <v>0.01506992268916917</v>
+        <v>0.01250011586231947</v>
       </c>
       <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1040</v>
+        <v>1925</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.1693839867936039</v>
+        <v>0.5246707073400042</v>
       </c>
       <c r="E4">
-        <v>0.2030663209634794</v>
+        <v>0.8595803971168607</v>
       </c>
       <c r="F4">
-        <v>0.00494440623016012</v>
+        <v>0.001228691362380568</v>
       </c>
       <c r="G4">
-        <v>8.182232194410382</v>
+        <v>3.808255443499636</v>
       </c>
       <c r="H4">
-        <v>-0.3042261241490705</v>
+        <v>3.060890020228289</v>
       </c>
       <c r="I4">
-        <v>3.553573803707229E-24</v>
+        <v>1.132643268731706E-56</v>
       </c>
       <c r="J4">
-        <v>3.420000076293945</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="K4">
-        <v>14.02000045776367</v>
+        <v>15.6899995803833</v>
       </c>
       <c r="L4">
-        <v>1.063273835355665</v>
+        <v>5.383078516608862</v>
       </c>
       <c r="M4">
-        <v>-0.5771119403897211</v>
+        <v>-6.580691997779013</v>
       </c>
       <c r="N4">
-        <v>0.300462796684394</v>
+        <v>2.302100423558413</v>
       </c>
       <c r="O4">
-        <v>-0.4969817182828002</v>
+        <v>-3.353619034244588</v>
       </c>
       <c r="P4">
-        <v>0.01528632574724384</v>
+        <v>0.01343303515047781</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1918</v>
+        <v>1999</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5591213587242821</v>
+        <v>0.3310975601304437</v>
       </c>
       <c r="E5">
-        <v>0.6648329534225919</v>
+        <v>0.851085389257616</v>
       </c>
       <c r="F5">
-        <v>0.00498949274371758</v>
+        <v>0.007966133894542463</v>
       </c>
       <c r="G5">
-        <v>-51.07930329695934</v>
+        <v>9.543976466622732</v>
       </c>
       <c r="H5">
-        <v>9.041276899677507</v>
+        <v>0.07696317139581751</v>
       </c>
       <c r="I5">
-        <v>1.539135539083836E-58</v>
+        <v>5.133185696351198E-43</v>
       </c>
       <c r="J5">
-        <v>49.08000183105469</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K5">
-        <v>10.67000007629395</v>
+        <v>54.11000061035156</v>
       </c>
       <c r="L5">
-        <v>5.384979818045608</v>
+        <v>0.6261171912449868</v>
       </c>
       <c r="M5">
-        <v>-4.883865576254664</v>
+        <v>-1.050335263824614</v>
       </c>
       <c r="N5">
-        <v>2.213638355748178</v>
+        <v>0.3189282261609492</v>
       </c>
       <c r="O5">
-        <v>3.688879918660334</v>
+        <v>-0.628453794118955</v>
       </c>
       <c r="P5">
-        <v>0.01575663633726145</v>
+        <v>0.01578657034074838</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2781</v>
+        <v>1918</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.2030663209634794</v>
+        <v>0.5246707073400042</v>
       </c>
       <c r="E6">
-        <v>0.4370915828221422</v>
+        <v>0.6453788308758621</v>
       </c>
       <c r="F6">
-        <v>0.006122583574926839</v>
+        <v>0.00515610501939508</v>
       </c>
       <c r="G6">
-        <v>9.445137776629322</v>
+        <v>-51.34541029058748</v>
       </c>
       <c r="H6">
-        <v>0.4942475446935933</v>
+        <v>9.069756398691021</v>
       </c>
       <c r="I6">
-        <v>5.018845135090136E-37</v>
+        <v>1.054820123893657E-58</v>
       </c>
       <c r="J6">
-        <v>14.02000045776367</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="K6">
-        <v>10.85000038146973</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="L6">
-        <v>1.979285811039462</v>
+        <v>5.382918623780981</v>
       </c>
       <c r="M6">
-        <v>-1.114511914847217</v>
+        <v>-4.899805738870356</v>
       </c>
       <c r="N6">
-        <v>0.5784904137300169</v>
+        <v>2.226573480190464</v>
       </c>
       <c r="O6">
-        <v>-0.7877233673316129</v>
+        <v>3.595297556565811</v>
       </c>
       <c r="P6">
-        <v>0.01581154431196822</v>
+        <v>0.01598787317371404</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1906</v>
+        <v>2781</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5591213587242821</v>
+        <v>0.2349753090365038</v>
       </c>
       <c r="E7">
-        <v>0.3355334003137352</v>
+        <v>0.4442202275890273</v>
       </c>
       <c r="F7">
-        <v>0.005669907595433517</v>
+        <v>0.008042602399841099</v>
       </c>
       <c r="G7">
-        <v>-60.78706387124083</v>
+        <v>9.416061752735855</v>
       </c>
       <c r="H7">
-        <v>7.783853528679205</v>
+        <v>0.4961837496120537</v>
       </c>
       <c r="I7">
-        <v>9.480503539221779E-44</v>
+        <v>4.618451484328823E-37</v>
       </c>
       <c r="J7">
-        <v>49.08000183105469</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="K7">
-        <v>13.21000003814697</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="L7">
-        <v>8.160197709212326</v>
+        <v>1.988360838272953</v>
       </c>
       <c r="M7">
-        <v>-5.879775544913016</v>
+        <v>-1.104158992662985</v>
       </c>
       <c r="N7">
-        <v>2.826967145485371</v>
+        <v>0.5822255956365487</v>
       </c>
       <c r="O7">
-        <v>7.042360291512779</v>
+        <v>-0.9705711276216009</v>
       </c>
       <c r="P7">
-        <v>0.01648517098852011</v>
+        <v>0.01629467031918933</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1998</v>
+        <v>1529</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3355334003137352</v>
+        <v>0.7534206049290002</v>
       </c>
       <c r="E8">
-        <v>0.7892213332379041</v>
+        <v>0.1967300659076904</v>
       </c>
       <c r="F8">
-        <v>0.004400651081237292</v>
+        <v>0.004822718034144268</v>
       </c>
       <c r="G8">
-        <v>6.347828333863179</v>
+        <v>-1.602020339601958</v>
       </c>
       <c r="H8">
-        <v>0.1374501270621059</v>
+        <v>0.8310307948920764</v>
       </c>
       <c r="I8">
-        <v>1.282088175631339E-46</v>
+        <v>5.243474973294842E-26</v>
       </c>
       <c r="J8">
-        <v>13.21000003814697</v>
+        <v>11.81999969482422</v>
       </c>
       <c r="K8">
-        <v>52.68000030517578</v>
+        <v>17.01000022888184</v>
       </c>
       <c r="L8">
-        <v>0.6266969360248318</v>
+        <v>1.124765595193583</v>
       </c>
       <c r="M8">
-        <v>-0.8878408860146081</v>
+        <v>-1.126364688405356</v>
       </c>
       <c r="N8">
-        <v>0.3000767402953286</v>
+        <v>0.4614705509157639</v>
       </c>
       <c r="O8">
-        <v>-0.3787010312943968</v>
+        <v>-0.7138139768958993</v>
       </c>
       <c r="P8">
-        <v>0.01664691773363943</v>
+        <v>0.01705279518213182</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -929,55 +926,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1529</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6897565168267011</v>
+        <v>0.3310975601304437</v>
       </c>
       <c r="E9">
-        <v>0.153143582102832</v>
+        <v>0.7864541415750748</v>
       </c>
       <c r="F9">
-        <v>0.005853800836754495</v>
+        <v>0.00633202761753988</v>
       </c>
       <c r="G9">
-        <v>-1.374782693557515</v>
+        <v>6.378877511510961</v>
       </c>
       <c r="H9">
-        <v>0.81863459758235</v>
+        <v>0.1367504442244459</v>
       </c>
       <c r="I9">
-        <v>2.307467232579413E-25</v>
+        <v>2.382343858918821E-46</v>
       </c>
       <c r="J9">
-        <v>12.02999973297119</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K9">
-        <v>17.35000038146973</v>
+        <v>52.63999938964844</v>
       </c>
       <c r="L9">
-        <v>1.112144279166385</v>
+        <v>0.632835902266315</v>
       </c>
       <c r="M9">
-        <v>-1.138528306397273</v>
+        <v>-0.8853444627068541</v>
       </c>
       <c r="N9">
-        <v>0.4590956140246802</v>
+        <v>0.3019513575827918</v>
       </c>
       <c r="O9">
-        <v>-0.7985281538093822</v>
+        <v>-0.49742088831389</v>
       </c>
       <c r="P9">
-        <v>0.01717124274226069</v>
+        <v>0.01723718863604038</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
         <v>31</v>
@@ -985,114 +982,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>876</v>
+        <v>1906</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0.7469881537573708</v>
+        <v>0.5246707073400042</v>
       </c>
       <c r="E10">
-        <v>0.6342049929194156</v>
+        <v>0.3310975601304437</v>
       </c>
       <c r="F10">
-        <v>0.0001154639984139936</v>
+        <v>0.008405575188933923</v>
       </c>
       <c r="G10">
-        <v>35.03605493581923</v>
+        <v>-60.62969730302549</v>
       </c>
       <c r="H10">
-        <v>-8.053142932272626</v>
+        <v>7.775872376296015</v>
       </c>
       <c r="I10">
-        <v>3.080657345263055E-38</v>
+        <v>6.388429621239758E-43</v>
       </c>
       <c r="J10">
-        <v>25.5</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="K10">
-        <v>1.460000038146973</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="L10">
-        <v>3.006510501062785</v>
+        <v>8.1081823509328</v>
       </c>
       <c r="M10">
-        <v>-3.799962813079581</v>
+        <v>-5.934743928660957</v>
       </c>
       <c r="N10">
-        <v>1.539738369185269</v>
+        <v>2.885132984214237</v>
       </c>
       <c r="O10">
-        <v>2.221534052501827</v>
+        <v>7.40128675656193</v>
       </c>
       <c r="P10">
-        <v>0.02993440573707792</v>
+        <v>0.01750495300667365</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3037</v>
+        <v>1695</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3166188573898083</v>
+        <v>0.2142408381348865</v>
       </c>
       <c r="E11">
-        <v>0.4724593259611373</v>
+        <v>0.473589646354744</v>
       </c>
       <c r="F11">
-        <v>0.0001196706633711291</v>
+        <v>0.008875716740275834</v>
       </c>
       <c r="G11">
-        <v>24.98439175943069</v>
+        <v>6.391059248711986</v>
       </c>
       <c r="H11">
-        <v>0.5392584757873017</v>
+        <v>0.8373795347685402</v>
       </c>
       <c r="I11">
-        <v>6.737322186612224E-18</v>
+        <v>6.918023101170776E-27</v>
       </c>
       <c r="J11">
-        <v>34.77999877929688</v>
+        <v>21.73999977111816</v>
       </c>
       <c r="K11">
-        <v>16.6299991607666</v>
+        <v>16.57999992370605</v>
       </c>
       <c r="L11">
-        <v>1.471769501966513</v>
+        <v>1.553320630077462</v>
       </c>
       <c r="M11">
-        <v>-1.300597355526989</v>
+        <v>-1.781387813316194</v>
       </c>
       <c r="N11">
-        <v>0.6132100095501414</v>
+        <v>0.7059979716652846</v>
       </c>
       <c r="O11">
-        <v>0.827739020087078</v>
+        <v>1.46518789983077</v>
       </c>
       <c r="P11">
-        <v>0.03276189142306533</v>
+        <v>0.01953199397635829</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>NTCO3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
   </si>
   <si>
     <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
   </si>
 </sst>
 </file>
@@ -534,562 +531,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2398</v>
+        <v>1807</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.2471637299624589</v>
+        <v>0.512682402830398</v>
       </c>
       <c r="E2">
-        <v>0.3401582253645744</v>
+        <v>0.5768512821600698</v>
       </c>
       <c r="F2">
-        <v>0.0006906580455798681</v>
+        <v>6.578491064479513E-08</v>
       </c>
       <c r="G2">
-        <v>6.1104778512594</v>
+        <v>-1.644891779801996</v>
       </c>
       <c r="H2">
-        <v>5.058391549567701</v>
+        <v>0.9390816735037386</v>
       </c>
       <c r="I2">
-        <v>6.64043153770365E-40</v>
+        <v>1.238363084335058E-130</v>
       </c>
       <c r="J2">
-        <v>21.13999938964844</v>
+        <v>36.72000122070312</v>
       </c>
       <c r="K2">
-        <v>2.799999952316284</v>
+        <v>41.16999816894531</v>
       </c>
       <c r="L2">
-        <v>0.97975029929108</v>
+        <v>0.8449450599483654</v>
       </c>
       <c r="M2">
-        <v>-1.206612138927525</v>
+        <v>-0.5804836654350822</v>
       </c>
       <c r="N2">
-        <v>0.4827921923870438</v>
+        <v>0.2354840946414644</v>
       </c>
       <c r="O2">
-        <v>0.86602544080238</v>
+        <v>-0.2970977781338959</v>
       </c>
       <c r="P2">
-        <v>0.01171737993039787</v>
+        <v>0.007055806956770827</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1142</v>
+        <v>1853</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.830830575679421</v>
+        <v>0.512682402830398</v>
       </c>
       <c r="E3">
-        <v>0.5246707073400042</v>
+        <v>0.6804742245439873</v>
       </c>
       <c r="F3">
-        <v>0.0008933660276840897</v>
+        <v>0.0003271604598110923</v>
       </c>
       <c r="G3">
-        <v>3.002143866315816</v>
+        <v>12.81135060070111</v>
       </c>
       <c r="H3">
-        <v>0.1641202893532135</v>
+        <v>1.118272663551331</v>
       </c>
       <c r="I3">
-        <v>1.786140525513483E-67</v>
+        <v>6.168438085172739E-59</v>
       </c>
       <c r="J3">
-        <v>11.36999988555908</v>
+        <v>36.72000122070312</v>
       </c>
       <c r="K3">
-        <v>48.47999954223633</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="L3">
-        <v>0.8229011817386258</v>
+        <v>1.892044881165738</v>
       </c>
       <c r="M3">
-        <v>-0.8831265450453607</v>
+        <v>-1.675402022640313</v>
       </c>
       <c r="N3">
-        <v>0.3364203755568808</v>
+        <v>0.7785364876263474</v>
       </c>
       <c r="O3">
-        <v>0.4113044665277839</v>
+        <v>-0.8275416362452006</v>
       </c>
       <c r="P3">
-        <v>0.01250011586231947</v>
+        <v>0.01119023011023195</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1925</v>
+        <v>1385</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.5246707073400042</v>
+        <v>0.4679798293407693</v>
       </c>
       <c r="E4">
-        <v>0.8595803971168607</v>
+        <v>0.3914871399354513</v>
       </c>
       <c r="F4">
-        <v>0.001228691362380568</v>
+        <v>0.001566605846580606</v>
       </c>
       <c r="G4">
-        <v>3.808255443499636</v>
+        <v>0.8270251749557105</v>
       </c>
       <c r="H4">
-        <v>3.060890020228289</v>
+        <v>0.5968466015475222</v>
       </c>
       <c r="I4">
-        <v>1.132643268731706E-56</v>
+        <v>2.273627685747331E-60</v>
       </c>
       <c r="J4">
-        <v>48.47999954223633</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="K4">
-        <v>15.6899995803833</v>
+        <v>14.23999977111816</v>
       </c>
       <c r="L4">
-        <v>5.383078516608862</v>
+        <v>0.4735185062727609</v>
       </c>
       <c r="M4">
-        <v>-6.580691997779013</v>
+        <v>-0.6028038079056621</v>
       </c>
       <c r="N4">
-        <v>2.302100423558413</v>
+        <v>0.1981834380545816</v>
       </c>
       <c r="O4">
-        <v>-3.353619034244588</v>
+        <v>0.2338797752316175</v>
       </c>
       <c r="P4">
-        <v>0.01343303515047781</v>
+        <v>0.01308972075812894</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1999</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.3310975601304437</v>
+        <v>0.6695764121838914</v>
       </c>
       <c r="E5">
-        <v>0.851085389257616</v>
+        <v>0.8612946154461799</v>
       </c>
       <c r="F5">
-        <v>0.007966133894542463</v>
+        <v>0.00413282684349115</v>
       </c>
       <c r="G5">
-        <v>9.543976466622732</v>
+        <v>8.223411099425274</v>
       </c>
       <c r="H5">
-        <v>0.07696317139581751</v>
+        <v>0.2621617937308611</v>
       </c>
       <c r="I5">
-        <v>5.133185696351198E-43</v>
+        <v>7.933458404645691E-61</v>
       </c>
       <c r="J5">
-        <v>13.07999992370605</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="K5">
-        <v>54.11000061035156</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="L5">
-        <v>0.6261171912449868</v>
+        <v>0.6917578080590303</v>
       </c>
       <c r="M5">
-        <v>-1.050335263824614</v>
+        <v>-0.4517551856791808</v>
       </c>
       <c r="N5">
-        <v>0.3189282261609492</v>
+        <v>0.2462395664432245</v>
       </c>
       <c r="O5">
-        <v>-0.628453794118955</v>
+        <v>-0.4311613820490017</v>
       </c>
       <c r="P5">
-        <v>0.01578657034074838</v>
+        <v>0.01451563067496029</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1918</v>
+        <v>2987</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5246707073400042</v>
+        <v>0.2935654071018373</v>
       </c>
       <c r="E6">
-        <v>0.6453788308758621</v>
+        <v>0.6804742245439873</v>
       </c>
       <c r="F6">
-        <v>0.00515610501939508</v>
+        <v>0.0003491826197154999</v>
       </c>
       <c r="G6">
-        <v>-51.34541029058748</v>
+        <v>11.26022737332243</v>
       </c>
       <c r="H6">
-        <v>9.069756398691021</v>
+        <v>0.7406975921981768</v>
       </c>
       <c r="I6">
-        <v>1.054820123893657E-58</v>
+        <v>2.168998851596949E-42</v>
       </c>
       <c r="J6">
-        <v>48.47999954223633</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="K6">
-        <v>10.60999965667725</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="L6">
-        <v>5.382918623780981</v>
+        <v>1.234724183458781</v>
       </c>
       <c r="M6">
-        <v>-4.899805738870356</v>
+        <v>-2.667907431187849</v>
       </c>
       <c r="N6">
-        <v>2.226573480190464</v>
+        <v>0.7277011966277596</v>
       </c>
       <c r="O6">
-        <v>3.595297556565811</v>
+        <v>-0.8444594973037116</v>
       </c>
       <c r="P6">
-        <v>0.01598787317371404</v>
+        <v>0.01477230798945136</v>
       </c>
       <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
         <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2781</v>
+        <v>800</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.2349753090365038</v>
+        <v>0.5108864422786027</v>
       </c>
       <c r="E7">
-        <v>0.4442202275890273</v>
+        <v>0.6804742245439873</v>
       </c>
       <c r="F7">
-        <v>0.008042602399841099</v>
+        <v>0.009492666352385036</v>
       </c>
       <c r="G7">
-        <v>9.416061752735855</v>
+        <v>15.94365405660449</v>
       </c>
       <c r="H7">
-        <v>0.4961837496120537</v>
+        <v>0.7544342551372125</v>
       </c>
       <c r="I7">
-        <v>4.618451484328823E-37</v>
+        <v>3.80606331828477E-38</v>
       </c>
       <c r="J7">
-        <v>13.71000003814697</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="K7">
-        <v>10.60999965667725</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="L7">
-        <v>1.988360838272953</v>
+        <v>1.879136700878028</v>
       </c>
       <c r="M7">
-        <v>-1.104158992662985</v>
+        <v>-1.500962843573241</v>
       </c>
       <c r="N7">
-        <v>0.5822255956365487</v>
+        <v>0.8173241273936936</v>
       </c>
       <c r="O7">
-        <v>-0.9705711276216009</v>
+        <v>-0.9417398793284413</v>
       </c>
       <c r="P7">
-        <v>0.01629467031918933</v>
+        <v>0.01511445555719565</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1529</v>
+        <v>2412</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.7534206049290002</v>
+        <v>0.2625243260886421</v>
       </c>
       <c r="E8">
-        <v>0.1967300659076904</v>
+        <v>0.6804742245439873</v>
       </c>
       <c r="F8">
-        <v>0.004822718034144268</v>
+        <v>0.003884219643811129</v>
       </c>
       <c r="G8">
-        <v>-1.602020339601958</v>
+        <v>10.99049121832705</v>
       </c>
       <c r="H8">
-        <v>0.8310307948920764</v>
+        <v>0.4533711052774985</v>
       </c>
       <c r="I8">
-        <v>5.243474973294842E-26</v>
+        <v>1.332091323113012E-36</v>
       </c>
       <c r="J8">
-        <v>11.81999969482422</v>
+        <v>20.39999961853027</v>
       </c>
       <c r="K8">
-        <v>17.01000022888184</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="L8">
-        <v>1.124765595193583</v>
+        <v>1.209502771227811</v>
       </c>
       <c r="M8">
-        <v>-1.126364688405356</v>
+        <v>-0.8841005960698709</v>
       </c>
       <c r="N8">
-        <v>0.4614705509157639</v>
+        <v>0.5096634292040858</v>
       </c>
       <c r="O8">
-        <v>-0.7138139768958993</v>
+        <v>-0.6190608290192152</v>
       </c>
       <c r="P8">
-        <v>0.01705279518213182</v>
+        <v>0.01512944532873366</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1998</v>
+        <v>1040</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.3310975601304437</v>
+        <v>0.1460814590673319</v>
       </c>
       <c r="E9">
-        <v>0.7864541415750748</v>
+        <v>0.3535997437716192</v>
       </c>
       <c r="F9">
-        <v>0.00633202761753988</v>
+        <v>0.005627259562402897</v>
       </c>
       <c r="G9">
-        <v>6.378877511510961</v>
+        <v>7.804702674655214</v>
       </c>
       <c r="H9">
-        <v>0.1367504442244459</v>
+        <v>-0.2790486280856796</v>
       </c>
       <c r="I9">
-        <v>2.382343858918821E-46</v>
+        <v>2.941583215503124E-21</v>
       </c>
       <c r="J9">
-        <v>13.07999992370605</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="K9">
-        <v>52.63999938964844</v>
+        <v>13.61999988555908</v>
       </c>
       <c r="L9">
-        <v>0.632835902266315</v>
+        <v>1.028395990722285</v>
       </c>
       <c r="M9">
-        <v>-0.8853444627068541</v>
+        <v>-0.6046883361362942</v>
       </c>
       <c r="N9">
-        <v>0.3019513575827918</v>
+        <v>0.3007327114847231</v>
       </c>
       <c r="O9">
-        <v>-0.49742088831389</v>
+        <v>-0.6040602966954074</v>
       </c>
       <c r="P9">
-        <v>0.01723718863604038</v>
+        <v>0.01585940802282705</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1906</v>
+        <v>2678</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>0.5246707073400042</v>
+        <v>0.7257484381887196</v>
       </c>
       <c r="E10">
-        <v>0.3310975601304437</v>
+        <v>0.3535997437716192</v>
       </c>
       <c r="F10">
-        <v>0.008405575188933923</v>
+        <v>0.006268420231813646</v>
       </c>
       <c r="G10">
-        <v>-60.62969730302549</v>
+        <v>31.75285339129615</v>
       </c>
       <c r="H10">
-        <v>7.775872376296015</v>
+        <v>-1.285322394042523</v>
       </c>
       <c r="I10">
-        <v>6.388429621239758E-43</v>
+        <v>2.430522647058319E-30</v>
       </c>
       <c r="J10">
-        <v>48.47999954223633</v>
+        <v>15.36999988555908</v>
       </c>
       <c r="K10">
-        <v>13.07999992370605</v>
+        <v>13.61999988555908</v>
       </c>
       <c r="L10">
-        <v>8.1081823509328</v>
+        <v>1.950974353020566</v>
       </c>
       <c r="M10">
-        <v>-5.934743928660957</v>
+        <v>-2.814265830949019</v>
       </c>
       <c r="N10">
-        <v>2.885132984214237</v>
+        <v>1.051726922441873</v>
       </c>
       <c r="O10">
-        <v>7.40128675656193</v>
+        <v>1.123237354028625</v>
       </c>
       <c r="P10">
-        <v>0.01750495300667365</v>
+        <v>0.01630134510197917</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1695</v>
+        <v>2781</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.2142408381348865</v>
+        <v>0.3535997437716192</v>
       </c>
       <c r="E11">
-        <v>0.473589646354744</v>
+        <v>0.1824930505656624</v>
       </c>
       <c r="F11">
-        <v>0.008875716740275834</v>
+        <v>0.009878373013829289</v>
       </c>
       <c r="G11">
-        <v>6.391059248711986</v>
+        <v>9.420258306313274</v>
       </c>
       <c r="H11">
-        <v>0.8373795347685402</v>
+        <v>0.4949156419438323</v>
       </c>
       <c r="I11">
-        <v>6.918023101170776E-27</v>
+        <v>1.751396269206883E-35</v>
       </c>
       <c r="J11">
-        <v>21.73999977111816</v>
+        <v>13.61999988555908</v>
       </c>
       <c r="K11">
-        <v>16.57999992370605</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="L11">
-        <v>1.553320630077462</v>
+        <v>1.997263836811513</v>
       </c>
       <c r="M11">
-        <v>-1.781387813316194</v>
+        <v>-1.096092944991952</v>
       </c>
       <c r="N11">
-        <v>0.7059979716652846</v>
+        <v>0.5887970932347406</v>
       </c>
       <c r="O11">
-        <v>1.46518789983077</v>
+        <v>-0.8187031999804528</v>
       </c>
       <c r="P11">
-        <v>0.01953199397635829</v>
+        <v>0.01667228623537787</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
   </si>
   <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>CASH3</t>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
   </si>
   <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
   </si>
 </sst>
 </file>
@@ -531,562 +534,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1807</v>
+        <v>1142</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.512682402830398</v>
+        <v>0.8782189086408216</v>
       </c>
       <c r="E2">
-        <v>0.5768512821600698</v>
+        <v>0.4312043690488757</v>
       </c>
       <c r="F2">
-        <v>6.578491064479513E-08</v>
+        <v>0.0008241514103084322</v>
       </c>
       <c r="G2">
-        <v>-1.644891779801996</v>
+        <v>2.841434797212782</v>
       </c>
       <c r="H2">
-        <v>0.9390816735037386</v>
+        <v>0.1679663424133968</v>
       </c>
       <c r="I2">
-        <v>1.238363084335058E-130</v>
+        <v>1.477666123303469E-65</v>
       </c>
       <c r="J2">
-        <v>36.72000122070312</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="K2">
-        <v>41.16999816894531</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="L2">
-        <v>0.8449450599483654</v>
+        <v>0.8098455724088538</v>
       </c>
       <c r="M2">
-        <v>-0.5804836654350822</v>
+        <v>-0.8761451751270624</v>
       </c>
       <c r="N2">
-        <v>0.2354840946414644</v>
+        <v>0.3412296262000266</v>
       </c>
       <c r="O2">
-        <v>-0.2970977781338959</v>
+        <v>0.5818077067206833</v>
       </c>
       <c r="P2">
-        <v>0.007055806956770827</v>
+        <v>0.01224994239345123</v>
       </c>
       <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1853</v>
+        <v>1385</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.512682402830398</v>
+        <v>0.4743173964630779</v>
       </c>
       <c r="E3">
-        <v>0.6804742245439873</v>
+        <v>0.3898605939382933</v>
       </c>
       <c r="F3">
-        <v>0.0003271604598110923</v>
+        <v>0.0020077448514037</v>
       </c>
       <c r="G3">
-        <v>12.81135060070111</v>
+        <v>0.8189988584499348</v>
       </c>
       <c r="H3">
-        <v>1.118272663551331</v>
+        <v>0.596960028583974</v>
       </c>
       <c r="I3">
-        <v>6.168438085172739E-59</v>
+        <v>2.524213449837152E-59</v>
       </c>
       <c r="J3">
-        <v>36.72000122070312</v>
+        <v>9.75</v>
       </c>
       <c r="K3">
-        <v>22.1200008392334</v>
+        <v>14.55000019073486</v>
       </c>
       <c r="L3">
-        <v>1.892044881165738</v>
+        <v>0.4798706396945462</v>
       </c>
       <c r="M3">
-        <v>-1.675402022640313</v>
+        <v>-0.6047245252679616</v>
       </c>
       <c r="N3">
-        <v>0.7785364876263474</v>
+        <v>0.2003250308878126</v>
       </c>
       <c r="O3">
-        <v>-0.8275416362452006</v>
+        <v>0.2452326117921544</v>
       </c>
       <c r="P3">
-        <v>0.01119023011023195</v>
+        <v>0.01342906216407388</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1385</v>
+        <v>1842</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4679798293407693</v>
+        <v>0.4491495335590719</v>
       </c>
       <c r="E4">
-        <v>0.3914871399354513</v>
+        <v>0.4228856717526408</v>
       </c>
       <c r="F4">
-        <v>0.001566605846580606</v>
+        <v>0.001413249219611058</v>
       </c>
       <c r="G4">
-        <v>0.8270251749557105</v>
+        <v>2.738608520250807</v>
       </c>
       <c r="H4">
-        <v>0.5968466015475222</v>
+        <v>1.263690672554209</v>
       </c>
       <c r="I4">
-        <v>2.273627685747331E-60</v>
+        <v>1.851997580481108E-48</v>
       </c>
       <c r="J4">
-        <v>9.560000419616699</v>
+        <v>37.81999969482422</v>
       </c>
       <c r="K4">
-        <v>14.23999977111816</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="L4">
-        <v>0.4735185062727609</v>
+        <v>2.889714026684295</v>
       </c>
       <c r="M4">
-        <v>-0.6028038079056621</v>
+        <v>-2.221566221957531</v>
       </c>
       <c r="N4">
-        <v>0.1981834380545816</v>
+        <v>0.926657529260139</v>
       </c>
       <c r="O4">
-        <v>0.2338797752316175</v>
+        <v>1.176570526355938</v>
       </c>
       <c r="P4">
-        <v>0.01308972075812894</v>
+        <v>0.01347438092254181</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>47</v>
+        <v>1925</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6695764121838914</v>
+        <v>0.4312043690488757</v>
       </c>
       <c r="E5">
-        <v>0.8612946154461799</v>
+        <v>0.8084311766241248</v>
       </c>
       <c r="F5">
-        <v>0.00413282684349115</v>
+        <v>0.002369887163927259</v>
       </c>
       <c r="G5">
-        <v>8.223411099425274</v>
+        <v>5.236705050532751</v>
       </c>
       <c r="H5">
-        <v>0.2621617937308611</v>
+        <v>2.949198926246486</v>
       </c>
       <c r="I5">
-        <v>7.933458404645691E-61</v>
+        <v>7.814333152673183E-55</v>
       </c>
       <c r="J5">
-        <v>12.53999996185303</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="K5">
-        <v>18.11000061035156</v>
+        <v>15.89999961853027</v>
       </c>
       <c r="L5">
-        <v>0.6917578080590303</v>
+        <v>5.217855229377392</v>
       </c>
       <c r="M5">
-        <v>-0.4517551856791808</v>
+        <v>-6.573911004539184</v>
       </c>
       <c r="N5">
-        <v>0.2462395664432245</v>
+        <v>2.279440257073403</v>
       </c>
       <c r="O5">
-        <v>-0.4311613820490017</v>
+        <v>-3.328967615761215</v>
       </c>
       <c r="P5">
-        <v>0.01451563067496029</v>
+        <v>0.01400045116846647</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2987</v>
+        <v>2430</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.2935654071018373</v>
+        <v>0.7103471679788161</v>
       </c>
       <c r="E6">
-        <v>0.6804742245439873</v>
+        <v>0.6301180393663239</v>
       </c>
       <c r="F6">
-        <v>0.0003491826197154999</v>
+        <v>0.003640434471453281</v>
       </c>
       <c r="G6">
-        <v>11.26022737332243</v>
+        <v>-5.471902082524547</v>
       </c>
       <c r="H6">
-        <v>0.7406975921981768</v>
+        <v>10.13390875545354</v>
       </c>
       <c r="I6">
-        <v>2.168998851596949E-42</v>
+        <v>2.228228076547693E-44</v>
       </c>
       <c r="J6">
-        <v>26.79999923706055</v>
+        <v>42.38999938964844</v>
       </c>
       <c r="K6">
-        <v>22.1200008392334</v>
+        <v>5.230000019073486</v>
       </c>
       <c r="L6">
-        <v>1.234724183458781</v>
+        <v>12.99991807145422</v>
       </c>
       <c r="M6">
-        <v>-2.667907431187849</v>
+        <v>-7.841279080079318</v>
       </c>
       <c r="N6">
-        <v>0.7277011966277596</v>
+        <v>3.456531194969211</v>
       </c>
       <c r="O6">
-        <v>-0.8444594973037116</v>
+        <v>-5.138441512137973</v>
       </c>
       <c r="P6">
-        <v>0.01477230798945136</v>
+        <v>0.01454348764163156</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.5108864422786027</v>
+        <v>0.2023680861355267</v>
       </c>
       <c r="E7">
-        <v>0.6804742245439873</v>
+        <v>0.4228856717526408</v>
       </c>
       <c r="F7">
-        <v>0.009492666352385036</v>
+        <v>0.00364413024747033</v>
       </c>
       <c r="G7">
-        <v>15.94365405660449</v>
+        <v>9.41606153546619</v>
       </c>
       <c r="H7">
-        <v>0.7544342551372125</v>
+        <v>0.8432362550100396</v>
       </c>
       <c r="I7">
-        <v>3.80606331828477E-38</v>
+        <v>2.558008292489932E-32</v>
       </c>
       <c r="J7">
-        <v>31.69000053405762</v>
+        <v>33.09999847412109</v>
       </c>
       <c r="K7">
-        <v>22.1200008392334</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="L7">
-        <v>1.879136700878028</v>
+        <v>2.71109396890909</v>
       </c>
       <c r="M7">
-        <v>-1.500962843573241</v>
+        <v>-1.589324569362368</v>
       </c>
       <c r="N7">
-        <v>0.8173241273936936</v>
+        <v>0.8988404597151544</v>
       </c>
       <c r="O7">
-        <v>-0.9417398793284413</v>
+        <v>1.059908281069362</v>
       </c>
       <c r="P7">
-        <v>0.01511445555719565</v>
+        <v>0.01467132159264003</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2412</v>
+        <v>1667</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0.2625243260886421</v>
+        <v>0.2287714434172447</v>
       </c>
       <c r="E8">
-        <v>0.6804742245439873</v>
+        <v>0.7103471679788161</v>
       </c>
       <c r="F8">
-        <v>0.003884219643811129</v>
+        <v>0.003816771078516485</v>
       </c>
       <c r="G8">
-        <v>10.99049121832705</v>
+        <v>16.10011162904409</v>
       </c>
       <c r="H8">
-        <v>0.4533711052774985</v>
+        <v>0.1194168166587291</v>
       </c>
       <c r="I8">
-        <v>1.332091323113012E-36</v>
+        <v>1.289028488901807E-29</v>
       </c>
       <c r="J8">
-        <v>20.39999961853027</v>
+        <v>21.95000076293945</v>
       </c>
       <c r="K8">
-        <v>22.1200008392334</v>
+        <v>42.38999938964844</v>
       </c>
       <c r="L8">
-        <v>1.209502771227811</v>
+        <v>2.154257682511137</v>
       </c>
       <c r="M8">
-        <v>-0.8841005960698709</v>
+        <v>-1.33999389423137</v>
       </c>
       <c r="N8">
-        <v>0.5096634292040858</v>
+        <v>0.6783989364593209</v>
       </c>
       <c r="O8">
-        <v>-0.6190608290192152</v>
+        <v>0.7878103486180761</v>
       </c>
       <c r="P8">
-        <v>0.01512944532873366</v>
+        <v>0.01477095019144871</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1040</v>
+        <v>1529</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1460814590673319</v>
+        <v>0.6212071002423569</v>
       </c>
       <c r="E9">
-        <v>0.3535997437716192</v>
+        <v>0.2048778445001715</v>
       </c>
       <c r="F9">
-        <v>0.005627259562402897</v>
+        <v>0.004198773690702617</v>
       </c>
       <c r="G9">
-        <v>7.804702674655214</v>
+        <v>-2.865795827362513</v>
       </c>
       <c r="H9">
-        <v>-0.2790486280856796</v>
+        <v>0.8991170772520241</v>
       </c>
       <c r="I9">
-        <v>2.941583215503124E-21</v>
+        <v>8.396430186763376E-30</v>
       </c>
       <c r="J9">
-        <v>3.400000095367432</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="K9">
-        <v>13.61999988555908</v>
+        <v>17.30999946594238</v>
       </c>
       <c r="L9">
-        <v>1.028395990722285</v>
+        <v>1.015705180295177</v>
       </c>
       <c r="M9">
-        <v>-0.6046883361362942</v>
+        <v>-1.188928923125612</v>
       </c>
       <c r="N9">
-        <v>0.3007327114847231</v>
+        <v>0.4440628410976534</v>
       </c>
       <c r="O9">
-        <v>-0.6040602966954074</v>
+        <v>-0.617920375983644</v>
       </c>
       <c r="P9">
-        <v>0.01585940802282705</v>
+        <v>0.01521792137861724</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2678</v>
+        <v>1891</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0.5329721438779228</v>
+      </c>
+      <c r="E10">
+        <v>0.4228856717526408</v>
+      </c>
+      <c r="F10">
+        <v>3.915110675129379E-05</v>
+      </c>
+      <c r="G10">
+        <v>4.3830685903783</v>
+      </c>
+      <c r="H10">
+        <v>1.356046315270101</v>
+      </c>
+      <c r="I10">
+        <v>1.595814357279557E-52</v>
+      </c>
+      <c r="J10">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="K10">
+        <v>26.82999992370605</v>
+      </c>
+      <c r="L10">
+        <v>3.01920452500724</v>
+      </c>
+      <c r="M10">
+        <v>-2.130487935411715</v>
+      </c>
+      <c r="N10">
+        <v>0.9139348123697941</v>
+      </c>
+      <c r="O10">
+        <v>1.474210552849819</v>
+      </c>
+      <c r="P10">
+        <v>0.01538029070276825</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10">
-        <v>0.7257484381887196</v>
-      </c>
-      <c r="E10">
-        <v>0.3535997437716192</v>
-      </c>
-      <c r="F10">
-        <v>0.006268420231813646</v>
-      </c>
-      <c r="G10">
-        <v>31.75285339129615</v>
-      </c>
-      <c r="H10">
-        <v>-1.285322394042523</v>
-      </c>
-      <c r="I10">
-        <v>2.430522647058319E-30</v>
-      </c>
-      <c r="J10">
-        <v>15.36999988555908</v>
-      </c>
-      <c r="K10">
-        <v>13.61999988555908</v>
-      </c>
-      <c r="L10">
-        <v>1.950974353020566</v>
-      </c>
-      <c r="M10">
-        <v>-2.814265830949019</v>
-      </c>
-      <c r="N10">
-        <v>1.051726922441873</v>
-      </c>
-      <c r="O10">
-        <v>1.123237354028625</v>
-      </c>
-      <c r="P10">
-        <v>0.01630134510197917</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2781</v>
+        <v>2987</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3535997437716192</v>
+        <v>0.4228856717526408</v>
       </c>
       <c r="E11">
-        <v>0.1824930505656624</v>
+        <v>0.6590397609934465</v>
       </c>
       <c r="F11">
-        <v>0.009878373013829289</v>
+        <v>0.004310453668928278</v>
       </c>
       <c r="G11">
-        <v>9.420258306313274</v>
+        <v>11.26673691150167</v>
       </c>
       <c r="H11">
-        <v>0.4949156419438323</v>
+        <v>0.7408551529733958</v>
       </c>
       <c r="I11">
-        <v>1.751396269206883E-35</v>
+        <v>3.250725243456429E-44</v>
       </c>
       <c r="J11">
-        <v>13.61999988555908</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="K11">
-        <v>10.14000034332275</v>
+        <v>22.6200008392334</v>
       </c>
       <c r="L11">
-        <v>1.997263836811513</v>
+        <v>1.224567366592886</v>
       </c>
       <c r="M11">
-        <v>-1.096092944991952</v>
+        <v>-1.810331437828687</v>
       </c>
       <c r="N11">
-        <v>0.5887970932347406</v>
+        <v>0.6990191650275417</v>
       </c>
       <c r="O11">
-        <v>-0.8187031999804528</v>
+        <v>-1.194881169804217</v>
       </c>
       <c r="P11">
-        <v>0.01667228623537787</v>
+        <v>0.01664129886779326</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,49 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>ELET3</t>
   </si>
   <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
     <t>EMBR3</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>BPAC11</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
     <t>PETZ3</t>
   </si>
   <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
   </si>
 </sst>
 </file>
@@ -534,170 +534,170 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1142</v>
+        <v>1807</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.8782189086408216</v>
+        <v>0.4582746655912147</v>
       </c>
       <c r="E2">
-        <v>0.4312043690488757</v>
+        <v>0.5372737540662513</v>
       </c>
       <c r="F2">
-        <v>0.0008241514103084322</v>
+        <v>9.812606028359779E-08</v>
       </c>
       <c r="G2">
-        <v>2.841434797212782</v>
+        <v>-1.86348916613005</v>
       </c>
       <c r="H2">
-        <v>0.1679663424133968</v>
+        <v>0.9438641378414537</v>
       </c>
       <c r="I2">
-        <v>1.477666123303469E-65</v>
+        <v>1.119673433535735E-134</v>
       </c>
       <c r="J2">
-        <v>11.61999988555908</v>
+        <v>37.31000137329102</v>
       </c>
       <c r="K2">
-        <v>48.79999923706055</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="L2">
-        <v>0.8098455724088538</v>
+        <v>0.8133754677872744</v>
       </c>
       <c r="M2">
-        <v>-0.8761451751270624</v>
+        <v>-0.5765711003080725</v>
       </c>
       <c r="N2">
-        <v>0.3412296262000266</v>
+        <v>0.2200707332658575</v>
       </c>
       <c r="O2">
-        <v>0.5818077067206833</v>
+        <v>-0.3555405615346814</v>
       </c>
       <c r="P2">
-        <v>0.01224994239345123</v>
+        <v>0.006664652951819177</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1385</v>
+        <v>1853</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4743173964630779</v>
+        <v>0.4582746655912147</v>
       </c>
       <c r="E3">
-        <v>0.3898605939382933</v>
+        <v>0.6537886352056392</v>
       </c>
       <c r="F3">
-        <v>0.0020077448514037</v>
+        <v>0.0003451231903441615</v>
       </c>
       <c r="G3">
-        <v>0.8189988584499348</v>
+        <v>12.82026881825455</v>
       </c>
       <c r="H3">
-        <v>0.596960028583974</v>
+        <v>1.117918467588707</v>
       </c>
       <c r="I3">
-        <v>2.524213449837152E-59</v>
+        <v>6.886208920038369E-59</v>
       </c>
       <c r="J3">
-        <v>9.75</v>
+        <v>37.31000137329102</v>
       </c>
       <c r="K3">
-        <v>14.55000019073486</v>
+        <v>22.80999946594238</v>
       </c>
       <c r="L3">
-        <v>0.4798706396945462</v>
+        <v>1.890245788438833</v>
       </c>
       <c r="M3">
-        <v>-0.6047245252679616</v>
+        <v>-1.675868470352569</v>
       </c>
       <c r="N3">
-        <v>0.2003250308878126</v>
+        <v>0.7789786380062018</v>
       </c>
       <c r="O3">
-        <v>0.2452326117921544</v>
+        <v>-1.009987093629068</v>
       </c>
       <c r="P3">
-        <v>0.01342906216407388</v>
+        <v>0.01109887619705017</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1842</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4491495335590719</v>
+        <v>0.5535850786110268</v>
       </c>
       <c r="E4">
-        <v>0.4228856717526408</v>
+        <v>0.7187300827442442</v>
       </c>
       <c r="F4">
-        <v>0.001413249219611058</v>
+        <v>0.0007824878198077927</v>
       </c>
       <c r="G4">
-        <v>2.738608520250807</v>
+        <v>4.001888507196548</v>
       </c>
       <c r="H4">
-        <v>1.263690672554209</v>
+        <v>0.8739077651248224</v>
       </c>
       <c r="I4">
-        <v>1.851997580481108E-48</v>
+        <v>1.298623168857412E-74</v>
       </c>
       <c r="J4">
-        <v>37.81999969482422</v>
+        <v>35.11000061035156</v>
       </c>
       <c r="K4">
-        <v>26.82999992370605</v>
+        <v>36.34000015258789</v>
       </c>
       <c r="L4">
-        <v>2.889714026684295</v>
+        <v>1.64542343368381</v>
       </c>
       <c r="M4">
-        <v>-2.221566221957531</v>
+        <v>-1.149376690780159</v>
       </c>
       <c r="N4">
-        <v>0.926657529260139</v>
+        <v>0.5592489522003906</v>
       </c>
       <c r="O4">
-        <v>1.176570526355938</v>
+        <v>-0.6496962148287722</v>
       </c>
       <c r="P4">
-        <v>0.01347438092254181</v>
+        <v>0.01230716134196473</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -705,276 +705,276 @@
         <v>1925</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.4312043690488757</v>
+        <v>0.4562576896484656</v>
       </c>
       <c r="E5">
-        <v>0.8084311766241248</v>
+        <v>0.7825189726359368</v>
       </c>
       <c r="F5">
-        <v>0.002369887163927259</v>
+        <v>0.002647362442606317</v>
       </c>
       <c r="G5">
-        <v>5.236705050532751</v>
+        <v>5.802949321942029</v>
       </c>
       <c r="H5">
-        <v>2.949198926246486</v>
+        <v>2.903999529206803</v>
       </c>
       <c r="I5">
-        <v>7.814333152673183E-55</v>
+        <v>2.004753140442445E-54</v>
       </c>
       <c r="J5">
-        <v>48.79999923706055</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="K5">
-        <v>15.89999961853027</v>
+        <v>15.85999965667725</v>
       </c>
       <c r="L5">
-        <v>5.217855229377392</v>
+        <v>5.162816157453342</v>
       </c>
       <c r="M5">
-        <v>-6.573911004539184</v>
+        <v>-6.559343006746346</v>
       </c>
       <c r="N5">
-        <v>2.279440257073403</v>
+        <v>2.275439254731695</v>
       </c>
       <c r="O5">
-        <v>-3.328967615761215</v>
+        <v>-2.790381163328597</v>
       </c>
       <c r="P5">
-        <v>0.01400045116846647</v>
+        <v>0.01421724536041834</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2430</v>
+        <v>789</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.7103471679788161</v>
+        <v>0.2235166103399113</v>
       </c>
       <c r="E6">
-        <v>0.6301180393663239</v>
+        <v>0.3974128953005469</v>
       </c>
       <c r="F6">
-        <v>0.003640434471453281</v>
+        <v>0.002413247312186059</v>
       </c>
       <c r="G6">
-        <v>-5.471902082524547</v>
+        <v>9.419248647063625</v>
       </c>
       <c r="H6">
-        <v>10.13390875545354</v>
+        <v>0.844658559200149</v>
       </c>
       <c r="I6">
-        <v>2.228228076547693E-44</v>
+        <v>5.924099263034052E-32</v>
       </c>
       <c r="J6">
-        <v>42.38999938964844</v>
+        <v>33.16999816894531</v>
       </c>
       <c r="K6">
-        <v>5.230000019073486</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="L6">
-        <v>12.99991807145422</v>
+        <v>2.712438004587824</v>
       </c>
       <c r="M6">
-        <v>-7.841279080079318</v>
+        <v>-1.587805468130945</v>
       </c>
       <c r="N6">
-        <v>3.456531194969211</v>
+        <v>0.90288217654309</v>
       </c>
       <c r="O6">
-        <v>-5.138441512137973</v>
+        <v>1.054773327308009</v>
       </c>
       <c r="P6">
-        <v>0.01454348764163156</v>
+        <v>0.01442131939280122</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>789</v>
+        <v>2430</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.2023680861355267</v>
+        <v>0.7128196362688052</v>
       </c>
       <c r="E7">
-        <v>0.4228856717526408</v>
+        <v>0.5788462721840951</v>
       </c>
       <c r="F7">
-        <v>0.00364413024747033</v>
+        <v>0.002427200720288986</v>
       </c>
       <c r="G7">
-        <v>9.41606153546619</v>
+        <v>-5.026680265993998</v>
       </c>
       <c r="H7">
-        <v>0.8432362550100396</v>
+        <v>10.02614458015292</v>
       </c>
       <c r="I7">
-        <v>2.558008292489932E-32</v>
+        <v>6.513256559627664E-44</v>
       </c>
       <c r="J7">
-        <v>33.09999847412109</v>
+        <v>42.95000076293945</v>
       </c>
       <c r="K7">
-        <v>26.82999992370605</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="L7">
-        <v>2.71109396890909</v>
+        <v>12.92648266484939</v>
       </c>
       <c r="M7">
-        <v>-1.589324569362368</v>
+        <v>-7.711379331417575</v>
       </c>
       <c r="N7">
-        <v>0.8988404597151544</v>
+        <v>3.488168631537475</v>
       </c>
       <c r="O7">
-        <v>1.059908281069362</v>
+        <v>-6.465282320195122</v>
       </c>
       <c r="P7">
-        <v>0.01467132159264003</v>
+        <v>0.014489369664823</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1667</v>
+        <v>1891</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.2287714434172447</v>
+        <v>0.5372737540662513</v>
       </c>
       <c r="E8">
-        <v>0.7103471679788161</v>
+        <v>0.3974128953005469</v>
       </c>
       <c r="F8">
-        <v>0.003816771078516485</v>
+        <v>3.243799516618924E-05</v>
       </c>
       <c r="G8">
-        <v>16.10011162904409</v>
+        <v>4.293331443069269</v>
       </c>
       <c r="H8">
-        <v>0.1194168166587291</v>
+        <v>1.361560139881944</v>
       </c>
       <c r="I8">
-        <v>1.289028488901807E-29</v>
+        <v>2.481066384531905E-52</v>
       </c>
       <c r="J8">
-        <v>21.95000076293945</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="K8">
-        <v>42.38999938964844</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="L8">
-        <v>2.154257682511137</v>
+        <v>3.031990861960388</v>
       </c>
       <c r="M8">
-        <v>-1.33999389423137</v>
+        <v>-2.120926445922393</v>
       </c>
       <c r="N8">
-        <v>0.6783989364593209</v>
+        <v>0.9150833564529789</v>
       </c>
       <c r="O8">
-        <v>0.7878103486180761</v>
+        <v>1.001547523751391</v>
       </c>
       <c r="P8">
-        <v>0.01477095019144871</v>
+        <v>0.01497042157329609</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1529</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6212071002423569</v>
+        <v>0.6835124347794237</v>
       </c>
       <c r="E9">
-        <v>0.2048778445001715</v>
+        <v>0.9289900710764376</v>
       </c>
       <c r="F9">
-        <v>0.004198773690702617</v>
+        <v>0.004977739880089782</v>
       </c>
       <c r="G9">
-        <v>-2.865795827362513</v>
+        <v>8.283584503086924</v>
       </c>
       <c r="H9">
-        <v>0.8991170772520241</v>
+        <v>0.2580826130177725</v>
       </c>
       <c r="I9">
-        <v>8.396430186763376E-30</v>
+        <v>6.805066710429169E-60</v>
       </c>
       <c r="J9">
-        <v>12.07999992370605</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="K9">
-        <v>17.30999946594238</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="L9">
-        <v>1.015705180295177</v>
+        <v>0.7044793671636587</v>
       </c>
       <c r="M9">
-        <v>-1.188928923125612</v>
+        <v>-0.4706991250268953</v>
       </c>
       <c r="N9">
-        <v>0.4440628410976534</v>
+        <v>0.2503466805905646</v>
       </c>
       <c r="O9">
-        <v>-0.617920375983644</v>
+        <v>-0.4297292582448966</v>
       </c>
       <c r="P9">
-        <v>0.01521792137861724</v>
+        <v>0.015045579563219</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
         <v>31</v>
@@ -982,114 +982,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1891</v>
+        <v>1667</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>0.5329721438779228</v>
+        <v>0.2617068950188439</v>
       </c>
       <c r="E10">
-        <v>0.4228856717526408</v>
+        <v>0.7128196362688052</v>
       </c>
       <c r="F10">
-        <v>3.915110675129379E-05</v>
+        <v>0.004898727780913324</v>
       </c>
       <c r="G10">
-        <v>4.3830685903783</v>
+        <v>16.08373608202103</v>
       </c>
       <c r="H10">
-        <v>1.356046315270101</v>
+        <v>0.1201174103184135</v>
       </c>
       <c r="I10">
-        <v>1.595814357279557E-52</v>
+        <v>1.022472227119901E-29</v>
       </c>
       <c r="J10">
-        <v>42.2400016784668</v>
+        <v>22.17000007629395</v>
       </c>
       <c r="K10">
-        <v>26.82999992370605</v>
+        <v>42.95000076293945</v>
       </c>
       <c r="L10">
-        <v>3.01920452500724</v>
+        <v>2.150007751818933</v>
       </c>
       <c r="M10">
-        <v>-2.130487935411715</v>
+        <v>-1.355474341769369</v>
       </c>
       <c r="N10">
-        <v>0.9139348123697941</v>
+        <v>0.6814222193206371</v>
       </c>
       <c r="O10">
-        <v>1.474210552849819</v>
+        <v>0.9272211294547468</v>
       </c>
       <c r="P10">
-        <v>0.01538029070276825</v>
+        <v>0.01507254113621013</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2987</v>
+        <v>2494</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4228856717526408</v>
+        <v>0.7187300827442442</v>
       </c>
       <c r="E11">
-        <v>0.6590397609934465</v>
+        <v>0.544738105020531</v>
       </c>
       <c r="F11">
-        <v>0.004310453668928278</v>
+        <v>0.0009709880520423528</v>
       </c>
       <c r="G11">
-        <v>11.26673691150167</v>
+        <v>3.385285403708071</v>
       </c>
       <c r="H11">
-        <v>0.7408551529733958</v>
+        <v>1.23586807060323</v>
       </c>
       <c r="I11">
-        <v>3.250725243456429E-44</v>
+        <v>3.451457367054605E-55</v>
       </c>
       <c r="J11">
-        <v>26.82999992370605</v>
+        <v>36.34000015258789</v>
       </c>
       <c r="K11">
-        <v>22.6200008392334</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="L11">
-        <v>1.224567366592886</v>
+        <v>1.77415368380192</v>
       </c>
       <c r="M11">
-        <v>-1.810331437828687</v>
+        <v>-1.868736663482345</v>
       </c>
       <c r="N11">
-        <v>0.6990191650275417</v>
+        <v>0.8446683251796722</v>
       </c>
       <c r="O11">
-        <v>-1.194881169804217</v>
+        <v>1.415361021349884</v>
       </c>
       <c r="P11">
-        <v>0.01664129886779326</v>
+        <v>0.01574192444838251</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,43 +73,40 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
     <t>BBSE3</t>
   </si>
   <si>
-    <t>EMBR3</t>
+    <t>B3SA3</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
   </si>
   <si>
     <t>MULT3</t>
@@ -540,108 +537,108 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.4582746655912147</v>
+        <v>0.481307061343392</v>
       </c>
       <c r="E2">
-        <v>0.5372737540662513</v>
+        <v>0.5527848711732709</v>
       </c>
       <c r="F2">
-        <v>9.812606028359779E-08</v>
+        <v>1.605849368819725E-07</v>
       </c>
       <c r="G2">
-        <v>-1.86348916613005</v>
+        <v>-1.900215437094553</v>
       </c>
       <c r="H2">
-        <v>0.9438641378414537</v>
+        <v>0.9446585617991006</v>
       </c>
       <c r="I2">
-        <v>1.119673433535735E-134</v>
+        <v>4.599354324414913E-135</v>
       </c>
       <c r="J2">
-        <v>37.31000137329102</v>
+        <v>36.79000091552734</v>
       </c>
       <c r="K2">
-        <v>41.88000106811523</v>
+        <v>41.38000106811523</v>
       </c>
       <c r="L2">
-        <v>0.8133754677872744</v>
+        <v>0.8178267259850287</v>
       </c>
       <c r="M2">
-        <v>-0.5765711003080725</v>
+        <v>-0.575506520317461</v>
       </c>
       <c r="N2">
-        <v>0.2200707332658575</v>
+        <v>0.2218827072810118</v>
       </c>
       <c r="O2">
-        <v>-0.3555405615346814</v>
+        <v>-0.3997559436290885</v>
       </c>
       <c r="P2">
-        <v>0.006664652951819177</v>
+        <v>0.006834167357737546</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1853</v>
+        <v>1682</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.4582746655912147</v>
+        <v>0.2319186452319378</v>
       </c>
       <c r="E3">
-        <v>0.6537886352056392</v>
+        <v>0.7702740200525644</v>
       </c>
       <c r="F3">
-        <v>0.0003451231903441615</v>
+        <v>0.00235526844324783</v>
       </c>
       <c r="G3">
-        <v>12.82026881825455</v>
+        <v>14.49769244290278</v>
       </c>
       <c r="H3">
-        <v>1.117918467588707</v>
+        <v>1.429161000126624</v>
       </c>
       <c r="I3">
-        <v>6.886208920038369E-59</v>
+        <v>5.870867800975618E-35</v>
       </c>
       <c r="J3">
-        <v>37.31000137329102</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="K3">
-        <v>22.80999946594238</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="L3">
-        <v>1.890245788438833</v>
+        <v>2.711701428161096</v>
       </c>
       <c r="M3">
-        <v>-1.675868470352569</v>
+        <v>-1.537670619176701</v>
       </c>
       <c r="N3">
-        <v>0.7789786380062018</v>
+        <v>0.6274908075200291</v>
       </c>
       <c r="O3">
-        <v>-1.009987093629068</v>
+        <v>-0.9682847676996822</v>
       </c>
       <c r="P3">
-        <v>0.01109887619705017</v>
+        <v>0.01169808974910171</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,111 +646,111 @@
         <v>562</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.5535850786110268</v>
+        <v>0.715794609396441</v>
       </c>
       <c r="E4">
-        <v>0.7187300827442442</v>
+        <v>0.663072060208051</v>
       </c>
       <c r="F4">
-        <v>0.0007824878198077927</v>
+        <v>0.0013270298310976</v>
       </c>
       <c r="G4">
-        <v>4.001888507196548</v>
+        <v>4.125351089595266</v>
       </c>
       <c r="H4">
-        <v>0.8739077651248224</v>
+        <v>0.8700528672230882</v>
       </c>
       <c r="I4">
-        <v>1.298623168857412E-74</v>
+        <v>1.564391854030987E-74</v>
       </c>
       <c r="J4">
-        <v>35.11000061035156</v>
+        <v>34.61000061035156</v>
       </c>
       <c r="K4">
-        <v>36.34000015258789</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="L4">
-        <v>1.64542343368381</v>
+        <v>1.650517709700445</v>
       </c>
       <c r="M4">
-        <v>-1.149376690780159</v>
+        <v>-1.146898868766371</v>
       </c>
       <c r="N4">
-        <v>0.5592489522003906</v>
+        <v>0.5635035846917923</v>
       </c>
       <c r="O4">
-        <v>-0.6496962148287722</v>
+        <v>-0.9851610935884239</v>
       </c>
       <c r="P4">
-        <v>0.01230716134196473</v>
+        <v>0.01278496520014801</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1925</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.4562576896484656</v>
+        <v>0.4887628101219266</v>
       </c>
       <c r="E5">
-        <v>0.7825189726359368</v>
+        <v>0.2205003178463663</v>
       </c>
       <c r="F5">
-        <v>0.002647362442606317</v>
+        <v>0.001625542590132773</v>
       </c>
       <c r="G5">
-        <v>5.802949321942029</v>
+        <v>-3.295579052504902</v>
       </c>
       <c r="H5">
-        <v>2.903999529206803</v>
+        <v>0.434136261243654</v>
       </c>
       <c r="I5">
-        <v>2.004753140442445E-54</v>
+        <v>3.052032542384319E-53</v>
       </c>
       <c r="J5">
-        <v>49.06999969482422</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="K5">
-        <v>15.85999965667725</v>
+        <v>33.27999877929688</v>
       </c>
       <c r="L5">
-        <v>5.162816157453342</v>
+        <v>0.7638946037487742</v>
       </c>
       <c r="M5">
-        <v>-6.559343006746346</v>
+        <v>-0.7784672512280082</v>
       </c>
       <c r="N5">
-        <v>2.275439254731695</v>
+        <v>0.3049430816403009</v>
       </c>
       <c r="O5">
-        <v>-2.790381163328597</v>
+        <v>-0.5024755732021386</v>
       </c>
       <c r="P5">
-        <v>0.01421724536041834</v>
+        <v>0.01289249655502253</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -761,172 +758,172 @@
         <v>789</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.2235166103399113</v>
+        <v>0.2205003178463663</v>
       </c>
       <c r="E6">
-        <v>0.3974128953005469</v>
+        <v>0.3737895022101054</v>
       </c>
       <c r="F6">
-        <v>0.002413247312186059</v>
+        <v>0.002370761241152655</v>
       </c>
       <c r="G6">
-        <v>9.419248647063625</v>
+        <v>9.5293608629296</v>
       </c>
       <c r="H6">
-        <v>0.844658559200149</v>
+        <v>0.8409918540936546</v>
       </c>
       <c r="I6">
-        <v>5.924099263034052E-32</v>
+        <v>6.285707525477131E-32</v>
       </c>
       <c r="J6">
-        <v>33.16999816894531</v>
+        <v>33.27999877929688</v>
       </c>
       <c r="K6">
-        <v>26.8700008392334</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="L6">
-        <v>2.712438004587824</v>
+        <v>2.702342197756145</v>
       </c>
       <c r="M6">
-        <v>-1.587805468130945</v>
+        <v>-1.594087635045682</v>
       </c>
       <c r="N6">
-        <v>0.90288217654309</v>
+        <v>0.9033385609777073</v>
       </c>
       <c r="O6">
-        <v>1.054773327308009</v>
+        <v>0.9597583496163011</v>
       </c>
       <c r="P6">
-        <v>0.01442131939280122</v>
+        <v>0.01453345608857941</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2430</v>
+        <v>1667</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7128196362688052</v>
+        <v>0.2319186452319378</v>
       </c>
       <c r="E7">
-        <v>0.5788462721840951</v>
+        <v>0.7045933734723364</v>
       </c>
       <c r="F7">
-        <v>0.002427200720288986</v>
+        <v>0.004026262118117947</v>
       </c>
       <c r="G7">
-        <v>-5.026680265993998</v>
+        <v>16.0731733627827</v>
       </c>
       <c r="H7">
-        <v>10.02614458015292</v>
+        <v>0.1205212436918424</v>
       </c>
       <c r="I7">
-        <v>6.513256559627664E-44</v>
+        <v>5.990284026116074E-30</v>
       </c>
       <c r="J7">
-        <v>42.95000076293945</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="K7">
-        <v>5.429999828338623</v>
+        <v>42.4900016784668</v>
       </c>
       <c r="L7">
-        <v>12.92648266484939</v>
+        <v>2.148681616327849</v>
       </c>
       <c r="M7">
-        <v>-7.711379331417575</v>
+        <v>-1.363273926513813</v>
       </c>
       <c r="N7">
-        <v>3.488168631537475</v>
+        <v>0.6815497062995413</v>
       </c>
       <c r="O7">
-        <v>-6.465282320195122</v>
+        <v>0.695878180108453</v>
       </c>
       <c r="P7">
-        <v>0.014489369664823</v>
+        <v>0.01498681750839994</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1891</v>
+        <v>2412</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5372737540662513</v>
+        <v>0.2370490367952621</v>
       </c>
       <c r="E8">
-        <v>0.3974128953005469</v>
+        <v>0.653848985912356</v>
       </c>
       <c r="F8">
-        <v>3.243799516618924E-05</v>
+        <v>0.001559972427554891</v>
       </c>
       <c r="G8">
-        <v>4.293331443069269</v>
+        <v>11.01454892822182</v>
       </c>
       <c r="H8">
-        <v>1.361560139881944</v>
+        <v>0.4522110547061218</v>
       </c>
       <c r="I8">
-        <v>2.481066384531905E-52</v>
+        <v>1.269757085483626E-36</v>
       </c>
       <c r="J8">
-        <v>41.88000106811523</v>
+        <v>20.70999908447266</v>
       </c>
       <c r="K8">
-        <v>26.8700008392334</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="L8">
-        <v>3.031990861960388</v>
+        <v>1.214025698517929</v>
       </c>
       <c r="M8">
-        <v>-2.120926445922393</v>
+        <v>-0.8786602504556988</v>
       </c>
       <c r="N8">
-        <v>0.9150833564529789</v>
+        <v>0.5095114961520306</v>
       </c>
       <c r="O8">
-        <v>1.001547523751391</v>
+        <v>-0.8365457218663224</v>
       </c>
       <c r="P8">
-        <v>0.01497042157329609</v>
+        <v>0.01557348275009122</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>47</v>
+        <v>2494</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -935,161 +932,161 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6835124347794237</v>
+        <v>0.663072060208051</v>
       </c>
       <c r="E9">
-        <v>0.9289900710764376</v>
+        <v>0.5285638713371432</v>
       </c>
       <c r="F9">
-        <v>0.004977739880089782</v>
+        <v>0.001039066574890745</v>
       </c>
       <c r="G9">
-        <v>8.283584503086924</v>
+        <v>3.322190129354421</v>
       </c>
       <c r="H9">
-        <v>0.2580826130177725</v>
+        <v>1.238866917432979</v>
       </c>
       <c r="I9">
-        <v>6.805066710429169E-60</v>
+        <v>3.742655478158973E-55</v>
       </c>
       <c r="J9">
-        <v>12.68000030517578</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="K9">
-        <v>18.70000076293945</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="L9">
-        <v>0.7044793671636587</v>
+        <v>1.760658407378266</v>
       </c>
       <c r="M9">
-        <v>-0.4706991250268953</v>
+        <v>-1.878663516491514</v>
       </c>
       <c r="N9">
-        <v>0.2503466805905646</v>
+        <v>0.8513869986542398</v>
       </c>
       <c r="O9">
-        <v>-0.4297292582448966</v>
+        <v>1.516862563494325</v>
       </c>
       <c r="P9">
-        <v>0.015045579563219</v>
+        <v>0.01613767512396945</v>
       </c>
       <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
         <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1667</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.2617068950188439</v>
+        <v>0.6550432397297978</v>
       </c>
       <c r="E10">
-        <v>0.7128196362688052</v>
+        <v>0.2319186452319378</v>
       </c>
       <c r="F10">
-        <v>0.004898727780913324</v>
+        <v>0.002131991942120499</v>
       </c>
       <c r="G10">
-        <v>16.08373608202103</v>
+        <v>1.798643490411332</v>
       </c>
       <c r="H10">
-        <v>0.1201174103184135</v>
+        <v>0.5060457153342003</v>
       </c>
       <c r="I10">
-        <v>1.022472227119901E-29</v>
+        <v>3.597253352243071E-38</v>
       </c>
       <c r="J10">
-        <v>22.17000007629395</v>
+        <v>12.5</v>
       </c>
       <c r="K10">
-        <v>42.95000076293945</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="L10">
-        <v>2.150007751818933</v>
+        <v>1.371754389154734</v>
       </c>
       <c r="M10">
-        <v>-1.355474341769369</v>
+        <v>-0.981631589673384</v>
       </c>
       <c r="N10">
-        <v>0.6814222193206371</v>
+        <v>0.3598985978946566</v>
       </c>
       <c r="O10">
-        <v>0.9272211294547468</v>
+        <v>-0.3759838902111845</v>
       </c>
       <c r="P10">
-        <v>0.01507254113621013</v>
+        <v>0.01656043997450866</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2494</v>
+        <v>2987</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.7187300827442442</v>
+        <v>0.3737895022101054</v>
       </c>
       <c r="E11">
-        <v>0.544738105020531</v>
+        <v>0.653848985912356</v>
       </c>
       <c r="F11">
-        <v>0.0009709880520423528</v>
+        <v>0.005894964514537351</v>
       </c>
       <c r="G11">
-        <v>3.385285403708071</v>
+        <v>11.32828170233893</v>
       </c>
       <c r="H11">
-        <v>1.23586807060323</v>
+        <v>0.7357910818483268</v>
       </c>
       <c r="I11">
-        <v>3.451457367054605E-55</v>
+        <v>3.828716408950026E-44</v>
       </c>
       <c r="J11">
-        <v>36.34000015258789</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="K11">
-        <v>25.52000045776367</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="L11">
-        <v>1.77415368380192</v>
+        <v>1.212139727237862</v>
       </c>
       <c r="M11">
-        <v>-1.868736663482345</v>
+        <v>-1.770275204105182</v>
       </c>
       <c r="N11">
-        <v>0.8446683251796722</v>
+        <v>0.6976265553524089</v>
       </c>
       <c r="O11">
-        <v>1.415361021349884</v>
+        <v>-1.364856290753591</v>
       </c>
       <c r="P11">
-        <v>0.01574192444838251</v>
+        <v>0.01709501425827973</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -73,43 +73,46 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>PETZ3</t>
   </si>
   <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -537,556 +540,556 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.481307061343392</v>
+        <v>0.5310917018014452</v>
       </c>
       <c r="E2">
-        <v>0.5527848711732709</v>
+        <v>0.6078784128143032</v>
       </c>
       <c r="F2">
-        <v>1.605849368819725E-07</v>
+        <v>9.491648563021935E-08</v>
       </c>
       <c r="G2">
-        <v>-1.900215437094553</v>
+        <v>-1.936636492563398</v>
       </c>
       <c r="H2">
-        <v>0.9446585617991006</v>
+        <v>0.9454745309240623</v>
       </c>
       <c r="I2">
-        <v>4.599354324414913E-135</v>
+        <v>4.468603145022592E-136</v>
       </c>
       <c r="J2">
-        <v>36.79000091552734</v>
+        <v>36.02000045776367</v>
       </c>
       <c r="K2">
-        <v>41.38000106811523</v>
+        <v>40.38999938964844</v>
       </c>
       <c r="L2">
-        <v>0.8178267259850287</v>
+        <v>0.821097454513307</v>
       </c>
       <c r="M2">
-        <v>-0.575506520317461</v>
+        <v>-0.5757143183701174</v>
       </c>
       <c r="N2">
-        <v>0.2218827072810118</v>
+        <v>0.2219614993084777</v>
       </c>
       <c r="O2">
-        <v>-0.3997559436290885</v>
+        <v>-0.2310787766239528</v>
       </c>
       <c r="P2">
-        <v>0.006834167357737546</v>
+        <v>0.006829225199409327</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1682</v>
+        <v>1853</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2319186452319378</v>
+        <v>0.5310917018014452</v>
       </c>
       <c r="E3">
-        <v>0.7702740200525644</v>
+        <v>0.6402520129908854</v>
       </c>
       <c r="F3">
-        <v>0.00235526844324783</v>
+        <v>0.001189271356119247</v>
       </c>
       <c r="G3">
-        <v>14.49769244290278</v>
+        <v>12.79534510429989</v>
       </c>
       <c r="H3">
-        <v>1.429161000126624</v>
+        <v>1.117770258648532</v>
       </c>
       <c r="I3">
-        <v>5.870867800975618E-35</v>
+        <v>1.549163284064629E-57</v>
       </c>
       <c r="J3">
-        <v>21.88999938964844</v>
+        <v>36.02000045776367</v>
       </c>
       <c r="K3">
-        <v>5.849999904632568</v>
+        <v>22.40999984741211</v>
       </c>
       <c r="L3">
-        <v>2.711701428161096</v>
+        <v>1.917333997102531</v>
       </c>
       <c r="M3">
-        <v>-1.537670619176701</v>
+        <v>-2.038214536046091</v>
       </c>
       <c r="N3">
-        <v>0.6274908075200291</v>
+        <v>0.8072891511496303</v>
       </c>
       <c r="O3">
-        <v>-0.9682847676996822</v>
+        <v>-1.824575972291615</v>
       </c>
       <c r="P3">
-        <v>0.01169808974910171</v>
+        <v>0.01214834759973575</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>562</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.715794609396441</v>
+        <v>0.4778587764799289</v>
       </c>
       <c r="E4">
-        <v>0.663072060208051</v>
+        <v>0.2173773397113821</v>
       </c>
       <c r="F4">
-        <v>0.0013270298310976</v>
+        <v>0.001173301730461936</v>
       </c>
       <c r="G4">
-        <v>4.125351089595266</v>
+        <v>-3.303421315720685</v>
       </c>
       <c r="H4">
-        <v>0.8700528672230882</v>
+        <v>0.4343018851390882</v>
       </c>
       <c r="I4">
-        <v>1.564391854030987E-74</v>
+        <v>2.131177235226709E-53</v>
       </c>
       <c r="J4">
-        <v>34.61000061035156</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="K4">
-        <v>36.16999816894531</v>
+        <v>33.06999969482422</v>
       </c>
       <c r="L4">
-        <v>1.650517709700445</v>
+        <v>0.7666012362935195</v>
       </c>
       <c r="M4">
-        <v>-1.146898868766371</v>
+        <v>-0.7762727625938108</v>
       </c>
       <c r="N4">
-        <v>0.5635035846917923</v>
+        <v>0.3053102812495561</v>
       </c>
       <c r="O4">
-        <v>-0.9851610935884239</v>
+        <v>-0.3489418551435737</v>
       </c>
       <c r="P4">
-        <v>0.01278496520014801</v>
+        <v>0.01277858699173351</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>238</v>
+        <v>1813</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.4887628101219266</v>
+        <v>0.5310917018014452</v>
       </c>
       <c r="E5">
-        <v>0.2205003178463663</v>
+        <v>0.3857620608253356</v>
       </c>
       <c r="F5">
-        <v>0.001625542590132773</v>
+        <v>0.001194796004978793</v>
       </c>
       <c r="G5">
-        <v>-3.295579052504902</v>
+        <v>4.417082517012192</v>
       </c>
       <c r="H5">
-        <v>0.434136261243654</v>
+        <v>2.263273951981773</v>
       </c>
       <c r="I5">
-        <v>3.052032542384319E-53</v>
+        <v>1.418694272494945E-51</v>
       </c>
       <c r="J5">
-        <v>10.64999961853027</v>
+        <v>36.02000045776367</v>
       </c>
       <c r="K5">
-        <v>33.27999877929688</v>
+        <v>14.43000030517578</v>
       </c>
       <c r="L5">
-        <v>0.7638946037487742</v>
+        <v>2.100148834717743</v>
       </c>
       <c r="M5">
-        <v>-0.7784672512280082</v>
+        <v>-1.954535691506734</v>
       </c>
       <c r="N5">
-        <v>0.3049430816403009</v>
+        <v>0.8903260940214397</v>
       </c>
       <c r="O5">
-        <v>-0.5024755732021386</v>
+        <v>-1.0561258770419</v>
       </c>
       <c r="P5">
-        <v>0.01289249655502253</v>
+        <v>0.01376184934950138</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>789</v>
+        <v>2430</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.2205003178463663</v>
+        <v>0.6825613450799359</v>
       </c>
       <c r="E6">
-        <v>0.3737895022101054</v>
+        <v>0.3442665997691384</v>
       </c>
       <c r="F6">
-        <v>0.002370761241152655</v>
+        <v>0.001760968327601632</v>
       </c>
       <c r="G6">
-        <v>9.5293608629296</v>
+        <v>-3.592652549445765</v>
       </c>
       <c r="H6">
-        <v>0.8409918540936546</v>
+        <v>9.671884516212048</v>
       </c>
       <c r="I6">
-        <v>6.285707525477131E-32</v>
+        <v>2.513735300084477E-42</v>
       </c>
       <c r="J6">
-        <v>33.27999877929688</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="K6">
-        <v>27.10000038146973</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>2.702342197756145</v>
+        <v>12.7146521857896</v>
       </c>
       <c r="M6">
-        <v>-1.594087635045682</v>
+        <v>-10.49786926954513</v>
       </c>
       <c r="N6">
-        <v>0.9033385609777073</v>
+        <v>3.596426990022007</v>
       </c>
       <c r="O6">
-        <v>0.9597583496163011</v>
+        <v>-3.876770641966033</v>
       </c>
       <c r="P6">
-        <v>0.01453345608857941</v>
+        <v>0.01448414006070411</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1667</v>
+        <v>1040</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.2319186452319378</v>
+        <v>0.1500161287679648</v>
       </c>
       <c r="E7">
-        <v>0.7045933734723364</v>
+        <v>0.2494296918193091</v>
       </c>
       <c r="F7">
-        <v>0.004026262118117947</v>
+        <v>0.00265231130868402</v>
       </c>
       <c r="G7">
-        <v>16.0731733627827</v>
+        <v>7.631204708141274</v>
       </c>
       <c r="H7">
-        <v>0.1205212436918424</v>
+        <v>-0.2673950078374525</v>
       </c>
       <c r="I7">
-        <v>5.990284026116074E-30</v>
+        <v>9.067408034950601E-21</v>
       </c>
       <c r="J7">
-        <v>21.88999938964844</v>
+        <v>3.539999961853027</v>
       </c>
       <c r="K7">
-        <v>42.4900016784668</v>
+        <v>14.11999988555908</v>
       </c>
       <c r="L7">
-        <v>2.148681616327849</v>
+        <v>1.011007667350373</v>
       </c>
       <c r="M7">
-        <v>-1.363273926513813</v>
+        <v>-0.589284636628669</v>
       </c>
       <c r="N7">
-        <v>0.6815497062995413</v>
+        <v>0.2937837796658901</v>
       </c>
       <c r="O7">
-        <v>0.695878180108453</v>
+        <v>-0.3155872662243473</v>
       </c>
       <c r="P7">
-        <v>0.01498681750839994</v>
+        <v>0.01503264700844765</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2412</v>
+        <v>1667</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.2370490367952621</v>
+        <v>0.2188185311469427</v>
       </c>
       <c r="E8">
-        <v>0.653848985912356</v>
+        <v>0.6825613450799359</v>
       </c>
       <c r="F8">
-        <v>0.001559972427554891</v>
+        <v>0.004155412456169234</v>
       </c>
       <c r="G8">
-        <v>11.01454892822182</v>
+        <v>16.06864539815486</v>
       </c>
       <c r="H8">
-        <v>0.4522110547061218</v>
+        <v>0.12077390969072</v>
       </c>
       <c r="I8">
-        <v>1.269757085483626E-36</v>
+        <v>4.29544622979538E-30</v>
       </c>
       <c r="J8">
-        <v>20.70999908447266</v>
+        <v>21.73999977111816</v>
       </c>
       <c r="K8">
-        <v>23.29000091552734</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="L8">
-        <v>1.214025698517929</v>
+        <v>2.145771093813789</v>
       </c>
       <c r="M8">
-        <v>-0.8786602504556988</v>
+        <v>-1.370234685163371</v>
       </c>
       <c r="N8">
-        <v>0.5095114961520306</v>
+        <v>0.6819468804956501</v>
       </c>
       <c r="O8">
-        <v>-0.8365457218663224</v>
+        <v>0.7329092794243079</v>
       </c>
       <c r="P8">
-        <v>0.01557348275009122</v>
+        <v>0.01512346816752947</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2494</v>
+        <v>2412</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.663072060208051</v>
+        <v>0.2519287331661675</v>
       </c>
       <c r="E9">
-        <v>0.5285638713371432</v>
+        <v>0.6402520129908854</v>
       </c>
       <c r="F9">
-        <v>0.001039066574890745</v>
+        <v>0.00150764213128948</v>
       </c>
       <c r="G9">
-        <v>3.322190129354421</v>
+        <v>10.9930142394034</v>
       </c>
       <c r="H9">
-        <v>1.238866917432979</v>
+        <v>0.4529562504686142</v>
       </c>
       <c r="I9">
-        <v>3.742655478158973E-55</v>
+        <v>1.00291013405814E-36</v>
       </c>
       <c r="J9">
-        <v>36.16999816894531</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="K9">
-        <v>25.29000091552734</v>
+        <v>22.40999984741211</v>
       </c>
       <c r="L9">
-        <v>1.760658407378266</v>
+        <v>1.216936838172039</v>
       </c>
       <c r="M9">
-        <v>-1.878663516491514</v>
+        <v>-0.8763467763147474</v>
       </c>
       <c r="N9">
-        <v>0.8513869986542398</v>
+        <v>0.5105133761283743</v>
       </c>
       <c r="O9">
-        <v>1.516862563494325</v>
+        <v>-0.6337635144075708</v>
       </c>
       <c r="P9">
-        <v>0.01613767512396945</v>
+        <v>0.01546228402961862</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>25</v>
+        <v>2054</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>0.6550432397297978</v>
+        <v>0.5530188145808014</v>
       </c>
       <c r="E10">
-        <v>0.2319186452319378</v>
+        <v>0.2519287331661675</v>
       </c>
       <c r="F10">
-        <v>0.002131991942120499</v>
+        <v>0.004860333145094639</v>
       </c>
       <c r="G10">
-        <v>1.798643490411332</v>
+        <v>-3.412826624861813</v>
       </c>
       <c r="H10">
-        <v>0.5060457153342003</v>
+        <v>1.663454716834038</v>
       </c>
       <c r="I10">
-        <v>3.597253352243071E-38</v>
+        <v>4.991215377846931E-40</v>
       </c>
       <c r="J10">
-        <v>12.5</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="K10">
-        <v>21.88999938964844</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="L10">
-        <v>1.371754389154734</v>
+        <v>1.78951445664346</v>
       </c>
       <c r="M10">
-        <v>-0.981631589673384</v>
+        <v>-3.65400130604931</v>
       </c>
       <c r="N10">
-        <v>0.3598985978946566</v>
+        <v>0.9511024299581351</v>
       </c>
       <c r="O10">
-        <v>-0.3759838902111845</v>
+        <v>0.9853705359187472</v>
       </c>
       <c r="P10">
-        <v>0.01656043997450866</v>
+        <v>0.01551501914168757</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2987</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3737895022101054</v>
+        <v>0.6577950243679709</v>
       </c>
       <c r="E11">
-        <v>0.653848985912356</v>
+        <v>0.8979920186719927</v>
       </c>
       <c r="F11">
-        <v>0.005894964514537351</v>
+        <v>0.005664646095158044</v>
       </c>
       <c r="G11">
-        <v>11.32828170233893</v>
+        <v>8.344949375277485</v>
       </c>
       <c r="H11">
-        <v>0.7357910818483268</v>
+        <v>0.2539254488859046</v>
       </c>
       <c r="I11">
-        <v>3.828716408950026E-44</v>
+        <v>5.744179650990414E-59</v>
       </c>
       <c r="J11">
-        <v>27.10000038146973</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="K11">
-        <v>23.29000091552734</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="L11">
-        <v>1.212139727237862</v>
+        <v>0.7174030214984093</v>
       </c>
       <c r="M11">
-        <v>-1.770275204105182</v>
+        <v>-0.5933554631736442</v>
       </c>
       <c r="N11">
-        <v>0.6976265553524089</v>
+        <v>0.2561677936054538</v>
       </c>
       <c r="O11">
-        <v>-1.364856290753591</v>
+        <v>-0.3859212810268033</v>
       </c>
       <c r="P11">
-        <v>0.01709501425827973</v>
+        <v>0.01570836192554711</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,46 +73,49 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>IRBR3</t>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>ELET6</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
     <t>NTCO3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -540,161 +543,161 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.5310917018014452</v>
+        <v>0.5457573903417908</v>
       </c>
       <c r="E2">
-        <v>0.6078784128143032</v>
+        <v>0.5797938492855186</v>
       </c>
       <c r="F2">
-        <v>9.491648563021935E-08</v>
+        <v>1.086486634100543E-08</v>
       </c>
       <c r="G2">
-        <v>-1.936636492563398</v>
+        <v>-2.240999408472418</v>
       </c>
       <c r="H2">
-        <v>0.9454745309240623</v>
+        <v>0.9522893410146805</v>
       </c>
       <c r="I2">
-        <v>4.468603145022592E-136</v>
+        <v>2.814712893406519E-137</v>
       </c>
       <c r="J2">
-        <v>36.02000045776367</v>
+        <v>35.63999938964844</v>
       </c>
       <c r="K2">
-        <v>40.38999938964844</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="L2">
-        <v>0.821097454513307</v>
+        <v>0.8485955043007536</v>
       </c>
       <c r="M2">
-        <v>-0.5757143183701174</v>
+        <v>-0.5772682232695203</v>
       </c>
       <c r="N2">
-        <v>0.2219614993084777</v>
+        <v>0.2121726994678317</v>
       </c>
       <c r="O2">
-        <v>-0.2310787766239528</v>
+        <v>-0.3629409917208903</v>
       </c>
       <c r="P2">
-        <v>0.006829225199409327</v>
+        <v>0.006122539789775618</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1853</v>
+        <v>1155</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.5310917018014452</v>
+        <v>0.3797621161410451</v>
       </c>
       <c r="E3">
-        <v>0.6402520129908854</v>
+        <v>0.4769244348047141</v>
       </c>
       <c r="F3">
-        <v>0.001189271356119247</v>
+        <v>6.957508357284989E-05</v>
       </c>
       <c r="G3">
-        <v>12.79534510429989</v>
+        <v>-4.576330379762301</v>
       </c>
       <c r="H3">
-        <v>1.117770258648532</v>
+        <v>1.459268637480333</v>
       </c>
       <c r="I3">
-        <v>1.549163284064629E-57</v>
+        <v>9.91880540119859E-79</v>
       </c>
       <c r="J3">
-        <v>36.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="K3">
-        <v>22.40999984741211</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="L3">
-        <v>1.917333997102531</v>
+        <v>0.6259337920728676</v>
       </c>
       <c r="M3">
-        <v>-2.038214536046091</v>
+        <v>-0.583765941452679</v>
       </c>
       <c r="N3">
-        <v>0.8072891511496303</v>
+        <v>0.232728000298456</v>
       </c>
       <c r="O3">
-        <v>-1.824575972291615</v>
+        <v>0.2667492192840548</v>
       </c>
       <c r="P3">
-        <v>0.01214834759973575</v>
+        <v>0.009726558427392361</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>238</v>
+        <v>2743</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4778587764799289</v>
+        <v>0.4164094957788337</v>
       </c>
       <c r="E4">
-        <v>0.2173773397113821</v>
+        <v>0.7195596380198497</v>
       </c>
       <c r="F4">
-        <v>0.001173301730461936</v>
+        <v>0.005428009343974223</v>
       </c>
       <c r="G4">
-        <v>-3.303421315720685</v>
+        <v>9.084400915480256</v>
       </c>
       <c r="H4">
-        <v>0.4343018851390882</v>
+        <v>0.1805023912196288</v>
       </c>
       <c r="I4">
-        <v>2.131177235226709E-53</v>
+        <v>3.245952070785263E-70</v>
       </c>
       <c r="J4">
-        <v>10.71000003814697</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="K4">
-        <v>33.06999969482422</v>
+        <v>89.37000274658203</v>
       </c>
       <c r="L4">
-        <v>0.7666012362935195</v>
+        <v>1.372708720631735</v>
       </c>
       <c r="M4">
-        <v>-0.7762727625938108</v>
+        <v>-1.081284055326371</v>
       </c>
       <c r="N4">
-        <v>0.3053102812495561</v>
+        <v>0.4832415528443266</v>
       </c>
       <c r="O4">
-        <v>-0.3489418551435737</v>
+        <v>-0.5358998093673257</v>
       </c>
       <c r="P4">
-        <v>0.01277858699173351</v>
+        <v>0.01003571647239415</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
         <v>28</v>
@@ -702,394 +705,394 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1813</v>
+        <v>1156</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5310917018014452</v>
+        <v>0.3797621161410451</v>
       </c>
       <c r="E5">
-        <v>0.3857620608253356</v>
+        <v>0.58874686090059</v>
       </c>
       <c r="F5">
-        <v>0.001194796004978793</v>
+        <v>0.000345936694640072</v>
       </c>
       <c r="G5">
-        <v>4.417082517012192</v>
+        <v>-2.863203572628465</v>
       </c>
       <c r="H5">
-        <v>2.263273951981773</v>
+        <v>0.3928962600196258</v>
       </c>
       <c r="I5">
-        <v>1.418694272494945E-51</v>
+        <v>2.118945777844464E-73</v>
       </c>
       <c r="J5">
-        <v>36.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="K5">
-        <v>14.43000030517578</v>
+        <v>35.08000183105469</v>
       </c>
       <c r="L5">
-        <v>2.100148834717743</v>
+        <v>0.62182388430484</v>
       </c>
       <c r="M5">
-        <v>-1.954535691506734</v>
+        <v>-0.7564554582421863</v>
       </c>
       <c r="N5">
-        <v>0.8903260940214397</v>
+        <v>0.2543572034877746</v>
       </c>
       <c r="O5">
-        <v>-1.0561258770419</v>
+        <v>0.3704020135784791</v>
       </c>
       <c r="P5">
-        <v>0.01376184934950138</v>
+        <v>0.01109529753207062</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2430</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6825613450799359</v>
+        <v>0.5171096779951802</v>
       </c>
       <c r="E6">
-        <v>0.3442665997691384</v>
+        <v>0.2116574007141325</v>
       </c>
       <c r="F6">
-        <v>0.001760968327601632</v>
+        <v>0.001952730772770962</v>
       </c>
       <c r="G6">
-        <v>-3.592652549445765</v>
+        <v>-3.367808019234498</v>
       </c>
       <c r="H6">
-        <v>9.671884516212048</v>
+        <v>0.436071810264505</v>
       </c>
       <c r="I6">
-        <v>2.513735300084477E-42</v>
+        <v>2.182827043491846E-52</v>
       </c>
       <c r="J6">
-        <v>40.88999938964844</v>
+        <v>10.3100004196167</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>32.5</v>
       </c>
       <c r="L6">
-        <v>12.7146521857896</v>
+        <v>0.774261840888073</v>
       </c>
       <c r="M6">
-        <v>-10.49786926954513</v>
+        <v>-0.7722405031560164</v>
       </c>
       <c r="N6">
-        <v>3.596426990022007</v>
+        <v>0.3098957050893275</v>
       </c>
       <c r="O6">
-        <v>-3.876770641966033</v>
+        <v>-0.4945253947452137</v>
       </c>
       <c r="P6">
-        <v>0.01448414006070411</v>
+        <v>0.01310875355191059</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1040</v>
+        <v>1925</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.1500161287679648</v>
+        <v>0.7114499740418159</v>
       </c>
       <c r="E7">
-        <v>0.2494296918193091</v>
+        <v>0.5932522254781221</v>
       </c>
       <c r="F7">
-        <v>0.00265231130868402</v>
+        <v>0.002591413718020945</v>
       </c>
       <c r="G7">
-        <v>7.631204708141274</v>
+        <v>6.546659156692156</v>
       </c>
       <c r="H7">
-        <v>-0.2673950078374525</v>
+        <v>2.849971239253185</v>
       </c>
       <c r="I7">
-        <v>9.067408034950601E-21</v>
+        <v>1.216066809772578E-53</v>
       </c>
       <c r="J7">
-        <v>3.539999961853027</v>
+        <v>53.79000091552734</v>
       </c>
       <c r="K7">
-        <v>14.11999988555908</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="L7">
-        <v>1.011007667350373</v>
+        <v>5.030166304749805</v>
       </c>
       <c r="M7">
-        <v>-0.589284636628669</v>
+        <v>-6.608789294982323</v>
       </c>
       <c r="N7">
-        <v>0.2937837796658901</v>
+        <v>2.27677093300924</v>
       </c>
       <c r="O7">
-        <v>-0.3155872662243473</v>
+        <v>4.208774958934342</v>
       </c>
       <c r="P7">
-        <v>0.01503264700844765</v>
+        <v>0.01354869878172862</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1667</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.2188185311469427</v>
+        <v>0.2116574007141325</v>
       </c>
       <c r="E8">
-        <v>0.6825613450799359</v>
+        <v>0.3902646858739041</v>
       </c>
       <c r="F8">
-        <v>0.004155412456169234</v>
+        <v>0.002247159000579976</v>
       </c>
       <c r="G8">
-        <v>16.06864539815486</v>
+        <v>4.667797365043729</v>
       </c>
       <c r="H8">
-        <v>0.12077390969072</v>
+        <v>2.312883268254142</v>
       </c>
       <c r="I8">
-        <v>4.29544622979538E-30</v>
+        <v>1.193809029628179E-40</v>
       </c>
       <c r="J8">
-        <v>21.73999977111816</v>
+        <v>32.5</v>
       </c>
       <c r="K8">
-        <v>40.88999938964844</v>
+        <v>11.6899995803833</v>
       </c>
       <c r="L8">
-        <v>2.145771093813789</v>
+        <v>1.74700731701278</v>
       </c>
       <c r="M8">
-        <v>-1.370234685163371</v>
+        <v>-2.448780975271042</v>
       </c>
       <c r="N8">
-        <v>0.6819468804956501</v>
+        <v>0.779952088788073</v>
       </c>
       <c r="O8">
-        <v>0.7329092794243079</v>
+        <v>0.7945981995897959</v>
       </c>
       <c r="P8">
-        <v>0.01512346816752947</v>
+        <v>0.01378532020387454</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2412</v>
+        <v>1385</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.2519287331661675</v>
+        <v>0.361254722358481</v>
       </c>
       <c r="E9">
-        <v>0.6402520129908854</v>
+        <v>0.6588892917140841</v>
       </c>
       <c r="F9">
-        <v>0.00150764213128948</v>
+        <v>0.001254728201837673</v>
       </c>
       <c r="G9">
-        <v>10.9930142394034</v>
+        <v>0.9609646505723538</v>
       </c>
       <c r="H9">
-        <v>0.4529562504686142</v>
+        <v>0.58851150904018</v>
       </c>
       <c r="I9">
-        <v>1.00291013405814E-36</v>
+        <v>4.350083019889283E-59</v>
       </c>
       <c r="J9">
-        <v>20.51000022888184</v>
+        <v>9.380000114440918</v>
       </c>
       <c r="K9">
-        <v>22.40999984741211</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="L9">
-        <v>1.216936838172039</v>
+        <v>0.4626049979722406</v>
       </c>
       <c r="M9">
-        <v>-0.8763467763147474</v>
+        <v>-0.6113547252303899</v>
       </c>
       <c r="N9">
-        <v>0.5105133761283743</v>
+        <v>0.1969301366457558</v>
       </c>
       <c r="O9">
-        <v>-0.6337635144075708</v>
+        <v>0.415278716422792</v>
       </c>
       <c r="P9">
-        <v>0.01546228402961862</v>
+        <v>0.01380975617177213</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2054</v>
+        <v>1862</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5530188145808014</v>
+        <v>0.5797938492855186</v>
       </c>
       <c r="E10">
-        <v>0.2519287331661675</v>
+        <v>0.6588892917140841</v>
       </c>
       <c r="F10">
-        <v>0.004860333145094639</v>
+        <v>0.004108654617377244</v>
       </c>
       <c r="G10">
-        <v>-3.412826624861813</v>
+        <v>6.373882235415399</v>
       </c>
       <c r="H10">
-        <v>1.663454716834038</v>
+        <v>2.417379576544849</v>
       </c>
       <c r="I10">
-        <v>4.991215377846931E-40</v>
+        <v>4.245908771917807E-56</v>
       </c>
       <c r="J10">
-        <v>31.69000053405762</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="K10">
-        <v>20.51000022888184</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="L10">
-        <v>1.78951445664346</v>
+        <v>2.191433737548905</v>
       </c>
       <c r="M10">
-        <v>-3.65400130604931</v>
+        <v>-2.029615106559611</v>
       </c>
       <c r="N10">
-        <v>0.9511024299581351</v>
+        <v>0.8580813972450558</v>
       </c>
       <c r="O10">
-        <v>0.9853705359187472</v>
+        <v>0.9097544488296307</v>
       </c>
       <c r="P10">
-        <v>0.01551501914168757</v>
+        <v>0.01508255198130772</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>47</v>
+        <v>1040</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.6577950243679709</v>
+        <v>0.1012235023028389</v>
       </c>
       <c r="E11">
-        <v>0.8979920186719927</v>
+        <v>0.1633652603466177</v>
       </c>
       <c r="F11">
-        <v>0.005664646095158044</v>
+        <v>0.00341661118185765</v>
       </c>
       <c r="G11">
-        <v>8.344949375277485</v>
+        <v>7.431856903272887</v>
       </c>
       <c r="H11">
-        <v>0.2539254488859046</v>
+        <v>-0.2536154321773608</v>
       </c>
       <c r="I11">
-        <v>5.744179650990414E-59</v>
+        <v>3.996319412956277E-19</v>
       </c>
       <c r="J11">
-        <v>12.55000019073486</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="K11">
-        <v>18.07999992370605</v>
+        <v>14.52999973297119</v>
       </c>
       <c r="L11">
-        <v>0.7174030214984093</v>
+        <v>0.984646034470738</v>
       </c>
       <c r="M11">
-        <v>-0.5933554631736442</v>
+        <v>-0.5776146506737843</v>
       </c>
       <c r="N11">
-        <v>0.2561677936054538</v>
+        <v>0.2892637980782177</v>
       </c>
       <c r="O11">
-        <v>-0.3859212810268033</v>
+        <v>-0.3268246651645161</v>
       </c>
       <c r="P11">
-        <v>0.01570836192554711</v>
+        <v>0.01523008482695428</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,49 +73,49 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>CMIG4</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
   </si>
   <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>NTCO3</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
   </si>
 </sst>
 </file>
@@ -543,329 +543,329 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.5457573903417908</v>
+        <v>0.5622269580242427</v>
       </c>
       <c r="E2">
-        <v>0.5797938492855186</v>
+        <v>0.5747570676774058</v>
       </c>
       <c r="F2">
-        <v>1.086486634100543E-08</v>
+        <v>1.067377267850101E-09</v>
       </c>
       <c r="G2">
-        <v>-2.240999408472418</v>
+        <v>-2.436061244248986</v>
       </c>
       <c r="H2">
-        <v>0.9522893410146805</v>
+        <v>0.9566577627137899</v>
       </c>
       <c r="I2">
-        <v>2.814712893406519E-137</v>
+        <v>7.608354848794009E-138</v>
       </c>
       <c r="J2">
-        <v>35.63999938964844</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="K2">
-        <v>40.15999984741211</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="L2">
-        <v>0.8485955043007536</v>
+        <v>0.8661817431341916</v>
       </c>
       <c r="M2">
-        <v>-0.5772682232695203</v>
+        <v>-0.5783048348996971</v>
       </c>
       <c r="N2">
-        <v>0.2121726994678317</v>
+        <v>0.2108261178309742</v>
       </c>
       <c r="O2">
-        <v>-0.3629409917208903</v>
+        <v>-0.5738109308676869</v>
       </c>
       <c r="P2">
-        <v>0.006122539789775618</v>
+        <v>0.005722790086781439</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1155</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.3797621161410451</v>
+        <v>0.5979122875090863</v>
       </c>
       <c r="E3">
-        <v>0.4769244348047141</v>
+        <v>0.3637418471386677</v>
       </c>
       <c r="F3">
-        <v>6.957508357284989E-05</v>
+        <v>9.246553441137194E-05</v>
       </c>
       <c r="G3">
-        <v>-4.576330379762301</v>
+        <v>-3.769391695432446</v>
       </c>
       <c r="H3">
-        <v>1.459268637480333</v>
+        <v>1.205965305192896</v>
       </c>
       <c r="I3">
-        <v>9.91880540119859E-79</v>
+        <v>2.520690160795878E-57</v>
       </c>
       <c r="J3">
-        <v>11.28999996185303</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="K3">
-        <v>10.6899995803833</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="L3">
-        <v>0.6259337920728676</v>
+        <v>0.7193270782968888</v>
       </c>
       <c r="M3">
-        <v>-0.583765941452679</v>
+        <v>-0.8132539826396545</v>
       </c>
       <c r="N3">
-        <v>0.232728000298456</v>
+        <v>0.286775108888397</v>
       </c>
       <c r="O3">
-        <v>0.2667492192840548</v>
+        <v>-0.3009992884512425</v>
       </c>
       <c r="P3">
-        <v>0.009726558427392361</v>
+        <v>0.01050052064580877</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2743</v>
+        <v>1142</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4164094957788337</v>
+        <v>0.7197486218346156</v>
       </c>
       <c r="E4">
-        <v>0.7195596380198497</v>
+        <v>0.8453690341427291</v>
       </c>
       <c r="F4">
-        <v>0.005428009343974223</v>
+        <v>0.001118567893296422</v>
       </c>
       <c r="G4">
-        <v>9.084400915480256</v>
+        <v>2.75697156948911</v>
       </c>
       <c r="H4">
-        <v>0.1805023912196288</v>
+        <v>0.1696059858577387</v>
       </c>
       <c r="I4">
-        <v>3.245952070785263E-70</v>
+        <v>1.194731827105238E-64</v>
       </c>
       <c r="J4">
-        <v>24.68000030517578</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="K4">
-        <v>89.37000274658203</v>
+        <v>55.65000152587891</v>
       </c>
       <c r="L4">
-        <v>1.372708720631735</v>
+        <v>0.8202297088167807</v>
       </c>
       <c r="M4">
-        <v>-1.081284055326371</v>
+        <v>-0.8572184978752517</v>
       </c>
       <c r="N4">
-        <v>0.4832415528443266</v>
+        <v>0.3458584191807231</v>
       </c>
       <c r="O4">
-        <v>-0.5358998093673257</v>
+        <v>-0.6855447123886282</v>
       </c>
       <c r="P4">
-        <v>0.01003571647239415</v>
+        <v>0.01206984520224171</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1156</v>
+        <v>1853</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.3797621161410451</v>
+        <v>0.5622269580242427</v>
       </c>
       <c r="E5">
-        <v>0.58874686090059</v>
+        <v>0.6604081411250713</v>
       </c>
       <c r="F5">
-        <v>0.000345936694640072</v>
+        <v>0.002824559227745666</v>
       </c>
       <c r="G5">
-        <v>-2.863203572628465</v>
+        <v>12.81819153507803</v>
       </c>
       <c r="H5">
-        <v>0.3928962600196258</v>
+        <v>1.116310914365454</v>
       </c>
       <c r="I5">
-        <v>2.118945777844464E-73</v>
+        <v>1.566953361311577E-54</v>
       </c>
       <c r="J5">
-        <v>11.28999996185303</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="K5">
-        <v>35.08000183105469</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="L5">
-        <v>0.62182388430484</v>
+        <v>1.924633920041842</v>
       </c>
       <c r="M5">
-        <v>-0.7564554582421863</v>
+        <v>-2.239373024611666</v>
       </c>
       <c r="N5">
-        <v>0.2543572034877746</v>
+        <v>0.846001110952699</v>
       </c>
       <c r="O5">
-        <v>0.3704020135784791</v>
+        <v>-2.139840414300636</v>
       </c>
       <c r="P5">
-        <v>0.01109529753207062</v>
+        <v>0.01318449828654431</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>238</v>
+        <v>1902</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5171096779951802</v>
+        <v>0.5747570676774058</v>
       </c>
       <c r="E6">
-        <v>0.2116574007141325</v>
+        <v>0.6604081411250713</v>
       </c>
       <c r="F6">
-        <v>0.001952730772770962</v>
+        <v>0.001574128213123256</v>
       </c>
       <c r="G6">
-        <v>-3.367808019234498</v>
+        <v>15.8251614482058</v>
       </c>
       <c r="H6">
-        <v>0.436071810264505</v>
+        <v>1.172140032584591</v>
       </c>
       <c r="I6">
-        <v>2.182827043491846E-52</v>
+        <v>1.496578726137127E-57</v>
       </c>
       <c r="J6">
-        <v>10.3100004196167</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="K6">
-        <v>32.5</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="L6">
-        <v>0.774261840888073</v>
+        <v>1.765501755641736</v>
       </c>
       <c r="M6">
-        <v>-0.7722405031560164</v>
+        <v>-1.979706226589627</v>
       </c>
       <c r="N6">
-        <v>0.3098957050893275</v>
+        <v>0.8364183514695968</v>
       </c>
       <c r="O6">
-        <v>-0.4945253947452137</v>
+        <v>-1.635198245437167</v>
       </c>
       <c r="P6">
-        <v>0.01310875355191059</v>
+        <v>0.01375884718206413</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1925</v>
+        <v>1385</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7114499740418159</v>
+        <v>0.388626610777238</v>
       </c>
       <c r="E7">
-        <v>0.5932522254781221</v>
+        <v>0.5789217131970019</v>
       </c>
       <c r="F7">
-        <v>0.002591413718020945</v>
+        <v>0.001522456738667177</v>
       </c>
       <c r="G7">
-        <v>6.546659156692156</v>
+        <v>1.083967272539683</v>
       </c>
       <c r="H7">
-        <v>2.849971239253185</v>
+        <v>0.5802528343218544</v>
       </c>
       <c r="I7">
-        <v>1.216066809772578E-53</v>
+        <v>3.404922352905704E-59</v>
       </c>
       <c r="J7">
-        <v>53.79000091552734</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="K7">
-        <v>15.10000038146973</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="L7">
-        <v>5.030166304749805</v>
+        <v>0.4615004167376586</v>
       </c>
       <c r="M7">
-        <v>-6.608789294982323</v>
+        <v>-0.6183590759620987</v>
       </c>
       <c r="N7">
-        <v>2.27677093300924</v>
+        <v>0.1944686469320876</v>
       </c>
       <c r="O7">
-        <v>4.208774958934342</v>
+        <v>0.2857034052211507</v>
       </c>
       <c r="P7">
-        <v>0.01354869878172862</v>
+        <v>0.0139999057088204</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>22</v>
@@ -873,111 +873,111 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>740</v>
+        <v>1591</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2116574007141325</v>
+        <v>0.1205312513903238</v>
       </c>
       <c r="E8">
-        <v>0.3902646858739041</v>
+        <v>0.428779784157784</v>
       </c>
       <c r="F8">
-        <v>0.002247159000579976</v>
+        <v>0.003198305872066526</v>
       </c>
       <c r="G8">
-        <v>4.667797365043729</v>
+        <v>7.924137312197107</v>
       </c>
       <c r="H8">
-        <v>2.312883268254142</v>
+        <v>0.6379187595445575</v>
       </c>
       <c r="I8">
-        <v>1.193809029628179E-40</v>
+        <v>1.004812452811995E-32</v>
       </c>
       <c r="J8">
-        <v>32.5</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="K8">
-        <v>11.6899995803833</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="L8">
-        <v>1.74700731701278</v>
+        <v>1.350595542313602</v>
       </c>
       <c r="M8">
-        <v>-2.448780975271042</v>
+        <v>-1.246104432736384</v>
       </c>
       <c r="N8">
-        <v>0.779952088788073</v>
+        <v>0.4173311201313628</v>
       </c>
       <c r="O8">
-        <v>0.7945981995897959</v>
+        <v>-0.5190626933091127</v>
       </c>
       <c r="P8">
-        <v>0.01378532020387454</v>
+        <v>0.01428204222931331</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1385</v>
+        <v>2054</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.361254722358481</v>
+        <v>0.3567854311094185</v>
       </c>
       <c r="E9">
-        <v>0.6588892917140841</v>
+        <v>0.3930667433457923</v>
       </c>
       <c r="F9">
-        <v>0.001254728201837673</v>
+        <v>0.001660465678972366</v>
       </c>
       <c r="G9">
-        <v>0.9609646505723538</v>
+        <v>-2.548543505723516</v>
       </c>
       <c r="H9">
-        <v>0.58851150904018</v>
+        <v>1.625043956185674</v>
       </c>
       <c r="I9">
-        <v>4.350083019889283E-59</v>
+        <v>6.495500123068622E-39</v>
       </c>
       <c r="J9">
-        <v>9.380000114440918</v>
+        <v>31.36000061035156</v>
       </c>
       <c r="K9">
-        <v>13.60000038146973</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="L9">
-        <v>0.4626049979722406</v>
+        <v>1.762585890334414</v>
       </c>
       <c r="M9">
-        <v>-0.6113547252303899</v>
+        <v>-3.621777265793774</v>
       </c>
       <c r="N9">
-        <v>0.1969301366457558</v>
+        <v>0.9542970197116176</v>
       </c>
       <c r="O9">
-        <v>0.415278716422792</v>
+        <v>1.082654961314326</v>
       </c>
       <c r="P9">
-        <v>0.01380975617177213</v>
+        <v>0.01471310205103322</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
         <v>24</v>
@@ -985,114 +985,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1862</v>
+        <v>1563</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5797938492855186</v>
+        <v>0.1205312513903238</v>
       </c>
       <c r="E10">
-        <v>0.6588892917140841</v>
+        <v>0.1973005614544211</v>
       </c>
       <c r="F10">
-        <v>0.004108654617377244</v>
+        <v>0.003315766384460362</v>
       </c>
       <c r="G10">
-        <v>6.373882235415399</v>
+        <v>16.28192547808578</v>
       </c>
       <c r="H10">
-        <v>2.417379576544849</v>
+        <v>-0.1268256429043871</v>
       </c>
       <c r="I10">
-        <v>4.245908771917807E-56</v>
+        <v>1.542679543399669E-20</v>
       </c>
       <c r="J10">
-        <v>40.15999984741211</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="K10">
-        <v>13.60000038146973</v>
+        <v>35.18999862670898</v>
       </c>
       <c r="L10">
-        <v>2.191433737548905</v>
+        <v>1.209662113878787</v>
       </c>
       <c r="M10">
-        <v>-2.029615106559611</v>
+        <v>-1.174622505815066</v>
       </c>
       <c r="N10">
-        <v>0.8580813972450558</v>
+        <v>0.5108477479755806</v>
       </c>
       <c r="O10">
-        <v>0.9097544488296307</v>
+        <v>-0.52893131659589</v>
       </c>
       <c r="P10">
-        <v>0.01508255198130772</v>
+        <v>0.01476749161923502</v>
       </c>
       <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
         <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1040</v>
+        <v>789</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1012235023028389</v>
+        <v>0.2312369793052373</v>
       </c>
       <c r="E11">
-        <v>0.1633652603466177</v>
+        <v>0.5804852834152244</v>
       </c>
       <c r="F11">
-        <v>0.00341661118185765</v>
+        <v>0.004054491195758174</v>
       </c>
       <c r="G11">
-        <v>7.431856903272887</v>
+        <v>9.348256463615447</v>
       </c>
       <c r="H11">
-        <v>-0.2536154321773608</v>
+        <v>0.8459371748292005</v>
       </c>
       <c r="I11">
-        <v>3.996319412956277E-19</v>
+        <v>2.720697295037148E-31</v>
       </c>
       <c r="J11">
-        <v>3.420000076293945</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="K11">
-        <v>14.52999973297119</v>
+        <v>26.3700008392334</v>
       </c>
       <c r="L11">
-        <v>0.984646034470738</v>
+        <v>2.705087497531622</v>
       </c>
       <c r="M11">
-        <v>-0.5776146506737843</v>
+        <v>-1.598146676292593</v>
       </c>
       <c r="N11">
-        <v>0.2892637980782177</v>
+        <v>0.9099320782618335</v>
       </c>
       <c r="O11">
-        <v>-0.3268246651645161</v>
+        <v>1.944378000320896</v>
       </c>
       <c r="P11">
-        <v>0.01523008482695428</v>
+        <v>0.01478752105567842</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,34 +73,43 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>B3SA3</t>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>CMIG4</t>
   </si>
   <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>FLRY3</t>
@@ -109,13 +118,7 @@
     <t>USIM5</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>JBSS3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
   </si>
 </sst>
 </file>
@@ -543,108 +546,108 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5622269580242427</v>
+        <v>0.6295487389340161</v>
       </c>
       <c r="E2">
-        <v>0.5747570676774058</v>
+        <v>0.6726747244745539</v>
       </c>
       <c r="F2">
-        <v>1.067377267850101E-09</v>
+        <v>1.284123872595869E-09</v>
       </c>
       <c r="G2">
-        <v>-2.436061244248986</v>
+        <v>-2.648963002110743</v>
       </c>
       <c r="H2">
-        <v>0.9566577627137899</v>
+        <v>0.9614281241181377</v>
       </c>
       <c r="I2">
-        <v>7.608354848794009E-138</v>
+        <v>4.153123895853951E-141</v>
       </c>
       <c r="J2">
-        <v>35.84000015258789</v>
+        <v>35.27000045776367</v>
       </c>
       <c r="K2">
-        <v>40.61000061035156</v>
+        <v>39.90000152587891</v>
       </c>
       <c r="L2">
-        <v>0.8661817431341916</v>
+        <v>0.6488956204580205</v>
       </c>
       <c r="M2">
-        <v>-0.5783048348996971</v>
+        <v>-0.5795445975675264</v>
       </c>
       <c r="N2">
-        <v>0.2108261178309742</v>
+        <v>0.2010901550181907</v>
       </c>
       <c r="O2">
-        <v>-0.5738109308676869</v>
+        <v>-0.4420201594621744</v>
       </c>
       <c r="P2">
-        <v>0.005722790086781439</v>
+        <v>0.005566242578413778</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>243</v>
+        <v>2398</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.5979122875090863</v>
+        <v>0.4200252879102248</v>
       </c>
       <c r="E3">
-        <v>0.3637418471386677</v>
+        <v>0.7161030932204572</v>
       </c>
       <c r="F3">
-        <v>9.246553441137194E-05</v>
+        <v>0.004031350078780376</v>
       </c>
       <c r="G3">
-        <v>-3.769391695432446</v>
+        <v>6.422462899171437</v>
       </c>
       <c r="H3">
-        <v>1.205965305192896</v>
+        <v>4.969220501019691</v>
       </c>
       <c r="I3">
-        <v>2.520690160795878E-57</v>
+        <v>7.576613259946573E-43</v>
       </c>
       <c r="J3">
-        <v>10.15999984741211</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="K3">
-        <v>11.80000019073486</v>
+        <v>2.650000095367432</v>
       </c>
       <c r="L3">
-        <v>0.7193270782968888</v>
+        <v>0.9575711591600751</v>
       </c>
       <c r="M3">
-        <v>-0.8132539826396545</v>
+        <v>-1.045200185199224</v>
       </c>
       <c r="N3">
-        <v>0.286775108888397</v>
+        <v>0.4665529123197521</v>
       </c>
       <c r="O3">
-        <v>-0.3009992884512425</v>
+        <v>0.4891022229306383</v>
       </c>
       <c r="P3">
-        <v>0.01050052064580877</v>
+        <v>0.01175108314348226</v>
       </c>
       <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -655,444 +658,444 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0.7197486218346156</v>
+        <v>0.7457449041122479</v>
       </c>
       <c r="E4">
-        <v>0.8453690341427291</v>
+        <v>0.7544858845246547</v>
       </c>
       <c r="F4">
-        <v>0.001118567893296422</v>
+        <v>0.001117598540586775</v>
       </c>
       <c r="G4">
-        <v>2.75697156948911</v>
+        <v>2.837273842644768</v>
       </c>
       <c r="H4">
-        <v>0.1696059858577387</v>
+        <v>0.1676614487029243</v>
       </c>
       <c r="I4">
-        <v>1.194731827105238E-64</v>
+        <v>7.688927581263635E-64</v>
       </c>
       <c r="J4">
-        <v>11.51000022888184</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="K4">
-        <v>55.65000152587891</v>
+        <v>54.13000106811523</v>
       </c>
       <c r="L4">
-        <v>0.8202297088167807</v>
+        <v>0.827781624909063</v>
       </c>
       <c r="M4">
-        <v>-0.8572184978752517</v>
+        <v>-0.8597976185792753</v>
       </c>
       <c r="N4">
-        <v>0.3458584191807231</v>
+        <v>0.3488296668120014</v>
       </c>
       <c r="O4">
-        <v>-0.6855447123886282</v>
+        <v>-0.5527885833385611</v>
       </c>
       <c r="P4">
-        <v>0.01206984520224171</v>
+        <v>0.01231568081268836</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1853</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5622269580242427</v>
+        <v>0.494545535966518</v>
       </c>
       <c r="E5">
-        <v>0.6604081411250713</v>
+        <v>0.4136742973419418</v>
       </c>
       <c r="F5">
-        <v>0.002824559227745666</v>
+        <v>0.001519184343713192</v>
       </c>
       <c r="G5">
-        <v>12.81819153507803</v>
+        <v>4.371582495782792</v>
       </c>
       <c r="H5">
-        <v>1.116310914365454</v>
+        <v>0.8626535458278575</v>
       </c>
       <c r="I5">
-        <v>1.566953361311577E-54</v>
+        <v>1.765203092608137E-72</v>
       </c>
       <c r="J5">
-        <v>35.84000015258789</v>
+        <v>33.7400016784668</v>
       </c>
       <c r="K5">
-        <v>22.54000091552734</v>
+        <v>34.70000076293945</v>
       </c>
       <c r="L5">
-        <v>1.924633920041842</v>
+        <v>1.651055709563991</v>
       </c>
       <c r="M5">
-        <v>-2.239373024611666</v>
+        <v>-1.151396027485958</v>
       </c>
       <c r="N5">
-        <v>0.846001110952699</v>
+        <v>0.5620301198501103</v>
       </c>
       <c r="O5">
-        <v>-2.139840414300636</v>
+        <v>-0.5656595156950743</v>
       </c>
       <c r="P5">
-        <v>0.01318449828654431</v>
+        <v>0.01312143560523547</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1902</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.5747570676774058</v>
+        <v>0.4329324363884028</v>
       </c>
       <c r="E6">
-        <v>0.6604081411250713</v>
+        <v>0.6783959228893345</v>
       </c>
       <c r="F6">
-        <v>0.001574128213123256</v>
+        <v>0.0018436973771292</v>
       </c>
       <c r="G6">
-        <v>15.8251614482058</v>
+        <v>10.6741710596367</v>
       </c>
       <c r="H6">
-        <v>1.172140032584591</v>
+        <v>0.5685866094997153</v>
       </c>
       <c r="I6">
-        <v>1.496578726137127E-57</v>
+        <v>3.235195074179976E-50</v>
       </c>
       <c r="J6">
-        <v>40.61000061035156</v>
+        <v>25.95000076293945</v>
       </c>
       <c r="K6">
-        <v>22.54000091552734</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="L6">
-        <v>1.765501755641736</v>
+        <v>0.7232747737165894</v>
       </c>
       <c r="M6">
-        <v>-1.979706226589627</v>
+        <v>-1.251455723855226</v>
       </c>
       <c r="N6">
-        <v>0.8364183514695968</v>
+        <v>0.39473898571868</v>
       </c>
       <c r="O6">
-        <v>-1.635198245437167</v>
+        <v>0.4129760780179197</v>
       </c>
       <c r="P6">
-        <v>0.01375884718206413</v>
+        <v>0.01333854570802029</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1385</v>
+        <v>1925</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.388626610777238</v>
+        <v>0.7544858845246547</v>
       </c>
       <c r="E7">
-        <v>0.5789217131970019</v>
+        <v>0.6679456884244264</v>
       </c>
       <c r="F7">
-        <v>0.001522456738667177</v>
+        <v>0.002073056180912938</v>
       </c>
       <c r="G7">
-        <v>1.083967272539683</v>
+        <v>6.224060301656243</v>
       </c>
       <c r="H7">
-        <v>0.5802528343218544</v>
+        <v>2.881684585266215</v>
       </c>
       <c r="I7">
-        <v>3.404922352905704E-59</v>
+        <v>3.174360685462294E-53</v>
       </c>
       <c r="J7">
-        <v>9.470000267028809</v>
+        <v>54.13000106811523</v>
       </c>
       <c r="K7">
-        <v>13.96000003814697</v>
+        <v>15.71000003814697</v>
       </c>
       <c r="L7">
-        <v>0.4615004167376586</v>
+        <v>5.047999710398379</v>
       </c>
       <c r="M7">
-        <v>-0.6183590759620987</v>
+        <v>-6.693706948311522</v>
       </c>
       <c r="N7">
-        <v>0.1944686469320876</v>
+        <v>2.320913690317997</v>
       </c>
       <c r="O7">
-        <v>0.2857034052211507</v>
+        <v>2.63467582199921</v>
       </c>
       <c r="P7">
-        <v>0.0139999057088204</v>
+        <v>0.01351495928195639</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1591</v>
+        <v>2054</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0.1205312513903238</v>
+        <v>0.4617626441172467</v>
       </c>
       <c r="E8">
-        <v>0.428779784157784</v>
+        <v>0.4200252879102248</v>
       </c>
       <c r="F8">
-        <v>0.003198305872066526</v>
+        <v>0.0005831011589685888</v>
       </c>
       <c r="G8">
-        <v>7.924137312197107</v>
+        <v>-2.191999388802873</v>
       </c>
       <c r="H8">
-        <v>0.6379187595445575</v>
+        <v>1.609552103736831</v>
       </c>
       <c r="I8">
-        <v>1.004812452811995E-32</v>
+        <v>2.079334170583841E-39</v>
       </c>
       <c r="J8">
-        <v>11.28999996185303</v>
+        <v>31.42000007629395</v>
       </c>
       <c r="K8">
-        <v>6.090000152587891</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="L8">
-        <v>1.350595542313602</v>
+        <v>1.743764144979181</v>
       </c>
       <c r="M8">
-        <v>-1.246104432736384</v>
+        <v>-3.616741544194575</v>
       </c>
       <c r="N8">
-        <v>0.4173311201313628</v>
+        <v>0.940573576847399</v>
       </c>
       <c r="O8">
-        <v>-0.5190626933091127</v>
+        <v>1.292193344860323</v>
       </c>
       <c r="P8">
-        <v>0.01428204222931331</v>
+        <v>0.01370183290017884</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2054</v>
+        <v>1385</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.3567854311094185</v>
+        <v>0.4533133200121575</v>
       </c>
       <c r="E9">
-        <v>0.3930667433457923</v>
+        <v>0.5247417670584116</v>
       </c>
       <c r="F9">
-        <v>0.001660465678972366</v>
+        <v>0.001424858318873262</v>
       </c>
       <c r="G9">
-        <v>-2.548543505723516</v>
+        <v>1.177191386810239</v>
       </c>
       <c r="H9">
-        <v>1.625043956185674</v>
+        <v>0.5743455234437317</v>
       </c>
       <c r="I9">
-        <v>6.495500123068622E-39</v>
+        <v>1.348100970101497E-59</v>
       </c>
       <c r="J9">
-        <v>31.36000061035156</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="K9">
-        <v>20.20000076293945</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="L9">
-        <v>1.762585890334414</v>
+        <v>0.4554682123802696</v>
       </c>
       <c r="M9">
-        <v>-3.621777265793774</v>
+        <v>-0.6227168466692863</v>
       </c>
       <c r="N9">
-        <v>0.9542970197116176</v>
+        <v>0.191758639380538</v>
       </c>
       <c r="O9">
-        <v>1.082654961314326</v>
+        <v>0.2051487520476867</v>
       </c>
       <c r="P9">
-        <v>0.01471310205103322</v>
+        <v>0.01386252829583197</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1563</v>
+        <v>1591</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.1205312513903238</v>
+        <v>0.1334119610619512</v>
       </c>
       <c r="E10">
-        <v>0.1973005614544211</v>
+        <v>0.4327362581819272</v>
       </c>
       <c r="F10">
-        <v>0.003315766384460362</v>
+        <v>0.004075633614663669</v>
       </c>
       <c r="G10">
-        <v>16.28192547808578</v>
+        <v>7.896647260690234</v>
       </c>
       <c r="H10">
-        <v>-0.1268256429043871</v>
+        <v>0.640947687477295</v>
       </c>
       <c r="I10">
-        <v>1.542679543399669E-20</v>
+        <v>1.777342925165929E-32</v>
       </c>
       <c r="J10">
-        <v>11.28999996185303</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="K10">
-        <v>35.18999862670898</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>1.209662113878787</v>
+        <v>1.358973058738218</v>
       </c>
       <c r="M10">
-        <v>-1.174622505815066</v>
+        <v>-1.243693903703766</v>
       </c>
       <c r="N10">
-        <v>0.5108477479755806</v>
+        <v>0.4206381173679956</v>
       </c>
       <c r="O10">
-        <v>-0.52893131659589</v>
+        <v>-0.6623334618479491</v>
       </c>
       <c r="P10">
-        <v>0.01476749161923502</v>
+        <v>0.01457923604470405</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>789</v>
+        <v>1563</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.2312369793052373</v>
+        <v>0.1334119610619512</v>
       </c>
       <c r="E11">
-        <v>0.5804852834152244</v>
+        <v>0.256174095910354</v>
       </c>
       <c r="F11">
-        <v>0.004054491195758174</v>
+        <v>0.003219635639283178</v>
       </c>
       <c r="G11">
-        <v>9.348256463615447</v>
+        <v>16.34942841766936</v>
       </c>
       <c r="H11">
-        <v>0.8459371748292005</v>
+        <v>-0.1291233392176772</v>
       </c>
       <c r="I11">
-        <v>2.720697295037148E-31</v>
+        <v>2.034834717918155E-20</v>
       </c>
       <c r="J11">
-        <v>33.59999847412109</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="K11">
-        <v>26.3700008392334</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="L11">
-        <v>2.705087497531622</v>
+        <v>1.218098035696448</v>
       </c>
       <c r="M11">
-        <v>-1.598146676292593</v>
+        <v>-1.172605152509536</v>
       </c>
       <c r="N11">
-        <v>0.9099320782618335</v>
+        <v>0.5138022221117027</v>
       </c>
       <c r="O11">
-        <v>1.944378000320896</v>
+        <v>-0.6597251853789361</v>
       </c>
       <c r="P11">
-        <v>0.01478752105567842</v>
+        <v>0.0150135102564054</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,52 +73,52 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
   </si>
 </sst>
 </file>
@@ -546,164 +546,164 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.6295487389340161</v>
+        <v>0.6056972673886528</v>
       </c>
       <c r="E2">
-        <v>0.6726747244745539</v>
+        <v>0.6443857419735625</v>
       </c>
       <c r="F2">
-        <v>1.284123872595869E-09</v>
+        <v>1.52041056733334E-05</v>
       </c>
       <c r="G2">
-        <v>-2.648963002110743</v>
+        <v>-2.733086740261376</v>
       </c>
       <c r="H2">
-        <v>0.9614281241181377</v>
+        <v>0.9633187073639544</v>
       </c>
       <c r="I2">
-        <v>4.153123895853951E-141</v>
+        <v>3.065352895691564E-141</v>
       </c>
       <c r="J2">
-        <v>35.27000045776367</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="K2">
-        <v>39.90000152587891</v>
+        <v>40.20999908447266</v>
       </c>
       <c r="L2">
-        <v>0.6488956204580205</v>
+        <v>0.655089514908255</v>
       </c>
       <c r="M2">
-        <v>-0.5795445975675264</v>
+        <v>-0.5802891401676789</v>
       </c>
       <c r="N2">
-        <v>0.2010901550181907</v>
+        <v>0.2046832101959933</v>
       </c>
       <c r="O2">
-        <v>-0.4420201594621744</v>
+        <v>-0.4919592793654104</v>
       </c>
       <c r="P2">
-        <v>0.005566242578413778</v>
+        <v>0.00582004799748412</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2398</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4200252879102248</v>
+        <v>0.5773759501663973</v>
       </c>
       <c r="E3">
-        <v>0.7161030932204572</v>
+        <v>0.3622258088260577</v>
       </c>
       <c r="F3">
-        <v>0.004031350078780376</v>
+        <v>9.984408964370458E-05</v>
       </c>
       <c r="G3">
-        <v>6.422462899171437</v>
+        <v>-3.861613384287597</v>
       </c>
       <c r="H3">
-        <v>4.969220501019691</v>
+        <v>1.213019133098556</v>
       </c>
       <c r="I3">
-        <v>7.576613259946573E-43</v>
+        <v>5.505378605896886E-58</v>
       </c>
       <c r="J3">
-        <v>20.07999992370605</v>
+        <v>10.22999954223633</v>
       </c>
       <c r="K3">
-        <v>2.650000095367432</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="L3">
-        <v>0.9575711591600751</v>
+        <v>0.7211722772053655</v>
       </c>
       <c r="M3">
-        <v>-1.045200185199224</v>
+        <v>-0.8099038087312032</v>
       </c>
       <c r="N3">
-        <v>0.4665529123197521</v>
+        <v>0.287257579215144</v>
       </c>
       <c r="O3">
-        <v>0.4891022229306383</v>
+        <v>-0.3190545135059413</v>
       </c>
       <c r="P3">
-        <v>0.01175108314348226</v>
+        <v>0.01075025844774819</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1142</v>
+        <v>1188</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.7457449041122479</v>
+        <v>0.5525505764548992</v>
       </c>
       <c r="E4">
-        <v>0.7544858845246547</v>
+        <v>0.5886860340681382</v>
       </c>
       <c r="F4">
-        <v>0.001117598540586775</v>
+        <v>0.0001703793108612838</v>
       </c>
       <c r="G4">
-        <v>2.837273842644768</v>
+        <v>1.123437043283541</v>
       </c>
       <c r="H4">
-        <v>0.1676614487029243</v>
+        <v>0.1887196671789438</v>
       </c>
       <c r="I4">
-        <v>7.688927581263635E-64</v>
+        <v>3.727901864281115E-64</v>
       </c>
       <c r="J4">
-        <v>11.35999965667725</v>
+        <v>11.48999977111816</v>
       </c>
       <c r="K4">
-        <v>54.13000106811523</v>
+        <v>52.06000137329102</v>
       </c>
       <c r="L4">
-        <v>0.827781624909063</v>
+        <v>0.5585878160853408</v>
       </c>
       <c r="M4">
-        <v>-0.8597976185792753</v>
+        <v>-1.123728730510837</v>
       </c>
       <c r="N4">
-        <v>0.3488296668120014</v>
+        <v>0.2933763597582286</v>
       </c>
       <c r="O4">
-        <v>-0.5527885833385611</v>
+        <v>0.5418165953317846</v>
       </c>
       <c r="P4">
-        <v>0.01231568081268836</v>
+        <v>0.01322887087586081</v>
       </c>
       <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -717,43 +717,43 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.494545535966518</v>
+        <v>0.491039745382526</v>
       </c>
       <c r="E5">
-        <v>0.4136742973419418</v>
+        <v>0.4033674738622125</v>
       </c>
       <c r="F5">
-        <v>0.001519184343713192</v>
+        <v>0.001605670389542288</v>
       </c>
       <c r="G5">
-        <v>4.371582495782792</v>
+        <v>4.386169431531738</v>
       </c>
       <c r="H5">
-        <v>0.8626535458278575</v>
+        <v>0.8620972391717144</v>
       </c>
       <c r="I5">
-        <v>1.765203092608137E-72</v>
+        <v>9.626300607672532E-73</v>
       </c>
       <c r="J5">
-        <v>33.7400016784668</v>
+        <v>33.54000091552734</v>
       </c>
       <c r="K5">
-        <v>34.70000076293945</v>
+        <v>34.52000045776367</v>
       </c>
       <c r="L5">
-        <v>1.651055709563991</v>
+        <v>1.655021504452186</v>
       </c>
       <c r="M5">
-        <v>-1.151396027485958</v>
+        <v>-1.147801716944606</v>
       </c>
       <c r="N5">
-        <v>0.5620301198501103</v>
+        <v>0.5623700967591597</v>
       </c>
       <c r="O5">
-        <v>-0.5656595156950743</v>
+        <v>-0.6057656068487738</v>
       </c>
       <c r="P5">
-        <v>0.01312143560523547</v>
+        <v>0.01326156293575675</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -773,43 +773,43 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.4329324363884028</v>
+        <v>0.4314227643034816</v>
       </c>
       <c r="E6">
-        <v>0.6783959228893345</v>
+        <v>0.7087397407785978</v>
       </c>
       <c r="F6">
-        <v>0.0018436973771292</v>
+        <v>0.00217409826183431</v>
       </c>
       <c r="G6">
-        <v>10.6741710596367</v>
+        <v>10.82774821294157</v>
       </c>
       <c r="H6">
-        <v>0.5685866094997153</v>
+        <v>0.5623610459057997</v>
       </c>
       <c r="I6">
-        <v>3.235195074179976E-50</v>
+        <v>1.7794671063336E-50</v>
       </c>
       <c r="J6">
         <v>25.95000076293945</v>
       </c>
       <c r="K6">
-        <v>26.13999938964844</v>
+        <v>26</v>
       </c>
       <c r="L6">
-        <v>0.7232747737165894</v>
+        <v>0.72909688507373</v>
       </c>
       <c r="M6">
-        <v>-1.251455723855226</v>
+        <v>-1.25531469044283</v>
       </c>
       <c r="N6">
-        <v>0.39473898571868</v>
+        <v>0.394795059285799</v>
       </c>
       <c r="O6">
-        <v>0.4129760780179197</v>
+        <v>0.500865356447088</v>
       </c>
       <c r="P6">
-        <v>0.01333854570802029</v>
+        <v>0.01358334580021849</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1925</v>
+        <v>1385</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -829,43 +829,43 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0.7544858845246547</v>
+        <v>0.4430938226762632</v>
       </c>
       <c r="E7">
-        <v>0.6679456884244264</v>
+        <v>0.4877818801814657</v>
       </c>
       <c r="F7">
-        <v>0.002073056180912938</v>
+        <v>0.001332355804735776</v>
       </c>
       <c r="G7">
-        <v>6.224060301656243</v>
+        <v>1.208031965598574</v>
       </c>
       <c r="H7">
-        <v>2.881684585266215</v>
+        <v>0.5728474302292316</v>
       </c>
       <c r="I7">
-        <v>3.174360685462294E-53</v>
+        <v>2.084809401957102E-60</v>
       </c>
       <c r="J7">
-        <v>54.13000106811523</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="K7">
-        <v>15.71000003814697</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="L7">
-        <v>5.047999710398379</v>
+        <v>0.4467394897808425</v>
       </c>
       <c r="M7">
-        <v>-6.693706948311522</v>
+        <v>-0.6227802333605723</v>
       </c>
       <c r="N7">
-        <v>2.320913690317997</v>
+        <v>0.1903288750469495</v>
       </c>
       <c r="O7">
-        <v>2.63467582199921</v>
+        <v>0.2179313804360055</v>
       </c>
       <c r="P7">
-        <v>0.01351495928195639</v>
+        <v>0.01381304594277633</v>
       </c>
       <c r="Q7" t="s">
         <v>31</v>
@@ -882,49 +882,49 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.4617626441172467</v>
+        <v>0.4607129257707549</v>
       </c>
       <c r="E8">
-        <v>0.4200252879102248</v>
+        <v>0.4150356928280989</v>
       </c>
       <c r="F8">
-        <v>0.0005831011589685888</v>
+        <v>0.0005782253740181617</v>
       </c>
       <c r="G8">
-        <v>-2.191999388802873</v>
+        <v>-1.921266459114563</v>
       </c>
       <c r="H8">
-        <v>1.609552103736831</v>
+        <v>1.597264949772289</v>
       </c>
       <c r="I8">
-        <v>2.079334170583841E-39</v>
+        <v>2.301712142836018E-39</v>
       </c>
       <c r="J8">
-        <v>31.42000007629395</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="K8">
-        <v>20.07999992370605</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="L8">
-        <v>1.743764144979181</v>
+        <v>1.740891162343537</v>
       </c>
       <c r="M8">
-        <v>-3.616741544194575</v>
+        <v>-3.600692298475607</v>
       </c>
       <c r="N8">
-        <v>0.940573576847399</v>
+        <v>0.9427740284317473</v>
       </c>
       <c r="O8">
-        <v>1.292193344860323</v>
+        <v>1.200266962830938</v>
       </c>
       <c r="P8">
-        <v>0.01370183290017884</v>
+        <v>0.01386195068373824</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
@@ -932,111 +932,111 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1385</v>
+        <v>1853</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.4533133200121575</v>
+        <v>0.6056972673886528</v>
       </c>
       <c r="E9">
-        <v>0.5247417670584116</v>
+        <v>0.6646040459901568</v>
       </c>
       <c r="F9">
-        <v>0.001424858318873262</v>
+        <v>0.006421048807186114</v>
       </c>
       <c r="G9">
-        <v>1.177191386810239</v>
+        <v>12.65284951766296</v>
       </c>
       <c r="H9">
-        <v>0.5743455234437317</v>
+        <v>1.122332093022264</v>
       </c>
       <c r="I9">
-        <v>1.348100970101497E-59</v>
+        <v>9.536340058715228E-53</v>
       </c>
       <c r="J9">
-        <v>9.359999656677246</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="K9">
-        <v>13.89000034332275</v>
+        <v>22.31999969482422</v>
       </c>
       <c r="L9">
-        <v>0.4554682123802696</v>
+        <v>1.96813614552169</v>
       </c>
       <c r="M9">
-        <v>-0.6227168466692863</v>
+        <v>-2.556758248897239</v>
       </c>
       <c r="N9">
-        <v>0.191758639380538</v>
+        <v>0.8859762843687337</v>
       </c>
       <c r="O9">
-        <v>0.2051487520476867</v>
+        <v>-2.193303169878117</v>
       </c>
       <c r="P9">
-        <v>0.01386252829583197</v>
+        <v>0.01470731614314118</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1591</v>
+        <v>1902</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.1334119610619512</v>
+        <v>0.6443857419735625</v>
       </c>
       <c r="E10">
-        <v>0.4327362581819272</v>
+        <v>0.6646040459901568</v>
       </c>
       <c r="F10">
-        <v>0.004075633614663669</v>
+        <v>0.004355954313720844</v>
       </c>
       <c r="G10">
-        <v>7.896647260690234</v>
+        <v>15.69877844221675</v>
       </c>
       <c r="H10">
-        <v>0.640947687477295</v>
+        <v>1.177004887944351</v>
       </c>
       <c r="I10">
-        <v>1.777342925165929E-32</v>
+        <v>3.809589646333402E-57</v>
       </c>
       <c r="J10">
-        <v>11.07999992370605</v>
+        <v>40.20999908447266</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>22.31999969482422</v>
       </c>
       <c r="L10">
-        <v>1.358973058738218</v>
+        <v>1.772061278092352</v>
       </c>
       <c r="M10">
-        <v>-1.243693903703766</v>
+        <v>-2.198996912123015</v>
       </c>
       <c r="N10">
-        <v>0.4206381173679956</v>
+        <v>0.8509367900068689</v>
       </c>
       <c r="O10">
-        <v>-0.6623334618479491</v>
+        <v>-1.759528097468618</v>
       </c>
       <c r="P10">
-        <v>0.01457923604470405</v>
+        <v>0.01497841532960158</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
         <v>33</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1563</v>
+        <v>1667</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1053,49 +1053,49 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.1334119610619512</v>
+        <v>0.2392365147991007</v>
       </c>
       <c r="E11">
-        <v>0.256174095910354</v>
+        <v>0.6437630813768876</v>
       </c>
       <c r="F11">
-        <v>0.003219635639283178</v>
+        <v>0.005159571740346091</v>
       </c>
       <c r="G11">
-        <v>16.34942841766936</v>
+        <v>16.03186017083576</v>
       </c>
       <c r="H11">
-        <v>-0.1291233392176772</v>
+        <v>0.1225336127701901</v>
       </c>
       <c r="I11">
-        <v>2.034834717918155E-20</v>
+        <v>2.729166309378412E-30</v>
       </c>
       <c r="J11">
-        <v>11.07999992370605</v>
+        <v>21.8700008392334</v>
       </c>
       <c r="K11">
-        <v>35.70000076293945</v>
+        <v>40.5</v>
       </c>
       <c r="L11">
-        <v>1.218098035696448</v>
+        <v>2.130750661533508</v>
       </c>
       <c r="M11">
-        <v>-1.172605152509536</v>
+        <v>-1.413463159015848</v>
       </c>
       <c r="N11">
-        <v>0.5138022221117027</v>
+        <v>0.687429009831291</v>
       </c>
       <c r="O11">
-        <v>-0.6597251853789361</v>
+        <v>0.8755293512049409</v>
       </c>
       <c r="P11">
-        <v>0.0150135102564054</v>
+        <v>0.01529140713028421</v>
       </c>
       <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
         <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,55 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
   </si>
   <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
+    <t>JBSS3</t>
   </si>
 </sst>
 </file>
@@ -540,63 +537,63 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1807</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6056972673886528</v>
+        <v>0.5828546972895554</v>
       </c>
       <c r="E2">
-        <v>0.6443857419735625</v>
+        <v>0.3677973455054047</v>
       </c>
       <c r="F2">
-        <v>1.52041056733334E-05</v>
+        <v>0.0001168298629309934</v>
       </c>
       <c r="G2">
-        <v>-2.733086740261376</v>
+        <v>-3.884809087016735</v>
       </c>
       <c r="H2">
-        <v>0.9633187073639544</v>
+        <v>1.214957074964876</v>
       </c>
       <c r="I2">
-        <v>3.065352895691564E-141</v>
+        <v>9.023306731194271E-58</v>
       </c>
       <c r="J2">
-        <v>35.5099983215332</v>
+        <v>10.27000045776367</v>
       </c>
       <c r="K2">
-        <v>40.20999908447266</v>
+        <v>11.90999984741211</v>
       </c>
       <c r="L2">
-        <v>0.655089514908255</v>
+        <v>0.719298797033785</v>
       </c>
       <c r="M2">
-        <v>-0.5802891401676789</v>
+        <v>-0.8113285629798686</v>
       </c>
       <c r="N2">
-        <v>0.2046832101959933</v>
+        <v>0.2881784211021066</v>
       </c>
       <c r="O2">
-        <v>-0.4919592793654104</v>
+        <v>-0.3153290326635307</v>
       </c>
       <c r="P2">
-        <v>0.00582004799748412</v>
+        <v>0.01066688046603732</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>243</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -605,43 +602,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.5773759501663973</v>
+        <v>0.6203380383268238</v>
       </c>
       <c r="E3">
-        <v>0.3622258088260577</v>
+        <v>0.5346810106075315</v>
       </c>
       <c r="F3">
-        <v>9.984408964370458E-05</v>
+        <v>0.002254586824040557</v>
       </c>
       <c r="G3">
-        <v>-3.861613384287597</v>
+        <v>4.435923478035512</v>
       </c>
       <c r="H3">
-        <v>1.213019133098556</v>
+        <v>0.860551147465769</v>
       </c>
       <c r="I3">
-        <v>5.505378605896886E-58</v>
+        <v>4.215725850009217E-71</v>
       </c>
       <c r="J3">
-        <v>10.22999954223633</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="K3">
-        <v>11.88000011444092</v>
+        <v>34.41999816894531</v>
       </c>
       <c r="L3">
-        <v>0.7211722772053655</v>
+        <v>1.656829348578313</v>
       </c>
       <c r="M3">
-        <v>-0.8099038087312032</v>
+        <v>-1.14705116185803</v>
       </c>
       <c r="N3">
-        <v>0.287257579215144</v>
+        <v>0.5662750904242952</v>
       </c>
       <c r="O3">
-        <v>-0.3190545135059413</v>
+        <v>-0.6460925506789579</v>
       </c>
       <c r="P3">
-        <v>0.01075025844774819</v>
+        <v>0.01363238886607645</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -652,7 +649,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1188</v>
+        <v>2054</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -661,43 +658,43 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5525505764548992</v>
+        <v>0.5784233348704576</v>
       </c>
       <c r="E4">
-        <v>0.5886860340681382</v>
+        <v>0.4412189108950026</v>
       </c>
       <c r="F4">
-        <v>0.0001703793108612838</v>
+        <v>0.001965584630029003</v>
       </c>
       <c r="G4">
-        <v>1.123437043283541</v>
+        <v>-1.260444269445944</v>
       </c>
       <c r="H4">
-        <v>0.1887196671789438</v>
+        <v>1.568844144208752</v>
       </c>
       <c r="I4">
-        <v>3.727901864281115E-64</v>
+        <v>4.367349866749676E-40</v>
       </c>
       <c r="J4">
-        <v>11.48999977111816</v>
+        <v>32.66999816894531</v>
       </c>
       <c r="K4">
-        <v>52.06000137329102</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="L4">
-        <v>0.5585878160853408</v>
+        <v>2.318233531051447</v>
       </c>
       <c r="M4">
-        <v>-1.123728730510837</v>
+        <v>-3.598172881954596</v>
       </c>
       <c r="N4">
-        <v>0.2933763597582286</v>
+        <v>0.9126016220540792</v>
       </c>
       <c r="O4">
-        <v>0.5418165953317846</v>
+        <v>2.318233531051444</v>
       </c>
       <c r="P4">
-        <v>0.01322887087586081</v>
+        <v>0.01391518342265842</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -708,7 +705,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -717,54 +714,54 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.491039745382526</v>
+        <v>0.6557836657561731</v>
       </c>
       <c r="E5">
-        <v>0.4033674738622125</v>
+        <v>0.5602527848965309</v>
       </c>
       <c r="F5">
-        <v>0.001605670389542288</v>
+        <v>0.00479850114940748</v>
       </c>
       <c r="G5">
-        <v>4.386169431531738</v>
+        <v>-8.347341978511302</v>
       </c>
       <c r="H5">
-        <v>0.8620972391717144</v>
+        <v>0.3449121176729606</v>
       </c>
       <c r="I5">
-        <v>9.626300607672532E-73</v>
+        <v>1.093481824878377E-43</v>
       </c>
       <c r="J5">
-        <v>33.54000091552734</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="K5">
-        <v>34.52000045776367</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="L5">
-        <v>1.655021504452186</v>
+        <v>0.8476270557770302</v>
       </c>
       <c r="M5">
-        <v>-1.147801716944606</v>
+        <v>-0.6483563349404928</v>
       </c>
       <c r="N5">
-        <v>0.5623700967591597</v>
+        <v>0.3061838111411485</v>
       </c>
       <c r="O5">
-        <v>-0.6057656068487738</v>
+        <v>0.4609069695431174</v>
       </c>
       <c r="P5">
-        <v>0.01326156293575675</v>
+        <v>0.01406969684783359</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>366</v>
+        <v>1862</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,43 +770,43 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.4314227643034816</v>
+        <v>0.6593359182823926</v>
       </c>
       <c r="E6">
-        <v>0.7087397407785978</v>
+        <v>0.681591470612804</v>
       </c>
       <c r="F6">
-        <v>0.00217409826183431</v>
+        <v>0.002230364178955139</v>
       </c>
       <c r="G6">
-        <v>10.82774821294157</v>
+        <v>6.640981855676559</v>
       </c>
       <c r="H6">
-        <v>0.5623610459057997</v>
+        <v>2.400282248686002</v>
       </c>
       <c r="I6">
-        <v>1.7794671063336E-50</v>
+        <v>1.0730492916746E-56</v>
       </c>
       <c r="J6">
-        <v>25.95000076293945</v>
+        <v>40.58000183105469</v>
       </c>
       <c r="K6">
-        <v>26</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="L6">
-        <v>0.72909688507373</v>
+        <v>2.174173943744904</v>
       </c>
       <c r="M6">
-        <v>-1.25531469044283</v>
+        <v>-2.039511907658699</v>
       </c>
       <c r="N6">
-        <v>0.394795059285799</v>
+        <v>0.8554097975307179</v>
       </c>
       <c r="O6">
-        <v>0.500865356447088</v>
+        <v>0.8871323122098715</v>
       </c>
       <c r="P6">
-        <v>0.01358334580021849</v>
+        <v>0.01454577435247651</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1385</v>
+        <v>1853</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -829,273 +826,273 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0.4430938226762632</v>
+        <v>0.6062727516702514</v>
       </c>
       <c r="E7">
-        <v>0.4877818801814657</v>
+        <v>0.6688630126799536</v>
       </c>
       <c r="F7">
-        <v>0.001332355804735776</v>
+        <v>0.007278939017286769</v>
       </c>
       <c r="G7">
-        <v>1.208031965598574</v>
+        <v>12.57275106529278</v>
       </c>
       <c r="H7">
-        <v>0.5728474302292316</v>
+        <v>1.125596472839096</v>
       </c>
       <c r="I7">
-        <v>2.084809401957102E-60</v>
+        <v>6.709071990887746E-52</v>
       </c>
       <c r="J7">
-        <v>9.399999618530273</v>
+        <v>35.68000030517578</v>
       </c>
       <c r="K7">
-        <v>13.92000007629395</v>
+        <v>22.20999908447266</v>
       </c>
       <c r="L7">
-        <v>0.4467394897808425</v>
+        <v>1.983440275287464</v>
       </c>
       <c r="M7">
-        <v>-0.6227802333605723</v>
+        <v>-2.54987983681481</v>
       </c>
       <c r="N7">
-        <v>0.1903288750469495</v>
+        <v>0.9009622999023309</v>
       </c>
       <c r="O7">
-        <v>0.2179313804360055</v>
+        <v>-1.892247391358968</v>
       </c>
       <c r="P7">
-        <v>0.01381304594277633</v>
+        <v>0.01519529559745047</v>
       </c>
       <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
         <v>31</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2054</v>
+        <v>1891</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8">
-        <v>0.4607129257707549</v>
+        <v>0.6593359182823926</v>
       </c>
       <c r="E8">
-        <v>0.4150356928280989</v>
+        <v>0.7873596163865757</v>
       </c>
       <c r="F8">
-        <v>0.0005782253740181617</v>
+        <v>0.004785160350059832</v>
       </c>
       <c r="G8">
-        <v>-1.921266459114563</v>
+        <v>4.432435871350732</v>
       </c>
       <c r="H8">
-        <v>1.597264949772289</v>
+        <v>1.354638817688988</v>
       </c>
       <c r="I8">
-        <v>2.301712142836018E-39</v>
+        <v>1.048651473988222E-52</v>
       </c>
       <c r="J8">
-        <v>31.39999961853027</v>
+        <v>40.58000183105469</v>
       </c>
       <c r="K8">
-        <v>20.11000061035156</v>
+        <v>25.68000030517578</v>
       </c>
       <c r="L8">
-        <v>1.740891162343537</v>
+        <v>3.006507962904642</v>
       </c>
       <c r="M8">
-        <v>-3.600692298475607</v>
+        <v>-2.141651244259705</v>
       </c>
       <c r="N8">
-        <v>0.9427740284317473</v>
+        <v>0.9142074300900124</v>
       </c>
       <c r="O8">
-        <v>1.200266962830938</v>
+        <v>1.360440708047783</v>
       </c>
       <c r="P8">
-        <v>0.01386195068373824</v>
+        <v>0.01525863496290374</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1853</v>
+        <v>1902</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6056972673886528</v>
+        <v>0.6593359182823926</v>
       </c>
       <c r="E9">
-        <v>0.6646040459901568</v>
+        <v>0.6688630126799536</v>
       </c>
       <c r="F9">
-        <v>0.006421048807186114</v>
+        <v>0.007263505987151798</v>
       </c>
       <c r="G9">
-        <v>12.65284951766296</v>
+        <v>15.66024889153048</v>
       </c>
       <c r="H9">
-        <v>1.122332093022264</v>
+        <v>1.17905799967803</v>
       </c>
       <c r="I9">
-        <v>9.536340058715228E-53</v>
+        <v>3.467654089861653E-57</v>
       </c>
       <c r="J9">
-        <v>35.5099983215332</v>
+        <v>40.58000183105469</v>
       </c>
       <c r="K9">
-        <v>22.31999969482422</v>
+        <v>22.20999908447266</v>
       </c>
       <c r="L9">
-        <v>1.96813614552169</v>
+        <v>1.761503074449266</v>
       </c>
       <c r="M9">
-        <v>-2.556758248897239</v>
+        <v>-2.206518658249749</v>
       </c>
       <c r="N9">
-        <v>0.8859762843687337</v>
+        <v>0.8484456942855391</v>
       </c>
       <c r="O9">
-        <v>-2.193303169878117</v>
+        <v>-1.267124153865016</v>
       </c>
       <c r="P9">
-        <v>0.01470731614314118</v>
+        <v>0.01577191162696921</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1902</v>
+        <v>800</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.6443857419735625</v>
+        <v>0.2551362635313666</v>
       </c>
       <c r="E10">
-        <v>0.6646040459901568</v>
+        <v>0.6688630126799536</v>
       </c>
       <c r="F10">
-        <v>0.004355954313720844</v>
+        <v>0.008017310355126308</v>
       </c>
       <c r="G10">
-        <v>15.69877844221675</v>
+        <v>16.17624498557611</v>
       </c>
       <c r="H10">
-        <v>1.177004887944351</v>
+        <v>0.7460778787326702</v>
       </c>
       <c r="I10">
-        <v>3.809589646333402E-57</v>
+        <v>5.30558292224417E-37</v>
       </c>
       <c r="J10">
-        <v>40.20999908447266</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="K10">
-        <v>22.31999969482422</v>
+        <v>22.20999908447266</v>
       </c>
       <c r="L10">
-        <v>1.772061278092352</v>
+        <v>1.835423582420646</v>
       </c>
       <c r="M10">
-        <v>-2.198996912123015</v>
+        <v>-1.531329457179524</v>
       </c>
       <c r="N10">
-        <v>0.8509367900068689</v>
+        <v>0.8295114003264797</v>
       </c>
       <c r="O10">
-        <v>-1.759528097468618</v>
+        <v>1.403367536704891</v>
       </c>
       <c r="P10">
-        <v>0.01497841532960158</v>
+        <v>0.01604764139569574</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1667</v>
+        <v>1563</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2392365147991007</v>
+        <v>0.2532962949869703</v>
       </c>
       <c r="E11">
-        <v>0.6437630813768876</v>
+        <v>0.2185732537235506</v>
       </c>
       <c r="F11">
-        <v>0.005159571740346091</v>
+        <v>0.001658501344093091</v>
       </c>
       <c r="G11">
-        <v>16.03186017083576</v>
+        <v>16.55117439830937</v>
       </c>
       <c r="H11">
-        <v>0.1225336127701901</v>
+        <v>-0.1360104826720866</v>
       </c>
       <c r="I11">
-        <v>2.729166309378412E-30</v>
+        <v>3.374190903324543E-20</v>
       </c>
       <c r="J11">
-        <v>21.8700008392334</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="K11">
-        <v>40.5</v>
+        <v>35.20000076293945</v>
       </c>
       <c r="L11">
-        <v>2.130750661533508</v>
+        <v>1.243972140970188</v>
       </c>
       <c r="M11">
-        <v>-1.413463159015848</v>
+        <v>-1.165970144177948</v>
       </c>
       <c r="N11">
-        <v>0.687429009831291</v>
+        <v>0.5287240274751285</v>
       </c>
       <c r="O11">
-        <v>0.8755293512049409</v>
+        <v>-1.123604961161409</v>
       </c>
       <c r="P11">
-        <v>0.01529140713028421</v>
+        <v>0.01628720543590858</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,13 +70,19 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>BEEF3</t>
@@ -85,37 +91,34 @@
     <t>ELET6</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
+    <t>DXCO3</t>
   </si>
   <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
   </si>
   <si>
     <t>EGIE3</t>
   </si>
   <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
   </si>
 </sst>
 </file>
@@ -537,167 +540,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>243</v>
+        <v>1807</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5828546972895554</v>
+        <v>0.6206980231004888</v>
       </c>
       <c r="E2">
-        <v>0.3677973455054047</v>
+        <v>0.6864204020873346</v>
       </c>
       <c r="F2">
-        <v>0.0001168298629309934</v>
+        <v>0.0006187107558695932</v>
       </c>
       <c r="G2">
-        <v>-3.884809087016735</v>
+        <v>-3.028895574446142</v>
       </c>
       <c r="H2">
-        <v>1.214957074964876</v>
+        <v>0.9698102944264378</v>
       </c>
       <c r="I2">
-        <v>9.023306731194271E-58</v>
+        <v>1.060003226580305E-141</v>
       </c>
       <c r="J2">
-        <v>10.27000045776367</v>
+        <v>35.5</v>
       </c>
       <c r="K2">
-        <v>11.90999984741211</v>
+        <v>40.2400016784668</v>
       </c>
       <c r="L2">
-        <v>0.719298797033785</v>
+        <v>0.5077717620202122</v>
       </c>
       <c r="M2">
-        <v>-0.8113285629798686</v>
+        <v>-0.6460076439786135</v>
       </c>
       <c r="N2">
-        <v>0.2881784211021066</v>
+        <v>0.2028082069101992</v>
       </c>
       <c r="O2">
-        <v>-0.3153290326635307</v>
+        <v>-0.4962723010680961</v>
       </c>
       <c r="P2">
-        <v>0.01066688046603732</v>
+        <v>0.006176830634129013</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>562</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6203380383268238</v>
+        <v>0.6637179639618361</v>
       </c>
       <c r="E3">
-        <v>0.5346810106075315</v>
+        <v>0.3693608596501943</v>
       </c>
       <c r="F3">
-        <v>0.002254586824040557</v>
+        <v>0.0003339100563135433</v>
       </c>
       <c r="G3">
-        <v>4.435923478035512</v>
+        <v>-3.961025239178051</v>
       </c>
       <c r="H3">
-        <v>0.860551147465769</v>
+        <v>1.221002972077846</v>
       </c>
       <c r="I3">
-        <v>4.215725850009217E-71</v>
+        <v>1.012835974071128E-57</v>
       </c>
       <c r="J3">
-        <v>33.40999984741211</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>34.41999816894531</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="L3">
-        <v>1.656829348578313</v>
+        <v>0.7180793208915119</v>
       </c>
       <c r="M3">
-        <v>-1.14705116185803</v>
+        <v>-0.8112620638708066</v>
       </c>
       <c r="N3">
-        <v>0.5662750904242952</v>
+        <v>0.2906409664145065</v>
       </c>
       <c r="O3">
-        <v>-0.6460925506789579</v>
+        <v>-0.520069590467104</v>
       </c>
       <c r="P3">
-        <v>0.01363238886607645</v>
+        <v>0.01092523395159664</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2054</v>
+        <v>2398</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.5784233348704576</v>
+        <v>0.4906216565531354</v>
       </c>
       <c r="E4">
-        <v>0.4412189108950026</v>
+        <v>0.740693030889372</v>
       </c>
       <c r="F4">
-        <v>0.001965584630029003</v>
+        <v>0.008453991684585325</v>
       </c>
       <c r="G4">
-        <v>-1.260444269445944</v>
+        <v>7.79615369377348</v>
       </c>
       <c r="H4">
-        <v>1.568844144208752</v>
+        <v>4.521796020920682</v>
       </c>
       <c r="I4">
-        <v>4.367349866749676E-40</v>
+        <v>1.553311982003275E-40</v>
       </c>
       <c r="J4">
-        <v>32.66999816894531</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="K4">
-        <v>20.14999961853027</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
-        <v>2.318233531051447</v>
+        <v>1.411099209143082</v>
       </c>
       <c r="M4">
-        <v>-3.598172881954596</v>
+        <v>-1.144331563156463</v>
       </c>
       <c r="N4">
-        <v>0.9126016220540792</v>
+        <v>0.4951586791019313</v>
       </c>
       <c r="O4">
-        <v>2.318233531051444</v>
+        <v>0.6193555672793067</v>
       </c>
       <c r="P4">
-        <v>0.01391518342265842</v>
+        <v>0.01327790868882322</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -705,55 +708,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>615</v>
+        <v>1188</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6557836657561731</v>
+        <v>0.848749946893703</v>
       </c>
       <c r="E5">
-        <v>0.5602527848965309</v>
+        <v>0.7703345915492361</v>
       </c>
       <c r="F5">
-        <v>0.00479850114940748</v>
+        <v>0.001595730105698298</v>
       </c>
       <c r="G5">
-        <v>-8.347341978511302</v>
+        <v>1.223368232126365</v>
       </c>
       <c r="H5">
-        <v>0.3449121176729606</v>
+        <v>0.1873720730726551</v>
       </c>
       <c r="I5">
-        <v>1.093481824878377E-43</v>
+        <v>2.600420155046846E-64</v>
       </c>
       <c r="J5">
-        <v>5.710000038146973</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="K5">
-        <v>39.41999816894531</v>
+        <v>51.59000015258789</v>
       </c>
       <c r="L5">
-        <v>0.8476270557770302</v>
+        <v>1.198233235819618</v>
       </c>
       <c r="M5">
-        <v>-0.6483563349404928</v>
+        <v>-0.839921874518275</v>
       </c>
       <c r="N5">
-        <v>0.3061838111411485</v>
+        <v>0.2881685476447137</v>
       </c>
       <c r="O5">
-        <v>0.4609069695431174</v>
+        <v>0.7001066420525408</v>
       </c>
       <c r="P5">
-        <v>0.01406969684783359</v>
+        <v>0.01342271893835498</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -761,55 +764,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1862</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.6593359182823926</v>
+        <v>0.4855652585113033</v>
       </c>
       <c r="E6">
-        <v>0.681591470612804</v>
+        <v>0.8289923359794436</v>
       </c>
       <c r="F6">
-        <v>0.002230364178955139</v>
+        <v>0.00266776044788513</v>
       </c>
       <c r="G6">
-        <v>6.640981855676559</v>
+        <v>10.98723501072211</v>
       </c>
       <c r="H6">
-        <v>2.400282248686002</v>
+        <v>0.557160220487281</v>
       </c>
       <c r="I6">
-        <v>1.0730492916746E-56</v>
+        <v>4.039583972772308E-51</v>
       </c>
       <c r="J6">
-        <v>40.58000183105469</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="K6">
-        <v>13.77000045776367</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="L6">
-        <v>2.174173943744904</v>
+        <v>0.7303790972194548</v>
       </c>
       <c r="M6">
-        <v>-2.039511907658699</v>
+        <v>-1.264976483582331</v>
       </c>
       <c r="N6">
-        <v>0.8554097975307179</v>
+        <v>0.3934966085328013</v>
       </c>
       <c r="O6">
-        <v>0.8871323122098715</v>
+        <v>0.5876088124007666</v>
       </c>
       <c r="P6">
-        <v>0.01454577435247651</v>
+        <v>0.01373093676893054</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -817,282 +820,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1853</v>
+        <v>615</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6062727516702514</v>
+        <v>0.7265273338637734</v>
       </c>
       <c r="E7">
-        <v>0.6688630126799536</v>
+        <v>0.8833073362163724</v>
       </c>
       <c r="F7">
-        <v>0.007278939017286769</v>
+        <v>0.001824153376122302</v>
       </c>
       <c r="G7">
-        <v>12.57275106529278</v>
+        <v>-8.532151632455948</v>
       </c>
       <c r="H7">
-        <v>1.125596472839096</v>
+        <v>0.3491389559180693</v>
       </c>
       <c r="I7">
-        <v>6.709071990887746E-52</v>
+        <v>2.517649953056272E-45</v>
       </c>
       <c r="J7">
-        <v>35.68000030517578</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="K7">
-        <v>22.20999908447266</v>
+        <v>39.09999847412109</v>
       </c>
       <c r="L7">
-        <v>1.983440275287464</v>
+        <v>0.708657059457904</v>
       </c>
       <c r="M7">
-        <v>-2.54987983681481</v>
+        <v>-0.6512379124440031</v>
       </c>
       <c r="N7">
-        <v>0.9009622999023309</v>
+        <v>0.2998220529924632</v>
       </c>
       <c r="O7">
-        <v>-1.892247391358968</v>
+        <v>0.4508191604645848</v>
       </c>
       <c r="P7">
-        <v>0.01519529559745047</v>
+        <v>0.01425386079037123</v>
       </c>
       <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1891</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6593359182823926</v>
+        <v>0.4855652585113033</v>
       </c>
       <c r="E8">
-        <v>0.7873596163865757</v>
+        <v>0.4029276508103879</v>
       </c>
       <c r="F8">
-        <v>0.004785160350059832</v>
+        <v>0.001901961995191157</v>
       </c>
       <c r="G8">
-        <v>4.432435871350732</v>
+        <v>16.65935388824321</v>
       </c>
       <c r="H8">
-        <v>1.354638817688988</v>
+        <v>0.3395751385289514</v>
       </c>
       <c r="I8">
-        <v>1.048651473988222E-52</v>
+        <v>2.412859704321847E-39</v>
       </c>
       <c r="J8">
-        <v>40.58000183105469</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="K8">
-        <v>25.68000030517578</v>
+        <v>29.45999908447266</v>
       </c>
       <c r="L8">
-        <v>3.006507962904642</v>
+        <v>1.266392596829796</v>
       </c>
       <c r="M8">
-        <v>-2.141651244259705</v>
+        <v>-1.306819635613877</v>
       </c>
       <c r="N8">
-        <v>0.9142074300900124</v>
+        <v>0.4787261907393601</v>
       </c>
       <c r="O8">
-        <v>1.360440708047783</v>
+        <v>-0.9532380739431368</v>
       </c>
       <c r="P8">
-        <v>0.01525863496290374</v>
+        <v>0.0144291982696413</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1902</v>
+        <v>1862</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6593359182823926</v>
+        <v>0.6864204020873346</v>
       </c>
       <c r="E9">
-        <v>0.6688630126799536</v>
+        <v>0.5660168318909938</v>
       </c>
       <c r="F9">
-        <v>0.007263505987151798</v>
+        <v>0.004350903475103118</v>
       </c>
       <c r="G9">
-        <v>15.66024889153048</v>
+        <v>6.708576683815215</v>
       </c>
       <c r="H9">
-        <v>1.17905799967803</v>
+        <v>2.395555155977038</v>
       </c>
       <c r="I9">
-        <v>3.467654089861653E-57</v>
+        <v>2.586466982861059E-57</v>
       </c>
       <c r="J9">
-        <v>40.58000183105469</v>
+        <v>40.2400016784668</v>
       </c>
       <c r="K9">
-        <v>22.20999908447266</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="L9">
-        <v>1.761503074449266</v>
+        <v>2.17565517426317</v>
       </c>
       <c r="M9">
-        <v>-2.206518658249749</v>
+        <v>-2.035994946795967</v>
       </c>
       <c r="N9">
-        <v>0.8484456942855391</v>
+        <v>0.8503494718210758</v>
       </c>
       <c r="O9">
-        <v>-1.267124153865016</v>
+        <v>1.095608274105665</v>
       </c>
       <c r="P9">
-        <v>0.01577191162696921</v>
+        <v>0.01448060477958876</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>800</v>
+        <v>1724</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.2551362635313666</v>
+        <v>0.4290074861963487</v>
       </c>
       <c r="E10">
-        <v>0.6688630126799536</v>
+        <v>0.7673201551104631</v>
       </c>
       <c r="F10">
-        <v>0.008017310355126308</v>
+        <v>0.00499418397181422</v>
       </c>
       <c r="G10">
-        <v>16.17624498557611</v>
+        <v>4.005166174782845</v>
       </c>
       <c r="H10">
-        <v>0.7460778787326702</v>
+        <v>0.231735508743203</v>
       </c>
       <c r="I10">
-        <v>5.30558292224417E-37</v>
+        <v>3.311686123702219E-57</v>
       </c>
       <c r="J10">
-        <v>34.15000152587891</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="K10">
-        <v>22.20999908447266</v>
+        <v>16.29999923706055</v>
       </c>
       <c r="L10">
-        <v>1.835423582420646</v>
+        <v>0.6045236419738167</v>
       </c>
       <c r="M10">
-        <v>-1.531329457179524</v>
+        <v>-0.4183207730818488</v>
       </c>
       <c r="N10">
-        <v>0.8295114003264797</v>
+        <v>0.2408652449660617</v>
       </c>
       <c r="O10">
-        <v>1.403367536704891</v>
+        <v>-0.2524545806885419</v>
       </c>
       <c r="P10">
-        <v>0.01604764139569574</v>
+        <v>0.01520329294446774</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1563</v>
+        <v>1853</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.2532962949869703</v>
+        <v>0.6206980231004888</v>
       </c>
       <c r="E11">
-        <v>0.2185732537235506</v>
+        <v>0.6941415673897885</v>
       </c>
       <c r="F11">
-        <v>0.001658501344093091</v>
+        <v>0.006541877871171114</v>
       </c>
       <c r="G11">
-        <v>16.55117439830937</v>
+        <v>12.45022117235396</v>
       </c>
       <c r="H11">
-        <v>-0.1360104826720866</v>
+        <v>1.130324756099415</v>
       </c>
       <c r="I11">
-        <v>3.374190903324543E-20</v>
+        <v>1.157306366997862E-51</v>
       </c>
       <c r="J11">
-        <v>10.64000034332275</v>
+        <v>35.5</v>
       </c>
       <c r="K11">
-        <v>35.20000076293945</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="L11">
-        <v>1.243972140970188</v>
+        <v>2.010934531749783</v>
       </c>
       <c r="M11">
-        <v>-1.165970144177948</v>
+        <v>-2.533405338847913</v>
       </c>
       <c r="N11">
-        <v>0.5287240274751285</v>
+        <v>0.9103842471465758</v>
       </c>
       <c r="O11">
-        <v>-1.123604961161409</v>
+        <v>-1.591299992951864</v>
       </c>
       <c r="P11">
-        <v>0.01628720543590858</v>
+        <v>0.015283001725613</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -76,12 +76,12 @@
     <t>B3SA3</t>
   </si>
   <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
     <t>BBAS3</t>
   </si>
   <si>
@@ -91,34 +91,25 @@
     <t>ELET6</t>
   </si>
   <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
     <t>CCRO3</t>
   </si>
   <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>EGIE3</t>
   </si>
   <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>TIMS3</t>
   </si>
 </sst>
 </file>
@@ -540,7 +531,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1807</v>
+        <v>1779</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -549,43 +540,43 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.6206980231004888</v>
+        <v>0.6163724183728371</v>
       </c>
       <c r="E2">
-        <v>0.6864204020873346</v>
+        <v>0.6813111027536422</v>
       </c>
       <c r="F2">
-        <v>0.0006187107558695932</v>
+        <v>0.0008094681110191506</v>
       </c>
       <c r="G2">
-        <v>-3.028895574446142</v>
+        <v>-3.108648725257014</v>
       </c>
       <c r="H2">
-        <v>0.9698102944264378</v>
+        <v>0.9715987599689972</v>
       </c>
       <c r="I2">
-        <v>1.060003226580305E-141</v>
+        <v>8.491810719131128E-142</v>
       </c>
       <c r="J2">
-        <v>35.5</v>
+        <v>35.54000091552734</v>
       </c>
       <c r="K2">
-        <v>40.2400016784668</v>
+        <v>40.29000091552734</v>
       </c>
       <c r="L2">
-        <v>0.5077717620202122</v>
+        <v>0.5123557082605004</v>
       </c>
       <c r="M2">
-        <v>-0.6460076439786135</v>
+        <v>-0.6388304281595794</v>
       </c>
       <c r="N2">
-        <v>0.2028082069101992</v>
+        <v>0.206443420066376</v>
       </c>
       <c r="O2">
-        <v>-0.4962723010680961</v>
+        <v>-0.4970652878917718</v>
       </c>
       <c r="P2">
-        <v>0.006176830634129013</v>
+        <v>0.006469634739424536</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -596,506 +587,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.6637179639618361</v>
+        <v>0.6523329620621153</v>
       </c>
       <c r="E3">
-        <v>0.3693608596501943</v>
+        <v>0.3757043280897389</v>
       </c>
       <c r="F3">
-        <v>0.0003339100563135433</v>
+        <v>0.0002728031029935033</v>
       </c>
       <c r="G3">
-        <v>-3.961025239178051</v>
+        <v>-4.025273830911825</v>
       </c>
       <c r="H3">
-        <v>1.221002972077846</v>
+        <v>1.225957302920837</v>
       </c>
       <c r="I3">
-        <v>1.012835974071128E-57</v>
+        <v>4.281181263766148E-58</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="K3">
-        <v>11.85999965667725</v>
+        <v>11.81999969482422</v>
       </c>
       <c r="L3">
-        <v>0.7180793208915119</v>
+        <v>0.7185311973464241</v>
       </c>
       <c r="M3">
-        <v>-0.8112620638708066</v>
+        <v>-0.8097060708327461</v>
       </c>
       <c r="N3">
-        <v>0.2906409664145065</v>
+        <v>0.2918345746631237</v>
       </c>
       <c r="O3">
-        <v>-0.520069590467104</v>
+        <v>-0.4255411536269644</v>
       </c>
       <c r="P3">
-        <v>0.01092523395159664</v>
+        <v>0.01094460201146313</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2398</v>
+        <v>2636</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4906216565531354</v>
+        <v>0.1171326589186593</v>
       </c>
       <c r="E4">
-        <v>0.740693030889372</v>
+        <v>0.4016175974583269</v>
       </c>
       <c r="F4">
-        <v>0.008453991684585325</v>
+        <v>0.0007513580807732255</v>
       </c>
       <c r="G4">
-        <v>7.79615369377348</v>
+        <v>2.990218937795829</v>
       </c>
       <c r="H4">
-        <v>4.521796020920682</v>
+        <v>0.1405811806611494</v>
       </c>
       <c r="I4">
-        <v>1.553311982003275E-40</v>
+        <v>1.25395503954656E-29</v>
       </c>
       <c r="J4">
-        <v>19.71999931335449</v>
+        <v>6.25</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>29.13999938964844</v>
       </c>
       <c r="L4">
-        <v>1.411099209143082</v>
+        <v>0.6218955582690189</v>
       </c>
       <c r="M4">
-        <v>-1.144331563156463</v>
+        <v>-0.991740524881779</v>
       </c>
       <c r="N4">
-        <v>0.4951586791019313</v>
+        <v>0.2535779076238191</v>
       </c>
       <c r="O4">
-        <v>0.6193555672793067</v>
+        <v>-0.8367544564577796</v>
       </c>
       <c r="P4">
-        <v>0.01327790868882322</v>
+        <v>0.01103159142619327</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1188</v>
+        <v>1813</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.848749946893703</v>
+        <v>0.6163724183728371</v>
       </c>
       <c r="E5">
-        <v>0.7703345915492361</v>
+        <v>0.8460840643634704</v>
       </c>
       <c r="F5">
-        <v>0.001595730105698298</v>
+        <v>0.002306200894402663</v>
       </c>
       <c r="G5">
-        <v>1.223368232126365</v>
+        <v>1.795466114717513</v>
       </c>
       <c r="H5">
-        <v>0.1873720730726551</v>
+        <v>1.29597435428488</v>
       </c>
       <c r="I5">
-        <v>2.600420155046846E-64</v>
+        <v>1.07848480056967E-52</v>
       </c>
       <c r="J5">
-        <v>11.59000015258789</v>
+        <v>35.54000091552734</v>
       </c>
       <c r="K5">
-        <v>51.59000015258789</v>
+        <v>25.22999954223633</v>
       </c>
       <c r="L5">
-        <v>1.198233235819618</v>
+        <v>2.991801769563601</v>
       </c>
       <c r="M5">
-        <v>-0.839921874518275</v>
+        <v>-2.159109314161135</v>
       </c>
       <c r="N5">
-        <v>0.2881685476447137</v>
+        <v>0.9026826129970753</v>
       </c>
       <c r="O5">
-        <v>0.7001066420525408</v>
+        <v>1.047102435452288</v>
       </c>
       <c r="P5">
-        <v>0.01342271893835498</v>
+        <v>0.01375951400428249</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>366</v>
+        <v>2320</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.4855652585113033</v>
+        <v>0.458706172023887</v>
       </c>
       <c r="E6">
-        <v>0.8289923359794436</v>
+        <v>0.7574582874865053</v>
       </c>
       <c r="F6">
-        <v>0.00266776044788513</v>
+        <v>0.009871590705698473</v>
       </c>
       <c r="G6">
-        <v>10.98723501072211</v>
+        <v>8.052548900890168</v>
       </c>
       <c r="H6">
-        <v>0.557160220487281</v>
+        <v>4.437776173032505</v>
       </c>
       <c r="I6">
-        <v>4.039583972772308E-51</v>
+        <v>8.346652596394299E-41</v>
       </c>
       <c r="J6">
-        <v>25.70999908447266</v>
+        <v>19.85000038146973</v>
       </c>
       <c r="K6">
-        <v>25.3700008392334</v>
+        <v>2.490000009536743</v>
       </c>
       <c r="L6">
-        <v>0.7303790972194548</v>
+        <v>1.358032040325991</v>
       </c>
       <c r="M6">
-        <v>-1.264976483582331</v>
+        <v>-1.164595105363219</v>
       </c>
       <c r="N6">
-        <v>0.3934966085328013</v>
+        <v>0.4976494575315714</v>
       </c>
       <c r="O6">
-        <v>0.5876088124007666</v>
+        <v>0.7473887674066901</v>
       </c>
       <c r="P6">
-        <v>0.01373093676893054</v>
+        <v>0.01378684668593647</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>615</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.7265273338637734</v>
+        <v>0.4769484381386855</v>
       </c>
       <c r="E7">
-        <v>0.8833073362163724</v>
+        <v>0.8460840643634704</v>
       </c>
       <c r="F7">
-        <v>0.001824153376122302</v>
+        <v>0.003647311748397436</v>
       </c>
       <c r="G7">
-        <v>-8.532151632455948</v>
+        <v>11.18518733505896</v>
       </c>
       <c r="H7">
-        <v>0.3491389559180693</v>
+        <v>0.5503051865894971</v>
       </c>
       <c r="I7">
-        <v>2.517649953056272E-45</v>
+        <v>4.777572855533793E-51</v>
       </c>
       <c r="J7">
-        <v>5.570000171661377</v>
+        <v>25.75</v>
       </c>
       <c r="K7">
-        <v>39.09999847412109</v>
+        <v>25.22999954223633</v>
       </c>
       <c r="L7">
-        <v>0.708657059457904</v>
+        <v>0.7443310234720286</v>
       </c>
       <c r="M7">
-        <v>-0.6512379124440031</v>
+        <v>-1.265449484369341</v>
       </c>
       <c r="N7">
-        <v>0.2998220529924632</v>
+        <v>0.3964183472485944</v>
       </c>
       <c r="O7">
-        <v>0.4508191604645848</v>
+        <v>0.6806130591977553</v>
       </c>
       <c r="P7">
-        <v>0.01425386079037123</v>
+        <v>0.01422309530991348</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>364</v>
+        <v>607</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4855652585113033</v>
+        <v>0.7267741000788807</v>
       </c>
       <c r="E8">
-        <v>0.4029276508103879</v>
+        <v>0.826385921041598</v>
       </c>
       <c r="F8">
-        <v>0.001901961995191157</v>
+        <v>0.001538715792892436</v>
       </c>
       <c r="G8">
-        <v>16.65935388824321</v>
+        <v>-8.384866795814517</v>
       </c>
       <c r="H8">
-        <v>0.3395751385289514</v>
+        <v>0.3457680290783803</v>
       </c>
       <c r="I8">
-        <v>2.412859704321847E-39</v>
+        <v>7.409659827561728E-46</v>
       </c>
       <c r="J8">
-        <v>25.70999908447266</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="K8">
-        <v>29.45999908447266</v>
+        <v>39.43999862670898</v>
       </c>
       <c r="L8">
-        <v>1.266392596829796</v>
+        <v>0.7121200752022627</v>
       </c>
       <c r="M8">
-        <v>-1.306819635613877</v>
+        <v>-0.648837955636095</v>
       </c>
       <c r="N8">
-        <v>0.4787261907393601</v>
+        <v>0.3000070234201255</v>
       </c>
       <c r="O8">
-        <v>-0.9532380739431368</v>
+        <v>0.3177763754647014</v>
       </c>
       <c r="P8">
-        <v>0.0144291982696413</v>
+        <v>0.01431417820641026</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1862</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.6864204020873346</v>
+        <v>0.4769484381386855</v>
       </c>
       <c r="E9">
-        <v>0.5660168318909938</v>
+        <v>0.4016175974583269</v>
       </c>
       <c r="F9">
-        <v>0.004350903475103118</v>
+        <v>0.001512275595747966</v>
       </c>
       <c r="G9">
-        <v>6.708576683815215</v>
+        <v>16.64100411096873</v>
       </c>
       <c r="H9">
-        <v>2.395555155977038</v>
+        <v>0.3400035881866031</v>
       </c>
       <c r="I9">
-        <v>2.586466982861059E-57</v>
+        <v>3.006329586394983E-39</v>
       </c>
       <c r="J9">
-        <v>40.2400016784668</v>
+        <v>25.75</v>
       </c>
       <c r="K9">
-        <v>13.53999996185303</v>
+        <v>29.13999938964844</v>
       </c>
       <c r="L9">
-        <v>2.17565517426317</v>
+        <v>1.273210360249237</v>
       </c>
       <c r="M9">
-        <v>-2.035994946795967</v>
+        <v>-1.301109123240124</v>
       </c>
       <c r="N9">
-        <v>0.8503494718210758</v>
+        <v>0.4817790815780998</v>
       </c>
       <c r="O9">
-        <v>1.095608274105665</v>
+        <v>-0.7987084632046262</v>
       </c>
       <c r="P9">
-        <v>0.01448060477958876</v>
+        <v>0.01445763937854786</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1724</v>
+        <v>1832</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.4290074861963487</v>
+        <v>0.6813111027536422</v>
       </c>
       <c r="E10">
-        <v>0.7673201551104631</v>
+        <v>0.5554399381332957</v>
       </c>
       <c r="F10">
-        <v>0.00499418397181422</v>
+        <v>0.00458693028076365</v>
       </c>
       <c r="G10">
-        <v>4.005166174782845</v>
+        <v>6.929571023692183</v>
       </c>
       <c r="H10">
-        <v>0.231735508743203</v>
+        <v>2.381273008641525</v>
       </c>
       <c r="I10">
-        <v>3.311686123702219E-57</v>
+        <v>1.122878410828401E-57</v>
       </c>
       <c r="J10">
-        <v>7.53000020980835</v>
+        <v>40.29000091552734</v>
       </c>
       <c r="K10">
-        <v>16.29999923706055</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="L10">
-        <v>0.6045236419738167</v>
+        <v>2.163362991892868</v>
       </c>
       <c r="M10">
-        <v>-0.4183207730818488</v>
+        <v>-2.042136498640261</v>
       </c>
       <c r="N10">
-        <v>0.2408652449660617</v>
+        <v>0.8514074040503286</v>
       </c>
       <c r="O10">
-        <v>-0.2524545806885419</v>
+        <v>0.9751160659268621</v>
       </c>
       <c r="P10">
-        <v>0.01520329294446774</v>
+        <v>0.01464904157451322</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1853</v>
+        <v>2644</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.6206980231004888</v>
+        <v>0.1171326589186593</v>
       </c>
       <c r="E11">
-        <v>0.6941415673897885</v>
+        <v>0.6194342933815811</v>
       </c>
       <c r="F11">
-        <v>0.006541877871171114</v>
+        <v>0.006417311918780345</v>
       </c>
       <c r="G11">
-        <v>12.45022117235396</v>
+        <v>2.371499671042492</v>
       </c>
       <c r="H11">
-        <v>1.130324756099415</v>
+        <v>0.2806737876057897</v>
       </c>
       <c r="I11">
-        <v>1.157306366997862E-51</v>
+        <v>1.508711204803919E-20</v>
       </c>
       <c r="J11">
-        <v>35.5</v>
+        <v>6.25</v>
       </c>
       <c r="K11">
-        <v>21.79999923706055</v>
+        <v>16.47999954223633</v>
       </c>
       <c r="L11">
-        <v>2.010934531749783</v>
+        <v>0.6631351685576314</v>
       </c>
       <c r="M11">
-        <v>-2.533405338847913</v>
+        <v>-0.8570036958180465</v>
       </c>
       <c r="N11">
-        <v>0.9103842471465758</v>
+        <v>0.2944691462919822</v>
       </c>
       <c r="O11">
-        <v>-1.591299992951864</v>
+        <v>-0.7470035623036422</v>
       </c>
       <c r="P11">
-        <v>0.015283001725613</v>
+        <v>0.01475359029169729</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,43 +73,49 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>MRVE3</t>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
   </si>
   <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>RDOR3</t>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
     <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -531,562 +537,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1779</v>
+        <v>1702</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.6163724183728371</v>
+        <v>0.6584220546915766</v>
       </c>
       <c r="E2">
-        <v>0.6813111027536422</v>
+        <v>0.719036342646888</v>
       </c>
       <c r="F2">
-        <v>0.0008094681110191506</v>
+        <v>0.001552822594466942</v>
       </c>
       <c r="G2">
-        <v>-3.108648725257014</v>
+        <v>-3.202715971485078</v>
       </c>
       <c r="H2">
-        <v>0.9715987599689972</v>
+        <v>0.9736689200509671</v>
       </c>
       <c r="I2">
-        <v>8.491810719131128E-142</v>
+        <v>6.909738218858568E-141</v>
       </c>
       <c r="J2">
-        <v>35.54000091552734</v>
+        <v>35.02000045776367</v>
       </c>
       <c r="K2">
-        <v>40.29000091552734</v>
+        <v>39.72999954223633</v>
       </c>
       <c r="L2">
-        <v>0.5123557082605004</v>
+        <v>0.5194141287704213</v>
       </c>
       <c r="M2">
-        <v>-0.6388304281595794</v>
+        <v>-0.6287702818484249</v>
       </c>
       <c r="N2">
-        <v>0.206443420066376</v>
+        <v>0.2111881640345905</v>
       </c>
       <c r="O2">
-        <v>-0.4970652878917718</v>
+        <v>-0.4611493186659104</v>
       </c>
       <c r="P2">
-        <v>0.006469634739424536</v>
+        <v>0.00668166593036848</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>240</v>
+        <v>2559</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6523329620621153</v>
+        <v>0.3288861297152916</v>
       </c>
       <c r="E3">
-        <v>0.3757043280897389</v>
+        <v>0.4541534800148185</v>
       </c>
       <c r="F3">
-        <v>0.0002728031029935033</v>
+        <v>0.002505201606995406</v>
       </c>
       <c r="G3">
-        <v>-4.025273830911825</v>
+        <v>2.864125549120518</v>
       </c>
       <c r="H3">
-        <v>1.225957302920837</v>
+        <v>0.144527781797336</v>
       </c>
       <c r="I3">
-        <v>4.281181263766148E-58</v>
+        <v>2.174790632783937E-29</v>
       </c>
       <c r="J3">
-        <v>10.03999996185303</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="K3">
-        <v>11.81999969482422</v>
+        <v>28.36000061035156</v>
       </c>
       <c r="L3">
-        <v>0.7185311973464241</v>
+        <v>0.6278938731657639</v>
       </c>
       <c r="M3">
-        <v>-0.8097060708327461</v>
+        <v>-0.981914002065305</v>
       </c>
       <c r="N3">
-        <v>0.2918345746631237</v>
+        <v>0.261048685447532</v>
       </c>
       <c r="O3">
-        <v>-0.4255411536269644</v>
+        <v>-0.9129333383708618</v>
       </c>
       <c r="P3">
-        <v>0.01094460201146313</v>
+        <v>0.01211126818023912</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2636</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.1171326589186593</v>
+        <v>0.704154905871492</v>
       </c>
       <c r="E4">
-        <v>0.4016175974583269</v>
+        <v>0.3720423911216659</v>
       </c>
       <c r="F4">
-        <v>0.0007513580807732255</v>
+        <v>0.00090233792977281</v>
       </c>
       <c r="G4">
-        <v>2.990218937795829</v>
+        <v>-4.131907362945181</v>
       </c>
       <c r="H4">
-        <v>0.1405811806611494</v>
+        <v>1.234155843686925</v>
       </c>
       <c r="I4">
-        <v>1.25395503954656E-29</v>
+        <v>9.023234177460895E-57</v>
       </c>
       <c r="J4">
-        <v>6.25</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="K4">
-        <v>29.13999938964844</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="L4">
-        <v>0.6218955582690189</v>
+        <v>0.7199033537986104</v>
       </c>
       <c r="M4">
-        <v>-0.991740524881779</v>
+        <v>-0.8065525635378208</v>
       </c>
       <c r="N4">
-        <v>0.2535779076238191</v>
+        <v>0.3013028461454775</v>
       </c>
       <c r="O4">
-        <v>-0.8367544564577796</v>
+        <v>-0.7639127402164156</v>
       </c>
       <c r="P4">
-        <v>0.01103159142619327</v>
+        <v>0.01237142471944729</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1813</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.6163724183728371</v>
+        <v>0.4822543437246916</v>
       </c>
       <c r="E5">
-        <v>0.8460840643634704</v>
+        <v>0.4541534800148185</v>
       </c>
       <c r="F5">
-        <v>0.002306200894402663</v>
+        <v>0.0005057539609694892</v>
       </c>
       <c r="G5">
-        <v>1.795466114717513</v>
+        <v>16.4280872679186</v>
       </c>
       <c r="H5">
-        <v>1.29597435428488</v>
+        <v>0.3467959337629987</v>
       </c>
       <c r="I5">
-        <v>1.07848480056967E-52</v>
+        <v>6.228949458644131E-41</v>
       </c>
       <c r="J5">
-        <v>35.54000091552734</v>
+        <v>25.67000007629395</v>
       </c>
       <c r="K5">
-        <v>25.22999954223633</v>
+        <v>28.36000061035156</v>
       </c>
       <c r="L5">
-        <v>2.991801769563601</v>
+        <v>1.302046126075815</v>
       </c>
       <c r="M5">
-        <v>-2.159109314161135</v>
+        <v>-1.288566474693667</v>
       </c>
       <c r="N5">
-        <v>0.9026826129970753</v>
+        <v>0.4702859973688028</v>
       </c>
       <c r="O5">
-        <v>1.047102435452288</v>
+        <v>-0.5932200848107385</v>
       </c>
       <c r="P5">
-        <v>0.01375951400428249</v>
+        <v>0.01318415747074038</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2320</v>
+        <v>2924</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.458706172023887</v>
+        <v>0.7530175221337552</v>
       </c>
       <c r="E6">
-        <v>0.7574582874865053</v>
+        <v>0.6770307443220399</v>
       </c>
       <c r="F6">
-        <v>0.009871590705698473</v>
+        <v>0.0007590029096900558</v>
       </c>
       <c r="G6">
-        <v>8.052548900890168</v>
+        <v>22.82739606223927</v>
       </c>
       <c r="H6">
-        <v>4.437776173032505</v>
+        <v>0.5600054143895816</v>
       </c>
       <c r="I6">
-        <v>8.346652596394299E-41</v>
+        <v>9.524217541232074E-67</v>
       </c>
       <c r="J6">
-        <v>19.85000038146973</v>
+        <v>50.79999923706055</v>
       </c>
       <c r="K6">
-        <v>2.490000009536743</v>
+        <v>53.59000015258789</v>
       </c>
       <c r="L6">
-        <v>1.358032040325991</v>
+        <v>5.480727588843777</v>
       </c>
       <c r="M6">
-        <v>-1.164595105363219</v>
+        <v>-2.804103741119533</v>
       </c>
       <c r="N6">
-        <v>0.4976494575315714</v>
+        <v>1.38949558848518</v>
       </c>
       <c r="O6">
-        <v>0.7473887674066901</v>
+        <v>-2.038087067766451</v>
       </c>
       <c r="P6">
-        <v>0.01378684668593647</v>
+        <v>0.01380325185304067</v>
       </c>
       <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
         <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>361</v>
+        <v>836</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4769484381386855</v>
+        <v>0.1410642023454188</v>
       </c>
       <c r="E7">
-        <v>0.8460840643634704</v>
+        <v>0.5837777328110187</v>
       </c>
       <c r="F7">
-        <v>0.003647311748397436</v>
+        <v>0.007446142061866569</v>
       </c>
       <c r="G7">
-        <v>11.18518733505896</v>
+        <v>-7.210179625864397</v>
       </c>
       <c r="H7">
-        <v>0.5503051865894971</v>
+        <v>0.5501770092279313</v>
       </c>
       <c r="I7">
-        <v>4.777572855533793E-51</v>
+        <v>1.647460898177463E-25</v>
       </c>
       <c r="J7">
-        <v>25.75</v>
+        <v>24.23999977111816</v>
       </c>
       <c r="K7">
-        <v>25.22999954223633</v>
+        <v>60.33000183105469</v>
       </c>
       <c r="L7">
-        <v>0.7443310234720286</v>
+        <v>3.782947366249516</v>
       </c>
       <c r="M7">
-        <v>-1.265449484369341</v>
+        <v>-9.334348325986127</v>
       </c>
       <c r="N7">
-        <v>0.3964183472485944</v>
+        <v>1.716711629427651</v>
       </c>
       <c r="O7">
-        <v>0.6806130591977553</v>
+        <v>-1.742000577142726</v>
       </c>
       <c r="P7">
-        <v>0.01422309530991348</v>
+        <v>0.01391316633740955</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>607</v>
+        <v>2243</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.7267741000788807</v>
+        <v>0.5001614558004539</v>
       </c>
       <c r="E8">
-        <v>0.826385921041598</v>
+        <v>0.8486211205579355</v>
       </c>
       <c r="F8">
-        <v>0.001538715792892436</v>
+        <v>0.0085723353829276</v>
       </c>
       <c r="G8">
-        <v>-8.384866795814517</v>
+        <v>8.447585056560081</v>
       </c>
       <c r="H8">
-        <v>0.3457680290783803</v>
+        <v>4.308479363259566</v>
       </c>
       <c r="I8">
-        <v>7.409659827561728E-46</v>
+        <v>8.670779021607052E-40</v>
       </c>
       <c r="J8">
-        <v>5.570000171661377</v>
+        <v>19.76000022888184</v>
       </c>
       <c r="K8">
-        <v>39.43999862670898</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="L8">
-        <v>0.7121200752022627</v>
+        <v>1.275894174171157</v>
       </c>
       <c r="M8">
-        <v>-0.648837955636095</v>
+        <v>-1.196251991412687</v>
       </c>
       <c r="N8">
-        <v>0.3000070234201255</v>
+        <v>0.5074107140376193</v>
       </c>
       <c r="O8">
-        <v>0.3177763754647014</v>
+        <v>0.7566405268915126</v>
       </c>
       <c r="P8">
-        <v>0.01431417820641026</v>
+        <v>0.01422140268410826</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4769484381386855</v>
+        <v>0.4822543437246916</v>
       </c>
       <c r="E9">
-        <v>0.4016175974583269</v>
+        <v>0.8590547493205678</v>
       </c>
       <c r="F9">
-        <v>0.001512275595747966</v>
+        <v>0.004352022770438535</v>
       </c>
       <c r="G9">
-        <v>16.64100411096873</v>
+        <v>11.31098960030201</v>
       </c>
       <c r="H9">
-        <v>0.3400035881866031</v>
+        <v>0.5468925927588085</v>
       </c>
       <c r="I9">
-        <v>3.006329586394983E-39</v>
+        <v>1.348278274467891E-50</v>
       </c>
       <c r="J9">
-        <v>25.75</v>
+        <v>25.67000007629395</v>
       </c>
       <c r="K9">
-        <v>29.13999938964844</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="L9">
-        <v>1.273210360249237</v>
+        <v>0.755805372329867</v>
       </c>
       <c r="M9">
-        <v>-1.301109123240124</v>
+        <v>-1.26448968569861</v>
       </c>
       <c r="N9">
-        <v>0.4817790815780998</v>
+        <v>0.4008507991610542</v>
       </c>
       <c r="O9">
-        <v>-0.7987084632046262</v>
+        <v>0.6538823935283506</v>
       </c>
       <c r="P9">
-        <v>0.01445763937854786</v>
+        <v>0.01461188538584351</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1832</v>
+        <v>2567</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.6813111027536422</v>
+        <v>0.3288861297152916</v>
       </c>
       <c r="E10">
-        <v>0.5554399381332957</v>
+        <v>0.6745632747857684</v>
       </c>
       <c r="F10">
-        <v>0.00458693028076365</v>
+        <v>0.009029552642094997</v>
       </c>
       <c r="G10">
-        <v>6.929571023692183</v>
+        <v>2.204692865139715</v>
       </c>
       <c r="H10">
-        <v>2.381273008641525</v>
+        <v>0.2903120396052878</v>
       </c>
       <c r="I10">
-        <v>1.122878410828401E-57</v>
+        <v>7.705043504467397E-21</v>
       </c>
       <c r="J10">
-        <v>40.29000091552734</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="K10">
-        <v>13.60000038146973</v>
+        <v>16.04000091552734</v>
       </c>
       <c r="L10">
-        <v>2.163362991892868</v>
+        <v>0.6728253300146472</v>
       </c>
       <c r="M10">
-        <v>-2.042136498640261</v>
+        <v>-0.8490352784549575</v>
       </c>
       <c r="N10">
-        <v>0.8514074040503286</v>
+        <v>0.3005070242742793</v>
       </c>
       <c r="O10">
-        <v>0.9751160659268621</v>
+        <v>-0.8112980554622791</v>
       </c>
       <c r="P10">
-        <v>0.01464904157451322</v>
+        <v>0.01537733654469144</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2644</v>
+        <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1171326589186593</v>
+        <v>0.6584220546915766</v>
       </c>
       <c r="E11">
-        <v>0.6194342933815811</v>
+        <v>0.7395983087718507</v>
       </c>
       <c r="F11">
-        <v>0.006417311918780345</v>
+        <v>0.005505693975004286</v>
       </c>
       <c r="G11">
-        <v>2.371499671042492</v>
+        <v>12.20809690119299</v>
       </c>
       <c r="H11">
-        <v>0.2806737876057897</v>
+        <v>1.139937563889504</v>
       </c>
       <c r="I11">
-        <v>1.508711204803919E-20</v>
+        <v>8.716609329079926E-52</v>
       </c>
       <c r="J11">
-        <v>6.25</v>
+        <v>35.02000045776367</v>
       </c>
       <c r="K11">
-        <v>16.47999954223633</v>
+        <v>21.28000068664551</v>
       </c>
       <c r="L11">
-        <v>0.6631351685576314</v>
+        <v>2.059016608159084</v>
       </c>
       <c r="M11">
-        <v>-0.8570036958180465</v>
+        <v>-2.506896349352225</v>
       </c>
       <c r="N11">
-        <v>0.2944691462919822</v>
+        <v>0.9233626659992106</v>
       </c>
       <c r="O11">
-        <v>-0.7470035623036422</v>
+        <v>-1.445968585730967</v>
       </c>
       <c r="P11">
-        <v>0.01475359029169729</v>
+        <v>0.01555663502300824</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,28 +70,34 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>RDOR3</t>
@@ -103,19 +109,13 @@
     <t>WEGE3</t>
   </si>
   <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>TIMS3</t>
   </si>
   <si>
     <t>VBBR3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -537,503 +537,503 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1702</v>
+        <v>1126</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6584220546915766</v>
+        <v>0.9182210635461735</v>
       </c>
       <c r="E2">
-        <v>0.719036342646888</v>
+        <v>0.8357633059289216</v>
       </c>
       <c r="F2">
-        <v>0.001552822594466942</v>
+        <v>0.008243114129361667</v>
       </c>
       <c r="G2">
-        <v>-3.202715971485078</v>
+        <v>2.954607292027498</v>
       </c>
       <c r="H2">
-        <v>0.9736689200509671</v>
+        <v>0.1644112430261407</v>
       </c>
       <c r="I2">
-        <v>6.909738218858568E-141</v>
+        <v>6.587483338245498E-65</v>
       </c>
       <c r="J2">
-        <v>35.02000045776367</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="K2">
-        <v>39.72999954223633</v>
+        <v>56.25</v>
       </c>
       <c r="L2">
-        <v>0.5194141287704213</v>
+        <v>0.8572924689953005</v>
       </c>
       <c r="M2">
-        <v>-0.6287702818484249</v>
+        <v>-0.8472203430934293</v>
       </c>
       <c r="N2">
-        <v>0.2111881640345905</v>
+        <v>0.3527990320460285</v>
       </c>
       <c r="O2">
-        <v>-0.4611493186659104</v>
+        <v>-0.6127395596600209</v>
       </c>
       <c r="P2">
-        <v>0.00668166593036848</v>
+        <v>0.0108403325944406</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2559</v>
+        <v>2636</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.3288861297152916</v>
+        <v>0.1330197979651784</v>
       </c>
       <c r="E3">
-        <v>0.4541534800148185</v>
+        <v>0.4590366753417512</v>
       </c>
       <c r="F3">
-        <v>0.002505201606995406</v>
+        <v>0.0007005797586710144</v>
       </c>
       <c r="G3">
-        <v>2.864125549120518</v>
+        <v>2.871443655033742</v>
       </c>
       <c r="H3">
-        <v>0.144527781797336</v>
+        <v>0.1443276371104014</v>
       </c>
       <c r="I3">
-        <v>2.174790632783937E-29</v>
+        <v>5.66019741397291E-30</v>
       </c>
       <c r="J3">
-        <v>6.050000190734863</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="K3">
-        <v>28.36000061035156</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="L3">
-        <v>0.6278938731657639</v>
+        <v>0.6266661701370388</v>
       </c>
       <c r="M3">
-        <v>-0.981914002065305</v>
+        <v>-0.9833358456846728</v>
       </c>
       <c r="N3">
-        <v>0.261048685447532</v>
+        <v>0.2566131327465088</v>
       </c>
       <c r="O3">
-        <v>-0.9129333383708618</v>
+        <v>-0.7158127655189381</v>
       </c>
       <c r="P3">
-        <v>0.01211126818023912</v>
+        <v>0.01123281764695218</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.704154905871492</v>
+        <v>0.7095384826598063</v>
       </c>
       <c r="E4">
-        <v>0.3720423911216659</v>
+        <v>0.3888484720430935</v>
       </c>
       <c r="F4">
-        <v>0.00090233792977281</v>
+        <v>0.0005802053765266834</v>
       </c>
       <c r="G4">
-        <v>-4.131907362945181</v>
+        <v>-4.139355056696132</v>
       </c>
       <c r="H4">
-        <v>1.234155843686925</v>
+        <v>1.234829671350899</v>
       </c>
       <c r="I4">
-        <v>9.023234177460895E-57</v>
+        <v>3.855606213629137E-57</v>
       </c>
       <c r="J4">
-        <v>9.840000152587891</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="K4">
-        <v>11.9399995803833</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="L4">
-        <v>0.7199033537986104</v>
+        <v>0.718887622477304</v>
       </c>
       <c r="M4">
-        <v>-0.8065525635378208</v>
+        <v>-0.8074495444485592</v>
       </c>
       <c r="N4">
-        <v>0.3013028461454775</v>
+        <v>0.2995776783944949</v>
       </c>
       <c r="O4">
-        <v>-0.7639127402164156</v>
+        <v>-0.6610287456943436</v>
       </c>
       <c r="P4">
-        <v>0.01237142471944729</v>
+        <v>0.01206397524990981</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.4822543437246916</v>
+        <v>0.5539964967881109</v>
       </c>
       <c r="E5">
-        <v>0.4541534800148185</v>
+        <v>0.4590366753417512</v>
       </c>
       <c r="F5">
-        <v>0.0005057539609694892</v>
+        <v>0.001019443402265425</v>
       </c>
       <c r="G5">
-        <v>16.4280872679186</v>
+        <v>16.40746934545043</v>
       </c>
       <c r="H5">
-        <v>0.3467959337629987</v>
+        <v>0.347428812713997</v>
       </c>
       <c r="I5">
-        <v>6.228949458644131E-41</v>
+        <v>1.279712124811765E-40</v>
       </c>
       <c r="J5">
-        <v>25.67000007629395</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="K5">
-        <v>28.36000061035156</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="L5">
-        <v>1.302046126075815</v>
+        <v>1.306857103711661</v>
       </c>
       <c r="M5">
-        <v>-1.288566474693667</v>
+        <v>-1.286618481279937</v>
       </c>
       <c r="N5">
-        <v>0.4702859973688028</v>
+        <v>0.474624127798724</v>
       </c>
       <c r="O5">
-        <v>-0.5932200848107385</v>
+        <v>-0.9553843404444375</v>
       </c>
       <c r="P5">
-        <v>0.01318415747074038</v>
+        <v>0.01361515028686701</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2924</v>
+        <v>3001</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7530175221337552</v>
+        <v>0.7496384267793488</v>
       </c>
       <c r="E6">
-        <v>0.6770307443220399</v>
+        <v>0.6817356946925198</v>
       </c>
       <c r="F6">
-        <v>0.0007590029096900558</v>
+        <v>0.0009613386991859661</v>
       </c>
       <c r="G6">
-        <v>22.82739606223927</v>
+        <v>22.84186351014647</v>
       </c>
       <c r="H6">
-        <v>0.5600054143895816</v>
+        <v>0.5596638846024493</v>
       </c>
       <c r="I6">
-        <v>9.524217541232074E-67</v>
+        <v>1.393969474932273E-66</v>
       </c>
       <c r="J6">
-        <v>50.79999923706055</v>
+        <v>50.54999923706055</v>
       </c>
       <c r="K6">
-        <v>53.59000015258789</v>
+        <v>53.72999954223633</v>
       </c>
       <c r="L6">
-        <v>5.480727588843777</v>
+        <v>5.479917122096708</v>
       </c>
       <c r="M6">
-        <v>-2.804103741119533</v>
+        <v>-2.799124483416449</v>
       </c>
       <c r="N6">
-        <v>1.38949558848518</v>
+        <v>1.393118024016182</v>
       </c>
       <c r="O6">
-        <v>-2.038087067766451</v>
+        <v>-2.362604536581735</v>
       </c>
       <c r="P6">
-        <v>0.01380325185304067</v>
+        <v>0.01389687014572039</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>836</v>
+        <v>2644</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.1410642023454188</v>
+        <v>0.1330197979651784</v>
       </c>
       <c r="E7">
-        <v>0.5837777328110187</v>
+        <v>0.6914808799934522</v>
       </c>
       <c r="F7">
-        <v>0.007446142061866569</v>
+        <v>0.003533267132660719</v>
       </c>
       <c r="G7">
-        <v>-7.210179625864397</v>
+        <v>2.220733064962221</v>
       </c>
       <c r="H7">
-        <v>0.5501770092279313</v>
+        <v>0.2894625228131222</v>
       </c>
       <c r="I7">
-        <v>1.647460898177463E-25</v>
+        <v>3.703790246329127E-21</v>
       </c>
       <c r="J7">
-        <v>24.23999977111816</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="K7">
-        <v>60.33000183105469</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="L7">
-        <v>3.782947366249516</v>
+        <v>0.6706334117884669</v>
       </c>
       <c r="M7">
-        <v>-9.334348325986127</v>
+        <v>-0.8510754419314512</v>
       </c>
       <c r="N7">
-        <v>1.716711629427651</v>
+        <v>0.2967067015125277</v>
       </c>
       <c r="O7">
-        <v>-1.742000577142726</v>
+        <v>-0.5845032498066267</v>
       </c>
       <c r="P7">
-        <v>0.01391316633740955</v>
+        <v>0.01430766098631909</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2243</v>
+        <v>2406</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0.5001614558004539</v>
+        <v>0.5122909228140473</v>
       </c>
       <c r="E8">
-        <v>0.8486211205579355</v>
+        <v>0.7496384267793488</v>
       </c>
       <c r="F8">
-        <v>0.0085723353829276</v>
+        <v>0.0005055945462551088</v>
       </c>
       <c r="G8">
-        <v>8.447585056560081</v>
+        <v>4.504400995920121</v>
       </c>
       <c r="H8">
-        <v>4.308479363259566</v>
+        <v>0.1172968389532992</v>
       </c>
       <c r="I8">
-        <v>8.670779021607052E-40</v>
+        <v>4.083017287923418E-56</v>
       </c>
       <c r="J8">
-        <v>19.76000022888184</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="K8">
-        <v>2.450000047683716</v>
+        <v>50.54999923706055</v>
       </c>
       <c r="L8">
-        <v>1.275894174171157</v>
+        <v>0.4781431126127487</v>
       </c>
       <c r="M8">
-        <v>-1.196251991412687</v>
+        <v>-0.6973180518260769</v>
       </c>
       <c r="N8">
-        <v>0.5074107140376193</v>
+        <v>0.2127286647723426</v>
       </c>
       <c r="O8">
-        <v>0.7566405268915126</v>
+        <v>-0.2237560773720357</v>
       </c>
       <c r="P8">
-        <v>0.01422140268410826</v>
+        <v>0.01466247316994663</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>356</v>
+        <v>789</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.4822543437246916</v>
+        <v>0.196862521629123</v>
       </c>
       <c r="E9">
-        <v>0.8590547493205678</v>
+        <v>0.7241072336787022</v>
       </c>
       <c r="F9">
-        <v>0.004352022770438535</v>
+        <v>0.003333190449510751</v>
       </c>
       <c r="G9">
-        <v>11.31098960030201</v>
+        <v>16.50147992851081</v>
       </c>
       <c r="H9">
-        <v>0.5468925927588085</v>
+        <v>0.7325698585905707</v>
       </c>
       <c r="I9">
-        <v>1.348278274467891E-50</v>
+        <v>8.962759834868315E-36</v>
       </c>
       <c r="J9">
-        <v>25.67000007629395</v>
+        <v>33.18999862670898</v>
       </c>
       <c r="K9">
-        <v>25.05999946594238</v>
+        <v>21.5</v>
       </c>
       <c r="L9">
-        <v>0.755805372329867</v>
+        <v>1.815508211667364</v>
       </c>
       <c r="M9">
-        <v>-1.26448968569861</v>
+        <v>-1.54760459625669</v>
       </c>
       <c r="N9">
-        <v>0.4008507991610542</v>
+        <v>0.8453232962134123</v>
       </c>
       <c r="O9">
-        <v>0.6538823935283506</v>
+        <v>0.9382667385009036</v>
       </c>
       <c r="P9">
-        <v>0.01461188538584351</v>
+        <v>0.01547880528119453</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2567</v>
+        <v>1824</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3288861297152916</v>
+        <v>0.6492900160025556</v>
       </c>
       <c r="E10">
-        <v>0.6745632747857684</v>
+        <v>0.7241072336787022</v>
       </c>
       <c r="F10">
-        <v>0.009029552642094997</v>
+        <v>0.0063468003985183</v>
       </c>
       <c r="G10">
-        <v>2.204692865139715</v>
+        <v>12.2140310058966</v>
       </c>
       <c r="H10">
-        <v>0.2903120396052878</v>
+        <v>1.139660314319705</v>
       </c>
       <c r="I10">
-        <v>7.705043504467397E-21</v>
+        <v>1.238989758690692E-51</v>
       </c>
       <c r="J10">
-        <v>6.050000190734863</v>
+        <v>35.11999893188477</v>
       </c>
       <c r="K10">
-        <v>16.04000091552734</v>
+        <v>21.5</v>
       </c>
       <c r="L10">
-        <v>0.6728253300146472</v>
+        <v>2.059485618972147</v>
       </c>
       <c r="M10">
-        <v>-0.8490352784549575</v>
+        <v>-2.506611746120626</v>
       </c>
       <c r="N10">
-        <v>0.3005070242742793</v>
+        <v>0.9252299100225015</v>
       </c>
       <c r="O10">
-        <v>-0.8112980554622791</v>
+        <v>-1.596728831885482</v>
       </c>
       <c r="P10">
-        <v>0.01537733654469144</v>
+        <v>0.01572603171939744</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
         <v>32</v>
@@ -1041,55 +1041,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1747</v>
+        <v>1697</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.6584220546915766</v>
+        <v>0.4542602613625357</v>
       </c>
       <c r="E11">
-        <v>0.7395983087718507</v>
+        <v>0.7566300984488459</v>
       </c>
       <c r="F11">
-        <v>0.005505693975004286</v>
+        <v>0.003938866492094281</v>
       </c>
       <c r="G11">
-        <v>12.20809690119299</v>
+        <v>4.008270042067313</v>
       </c>
       <c r="H11">
-        <v>1.139937563889504</v>
+        <v>0.2311915984562384</v>
       </c>
       <c r="I11">
-        <v>8.716609329079926E-52</v>
+        <v>6.754006188566747E-57</v>
       </c>
       <c r="J11">
-        <v>35.02000045776367</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="K11">
-        <v>21.28000068664551</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="L11">
-        <v>2.059016608159084</v>
+        <v>0.6089312760922239</v>
       </c>
       <c r="M11">
-        <v>-2.506896349352225</v>
+        <v>-0.4111838077086034</v>
       </c>
       <c r="N11">
-        <v>0.9233626659992106</v>
+        <v>0.2429407335383913</v>
       </c>
       <c r="O11">
-        <v>-1.445968585730967</v>
+        <v>-0.2833544717826397</v>
       </c>
       <c r="P11">
-        <v>0.01555663502300824</v>
+        <v>0.01574705881999207</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
         <v>33</v>
